--- a/DatabasePrep/GeneratorInfo/generator_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="15880" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="15880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Chart_revise" sheetId="4" r:id="rId1"/>
@@ -24,6 +24,268 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
   <si>
+    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost Declination Rate (%/yr)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
+  </si>
+  <si>
+    <t>Geothermal_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_4_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_5_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_6_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, outage rates from Mathias</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>overnight_cost_change</t>
+  </si>
+  <si>
+    <t>intermittent</t>
+  </si>
+  <si>
+    <t>resource_limited</t>
+  </si>
+  <si>
+    <t>baseload</t>
+  </si>
+  <si>
+    <t>min_build_capacity</t>
+  </si>
+  <si>
+    <t>startup_fuel_mbtu</t>
+  </si>
+  <si>
+    <t>nonfuel_startup_cost</t>
+  </si>
+  <si>
+    <t>$year_of_costs</t>
+  </si>
+  <si>
+    <t>cost_for_which_year?</t>
+  </si>
+  <si>
+    <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT</t>
+  </si>
+  <si>
+    <t>ReEDs Sheet</t>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Distributed_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_cost_multipulier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var_o_m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overnight_cost_$2007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m_$2007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var_o_m_$2007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_time_years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forced_outage_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduled_outage_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>connect_cost_generic_$2007_per_mw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_and_dollar_year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_ramp_rate_mw_per_hour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>DOE Solar Program Costs, took 2020 value for fixed O+M, 10% added to capital costs to go from utility to distributed, but also assumed a 5% declination rate, , outage rates from Mathias</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overnight_cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Solid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest_between_price_year_and_cost_year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Residential_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geothermal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compressed_Air_Energy_Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>source - all dispatch data from TEPPC_Generator_Categories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_age_years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, assumed to run for 40 years, not 60</t>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>tech_name_again</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Vision Study (see PV_Cost_Calc.xlsx) for costs, ReEDs sheet for construction cost multiplier and cost fractions, Matthias for forced outage rate </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Compressed_Air_Energy_storage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -141,275 +403,17 @@
   <si>
     <t>min_downtime_hours</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>ReEDs Sheet</t>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Distributed_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Central_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction_cost_multipulier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_o_m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_o_m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overnight_cost_$2007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_o_m_$2007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_o_m_$2007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction_time_years</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>forced_outage_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scheduled_outage_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>connect_cost_generic_$2007_per_mw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>price_and_dollar_year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_ramp_rate_mw_per_hour</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Uranium</t>
-  </si>
-  <si>
-    <t>DOE Solar Program Costs, took 2020 value for fixed O+M, 10% added to capital costs to go from utility to distributed, but also assumed a 5% declination rate, , outage rates from Mathias</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overnight_cost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Solid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uranium</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>interest_between_price_year_and_cost_year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Residential_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geothermal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compressed_Air_Energy_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>source - all dispatch data from TEPPC_Generator_Categories</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>technology_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_age_years</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, assumed to run for 40 years, not 60</t>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
-    <t>tech_name_again</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar Vision Study (see PV_Cost_Calc.xlsx) for costs, ReEDs sheet for construction cost multiplier and cost fractions, Matthias for forced outage rate </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost Declination Rate (%/yr)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
-  </si>
-  <si>
-    <t>Geothermal_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_4_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_5_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_6_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, outage rates from Mathias</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>overnight_cost_change</t>
-  </si>
-  <si>
-    <t>intermittent</t>
-  </si>
-  <si>
-    <t>resource_limited</t>
-  </si>
-  <si>
-    <t>baseload</t>
-  </si>
-  <si>
-    <t>min_build_capacity</t>
-  </si>
-  <si>
-    <t>startup_fuel_mbtu</t>
-  </si>
-  <si>
-    <t>nonfuel_startup_cost</t>
-  </si>
-  <si>
-    <t>$year_of_costs</t>
-  </si>
-  <si>
-    <t>cost_for_which_year?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
@@ -1325,7 +1329,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>Gas_Combustion_Turbine_EP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1401,11 +1405,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="547111704"/>
-        <c:axId val="547120808"/>
+        <c:axId val="495116376"/>
+        <c:axId val="495125400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="547111704"/>
+        <c:axId val="495116376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,14 +1443,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547120808"/>
+        <c:crossAx val="495125400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="547120808"/>
+        <c:axId val="495125400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7.0"/>
@@ -1482,7 +1486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547111704"/>
+        <c:crossAx val="495116376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1866,11 +1870,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AP57"/>
+  <dimension ref="A1:AP56"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1901,130 +1905,130 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="AP1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -2032,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5">
         <v>2007</v>
@@ -2041,7 +2045,7 @@
         <v>2010</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>2004</v>
@@ -2156,7 +2160,7 @@
         <v>CCGT</v>
       </c>
       <c r="AP2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -2164,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5">
         <v>2007</v>
@@ -2173,7 +2177,7 @@
         <v>2010</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>2004</v>
@@ -2288,7 +2292,7 @@
         <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="AP3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -2296,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5">
         <v>2007</v>
@@ -2305,7 +2309,7 @@
         <v>2010</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <v>2004</v>
@@ -2420,7 +2424,7 @@
         <v>Wind</v>
       </c>
       <c r="AP4" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -2428,7 +2432,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
@@ -2437,7 +2441,7 @@
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F5">
         <v>2004</v>
@@ -2552,7 +2556,7 @@
         <v>Offshore_Wind</v>
       </c>
       <c r="AP5" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -2560,7 +2564,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5">
         <v>2007</v>
@@ -2569,7 +2573,7 @@
         <v>2010</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F6">
         <v>2009</v>
@@ -2685,7 +2689,7 @@
         <v>Residential_PV</v>
       </c>
       <c r="AP6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:42" s="11" customFormat="1">
@@ -2693,7 +2697,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="C7" s="11">
         <v>2007</v>
@@ -2702,7 +2706,7 @@
         <v>2012</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F7" s="11">
         <v>2010</v>
@@ -2813,10 +2817,10 @@
         <v>0</v>
       </c>
       <c r="AO7" s="11" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="AP7" s="11" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -2824,7 +2828,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C8" s="5">
         <v>2007</v>
@@ -2833,7 +2837,7 @@
         <v>2010</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>2007</v>
@@ -2948,7 +2952,7 @@
         <v>Bio_Gas</v>
       </c>
       <c r="AP8" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -2956,7 +2960,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="C9" s="5">
         <v>2007</v>
@@ -2965,7 +2969,7 @@
         <v>2010</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F9">
         <v>2004</v>
@@ -3080,7 +3084,7 @@
         <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="AP9" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -3088,7 +3092,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5">
         <v>2007</v>
@@ -3097,7 +3101,7 @@
         <v>2012</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <v>2007</v>
@@ -3212,7 +3216,7 @@
         <v>Biomass_IGCC</v>
       </c>
       <c r="AP10" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -3220,7 +3224,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
@@ -3229,7 +3233,7 @@
         <v>2010</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>2004</v>
@@ -3344,7 +3348,7 @@
         <v>Coal_IGCC</v>
       </c>
       <c r="AP11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -3352,7 +3356,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C12" s="5">
         <v>2007</v>
@@ -3361,7 +3365,7 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F12">
         <v>2004</v>
@@ -3476,7 +3480,7 @@
         <v>Coal_Steam_Turbine</v>
       </c>
       <c r="AP12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -3484,7 +3488,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
@@ -3493,7 +3497,7 @@
         <v>2010</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F13">
         <v>2004</v>
@@ -3608,7 +3612,7 @@
         <v>Nuclear</v>
       </c>
       <c r="AP13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -3616,7 +3620,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5">
         <v>2007</v>
@@ -3625,7 +3629,7 @@
         <v>2010</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F14">
         <v>2004</v>
@@ -3740,7 +3744,7 @@
         <v>Geothermal</v>
       </c>
       <c r="AP14" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -3748,7 +3752,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="C15" s="5">
         <v>2007</v>
@@ -3757,7 +3761,7 @@
         <v>2010</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="F15" s="5">
         <v>2004</v>
@@ -3872,7 +3876,7 @@
         <v>Hydro_NonPumped</v>
       </c>
       <c r="AP15" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -3880,7 +3884,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="C16" s="5">
         <v>2007</v>
@@ -3889,7 +3893,7 @@
         <v>2010</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="F16" s="5">
         <v>2004</v>
@@ -4004,31 +4008,37 @@
         <v>Hydro_Pumped</v>
       </c>
       <c r="AP16" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:42" s="19" customFormat="1">
-      <c r="A17" s="19">
+    <row r="17" spans="1:42" s="18" customFormat="1">
+      <c r="A17" s="18">
         <v>17</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>87</v>
+      <c r="B17" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:42" s="5" customFormat="1">
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>12</v>
+      <c r="B18" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G18" s="11"/>
       <c r="M18" s="11"/>
@@ -4045,13 +4055,13 @@
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>13</v>
+      <c r="B19" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G19" s="11"/>
       <c r="M19" s="11"/>
@@ -4068,13 +4078,13 @@
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>84</v>
+      <c r="B20" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G20" s="11"/>
       <c r="M20" s="11"/>
@@ -4092,12 +4102,12 @@
         <v>21</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G21" s="11"/>
       <c r="M21" s="11"/>
@@ -4114,13 +4124,13 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>14</v>
+      <c r="B22" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G22" s="11"/>
       <c r="M22" s="11"/>
@@ -4133,15 +4143,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42" s="19" customFormat="1">
-      <c r="A23" s="19">
+    <row r="23" spans="1:42" s="18" customFormat="1">
+      <c r="A23" s="18">
         <v>23</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>88</v>
+      <c r="B23" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:42" s="8" customFormat="1">
@@ -4149,7 +4165,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C24" s="8">
         <v>2007</v>
@@ -4158,7 +4174,7 @@
         <v>2010</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F24" s="8">
         <v>2009</v>
@@ -4269,10 +4285,10 @@
         <v>0</v>
       </c>
       <c r="AO24" s="9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AP24" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:42" s="8" customFormat="1">
@@ -4280,7 +4296,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C25" s="8">
         <v>2007</v>
@@ -4289,7 +4305,7 @@
         <v>2010</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F25" s="8">
         <v>2009</v>
@@ -4400,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="AO25" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AP25" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:42" s="5" customFormat="1">
@@ -4411,7 +4427,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="C26" s="5">
         <v>2007</v>
@@ -4420,7 +4436,7 @@
         <v>2010</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F26" s="5">
         <v>2010</v>
@@ -4531,10 +4547,10 @@
         <v>0</v>
       </c>
       <c r="AO26" s="9" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="AP26" s="9" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:42" s="9" customFormat="1">
@@ -4542,7 +4558,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C27" s="9">
         <v>2007</v>
@@ -4551,7 +4567,7 @@
         <v>2010</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F27" s="9">
         <v>2010</v>
@@ -4662,10 +4678,10 @@
         <v>1</v>
       </c>
       <c r="AO27" s="14" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AP27" s="14" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:42" s="5" customFormat="1">
@@ -4675,12 +4691,12 @@
     </row>
     <row r="29" spans="1:42" s="6" customFormat="1">
       <c r="A29" s="6" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="B30">
         <v>2010</v>
@@ -4697,8 +4713,8 @@
       <c r="F30">
         <v>2026</v>
       </c>
-      <c r="H30" t="s">
-        <v>80</v>
+      <c r="G30" t="s">
+        <v>1</v>
       </c>
       <c r="S30" s="5"/>
       <c r="Y30"/>
@@ -4728,9 +4744,8 @@
         <f t="shared" si="10"/>
         <v>0.84732302571340368</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="2">
-        <f t="shared" ref="H31:H45" si="11">-P2*100</f>
+      <c r="G31" s="2">
+        <f>-P2*100</f>
         <v>1.35</v>
       </c>
       <c r="S31" s="5"/>
@@ -4761,9 +4776,8 @@
         <f t="shared" si="10"/>
         <v>0.5373949539554197</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="2">
-        <f t="shared" si="11"/>
+      <c r="G32" s="2">
+        <f t="shared" ref="G32:G56" si="11">-P3*100</f>
         <v>1.44</v>
       </c>
       <c r="S32" s="5"/>
@@ -4794,8 +4808,7 @@
         <f t="shared" si="10"/>
         <v>1.6980921160796985</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="2">
+      <c r="G33" s="2">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
@@ -4827,8 +4840,7 @@
         <f t="shared" si="10"/>
         <v>2.8495848614886108</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="2">
+      <c r="G34" s="2">
         <f t="shared" si="11"/>
         <v>1.3</v>
       </c>
@@ -4860,8 +4872,7 @@
         <f t="shared" si="10"/>
         <v>2.1545565356234837</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="2">
+      <c r="G35" s="2">
         <f t="shared" si="11"/>
         <v>4.3999999999999995</v>
       </c>
@@ -4893,8 +4904,7 @@
         <f t="shared" si="10"/>
         <v>3.2883466482033623</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="2">
+      <c r="G36" s="2">
         <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
@@ -4926,8 +4936,7 @@
         <f t="shared" si="10"/>
         <v>1.9585533298471325</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="2">
+      <c r="G37" s="2">
         <f t="shared" si="11"/>
         <v>1.44</v>
       </c>
@@ -4959,8 +4968,7 @@
         <f t="shared" si="10"/>
         <v>2.8940804939190024</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="2">
+      <c r="G38" s="2">
         <f t="shared" si="11"/>
         <v>0.54999999999999993</v>
       </c>
@@ -4992,8 +5000,7 @@
         <f t="shared" si="10"/>
         <v>2.858765685081833</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="2">
+      <c r="G39" s="2">
         <f t="shared" si="11"/>
         <v>1.48</v>
       </c>
@@ -5025,8 +5032,7 @@
         <f t="shared" si="10"/>
         <v>2.1906568125359844</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="2">
+      <c r="G40" s="2">
         <f t="shared" si="11"/>
         <v>1.48</v>
       </c>
@@ -5058,8 +5064,7 @@
         <f t="shared" si="10"/>
         <v>1.8686997855157279</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="2">
+      <c r="G41" s="2">
         <f t="shared" si="11"/>
         <v>1.1900000000000002</v>
       </c>
@@ -5091,8 +5096,7 @@
         <f t="shared" si="10"/>
         <v>3.1349761419194406</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="2">
+      <c r="G42" s="2">
         <f t="shared" si="11"/>
         <v>1.48</v>
       </c>
@@ -5124,8 +5128,7 @@
         <f t="shared" si="10"/>
         <v>3.1247016636575049</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="2">
+      <c r="G43" s="2">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -5157,8 +5160,7 @@
         <f t="shared" si="10"/>
         <v>2.3773825018890866</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="2">
+      <c r="G44" s="2">
         <f t="shared" si="11"/>
         <v>0.77</v>
       </c>
@@ -5190,8 +5192,7 @@
         <f t="shared" si="10"/>
         <v>3.6707659988132098</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="2">
+      <c r="G45" s="2">
         <f t="shared" si="11"/>
         <v>1.44</v>
       </c>
@@ -5199,370 +5200,333 @@
       <c r="Y45"/>
     </row>
     <row r="46" spans="1:25">
-      <c r="A46" s="8" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B46" s="1" t="e">
-        <f>#REF!*(1+#REF!)^(B$30-2007)/1000000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C46" s="1" t="e">
-        <f>#REF!*(1+#REF!)^(C$30-2007)/1000000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D46" s="1" t="e">
-        <f>#REF!*(1+#REF!)^(D$30-2007)/1000000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E46" s="1" t="e">
-        <f>#REF!*(1+#REF!)^(E$30-2007)/1000000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F46" s="1" t="e">
-        <f>#REF!*(1+#REF!)^(F$30-2007)/1000000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="2" t="e">
-        <f>-#REF!*100</f>
-        <v>#REF!</v>
+      <c r="A46" s="20" t="str">
+        <f t="shared" ref="A46:A56" si="12">B17</f>
+        <v>Gas_Combustion_Turbine_EP</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" ref="B46:F46" si="13">$M17*(1+$P17)^(B$30-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:25">
-      <c r="A47" s="8" t="str">
-        <f>B18</f>
+      <c r="A47" s="20" t="str">
+        <f t="shared" si="12"/>
         <v>Coal_Steam_Turbine_EP</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" ref="B47:F51" si="12">$M18*(1+$P18)^(B$30-2007)/1000000</f>
+        <f t="shared" ref="B47:F47" si="14">$M18*(1+$P18)^(B$30-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="2">
-        <f>-P18*100</f>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:25">
-      <c r="A48" s="8" t="str">
-        <f>B19</f>
+      <c r="A48" s="20" t="str">
+        <f t="shared" si="12"/>
         <v>Gas_Steam_Turbine_EP</v>
       </c>
       <c r="B48" s="1">
+        <f t="shared" ref="B48:F48" si="15">$M19*(1+$P19)^(B$30-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="20" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C48" s="1">
+        <v>CCGT_EP</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" ref="B49:F49" si="16">$M20*(1+$P20)^(B$30-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="20" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
+        <v>Geothermal_EP</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" ref="B50:F50" si="17">$M21*(1+$P21)^(B$30-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="20" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
+        <v>Nuclear_EP</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" ref="B51:F51" si="18">$M22*(1+$P22)^(B$30-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="20" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
+        <v>Wind_EP</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" ref="B52:F52" si="19">$M23*(1+$P23)^(B$30-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="20" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="2">
-        <f>-P19*100</f>
-        <v>0</v>
+        <v>Commercial_PV</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" ref="B53:F53" si="20">$M24*(1+$P24)^(B$30-2007)/1000000</f>
+        <v>4.1718955072971022</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="20"/>
+        <v>3.4846967579028645</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="20"/>
+        <v>2.9106940653952389</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="20"/>
+        <v>2.4312416634570249</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="20"/>
+        <v>2.0307651348190192</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="11"/>
+        <v>4.3999999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="8" t="str">
-        <f>B20</f>
-        <v>CCGT_EP</v>
-      </c>
-      <c r="B49" s="1">
+    <row r="54" spans="1:7">
+      <c r="A54" s="20" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C49" s="1">
+        <v>Central_PV</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" ref="B54:F54" si="21">$M25*(1+$P25)^(B$30-2007)/1000000</f>
+        <v>3.9491243879754125</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="21"/>
+        <v>3.298620717432323</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="21"/>
+        <v>2.7552686541362692</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="21"/>
+        <v>2.3014180794860186</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="21"/>
+        <v>1.9223262198529554</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="11"/>
+        <v>4.3999999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="20" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
+        <v>CSP_Trough_No_Storage</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" ref="B55:F55" si="22">$M26*(1+$P26)^(B$30-2007)/1000000</f>
+        <v>4.2780161826030145</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="22"/>
+        <v>3.8659914201161327</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="22"/>
+        <v>3.4936496316190953</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="22"/>
+        <v>3.1571688661806681</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="22"/>
+        <v>2.8530952730257311</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="20" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="2">
-        <f>-P20*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="8" t="str">
-        <f>B21</f>
-        <v>Geothermal_EP</v>
-      </c>
-      <c r="B50" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C50" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="2">
-        <f>-P21*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="8" t="str">
-        <f>B22</f>
-        <v>Nuclear_EP</v>
-      </c>
-      <c r="B51" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="C51" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="2">
-        <f>-P22*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="8" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B52" s="1" t="e">
-        <f>#REF!*(1+#REF!)^(B$30-2007)/1000000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C52" s="1" t="e">
-        <f>#REF!*(1+#REF!)^(C$30-2007)/1000000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D52" s="1" t="e">
-        <f>#REF!*(1+#REF!)^(D$30-2007)/1000000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E52" s="1" t="e">
-        <f>#REF!*(1+#REF!)^(E$30-2007)/1000000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F52" s="1" t="e">
-        <f>#REF!*(1+#REF!)^(F$30-2007)/1000000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="2" t="e">
-        <f>-#REF!*100</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="8" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B53" s="1" t="e">
-        <f>#REF!*(1+#REF!)^(B$30-2007)/1000000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C53" s="1" t="e">
-        <f>#REF!*(1+#REF!)^(C$30-2007)/1000000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D53" s="1" t="e">
-        <f>#REF!*(1+#REF!)^(D$30-2007)/1000000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E53" s="1" t="e">
-        <f>#REF!*(1+#REF!)^(E$30-2007)/1000000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F53" s="1" t="e">
-        <f>#REF!*(1+#REF!)^(F$30-2007)/1000000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="2" t="e">
-        <f>-#REF!*100</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="8" t="str">
-        <f>B24</f>
-        <v>Commercial_PV</v>
-      </c>
-      <c r="B54" s="1">
-        <f t="shared" ref="B54:F57" si="13">$M24*(1+$P24)^(B$30-2007)/1000000</f>
-        <v>4.1718955072971022</v>
-      </c>
-      <c r="C54" s="1">
-        <f t="shared" si="13"/>
-        <v>3.4846967579028645</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="13"/>
-        <v>2.9106940653952389</v>
-      </c>
-      <c r="E54" s="1">
-        <f t="shared" si="13"/>
-        <v>2.4312416634570249</v>
-      </c>
-      <c r="F54" s="1">
-        <f t="shared" si="13"/>
-        <v>2.0307651348190192</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="2">
-        <f t="shared" ref="H54:H55" si="14">-P24*100</f>
-        <v>4.3999999999999995</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="8" t="str">
-        <f>B25</f>
-        <v>Central_PV</v>
-      </c>
-      <c r="B55" s="1">
-        <f t="shared" si="13"/>
-        <v>3.9491243879754125</v>
-      </c>
-      <c r="C55" s="1">
-        <f t="shared" si="13"/>
-        <v>3.298620717432323</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="13"/>
-        <v>2.7552686541362692</v>
-      </c>
-      <c r="E55" s="1">
-        <f t="shared" si="13"/>
-        <v>2.3014180794860186</v>
-      </c>
-      <c r="F55" s="1">
-        <f t="shared" si="13"/>
-        <v>1.9223262198529554</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="2">
-        <f t="shared" si="14"/>
-        <v>4.3999999999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="9" t="str">
-        <f>B26</f>
-        <v>CSP_Trough_No_Storage</v>
+        <v>Compressed_Air_Energy_Storage</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" si="13"/>
-        <v>4.2780161826030145</v>
+        <f t="shared" ref="B56:F56" si="23">$M27*(1+$P27)^(B$30-2007)/1000000</f>
+        <v>1.3974549825990654</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="13"/>
-        <v>3.8659914201161327</v>
+        <f t="shared" si="23"/>
+        <v>1.3907592630373287</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="13"/>
-        <v>3.4936496316190953</v>
+        <f t="shared" si="23"/>
+        <v>1.384095625124738</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="13"/>
-        <v>3.1571688661806681</v>
+        <f t="shared" si="23"/>
+        <v>1.3774639151463415</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="13"/>
-        <v>2.8530952730257311</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="2">
-        <f>-P26*100</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="17" t="str">
-        <f>B27</f>
-        <v>Compressed_Air_Energy_Storage</v>
-      </c>
-      <c r="B57" s="1">
-        <f t="shared" si="13"/>
-        <v>1.3974549825990654</v>
-      </c>
-      <c r="C57" s="1">
-        <f t="shared" si="13"/>
-        <v>1.3907592630373287</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="13"/>
-        <v>1.384095625124738</v>
-      </c>
-      <c r="E57" s="1">
-        <f t="shared" si="13"/>
-        <v>1.3774639151463415</v>
-      </c>
-      <c r="F57" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.3708639801236917</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="11"/>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -5584,8 +5548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5829,8 +5793,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="5">
-        <f>'generator_costs_04-08-2010'!AF2</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="5">
         <f>'generator_costs_04-08-2010'!AG2</f>
@@ -7035,8 +6998,7 @@
         <v>1</v>
       </c>
       <c r="Y11" s="11">
-        <f>'generator_costs_04-08-2010'!AF11</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="11">
         <f>'generator_costs_04-08-2010'!AG11</f>
@@ -7169,8 +7131,7 @@
         <v>1</v>
       </c>
       <c r="Y12" s="11">
-        <f>'generator_costs_04-08-2010'!AF12</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="11">
         <f>'generator_costs_04-08-2010'!AG12</f>
@@ -7742,1475 +7703,1475 @@
       </c>
     </row>
     <row r="17" spans="1:33">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <f>'generator_costs_04-08-2010'!A17</f>
         <v>17</v>
       </c>
-      <c r="B17" s="20" t="str">
+      <c r="B17" s="19" t="str">
         <f>'generator_costs_04-08-2010'!B17</f>
         <v>Gas_Combustion_Turbine_EP</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <f>'generator_costs_04-08-2010'!C17</f>
         <v>0</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <f>'generator_costs_04-08-2010'!D17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="20" t="str">
+      <c r="E17" s="19" t="str">
         <f>'generator_costs_04-08-2010'!E17</f>
         <v>Gas</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <f>'generator_costs_04-08-2010'!M17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <f>'generator_costs_04-08-2010'!N17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <f>'generator_costs_04-08-2010'!O17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <f>'generator_costs_04-08-2010'!P17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="19">
         <f>'generator_costs_04-08-2010'!Q17</f>
         <v>0</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="19">
         <f>'generator_costs_04-08-2010'!R17</f>
         <v>0</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="19">
         <f>'generator_costs_04-08-2010'!S17</f>
         <v>0</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="19">
         <f>'generator_costs_04-08-2010'!T17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="19">
         <f>'generator_costs_04-08-2010'!U17</f>
         <v>0</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="19">
         <f>'generator_costs_04-08-2010'!V17</f>
         <v>0</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17" s="19">
         <f>'generator_costs_04-08-2010'!W17</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="19">
         <f>'generator_costs_04-08-2010'!X17</f>
         <v>0</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="19">
         <f>'generator_costs_04-08-2010'!Y17</f>
         <v>0</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="19">
         <f>'generator_costs_04-08-2010'!Z17</f>
         <v>0</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17" s="19">
         <f>'generator_costs_04-08-2010'!AA17</f>
         <v>0</v>
       </c>
-      <c r="U17" s="20">
+      <c r="U17" s="19">
         <f>'generator_costs_04-08-2010'!AB17</f>
         <v>0</v>
       </c>
-      <c r="V17" s="20">
+      <c r="V17" s="19">
         <f>'generator_costs_04-08-2010'!AC17</f>
         <v>0</v>
       </c>
-      <c r="W17" s="20">
+      <c r="W17" s="19">
         <f>'generator_costs_04-08-2010'!AD17</f>
         <v>0</v>
       </c>
-      <c r="X17" s="20">
+      <c r="X17" s="19">
         <f>'generator_costs_04-08-2010'!AE17</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="20">
+      <c r="Y17" s="19">
         <f>'generator_costs_04-08-2010'!AF17</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="20">
+      <c r="Z17" s="19">
         <f>'generator_costs_04-08-2010'!AG17</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="20">
+      <c r="AA17" s="19">
         <f>'generator_costs_04-08-2010'!AH17</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="20">
+      <c r="AB17" s="19">
         <f>'generator_costs_04-08-2010'!AI17</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="20">
+      <c r="AC17" s="19">
         <f>'generator_costs_04-08-2010'!AJ17</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="20">
+      <c r="AD17" s="19">
         <f>'generator_costs_04-08-2010'!AK17</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="20">
+      <c r="AE17" s="19">
         <f>'generator_costs_04-08-2010'!AL17</f>
         <v>0</v>
       </c>
-      <c r="AF17" s="20">
+      <c r="AF17" s="19">
         <f>'generator_costs_04-08-2010'!AM17</f>
         <v>0</v>
       </c>
-      <c r="AG17" s="20">
+      <c r="AG17" s="19">
         <f>'generator_costs_04-08-2010'!AN17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:33">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <f>'generator_costs_04-08-2010'!A18</f>
         <v>18</v>
       </c>
-      <c r="B18" s="20" t="str">
+      <c r="B18" s="19" t="str">
         <f>'generator_costs_04-08-2010'!B18</f>
         <v>Coal_Steam_Turbine_EP</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <f>'generator_costs_04-08-2010'!C18</f>
         <v>0</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <f>'generator_costs_04-08-2010'!D18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="20" t="str">
+      <c r="E18" s="19" t="str">
         <f>'generator_costs_04-08-2010'!E18</f>
         <v>Coal</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <f>'generator_costs_04-08-2010'!M18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <f>'generator_costs_04-08-2010'!N18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <f>'generator_costs_04-08-2010'!O18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <f>'generator_costs_04-08-2010'!P18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="19">
         <f>'generator_costs_04-08-2010'!Q18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="19">
         <f>'generator_costs_04-08-2010'!R18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="19">
         <f>'generator_costs_04-08-2010'!S18</f>
         <v>0</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="19">
         <f>'generator_costs_04-08-2010'!T18</f>
         <v>0</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="19">
         <f>'generator_costs_04-08-2010'!U18</f>
         <v>0</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="19">
         <f>'generator_costs_04-08-2010'!V18</f>
         <v>0</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18" s="19">
         <f>'generator_costs_04-08-2010'!W18</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="19">
         <f>'generator_costs_04-08-2010'!X18</f>
         <v>0</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="19">
         <f>'generator_costs_04-08-2010'!Y18</f>
         <v>0</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18" s="19">
         <f>'generator_costs_04-08-2010'!Z18</f>
         <v>0</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18" s="19">
         <f>'generator_costs_04-08-2010'!AA18</f>
         <v>0</v>
       </c>
-      <c r="U18" s="20">
+      <c r="U18" s="19">
         <f>'generator_costs_04-08-2010'!AB18</f>
         <v>0</v>
       </c>
-      <c r="V18" s="20">
+      <c r="V18" s="19">
         <f>'generator_costs_04-08-2010'!AC18</f>
         <v>0</v>
       </c>
-      <c r="W18" s="20">
+      <c r="W18" s="19">
         <f>'generator_costs_04-08-2010'!AD18</f>
         <v>0</v>
       </c>
-      <c r="X18" s="20">
+      <c r="X18" s="19">
         <f>'generator_costs_04-08-2010'!AE18</f>
         <v>0</v>
       </c>
-      <c r="Y18" s="20">
+      <c r="Y18" s="19">
         <f>'generator_costs_04-08-2010'!AF18</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="20">
+      <c r="Z18" s="19">
         <f>'generator_costs_04-08-2010'!AG18</f>
         <v>0</v>
       </c>
-      <c r="AA18" s="20">
+      <c r="AA18" s="19">
         <f>'generator_costs_04-08-2010'!AH18</f>
         <v>0</v>
       </c>
-      <c r="AB18" s="20">
+      <c r="AB18" s="19">
         <f>'generator_costs_04-08-2010'!AI18</f>
         <v>0</v>
       </c>
-      <c r="AC18" s="20">
+      <c r="AC18" s="19">
         <f>'generator_costs_04-08-2010'!AJ18</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="20">
+      <c r="AD18" s="19">
         <f>'generator_costs_04-08-2010'!AK18</f>
         <v>0</v>
       </c>
-      <c r="AE18" s="20">
+      <c r="AE18" s="19">
         <f>'generator_costs_04-08-2010'!AL18</f>
         <v>0</v>
       </c>
-      <c r="AF18" s="20">
+      <c r="AF18" s="19">
         <f>'generator_costs_04-08-2010'!AM18</f>
         <v>0</v>
       </c>
-      <c r="AG18" s="20">
+      <c r="AG18" s="19">
         <f>'generator_costs_04-08-2010'!AN18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:33">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <f>'generator_costs_04-08-2010'!A19</f>
         <v>19</v>
       </c>
-      <c r="B19" s="20" t="str">
+      <c r="B19" s="19" t="str">
         <f>'generator_costs_04-08-2010'!B19</f>
         <v>Gas_Steam_Turbine_EP</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <f>'generator_costs_04-08-2010'!C19</f>
         <v>0</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <f>'generator_costs_04-08-2010'!D19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="20" t="str">
+      <c r="E19" s="19" t="str">
         <f>'generator_costs_04-08-2010'!E19</f>
         <v>Gas</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="19">
         <f>'generator_costs_04-08-2010'!M19</f>
         <v>0</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <f>'generator_costs_04-08-2010'!N19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <f>'generator_costs_04-08-2010'!O19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <f>'generator_costs_04-08-2010'!P19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="19">
         <f>'generator_costs_04-08-2010'!Q19</f>
         <v>0</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="19">
         <f>'generator_costs_04-08-2010'!R19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="19">
         <f>'generator_costs_04-08-2010'!S19</f>
         <v>0</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="19">
         <f>'generator_costs_04-08-2010'!T19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="19">
         <f>'generator_costs_04-08-2010'!U19</f>
         <v>0</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="19">
         <f>'generator_costs_04-08-2010'!V19</f>
         <v>0</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="19">
         <f>'generator_costs_04-08-2010'!W19</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="19">
         <f>'generator_costs_04-08-2010'!X19</f>
         <v>0</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="19">
         <f>'generator_costs_04-08-2010'!Y19</f>
         <v>0</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19" s="19">
         <f>'generator_costs_04-08-2010'!Z19</f>
         <v>0</v>
       </c>
-      <c r="T19" s="20">
+      <c r="T19" s="19">
         <f>'generator_costs_04-08-2010'!AA19</f>
         <v>0</v>
       </c>
-      <c r="U19" s="20">
+      <c r="U19" s="19">
         <f>'generator_costs_04-08-2010'!AB19</f>
         <v>0</v>
       </c>
-      <c r="V19" s="20">
+      <c r="V19" s="19">
         <f>'generator_costs_04-08-2010'!AC19</f>
         <v>0</v>
       </c>
-      <c r="W19" s="20">
+      <c r="W19" s="19">
         <f>'generator_costs_04-08-2010'!AD19</f>
         <v>0</v>
       </c>
-      <c r="X19" s="20">
+      <c r="X19" s="19">
         <f>'generator_costs_04-08-2010'!AE19</f>
         <v>0</v>
       </c>
-      <c r="Y19" s="20">
+      <c r="Y19" s="19">
         <f>'generator_costs_04-08-2010'!AF19</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="20">
+      <c r="Z19" s="19">
         <f>'generator_costs_04-08-2010'!AG19</f>
         <v>0</v>
       </c>
-      <c r="AA19" s="20">
+      <c r="AA19" s="19">
         <f>'generator_costs_04-08-2010'!AH19</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="20">
+      <c r="AB19" s="19">
         <f>'generator_costs_04-08-2010'!AI19</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="20">
+      <c r="AC19" s="19">
         <f>'generator_costs_04-08-2010'!AJ19</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="20">
+      <c r="AD19" s="19">
         <f>'generator_costs_04-08-2010'!AK19</f>
         <v>0</v>
       </c>
-      <c r="AE19" s="20">
+      <c r="AE19" s="19">
         <f>'generator_costs_04-08-2010'!AL19</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="20">
+      <c r="AF19" s="19">
         <f>'generator_costs_04-08-2010'!AM19</f>
         <v>0</v>
       </c>
-      <c r="AG19" s="20">
+      <c r="AG19" s="19">
         <f>'generator_costs_04-08-2010'!AN19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:33">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <f>'generator_costs_04-08-2010'!A20</f>
         <v>20</v>
       </c>
-      <c r="B20" s="20" t="str">
+      <c r="B20" s="19" t="str">
         <f>'generator_costs_04-08-2010'!B20</f>
         <v>CCGT_EP</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <f>'generator_costs_04-08-2010'!C20</f>
         <v>0</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <f>'generator_costs_04-08-2010'!D20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="20" t="str">
+      <c r="E20" s="19" t="str">
         <f>'generator_costs_04-08-2010'!E20</f>
         <v>Gas</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="19">
         <f>'generator_costs_04-08-2010'!M20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="19">
         <f>'generator_costs_04-08-2010'!N20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <f>'generator_costs_04-08-2010'!O20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="19">
         <f>'generator_costs_04-08-2010'!P20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="19">
         <f>'generator_costs_04-08-2010'!Q20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="19">
         <f>'generator_costs_04-08-2010'!R20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="19">
         <f>'generator_costs_04-08-2010'!S20</f>
         <v>0</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="19">
         <f>'generator_costs_04-08-2010'!T20</f>
         <v>0</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="19">
         <f>'generator_costs_04-08-2010'!U20</f>
         <v>0</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="19">
         <f>'generator_costs_04-08-2010'!V20</f>
         <v>0</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="19">
         <f>'generator_costs_04-08-2010'!W20</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="19">
         <f>'generator_costs_04-08-2010'!X20</f>
         <v>0</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="19">
         <f>'generator_costs_04-08-2010'!Y20</f>
         <v>0</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="19">
         <f>'generator_costs_04-08-2010'!Z20</f>
         <v>0</v>
       </c>
-      <c r="T20" s="20">
+      <c r="T20" s="19">
         <f>'generator_costs_04-08-2010'!AA20</f>
         <v>0</v>
       </c>
-      <c r="U20" s="20">
+      <c r="U20" s="19">
         <f>'generator_costs_04-08-2010'!AB20</f>
         <v>0</v>
       </c>
-      <c r="V20" s="20">
+      <c r="V20" s="19">
         <f>'generator_costs_04-08-2010'!AC20</f>
         <v>0</v>
       </c>
-      <c r="W20" s="20">
+      <c r="W20" s="19">
         <f>'generator_costs_04-08-2010'!AD20</f>
         <v>0</v>
       </c>
-      <c r="X20" s="20">
+      <c r="X20" s="19">
         <f>'generator_costs_04-08-2010'!AE20</f>
         <v>0</v>
       </c>
-      <c r="Y20" s="20">
+      <c r="Y20" s="19">
         <f>'generator_costs_04-08-2010'!AF20</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="20">
+      <c r="Z20" s="19">
         <f>'generator_costs_04-08-2010'!AG20</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="20">
+      <c r="AA20" s="19">
         <f>'generator_costs_04-08-2010'!AH20</f>
         <v>0</v>
       </c>
-      <c r="AB20" s="20">
+      <c r="AB20" s="19">
         <f>'generator_costs_04-08-2010'!AI20</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="20">
+      <c r="AC20" s="19">
         <f>'generator_costs_04-08-2010'!AJ20</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="20">
+      <c r="AD20" s="19">
         <f>'generator_costs_04-08-2010'!AK20</f>
         <v>0</v>
       </c>
-      <c r="AE20" s="20">
+      <c r="AE20" s="19">
         <f>'generator_costs_04-08-2010'!AL20</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="20">
+      <c r="AF20" s="19">
         <f>'generator_costs_04-08-2010'!AM20</f>
         <v>0</v>
       </c>
-      <c r="AG20" s="20">
+      <c r="AG20" s="19">
         <f>'generator_costs_04-08-2010'!AN20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <f>'generator_costs_04-08-2010'!A21</f>
         <v>21</v>
       </c>
-      <c r="B21" s="20" t="str">
+      <c r="B21" s="19" t="str">
         <f>'generator_costs_04-08-2010'!B21</f>
         <v>Geothermal_EP</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <f>'generator_costs_04-08-2010'!C21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <f>'generator_costs_04-08-2010'!D21</f>
         <v>0</v>
       </c>
-      <c r="E21" s="20" t="str">
+      <c r="E21" s="19" t="str">
         <f>'generator_costs_04-08-2010'!E21</f>
         <v>Geothermal</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="19">
         <f>'generator_costs_04-08-2010'!M21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="19">
         <f>'generator_costs_04-08-2010'!N21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <f>'generator_costs_04-08-2010'!O21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="19">
         <f>'generator_costs_04-08-2010'!P21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="19">
         <f>'generator_costs_04-08-2010'!Q21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="19">
         <f>'generator_costs_04-08-2010'!R21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="19">
         <f>'generator_costs_04-08-2010'!S21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="19">
         <f>'generator_costs_04-08-2010'!T21</f>
         <v>0</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="19">
         <f>'generator_costs_04-08-2010'!U21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="19">
         <f>'generator_costs_04-08-2010'!V21</f>
         <v>0</v>
       </c>
-      <c r="P21" s="20">
+      <c r="P21" s="19">
         <f>'generator_costs_04-08-2010'!W21</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="Q21" s="19">
         <f>'generator_costs_04-08-2010'!X21</f>
         <v>0</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="19">
         <f>'generator_costs_04-08-2010'!Y21</f>
         <v>0</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S21" s="19">
         <f>'generator_costs_04-08-2010'!Z21</f>
         <v>0</v>
       </c>
-      <c r="T21" s="20">
+      <c r="T21" s="19">
         <f>'generator_costs_04-08-2010'!AA21</f>
         <v>0</v>
       </c>
-      <c r="U21" s="20">
+      <c r="U21" s="19">
         <f>'generator_costs_04-08-2010'!AB21</f>
         <v>0</v>
       </c>
-      <c r="V21" s="20">
+      <c r="V21" s="19">
         <f>'generator_costs_04-08-2010'!AC21</f>
         <v>0</v>
       </c>
-      <c r="W21" s="20">
+      <c r="W21" s="19">
         <f>'generator_costs_04-08-2010'!AD21</f>
         <v>0</v>
       </c>
-      <c r="X21" s="20">
+      <c r="X21" s="19">
         <f>'generator_costs_04-08-2010'!AE21</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="20">
+      <c r="Y21" s="19">
         <f>'generator_costs_04-08-2010'!AF21</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="20">
+      <c r="Z21" s="19">
         <f>'generator_costs_04-08-2010'!AG21</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="20">
+      <c r="AA21" s="19">
         <f>'generator_costs_04-08-2010'!AH21</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="20">
+      <c r="AB21" s="19">
         <f>'generator_costs_04-08-2010'!AI21</f>
         <v>0</v>
       </c>
-      <c r="AC21" s="20">
+      <c r="AC21" s="19">
         <f>'generator_costs_04-08-2010'!AJ21</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="20">
+      <c r="AD21" s="19">
         <f>'generator_costs_04-08-2010'!AK21</f>
         <v>0</v>
       </c>
-      <c r="AE21" s="20">
+      <c r="AE21" s="19">
         <f>'generator_costs_04-08-2010'!AL21</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="20">
+      <c r="AF21" s="19">
         <f>'generator_costs_04-08-2010'!AM21</f>
         <v>0</v>
       </c>
-      <c r="AG21" s="20">
+      <c r="AG21" s="19">
         <f>'generator_costs_04-08-2010'!AN21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <f>'generator_costs_04-08-2010'!A22</f>
         <v>22</v>
       </c>
-      <c r="B22" s="20" t="str">
+      <c r="B22" s="19" t="str">
         <f>'generator_costs_04-08-2010'!B22</f>
         <v>Nuclear_EP</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <f>'generator_costs_04-08-2010'!C22</f>
         <v>0</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <f>'generator_costs_04-08-2010'!D22</f>
         <v>0</v>
       </c>
-      <c r="E22" s="20" t="str">
+      <c r="E22" s="19" t="str">
         <f>'generator_costs_04-08-2010'!E22</f>
         <v>Uranium</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="19">
         <f>'generator_costs_04-08-2010'!M22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="19">
         <f>'generator_costs_04-08-2010'!N22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <f>'generator_costs_04-08-2010'!O22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="19">
         <f>'generator_costs_04-08-2010'!P22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="19">
         <f>'generator_costs_04-08-2010'!Q22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="19">
         <f>'generator_costs_04-08-2010'!R22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="19">
         <f>'generator_costs_04-08-2010'!S22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="19">
         <f>'generator_costs_04-08-2010'!T22</f>
         <v>0</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="19">
         <f>'generator_costs_04-08-2010'!U22</f>
         <v>0</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="19">
         <f>'generator_costs_04-08-2010'!V22</f>
         <v>0</v>
       </c>
-      <c r="P22" s="20">
+      <c r="P22" s="19">
         <f>'generator_costs_04-08-2010'!W22</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="20">
+      <c r="Q22" s="19">
         <f>'generator_costs_04-08-2010'!X22</f>
         <v>0</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R22" s="19">
         <f>'generator_costs_04-08-2010'!Y22</f>
         <v>0</v>
       </c>
-      <c r="S22" s="20">
+      <c r="S22" s="19">
         <f>'generator_costs_04-08-2010'!Z22</f>
         <v>0</v>
       </c>
-      <c r="T22" s="20">
+      <c r="T22" s="19">
         <f>'generator_costs_04-08-2010'!AA22</f>
         <v>0</v>
       </c>
-      <c r="U22" s="20">
+      <c r="U22" s="19">
         <f>'generator_costs_04-08-2010'!AB22</f>
         <v>0</v>
       </c>
-      <c r="V22" s="20">
+      <c r="V22" s="19">
         <f>'generator_costs_04-08-2010'!AC22</f>
         <v>0</v>
       </c>
-      <c r="W22" s="20">
+      <c r="W22" s="19">
         <f>'generator_costs_04-08-2010'!AD22</f>
         <v>0</v>
       </c>
-      <c r="X22" s="20">
+      <c r="X22" s="19">
         <f>'generator_costs_04-08-2010'!AE22</f>
         <v>0</v>
       </c>
-      <c r="Y22" s="20">
+      <c r="Y22" s="19">
         <f>'generator_costs_04-08-2010'!AF22</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="20">
+      <c r="Z22" s="19">
         <f>'generator_costs_04-08-2010'!AG22</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="20">
+      <c r="AA22" s="19">
         <f>'generator_costs_04-08-2010'!AH22</f>
         <v>0</v>
       </c>
-      <c r="AB22" s="20">
+      <c r="AB22" s="19">
         <f>'generator_costs_04-08-2010'!AI22</f>
         <v>0</v>
       </c>
-      <c r="AC22" s="20">
+      <c r="AC22" s="19">
         <f>'generator_costs_04-08-2010'!AJ22</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="20">
+      <c r="AD22" s="19">
         <f>'generator_costs_04-08-2010'!AK22</f>
         <v>0</v>
       </c>
-      <c r="AE22" s="20">
+      <c r="AE22" s="19">
         <f>'generator_costs_04-08-2010'!AL22</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="20">
+      <c r="AF22" s="19">
         <f>'generator_costs_04-08-2010'!AM22</f>
         <v>0</v>
       </c>
-      <c r="AG22" s="20">
+      <c r="AG22" s="19">
         <f>'generator_costs_04-08-2010'!AN22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <f>'generator_costs_04-08-2010'!A23</f>
         <v>23</v>
       </c>
-      <c r="B23" s="20" t="str">
+      <c r="B23" s="19" t="str">
         <f>'generator_costs_04-08-2010'!B23</f>
         <v>Wind_EP</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <f>'generator_costs_04-08-2010'!C23</f>
         <v>0</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <f>'generator_costs_04-08-2010'!D23</f>
         <v>0</v>
       </c>
-      <c r="E23" s="20" t="str">
+      <c r="E23" s="19" t="str">
         <f>'generator_costs_04-08-2010'!E23</f>
         <v>Wind</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="19">
         <f>'generator_costs_04-08-2010'!M23</f>
         <v>0</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="19">
         <f>'generator_costs_04-08-2010'!N23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <f>'generator_costs_04-08-2010'!O23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="19">
         <f>'generator_costs_04-08-2010'!P23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="19">
         <f>'generator_costs_04-08-2010'!Q23</f>
         <v>0</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="19">
         <f>'generator_costs_04-08-2010'!R23</f>
         <v>0</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="19">
         <f>'generator_costs_04-08-2010'!S23</f>
         <v>0</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="19">
         <f>'generator_costs_04-08-2010'!T23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="19">
         <f>'generator_costs_04-08-2010'!U23</f>
         <v>0</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="19">
         <f>'generator_costs_04-08-2010'!V23</f>
         <v>0</v>
       </c>
-      <c r="P23" s="20">
+      <c r="P23" s="19">
         <f>'generator_costs_04-08-2010'!W23</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="20">
+      <c r="Q23" s="19">
         <f>'generator_costs_04-08-2010'!X23</f>
         <v>0</v>
       </c>
-      <c r="R23" s="20">
+      <c r="R23" s="19">
         <f>'generator_costs_04-08-2010'!Y23</f>
         <v>0</v>
       </c>
-      <c r="S23" s="20">
+      <c r="S23" s="19">
         <f>'generator_costs_04-08-2010'!Z23</f>
         <v>0</v>
       </c>
-      <c r="T23" s="20">
+      <c r="T23" s="19">
         <f>'generator_costs_04-08-2010'!AA23</f>
         <v>0</v>
       </c>
-      <c r="U23" s="20">
+      <c r="U23" s="19">
         <f>'generator_costs_04-08-2010'!AB23</f>
         <v>0</v>
       </c>
-      <c r="V23" s="20">
+      <c r="V23" s="19">
         <f>'generator_costs_04-08-2010'!AC23</f>
         <v>0</v>
       </c>
-      <c r="W23" s="20">
+      <c r="W23" s="19">
         <f>'generator_costs_04-08-2010'!AD23</f>
         <v>0</v>
       </c>
-      <c r="X23" s="20">
+      <c r="X23" s="19">
         <f>'generator_costs_04-08-2010'!AE23</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="20">
+      <c r="Y23" s="19">
         <f>'generator_costs_04-08-2010'!AF23</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="20">
+      <c r="Z23" s="19">
         <f>'generator_costs_04-08-2010'!AG23</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="20">
+      <c r="AA23" s="19">
         <f>'generator_costs_04-08-2010'!AH23</f>
         <v>0</v>
       </c>
-      <c r="AB23" s="20">
+      <c r="AB23" s="19">
         <f>'generator_costs_04-08-2010'!AI23</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="20">
+      <c r="AC23" s="19">
         <f>'generator_costs_04-08-2010'!AJ23</f>
         <v>0</v>
       </c>
-      <c r="AD23" s="20">
+      <c r="AD23" s="19">
         <f>'generator_costs_04-08-2010'!AK23</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="20">
+      <c r="AE23" s="19">
         <f>'generator_costs_04-08-2010'!AL23</f>
         <v>0</v>
       </c>
-      <c r="AF23" s="20">
+      <c r="AF23" s="19">
         <f>'generator_costs_04-08-2010'!AM23</f>
         <v>0</v>
       </c>
-      <c r="AG23" s="20">
+      <c r="AG23" s="19">
         <f>'generator_costs_04-08-2010'!AN23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:33">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <f>'generator_costs_04-08-2010'!A24</f>
         <v>25</v>
       </c>
-      <c r="B24" s="20" t="str">
+      <c r="B24" s="19" t="str">
         <f>'generator_costs_04-08-2010'!B24</f>
         <v>Commercial_PV</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <f>'generator_costs_04-08-2010'!C24</f>
         <v>2007</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <f>'generator_costs_04-08-2010'!D24</f>
         <v>2010</v>
       </c>
-      <c r="E24" s="20" t="str">
+      <c r="E24" s="19" t="str">
         <f>'generator_costs_04-08-2010'!E24</f>
         <v>Solar</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="19">
         <f>'generator_costs_04-08-2010'!M24</f>
         <v>4774850.1365644811</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="19">
         <f>'generator_costs_04-08-2010'!N24</f>
         <v>10210.219999999999</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <f>'generator_costs_04-08-2010'!O24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="19">
         <f>'generator_costs_04-08-2010'!P24</f>
         <v>-4.3999999999999997E-2</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="19">
         <f>'generator_costs_04-08-2010'!Q24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="19">
         <f>'generator_costs_04-08-2010'!R24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="19">
         <f>'generator_costs_04-08-2010'!S24</f>
         <v>1</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="19">
         <f>'generator_costs_04-08-2010'!T24</f>
         <v>1</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N24" s="19">
         <f>'generator_costs_04-08-2010'!U24</f>
         <v>0</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="19">
         <f>'generator_costs_04-08-2010'!V24</f>
         <v>0</v>
       </c>
-      <c r="P24" s="20">
+      <c r="P24" s="19">
         <f>'generator_costs_04-08-2010'!W24</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="20">
+      <c r="Q24" s="19">
         <f>'generator_costs_04-08-2010'!X24</f>
         <v>0</v>
       </c>
-      <c r="R24" s="20">
+      <c r="R24" s="19">
         <f>'generator_costs_04-08-2010'!Y24</f>
         <v>0</v>
       </c>
-      <c r="S24" s="20">
+      <c r="S24" s="19">
         <f>'generator_costs_04-08-2010'!Z24</f>
         <v>30</v>
       </c>
-      <c r="T24" s="20">
+      <c r="T24" s="19">
         <f>'generator_costs_04-08-2010'!AA24</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="U24" s="20">
+      <c r="U24" s="19">
         <f>'generator_costs_04-08-2010'!AB24</f>
         <v>0</v>
       </c>
-      <c r="V24" s="20">
+      <c r="V24" s="19">
         <f>'generator_costs_04-08-2010'!AC24</f>
         <v>1</v>
       </c>
-      <c r="W24" s="20">
+      <c r="W24" s="19">
         <f>'generator_costs_04-08-2010'!AD24</f>
         <v>1</v>
       </c>
-      <c r="X24" s="20">
+      <c r="X24" s="19">
         <f>'generator_costs_04-08-2010'!AE24</f>
         <v>0</v>
       </c>
-      <c r="Y24" s="20">
+      <c r="Y24" s="19">
         <f>'generator_costs_04-08-2010'!AF24</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="20">
+      <c r="Z24" s="19">
         <f>'generator_costs_04-08-2010'!AG24</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="20">
+      <c r="AA24" s="19">
         <f>'generator_costs_04-08-2010'!AH24</f>
         <v>0</v>
       </c>
-      <c r="AB24" s="20">
+      <c r="AB24" s="19">
         <f>'generator_costs_04-08-2010'!AI24</f>
         <v>0</v>
       </c>
-      <c r="AC24" s="20">
+      <c r="AC24" s="19">
         <f>'generator_costs_04-08-2010'!AJ24</f>
         <v>0</v>
       </c>
-      <c r="AD24" s="20">
+      <c r="AD24" s="19">
         <f>'generator_costs_04-08-2010'!AK24</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="20">
+      <c r="AE24" s="19">
         <f>'generator_costs_04-08-2010'!AL24</f>
         <v>0</v>
       </c>
-      <c r="AF24" s="20">
+      <c r="AF24" s="19">
         <f>'generator_costs_04-08-2010'!AM24</f>
         <v>1</v>
       </c>
-      <c r="AG24" s="20">
+      <c r="AG24" s="19">
         <f>'generator_costs_04-08-2010'!AN24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:33">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <f>'generator_costs_04-08-2010'!A25</f>
         <v>26</v>
       </c>
-      <c r="B25" s="20" t="str">
+      <c r="B25" s="19" t="str">
         <f>'generator_costs_04-08-2010'!B25</f>
         <v>Central_PV</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <f>'generator_costs_04-08-2010'!C25</f>
         <v>2007</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <f>'generator_costs_04-08-2010'!D25</f>
         <v>2010</v>
       </c>
-      <c r="E25" s="20" t="str">
+      <c r="E25" s="19" t="str">
         <f>'generator_costs_04-08-2010'!E25</f>
         <v>Solar</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="19">
         <f>'generator_costs_04-08-2010'!M25</f>
         <v>4519882.4108256008</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="19">
         <f>'generator_costs_04-08-2010'!N25</f>
         <v>10210.219999999999</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <f>'generator_costs_04-08-2010'!O25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="19">
         <f>'generator_costs_04-08-2010'!P25</f>
         <v>-4.3999999999999997E-2</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="19">
         <f>'generator_costs_04-08-2010'!Q25</f>
         <v>65639</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="19">
         <f>'generator_costs_04-08-2010'!R25</f>
         <v>0</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="19">
         <f>'generator_costs_04-08-2010'!S25</f>
         <v>3</v>
       </c>
-      <c r="M25" s="20">
+      <c r="M25" s="19">
         <f>'generator_costs_04-08-2010'!T25</f>
         <v>0.8</v>
       </c>
-      <c r="N25" s="20">
+      <c r="N25" s="19">
         <f>'generator_costs_04-08-2010'!U25</f>
         <v>0.1</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="19">
         <f>'generator_costs_04-08-2010'!V25</f>
         <v>0.1</v>
       </c>
-      <c r="P25" s="20">
+      <c r="P25" s="19">
         <f>'generator_costs_04-08-2010'!W25</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="20">
+      <c r="Q25" s="19">
         <f>'generator_costs_04-08-2010'!X25</f>
         <v>0</v>
       </c>
-      <c r="R25" s="20">
+      <c r="R25" s="19">
         <f>'generator_costs_04-08-2010'!Y25</f>
         <v>0</v>
       </c>
-      <c r="S25" s="20">
+      <c r="S25" s="19">
         <f>'generator_costs_04-08-2010'!Z25</f>
         <v>30</v>
       </c>
-      <c r="T25" s="20">
+      <c r="T25" s="19">
         <f>'generator_costs_04-08-2010'!AA25</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="U25" s="20">
+      <c r="U25" s="19">
         <f>'generator_costs_04-08-2010'!AB25</f>
         <v>0</v>
       </c>
-      <c r="V25" s="20">
+      <c r="V25" s="19">
         <f>'generator_costs_04-08-2010'!AC25</f>
         <v>1</v>
       </c>
-      <c r="W25" s="20">
+      <c r="W25" s="19">
         <f>'generator_costs_04-08-2010'!AD25</f>
         <v>1</v>
       </c>
-      <c r="X25" s="20">
+      <c r="X25" s="19">
         <f>'generator_costs_04-08-2010'!AE25</f>
         <v>0</v>
       </c>
-      <c r="Y25" s="20">
+      <c r="Y25" s="19">
         <f>'generator_costs_04-08-2010'!AF25</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="20">
+      <c r="Z25" s="19">
         <f>'generator_costs_04-08-2010'!AG25</f>
         <v>0</v>
       </c>
-      <c r="AA25" s="20">
+      <c r="AA25" s="19">
         <f>'generator_costs_04-08-2010'!AH25</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="20">
+      <c r="AB25" s="19">
         <f>'generator_costs_04-08-2010'!AI25</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="20">
+      <c r="AC25" s="19">
         <f>'generator_costs_04-08-2010'!AJ25</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="20">
+      <c r="AD25" s="19">
         <f>'generator_costs_04-08-2010'!AK25</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="20">
+      <c r="AE25" s="19">
         <f>'generator_costs_04-08-2010'!AL25</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="20">
+      <c r="AF25" s="19">
         <f>'generator_costs_04-08-2010'!AM25</f>
         <v>1</v>
       </c>
-      <c r="AG25" s="20">
+      <c r="AG25" s="19">
         <f>'generator_costs_04-08-2010'!AN25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <f>'generator_costs_04-08-2010'!A26</f>
         <v>27</v>
       </c>
-      <c r="B26" s="20" t="str">
+      <c r="B26" s="19" t="str">
         <f>'generator_costs_04-08-2010'!B26</f>
         <v>CSP_Trough_No_Storage</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <f>'generator_costs_04-08-2010'!C26</f>
         <v>2007</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <f>'generator_costs_04-08-2010'!D26</f>
         <v>2010</v>
       </c>
-      <c r="E26" s="20" t="str">
+      <c r="E26" s="19" t="str">
         <f>'generator_costs_04-08-2010'!E26</f>
         <v>Solar</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="19">
         <f>'generator_costs_04-08-2010'!M26</f>
         <v>4615604.3710546866</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="19">
         <f>'generator_costs_04-08-2010'!N26</f>
         <v>42817.049999999996</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="19">
         <f>'generator_costs_04-08-2010'!O26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="19">
         <f>'generator_costs_04-08-2010'!P26</f>
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="19">
         <f>'generator_costs_04-08-2010'!Q26</f>
         <v>65639</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="19">
         <f>'generator_costs_04-08-2010'!R26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="19">
         <f>'generator_costs_04-08-2010'!S26</f>
         <v>3</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="19">
         <f>'generator_costs_04-08-2010'!T26</f>
         <v>0.8</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="19">
         <f>'generator_costs_04-08-2010'!U26</f>
         <v>0.1</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="19">
         <f>'generator_costs_04-08-2010'!V26</f>
         <v>0.1</v>
       </c>
-      <c r="P26" s="20">
+      <c r="P26" s="19">
         <f>'generator_costs_04-08-2010'!W26</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="20">
+      <c r="Q26" s="19">
         <f>'generator_costs_04-08-2010'!X26</f>
         <v>0</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="19">
         <f>'generator_costs_04-08-2010'!Y26</f>
         <v>0</v>
       </c>
-      <c r="S26" s="20">
+      <c r="S26" s="19">
         <f>'generator_costs_04-08-2010'!Z26</f>
         <v>30</v>
       </c>
-      <c r="T26" s="20">
+      <c r="T26" s="19">
         <f>'generator_costs_04-08-2010'!AA26</f>
         <v>0.05</v>
       </c>
-      <c r="U26" s="20">
+      <c r="U26" s="19">
         <f>'generator_costs_04-08-2010'!AB26</f>
         <v>0.05</v>
       </c>
-      <c r="V26" s="20">
+      <c r="V26" s="19">
         <f>'generator_costs_04-08-2010'!AC26</f>
         <v>1</v>
       </c>
-      <c r="W26" s="20">
+      <c r="W26" s="19">
         <f>'generator_costs_04-08-2010'!AD26</f>
         <v>1</v>
       </c>
-      <c r="X26" s="20">
+      <c r="X26" s="19">
         <f>'generator_costs_04-08-2010'!AE26</f>
         <v>0</v>
       </c>
-      <c r="Y26" s="20">
+      <c r="Y26" s="19">
         <f>'generator_costs_04-08-2010'!AF26</f>
         <v>0</v>
       </c>
-      <c r="Z26" s="20">
+      <c r="Z26" s="19">
         <f>'generator_costs_04-08-2010'!AG26</f>
         <v>0</v>
       </c>
-      <c r="AA26" s="20">
+      <c r="AA26" s="19">
         <f>'generator_costs_04-08-2010'!AH26</f>
         <v>0</v>
       </c>
-      <c r="AB26" s="20">
+      <c r="AB26" s="19">
         <f>'generator_costs_04-08-2010'!AI26</f>
         <v>0</v>
       </c>
-      <c r="AC26" s="20">
+      <c r="AC26" s="19">
         <f>'generator_costs_04-08-2010'!AJ26</f>
         <v>0</v>
       </c>
-      <c r="AD26" s="20">
+      <c r="AD26" s="19">
         <f>'generator_costs_04-08-2010'!AK26</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="20">
+      <c r="AE26" s="19">
         <f>'generator_costs_04-08-2010'!AL26</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="20">
+      <c r="AF26" s="19">
         <f>'generator_costs_04-08-2010'!AM26</f>
         <v>1</v>
       </c>
-      <c r="AG26" s="20">
+      <c r="AG26" s="19">
         <f>'generator_costs_04-08-2010'!AN26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:33">
-      <c r="A27" s="20">
+      <c r="A27" s="19">
         <f>'generator_costs_04-08-2010'!A27</f>
         <v>28</v>
       </c>
-      <c r="B27" s="20" t="str">
+      <c r="B27" s="19" t="str">
         <f>'generator_costs_04-08-2010'!B27</f>
         <v>Compressed_Air_Energy_Storage</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="19">
         <f>'generator_costs_04-08-2010'!C27</f>
         <v>2007</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <f>'generator_costs_04-08-2010'!D27</f>
         <v>2010</v>
       </c>
-      <c r="E27" s="20" t="str">
+      <c r="E27" s="19" t="str">
         <f>'generator_costs_04-08-2010'!E27</f>
         <v>Gas</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="19">
         <f>'generator_costs_04-08-2010'!M27</f>
         <v>1402497.9187390334</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="19">
         <f>'generator_costs_04-08-2010'!N27</f>
         <v>9949.15</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <f>'generator_costs_04-08-2010'!O27</f>
         <v>2.9914999999999998</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="19">
         <f>'generator_costs_04-08-2010'!P27</f>
         <v>-1.1999999999999999E-3</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="19">
         <f>'generator_costs_04-08-2010'!Q27</f>
         <v>91289</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="19">
         <f>'generator_costs_04-08-2010'!R27</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="19">
         <f>'generator_costs_04-08-2010'!S27</f>
         <v>6</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M27" s="19">
         <f>'generator_costs_04-08-2010'!T27</f>
         <v>0.1</v>
       </c>
-      <c r="N27" s="20">
+      <c r="N27" s="19">
         <f>'generator_costs_04-08-2010'!U27</f>
         <v>0.2</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O27" s="19">
         <f>'generator_costs_04-08-2010'!V27</f>
         <v>0.2</v>
       </c>
-      <c r="P27" s="20">
+      <c r="P27" s="19">
         <f>'generator_costs_04-08-2010'!W27</f>
         <v>0.2</v>
       </c>
-      <c r="Q27" s="20">
+      <c r="Q27" s="19">
         <f>'generator_costs_04-08-2010'!X27</f>
         <v>0.2</v>
       </c>
-      <c r="R27" s="20">
+      <c r="R27" s="19">
         <f>'generator_costs_04-08-2010'!Y27</f>
         <v>0.1</v>
       </c>
-      <c r="S27" s="20">
+      <c r="S27" s="19">
         <f>'generator_costs_04-08-2010'!Z27</f>
         <v>30</v>
       </c>
-      <c r="T27" s="20">
+      <c r="T27" s="19">
         <f>'generator_costs_04-08-2010'!AA27</f>
         <v>0.03</v>
       </c>
-      <c r="U27" s="20">
+      <c r="U27" s="19">
         <f>'generator_costs_04-08-2010'!AB27</f>
         <v>0.04</v>
       </c>
-      <c r="V27" s="20">
+      <c r="V27" s="19">
         <f>'generator_costs_04-08-2010'!AC27</f>
         <v>0</v>
       </c>
-      <c r="W27" s="20">
+      <c r="W27" s="19">
         <f>'generator_costs_04-08-2010'!AD27</f>
         <v>1</v>
       </c>
-      <c r="X27" s="20">
+      <c r="X27" s="19">
         <f>'generator_costs_04-08-2010'!AE27</f>
         <v>0</v>
       </c>
-      <c r="Y27" s="20">
+      <c r="Y27" s="19">
         <f>'generator_costs_04-08-2010'!AF27</f>
         <v>0</v>
       </c>
-      <c r="Z27" s="20">
+      <c r="Z27" s="19">
         <f>'generator_costs_04-08-2010'!AG27</f>
         <v>0</v>
       </c>
-      <c r="AA27" s="20">
+      <c r="AA27" s="19">
         <f>'generator_costs_04-08-2010'!AH27</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="20">
+      <c r="AB27" s="19">
         <f>'generator_costs_04-08-2010'!AI27</f>
         <v>0</v>
       </c>
-      <c r="AC27" s="20">
+      <c r="AC27" s="19">
         <f>'generator_costs_04-08-2010'!AJ27</f>
         <v>0</v>
       </c>
-      <c r="AD27" s="20">
+      <c r="AD27" s="19">
         <f>'generator_costs_04-08-2010'!AK27</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="20">
+      <c r="AE27" s="19">
         <f>'generator_costs_04-08-2010'!AL27</f>
         <v>0</v>
       </c>
-      <c r="AF27" s="20">
+      <c r="AF27" s="19">
         <f>'generator_costs_04-08-2010'!AM27</f>
         <v>1</v>
       </c>
-      <c r="AG27" s="20">
+      <c r="AG27" s="19">
         <f>'generator_costs_04-08-2010'!AN27</f>
         <v>1</v>
       </c>

--- a/DatabasePrep/GeneratorInfo/generator_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_costs.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="15880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="34700" windowHeight="19300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Chart_revise" sheetId="4" r:id="rId1"/>
     <sheet name="generator_costs_04-08-2010" sheetId="1" r:id="rId2"/>
     <sheet name="Cost CSV For Export" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +21,232 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
+  </si>
+  <si>
+    <t>storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offshore_Wind</t>
+  </si>
+  <si>
+    <t>Bio_Gas</t>
+  </si>
+  <si>
+    <t>year_1_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_2_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_3_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP_Trough_No_Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP_Trough_6h_Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat_rate_mbtu_per_mwh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commercial_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_build_year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_dispatch_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_runtime_hours</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_downtime_hours</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_Cogen_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>DOE Solar Program Costs, took 2020 value for fixed O+M, 10% added to capital costs to go from utility to distributed, but also assumed a 5% declination rate, , outage rates from Mathias</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overnight_cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Solid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest_between_price_year_and_cost_year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Residential_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geothermal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compressed_Air_Energy_Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>source - all dispatch data from TEPPC_Generator_Categories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_age_years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, assumed to run for 40 years, not 60</t>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>tech_name_again</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Vision Study (see PV_Cost_Calc.xlsx) for costs, ReEDs sheet for construction cost multiplier and cost fractions, Matthias for forced outage rate </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compressed_Air_Energy_storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Hydro_NonPumped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydro_Pumped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
+  </si>
+  <si>
+    <t>Biomass_IGCC</t>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
+  </si>
+  <si>
+    <t>Coal_IGCC</t>
+  </si>
+  <si>
+    <t>can_build_new</t>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuclear_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from DOE solar program costs on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -194,215 +418,6 @@
   </si>
   <si>
     <t>Gas</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Uranium</t>
-  </si>
-  <si>
-    <t>DOE Solar Program Costs, took 2020 value for fixed O+M, 10% added to capital costs to go from utility to distributed, but also assumed a 5% declination rate, , outage rates from Mathias</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overnight_cost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Solid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uranium</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>interest_between_price_year_and_cost_year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Residential_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geothermal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compressed_Air_Energy_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>source - all dispatch data from TEPPC_Generator_Categories</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>technology_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_age_years</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, assumed to run for 40 years, not 60</t>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
-    <t>tech_name_again</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar Vision Study (see PV_Cost_Calc.xlsx) for costs, ReEDs sheet for construction cost multiplier and cost fractions, Matthias for forced outage rate </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compressed_Air_Energy_storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Hydro_NonPumped</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hydro_Pumped</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
-  </si>
-  <si>
-    <t>Biomass_IGCC</t>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
-  </si>
-  <si>
-    <t>Coal_IGCC</t>
-  </si>
-  <si>
-    <t>can_build_new</t>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nuclear_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from DOE solar program costs on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
-  </si>
-  <si>
-    <t>storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offshore_Wind</t>
-  </si>
-  <si>
-    <t>Bio_Gas</t>
-  </si>
-  <si>
-    <t>year_1_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_2_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_3_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP_Trough_No_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP_Trough_6h_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>heat_rate_mbtu_per_mwh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commercial_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_build_year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_dispatch_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_runtime_hours</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_downtime_hours</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -414,7 +429,7 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -451,14 +466,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -508,7 +524,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$30</c:f>
+              <c:f>'generator_costs_04-08-2010'!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -531,7 +547,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$30:$F$30</c:f>
+              <c:f>'generator_costs_04-08-2010'!$B$34:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -559,7 +575,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$31</c:f>
+              <c:f>'generator_costs_04-08-2010'!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -582,7 +598,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$31:$F$31</c:f>
+              <c:f>'generator_costs_04-08-2010'!$B$35:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -610,7 +626,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$32</c:f>
+              <c:f>'generator_costs_04-08-2010'!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -633,7 +649,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$32:$F$32</c:f>
+              <c:f>'generator_costs_04-08-2010'!$B$36:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -701,7 +717,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$33</c:f>
+              <c:f>'generator_costs_04-08-2010'!$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -725,7 +741,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$33:$F$33</c:f>
+              <c:f>'generator_costs_04-08-2010'!$B$37:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -753,7 +769,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$34</c:f>
+              <c:f>'generator_costs_04-08-2010'!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -774,7 +790,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$34:$F$34</c:f>
+              <c:f>'generator_costs_04-08-2010'!$B$38:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -802,7 +818,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$35</c:f>
+              <c:f>'generator_costs_04-08-2010'!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -825,7 +841,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$35:$F$35</c:f>
+              <c:f>'generator_costs_04-08-2010'!$B$39:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -853,7 +869,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$36</c:f>
+              <c:f>'generator_costs_04-08-2010'!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -867,7 +883,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$36:$F$36</c:f>
+              <c:f>'generator_costs_04-08-2010'!$B$40:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -895,7 +911,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$37</c:f>
+              <c:f>'generator_costs_04-08-2010'!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -918,7 +934,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$37:$F$37</c:f>
+              <c:f>'generator_costs_04-08-2010'!$B$41:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -946,7 +962,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$38</c:f>
+              <c:f>'generator_costs_04-08-2010'!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -969,7 +985,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$38:$F$38</c:f>
+              <c:f>'generator_costs_04-08-2010'!$B$42:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -997,7 +1013,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$39</c:f>
+              <c:f>'generator_costs_04-08-2010'!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1020,7 +1036,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$39:$F$39</c:f>
+              <c:f>'generator_costs_04-08-2010'!$B$43:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1048,7 +1064,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$40</c:f>
+              <c:f>'generator_costs_04-08-2010'!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1071,7 +1087,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$40:$F$40</c:f>
+              <c:f>'generator_costs_04-08-2010'!$B$44:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1099,7 +1115,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$41</c:f>
+              <c:f>'generator_costs_04-08-2010'!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1122,7 +1138,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$41:$F$41</c:f>
+              <c:f>'generator_costs_04-08-2010'!$B$45:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1150,7 +1166,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$42</c:f>
+              <c:f>'generator_costs_04-08-2010'!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1171,7 +1187,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$42:$F$42</c:f>
+              <c:f>'generator_costs_04-08-2010'!$B$46:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1199,179 +1215,11 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$43</c:f>
+              <c:f>'generator_costs_04-08-2010'!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Geothermal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$43:$F$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.669825762045137</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.525219984415768</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.386312251402048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.252878037310924</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.124701663657505</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hydro_NonPumped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$44:$F$44</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.690364973631826</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.608453899375566</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.529036696453335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.452037436252461</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.377382501889087</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hydro_Pumped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$45:$F$45</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.629622533609614</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.368661169995165</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.12240960891972</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.890038692044511</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.67076599881321</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$46</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Gas_Combustion_Turbine_EP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'generator_costs_04-08-2010'!$B$46:$F$46</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'generator_costs_04-08-2010'!$A$47</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Coal_Steam_Turbine_EP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1386,6 +1234,174 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>3.669825762045137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.525219984415768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.386312251402048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.252878037310924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.124701663657505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'generator_costs_04-08-2010'!$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hydro_NonPumped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'generator_costs_04-08-2010'!$B$48:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.690364973631826</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.608453899375566</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.529036696453335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.452037436252461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.377382501889087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'generator_costs_04-08-2010'!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hydro_Pumped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'generator_costs_04-08-2010'!$B$49:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.629622533609614</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.368661169995165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.12240960891972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.890038692044511</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.67076599881321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'generator_costs_04-08-2010'!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gas_Combustion_Turbine_EP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'generator_costs_04-08-2010'!$B$50:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'generator_costs_04-08-2010'!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coal_Steam_Turbine_EP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'generator_costs_04-08-2010'!$B$51:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1405,11 +1421,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="495116376"/>
-        <c:axId val="495125400"/>
+        <c:axId val="522658088"/>
+        <c:axId val="522667192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="495116376"/>
+        <c:axId val="522658088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,6 +1446,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1443,14 +1460,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495125400"/>
+        <c:crossAx val="522667192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="495125400"/>
+        <c:axId val="522667192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7.0"/>
@@ -1473,6 +1490,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
@@ -1486,7 +1504,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495116376"/>
+        <c:crossAx val="522658088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1870,11 +1888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AP56"/>
+  <dimension ref="A1:AP60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A57" sqref="A57:XFD57"/>
+      <selection pane="topRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1905,130 +1923,130 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="AI1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="AN1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" t="s">
         <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN1" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -2036,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C2" s="5">
         <v>2007</v>
@@ -2045,7 +2063,7 @@
         <v>2010</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F2">
         <v>2004</v>
@@ -2160,7 +2178,7 @@
         <v>CCGT</v>
       </c>
       <c r="AP2" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -2168,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="C3" s="5">
         <v>2007</v>
@@ -2177,7 +2195,7 @@
         <v>2010</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F3">
         <v>2004</v>
@@ -2292,7 +2310,7 @@
         <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="AP3" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -2300,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="C4" s="5">
         <v>2007</v>
@@ -2309,7 +2327,7 @@
         <v>2010</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F4">
         <v>2004</v>
@@ -2424,7 +2442,7 @@
         <v>Wind</v>
       </c>
       <c r="AP4" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -2432,7 +2450,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
@@ -2441,7 +2459,7 @@
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F5">
         <v>2004</v>
@@ -2556,7 +2574,7 @@
         <v>Offshore_Wind</v>
       </c>
       <c r="AP5" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -2564,7 +2582,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5">
         <v>2007</v>
@@ -2573,7 +2591,7 @@
         <v>2010</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>2009</v>
@@ -2689,7 +2707,7 @@
         <v>Residential_PV</v>
       </c>
       <c r="AP6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:42" s="11" customFormat="1">
@@ -2697,7 +2715,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="C7" s="11">
         <v>2007</v>
@@ -2706,7 +2724,7 @@
         <v>2012</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F7" s="11">
         <v>2010</v>
@@ -2817,10 +2835,10 @@
         <v>0</v>
       </c>
       <c r="AO7" s="11" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="AP7" s="11" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -2828,7 +2846,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5">
         <v>2007</v>
@@ -2837,7 +2855,7 @@
         <v>2010</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>2007</v>
@@ -2952,7 +2970,7 @@
         <v>Bio_Gas</v>
       </c>
       <c r="AP8" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -2960,7 +2978,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5">
         <v>2007</v>
@@ -2969,7 +2987,7 @@
         <v>2010</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>2004</v>
@@ -3084,7 +3102,7 @@
         <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="AP9" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -3092,7 +3110,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5">
         <v>2007</v>
@@ -3101,7 +3119,7 @@
         <v>2012</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F10">
         <v>2007</v>
@@ -3216,7 +3234,7 @@
         <v>Biomass_IGCC</v>
       </c>
       <c r="AP10" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -3224,7 +3242,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
@@ -3233,7 +3251,7 @@
         <v>2010</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F11">
         <v>2004</v>
@@ -3348,7 +3366,7 @@
         <v>Coal_IGCC</v>
       </c>
       <c r="AP11" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -3356,7 +3374,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5">
         <v>2007</v>
@@ -3365,7 +3383,7 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F12">
         <v>2004</v>
@@ -3480,7 +3498,7 @@
         <v>Coal_Steam_Turbine</v>
       </c>
       <c r="AP12" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -3488,7 +3506,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
@@ -3497,7 +3515,7 @@
         <v>2010</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F13">
         <v>2004</v>
@@ -3612,7 +3630,7 @@
         <v>Nuclear</v>
       </c>
       <c r="AP13" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -3620,7 +3638,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5">
         <v>2007</v>
@@ -3629,7 +3647,7 @@
         <v>2010</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>2004</v>
@@ -3744,7 +3762,7 @@
         <v>Geothermal</v>
       </c>
       <c r="AP14" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -3752,7 +3770,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5">
         <v>2007</v>
@@ -3761,7 +3779,7 @@
         <v>2010</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F15" s="5">
         <v>2004</v>
@@ -3876,7 +3894,7 @@
         <v>Hydro_NonPumped</v>
       </c>
       <c r="AP15" s="5" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -3884,7 +3902,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5">
         <v>2007</v>
@@ -3893,7 +3911,7 @@
         <v>2010</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="F16" s="5">
         <v>2004</v>
@@ -4008,7 +4026,7 @@
         <v>Hydro_Pumped</v>
       </c>
       <c r="AP16" s="5" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:42" s="18" customFormat="1">
@@ -4016,10 +4034,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="AM17" s="18">
         <v>0</v>
@@ -4033,12 +4051,12 @@
         <v>18</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G18" s="11"/>
       <c r="M18" s="11"/>
@@ -4056,12 +4074,12 @@
         <v>19</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="G19" s="11"/>
       <c r="M19" s="11"/>
@@ -4079,12 +4097,12 @@
         <v>20</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="G20" s="11"/>
       <c r="M20" s="11"/>
@@ -4101,13 +4119,13 @@
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="21"/>
+      <c r="B21" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="22"/>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G21" s="11"/>
       <c r="M21" s="11"/>
@@ -4125,12 +4143,12 @@
         <v>22</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="G22" s="11"/>
       <c r="M22" s="11"/>
@@ -4148,10 +4166,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="AM23" s="18">
         <v>0</v>
@@ -4165,7 +4183,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="C24" s="8">
         <v>2007</v>
@@ -4174,7 +4192,7 @@
         <v>2010</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F24" s="8">
         <v>2009</v>
@@ -4285,10 +4303,10 @@
         <v>0</v>
       </c>
       <c r="AO24" s="9" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="AP24" s="9" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:42" s="8" customFormat="1">
@@ -4296,7 +4314,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C25" s="8">
         <v>2007</v>
@@ -4305,7 +4323,7 @@
         <v>2010</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F25" s="8">
         <v>2009</v>
@@ -4416,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="AO25" s="9" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AP25" s="9" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:42" s="5" customFormat="1">
@@ -4427,7 +4445,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C26" s="5">
         <v>2007</v>
@@ -4436,7 +4454,7 @@
         <v>2010</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F26" s="5">
         <v>2010</v>
@@ -4547,10 +4565,10 @@
         <v>0</v>
       </c>
       <c r="AO26" s="9" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="AP26" s="9" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:42" s="9" customFormat="1">
@@ -4558,7 +4576,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C27" s="9">
         <v>2007</v>
@@ -4567,7 +4585,7 @@
         <v>2010</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F27" s="9">
         <v>2010</v>
@@ -4678,203 +4696,143 @@
         <v>1</v>
       </c>
       <c r="AO27" s="14" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="AP27" s="14" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:42" s="5" customFormat="1">
-      <c r="G28" s="11"/>
-      <c r="AM28" s="12"/>
-      <c r="AN28" s="15"/>
+    <row r="28" spans="1:42" s="21" customFormat="1">
+      <c r="A28" s="21">
+        <v>29</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:42" s="6" customFormat="1">
-      <c r="A29" s="6" t="s">
-        <v>2</v>
+    <row r="29" spans="1:42" s="21" customFormat="1">
+      <c r="A29" s="21">
+        <v>30</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="21">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:42">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30">
-        <v>2010</v>
-      </c>
-      <c r="C30">
-        <v>2014</v>
-      </c>
-      <c r="D30">
-        <v>2018</v>
-      </c>
-      <c r="E30">
-        <v>2022</v>
-      </c>
-      <c r="F30">
-        <v>2026</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1</v>
-      </c>
-      <c r="S30" s="5"/>
-      <c r="Y30"/>
+    <row r="30" spans="1:42" s="21" customFormat="1">
+      <c r="A30" s="21">
+        <v>31</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM30" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:42">
-      <c r="A31" s="5" t="str">
-        <f t="shared" ref="A31:A45" si="9">B2</f>
-        <v>CCGT</v>
-      </c>
-      <c r="B31" s="1">
-        <f t="shared" ref="B31:F45" si="10">$M2*(1+$P2)^(B$30-2007)/1000000</f>
-        <v>1.0531629563645977</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="10"/>
-        <v>0.99743346069133265</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="10"/>
-        <v>0.94465296419167832</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="10"/>
-        <v>0.89466541671623157</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="10"/>
-        <v>0.84732302571340368</v>
-      </c>
-      <c r="G31" s="2">
-        <f>-P2*100</f>
-        <v>1.35</v>
-      </c>
-      <c r="S31" s="5"/>
-      <c r="Y31"/>
+    <row r="31" spans="1:42" s="21" customFormat="1">
+      <c r="A31" s="21">
+        <v>32</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM31" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:42">
-      <c r="A32" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Gas_Combustion_Turbine</v>
-      </c>
-      <c r="B32" s="1">
-        <f t="shared" si="10"/>
-        <v>0.67777019539912997</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="10"/>
-        <v>0.63956582060948919</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="10"/>
-        <v>0.60351494012068285</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="10"/>
-        <v>0.56949616632385003</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="10"/>
-        <v>0.5373949539554197</v>
-      </c>
-      <c r="G32" s="2">
-        <f t="shared" ref="G32:G56" si="11">-P3*100</f>
-        <v>1.44</v>
-      </c>
-      <c r="S32" s="5"/>
-      <c r="Y32"/>
+    <row r="32" spans="1:42" s="5" customFormat="1">
+      <c r="G32" s="11"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="15"/>
     </row>
-    <row r="33" spans="1:25">
-      <c r="A33" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Wind</v>
-      </c>
-      <c r="B33" s="1">
-        <f t="shared" si="10"/>
-        <v>1.8398904013200241</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="10"/>
-        <v>1.8033676580585525</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="10"/>
-        <v>1.767569909489366</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="10"/>
-        <v>1.7324827641057787</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="10"/>
-        <v>1.6980921160796985</v>
-      </c>
-      <c r="G33" s="2">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="S33" s="5"/>
-      <c r="Y33"/>
+    <row r="33" spans="1:25" s="6" customFormat="1">
+      <c r="A33" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
-      <c r="A34" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Offshore_Wind</v>
-      </c>
-      <c r="B34" s="1">
-        <f t="shared" si="10"/>
-        <v>3.513234607835245</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="10"/>
-        <v>3.3340780541559165</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="10"/>
-        <v>3.1640575458333862</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="10"/>
-        <v>3.0027071924324598</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="10"/>
-        <v>2.8495848614886108</v>
-      </c>
-      <c r="G34" s="2">
-        <f t="shared" si="11"/>
-        <v>1.3</v>
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34">
+        <v>2010</v>
+      </c>
+      <c r="C34">
+        <v>2014</v>
+      </c>
+      <c r="D34">
+        <v>2018</v>
+      </c>
+      <c r="E34">
+        <v>2022</v>
+      </c>
+      <c r="F34">
+        <v>2026</v>
+      </c>
+      <c r="G34" t="s">
+        <v>61</v>
       </c>
       <c r="S34" s="5"/>
       <c r="Y34"/>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Residential_PV</v>
+        <f t="shared" ref="A35:A49" si="9">B2</f>
+        <v>CCGT</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="10"/>
-        <v>4.4262059541347591</v>
+        <f>$M2*(1+$P2)^(B$34-2007)/1000000</f>
+        <v>1.0531629563645977</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="10"/>
-        <v>3.6971169367031149</v>
+        <f>$M2*(1+$P2)^(C$34-2007)/1000000</f>
+        <v>0.99743346069133265</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="10"/>
-        <v>3.0881241824927677</v>
+        <f>$M2*(1+$P2)^(D$34-2007)/1000000</f>
+        <v>0.94465296419167832</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.5794453163823263</v>
+        <f>$M2*(1+$P2)^(E$34-2007)/1000000</f>
+        <v>0.89466541671623157</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.1545565356234837</v>
+        <f>$M2*(1+$P2)^(F$34-2007)/1000000</f>
+        <v>0.84732302571340368</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="11"/>
-        <v>4.3999999999999995</v>
+        <f>-P2*100</f>
+        <v>1.35</v>
       </c>
       <c r="S35" s="5"/>
       <c r="Y35"/>
@@ -4882,31 +4840,31 @@
     <row r="36" spans="1:25">
       <c r="A36" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>CSP_Trough_6h_Storage</v>
+        <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" si="10"/>
-        <v>6.8694765926520924</v>
+        <f>$M3*(1+$P3)^(B$34-2007)/1000000</f>
+        <v>0.67777019539912997</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="10"/>
-        <v>5.7139591915048698</v>
+        <f>$M3*(1+$P3)^(C$34-2007)/1000000</f>
+        <v>0.63956582060948919</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="10"/>
-        <v>4.7528118338893828</v>
+        <f>$M3*(1+$P3)^(D$34-2007)/1000000</f>
+        <v>0.60351494012068285</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="10"/>
-        <v>3.9533394571566234</v>
+        <f>$M3*(1+$P3)^(E$34-2007)/1000000</f>
+        <v>0.56949616632385003</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="10"/>
-        <v>3.2883466482033623</v>
+        <f>$M3*(1+$P3)^(F$34-2007)/1000000</f>
+        <v>0.5373949539554197</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="11"/>
-        <v>4.5</v>
+        <f t="shared" ref="G36:G60" si="10">-P3*100</f>
+        <v>1.44</v>
       </c>
       <c r="S36" s="5"/>
       <c r="Y36"/>
@@ -4914,31 +4872,31 @@
     <row r="37" spans="1:25">
       <c r="A37" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Bio_Gas</v>
+        <v>Wind</v>
       </c>
       <c r="B37" s="1">
+        <f>$M4*(1+$P4)^(B$34-2007)/1000000</f>
+        <v>1.8398904013200241</v>
+      </c>
+      <c r="C37" s="1">
+        <f>$M4*(1+$P4)^(C$34-2007)/1000000</f>
+        <v>1.8033676580585525</v>
+      </c>
+      <c r="D37" s="1">
+        <f>$M4*(1+$P4)^(D$34-2007)/1000000</f>
+        <v>1.767569909489366</v>
+      </c>
+      <c r="E37" s="1">
+        <f>$M4*(1+$P4)^(E$34-2007)/1000000</f>
+        <v>1.7324827641057787</v>
+      </c>
+      <c r="F37" s="1">
+        <f>$M4*(1+$P4)^(F$34-2007)/1000000</f>
+        <v>1.6980921160796985</v>
+      </c>
+      <c r="G37" s="2">
         <f t="shared" si="10"/>
-        <v>2.4701554476825773</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="10"/>
-        <v>2.3309183653314354</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="10"/>
-        <v>2.1995297627672028</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="10"/>
-        <v>2.0755472389144938</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="10"/>
-        <v>1.9585533298471325</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="11"/>
-        <v>1.44</v>
+        <v>0.5</v>
       </c>
       <c r="S37" s="5"/>
       <c r="Y37"/>
@@ -4946,31 +4904,31 @@
     <row r="38" spans="1:25">
       <c r="A38" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Biomass_Steam_Turbine</v>
+        <v>Offshore_Wind</v>
       </c>
       <c r="B38" s="1">
+        <f>$M5*(1+$P5)^(B$34-2007)/1000000</f>
+        <v>3.513234607835245</v>
+      </c>
+      <c r="C38" s="1">
+        <f>$M5*(1+$P5)^(C$34-2007)/1000000</f>
+        <v>3.3340780541559165</v>
+      </c>
+      <c r="D38" s="1">
+        <f>$M5*(1+$P5)^(D$34-2007)/1000000</f>
+        <v>3.1640575458333862</v>
+      </c>
+      <c r="E38" s="1">
+        <f>$M5*(1+$P5)^(E$34-2007)/1000000</f>
+        <v>3.0027071924324598</v>
+      </c>
+      <c r="F38" s="1">
+        <f>$M5*(1+$P5)^(F$34-2007)/1000000</f>
+        <v>2.8495848614886108</v>
+      </c>
+      <c r="G38" s="2">
         <f t="shared" si="10"/>
-        <v>3.1610692256114468</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" si="10"/>
-        <v>3.0920973359134503</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="10"/>
-        <v>3.024630355228509</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="10"/>
-        <v>2.958635447699181</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="10"/>
-        <v>2.8940804939190024</v>
-      </c>
-      <c r="G38" s="2">
-        <f t="shared" si="11"/>
-        <v>0.54999999999999993</v>
+        <v>1.3</v>
       </c>
       <c r="S38" s="5"/>
       <c r="Y38"/>
@@ -4978,31 +4936,31 @@
     <row r="39" spans="1:25">
       <c r="A39" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Biomass_IGCC</v>
+        <v>Residential_PV</v>
       </c>
       <c r="B39" s="1">
+        <f>$M6*(1+$P6)^(B$34-2007)/1000000</f>
+        <v>4.4262059541347591</v>
+      </c>
+      <c r="C39" s="1">
+        <f>$M6*(1+$P6)^(C$34-2007)/1000000</f>
+        <v>3.6971169367031149</v>
+      </c>
+      <c r="D39" s="1">
+        <f>$M6*(1+$P6)^(D$34-2007)/1000000</f>
+        <v>3.0881241824927677</v>
+      </c>
+      <c r="E39" s="1">
+        <f>$M6*(1+$P6)^(E$34-2007)/1000000</f>
+        <v>2.5794453163823263</v>
+      </c>
+      <c r="F39" s="1">
+        <f>$M6*(1+$P6)^(F$34-2007)/1000000</f>
+        <v>2.1545565356234837</v>
+      </c>
+      <c r="G39" s="2">
         <f t="shared" si="10"/>
-        <v>3.6290095391050952</v>
-      </c>
-      <c r="C39" s="1">
-        <f t="shared" si="10"/>
-        <v>3.4188946800248909</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="10"/>
-        <v>3.2209451937635145</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="10"/>
-        <v>3.0344567213029081</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" si="10"/>
-        <v>2.858765685081833</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="11"/>
-        <v>1.48</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="S39" s="5"/>
       <c r="Y39"/>
@@ -5010,31 +4968,31 @@
     <row r="40" spans="1:25">
       <c r="A40" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Coal_IGCC</v>
+        <v>CSP_Trough_6h_Storage</v>
       </c>
       <c r="B40" s="1">
+        <f>$M7*(1+$P7)^(B$34-2007)/1000000</f>
+        <v>6.8694765926520924</v>
+      </c>
+      <c r="C40" s="1">
+        <f>$M7*(1+$P7)^(C$34-2007)/1000000</f>
+        <v>5.7139591915048698</v>
+      </c>
+      <c r="D40" s="1">
+        <f>$M7*(1+$P7)^(D$34-2007)/1000000</f>
+        <v>4.7528118338893828</v>
+      </c>
+      <c r="E40" s="1">
+        <f>$M7*(1+$P7)^(E$34-2007)/1000000</f>
+        <v>3.9533394571566234</v>
+      </c>
+      <c r="F40" s="1">
+        <f>$M7*(1+$P7)^(F$34-2007)/1000000</f>
+        <v>3.2883466482033623</v>
+      </c>
+      <c r="G40" s="2">
         <f t="shared" si="10"/>
-        <v>2.7808905469533363</v>
-      </c>
-      <c r="C40" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6198806573142313</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="10"/>
-        <v>2.4681930276216737</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="10"/>
-        <v>2.325287911337699</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" si="10"/>
-        <v>2.1906568125359844</v>
-      </c>
-      <c r="G40" s="2">
-        <f t="shared" si="11"/>
-        <v>1.48</v>
+        <v>4.5</v>
       </c>
       <c r="S40" s="5"/>
       <c r="Y40"/>
@@ -5042,31 +5000,31 @@
     <row r="41" spans="1:25">
       <c r="A41" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Coal_Steam_Turbine</v>
+        <v>Bio_Gas</v>
       </c>
       <c r="B41" s="1">
+        <f>$M8*(1+$P8)^(B$34-2007)/1000000</f>
+        <v>2.4701554476825773</v>
+      </c>
+      <c r="C41" s="1">
+        <f>$M8*(1+$P8)^(C$34-2007)/1000000</f>
+        <v>2.3309183653314354</v>
+      </c>
+      <c r="D41" s="1">
+        <f>$M8*(1+$P8)^(D$34-2007)/1000000</f>
+        <v>2.1995297627672028</v>
+      </c>
+      <c r="E41" s="1">
+        <f>$M8*(1+$P8)^(E$34-2007)/1000000</f>
+        <v>2.0755472389144938</v>
+      </c>
+      <c r="F41" s="1">
+        <f>$M8*(1+$P8)^(F$34-2007)/1000000</f>
+        <v>1.9585533298471325</v>
+      </c>
+      <c r="G41" s="2">
         <f t="shared" si="10"/>
-        <v>2.2632115302709024</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="10"/>
-        <v>2.1573904116387688</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="10"/>
-        <v>2.0565171774614375</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="10"/>
-        <v>1.9603604792056992</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" si="10"/>
-        <v>1.8686997855157279</v>
-      </c>
-      <c r="G41" s="2">
-        <f t="shared" si="11"/>
-        <v>1.1900000000000002</v>
+        <v>1.44</v>
       </c>
       <c r="S41" s="5"/>
       <c r="Y41"/>
@@ -5074,31 +5032,31 @@
     <row r="42" spans="1:25">
       <c r="A42" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Nuclear</v>
+        <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="B42" s="1">
+        <f>$M9*(1+$P9)^(B$34-2007)/1000000</f>
+        <v>3.1610692256114468</v>
+      </c>
+      <c r="C42" s="1">
+        <f>$M9*(1+$P9)^(C$34-2007)/1000000</f>
+        <v>3.0920973359134503</v>
+      </c>
+      <c r="D42" s="1">
+        <f>$M9*(1+$P9)^(D$34-2007)/1000000</f>
+        <v>3.024630355228509</v>
+      </c>
+      <c r="E42" s="1">
+        <f>$M9*(1+$P9)^(E$34-2007)/1000000</f>
+        <v>2.958635447699181</v>
+      </c>
+      <c r="F42" s="1">
+        <f>$M9*(1+$P9)^(F$34-2007)/1000000</f>
+        <v>2.8940804939190024</v>
+      </c>
+      <c r="G42" s="2">
         <f t="shared" si="10"/>
-        <v>3.979640018509202</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" si="10"/>
-        <v>3.7492241177879264</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="10"/>
-        <v>3.5321489933826671</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="10"/>
-        <v>3.3276422319653642</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" si="10"/>
-        <v>3.1349761419194406</v>
-      </c>
-      <c r="G42" s="2">
-        <f t="shared" si="11"/>
-        <v>1.48</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="S42" s="5"/>
       <c r="Y42"/>
@@ -5106,31 +5064,31 @@
     <row r="43" spans="1:25">
       <c r="A43" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Geothermal</v>
+        <v>Biomass_IGCC</v>
       </c>
       <c r="B43" s="1">
+        <f>$M10*(1+$P10)^(B$34-2007)/1000000</f>
+        <v>3.6290095391050952</v>
+      </c>
+      <c r="C43" s="1">
+        <f>$M10*(1+$P10)^(C$34-2007)/1000000</f>
+        <v>3.4188946800248909</v>
+      </c>
+      <c r="D43" s="1">
+        <f>$M10*(1+$P10)^(D$34-2007)/1000000</f>
+        <v>3.2209451937635145</v>
+      </c>
+      <c r="E43" s="1">
+        <f>$M10*(1+$P10)^(E$34-2007)/1000000</f>
+        <v>3.0344567213029081</v>
+      </c>
+      <c r="F43" s="1">
+        <f>$M10*(1+$P10)^(F$34-2007)/1000000</f>
+        <v>2.858765685081833</v>
+      </c>
+      <c r="G43" s="2">
         <f t="shared" si="10"/>
-        <v>3.6698257620451371</v>
-      </c>
-      <c r="C43" s="1">
-        <f t="shared" si="10"/>
-        <v>3.5252199844157683</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="10"/>
-        <v>3.3863122514020483</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="10"/>
-        <v>3.2528780373109245</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="10"/>
-        <v>3.1247016636575049</v>
-      </c>
-      <c r="G43" s="2">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="S43" s="5"/>
       <c r="Y43"/>
@@ -5138,31 +5096,31 @@
     <row r="44" spans="1:25">
       <c r="A44" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Hydro_NonPumped</v>
+        <v>Coal_IGCC</v>
       </c>
       <c r="B44" s="1">
+        <f>$M11*(1+$P11)^(B$34-2007)/1000000</f>
+        <v>2.7808905469533363</v>
+      </c>
+      <c r="C44" s="1">
+        <f>$M11*(1+$P11)^(C$34-2007)/1000000</f>
+        <v>2.6198806573142313</v>
+      </c>
+      <c r="D44" s="1">
+        <f>$M11*(1+$P11)^(D$34-2007)/1000000</f>
+        <v>2.4681930276216737</v>
+      </c>
+      <c r="E44" s="1">
+        <f>$M11*(1+$P11)^(E$34-2007)/1000000</f>
+        <v>2.325287911337699</v>
+      </c>
+      <c r="F44" s="1">
+        <f>$M11*(1+$P11)^(F$34-2007)/1000000</f>
+        <v>2.1906568125359844</v>
+      </c>
+      <c r="G44" s="2">
         <f t="shared" si="10"/>
-        <v>2.690364973631826</v>
-      </c>
-      <c r="C44" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6084538993755664</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="10"/>
-        <v>2.5290366964533346</v>
-      </c>
-      <c r="E44" s="1">
-        <f t="shared" si="10"/>
-        <v>2.4520374362524606</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" si="10"/>
-        <v>2.3773825018890866</v>
-      </c>
-      <c r="G44" s="2">
-        <f t="shared" si="11"/>
-        <v>0.77</v>
+        <v>1.48</v>
       </c>
       <c r="S44" s="5"/>
       <c r="Y44"/>
@@ -5170,367 +5128,494 @@
     <row r="45" spans="1:25">
       <c r="A45" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Hydro_Pumped</v>
+        <v>Coal_Steam_Turbine</v>
       </c>
       <c r="B45" s="1">
+        <f>$M12*(1+$P12)^(B$34-2007)/1000000</f>
+        <v>2.2632115302709024</v>
+      </c>
+      <c r="C45" s="1">
+        <f>$M12*(1+$P12)^(C$34-2007)/1000000</f>
+        <v>2.1573904116387688</v>
+      </c>
+      <c r="D45" s="1">
+        <f>$M12*(1+$P12)^(D$34-2007)/1000000</f>
+        <v>2.0565171774614375</v>
+      </c>
+      <c r="E45" s="1">
+        <f>$M12*(1+$P12)^(E$34-2007)/1000000</f>
+        <v>1.9603604792056992</v>
+      </c>
+      <c r="F45" s="1">
+        <f>$M12*(1+$P12)^(F$34-2007)/1000000</f>
+        <v>1.8686997855157279</v>
+      </c>
+      <c r="G45" s="2">
         <f t="shared" si="10"/>
-        <v>4.6296225336096137</v>
-      </c>
-      <c r="C45" s="1">
-        <f t="shared" si="10"/>
-        <v>4.3686611699951658</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="10"/>
-        <v>4.1224096089197202</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" si="10"/>
-        <v>3.8900386920445111</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="10"/>
-        <v>3.6707659988132098</v>
-      </c>
-      <c r="G45" s="2">
-        <f t="shared" si="11"/>
-        <v>1.44</v>
+        <v>1.1900000000000002</v>
       </c>
       <c r="S45" s="5"/>
       <c r="Y45"/>
     </row>
     <row r="46" spans="1:25">
-      <c r="A46" s="20" t="str">
-        <f t="shared" ref="A46:A56" si="12">B17</f>
-        <v>Gas_Combustion_Turbine_EP</v>
+      <c r="A46" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Nuclear</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" ref="B46:F46" si="13">$M17*(1+$P17)^(B$30-2007)/1000000</f>
-        <v>0</v>
+        <f>$M13*(1+$P13)^(B$34-2007)/1000000</f>
+        <v>3.979640018509202</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>$M13*(1+$P13)^(C$34-2007)/1000000</f>
+        <v>3.7492241177879264</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>$M13*(1+$P13)^(D$34-2007)/1000000</f>
+        <v>3.5321489933826671</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>$M13*(1+$P13)^(E$34-2007)/1000000</f>
+        <v>3.3276422319653642</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>$M13*(1+$P13)^(F$34-2007)/1000000</f>
+        <v>3.1349761419194406</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>1.48</v>
+      </c>
+      <c r="S46" s="5"/>
+      <c r="Y46"/>
     </row>
     <row r="47" spans="1:25">
-      <c r="A47" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>Coal_Steam_Turbine_EP</v>
+      <c r="A47" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Geothermal</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" ref="B47:F47" si="14">$M18*(1+$P18)^(B$30-2007)/1000000</f>
-        <v>0</v>
+        <f>$M14*(1+$P14)^(B$34-2007)/1000000</f>
+        <v>3.6698257620451371</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>$M14*(1+$P14)^(C$34-2007)/1000000</f>
+        <v>3.5252199844157683</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>$M14*(1+$P14)^(D$34-2007)/1000000</f>
+        <v>3.3863122514020483</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>$M14*(1+$P14)^(E$34-2007)/1000000</f>
+        <v>3.2528780373109245</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>$M14*(1+$P14)^(F$34-2007)/1000000</f>
+        <v>3.1247016636575049</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S47" s="5"/>
+      <c r="Y47"/>
     </row>
     <row r="48" spans="1:25">
-      <c r="A48" s="20" t="str">
+      <c r="A48" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Hydro_NonPumped</v>
+      </c>
+      <c r="B48" s="1">
+        <f>$M15*(1+$P15)^(B$34-2007)/1000000</f>
+        <v>2.690364973631826</v>
+      </c>
+      <c r="C48" s="1">
+        <f>$M15*(1+$P15)^(C$34-2007)/1000000</f>
+        <v>2.6084538993755664</v>
+      </c>
+      <c r="D48" s="1">
+        <f>$M15*(1+$P15)^(D$34-2007)/1000000</f>
+        <v>2.5290366964533346</v>
+      </c>
+      <c r="E48" s="1">
+        <f>$M15*(1+$P15)^(E$34-2007)/1000000</f>
+        <v>2.4520374362524606</v>
+      </c>
+      <c r="F48" s="1">
+        <f>$M15*(1+$P15)^(F$34-2007)/1000000</f>
+        <v>2.3773825018890866</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="10"/>
+        <v>0.77</v>
+      </c>
+      <c r="S48" s="5"/>
+      <c r="Y48"/>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Hydro_Pumped</v>
+      </c>
+      <c r="B49" s="1">
+        <f>$M16*(1+$P16)^(B$34-2007)/1000000</f>
+        <v>4.6296225336096137</v>
+      </c>
+      <c r="C49" s="1">
+        <f>$M16*(1+$P16)^(C$34-2007)/1000000</f>
+        <v>4.3686611699951658</v>
+      </c>
+      <c r="D49" s="1">
+        <f>$M16*(1+$P16)^(D$34-2007)/1000000</f>
+        <v>4.1224096089197202</v>
+      </c>
+      <c r="E49" s="1">
+        <f>$M16*(1+$P16)^(E$34-2007)/1000000</f>
+        <v>3.8900386920445111</v>
+      </c>
+      <c r="F49" s="1">
+        <f>$M16*(1+$P16)^(F$34-2007)/1000000</f>
+        <v>3.6707659988132098</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="10"/>
+        <v>1.44</v>
+      </c>
+      <c r="S49" s="5"/>
+      <c r="Y49"/>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" s="20" t="str">
+        <f t="shared" ref="A50:A60" si="11">B17</f>
+        <v>Gas_Combustion_Turbine_EP</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" ref="B50:F50" si="12">$M17*(1+$P17)^(B$34-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" s="20" t="str">
+        <f t="shared" si="11"/>
+        <v>Coal_Steam_Turbine_EP</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" ref="B51:F51" si="13">$M18*(1+$P18)^(B$34-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="20" t="str">
+        <f t="shared" si="11"/>
         <v>Gas_Steam_Turbine_EP</v>
       </c>
-      <c r="B48" s="1">
-        <f t="shared" ref="B48:F48" si="15">$M19*(1+$P19)^(B$30-2007)/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="1">
+      <c r="B52" s="1">
+        <f t="shared" ref="B52:F52" si="14">$M19*(1+$P19)^(B$34-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="20" t="str">
+        <f t="shared" si="11"/>
+        <v>CCGT_EP</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" ref="B53:F53" si="15">$M20*(1+$P20)^(B$34-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D53" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E53" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F53" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G53" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" s="20" t="str">
         <f t="shared" si="11"/>
+        <v>Geothermal_EP</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" ref="B54:F54" si="16">$M21*(1+$P21)^(B$34-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>CCGT_EP</v>
-      </c>
-      <c r="B49" s="1">
-        <f t="shared" ref="B49:F49" si="16">$M20*(1+$P20)^(B$30-2007)/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="C49" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="2">
+    <row r="55" spans="1:25">
+      <c r="A55" s="20" t="str">
         <f t="shared" si="11"/>
+        <v>Nuclear_EP</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" ref="B55:F55" si="17">$M22*(1+$P22)^(B$34-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>Geothermal_EP</v>
-      </c>
-      <c r="B50" s="1">
-        <f t="shared" ref="B50:F50" si="17">$M21*(1+$P21)^(B$30-2007)/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="2">
+    <row r="56" spans="1:25">
+      <c r="A56" s="20" t="str">
         <f t="shared" si="11"/>
+        <v>Wind_EP</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" ref="B56:F56" si="18">$M23*(1+$P23)^(B$34-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>Nuclear_EP</v>
-      </c>
-      <c r="B51" s="1">
-        <f t="shared" ref="B51:F51" si="18">$M22*(1+$P22)^(B$30-2007)/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="C51" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
+    <row r="57" spans="1:25">
+      <c r="A57" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>Commercial_PV</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" ref="B57:F57" si="19">$M24*(1+$P24)^(B$34-2007)/1000000</f>
+        <v>4.1718955072971022</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="19"/>
+        <v>3.4846967579028645</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="19"/>
+        <v>2.9106940653952389</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="19"/>
+        <v>2.4312416634570249</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="19"/>
+        <v>2.0307651348190192</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="10"/>
+        <v>4.3999999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>Wind_EP</v>
-      </c>
-      <c r="B52" s="1">
-        <f t="shared" ref="B52:F52" si="19">$M23*(1+$P23)^(B$30-2007)/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="C52" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="2">
+    <row r="58" spans="1:25">
+      <c r="A58" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>Central_PV</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" ref="B58:F58" si="20">$M25*(1+$P25)^(B$34-2007)/1000000</f>
+        <v>3.9491243879754125</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="20"/>
+        <v>3.298620717432323</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="20"/>
+        <v>2.7552686541362692</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="20"/>
+        <v>2.3014180794860186</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="20"/>
+        <v>1.9223262198529554</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="10"/>
+        <v>4.3999999999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>Commercial_PV</v>
-      </c>
-      <c r="B53" s="1">
-        <f t="shared" ref="B53:F53" si="20">$M24*(1+$P24)^(B$30-2007)/1000000</f>
-        <v>4.1718955072971022</v>
-      </c>
-      <c r="C53" s="1">
-        <f t="shared" si="20"/>
-        <v>3.4846967579028645</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="20"/>
-        <v>2.9106940653952389</v>
-      </c>
-      <c r="E53" s="1">
-        <f t="shared" si="20"/>
-        <v>2.4312416634570249</v>
-      </c>
-      <c r="F53" s="1">
-        <f t="shared" si="20"/>
-        <v>2.0307651348190192</v>
-      </c>
-      <c r="G53" s="2">
+    <row r="59" spans="1:25">
+      <c r="A59" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>4.3999999999999995</v>
+        <v>CSP_Trough_No_Storage</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" ref="B59:F59" si="21">$M26*(1+$P26)^(B$34-2007)/1000000</f>
+        <v>4.2780161826030145</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="21"/>
+        <v>3.8659914201161327</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="21"/>
+        <v>3.4936496316190953</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="21"/>
+        <v>3.1571688661806681</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="21"/>
+        <v>2.8530952730257311</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>Central_PV</v>
-      </c>
-      <c r="B54" s="1">
-        <f t="shared" ref="B54:F54" si="21">$M25*(1+$P25)^(B$30-2007)/1000000</f>
-        <v>3.9491243879754125</v>
-      </c>
-      <c r="C54" s="1">
-        <f t="shared" si="21"/>
-        <v>3.298620717432323</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="21"/>
-        <v>2.7552686541362692</v>
-      </c>
-      <c r="E54" s="1">
-        <f t="shared" si="21"/>
-        <v>2.3014180794860186</v>
-      </c>
-      <c r="F54" s="1">
-        <f t="shared" si="21"/>
-        <v>1.9223262198529554</v>
-      </c>
-      <c r="G54" s="2">
+    <row r="60" spans="1:25">
+      <c r="A60" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>4.3999999999999995</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>CSP_Trough_No_Storage</v>
-      </c>
-      <c r="B55" s="1">
-        <f t="shared" ref="B55:F55" si="22">$M26*(1+$P26)^(B$30-2007)/1000000</f>
-        <v>4.2780161826030145</v>
-      </c>
-      <c r="C55" s="1">
+        <v>Compressed_Air_Energy_Storage</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" ref="B60:F60" si="22">$M27*(1+$P27)^(B$34-2007)/1000000</f>
+        <v>1.3974549825990654</v>
+      </c>
+      <c r="C60" s="1">
         <f t="shared" si="22"/>
-        <v>3.8659914201161327</v>
-      </c>
-      <c r="D55" s="1">
+        <v>1.3907592630373287</v>
+      </c>
+      <c r="D60" s="1">
         <f t="shared" si="22"/>
-        <v>3.4936496316190953</v>
-      </c>
-      <c r="E55" s="1">
+        <v>1.384095625124738</v>
+      </c>
+      <c r="E60" s="1">
         <f t="shared" si="22"/>
-        <v>3.1571688661806681</v>
-      </c>
-      <c r="F55" s="1">
+        <v>1.3774639151463415</v>
+      </c>
+      <c r="F60" s="1">
         <f t="shared" si="22"/>
-        <v>2.8530952730257311</v>
-      </c>
-      <c r="G55" s="2">
-        <f t="shared" si="11"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v>Compressed_Air_Energy_Storage</v>
-      </c>
-      <c r="B56" s="1">
-        <f t="shared" ref="B56:F56" si="23">$M27*(1+$P27)^(B$30-2007)/1000000</f>
-        <v>1.3974549825990654</v>
-      </c>
-      <c r="C56" s="1">
-        <f t="shared" si="23"/>
-        <v>1.3907592630373287</v>
-      </c>
-      <c r="D56" s="1">
-        <f t="shared" si="23"/>
-        <v>1.384095625124738</v>
-      </c>
-      <c r="E56" s="1">
-        <f t="shared" si="23"/>
-        <v>1.3774639151463415</v>
-      </c>
-      <c r="F56" s="1">
-        <f t="shared" si="23"/>
         <v>1.3708639801236917</v>
       </c>
-      <c r="G56" s="2">
-        <f t="shared" si="11"/>
+      <c r="G60" s="2">
+        <f t="shared" si="10"/>
         <v>0.12</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="1">
     <mergeCell ref="B21:C21"/>
   </mergeCells>
@@ -5546,10 +5631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:AG31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -9176,8 +9261,543 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:33">
+      <c r="A28" s="21">
+        <f>'generator_costs_04-08-2010'!A28</f>
+        <v>29</v>
+      </c>
+      <c r="B28" s="21" t="str">
+        <f>'generator_costs_04-08-2010'!B28</f>
+        <v>Gas_Combustion_Turbine_Cogen_EP</v>
+      </c>
+      <c r="C28" s="21">
+        <f>'generator_costs_04-08-2010'!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="21">
+        <f>'generator_costs_04-08-2010'!D28</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="21" t="str">
+        <f>'generator_costs_04-08-2010'!E28</f>
+        <v>Gas</v>
+      </c>
+      <c r="F28" s="21">
+        <f>'generator_costs_04-08-2010'!M28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="21">
+        <f>'generator_costs_04-08-2010'!N28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="21">
+        <f>'generator_costs_04-08-2010'!O28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="21">
+        <f>'generator_costs_04-08-2010'!P28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="21">
+        <f>'generator_costs_04-08-2010'!Q28</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="21">
+        <f>'generator_costs_04-08-2010'!R28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="21">
+        <f>'generator_costs_04-08-2010'!S28</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="21">
+        <f>'generator_costs_04-08-2010'!T28</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="21">
+        <f>'generator_costs_04-08-2010'!U28</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="21">
+        <f>'generator_costs_04-08-2010'!V28</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="21">
+        <f>'generator_costs_04-08-2010'!W28</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="21">
+        <f>'generator_costs_04-08-2010'!X28</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="21">
+        <f>'generator_costs_04-08-2010'!Y28</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="21">
+        <f>'generator_costs_04-08-2010'!Z28</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="21">
+        <f>'generator_costs_04-08-2010'!AA28</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="21">
+        <f>'generator_costs_04-08-2010'!AB28</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="21">
+        <f>'generator_costs_04-08-2010'!AC28</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="21">
+        <f>'generator_costs_04-08-2010'!AD28</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="21">
+        <f>'generator_costs_04-08-2010'!AE28</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="21">
+        <f>'generator_costs_04-08-2010'!AF28</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="21">
+        <f>'generator_costs_04-08-2010'!AG28</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="21">
+        <f>'generator_costs_04-08-2010'!AH28</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="21">
+        <f>'generator_costs_04-08-2010'!AI28</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="21">
+        <f>'generator_costs_04-08-2010'!AJ28</f>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="21">
+        <f>'generator_costs_04-08-2010'!AK28</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="21">
+        <f>'generator_costs_04-08-2010'!AL28</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="21">
+        <f>'generator_costs_04-08-2010'!AM28</f>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="21">
+        <f>'generator_costs_04-08-2010'!AN28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29" s="21">
+        <f>'generator_costs_04-08-2010'!A29</f>
+        <v>30</v>
+      </c>
+      <c r="B29" s="21" t="str">
+        <f>'generator_costs_04-08-2010'!B29</f>
+        <v>Coal_Steam_Turbine_Cogen_EP</v>
+      </c>
+      <c r="C29" s="21">
+        <f>'generator_costs_04-08-2010'!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="21">
+        <f>'generator_costs_04-08-2010'!D29</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="21" t="str">
+        <f>'generator_costs_04-08-2010'!E29</f>
+        <v>Coal</v>
+      </c>
+      <c r="F29" s="21">
+        <f>'generator_costs_04-08-2010'!M29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="21">
+        <f>'generator_costs_04-08-2010'!N29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="21">
+        <f>'generator_costs_04-08-2010'!O29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="21">
+        <f>'generator_costs_04-08-2010'!P29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="21">
+        <f>'generator_costs_04-08-2010'!Q29</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="21">
+        <f>'generator_costs_04-08-2010'!R29</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="21">
+        <f>'generator_costs_04-08-2010'!S29</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="21">
+        <f>'generator_costs_04-08-2010'!T29</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="21">
+        <f>'generator_costs_04-08-2010'!U29</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="21">
+        <f>'generator_costs_04-08-2010'!V29</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="21">
+        <f>'generator_costs_04-08-2010'!W29</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="21">
+        <f>'generator_costs_04-08-2010'!X29</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="21">
+        <f>'generator_costs_04-08-2010'!Y29</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="21">
+        <f>'generator_costs_04-08-2010'!Z29</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="21">
+        <f>'generator_costs_04-08-2010'!AA29</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="21">
+        <f>'generator_costs_04-08-2010'!AB29</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="21">
+        <f>'generator_costs_04-08-2010'!AC29</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="21">
+        <f>'generator_costs_04-08-2010'!AD29</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="21">
+        <f>'generator_costs_04-08-2010'!AE29</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="21">
+        <f>'generator_costs_04-08-2010'!AF29</f>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="21">
+        <f>'generator_costs_04-08-2010'!AG29</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="21">
+        <f>'generator_costs_04-08-2010'!AH29</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="21">
+        <f>'generator_costs_04-08-2010'!AI29</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="21">
+        <f>'generator_costs_04-08-2010'!AJ29</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="21">
+        <f>'generator_costs_04-08-2010'!AK29</f>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="21">
+        <f>'generator_costs_04-08-2010'!AL29</f>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="21">
+        <f>'generator_costs_04-08-2010'!AM29</f>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="21">
+        <f>'generator_costs_04-08-2010'!AN29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="A30" s="21">
+        <f>'generator_costs_04-08-2010'!A30</f>
+        <v>31</v>
+      </c>
+      <c r="B30" s="21" t="str">
+        <f>'generator_costs_04-08-2010'!B30</f>
+        <v>Gas_Steam_Turbine_Cogen_EP</v>
+      </c>
+      <c r="C30" s="21">
+        <f>'generator_costs_04-08-2010'!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="21">
+        <f>'generator_costs_04-08-2010'!D30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="21" t="str">
+        <f>'generator_costs_04-08-2010'!E30</f>
+        <v>Gas</v>
+      </c>
+      <c r="F30" s="21">
+        <f>'generator_costs_04-08-2010'!M30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="21">
+        <f>'generator_costs_04-08-2010'!N30</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="21">
+        <f>'generator_costs_04-08-2010'!O30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="21">
+        <f>'generator_costs_04-08-2010'!P30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="21">
+        <f>'generator_costs_04-08-2010'!Q30</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="21">
+        <f>'generator_costs_04-08-2010'!R30</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="21">
+        <f>'generator_costs_04-08-2010'!S30</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="21">
+        <f>'generator_costs_04-08-2010'!T30</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="21">
+        <f>'generator_costs_04-08-2010'!U30</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="21">
+        <f>'generator_costs_04-08-2010'!V30</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="21">
+        <f>'generator_costs_04-08-2010'!W30</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="21">
+        <f>'generator_costs_04-08-2010'!X30</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="21">
+        <f>'generator_costs_04-08-2010'!Y30</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="21">
+        <f>'generator_costs_04-08-2010'!Z30</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="21">
+        <f>'generator_costs_04-08-2010'!AA30</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="21">
+        <f>'generator_costs_04-08-2010'!AB30</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="21">
+        <f>'generator_costs_04-08-2010'!AC30</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="21">
+        <f>'generator_costs_04-08-2010'!AD30</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="21">
+        <f>'generator_costs_04-08-2010'!AE30</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="21">
+        <f>'generator_costs_04-08-2010'!AF30</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="21">
+        <f>'generator_costs_04-08-2010'!AG30</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="21">
+        <f>'generator_costs_04-08-2010'!AH30</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="21">
+        <f>'generator_costs_04-08-2010'!AI30</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="21">
+        <f>'generator_costs_04-08-2010'!AJ30</f>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="21">
+        <f>'generator_costs_04-08-2010'!AK30</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="21">
+        <f>'generator_costs_04-08-2010'!AL30</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="21">
+        <f>'generator_costs_04-08-2010'!AM30</f>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="21">
+        <f>'generator_costs_04-08-2010'!AN30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="A31" s="21">
+        <f>'generator_costs_04-08-2010'!A31</f>
+        <v>32</v>
+      </c>
+      <c r="B31" s="21" t="str">
+        <f>'generator_costs_04-08-2010'!B31</f>
+        <v>CCGT_Cogen_EP</v>
+      </c>
+      <c r="C31" s="21">
+        <f>'generator_costs_04-08-2010'!C31</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="21">
+        <f>'generator_costs_04-08-2010'!D31</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="21" t="str">
+        <f>'generator_costs_04-08-2010'!E31</f>
+        <v>Gas</v>
+      </c>
+      <c r="F31" s="21">
+        <f>'generator_costs_04-08-2010'!M31</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="21">
+        <f>'generator_costs_04-08-2010'!N31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="21">
+        <f>'generator_costs_04-08-2010'!O31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="21">
+        <f>'generator_costs_04-08-2010'!P31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="21">
+        <f>'generator_costs_04-08-2010'!Q31</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="21">
+        <f>'generator_costs_04-08-2010'!R31</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="21">
+        <f>'generator_costs_04-08-2010'!S31</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="21">
+        <f>'generator_costs_04-08-2010'!T31</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="21">
+        <f>'generator_costs_04-08-2010'!U31</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="21">
+        <f>'generator_costs_04-08-2010'!V31</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="21">
+        <f>'generator_costs_04-08-2010'!W31</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="21">
+        <f>'generator_costs_04-08-2010'!X31</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="21">
+        <f>'generator_costs_04-08-2010'!Y31</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="21">
+        <f>'generator_costs_04-08-2010'!Z31</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="21">
+        <f>'generator_costs_04-08-2010'!AA31</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="21">
+        <f>'generator_costs_04-08-2010'!AB31</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="21">
+        <f>'generator_costs_04-08-2010'!AC31</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="21">
+        <f>'generator_costs_04-08-2010'!AD31</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="21">
+        <f>'generator_costs_04-08-2010'!AE31</f>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="21">
+        <f>'generator_costs_04-08-2010'!AF31</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="21">
+        <f>'generator_costs_04-08-2010'!AG31</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="21">
+        <f>'generator_costs_04-08-2010'!AH31</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="21">
+        <f>'generator_costs_04-08-2010'!AI31</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="21">
+        <f>'generator_costs_04-08-2010'!AJ31</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="21">
+        <f>'generator_costs_04-08-2010'!AK31</f>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="21">
+        <f>'generator_costs_04-08-2010'!AL31</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="21">
+        <f>'generator_costs_04-08-2010'!AM31</f>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="21">
+        <f>'generator_costs_04-08-2010'!AN31</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -9186,24 +9806,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <sheetData/>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/DatabasePrep/GeneratorInfo/generator_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_costs.xlsx
@@ -23,6 +23,240 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
   <si>
+    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, outage rates from Mathias</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>overnight_cost_change</t>
+  </si>
+  <si>
+    <t>intermittent</t>
+  </si>
+  <si>
+    <t>resource_limited</t>
+  </si>
+  <si>
+    <t>baseload</t>
+  </si>
+  <si>
+    <t>min_build_capacity</t>
+  </si>
+  <si>
+    <t>startup_fuel_mbtu</t>
+  </si>
+  <si>
+    <t>nonfuel_startup_cost</t>
+  </si>
+  <si>
+    <t>$year_of_costs</t>
+  </si>
+  <si>
+    <t>cost_for_which_year?</t>
+  </si>
+  <si>
+    <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT</t>
+  </si>
+  <si>
+    <t>ReEDs Sheet</t>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Distributed_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_cost_multipulier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var_o_m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overnight_cost_$2007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m_$2007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var_o_m_$2007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_time_years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forced_outage_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduled_outage_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>connect_cost_generic_$2007_per_mw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_and_dollar_year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_ramp_rate_mw_per_hour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Vision Study (see PV_Cost_Calc.xlsx) for costs, ReEDs sheet for construction cost multiplier and cost fractions, Matthias for forced outage rate </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compressed_Air_Energy_storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Hydro_NonPumped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydro_Pumped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
+  </si>
+  <si>
+    <t>Biomass_IGCC</t>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
+  </si>
+  <si>
+    <t>Coal_IGCC</t>
+  </si>
+  <si>
+    <t>can_build_new</t>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuclear_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from DOE solar program costs on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost Declination Rate (%/yr)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
+  </si>
+  <si>
+    <t>Geothermal_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_4_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_5_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_6_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
   </si>
   <si>
@@ -184,252 +418,19 @@
   <si>
     <t>tech_name_again</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar Vision Study (see PV_Cost_Calc.xlsx) for costs, ReEDs sheet for construction cost multiplier and cost fractions, Matthias for forced outage rate </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compressed_Air_Energy_storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Hydro_NonPumped</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hydro_Pumped</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
-  </si>
-  <si>
-    <t>Biomass_IGCC</t>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
-  </si>
-  <si>
-    <t>Coal_IGCC</t>
-  </si>
-  <si>
-    <t>can_build_new</t>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nuclear_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from DOE solar program costs on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost Declination Rate (%/yr)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
-  </si>
-  <si>
-    <t>Geothermal_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_4_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_5_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_6_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, outage rates from Mathias</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>overnight_cost_change</t>
-  </si>
-  <si>
-    <t>intermittent</t>
-  </si>
-  <si>
-    <t>resource_limited</t>
-  </si>
-  <si>
-    <t>baseload</t>
-  </si>
-  <si>
-    <t>min_build_capacity</t>
-  </si>
-  <si>
-    <t>startup_fuel_mbtu</t>
-  </si>
-  <si>
-    <t>nonfuel_startup_cost</t>
-  </si>
-  <si>
-    <t>$year_of_costs</t>
-  </si>
-  <si>
-    <t>cost_for_which_year?</t>
-  </si>
-  <si>
-    <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>ReEDs Sheet</t>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Distributed_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Central_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction_cost_multipulier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_o_m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_o_m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overnight_cost_$2007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_o_m_$2007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_o_m_$2007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction_time_years</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>forced_outage_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scheduled_outage_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>connect_cost_generic_$2007_per_mw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>price_and_dollar_year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_ramp_rate_mw_per_hour</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -466,14 +467,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1421,11 +1423,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="522658088"/>
-        <c:axId val="522667192"/>
+        <c:axId val="490389656"/>
+        <c:axId val="490398760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="522658088"/>
+        <c:axId val="490389656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1460,14 +1462,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522667192"/>
+        <c:crossAx val="490398760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="522667192"/>
+        <c:axId val="490398760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7.0"/>
@@ -1504,7 +1506,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522658088"/>
+        <c:crossAx val="490389656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1891,14 +1893,14 @@
   <dimension ref="A1:AP60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B32" sqref="B32"/>
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="5"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
     <col min="4" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
@@ -1923,130 +1925,130 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="5" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" t="s">
-        <v>10</v>
-      </c>
       <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP1" t="s">
         <v>97</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -2054,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5">
         <v>2007</v>
@@ -2063,7 +2065,7 @@
         <v>2010</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>2004</v>
@@ -2178,7 +2180,7 @@
         <v>CCGT</v>
       </c>
       <c r="AP2" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -2186,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5">
         <v>2007</v>
@@ -2195,7 +2197,7 @@
         <v>2010</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>2004</v>
@@ -2310,7 +2312,7 @@
         <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="AP3" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -2318,7 +2320,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5">
         <v>2007</v>
@@ -2327,7 +2329,7 @@
         <v>2010</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>2004</v>
@@ -2442,7 +2444,7 @@
         <v>Wind</v>
       </c>
       <c r="AP4" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -2450,7 +2452,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
@@ -2459,7 +2461,7 @@
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>2004</v>
@@ -2574,7 +2576,7 @@
         <v>Offshore_Wind</v>
       </c>
       <c r="AP5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -2582,7 +2584,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C6" s="5">
         <v>2007</v>
@@ -2591,7 +2593,7 @@
         <v>2010</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>2009</v>
@@ -2707,7 +2709,7 @@
         <v>Residential_PV</v>
       </c>
       <c r="AP6" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:42" s="11" customFormat="1">
@@ -2715,7 +2717,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C7" s="11">
         <v>2007</v>
@@ -2724,7 +2726,7 @@
         <v>2012</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F7" s="11">
         <v>2010</v>
@@ -2835,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="AO7" s="11" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="AP7" s="11" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -2846,7 +2848,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C8" s="5">
         <v>2007</v>
@@ -2855,7 +2857,7 @@
         <v>2010</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="F8">
         <v>2007</v>
@@ -2970,7 +2972,7 @@
         <v>Bio_Gas</v>
       </c>
       <c r="AP8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -2978,7 +2980,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5">
         <v>2007</v>
@@ -2987,7 +2989,7 @@
         <v>2010</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="F9">
         <v>2004</v>
@@ -3102,7 +3104,7 @@
         <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="AP9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -3110,7 +3112,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5">
         <v>2007</v>
@@ -3119,7 +3121,7 @@
         <v>2012</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="F10">
         <v>2007</v>
@@ -3234,7 +3236,7 @@
         <v>Biomass_IGCC</v>
       </c>
       <c r="AP10" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -3242,7 +3244,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
@@ -3251,7 +3253,7 @@
         <v>2010</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="F11">
         <v>2004</v>
@@ -3366,7 +3368,7 @@
         <v>Coal_IGCC</v>
       </c>
       <c r="AP11" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -3374,7 +3376,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="C12" s="5">
         <v>2007</v>
@@ -3383,7 +3385,7 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="F12">
         <v>2004</v>
@@ -3498,7 +3500,7 @@
         <v>Coal_Steam_Turbine</v>
       </c>
       <c r="AP12" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -3506,7 +3508,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
@@ -3515,7 +3517,7 @@
         <v>2010</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="F13">
         <v>2004</v>
@@ -3630,7 +3632,7 @@
         <v>Nuclear</v>
       </c>
       <c r="AP13" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -3638,7 +3640,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="C14" s="5">
         <v>2007</v>
@@ -3647,7 +3649,7 @@
         <v>2010</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F14">
         <v>2004</v>
@@ -3762,7 +3764,7 @@
         <v>Geothermal</v>
       </c>
       <c r="AP14" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -3770,7 +3772,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5">
         <v>2007</v>
@@ -3779,7 +3781,7 @@
         <v>2010</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F15" s="5">
         <v>2004</v>
@@ -3894,7 +3896,7 @@
         <v>Hydro_NonPumped</v>
       </c>
       <c r="AP15" s="5" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -3902,7 +3904,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5">
         <v>2007</v>
@@ -3911,7 +3913,7 @@
         <v>2010</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F16" s="5">
         <v>2004</v>
@@ -4026,7 +4028,7 @@
         <v>Hydro_Pumped</v>
       </c>
       <c r="AP16" s="5" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:42" s="18" customFormat="1">
@@ -4034,10 +4036,31 @@
         <v>17</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="S17" s="22">
+        <v>3</v>
+      </c>
+      <c r="T17" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="U17" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="V17" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W17" s="22">
+        <v>0</v>
+      </c>
+      <c r="X17" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="22">
+        <v>0</v>
       </c>
       <c r="AM17" s="18">
         <v>0</v>
@@ -4051,17 +4074,38 @@
         <v>18</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="G18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
+      <c r="S18" s="22">
+        <v>6</v>
+      </c>
+      <c r="T18" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="U18" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="V18" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="W18" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="X18" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="Y18" s="22">
+        <v>0.1</v>
+      </c>
       <c r="AM18">
         <v>0</v>
       </c>
@@ -4074,17 +4118,38 @@
         <v>19</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="G19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
+      <c r="S19" s="22">
+        <v>3</v>
+      </c>
+      <c r="T19" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="U19" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="V19" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W19" s="22">
+        <v>0</v>
+      </c>
+      <c r="X19" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="22">
+        <v>0</v>
+      </c>
       <c r="AM19">
         <v>0</v>
       </c>
@@ -4097,17 +4162,38 @@
         <v>20</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="G20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
+      <c r="S20" s="22">
+        <v>3</v>
+      </c>
+      <c r="T20" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="U20" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="V20" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W20" s="22">
+        <v>0</v>
+      </c>
+      <c r="X20" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="22">
+        <v>0</v>
+      </c>
       <c r="AM20">
         <v>0</v>
       </c>
@@ -4119,18 +4205,39 @@
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="22"/>
+      <c r="B21" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="23"/>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="G21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
+      <c r="S21" s="22">
+        <v>4</v>
+      </c>
+      <c r="T21" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="U21" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="V21" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="W21" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="X21" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="22">
+        <v>0</v>
+      </c>
       <c r="AM21">
         <v>0</v>
       </c>
@@ -4143,17 +4250,38 @@
         <v>22</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="G22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
+      <c r="S22" s="22">
+        <v>6</v>
+      </c>
+      <c r="T22" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="U22" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="V22" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="W22" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="X22" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="Y22" s="22">
+        <v>0.1</v>
+      </c>
       <c r="AM22">
         <v>0</v>
       </c>
@@ -4166,10 +4294,31 @@
         <v>23</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>69</v>
+        <v>60</v>
+      </c>
+      <c r="S23" s="22">
+        <v>3</v>
+      </c>
+      <c r="T23" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="U23" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="V23" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W23" s="22">
+        <v>0</v>
+      </c>
+      <c r="X23" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="22">
+        <v>0</v>
       </c>
       <c r="AM23" s="18">
         <v>0</v>
@@ -4183,7 +4332,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C24" s="8">
         <v>2007</v>
@@ -4192,7 +4341,7 @@
         <v>2010</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F24" s="8">
         <v>2009</v>
@@ -4303,10 +4452,10 @@
         <v>0</v>
       </c>
       <c r="AO24" s="9" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="AP24" s="9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:42" s="8" customFormat="1">
@@ -4314,7 +4463,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="C25" s="8">
         <v>2007</v>
@@ -4323,7 +4472,7 @@
         <v>2010</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F25" s="8">
         <v>2009</v>
@@ -4434,10 +4583,10 @@
         <v>0</v>
       </c>
       <c r="AO25" s="9" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="AP25" s="9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:42" s="5" customFormat="1">
@@ -4445,7 +4594,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C26" s="5">
         <v>2007</v>
@@ -4454,7 +4603,7 @@
         <v>2010</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F26" s="5">
         <v>2010</v>
@@ -4565,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="AO26" s="9" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="AP26" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:42" s="9" customFormat="1">
@@ -4576,7 +4725,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="C27" s="9">
         <v>2007</v>
@@ -4585,7 +4734,7 @@
         <v>2010</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="F27" s="9">
         <v>2010</v>
@@ -4696,10 +4845,10 @@
         <v>1</v>
       </c>
       <c r="AO27" s="14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="AP27" s="14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:42" s="21" customFormat="1">
@@ -4707,10 +4856,31 @@
         <v>29</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="S28" s="22">
+        <v>3</v>
+      </c>
+      <c r="T28" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="U28" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="V28" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W28" s="22">
+        <v>0</v>
+      </c>
+      <c r="X28" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="22">
+        <v>0</v>
       </c>
       <c r="AM28" s="21">
         <v>0</v>
@@ -4724,10 +4894,31 @@
         <v>30</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>20</v>
+        <v>84</v>
+      </c>
+      <c r="S29" s="22">
+        <v>4</v>
+      </c>
+      <c r="T29" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="U29" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="V29" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="W29" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="X29" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="22">
+        <v>0</v>
       </c>
       <c r="AM29" s="21">
         <v>0</v>
@@ -4741,10 +4932,31 @@
         <v>31</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>106</v>
+        <v>33</v>
+      </c>
+      <c r="S30" s="22">
+        <v>3</v>
+      </c>
+      <c r="T30" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="U30" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="V30" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W30" s="22">
+        <v>0</v>
+      </c>
+      <c r="X30" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="22">
+        <v>0</v>
       </c>
       <c r="AM30" s="21">
         <v>0</v>
@@ -4758,10 +4970,31 @@
         <v>32</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>106</v>
+        <v>33</v>
+      </c>
+      <c r="S31" s="22">
+        <v>3</v>
+      </c>
+      <c r="T31" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="U31" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="V31" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W31" s="22">
+        <v>0</v>
+      </c>
+      <c r="X31" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="22">
+        <v>0</v>
       </c>
       <c r="AM31" s="21">
         <v>0</v>
@@ -4777,12 +5010,12 @@
     </row>
     <row r="33" spans="1:25" s="6" customFormat="1">
       <c r="A33" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="B34">
         <v>2010</v>
@@ -4800,7 +5033,7 @@
         <v>2026</v>
       </c>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="S34" s="5"/>
       <c r="Y34"/>
@@ -4811,23 +5044,23 @@
         <v>CCGT</v>
       </c>
       <c r="B35" s="1">
-        <f>$M2*(1+$P2)^(B$34-2007)/1000000</f>
+        <f t="shared" ref="B35:F49" si="10">$M2*(1+$P2)^(B$34-2007)/1000000</f>
         <v>1.0531629563645977</v>
       </c>
       <c r="C35" s="1">
-        <f>$M2*(1+$P2)^(C$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.99743346069133265</v>
       </c>
       <c r="D35" s="1">
-        <f>$M2*(1+$P2)^(D$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.94465296419167832</v>
       </c>
       <c r="E35" s="1">
-        <f>$M2*(1+$P2)^(E$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.89466541671623157</v>
       </c>
       <c r="F35" s="1">
-        <f>$M2*(1+$P2)^(F$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.84732302571340368</v>
       </c>
       <c r="G35" s="2">
@@ -4843,27 +5076,27 @@
         <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="B36" s="1">
-        <f>$M3*(1+$P3)^(B$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.67777019539912997</v>
       </c>
       <c r="C36" s="1">
-        <f>$M3*(1+$P3)^(C$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.63956582060948919</v>
       </c>
       <c r="D36" s="1">
-        <f>$M3*(1+$P3)^(D$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.60351494012068285</v>
       </c>
       <c r="E36" s="1">
-        <f>$M3*(1+$P3)^(E$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.56949616632385003</v>
       </c>
       <c r="F36" s="1">
-        <f>$M3*(1+$P3)^(F$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.5373949539554197</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" ref="G36:G60" si="10">-P3*100</f>
+        <f t="shared" ref="G36:G60" si="11">-P3*100</f>
         <v>1.44</v>
       </c>
       <c r="S36" s="5"/>
@@ -4875,27 +5108,27 @@
         <v>Wind</v>
       </c>
       <c r="B37" s="1">
-        <f>$M4*(1+$P4)^(B$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>1.8398904013200241</v>
       </c>
       <c r="C37" s="1">
-        <f>$M4*(1+$P4)^(C$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>1.8033676580585525</v>
       </c>
       <c r="D37" s="1">
-        <f>$M4*(1+$P4)^(D$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>1.767569909489366</v>
       </c>
       <c r="E37" s="1">
-        <f>$M4*(1+$P4)^(E$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>1.7324827641057787</v>
       </c>
       <c r="F37" s="1">
-        <f>$M4*(1+$P4)^(F$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>1.6980921160796985</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="S37" s="5"/>
@@ -4907,27 +5140,27 @@
         <v>Offshore_Wind</v>
       </c>
       <c r="B38" s="1">
-        <f>$M5*(1+$P5)^(B$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.513234607835245</v>
       </c>
       <c r="C38" s="1">
-        <f>$M5*(1+$P5)^(C$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.3340780541559165</v>
       </c>
       <c r="D38" s="1">
-        <f>$M5*(1+$P5)^(D$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.1640575458333862</v>
       </c>
       <c r="E38" s="1">
-        <f>$M5*(1+$P5)^(E$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.0027071924324598</v>
       </c>
       <c r="F38" s="1">
-        <f>$M5*(1+$P5)^(F$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.8495848614886108</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3</v>
       </c>
       <c r="S38" s="5"/>
@@ -4939,27 +5172,27 @@
         <v>Residential_PV</v>
       </c>
       <c r="B39" s="1">
-        <f>$M6*(1+$P6)^(B$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>4.4262059541347591</v>
       </c>
       <c r="C39" s="1">
-        <f>$M6*(1+$P6)^(C$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.6971169367031149</v>
       </c>
       <c r="D39" s="1">
-        <f>$M6*(1+$P6)^(D$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.0881241824927677</v>
       </c>
       <c r="E39" s="1">
-        <f>$M6*(1+$P6)^(E$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.5794453163823263</v>
       </c>
       <c r="F39" s="1">
-        <f>$M6*(1+$P6)^(F$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.1545565356234837</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.3999999999999995</v>
       </c>
       <c r="S39" s="5"/>
@@ -4971,27 +5204,27 @@
         <v>CSP_Trough_6h_Storage</v>
       </c>
       <c r="B40" s="1">
-        <f>$M7*(1+$P7)^(B$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>6.8694765926520924</v>
       </c>
       <c r="C40" s="1">
-        <f>$M7*(1+$P7)^(C$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>5.7139591915048698</v>
       </c>
       <c r="D40" s="1">
-        <f>$M7*(1+$P7)^(D$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>4.7528118338893828</v>
       </c>
       <c r="E40" s="1">
-        <f>$M7*(1+$P7)^(E$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.9533394571566234</v>
       </c>
       <c r="F40" s="1">
-        <f>$M7*(1+$P7)^(F$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.2883466482033623</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="S40" s="5"/>
@@ -5003,27 +5236,27 @@
         <v>Bio_Gas</v>
       </c>
       <c r="B41" s="1">
-        <f>$M8*(1+$P8)^(B$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.4701554476825773</v>
       </c>
       <c r="C41" s="1">
-        <f>$M8*(1+$P8)^(C$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.3309183653314354</v>
       </c>
       <c r="D41" s="1">
-        <f>$M8*(1+$P8)^(D$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.1995297627672028</v>
       </c>
       <c r="E41" s="1">
-        <f>$M8*(1+$P8)^(E$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.0755472389144938</v>
       </c>
       <c r="F41" s="1">
-        <f>$M8*(1+$P8)^(F$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>1.9585533298471325</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.44</v>
       </c>
       <c r="S41" s="5"/>
@@ -5035,27 +5268,27 @@
         <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="B42" s="1">
-        <f>$M9*(1+$P9)^(B$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.1610692256114468</v>
       </c>
       <c r="C42" s="1">
-        <f>$M9*(1+$P9)^(C$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.0920973359134503</v>
       </c>
       <c r="D42" s="1">
-        <f>$M9*(1+$P9)^(D$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.024630355228509</v>
       </c>
       <c r="E42" s="1">
-        <f>$M9*(1+$P9)^(E$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.958635447699181</v>
       </c>
       <c r="F42" s="1">
-        <f>$M9*(1+$P9)^(F$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.8940804939190024</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.54999999999999993</v>
       </c>
       <c r="S42" s="5"/>
@@ -5067,27 +5300,27 @@
         <v>Biomass_IGCC</v>
       </c>
       <c r="B43" s="1">
-        <f>$M10*(1+$P10)^(B$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.6290095391050952</v>
       </c>
       <c r="C43" s="1">
-        <f>$M10*(1+$P10)^(C$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.4188946800248909</v>
       </c>
       <c r="D43" s="1">
-        <f>$M10*(1+$P10)^(D$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.2209451937635145</v>
       </c>
       <c r="E43" s="1">
-        <f>$M10*(1+$P10)^(E$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.0344567213029081</v>
       </c>
       <c r="F43" s="1">
-        <f>$M10*(1+$P10)^(F$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.858765685081833</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.48</v>
       </c>
       <c r="S43" s="5"/>
@@ -5099,27 +5332,27 @@
         <v>Coal_IGCC</v>
       </c>
       <c r="B44" s="1">
-        <f>$M11*(1+$P11)^(B$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.7808905469533363</v>
       </c>
       <c r="C44" s="1">
-        <f>$M11*(1+$P11)^(C$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.6198806573142313</v>
       </c>
       <c r="D44" s="1">
-        <f>$M11*(1+$P11)^(D$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.4681930276216737</v>
       </c>
       <c r="E44" s="1">
-        <f>$M11*(1+$P11)^(E$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.325287911337699</v>
       </c>
       <c r="F44" s="1">
-        <f>$M11*(1+$P11)^(F$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.1906568125359844</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.48</v>
       </c>
       <c r="S44" s="5"/>
@@ -5131,27 +5364,27 @@
         <v>Coal_Steam_Turbine</v>
       </c>
       <c r="B45" s="1">
-        <f>$M12*(1+$P12)^(B$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.2632115302709024</v>
       </c>
       <c r="C45" s="1">
-        <f>$M12*(1+$P12)^(C$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.1573904116387688</v>
       </c>
       <c r="D45" s="1">
-        <f>$M12*(1+$P12)^(D$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.0565171774614375</v>
       </c>
       <c r="E45" s="1">
-        <f>$M12*(1+$P12)^(E$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>1.9603604792056992</v>
       </c>
       <c r="F45" s="1">
-        <f>$M12*(1+$P12)^(F$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>1.8686997855157279</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1900000000000002</v>
       </c>
       <c r="S45" s="5"/>
@@ -5163,27 +5396,27 @@
         <v>Nuclear</v>
       </c>
       <c r="B46" s="1">
-        <f>$M13*(1+$P13)^(B$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.979640018509202</v>
       </c>
       <c r="C46" s="1">
-        <f>$M13*(1+$P13)^(C$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.7492241177879264</v>
       </c>
       <c r="D46" s="1">
-        <f>$M13*(1+$P13)^(D$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.5321489933826671</v>
       </c>
       <c r="E46" s="1">
-        <f>$M13*(1+$P13)^(E$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.3276422319653642</v>
       </c>
       <c r="F46" s="1">
-        <f>$M13*(1+$P13)^(F$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.1349761419194406</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.48</v>
       </c>
       <c r="S46" s="5"/>
@@ -5195,27 +5428,27 @@
         <v>Geothermal</v>
       </c>
       <c r="B47" s="1">
-        <f>$M14*(1+$P14)^(B$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.6698257620451371</v>
       </c>
       <c r="C47" s="1">
-        <f>$M14*(1+$P14)^(C$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.5252199844157683</v>
       </c>
       <c r="D47" s="1">
-        <f>$M14*(1+$P14)^(D$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.3863122514020483</v>
       </c>
       <c r="E47" s="1">
-        <f>$M14*(1+$P14)^(E$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.2528780373109245</v>
       </c>
       <c r="F47" s="1">
-        <f>$M14*(1+$P14)^(F$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.1247016636575049</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S47" s="5"/>
@@ -5227,27 +5460,27 @@
         <v>Hydro_NonPumped</v>
       </c>
       <c r="B48" s="1">
-        <f>$M15*(1+$P15)^(B$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.690364973631826</v>
       </c>
       <c r="C48" s="1">
-        <f>$M15*(1+$P15)^(C$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.6084538993755664</v>
       </c>
       <c r="D48" s="1">
-        <f>$M15*(1+$P15)^(D$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.5290366964533346</v>
       </c>
       <c r="E48" s="1">
-        <f>$M15*(1+$P15)^(E$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.4520374362524606</v>
       </c>
       <c r="F48" s="1">
-        <f>$M15*(1+$P15)^(F$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.3773825018890866</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.77</v>
       </c>
       <c r="S48" s="5"/>
@@ -5259,27 +5492,27 @@
         <v>Hydro_Pumped</v>
       </c>
       <c r="B49" s="1">
-        <f>$M16*(1+$P16)^(B$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>4.6296225336096137</v>
       </c>
       <c r="C49" s="1">
-        <f>$M16*(1+$P16)^(C$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>4.3686611699951658</v>
       </c>
       <c r="D49" s="1">
-        <f>$M16*(1+$P16)^(D$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>4.1224096089197202</v>
       </c>
       <c r="E49" s="1">
-        <f>$M16*(1+$P16)^(E$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.8900386920445111</v>
       </c>
       <c r="F49" s="1">
-        <f>$M16*(1+$P16)^(F$34-2007)/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.6707659988132098</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.44</v>
       </c>
       <c r="S49" s="5"/>
@@ -5287,335 +5520,336 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="20" t="str">
-        <f t="shared" ref="A50:A60" si="11">B17</f>
+        <f t="shared" ref="A50:A60" si="12">B17</f>
         <v>Gas_Combustion_Turbine_EP</v>
       </c>
       <c r="B50" s="1">
-        <f t="shared" ref="B50:F50" si="12">$M17*(1+$P17)^(B$34-2007)/1000000</f>
+        <f t="shared" ref="B50:F50" si="13">$M17*(1+$P17)^(B$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>Coal_Steam_Turbine_EP</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" ref="B51:F51" si="14">$M18*(1+$P18)^(B$34-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
         <f t="shared" si="11"/>
-        <v>Coal_Steam_Turbine_EP</v>
-      </c>
-      <c r="B51" s="1">
-        <f t="shared" ref="B51:F51" si="13">$M18*(1+$P18)^(B$34-2007)/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="C51" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>Gas_Steam_Turbine_EP</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" ref="B52:F52" si="15">$M19*(1+$P19)^(B$34-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
         <f t="shared" si="11"/>
-        <v>Gas_Steam_Turbine_EP</v>
-      </c>
-      <c r="B52" s="1">
-        <f t="shared" ref="B52:F52" si="14">$M19*(1+$P19)^(B$34-2007)/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="C52" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="2">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>CCGT_EP</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" ref="B53:F53" si="16">$M20*(1+$P20)^(B$34-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
         <f t="shared" si="11"/>
-        <v>CCGT_EP</v>
-      </c>
-      <c r="B53" s="1">
-        <f t="shared" ref="B53:F53" si="15">$M20*(1+$P20)^(B$34-2007)/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>Geothermal_EP</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" ref="B54:F54" si="17">$M21*(1+$P21)^(B$34-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
         <f t="shared" si="11"/>
-        <v>Geothermal_EP</v>
-      </c>
-      <c r="B54" s="1">
-        <f t="shared" ref="B54:F54" si="16">$M21*(1+$P21)^(B$34-2007)/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="C54" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="2">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>Nuclear_EP</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" ref="B55:F55" si="18">$M22*(1+$P22)^(B$34-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
         <f t="shared" si="11"/>
-        <v>Nuclear_EP</v>
-      </c>
-      <c r="B55" s="1">
-        <f t="shared" ref="B55:F55" si="17">$M22*(1+$P22)^(B$34-2007)/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="C55" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="2">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>Wind_EP</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" ref="B56:F56" si="19">$M23*(1+$P23)^(B$34-2007)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
         <f t="shared" si="11"/>
-        <v>Wind_EP</v>
-      </c>
-      <c r="B56" s="1">
-        <f t="shared" ref="B56:F56" si="18">$M23*(1+$P23)^(B$34-2007)/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="C56" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="2">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>Commercial_PV</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" ref="B57:F57" si="20">$M24*(1+$P24)^(B$34-2007)/1000000</f>
+        <v>4.1718955072971022</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="20"/>
+        <v>3.4846967579028645</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="20"/>
+        <v>2.9106940653952389</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="20"/>
+        <v>2.4312416634570249</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="20"/>
+        <v>2.0307651348190192</v>
+      </c>
+      <c r="G57" s="2">
         <f t="shared" si="11"/>
-        <v>Commercial_PV</v>
-      </c>
-      <c r="B57" s="1">
-        <f t="shared" ref="B57:F57" si="19">$M24*(1+$P24)^(B$34-2007)/1000000</f>
-        <v>4.1718955072971022</v>
-      </c>
-      <c r="C57" s="1">
-        <f t="shared" si="19"/>
-        <v>3.4846967579028645</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="19"/>
-        <v>2.9106940653952389</v>
-      </c>
-      <c r="E57" s="1">
-        <f t="shared" si="19"/>
-        <v>2.4312416634570249</v>
-      </c>
-      <c r="F57" s="1">
-        <f t="shared" si="19"/>
-        <v>2.0307651348190192</v>
-      </c>
-      <c r="G57" s="2">
-        <f t="shared" si="10"/>
         <v>4.3999999999999995</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>Central_PV</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" ref="B58:F58" si="21">$M25*(1+$P25)^(B$34-2007)/1000000</f>
+        <v>3.9491243879754125</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="21"/>
+        <v>3.298620717432323</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="21"/>
+        <v>2.7552686541362692</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="21"/>
+        <v>2.3014180794860186</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="21"/>
+        <v>1.9223262198529554</v>
+      </c>
+      <c r="G58" s="2">
         <f t="shared" si="11"/>
-        <v>Central_PV</v>
-      </c>
-      <c r="B58" s="1">
-        <f t="shared" ref="B58:F58" si="20">$M25*(1+$P25)^(B$34-2007)/1000000</f>
-        <v>3.9491243879754125</v>
-      </c>
-      <c r="C58" s="1">
-        <f t="shared" si="20"/>
-        <v>3.298620717432323</v>
-      </c>
-      <c r="D58" s="1">
-        <f t="shared" si="20"/>
-        <v>2.7552686541362692</v>
-      </c>
-      <c r="E58" s="1">
-        <f t="shared" si="20"/>
-        <v>2.3014180794860186</v>
-      </c>
-      <c r="F58" s="1">
-        <f t="shared" si="20"/>
-        <v>1.9223262198529554</v>
-      </c>
-      <c r="G58" s="2">
-        <f t="shared" si="10"/>
         <v>4.3999999999999995</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>CSP_Trough_No_Storage</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" ref="B59:F59" si="22">$M26*(1+$P26)^(B$34-2007)/1000000</f>
+        <v>4.2780161826030145</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="22"/>
+        <v>3.8659914201161327</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="22"/>
+        <v>3.4936496316190953</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="22"/>
+        <v>3.1571688661806681</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="22"/>
+        <v>2.8530952730257311</v>
+      </c>
+      <c r="G59" s="2">
         <f t="shared" si="11"/>
-        <v>CSP_Trough_No_Storage</v>
-      </c>
-      <c r="B59" s="1">
-        <f t="shared" ref="B59:F59" si="21">$M26*(1+$P26)^(B$34-2007)/1000000</f>
-        <v>4.2780161826030145</v>
-      </c>
-      <c r="C59" s="1">
-        <f t="shared" si="21"/>
-        <v>3.8659914201161327</v>
-      </c>
-      <c r="D59" s="1">
-        <f t="shared" si="21"/>
-        <v>3.4936496316190953</v>
-      </c>
-      <c r="E59" s="1">
-        <f t="shared" si="21"/>
-        <v>3.1571688661806681</v>
-      </c>
-      <c r="F59" s="1">
-        <f t="shared" si="21"/>
-        <v>2.8530952730257311</v>
-      </c>
-      <c r="G59" s="2">
-        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>Compressed_Air_Energy_Storage</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" ref="B60:F60" si="23">$M27*(1+$P27)^(B$34-2007)/1000000</f>
+        <v>1.3974549825990654</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="23"/>
+        <v>1.3907592630373287</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="23"/>
+        <v>1.384095625124738</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="23"/>
+        <v>1.3774639151463415</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="23"/>
+        <v>1.3708639801236917</v>
+      </c>
+      <c r="G60" s="2">
         <f t="shared" si="11"/>
-        <v>Compressed_Air_Energy_Storage</v>
-      </c>
-      <c r="B60" s="1">
-        <f t="shared" ref="B60:F60" si="22">$M27*(1+$P27)^(B$34-2007)/1000000</f>
-        <v>1.3974549825990654</v>
-      </c>
-      <c r="C60" s="1">
-        <f t="shared" si="22"/>
-        <v>1.3907592630373287</v>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" si="22"/>
-        <v>1.384095625124738</v>
-      </c>
-      <c r="E60" s="1">
-        <f t="shared" si="22"/>
-        <v>1.3774639151463415</v>
-      </c>
-      <c r="F60" s="1">
-        <f t="shared" si="22"/>
-        <v>1.3708639801236917</v>
-      </c>
-      <c r="G60" s="2">
-        <f t="shared" si="10"/>
         <v>0.12</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="1">
     <mergeCell ref="B21:C21"/>
   </mergeCells>
@@ -7834,19 +8068,19 @@
       </c>
       <c r="L17" s="19">
         <f>'generator_costs_04-08-2010'!S17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" s="19">
         <f>'generator_costs_04-08-2010'!T17</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N17" s="19">
         <f>'generator_costs_04-08-2010'!U17</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O17" s="19">
         <f>'generator_costs_04-08-2010'!V17</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P17" s="19">
         <f>'generator_costs_04-08-2010'!W17</f>
@@ -7968,31 +8202,31 @@
       </c>
       <c r="L18" s="19">
         <f>'generator_costs_04-08-2010'!S18</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M18" s="19">
         <f>'generator_costs_04-08-2010'!T18</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N18" s="19">
         <f>'generator_costs_04-08-2010'!U18</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O18" s="19">
         <f>'generator_costs_04-08-2010'!V18</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P18" s="19">
         <f>'generator_costs_04-08-2010'!W18</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q18" s="19">
         <f>'generator_costs_04-08-2010'!X18</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R18" s="19">
         <f>'generator_costs_04-08-2010'!Y18</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S18" s="19">
         <f>'generator_costs_04-08-2010'!Z18</f>
@@ -8102,19 +8336,19 @@
       </c>
       <c r="L19" s="19">
         <f>'generator_costs_04-08-2010'!S19</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M19" s="19">
         <f>'generator_costs_04-08-2010'!T19</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N19" s="19">
         <f>'generator_costs_04-08-2010'!U19</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O19" s="19">
         <f>'generator_costs_04-08-2010'!V19</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P19" s="19">
         <f>'generator_costs_04-08-2010'!W19</f>
@@ -8236,19 +8470,19 @@
       </c>
       <c r="L20" s="19">
         <f>'generator_costs_04-08-2010'!S20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M20" s="19">
         <f>'generator_costs_04-08-2010'!T20</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N20" s="19">
         <f>'generator_costs_04-08-2010'!U20</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O20" s="19">
         <f>'generator_costs_04-08-2010'!V20</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P20" s="19">
         <f>'generator_costs_04-08-2010'!W20</f>
@@ -8370,23 +8604,23 @@
       </c>
       <c r="L21" s="19">
         <f>'generator_costs_04-08-2010'!S21</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M21" s="19">
         <f>'generator_costs_04-08-2010'!T21</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N21" s="19">
         <f>'generator_costs_04-08-2010'!U21</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O21" s="19">
         <f>'generator_costs_04-08-2010'!V21</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P21" s="19">
         <f>'generator_costs_04-08-2010'!W21</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q21" s="19">
         <f>'generator_costs_04-08-2010'!X21</f>
@@ -8504,31 +8738,31 @@
       </c>
       <c r="L22" s="19">
         <f>'generator_costs_04-08-2010'!S22</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M22" s="19">
         <f>'generator_costs_04-08-2010'!T22</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N22" s="19">
         <f>'generator_costs_04-08-2010'!U22</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O22" s="19">
         <f>'generator_costs_04-08-2010'!V22</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P22" s="19">
         <f>'generator_costs_04-08-2010'!W22</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q22" s="19">
         <f>'generator_costs_04-08-2010'!X22</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R22" s="19">
         <f>'generator_costs_04-08-2010'!Y22</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S22" s="19">
         <f>'generator_costs_04-08-2010'!Z22</f>
@@ -8638,19 +8872,19 @@
       </c>
       <c r="L23" s="19">
         <f>'generator_costs_04-08-2010'!S23</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" s="19">
         <f>'generator_costs_04-08-2010'!T23</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N23" s="19">
         <f>'generator_costs_04-08-2010'!U23</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O23" s="19">
         <f>'generator_costs_04-08-2010'!V23</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P23" s="19">
         <f>'generator_costs_04-08-2010'!W23</f>
@@ -9308,19 +9542,19 @@
       </c>
       <c r="L28" s="21">
         <f>'generator_costs_04-08-2010'!S28</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="21">
         <f>'generator_costs_04-08-2010'!T28</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N28" s="21">
         <f>'generator_costs_04-08-2010'!U28</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O28" s="21">
         <f>'generator_costs_04-08-2010'!V28</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P28" s="21">
         <f>'generator_costs_04-08-2010'!W28</f>
@@ -9442,23 +9676,23 @@
       </c>
       <c r="L29" s="21">
         <f>'generator_costs_04-08-2010'!S29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M29" s="21">
         <f>'generator_costs_04-08-2010'!T29</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N29" s="21">
         <f>'generator_costs_04-08-2010'!U29</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O29" s="21">
         <f>'generator_costs_04-08-2010'!V29</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P29" s="21">
         <f>'generator_costs_04-08-2010'!W29</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q29" s="21">
         <f>'generator_costs_04-08-2010'!X29</f>
@@ -9576,19 +9810,19 @@
       </c>
       <c r="L30" s="21">
         <f>'generator_costs_04-08-2010'!S30</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="21">
         <f>'generator_costs_04-08-2010'!T30</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N30" s="21">
         <f>'generator_costs_04-08-2010'!U30</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O30" s="21">
         <f>'generator_costs_04-08-2010'!V30</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P30" s="21">
         <f>'generator_costs_04-08-2010'!W30</f>
@@ -9710,19 +9944,19 @@
       </c>
       <c r="L31" s="21">
         <f>'generator_costs_04-08-2010'!S31</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31" s="21">
         <f>'generator_costs_04-08-2010'!T31</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N31" s="21">
         <f>'generator_costs_04-08-2010'!U31</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O31" s="21">
         <f>'generator_costs_04-08-2010'!V31</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P31" s="21">
         <f>'generator_costs_04-08-2010'!W31</f>
@@ -9798,6 +10032,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/DatabasePrep/GeneratorInfo/generator_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_costs.xlsx
@@ -23,6 +23,236 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
   <si>
+    <t>heat_rate_mbtu_per_mwh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commercial_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_build_year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_dispatch_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_runtime_hours</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_downtime_hours</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_Cogen_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>DOE Solar Program Costs, took 2020 value for fixed O+M, 10% added to capital costs to go from utility to distributed, but also assumed a 5% declination rate, , outage rates from Mathias</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overnight_cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Solid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest_between_price_year_and_cost_year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Residential_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geothermal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compressed_Air_Energy_Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>source - all dispatch data from TEPPC_Generator_Categories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_age_years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, assumed to run for 40 years, not 60</t>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>tech_name_again</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuclear_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from DOE solar program costs on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost Declination Rate (%/yr)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
+  </si>
+  <si>
+    <t>Geothermal_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_4_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_5_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_6_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
+  </si>
+  <si>
+    <t>storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offshore_Wind</t>
+  </si>
+  <si>
+    <t>Bio_Gas</t>
+  </si>
+  <si>
+    <t>year_1_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_2_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_3_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP_Trough_No_Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP_Trough_6h_Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, outage rates from Mathias</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -188,248 +418,13 @@
   </si>
   <si>
     <t>can_build_new</t>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nuclear_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from DOE solar program costs on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost Declination Rate (%/yr)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
-  </si>
-  <si>
-    <t>Geothermal_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_4_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_5_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_6_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
-  </si>
-  <si>
-    <t>storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offshore_Wind</t>
-  </si>
-  <si>
-    <t>Bio_Gas</t>
-  </si>
-  <si>
-    <t>year_1_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_2_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_3_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP_Trough_No_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP_Trough_6h_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>heat_rate_mbtu_per_mwh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commercial_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_build_year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_dispatch_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_runtime_hours</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_downtime_hours</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_Cogen_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Uranium</t>
-  </si>
-  <si>
-    <t>DOE Solar Program Costs, took 2020 value for fixed O+M, 10% added to capital costs to go from utility to distributed, but also assumed a 5% declination rate, , outage rates from Mathias</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overnight_cost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Solid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uranium</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>interest_between_price_year_and_cost_year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Residential_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geothermal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compressed_Air_Energy_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>source - all dispatch data from TEPPC_Generator_Categories</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>technology_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_age_years</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, assumed to run for 40 years, not 60</t>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
-    <t>tech_name_again</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
@@ -1423,11 +1418,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="490389656"/>
-        <c:axId val="490398760"/>
+        <c:axId val="654756952"/>
+        <c:axId val="654766056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="490389656"/>
+        <c:axId val="654756952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1443,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1462,14 +1456,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490398760"/>
+        <c:crossAx val="654766056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490398760"/>
+        <c:axId val="654766056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7.0"/>
@@ -1492,7 +1486,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
@@ -1506,7 +1499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490389656"/>
+        <c:crossAx val="654756952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1894,7 +1887,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T19" sqref="T19"/>
+      <selection pane="topRight" activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1925,130 +1918,130 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="5" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="AK1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" t="s">
         <v>23</v>
-      </c>
-      <c r="P1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -2056,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C2" s="5">
         <v>2007</v>
@@ -2065,7 +2058,7 @@
         <v>2010</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="F2">
         <v>2004</v>
@@ -2180,7 +2173,7 @@
         <v>CCGT</v>
       </c>
       <c r="AP2" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -2188,7 +2181,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C3" s="5">
         <v>2007</v>
@@ -2197,7 +2190,7 @@
         <v>2010</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="F3">
         <v>2004</v>
@@ -2312,7 +2305,7 @@
         <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="AP3" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -2320,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="C4" s="5">
         <v>2007</v>
@@ -2329,7 +2322,7 @@
         <v>2010</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F4">
         <v>2004</v>
@@ -2444,7 +2437,7 @@
         <v>Wind</v>
       </c>
       <c r="AP4" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -2452,7 +2445,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
@@ -2461,7 +2454,7 @@
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F5">
         <v>2004</v>
@@ -2576,7 +2569,7 @@
         <v>Offshore_Wind</v>
       </c>
       <c r="AP5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -2584,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5">
         <v>2007</v>
@@ -2593,7 +2586,7 @@
         <v>2010</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>2009</v>
@@ -2709,7 +2702,7 @@
         <v>Residential_PV</v>
       </c>
       <c r="AP6" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:42" s="11" customFormat="1">
@@ -2717,7 +2710,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C7" s="11">
         <v>2007</v>
@@ -2726,7 +2719,7 @@
         <v>2012</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="F7" s="11">
         <v>2010</v>
@@ -2837,10 +2830,10 @@
         <v>0</v>
       </c>
       <c r="AO7" s="11" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AP7" s="11" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -2848,7 +2841,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5">
         <v>2007</v>
@@ -2857,7 +2850,7 @@
         <v>2010</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>2007</v>
@@ -2972,7 +2965,7 @@
         <v>Bio_Gas</v>
       </c>
       <c r="AP8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -2980,7 +2973,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="C9" s="5">
         <v>2007</v>
@@ -2989,7 +2982,7 @@
         <v>2010</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>2004</v>
@@ -3104,7 +3097,7 @@
         <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="AP9" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -3112,7 +3105,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5">
         <v>2007</v>
@@ -3121,7 +3114,7 @@
         <v>2012</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>2007</v>
@@ -3236,7 +3229,7 @@
         <v>Biomass_IGCC</v>
       </c>
       <c r="AP10" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -3244,7 +3237,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
@@ -3253,7 +3246,7 @@
         <v>2010</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>2004</v>
@@ -3368,7 +3361,7 @@
         <v>Coal_IGCC</v>
       </c>
       <c r="AP11" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -3376,7 +3369,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5">
         <v>2007</v>
@@ -3385,7 +3378,7 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <v>2004</v>
@@ -3500,7 +3493,7 @@
         <v>Coal_Steam_Turbine</v>
       </c>
       <c r="AP12" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -3508,7 +3501,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
@@ -3517,7 +3510,7 @@
         <v>2010</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <v>2004</v>
@@ -3632,7 +3625,7 @@
         <v>Nuclear</v>
       </c>
       <c r="AP13" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -3640,7 +3633,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="C14" s="5">
         <v>2007</v>
@@ -3649,7 +3642,7 @@
         <v>2010</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <v>2004</v>
@@ -3715,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="AA14">
         <v>7.4999999999999997E-3</v>
@@ -3764,7 +3757,7 @@
         <v>Geothermal</v>
       </c>
       <c r="AP14" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -3772,7 +3765,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C15" s="5">
         <v>2007</v>
@@ -3781,7 +3774,7 @@
         <v>2010</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F15" s="5">
         <v>2004</v>
@@ -3896,7 +3889,7 @@
         <v>Hydro_NonPumped</v>
       </c>
       <c r="AP15" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -3904,7 +3897,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C16" s="5">
         <v>2007</v>
@@ -3913,7 +3906,7 @@
         <v>2010</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F16" s="5">
         <v>2004</v>
@@ -4028,7 +4021,7 @@
         <v>Hydro_Pumped</v>
       </c>
       <c r="AP16" s="5" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:42" s="18" customFormat="1">
@@ -4036,10 +4029,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="S17" s="22">
         <v>3</v>
@@ -4074,12 +4067,12 @@
         <v>18</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="G18" s="11"/>
       <c r="M18" s="11"/>
@@ -4118,12 +4111,12 @@
         <v>19</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="G19" s="11"/>
       <c r="M19" s="11"/>
@@ -4162,12 +4155,12 @@
         <v>20</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="G20" s="11"/>
       <c r="M20" s="11"/>
@@ -4206,12 +4199,12 @@
         <v>21</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="G21" s="11"/>
       <c r="M21" s="11"/>
@@ -4250,12 +4243,12 @@
         <v>22</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="G22" s="11"/>
       <c r="M22" s="11"/>
@@ -4294,10 +4287,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="S23" s="22">
         <v>3</v>
@@ -4332,7 +4325,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="C24" s="8">
         <v>2007</v>
@@ -4341,7 +4334,7 @@
         <v>2010</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="F24" s="8">
         <v>2009</v>
@@ -4452,10 +4445,10 @@
         <v>0</v>
       </c>
       <c r="AO24" s="9" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="AP24" s="9" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:42" s="8" customFormat="1">
@@ -4463,7 +4456,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C25" s="8">
         <v>2007</v>
@@ -4472,7 +4465,7 @@
         <v>2010</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="F25" s="8">
         <v>2009</v>
@@ -4583,10 +4576,10 @@
         <v>0</v>
       </c>
       <c r="AO25" s="9" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="AP25" s="9" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:42" s="5" customFormat="1">
@@ -4594,7 +4587,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C26" s="5">
         <v>2007</v>
@@ -4603,7 +4596,7 @@
         <v>2010</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="F26" s="5">
         <v>2010</v>
@@ -4714,10 +4707,10 @@
         <v>0</v>
       </c>
       <c r="AO26" s="9" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="AP26" s="9" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:42" s="9" customFormat="1">
@@ -4725,7 +4718,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="C27" s="9">
         <v>2007</v>
@@ -4734,7 +4727,7 @@
         <v>2010</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F27" s="9">
         <v>2010</v>
@@ -4845,10 +4838,10 @@
         <v>1</v>
       </c>
       <c r="AO27" s="14" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="AP27" s="14" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:42" s="21" customFormat="1">
@@ -4856,10 +4849,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="S28" s="22">
         <v>3</v>
@@ -4894,10 +4887,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="S29" s="22">
         <v>4</v>
@@ -4932,10 +4925,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="S30" s="22">
         <v>3</v>
@@ -4970,10 +4963,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="S31" s="22">
         <v>3</v>
@@ -5010,12 +5003,12 @@
     </row>
     <row r="33" spans="1:25" s="6" customFormat="1">
       <c r="A33" s="6" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B34">
         <v>2010</v>
@@ -5033,7 +5026,7 @@
         <v>2026</v>
       </c>
       <c r="G34" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S34" s="5"/>
       <c r="Y34"/>
@@ -7694,7 +7687,7 @@
       </c>
       <c r="S14" s="11">
         <f>'generator_costs_04-08-2010'!Z14</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="T14" s="11">
         <f>'generator_costs_04-08-2010'!AA14</f>

--- a/DatabasePrep/GeneratorInfo/generator_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_costs.xlsx
@@ -23,6 +23,249 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
   <si>
+    <t>var_o_m_$2007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_time_years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forced_outage_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduled_outage_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>connect_cost_generic_$2007_per_mw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_and_dollar_year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_ramp_rate_mw_per_hour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Vision Study (see PV_Cost_Calc.xlsx) for costs, ReEDs sheet for construction cost multiplier and cost fractions, Matthias for forced outage rate </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compressed_Air_Energy_storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Hydro_NonPumped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydro_Pumped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
+  </si>
+  <si>
+    <t>Biomass_IGCC</t>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
+  </si>
+  <si>
+    <t>Coal_IGCC</t>
+  </si>
+  <si>
+    <t>can_build_new</t>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
+  </si>
+  <si>
+    <t>Geothermal_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_4_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_5_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_6_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
+  </si>
+  <si>
+    <t>storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offshore_Wind</t>
+  </si>
+  <si>
+    <t>Bio_Gas</t>
+  </si>
+  <si>
+    <t>year_1_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_2_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_3_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP_Trough_No_Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP_Trough_6h_Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, outage rates from Mathias</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>overnight_cost_change</t>
+  </si>
+  <si>
+    <t>intermittent</t>
+  </si>
+  <si>
+    <t>resource_limited</t>
+  </si>
+  <si>
+    <t>baseload</t>
+  </si>
+  <si>
+    <t>min_build_capacity</t>
+  </si>
+  <si>
+    <t>startup_fuel_mbtu</t>
+  </si>
+  <si>
+    <t>nonfuel_startup_cost</t>
+  </si>
+  <si>
+    <t>$year_of_costs</t>
+  </si>
+  <si>
+    <t>cost_for_which_year?</t>
+  </si>
+  <si>
+    <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT</t>
+  </si>
+  <si>
+    <t>ReEDs Sheet</t>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Distributed_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_cost_multipulier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var_o_m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overnight_cost_$2007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m_$2007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>heat_rate_mbtu_per_mwh</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -175,256 +418,17 @@
   <si>
     <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
-  </si>
-  <si>
-    <t>Geothermal_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_4_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_5_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_6_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
-  </si>
-  <si>
-    <t>storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offshore_Wind</t>
-  </si>
-  <si>
-    <t>Bio_Gas</t>
-  </si>
-  <si>
-    <t>year_1_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_2_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_3_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP_Trough_No_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP_Trough_6h_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, outage rates from Mathias</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>overnight_cost_change</t>
-  </si>
-  <si>
-    <t>intermittent</t>
-  </si>
-  <si>
-    <t>resource_limited</t>
-  </si>
-  <si>
-    <t>baseload</t>
-  </si>
-  <si>
-    <t>min_build_capacity</t>
-  </si>
-  <si>
-    <t>startup_fuel_mbtu</t>
-  </si>
-  <si>
-    <t>nonfuel_startup_cost</t>
-  </si>
-  <si>
-    <t>$year_of_costs</t>
-  </si>
-  <si>
-    <t>cost_for_which_year?</t>
-  </si>
-  <si>
-    <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>ReEDs Sheet</t>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Distributed_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Central_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction_cost_multipulier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_o_m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_o_m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overnight_cost_$2007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_o_m_$2007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_o_m_$2007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction_time_years</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>forced_outage_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scheduled_outage_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>connect_cost_generic_$2007_per_mw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>price_and_dollar_year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_ramp_rate_mw_per_hour</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar Vision Study (see PV_Cost_Calc.xlsx) for costs, ReEDs sheet for construction cost multiplier and cost fractions, Matthias for forced outage rate </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compressed_Air_Energy_storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Hydro_NonPumped</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hydro_Pumped</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
-  </si>
-  <si>
-    <t>Biomass_IGCC</t>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
-  </si>
-  <si>
-    <t>Coal_IGCC</t>
-  </si>
-  <si>
-    <t>can_build_new</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
@@ -462,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -470,6 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -600,19 +605,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.053162956364598</c:v>
+                  <c:v>1.05373898316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.997433460691333</c:v>
+                  <c:v>0.997979006275249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.944652964191678</c:v>
+                  <c:v>0.945169641517293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.894665416716231</c:v>
+                  <c:v>0.8951547533852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.847323025713404</c:v>
+                  <c:v>0.847786468492342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -651,19 +656,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.67777019539913</c:v>
+                  <c:v>0.6781919976</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.639565820609489</c:v>
+                  <c:v>0.639963846773174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.603514940120683</c:v>
+                  <c:v>0.603890530448686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56949616632385</c:v>
+                  <c:v>0.569850585473546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53739495395542</c:v>
+                  <c:v>0.537729395298302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,19 +748,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.839890401320024</c:v>
+                  <c:v>1.8400284</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.803367658058552</c:v>
+                  <c:v>1.803502917395818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.767569909489366</c:v>
+                  <c:v>1.767702483861241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.732482764105779</c:v>
+                  <c:v>1.732612706810168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.698092116079698</c:v>
+                  <c:v>1.698219479356516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,19 +797,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.513234607835245</c:v>
+                  <c:v>3.51501642</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.334078054155916</c:v>
+                  <c:v>3.335769003237964</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.164057545833386</c:v>
+                  <c:v>3.165662265373771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.00270719243246</c:v>
+                  <c:v>3.004230079685916</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.849584861488611</c:v>
+                  <c:v>2.851030089472924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,19 +848,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.42620595413476</c:v>
+                  <c:v>6.060075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.697116936703115</c:v>
+                  <c:v>4.967217415977422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.088124182492767</c:v>
+                  <c:v>4.071442821679502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.579445316382326</c:v>
+                  <c:v>3.337209802189359</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.154556535623484</c:v>
+                  <c:v>2.735386385515947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,19 +890,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.869476592652092</c:v>
+                  <c:v>6.91137825</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.71395919150487</c:v>
+                  <c:v>5.74881255433581</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.752811833889383</c:v>
+                  <c:v>4.78180249863897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.953339457156623</c:v>
+                  <c:v>3.977453590610535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.288346648203362</c:v>
+                  <c:v>3.30840453363841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,19 +941,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.470155447682577</c:v>
+                  <c:v>2.4706677653504</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.330918365331435</c:v>
+                  <c:v>2.331401804809681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.199529762767202</c:v>
+                  <c:v>2.199985951854179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.075547238914494</c:v>
+                  <c:v>2.075977713653196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.958553329847132</c:v>
+                  <c:v>1.958959539697284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,19 +992,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.161069225611447</c:v>
+                  <c:v>3.16135611</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.09209733591345</c:v>
+                  <c:v>3.092377960724313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.024630355228509</c:v>
+                  <c:v>3.024904857040437</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.958635447699181</c:v>
+                  <c:v>2.958903960110895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.894080493919002</c:v>
+                  <c:v>2.894343147614212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,19 +1043,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.629009539105095</c:v>
+                  <c:v>3.6298046115072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.418894680024891</c:v>
+                  <c:v>3.419643718785054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.220945193763514</c:v>
+                  <c:v>3.221650864168803</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.034456721302908</c:v>
+                  <c:v>3.035121534323786</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.858765685081833</c:v>
+                  <c:v>2.859392006306895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,19 +1094,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.780890546953336</c:v>
+                  <c:v>2.78271872658</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.619880657314231</c:v>
+                  <c:v>2.62160298775519</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.468193027621673</c:v>
+                  <c:v>2.469815637404973</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.325287911337699</c:v>
+                  <c:v>2.326816574157705</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.190656812535984</c:v>
+                  <c:v>2.192096967797786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1140,19 +1145,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.263211530270902</c:v>
+                  <c:v>2.2641732828</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.157390411638769</c:v>
+                  <c:v>2.158307195446598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.056517177461437</c:v>
+                  <c:v>2.057391095153223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.960360479205699</c:v>
+                  <c:v>1.961193535075026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.868699785515728</c:v>
+                  <c:v>1.869493890141303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,19 +1194,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.979640018509202</c:v>
+                  <c:v>3.9822562656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.749224117787926</c:v>
+                  <c:v>3.9822562656</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.532148993382667</c:v>
+                  <c:v>3.9822562656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.327642231965364</c:v>
+                  <c:v>3.9822562656</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.134976141919441</c:v>
+                  <c:v>3.9822562656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1231,19 +1236,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.669825762045137</c:v>
+                  <c:v>3.670926930000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.525219984415768</c:v>
+                  <c:v>3.52627776195955</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.386312251402048</c:v>
+                  <c:v>3.387328348290072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.252878037310924</c:v>
+                  <c:v>3.253854095927334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.124701663657505</c:v>
+                  <c:v>3.125639261669953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,19 +1278,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.690364973631826</c:v>
+                  <c:v>2.6908435656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.608453899375566</c:v>
+                  <c:v>2.608917920093137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.529036696453335</c:v>
+                  <c:v>2.529486589557803</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.452037436252461</c:v>
+                  <c:v>2.452473631874302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.377382501889087</c:v>
+                  <c:v>2.377805417062988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1315,19 +1320,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.629622533609614</c:v>
+                  <c:v>4.632503724</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.368661169995165</c:v>
+                  <c:v>4.371379954192033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.12240960891972</c:v>
+                  <c:v>4.124975141393314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.890038692044511</c:v>
+                  <c:v>3.892459611248265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.67076599881321</c:v>
+                  <c:v>3.673050456270455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,11 +1423,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="654756952"/>
-        <c:axId val="654766056"/>
+        <c:axId val="633893240"/>
+        <c:axId val="550394328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="654756952"/>
+        <c:axId val="633893240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,6 +1448,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1456,14 +1462,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654766056"/>
+        <c:crossAx val="550394328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="654766056"/>
+        <c:axId val="550394328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7.0"/>
@@ -1486,6 +1492,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
@@ -1499,7 +1506,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654756952"/>
+        <c:crossAx val="633893240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1886,8 +1893,8 @@
   <dimension ref="A1:AP60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z15" sqref="Z15"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1918,130 +1925,130 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="AB1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>87</v>
-      </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>3</v>
-      </c>
       <c r="AH1" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="AK1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="AM1" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="AN1" s="15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AO1" s="12" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="AP1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -2049,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C2" s="5">
         <v>2007</v>
@@ -2058,7 +2065,7 @@
         <v>2010</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>2004</v>
@@ -2082,8 +2089,8 @@
         <v>1.853675</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M6" si="0">I2*J2*G2*(1-P2)^(H2-2007)</f>
-        <v>1096994.1363600737</v>
+        <f>I2*J2*G2/(1+P2)^(H2-2007)</f>
+        <v>1097594.136590925</v>
       </c>
       <c r="N2">
         <f>K2*G2</f>
@@ -2173,7 +2180,7 @@
         <v>CCGT</v>
       </c>
       <c r="AP2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -2181,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C3" s="5">
         <v>2007</v>
@@ -2190,7 +2197,7 @@
         <v>2010</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>2004</v>
@@ -2213,16 +2220,16 @@
       <c r="L3">
         <v>3.0514999999999999</v>
       </c>
-      <c r="M3" s="11">
-        <f t="shared" si="0"/>
-        <v>707913.80664464098</v>
+      <c r="M3" s="23">
+        <f>I3*J3*G3/(1+P3)^(H3-2007)</f>
+        <v>708354.36836260383</v>
       </c>
       <c r="N3" s="11">
-        <f t="shared" ref="N3:N27" si="1">K3*G3</f>
+        <f t="shared" ref="N3:N27" si="0">K3*G3</f>
         <v>11321.478000000001</v>
       </c>
       <c r="O3" s="11">
-        <f t="shared" ref="O3:O27" si="2">L3*G3</f>
+        <f t="shared" ref="O3:O27" si="1">L3*G3</f>
         <v>3.3505470000000002</v>
       </c>
       <c r="P3">
@@ -2301,11 +2308,11 @@
         <v>0</v>
       </c>
       <c r="AO3" s="5" t="str">
-        <f t="shared" ref="AO3:AO16" si="3">B3</f>
+        <f t="shared" ref="AO3:AO16" si="2">B3</f>
         <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="AP3" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -2313,7 +2320,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5">
         <v>2007</v>
@@ -2322,7 +2329,7 @@
         <v>2010</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>2004</v>
@@ -2345,16 +2352,16 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="23">
+        <f>I4*J4*G4/(1+P4)^(H4-2007)</f>
+        <v>1867907.1476673284</v>
+      </c>
+      <c r="N4" s="11">
         <f t="shared" si="0"/>
-        <v>1867767.0581335495</v>
-      </c>
-      <c r="N4" s="11">
+        <v>57791.034000000007</v>
+      </c>
+      <c r="O4" s="11">
         <f t="shared" si="1"/>
-        <v>57791.034000000007</v>
-      </c>
-      <c r="O4" s="11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P4">
@@ -2433,11 +2440,11 @@
         <v>0</v>
       </c>
       <c r="AO4" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Wind</v>
       </c>
       <c r="AP4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -2445,7 +2452,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
@@ -2454,7 +2461,7 @@
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>2004</v>
@@ -2477,16 +2484,16 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="23">
+        <f>I5*J5*G5/(1+P5)^(H5-2007)</f>
+        <v>3655745.0457166359</v>
+      </c>
+      <c r="N5" s="11">
         <f t="shared" si="0"/>
-        <v>3653891.8961960142</v>
-      </c>
-      <c r="N5" s="11">
+        <v>96317.65800000001</v>
+      </c>
+      <c r="O5" s="11">
         <f t="shared" si="1"/>
-        <v>96317.65800000001</v>
-      </c>
-      <c r="O5" s="11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P5">
@@ -2565,11 +2572,11 @@
         <v>0</v>
       </c>
       <c r="AO5" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Offshore_Wind</v>
       </c>
       <c r="AP5" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -2577,7 +2584,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C6" s="5">
         <v>2007</v>
@@ -2586,7 +2593,7 @@
         <v>2010</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="F6">
         <v>2009</v>
@@ -2598,8 +2605,8 @@
         <v>2010</v>
       </c>
       <c r="I6">
-        <f>3973770*1.1</f>
-        <v>4371147</v>
+        <f>5950000</f>
+        <v>5950000</v>
       </c>
       <c r="J6">
         <v>1.05</v>
@@ -2610,20 +2617,20 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="23">
+        <f>I6*J6*G6/(1+P6)^(H6-2007)</f>
+        <v>7034797.8339853324</v>
+      </c>
+      <c r="N6" s="11">
         <f t="shared" si="0"/>
-        <v>5065915.4975469476</v>
-      </c>
-      <c r="N6" s="11">
+        <v>10210.219999999999</v>
+      </c>
+      <c r="O6" s="11">
         <f t="shared" si="1"/>
-        <v>10210.219999999999</v>
-      </c>
-      <c r="O6" s="11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P6" s="11">
-        <v>-4.3999999999999997E-2</v>
+        <v>-4.8500000000000001E-2</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2632,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T6" s="5">
         <v>1</v>
@@ -2698,11 +2705,11 @@
         <v>0</v>
       </c>
       <c r="AO6" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Residential_PV</v>
       </c>
       <c r="AP6" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:42" s="11" customFormat="1">
@@ -2710,7 +2717,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C7" s="11">
         <v>2007</v>
@@ -2719,7 +2726,7 @@
         <v>2012</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F7" s="11">
         <v>2010</v>
@@ -2742,16 +2749,16 @@
       <c r="L7" s="11">
         <v>0</v>
       </c>
-      <c r="M7" s="11">
-        <f t="shared" ref="M7" si="4">I7*J7*G7*(1-P7)^(H7-2007)</f>
-        <v>7887030.73596178</v>
+      <c r="M7" s="23">
+        <f>I7*J7*G7/(1+P7)^(H7-2007)</f>
+        <v>7935139.1551307421</v>
       </c>
       <c r="N7" s="11">
-        <f t="shared" ref="N7" si="5">K7*G7</f>
+        <f t="shared" ref="N7" si="3">K7*G7</f>
         <v>46146.299999999996</v>
       </c>
       <c r="O7" s="11">
-        <f t="shared" ref="O7" si="6">L7*G7</f>
+        <f t="shared" ref="O7" si="4">L7*G7</f>
         <v>0</v>
       </c>
       <c r="P7" s="11">
@@ -2830,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="AO7" s="11" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="AP7" s="11" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -2841,7 +2848,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C8" s="5">
         <v>2007</v>
@@ -2850,7 +2857,7 @@
         <v>2010</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F8">
         <v>2007</v>
@@ -2873,16 +2880,16 @@
       <c r="L8">
         <v>0.01</v>
       </c>
-      <c r="M8" s="11">
-        <f t="shared" ref="M8:M16" si="7">I8*J8*G8*(1-P8)^(H8-2007)</f>
-        <v>2580014.8160000001</v>
+      <c r="M8" s="23">
+        <f>I8*J8*G8/(1+P8)^(H8-2007)</f>
+        <v>2580549.9188311687</v>
       </c>
       <c r="N8" s="11">
+        <f t="shared" si="0"/>
+        <v>114250</v>
+      </c>
+      <c r="O8" s="11">
         <f t="shared" si="1"/>
-        <v>114250</v>
-      </c>
-      <c r="O8" s="11">
-        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="P8">
@@ -2961,11 +2968,11 @@
         <v>0</v>
       </c>
       <c r="AO8" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Bio_Gas</v>
       </c>
       <c r="AP8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -2973,7 +2980,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5">
         <v>2007</v>
@@ -2982,7 +2989,7 @@
         <v>2010</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="F9">
         <v>2004</v>
@@ -3005,16 +3012,16 @@
       <c r="L9">
         <v>9.5180000000000007</v>
       </c>
-      <c r="M9" s="11">
-        <f t="shared" si="7"/>
-        <v>3213805.9048526064</v>
+      <c r="M9" s="23">
+        <f>I9*J9*G9/(1+P9)^(H9-2007)</f>
+        <v>3214097.5753843598</v>
       </c>
       <c r="N9" s="11">
+        <f t="shared" si="0"/>
+        <v>73155.348000000013</v>
+      </c>
+      <c r="O9" s="11">
         <f t="shared" si="1"/>
-        <v>73155.348000000013</v>
-      </c>
-      <c r="O9" s="11">
-        <f t="shared" si="2"/>
         <v>10.450764000000001</v>
       </c>
       <c r="P9">
@@ -3093,11 +3100,11 @@
         <v>0</v>
       </c>
       <c r="AO9" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="AP9" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -3105,7 +3112,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5">
         <v>2007</v>
@@ -3114,7 +3121,7 @@
         <v>2012</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="F10">
         <v>2007</v>
@@ -3137,16 +3144,16 @@
       <c r="L10">
         <v>6.71</v>
       </c>
-      <c r="M10" s="11">
-        <f t="shared" si="7"/>
-        <v>3795027.264</v>
+      <c r="M10" s="23">
+        <f>I10*J10*G10/(1+P10)^(H10-2007)</f>
+        <v>3795858.7088915962</v>
       </c>
       <c r="N10" s="11">
+        <f t="shared" si="0"/>
+        <v>64450</v>
+      </c>
+      <c r="O10" s="11">
         <f t="shared" si="1"/>
-        <v>64450</v>
-      </c>
-      <c r="O10" s="11">
-        <f t="shared" si="2"/>
         <v>6.71</v>
       </c>
       <c r="P10">
@@ -3225,11 +3232,11 @@
         <v>0</v>
       </c>
       <c r="AO10" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Biomass_IGCC</v>
       </c>
       <c r="AP10" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -3237,7 +3244,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
@@ -3246,7 +3253,7 @@
         <v>2010</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="F11">
         <v>2004</v>
@@ -3269,16 +3276,16 @@
       <c r="L11">
         <v>2.6598190000000002</v>
       </c>
-      <c r="M11" s="11">
-        <f t="shared" si="7"/>
-        <v>2908109.039165068</v>
+      <c r="M11" s="23">
+        <f>I11*J11*G11/(1+P11)^(H11-2007)</f>
+        <v>2910020.8532432388</v>
       </c>
       <c r="N11" s="11">
+        <f t="shared" si="0"/>
+        <v>38675.952000000005</v>
+      </c>
+      <c r="O11" s="11">
         <f t="shared" si="1"/>
-        <v>38675.952000000005</v>
-      </c>
-      <c r="O11" s="11">
-        <f t="shared" si="2"/>
         <v>2.9204812620000005</v>
       </c>
       <c r="P11">
@@ -3357,11 +3364,11 @@
         <v>0</v>
       </c>
       <c r="AO11" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Coal_IGCC</v>
       </c>
       <c r="AP11" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -3369,7 +3376,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="C12" s="5">
         <v>2007</v>
@@ -3378,7 +3385,7 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="F12">
         <v>2004</v>
@@ -3401,16 +3408,16 @@
       <c r="L12">
         <v>4.1810159999999996</v>
       </c>
-      <c r="M12" s="11">
-        <f t="shared" si="7"/>
-        <v>2345969.9732236774</v>
+      <c r="M12" s="23">
+        <f>I12*J12*G12/(1+P12)^(H12-2007)</f>
+        <v>2346966.8939819704</v>
       </c>
       <c r="N12" s="11">
+        <f t="shared" si="0"/>
+        <v>27534.546000000002</v>
+      </c>
+      <c r="O12" s="11">
         <f t="shared" si="1"/>
-        <v>27534.546000000002</v>
-      </c>
-      <c r="O12" s="11">
-        <f t="shared" si="2"/>
         <v>4.5907555679999996</v>
       </c>
       <c r="P12">
@@ -3489,11 +3496,11 @@
         <v>0</v>
       </c>
       <c r="AO12" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Coal_Steam_Turbine</v>
       </c>
       <c r="AP12" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -3501,7 +3508,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
@@ -3510,7 +3517,7 @@
         <v>2010</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="F13">
         <v>2004</v>
@@ -3533,20 +3540,20 @@
       <c r="L13">
         <v>0.44633899999999999</v>
       </c>
-      <c r="M13" s="11">
-        <f t="shared" si="7"/>
-        <v>4161698.1736763939</v>
+      <c r="M13" s="23">
+        <f>I13*J13*G13/(1+P13)^(H13-2007)</f>
+        <v>3982256.2656</v>
       </c>
       <c r="N13" s="11">
+        <f t="shared" si="0"/>
+        <v>90034.902000000002</v>
+      </c>
+      <c r="O13" s="11">
         <f t="shared" si="1"/>
-        <v>90034.902000000002</v>
-      </c>
-      <c r="O13" s="11">
-        <f t="shared" si="2"/>
         <v>0.49008022200000001</v>
       </c>
       <c r="P13">
-        <v>-1.4800000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>91289</v>
@@ -3621,11 +3628,11 @@
         <v>0</v>
       </c>
       <c r="AO13" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Nuclear</v>
       </c>
       <c r="AP13" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -3633,7 +3640,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C14" s="5">
         <v>2007</v>
@@ -3642,7 +3649,7 @@
         <v>2010</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="F14">
         <v>2004</v>
@@ -3665,16 +3672,16 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" s="11">
-        <f t="shared" si="7"/>
-        <v>3782159.6869059303</v>
+      <c r="M14" s="23">
+        <f>I14*J14*G14/(1+P14)^(H14-2007)</f>
+        <v>3783294.561779411</v>
       </c>
       <c r="N14" s="11">
+        <f t="shared" si="0"/>
+        <v>261269.10000000003</v>
+      </c>
+      <c r="O14" s="11">
         <f t="shared" si="1"/>
-        <v>261269.10000000003</v>
-      </c>
-      <c r="O14" s="11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P14">
@@ -3753,11 +3760,11 @@
         <v>0</v>
       </c>
       <c r="AO14" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Geothermal</v>
       </c>
       <c r="AP14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -3765,7 +3772,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5">
         <v>2007</v>
@@ -3774,7 +3781,7 @@
         <v>2010</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F15" s="5">
         <v>2004</v>
@@ -3797,16 +3804,16 @@
       <c r="L15">
         <v>2.213479</v>
       </c>
-      <c r="M15" s="11">
-        <f t="shared" si="7"/>
-        <v>2753481.9007692588</v>
+      <c r="M15" s="23">
+        <f>I15*J15*G15/(1+P15)^(H15-2007)</f>
+        <v>2753971.7206766452</v>
       </c>
       <c r="N15" s="11">
+        <f t="shared" si="0"/>
+        <v>13631.670000000002</v>
+      </c>
+      <c r="O15" s="11">
         <f t="shared" si="1"/>
-        <v>13631.670000000002</v>
-      </c>
-      <c r="O15" s="11">
-        <f t="shared" si="2"/>
         <v>2.4303999420000002</v>
       </c>
       <c r="P15">
@@ -3885,11 +3892,11 @@
         <v>0</v>
       </c>
       <c r="AO15" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Hydro_NonPumped</v>
       </c>
       <c r="AP15" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -3897,7 +3904,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5">
         <v>2007</v>
@@ -3906,7 +3913,7 @@
         <v>2010</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="F16" s="5">
         <v>2004</v>
@@ -3929,16 +3936,16 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" s="11">
-        <f t="shared" si="7"/>
-        <v>4835523.5053754263</v>
+      <c r="M16" s="23">
+        <f>I16*J16*G16/(1+P16)^(H16-2007)</f>
+        <v>4838532.8357808823</v>
       </c>
       <c r="N16" s="11">
+        <f t="shared" si="0"/>
+        <v>29665.764000000003</v>
+      </c>
+      <c r="O16" s="11">
         <f t="shared" si="1"/>
-        <v>29665.764000000003</v>
-      </c>
-      <c r="O16" s="11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P16">
@@ -4017,11 +4024,11 @@
         <v>0</v>
       </c>
       <c r="AO16" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Hydro_Pumped</v>
       </c>
       <c r="AP16" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:42" s="18" customFormat="1">
@@ -4029,11 +4036,12 @@
         <v>17</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="M17" s="23"/>
       <c r="S17" s="22">
         <v>3</v>
       </c>
@@ -4067,15 +4075,15 @@
         <v>18</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="M18" s="11"/>
+      <c r="M18" s="23"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="S18" s="22">
@@ -4111,15 +4119,15 @@
         <v>19</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G19" s="11"/>
-      <c r="M19" s="11"/>
+      <c r="M19" s="23"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="S19" s="22">
@@ -4155,15 +4163,15 @@
         <v>20</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="M20" s="11"/>
+      <c r="M20" s="23"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="S20" s="22">
@@ -4198,16 +4206,16 @@
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="23"/>
+      <c r="B21" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="24"/>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="G21" s="11"/>
-      <c r="M21" s="11"/>
+      <c r="M21" s="23"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="S21" s="22">
@@ -4243,15 +4251,15 @@
         <v>22</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="G22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="M22" s="23"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="S22" s="22">
@@ -4287,11 +4295,12 @@
         <v>23</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>46</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M23" s="23"/>
       <c r="S23" s="22">
         <v>3</v>
       </c>
@@ -4325,7 +4334,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C24" s="8">
         <v>2007</v>
@@ -4334,7 +4343,7 @@
         <v>2010</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F24" s="8">
         <v>2009</v>
@@ -4346,7 +4355,7 @@
         <v>2010</v>
       </c>
       <c r="I24" s="8">
-        <v>4120000</v>
+        <v>5100000</v>
       </c>
       <c r="J24" s="8">
         <v>1.05</v>
@@ -4357,20 +4366,20 @@
       <c r="L24" s="8">
         <v>0</v>
       </c>
-      <c r="M24" s="11">
-        <f t="shared" ref="M24:M27" si="8">I24*J24*G24*(1-P24)^(H24-2007)</f>
-        <v>4774850.1365644811</v>
+      <c r="M24" s="23">
+        <f>I24*J24*G24/(1+P24)^(H24-2007)</f>
+        <v>5976906.1693058107</v>
       </c>
       <c r="N24" s="11">
+        <f t="shared" si="0"/>
+        <v>10210.219999999999</v>
+      </c>
+      <c r="O24" s="11">
         <f t="shared" si="1"/>
-        <v>10210.219999999999</v>
-      </c>
-      <c r="O24" s="11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P24" s="8">
-        <v>-4.3999999999999997E-2</v>
+        <v>-4.5699999999999998E-2</v>
       </c>
       <c r="Q24" s="8">
         <v>0</v>
@@ -4445,10 +4454,10 @@
         <v>0</v>
       </c>
       <c r="AO24" s="9" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AP24" s="9" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:42" s="8" customFormat="1">
@@ -4456,7 +4465,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C25" s="8">
         <v>2007</v>
@@ -4465,7 +4474,7 @@
         <v>2010</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F25" s="8">
         <v>2009</v>
@@ -4477,7 +4486,7 @@
         <v>2010</v>
       </c>
       <c r="I25" s="8">
-        <v>3900000</v>
+        <v>4060000</v>
       </c>
       <c r="J25" s="8">
         <v>1.05</v>
@@ -4488,20 +4497,20 @@
       <c r="L25" s="8">
         <v>0</v>
       </c>
-      <c r="M25" s="11">
-        <f t="shared" si="8"/>
-        <v>4519882.4108256008</v>
+      <c r="M25" s="23">
+        <f>I25*J25*G25/(1+P25)^(H25-2007)</f>
+        <v>4634620.2138119834</v>
       </c>
       <c r="N25" s="11">
+        <f t="shared" si="0"/>
+        <v>10210.219999999999</v>
+      </c>
+      <c r="O25" s="11">
         <f t="shared" si="1"/>
-        <v>10210.219999999999</v>
-      </c>
-      <c r="O25" s="11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P25" s="8">
-        <v>-4.3999999999999997E-2</v>
+        <v>-3.73E-2</v>
       </c>
       <c r="Q25" s="8">
         <v>65639</v>
@@ -4576,10 +4585,10 @@
         <v>0</v>
       </c>
       <c r="AO25" s="9" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AP25" s="9" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:42" s="5" customFormat="1">
@@ -4587,7 +4596,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C26" s="5">
         <v>2007</v>
@@ -4596,7 +4605,7 @@
         <v>2010</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F26" s="5">
         <v>2010</v>
@@ -4619,16 +4628,16 @@
       <c r="L26" s="9">
         <v>0</v>
       </c>
-      <c r="M26" s="11">
-        <f t="shared" si="8"/>
-        <v>4615604.3710546866</v>
+      <c r="M26" s="23">
+        <f>I26*J26*G26/(1+P26)^(H26-2007)</f>
+        <v>4624269.4583522985</v>
       </c>
       <c r="N26" s="11">
+        <f t="shared" si="0"/>
+        <v>42817.049999999996</v>
+      </c>
+      <c r="O26" s="11">
         <f t="shared" si="1"/>
-        <v>42817.049999999996</v>
-      </c>
-      <c r="O26" s="11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P26" s="9">
@@ -4707,10 +4716,10 @@
         <v>0</v>
       </c>
       <c r="AO26" s="9" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="AP26" s="9" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:42" s="9" customFormat="1">
@@ -4718,7 +4727,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C27" s="9">
         <v>2007</v>
@@ -4727,7 +4736,7 @@
         <v>2010</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F27" s="9">
         <v>2010</v>
@@ -4750,16 +4759,16 @@
       <c r="L27" s="9">
         <v>3.1</v>
       </c>
-      <c r="M27" s="14">
-        <f t="shared" si="8"/>
-        <v>1402497.9187390334</v>
+      <c r="M27" s="23">
+        <f>I27*J27*G27/(1+P27)^(H27-2007)</f>
+        <v>1402503.9775474914</v>
       </c>
       <c r="N27" s="14">
+        <f t="shared" si="0"/>
+        <v>9949.15</v>
+      </c>
+      <c r="O27" s="14">
         <f t="shared" si="1"/>
-        <v>9949.15</v>
-      </c>
-      <c r="O27" s="14">
-        <f t="shared" si="2"/>
         <v>2.9914999999999998</v>
       </c>
       <c r="P27" s="9">
@@ -4838,10 +4847,10 @@
         <v>1</v>
       </c>
       <c r="AO27" s="14" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="AP27" s="14" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:42" s="21" customFormat="1">
@@ -4849,10 +4858,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="S28" s="22">
         <v>3</v>
@@ -4887,10 +4896,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="S29" s="22">
         <v>4</v>
@@ -4925,10 +4934,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="S30" s="22">
         <v>3</v>
@@ -4963,10 +4972,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="S31" s="22">
         <v>3</v>
@@ -5003,12 +5012,12 @@
     </row>
     <row r="33" spans="1:25" s="6" customFormat="1">
       <c r="A33" s="6" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>2010</v>
@@ -5026,35 +5035,35 @@
         <v>2026</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="S34" s="5"/>
       <c r="Y34"/>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="5" t="str">
-        <f t="shared" ref="A35:A49" si="9">B2</f>
+        <f t="shared" ref="A35:A49" si="5">B2</f>
         <v>CCGT</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" ref="B35:F49" si="10">$M2*(1+$P2)^(B$34-2007)/1000000</f>
-        <v>1.0531629563645977</v>
+        <f>$M2*(1+$P2)^(B$34-2007)/1000000</f>
+        <v>1.0537389831600001</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="10"/>
-        <v>0.99743346069133265</v>
+        <f>$M2*(1+$P2)^(C$34-2007)/1000000</f>
+        <v>0.99797900627524927</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="10"/>
-        <v>0.94465296419167832</v>
+        <f>$M2*(1+$P2)^(D$34-2007)/1000000</f>
+        <v>0.94516964151729288</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="10"/>
-        <v>0.89466541671623157</v>
+        <f>$M2*(1+$P2)^(E$34-2007)/1000000</f>
+        <v>0.89515475338520012</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="10"/>
-        <v>0.84732302571340368</v>
+        <f>$M2*(1+$P2)^(F$34-2007)/1000000</f>
+        <v>0.84778646849234207</v>
       </c>
       <c r="G35" s="2">
         <f>-P2*100</f>
@@ -5065,31 +5074,31 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" si="10"/>
-        <v>0.67777019539912997</v>
+        <f>$M3*(1+$P3)^(B$34-2007)/1000000</f>
+        <v>0.67819199760000015</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="10"/>
-        <v>0.63956582060948919</v>
+        <f>$M3*(1+$P3)^(C$34-2007)/1000000</f>
+        <v>0.63996384677317375</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="10"/>
-        <v>0.60351494012068285</v>
+        <f>$M3*(1+$P3)^(D$34-2007)/1000000</f>
+        <v>0.60389053044868624</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="10"/>
-        <v>0.56949616632385003</v>
+        <f>$M3*(1+$P3)^(E$34-2007)/1000000</f>
+        <v>0.56985058547354583</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="10"/>
-        <v>0.5373949539554197</v>
+        <f>$M3*(1+$P3)^(F$34-2007)/1000000</f>
+        <v>0.5377293952983021</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" ref="G36:G60" si="11">-P3*100</f>
+        <f t="shared" ref="G36:G60" si="6">-P3*100</f>
         <v>1.44</v>
       </c>
       <c r="S36" s="5"/>
@@ -5097,31 +5106,31 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Wind</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="10"/>
-        <v>1.8398904013200241</v>
+        <f>$M4*(1+$P4)^(B$34-2007)/1000000</f>
+        <v>1.8400284000000002</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="10"/>
-        <v>1.8033676580585525</v>
+        <f>$M4*(1+$P4)^(C$34-2007)/1000000</f>
+        <v>1.8035029173958179</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
-        <v>1.767569909489366</v>
+        <f>$M4*(1+$P4)^(D$34-2007)/1000000</f>
+        <v>1.7677024838612414</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="10"/>
-        <v>1.7324827641057787</v>
+        <f>$M4*(1+$P4)^(E$34-2007)/1000000</f>
+        <v>1.7326127068101682</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="10"/>
-        <v>1.6980921160796985</v>
+        <f>$M4*(1+$P4)^(F$34-2007)/1000000</f>
+        <v>1.6982194793565157</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="S37" s="5"/>
@@ -5129,31 +5138,31 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Offshore_Wind</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="10"/>
-        <v>3.513234607835245</v>
+        <f>$M5*(1+$P5)^(B$34-2007)/1000000</f>
+        <v>3.5150164199999998</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="10"/>
-        <v>3.3340780541559165</v>
+        <f>$M5*(1+$P5)^(C$34-2007)/1000000</f>
+        <v>3.3357690032379645</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
-        <v>3.1640575458333862</v>
+        <f>$M5*(1+$P5)^(D$34-2007)/1000000</f>
+        <v>3.1656622653737712</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="10"/>
-        <v>3.0027071924324598</v>
+        <f>$M5*(1+$P5)^(E$34-2007)/1000000</f>
+        <v>3.0042300796859158</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="10"/>
-        <v>2.8495848614886108</v>
+        <f>$M5*(1+$P5)^(F$34-2007)/1000000</f>
+        <v>2.8510300894729244</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
       <c r="S38" s="5"/>
@@ -5161,63 +5170,63 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Residential_PV</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" si="10"/>
-        <v>4.4262059541347591</v>
+        <f>$M6*(1+$P6)^(B$34-2007)/1000000</f>
+        <v>6.0600750000000003</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="10"/>
-        <v>3.6971169367031149</v>
+        <f>$M6*(1+$P6)^(C$34-2007)/1000000</f>
+        <v>4.9672174159774221</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="10"/>
-        <v>3.0881241824927677</v>
+        <f>$M6*(1+$P6)^(D$34-2007)/1000000</f>
+        <v>4.0714428216795024</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="10"/>
-        <v>2.5794453163823263</v>
+        <f>$M6*(1+$P6)^(E$34-2007)/1000000</f>
+        <v>3.3372098021893595</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="10"/>
-        <v>2.1545565356234837</v>
+        <f>$M6*(1+$P6)^(F$34-2007)/1000000</f>
+        <v>2.7353863855159473</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="11"/>
-        <v>4.3999999999999995</v>
+        <f t="shared" si="6"/>
+        <v>4.8500000000000005</v>
       </c>
       <c r="S39" s="5"/>
       <c r="Y39"/>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>CSP_Trough_6h_Storage</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" si="10"/>
-        <v>6.8694765926520924</v>
+        <f>$M7*(1+$P7)^(B$34-2007)/1000000</f>
+        <v>6.9113782500000003</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="10"/>
-        <v>5.7139591915048698</v>
+        <f>$M7*(1+$P7)^(C$34-2007)/1000000</f>
+        <v>5.7488125543358102</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="10"/>
-        <v>4.7528118338893828</v>
+        <f>$M7*(1+$P7)^(D$34-2007)/1000000</f>
+        <v>4.78180249863897</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="10"/>
-        <v>3.9533394571566234</v>
+        <f>$M7*(1+$P7)^(E$34-2007)/1000000</f>
+        <v>3.9774535906105353</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="10"/>
-        <v>3.2883466482033623</v>
+        <f>$M7*(1+$P7)^(F$34-2007)/1000000</f>
+        <v>3.3084045336384098</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="S40" s="5"/>
@@ -5225,31 +5234,31 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Bio_Gas</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="10"/>
-        <v>2.4701554476825773</v>
+        <f>$M8*(1+$P8)^(B$34-2007)/1000000</f>
+        <v>2.4706677653504001</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="10"/>
-        <v>2.3309183653314354</v>
+        <f>$M8*(1+$P8)^(C$34-2007)/1000000</f>
+        <v>2.3314018048096807</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="10"/>
-        <v>2.1995297627672028</v>
+        <f>$M8*(1+$P8)^(D$34-2007)/1000000</f>
+        <v>2.1999859518541793</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="10"/>
-        <v>2.0755472389144938</v>
+        <f>$M8*(1+$P8)^(E$34-2007)/1000000</f>
+        <v>2.0759777136531965</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="10"/>
-        <v>1.9585533298471325</v>
+        <f>$M8*(1+$P8)^(F$34-2007)/1000000</f>
+        <v>1.9589595396972839</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>1.44</v>
       </c>
       <c r="S41" s="5"/>
@@ -5257,31 +5266,31 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" si="10"/>
-        <v>3.1610692256114468</v>
+        <f>$M9*(1+$P9)^(B$34-2007)/1000000</f>
+        <v>3.1613561100000003</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="10"/>
-        <v>3.0920973359134503</v>
+        <f>$M9*(1+$P9)^(C$34-2007)/1000000</f>
+        <v>3.0923779607243134</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="10"/>
-        <v>3.024630355228509</v>
+        <f>$M9*(1+$P9)^(D$34-2007)/1000000</f>
+        <v>3.0249048570404371</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="10"/>
-        <v>2.958635447699181</v>
+        <f>$M9*(1+$P9)^(E$34-2007)/1000000</f>
+        <v>2.9589039601108955</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="10"/>
-        <v>2.8940804939190024</v>
+        <f>$M9*(1+$P9)^(F$34-2007)/1000000</f>
+        <v>2.8943431476142125</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0.54999999999999993</v>
       </c>
       <c r="S42" s="5"/>
@@ -5289,31 +5298,31 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Biomass_IGCC</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" si="10"/>
-        <v>3.6290095391050952</v>
+        <f>$M10*(1+$P10)^(B$34-2007)/1000000</f>
+        <v>3.6298046115072</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="10"/>
-        <v>3.4188946800248909</v>
+        <f>$M10*(1+$P10)^(C$34-2007)/1000000</f>
+        <v>3.4196437187850544</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="10"/>
-        <v>3.2209451937635145</v>
+        <f>$M10*(1+$P10)^(D$34-2007)/1000000</f>
+        <v>3.2216508641688026</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="10"/>
-        <v>3.0344567213029081</v>
+        <f>$M10*(1+$P10)^(E$34-2007)/1000000</f>
+        <v>3.0351215343237863</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="10"/>
-        <v>2.858765685081833</v>
+        <f>$M10*(1+$P10)^(F$34-2007)/1000000</f>
+        <v>2.8593920063068952</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>1.48</v>
       </c>
       <c r="S43" s="5"/>
@@ -5321,31 +5330,31 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Coal_IGCC</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" si="10"/>
-        <v>2.7808905469533363</v>
+        <f>$M11*(1+$P11)^(B$34-2007)/1000000</f>
+        <v>2.7827187265800002</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6198806573142313</v>
+        <f>$M11*(1+$P11)^(C$34-2007)/1000000</f>
+        <v>2.6216029877551899</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="10"/>
-        <v>2.4681930276216737</v>
+        <f>$M11*(1+$P11)^(D$34-2007)/1000000</f>
+        <v>2.4698156374049733</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="10"/>
-        <v>2.325287911337699</v>
+        <f>$M11*(1+$P11)^(E$34-2007)/1000000</f>
+        <v>2.3268165741577049</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="10"/>
-        <v>2.1906568125359844</v>
+        <f>$M11*(1+$P11)^(F$34-2007)/1000000</f>
+        <v>2.1920969677977862</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>1.48</v>
       </c>
       <c r="S44" s="5"/>
@@ -5353,31 +5362,31 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Coal_Steam_Turbine</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" si="10"/>
-        <v>2.2632115302709024</v>
+        <f>$M12*(1+$P12)^(B$34-2007)/1000000</f>
+        <v>2.2641732828000003</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="10"/>
-        <v>2.1573904116387688</v>
+        <f>$M12*(1+$P12)^(C$34-2007)/1000000</f>
+        <v>2.1583071954465982</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="10"/>
-        <v>2.0565171774614375</v>
+        <f>$M12*(1+$P12)^(D$34-2007)/1000000</f>
+        <v>2.0573910951532226</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="10"/>
-        <v>1.9603604792056992</v>
+        <f>$M12*(1+$P12)^(E$34-2007)/1000000</f>
+        <v>1.9611935350750256</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="10"/>
-        <v>1.8686997855157279</v>
+        <f>$M12*(1+$P12)^(F$34-2007)/1000000</f>
+        <v>1.8694938901413034</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>1.1900000000000002</v>
       </c>
       <c r="S45" s="5"/>
@@ -5385,63 +5394,63 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Nuclear</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" si="10"/>
-        <v>3.979640018509202</v>
+        <f>$M13*(1+$P13)^(B$34-2007)/1000000</f>
+        <v>3.9822562656000002</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="10"/>
-        <v>3.7492241177879264</v>
+        <f>$M13*(1+$P13)^(C$34-2007)/1000000</f>
+        <v>3.9822562656000002</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="10"/>
-        <v>3.5321489933826671</v>
+        <f>$M13*(1+$P13)^(D$34-2007)/1000000</f>
+        <v>3.9822562656000002</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="10"/>
-        <v>3.3276422319653642</v>
+        <f>$M13*(1+$P13)^(E$34-2007)/1000000</f>
+        <v>3.9822562656000002</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="10"/>
-        <v>3.1349761419194406</v>
+        <f>$M13*(1+$P13)^(F$34-2007)/1000000</f>
+        <v>3.9822562656000002</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="11"/>
-        <v>1.48</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="S46" s="5"/>
       <c r="Y46"/>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Geothermal</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" si="10"/>
-        <v>3.6698257620451371</v>
+        <f>$M14*(1+$P14)^(B$34-2007)/1000000</f>
+        <v>3.6709269300000007</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="10"/>
-        <v>3.5252199844157683</v>
+        <f>$M14*(1+$P14)^(C$34-2007)/1000000</f>
+        <v>3.5262777619595496</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="10"/>
-        <v>3.3863122514020483</v>
+        <f>$M14*(1+$P14)^(D$34-2007)/1000000</f>
+        <v>3.3873283482900729</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="10"/>
-        <v>3.2528780373109245</v>
+        <f>$M14*(1+$P14)^(E$34-2007)/1000000</f>
+        <v>3.2538540959273345</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="10"/>
-        <v>3.1247016636575049</v>
+        <f>$M14*(1+$P14)^(F$34-2007)/1000000</f>
+        <v>3.1256392616699538</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="S47" s="5"/>
@@ -5449,31 +5458,31 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Hydro_NonPumped</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" si="10"/>
-        <v>2.690364973631826</v>
+        <f>$M15*(1+$P15)^(B$34-2007)/1000000</f>
+        <v>2.6908435655999998</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6084538993755664</v>
+        <f>$M15*(1+$P15)^(C$34-2007)/1000000</f>
+        <v>2.6089179200931372</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="10"/>
-        <v>2.5290366964533346</v>
+        <f>$M15*(1+$P15)^(D$34-2007)/1000000</f>
+        <v>2.5294865895578029</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="10"/>
-        <v>2.4520374362524606</v>
+        <f>$M15*(1+$P15)^(E$34-2007)/1000000</f>
+        <v>2.4524736318743017</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="10"/>
-        <v>2.3773825018890866</v>
+        <f>$M15*(1+$P15)^(F$34-2007)/1000000</f>
+        <v>2.3778054170629881</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0.77</v>
       </c>
       <c r="S48" s="5"/>
@@ -5481,31 +5490,31 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Hydro_Pumped</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" si="10"/>
-        <v>4.6296225336096137</v>
+        <f>$M16*(1+$P16)^(B$34-2007)/1000000</f>
+        <v>4.6325037240000002</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="10"/>
-        <v>4.3686611699951658</v>
+        <f>$M16*(1+$P16)^(C$34-2007)/1000000</f>
+        <v>4.371379954192034</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="10"/>
-        <v>4.1224096089197202</v>
+        <f>$M16*(1+$P16)^(D$34-2007)/1000000</f>
+        <v>4.124975141393314</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="10"/>
-        <v>3.8900386920445111</v>
+        <f>$M16*(1+$P16)^(E$34-2007)/1000000</f>
+        <v>3.8924596112482654</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="10"/>
-        <v>3.6707659988132098</v>
+        <f>$M16*(1+$P16)^(F$34-2007)/1000000</f>
+        <v>3.6730504562704556</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>1.44</v>
       </c>
       <c r="S49" s="5"/>
@@ -5513,336 +5522,335 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="20" t="str">
-        <f t="shared" ref="A50:A60" si="12">B17</f>
+        <f t="shared" ref="A50:A60" si="7">B17</f>
         <v>Gas_Combustion_Turbine_EP</v>
       </c>
       <c r="B50" s="1">
-        <f t="shared" ref="B50:F50" si="13">$M17*(1+$P17)^(B$34-2007)/1000000</f>
+        <f>$M17*(1+$P17)^(B$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="13"/>
+        <f>$M17*(1+$P17)^(C$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="13"/>
+        <f>$M17*(1+$P17)^(D$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="13"/>
+        <f>$M17*(1+$P17)^(E$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="13"/>
+        <f>$M17*(1+$P17)^(F$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>Coal_Steam_Turbine_EP</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" ref="B51:F51" si="14">$M18*(1+$P18)^(B$34-2007)/1000000</f>
+        <f>$M18*(1+$P18)^(B$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="14"/>
+        <f>$M18*(1+$P18)^(C$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="14"/>
+        <f>$M18*(1+$P18)^(D$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="14"/>
+        <f>$M18*(1+$P18)^(E$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="14"/>
+        <f>$M18*(1+$P18)^(F$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>Gas_Steam_Turbine_EP</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" ref="B52:F52" si="15">$M19*(1+$P19)^(B$34-2007)/1000000</f>
+        <f>$M19*(1+$P19)^(B$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="15"/>
+        <f>$M19*(1+$P19)^(C$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="15"/>
+        <f>$M19*(1+$P19)^(D$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="15"/>
+        <f>$M19*(1+$P19)^(E$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="15"/>
+        <f>$M19*(1+$P19)^(F$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>CCGT_EP</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" ref="B53:F53" si="16">$M20*(1+$P20)^(B$34-2007)/1000000</f>
+        <f>$M20*(1+$P20)^(B$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="16"/>
+        <f>$M20*(1+$P20)^(C$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="16"/>
+        <f>$M20*(1+$P20)^(D$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="16"/>
+        <f>$M20*(1+$P20)^(E$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="16"/>
+        <f>$M20*(1+$P20)^(F$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>Geothermal_EP</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" ref="B54:F54" si="17">$M21*(1+$P21)^(B$34-2007)/1000000</f>
+        <f>$M21*(1+$P21)^(B$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="17"/>
+        <f>$M21*(1+$P21)^(C$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="17"/>
+        <f>$M21*(1+$P21)^(D$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="17"/>
+        <f>$M21*(1+$P21)^(E$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="17"/>
+        <f>$M21*(1+$P21)^(F$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>Nuclear_EP</v>
       </c>
       <c r="B55" s="1">
-        <f t="shared" ref="B55:F55" si="18">$M22*(1+$P22)^(B$34-2007)/1000000</f>
+        <f>$M22*(1+$P22)^(B$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="18"/>
+        <f>$M22*(1+$P22)^(C$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="18"/>
+        <f>$M22*(1+$P22)^(D$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="18"/>
+        <f>$M22*(1+$P22)^(E$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="18"/>
+        <f>$M22*(1+$P22)^(F$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>Wind_EP</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" ref="B56:F56" si="19">$M23*(1+$P23)^(B$34-2007)/1000000</f>
+        <f>$M23*(1+$P23)^(B$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="19"/>
+        <f>$M23*(1+$P23)^(C$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="19"/>
+        <f>$M23*(1+$P23)^(D$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="19"/>
+        <f>$M23*(1+$P23)^(E$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="19"/>
+        <f>$M23*(1+$P23)^(F$34-2007)/1000000</f>
         <v>0</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>Commercial_PV</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" ref="B57:F57" si="20">$M24*(1+$P24)^(B$34-2007)/1000000</f>
-        <v>4.1718955072971022</v>
+        <f>$M24*(1+$P24)^(B$34-2007)/1000000</f>
+        <v>5.19435</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="20"/>
-        <v>3.4846967579028645</v>
+        <f>$M24*(1+$P24)^(C$34-2007)/1000000</f>
+        <v>4.307952486835223</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="20"/>
-        <v>2.9106940653952389</v>
+        <f>$M24*(1+$P24)^(D$34-2007)/1000000</f>
+        <v>3.5728155840152822</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="20"/>
-        <v>2.4312416634570249</v>
+        <f>$M24*(1+$P24)^(E$34-2007)/1000000</f>
+        <v>2.9631272017022865</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="20"/>
-        <v>2.0307651348190192</v>
+        <f>$M24*(1+$P24)^(F$34-2007)/1000000</f>
+        <v>2.457479992180438</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="11"/>
-        <v>4.3999999999999995</v>
+        <f t="shared" si="6"/>
+        <v>4.5699999999999994</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>Central_PV</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" ref="B58:F58" si="21">$M25*(1+$P25)^(B$34-2007)/1000000</f>
-        <v>3.9491243879754125</v>
+        <f>$M25*(1+$P25)^(B$34-2007)/1000000</f>
+        <v>4.1351099999999992</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="21"/>
-        <v>3.298620717432323</v>
+        <f>$M25*(1+$P25)^(C$34-2007)/1000000</f>
+        <v>3.551820047364612</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="21"/>
-        <v>2.7552686541362692</v>
+        <f>$M25*(1+$P25)^(D$34-2007)/1000000</f>
+        <v>3.0508077533272773</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="21"/>
-        <v>2.3014180794860186</v>
+        <f>$M25*(1+$P25)^(E$34-2007)/1000000</f>
+        <v>2.620467203755938</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="21"/>
-        <v>1.9223262198529554</v>
+        <f>$M25*(1+$P25)^(F$34-2007)/1000000</f>
+        <v>2.2508295904490647</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="11"/>
-        <v>4.3999999999999995</v>
+        <f t="shared" si="6"/>
+        <v>3.73</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>CSP_Trough_No_Storage</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" ref="B59:F59" si="22">$M26*(1+$P26)^(B$34-2007)/1000000</f>
-        <v>4.2780161826030145</v>
+        <f>$M26*(1+$P26)^(B$34-2007)/1000000</f>
+        <v>4.2860474999999996</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="22"/>
-        <v>3.8659914201161327</v>
+        <f>$M26*(1+$P26)^(C$34-2007)/1000000</f>
+        <v>3.8732492243935535</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="22"/>
-        <v>3.4936496316190953</v>
+        <f>$M26*(1+$P26)^(D$34-2007)/1000000</f>
+        <v>3.5002084214571272</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="22"/>
-        <v>3.1571688661806681</v>
+        <f>$M26*(1+$P26)^(E$34-2007)/1000000</f>
+        <v>3.1630959651344517</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="22"/>
-        <v>2.8530952730257311</v>
+        <f>$M26*(1+$P26)^(F$34-2007)/1000000</f>
+        <v>2.8584515205768017</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>Compressed_Air_Energy_Storage</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" ref="B60:F60" si="23">$M27*(1+$P27)^(B$34-2007)/1000000</f>
-        <v>1.3974549825990654</v>
+        <f>$M27*(1+$P27)^(B$34-2007)/1000000</f>
+        <v>1.3974610196219766</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="23"/>
-        <v>1.3907592630373287</v>
+        <f>$M27*(1+$P27)^(C$34-2007)/1000000</f>
+        <v>1.3907652711346481</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="23"/>
-        <v>1.384095625124738</v>
+        <f>$M27*(1+$P27)^(D$34-2007)/1000000</f>
+        <v>1.3841016044350587</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="23"/>
-        <v>1.3774639151463415</v>
+        <f>$M27*(1+$P27)^(E$34-2007)/1000000</f>
+        <v>1.3774698658075926</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="23"/>
-        <v>1.3708639801236917</v>
+        <f>$M27*(1+$P27)^(F$34-2007)/1000000</f>
+        <v>1.3708699022731416</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0.12</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="1">
     <mergeCell ref="B21:C21"/>
   </mergeCells>
@@ -6030,7 +6038,7 @@
       </c>
       <c r="F2" s="5">
         <f>'generator_costs_04-08-2010'!M2</f>
-        <v>1096994.1363600737</v>
+        <v>1097594.136590925</v>
       </c>
       <c r="G2" s="5">
         <f>'generator_costs_04-08-2010'!N2</f>
@@ -6163,7 +6171,7 @@
       </c>
       <c r="F3" s="11">
         <f>'generator_costs_04-08-2010'!M3</f>
-        <v>707913.80664464098</v>
+        <v>708354.36836260383</v>
       </c>
       <c r="G3" s="11">
         <f>'generator_costs_04-08-2010'!N3</f>
@@ -6297,7 +6305,7 @@
       </c>
       <c r="F4" s="11">
         <f>'generator_costs_04-08-2010'!M4</f>
-        <v>1867767.0581335495</v>
+        <v>1867907.1476673284</v>
       </c>
       <c r="G4" s="11">
         <f>'generator_costs_04-08-2010'!N4</f>
@@ -6431,7 +6439,7 @@
       </c>
       <c r="F5" s="11">
         <f>'generator_costs_04-08-2010'!M5</f>
-        <v>3653891.8961960142</v>
+        <v>3655745.0457166359</v>
       </c>
       <c r="G5" s="11">
         <f>'generator_costs_04-08-2010'!N5</f>
@@ -6565,7 +6573,7 @@
       </c>
       <c r="F6" s="11">
         <f>'generator_costs_04-08-2010'!M6</f>
-        <v>5065915.4975469476</v>
+        <v>7034797.8339853324</v>
       </c>
       <c r="G6" s="11">
         <f>'generator_costs_04-08-2010'!N6</f>
@@ -6577,7 +6585,7 @@
       </c>
       <c r="I6" s="11">
         <f>'generator_costs_04-08-2010'!P6</f>
-        <v>-4.3999999999999997E-2</v>
+        <v>-4.8500000000000001E-2</v>
       </c>
       <c r="J6" s="11">
         <f>'generator_costs_04-08-2010'!Q6</f>
@@ -6589,7 +6597,7 @@
       </c>
       <c r="L6" s="11">
         <f>'generator_costs_04-08-2010'!S6</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6" s="11">
         <f>'generator_costs_04-08-2010'!T6</f>
@@ -6699,7 +6707,7 @@
       </c>
       <c r="F7" s="11">
         <f>'generator_costs_04-08-2010'!M7</f>
-        <v>7887030.73596178</v>
+        <v>7935139.1551307421</v>
       </c>
       <c r="G7" s="11">
         <f>'generator_costs_04-08-2010'!N7</f>
@@ -6833,7 +6841,7 @@
       </c>
       <c r="F8" s="11">
         <f>'generator_costs_04-08-2010'!M8</f>
-        <v>2580014.8160000001</v>
+        <v>2580549.9188311687</v>
       </c>
       <c r="G8" s="11">
         <f>'generator_costs_04-08-2010'!N8</f>
@@ -6967,7 +6975,7 @@
       </c>
       <c r="F9" s="11">
         <f>'generator_costs_04-08-2010'!M9</f>
-        <v>3213805.9048526064</v>
+        <v>3214097.5753843598</v>
       </c>
       <c r="G9" s="11">
         <f>'generator_costs_04-08-2010'!N9</f>
@@ -7101,7 +7109,7 @@
       </c>
       <c r="F10" s="11">
         <f>'generator_costs_04-08-2010'!M10</f>
-        <v>3795027.264</v>
+        <v>3795858.7088915962</v>
       </c>
       <c r="G10" s="11">
         <f>'generator_costs_04-08-2010'!N10</f>
@@ -7235,7 +7243,7 @@
       </c>
       <c r="F11" s="11">
         <f>'generator_costs_04-08-2010'!M11</f>
-        <v>2908109.039165068</v>
+        <v>2910020.8532432388</v>
       </c>
       <c r="G11" s="11">
         <f>'generator_costs_04-08-2010'!N11</f>
@@ -7368,7 +7376,7 @@
       </c>
       <c r="F12" s="11">
         <f>'generator_costs_04-08-2010'!M12</f>
-        <v>2345969.9732236774</v>
+        <v>2346966.8939819704</v>
       </c>
       <c r="G12" s="11">
         <f>'generator_costs_04-08-2010'!N12</f>
@@ -7501,7 +7509,7 @@
       </c>
       <c r="F13" s="11">
         <f>'generator_costs_04-08-2010'!M13</f>
-        <v>4161698.1736763939</v>
+        <v>3982256.2656</v>
       </c>
       <c r="G13" s="11">
         <f>'generator_costs_04-08-2010'!N13</f>
@@ -7513,7 +7521,7 @@
       </c>
       <c r="I13" s="11">
         <f>'generator_costs_04-08-2010'!P13</f>
-        <v>-1.4800000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J13" s="11">
         <f>'generator_costs_04-08-2010'!Q13</f>
@@ -7635,7 +7643,7 @@
       </c>
       <c r="F14" s="11">
         <f>'generator_costs_04-08-2010'!M14</f>
-        <v>3782159.6869059303</v>
+        <v>3783294.561779411</v>
       </c>
       <c r="G14" s="11">
         <f>'generator_costs_04-08-2010'!N14</f>
@@ -7769,7 +7777,7 @@
       </c>
       <c r="F15" s="11">
         <f>'generator_costs_04-08-2010'!M15</f>
-        <v>2753481.9007692588</v>
+        <v>2753971.7206766452</v>
       </c>
       <c r="G15" s="11">
         <f>'generator_costs_04-08-2010'!N15</f>
@@ -7903,7 +7911,7 @@
       </c>
       <c r="F16" s="11">
         <f>'generator_costs_04-08-2010'!M16</f>
-        <v>4835523.5053754263</v>
+        <v>4838532.8357808823</v>
       </c>
       <c r="G16" s="11">
         <f>'generator_costs_04-08-2010'!N16</f>
@@ -8975,7 +8983,7 @@
       </c>
       <c r="F24" s="19">
         <f>'generator_costs_04-08-2010'!M24</f>
-        <v>4774850.1365644811</v>
+        <v>5976906.1693058107</v>
       </c>
       <c r="G24" s="19">
         <f>'generator_costs_04-08-2010'!N24</f>
@@ -8987,7 +8995,7 @@
       </c>
       <c r="I24" s="19">
         <f>'generator_costs_04-08-2010'!P24</f>
-        <v>-4.3999999999999997E-2</v>
+        <v>-4.5699999999999998E-2</v>
       </c>
       <c r="J24" s="19">
         <f>'generator_costs_04-08-2010'!Q24</f>
@@ -9109,7 +9117,7 @@
       </c>
       <c r="F25" s="19">
         <f>'generator_costs_04-08-2010'!M25</f>
-        <v>4519882.4108256008</v>
+        <v>4634620.2138119834</v>
       </c>
       <c r="G25" s="19">
         <f>'generator_costs_04-08-2010'!N25</f>
@@ -9121,7 +9129,7 @@
       </c>
       <c r="I25" s="19">
         <f>'generator_costs_04-08-2010'!P25</f>
-        <v>-4.3999999999999997E-2</v>
+        <v>-3.73E-2</v>
       </c>
       <c r="J25" s="19">
         <f>'generator_costs_04-08-2010'!Q25</f>
@@ -9243,7 +9251,7 @@
       </c>
       <c r="F26" s="19">
         <f>'generator_costs_04-08-2010'!M26</f>
-        <v>4615604.3710546866</v>
+        <v>4624269.4583522985</v>
       </c>
       <c r="G26" s="19">
         <f>'generator_costs_04-08-2010'!N26</f>
@@ -9377,7 +9385,7 @@
       </c>
       <c r="F27" s="19">
         <f>'generator_costs_04-08-2010'!M27</f>
-        <v>1402497.9187390334</v>
+        <v>1402503.9775474914</v>
       </c>
       <c r="G27" s="19">
         <f>'generator_costs_04-08-2010'!N27</f>
@@ -10025,7 +10033,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/DatabasePrep/GeneratorInfo/generator_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="-80" windowWidth="34700" windowHeight="19300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="540" yWindow="-80" windowWidth="23960" windowHeight="15880" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Chart_revise" sheetId="4" r:id="rId1"/>
@@ -24,42 +24,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="138">
   <si>
-    <t>Wind</t>
+    <t>Bio_Solid_CCS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>price_and_dollar_year</t>
+    <t>DOE Solar Program Costs, took 2020 value for fixed O+M, 10% added to capital costs to go from utility to distributed, but also assumed a 5% declination rate, , outage rates from Mathias</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>year_4_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_5_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_6_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost Declination Rate (%/yr)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concentrating_PV</t>
+    <t>overnight_cost</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -67,261 +40,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(in 2010 $)</t>
+    <t>Bio_Solid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Gas_Combustion_Turbine_EP</t>
   </si>
   <si>
-    <t>$/Wp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Coal_Steam_Turbine_EP</t>
   </si>
   <si>
-    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Gas_Steam_Turbine_EP</t>
   </si>
   <si>
-    <t>cost declination rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP_Trough_No_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP_Trough_6h_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Central_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction_cost_multipulier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_o_m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_o_m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overnight_cost_$2007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_o_m_$2007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>heat_rate_mbtu_per_mwh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commercial_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_build_year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>CCGT_EP</t>
   </si>
   <si>
     <t>Gas_Combustion_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_Cogen_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Uranium</t>
-  </si>
-  <si>
-    <t>storage_efficiency</t>
-  </si>
-  <si>
-    <t>max_store_rate</t>
-  </si>
-  <si>
-    <t>ccs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uranium</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_o_m_$2007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction_time_years</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>forced_outage_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scheduled_outage_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>connect_cost_generic_$2007_per_mw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_CCS_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_CCS_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar Vision Study (see PV_Cost_Calc.xlsx) for costs, ReEDs sheet for construction cost multiplier and cost fractions, Matthias for forced outage rate </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>interest_between_price_year_and_cost_year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Residential_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geothermal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compressed_Air_Energy_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>source - all dispatch data from TEPPC_Generator_Categories</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>technology_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_age_years</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, assumed to run for 40 years, not 60</t>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
-    <t>tech_name_again</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nuclear_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Hydro_NonPumped</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hydro_Pumped</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
-  </si>
-  <si>
-    <t>Biomass_IGCC</t>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
-  </si>
-  <si>
-    <t>Coal_IGCC</t>
-  </si>
-  <si>
-    <t>can_build_new</t>
   </si>
   <si>
     <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from DOE solar program costs on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
@@ -335,15 +70,10 @@
     <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
   </si>
   <si>
-    <t>Geothermal_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>CCGT_Cogen_EP</t>
   </si>
   <si>
-    <t>CCGT_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_EP</t>
+    <t>Gas_Combustion_Turbine_CCS_EP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -489,39 +219,72 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bio_Solid_CCS</t>
+    <t>overnight_cost_$2007</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DOE Solar Program Costs, took 2020 value for fixed O+M, 10% added to capital costs to go from utility to distributed, but also assumed a 5% declination rate, , outage rates from Mathias</t>
+    <t>fixed_o_m_$2007</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>overnight_cost</t>
+    <t>heat_rate_mbtu_per_mwh</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Solar</t>
+    <t>Commercial_PV</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bio_Solid</t>
+    <t>min_build_year</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Combustion_Turbine_EP</t>
+    <t>Gas_Combustion_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Coal_Steam_Turbine_EP</t>
+    <t>Coal_Steam_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Steam_Turbine_EP</t>
+    <t>Gas_Steam_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CCGT_EP</t>
+    <t>CCGT_Cogen_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Combustion_Turbine_Cogen_EP</t>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>storage_efficiency</t>
+  </si>
+  <si>
+    <t>max_store_rate</t>
+  </si>
+  <si>
+    <t>ccs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var_o_m_$2007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_time_years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Coal_Steam_Turbine_Cogen_EP</t>
@@ -530,10 +293,248 @@
     <t>Gas_Steam_Turbine_Cogen_EP</t>
   </si>
   <si>
-    <t>CCGT_Cogen_EP</t>
+    <t>connect_cost_generic_$2007_per_mw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Combustion_Turbine_CCS_EP</t>
+    <t>fuel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_CCS_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_CCS_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Vision Study (see PV_Cost_Calc.xlsx) for costs, ReEDs sheet for construction cost multiplier and cost fractions, Matthias for forced outage rate </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest_between_price_year_and_cost_year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Residential_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geothermal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compressed_Air_Energy_Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>source - all dispatch data from TEPPC_Generator_Categories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_age_years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, assumed to run for 40 years, not 60</t>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>tech_name_again</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuclear_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Hydro_NonPumped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydro_Pumped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
+  </si>
+  <si>
+    <t>Biomass_IGCC</t>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
+  </si>
+  <si>
+    <t>Coal_IGCC</t>
+  </si>
+  <si>
+    <t>can_build_new</t>
+  </si>
+  <si>
+    <t>forced_outage_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduled_outage_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geothermal_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_and_dollar_year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>year_4_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_5_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_6_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost Declination Rate (%/yr)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concentrating_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(in 2010 $)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$/Wp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost declination rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP_Trough_No_Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP_Trough_6h_Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Central_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_cost_multipulier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var_o_m</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -541,15 +542,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  <numFmts count="6">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -586,10 +585,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -613,13 +612,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,11 +1532,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96269096"/>
-        <c:axId val="96066872"/>
+        <c:axId val="95933544"/>
+        <c:axId val="96260568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96269096"/>
+        <c:axId val="95933544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1566,14 +1570,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96066872"/>
+        <c:crossAx val="96260568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96066872"/>
+        <c:axId val="96260568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7.0"/>
@@ -1609,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96269096"/>
+        <c:crossAx val="95933544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1995,9 +1999,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:AM90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q41" sqref="Q41:Q48"/>
+    <sheetView topLeftCell="A17" zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D34" sqref="D34:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2028,121 +2032,121 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="S1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="V1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH1" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AJ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="AM1" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -2150,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="C2" s="5">
         <v>2007</v>
@@ -2159,7 +2163,7 @@
         <v>2010</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F2">
         <v>2004</v>
@@ -2265,7 +2269,7 @@
         <v>CCGT</v>
       </c>
       <c r="AM2" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -2273,7 +2277,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="C3" s="5">
         <v>2007</v>
@@ -2282,7 +2286,7 @@
         <v>2010</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F3">
         <v>2004</v>
@@ -2388,7 +2392,7 @@
         <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="AM3" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="24" customFormat="1">
@@ -2396,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C4" s="24">
         <v>2007</v>
@@ -2405,7 +2409,7 @@
         <v>2010</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="F4" s="24">
         <v>2010</v>
@@ -2512,7 +2516,7 @@
         <v>Concentrating_PV</v>
       </c>
       <c r="AM4" s="24" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -2520,7 +2524,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
@@ -2529,7 +2533,7 @@
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="F5">
         <v>2004</v>
@@ -2635,7 +2639,7 @@
         <v>Wind</v>
       </c>
       <c r="AM5" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -2643,7 +2647,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5">
         <v>2007</v>
@@ -2652,7 +2656,7 @@
         <v>2010</v>
       </c>
       <c r="E6" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="F6">
         <v>2004</v>
@@ -2758,7 +2762,7 @@
         <v>Offshore_Wind</v>
       </c>
       <c r="AM6" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -2766,7 +2770,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C7" s="5">
         <v>2007</v>
@@ -2775,7 +2779,7 @@
         <v>2010</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F7">
         <v>2009</v>
@@ -2882,7 +2886,7 @@
         <v>Residential_PV</v>
       </c>
       <c r="AM7" t="s">
-        <v>125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:39" s="11" customFormat="1">
@@ -2890,7 +2894,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="C8" s="11">
         <v>2007</v>
@@ -2899,7 +2903,7 @@
         <v>2012</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="F8" s="11">
         <v>2010</v>
@@ -3005,7 +3009,7 @@
         <v>CSP_Trough_6h_Storage</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -3013,7 +3017,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="C9" s="5">
         <v>2007</v>
@@ -3022,7 +3026,7 @@
         <v>2010</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F9">
         <v>2007</v>
@@ -3128,7 +3132,7 @@
         <v>Bio_Gas</v>
       </c>
       <c r="AM9" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -3136,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C10" s="5">
         <v>2007</v>
@@ -3145,7 +3149,7 @@
         <v>2010</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>2004</v>
@@ -3251,7 +3255,7 @@
         <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="AM10" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -3259,7 +3263,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
@@ -3268,7 +3272,7 @@
         <v>2012</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>2007</v>
@@ -3374,7 +3378,7 @@
         <v>Biomass_IGCC</v>
       </c>
       <c r="AM11" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -3382,7 +3386,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C12" s="5">
         <v>2007</v>
@@ -3391,7 +3395,7 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F12">
         <v>2004</v>
@@ -3497,7 +3501,7 @@
         <v>Coal_IGCC</v>
       </c>
       <c r="AM12" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -3505,7 +3509,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
@@ -3514,7 +3518,7 @@
         <v>2010</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F13">
         <v>2004</v>
@@ -3620,7 +3624,7 @@
         <v>Coal_Steam_Turbine</v>
       </c>
       <c r="AM13" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -3628,7 +3632,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C14" s="5">
         <v>2007</v>
@@ -3637,7 +3641,7 @@
         <v>2010</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F14">
         <v>2004</v>
@@ -3743,7 +3747,7 @@
         <v>Nuclear</v>
       </c>
       <c r="AM14" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -3751,7 +3755,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C15" s="5">
         <v>2007</v>
@@ -3760,7 +3764,7 @@
         <v>2010</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F15">
         <v>2004</v>
@@ -3866,7 +3870,7 @@
         <v>Geothermal</v>
       </c>
       <c r="AM15" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -3874,7 +3878,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C16" s="5">
         <v>2007</v>
@@ -3883,7 +3887,7 @@
         <v>2010</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="F16" s="5">
         <v>2004</v>
@@ -3989,7 +3993,7 @@
         <v>Hydro_NonPumped</v>
       </c>
       <c r="AM16" s="5" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:39">
@@ -3997,7 +4001,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C17" s="5">
         <v>2007</v>
@@ -4006,7 +4010,7 @@
         <v>2010</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F17" s="5">
         <v>2004</v>
@@ -4112,7 +4116,7 @@
         <v>Hydro_Pumped</v>
       </c>
       <c r="AM17" s="5" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:39" s="18" customFormat="1">
@@ -4120,10 +4124,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="M18" s="23"/>
       <c r="S18" s="22">
@@ -4172,12 +4176,12 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="G19" s="11"/>
       <c r="M19" s="23"/>
@@ -4229,12 +4233,12 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="G20" s="11"/>
       <c r="M20" s="23"/>
@@ -4286,12 +4290,12 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="G21" s="11"/>
       <c r="M21" s="23"/>
@@ -4342,13 +4346,13 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="33"/>
+      <c r="B22" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="36"/>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="G22" s="11"/>
       <c r="M22" s="23"/>
@@ -4400,12 +4404,12 @@
         <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="G23" s="11"/>
       <c r="M23" s="23"/>
@@ -4457,10 +4461,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="M24" s="23"/>
       <c r="S24" s="22">
@@ -4509,7 +4513,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C25" s="8">
         <v>2007</v>
@@ -4518,7 +4522,7 @@
         <v>2010</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="F25" s="8">
         <v>2009</v>
@@ -4624,7 +4628,7 @@
         <v>Commercial_PV</v>
       </c>
       <c r="AM25" s="9" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:39" s="8" customFormat="1">
@@ -4632,7 +4636,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="C26" s="8">
         <v>2007</v>
@@ -4641,7 +4645,7 @@
         <v>2010</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="F26" s="8">
         <v>2009</v>
@@ -4747,7 +4751,7 @@
         <v>Central_PV</v>
       </c>
       <c r="AM26" s="9" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:39" s="5" customFormat="1">
@@ -4755,7 +4759,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="C27" s="5">
         <v>2007</v>
@@ -4764,7 +4768,7 @@
         <v>2010</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="F27" s="5">
         <v>2010</v>
@@ -4870,15 +4874,15 @@
         <v>CSP_Trough_No_Storage</v>
       </c>
       <c r="AM27" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" s="9" customFormat="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="10">
         <v>28</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C28" s="9">
         <v>2007</v>
@@ -4887,7 +4891,7 @@
         <v>2010</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F28" s="9">
         <v>2010</v>
@@ -4992,8 +4996,8 @@
         <f t="shared" si="3"/>
         <v>Compressed_Air_Energy_Storage</v>
       </c>
-      <c r="AM28" s="14" t="s">
-        <v>68</v>
+      <c r="AM28" s="35" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:39" s="21" customFormat="1">
@@ -5001,10 +5005,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
@@ -5055,10 +5059,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
@@ -5109,10 +5113,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
@@ -5163,10 +5167,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
@@ -5217,7 +5221,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C33" s="25">
         <v>2007</v>
@@ -5226,7 +5230,7 @@
         <v>2010</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="F33" s="25">
         <v>2004</v>
@@ -5332,7 +5336,7 @@
         <v>Battery_Storage</v>
       </c>
       <c r="AM33" s="25" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:39" s="29" customFormat="1">
@@ -5340,16 +5344,16 @@
         <v>34</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="C34" s="29">
         <v>2007</v>
       </c>
       <c r="D34" s="29">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="F34" s="29">
         <v>2004</v>
@@ -5465,16 +5469,16 @@
         <v>35</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="C35" s="29">
         <v>2007</v>
       </c>
-      <c r="D35" s="29">
-        <v>2010</v>
+      <c r="D35" s="34">
+        <v>2014</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="F35" s="29">
         <v>2004</v>
@@ -5591,16 +5595,16 @@
         <v>36</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="C36" s="29">
         <v>2007</v>
       </c>
-      <c r="D36" s="29">
-        <v>2010</v>
+      <c r="D36" s="34">
+        <v>2014</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="F36" s="29">
         <v>2004</v>
@@ -5717,16 +5721,16 @@
         <v>37</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="C37" s="29">
         <v>2007</v>
       </c>
-      <c r="D37" s="29">
-        <v>2010</v>
+      <c r="D37" s="34">
+        <v>2014</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="F37" s="29">
         <v>2004</v>
@@ -5843,16 +5847,16 @@
         <v>38</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="C38" s="29">
         <v>2007</v>
       </c>
-      <c r="D38" s="29">
-        <v>2010</v>
+      <c r="D38" s="34">
+        <v>2014</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="F38" s="29">
         <v>2004</v>
@@ -5967,16 +5971,16 @@
         <v>39</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="C39" s="29">
         <v>2007</v>
       </c>
-      <c r="D39" s="29">
-        <v>2010</v>
+      <c r="D39" s="34">
+        <v>2014</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="F39" s="29">
         <v>2004</v>
@@ -6093,16 +6097,16 @@
         <v>40</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="C40" s="29">
         <v>2007</v>
       </c>
-      <c r="D40" s="29">
-        <v>2010</v>
+      <c r="D40" s="34">
+        <v>2014</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="F40" s="29">
         <v>2004</v>
@@ -6219,16 +6223,16 @@
         <v>41</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="C41" s="31">
         <v>2007</v>
       </c>
-      <c r="D41" s="31">
-        <v>2010</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>2</v>
+      <c r="D41" s="34">
+        <v>2014</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="F41" s="31">
         <v>2004</v>
@@ -6334,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="AL41" s="31" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:39" s="31" customFormat="1">
@@ -6342,16 +6346,16 @@
         <v>42</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C42" s="31">
         <v>2007</v>
       </c>
-      <c r="D42" s="31">
-        <v>2010</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>33</v>
+      <c r="D42" s="34">
+        <v>2014</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="F42" s="31">
         <v>2004</v>
@@ -6456,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="31" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:39" s="31" customFormat="1">
@@ -6464,16 +6468,16 @@
         <v>43</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C43" s="31">
         <v>2007</v>
       </c>
-      <c r="D43" s="31">
-        <v>2010</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>2</v>
+      <c r="D43" s="34">
+        <v>2014</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="F43" s="31">
         <v>2004</v>
@@ -6579,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="31" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:39" s="31" customFormat="1">
@@ -6587,16 +6591,16 @@
         <v>44</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="C44" s="31">
         <v>2007</v>
       </c>
-      <c r="D44" s="31">
-        <v>2010</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>2</v>
+      <c r="D44" s="34">
+        <v>2014</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="F44" s="31">
         <v>2004</v>
@@ -6701,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="31" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:39" s="31" customFormat="1">
@@ -6709,16 +6713,16 @@
         <v>45</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="C45" s="31">
         <v>2007</v>
       </c>
-      <c r="D45" s="31">
-        <v>2010</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>2</v>
+      <c r="D45" s="34">
+        <v>2014</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="F45" s="31">
         <v>2004</v>
@@ -6826,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="31" t="s">
-        <v>133</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:39" s="31" customFormat="1">
@@ -6834,16 +6838,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C46" s="31">
         <v>2007</v>
       </c>
-      <c r="D46" s="31">
-        <v>2010</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>33</v>
+      <c r="D46" s="34">
+        <v>2014</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="F46" s="31">
         <v>2004</v>
@@ -6951,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="31" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:39" s="31" customFormat="1">
@@ -6959,16 +6963,16 @@
         <v>47</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="C47" s="31">
         <v>2007</v>
       </c>
-      <c r="D47" s="31">
-        <v>2010</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>2</v>
+      <c r="D47" s="34">
+        <v>2014</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="F47" s="31">
         <v>2004</v>
@@ -7076,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="AL47" s="31" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:39" s="31" customFormat="1">
@@ -7084,16 +7088,16 @@
         <v>48</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="C48" s="31">
         <v>2007</v>
       </c>
-      <c r="D48" s="31">
-        <v>2010</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>2</v>
+      <c r="D48" s="34">
+        <v>2014</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="F48" s="31">
         <v>2004</v>
@@ -7201,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="31" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:37" s="5" customFormat="1">
@@ -7214,12 +7218,12 @@
     </row>
     <row r="50" spans="1:37" s="6" customFormat="1">
       <c r="A50" s="6" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:37">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="B51">
         <v>2010</v>
@@ -7237,7 +7241,7 @@
         <v>2026</v>
       </c>
       <c r="G51" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="I51" s="28"/>
       <c r="S51" s="5"/>
@@ -7570,7 +7574,7 @@
         <v>Coal_IGCC</v>
       </c>
       <c r="B62" s="1">
-        <f t="shared" ref="B62:F71" si="12">$M12*(1+$P12)^(B$51-2007)/1000000</f>
+        <f t="shared" ref="B62:F67" si="12">$M12*(1+$P12)^(B$51-2007)/1000000</f>
         <v>2.7827187265800002</v>
       </c>
       <c r="C62" s="1">
@@ -8438,6 +8442,7 @@
       <c r="AK90"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="1">
     <mergeCell ref="B22:C22"/>
   </mergeCells>
@@ -8455,7 +8460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:AD48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -12507,7 +12512,7 @@
       </c>
       <c r="D34" s="30">
         <f>generator_costs!D34</f>
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E34" s="30" t="str">
         <f>generator_costs!E34</f>
@@ -12629,7 +12634,7 @@
       </c>
       <c r="D35" s="30">
         <f>generator_costs!D35</f>
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E35" s="30" t="str">
         <f>generator_costs!E35</f>
@@ -12751,7 +12756,7 @@
       </c>
       <c r="D36" s="30">
         <f>generator_costs!D36</f>
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E36" s="30" t="str">
         <f>generator_costs!E36</f>
@@ -12873,7 +12878,7 @@
       </c>
       <c r="D37" s="30">
         <f>generator_costs!D37</f>
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E37" s="30" t="str">
         <f>generator_costs!E37</f>
@@ -12995,7 +13000,7 @@
       </c>
       <c r="D38" s="30">
         <f>generator_costs!D38</f>
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E38" s="30" t="str">
         <f>generator_costs!E38</f>
@@ -13117,7 +13122,7 @@
       </c>
       <c r="D39" s="30">
         <f>generator_costs!D39</f>
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E39" s="30" t="str">
         <f>generator_costs!E39</f>
@@ -13239,7 +13244,7 @@
       </c>
       <c r="D40" s="30">
         <f>generator_costs!D40</f>
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E40" s="30" t="str">
         <f>generator_costs!E40</f>
@@ -13361,11 +13366,11 @@
       </c>
       <c r="D41" s="31">
         <f>generator_costs!D41</f>
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E41" s="31" t="str">
         <f>generator_costs!E41</f>
-        <v>Gas</v>
+        <v>Gas_CCS</v>
       </c>
       <c r="F41" s="31">
         <f>generator_costs!M41</f>
@@ -13483,11 +13488,11 @@
       </c>
       <c r="D42" s="31">
         <f>generator_costs!D42</f>
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E42" s="31" t="str">
         <f>generator_costs!E42</f>
-        <v>Coal</v>
+        <v>Coal_CCS</v>
       </c>
       <c r="F42" s="31">
         <f>generator_costs!M42</f>
@@ -13605,11 +13610,11 @@
       </c>
       <c r="D43" s="31">
         <f>generator_costs!D43</f>
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E43" s="31" t="str">
         <f>generator_costs!E43</f>
-        <v>Gas</v>
+        <v>Gas_CCS</v>
       </c>
       <c r="F43" s="31">
         <f>generator_costs!M43</f>
@@ -13727,11 +13732,11 @@
       </c>
       <c r="D44" s="31">
         <f>generator_costs!D44</f>
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E44" s="31" t="str">
         <f>generator_costs!E44</f>
-        <v>Gas</v>
+        <v>Gas_CCS</v>
       </c>
       <c r="F44" s="31">
         <f>generator_costs!M44</f>
@@ -13849,11 +13854,11 @@
       </c>
       <c r="D45" s="31">
         <f>generator_costs!D45</f>
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E45" s="31" t="str">
         <f>generator_costs!E45</f>
-        <v>Gas</v>
+        <v>Gas_CCS</v>
       </c>
       <c r="F45" s="31">
         <f>generator_costs!M45</f>
@@ -13971,11 +13976,11 @@
       </c>
       <c r="D46" s="31">
         <f>generator_costs!D46</f>
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E46" s="31" t="str">
         <f>generator_costs!E46</f>
-        <v>Coal</v>
+        <v>Coal_CCS</v>
       </c>
       <c r="F46" s="31">
         <f>generator_costs!M46</f>
@@ -14093,11 +14098,11 @@
       </c>
       <c r="D47" s="31">
         <f>generator_costs!D47</f>
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E47" s="31" t="str">
         <f>generator_costs!E47</f>
-        <v>Gas</v>
+        <v>Gas_CCS</v>
       </c>
       <c r="F47" s="31">
         <f>generator_costs!M47</f>
@@ -14215,11 +14220,11 @@
       </c>
       <c r="D48" s="31">
         <f>generator_costs!D48</f>
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E48" s="31" t="str">
         <f>generator_costs!E48</f>
-        <v>Gas</v>
+        <v>Gas_CCS</v>
       </c>
       <c r="F48" s="31">
         <f>generator_costs!M48</f>
@@ -14323,6 +14328,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -14345,15 +14351,15 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="24" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="24" customFormat="1">
@@ -14381,7 +14387,7 @@
         <v>3.3</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E5" s="24"/>
     </row>
@@ -14534,6 +14540,7 @@
       <c r="E21" s="24"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/DatabasePrep/GeneratorInfo/generator_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="-80" windowWidth="23960" windowHeight="15880" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="540" yWindow="-80" windowWidth="23960" windowHeight="15880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Chart_revise" sheetId="4" r:id="rId1"/>
@@ -24,15 +24,136 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="138">
   <si>
-    <t>Bio_Solid_CCS</t>
+    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DOE Solar Program Costs, took 2020 value for fixed O+M, 10% added to capital costs to go from utility to distributed, but also assumed a 5% declination rate, , outage rates from Mathias</t>
+    <t>CSP_Trough_No_Storage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>overnight_cost</t>
+    <t>CSP_Trough_6h_Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Central_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_cost_multipulier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var_o_m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuclear_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Hydro_NonPumped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydro_Pumped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
+  </si>
+  <si>
+    <t>Biomass_IGCC</t>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
+  </si>
+  <si>
+    <t>Coal_IGCC</t>
+  </si>
+  <si>
+    <t>can_build_new</t>
+  </si>
+  <si>
+    <t>forced_outage_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduled_outage_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geothermal_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_and_dollar_year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>year_4_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_5_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_6_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost Declination Rate (%/yr)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concentrating_PV</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -40,138 +161,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bio_Solid</t>
+    <t>(in 2010 $)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Combustion_Turbine_EP</t>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_EP</t>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_EP</t>
-  </si>
-  <si>
-    <t>CCGT_EP</t>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_Cogen_EP</t>
-  </si>
-  <si>
-    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from DOE solar program costs on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
+    <t>year</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Coal_CCS</t>
+    <t>$/Wp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
-  </si>
-  <si>
-    <t>CCGT_Cogen_EP</t>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_CCS_EP</t>
+    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Wind_EP</t>
+    <t>cost declination rate</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_CCS_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_Cogen_CCS_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
-  </si>
-  <si>
-    <t>storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offshore_Wind</t>
-  </si>
-  <si>
-    <t>Bio_Gas</t>
-  </si>
-  <si>
-    <t>year_1_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_2_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_3_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battery_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, outage rates from Mathias</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>overnight_cost_change</t>
-  </si>
-  <si>
-    <t>intermittent</t>
-  </si>
-  <si>
-    <t>resource_limited</t>
-  </si>
-  <si>
-    <t>baseload</t>
-  </si>
-  <si>
-    <t>min_build_capacity</t>
-  </si>
-  <si>
-    <t>$year_of_costs</t>
-  </si>
-  <si>
-    <t>cost_for_which_year?</t>
   </si>
   <si>
     <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
@@ -381,66 +388,64 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Nuclear_EP</t>
+    <t>Bio_Solid_CCS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Biomass_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Hydro_NonPumped</t>
+    <t>DOE Solar Program Costs, took 2020 value for fixed O+M, 10% added to capital costs to go from utility to distributed, but also assumed a 5% declination rate, , outage rates from Mathias</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Hydro_Pumped</t>
+    <t>overnight_cost</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Water</t>
+    <t>Solar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Water</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
-  </si>
-  <si>
-    <t>Biomass_IGCC</t>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
-  </si>
-  <si>
-    <t>Coal_IGCC</t>
-  </si>
-  <si>
-    <t>can_build_new</t>
-  </si>
-  <si>
-    <t>forced_outage_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scheduled_outage_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geothermal_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_EP</t>
+    <t>Bio_Solid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Combustion_Turbine_EP</t>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_EP</t>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_EP</t>
+  </si>
+  <si>
+    <t>CCGT_EP</t>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_Cogen_EP</t>
+  </si>
+  <si>
+    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from DOE solar program costs on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_CCS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
+  </si>
+  <si>
+    <t>CCGT_Cogen_EP</t>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_CCS_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -448,94 +453,89 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>price_and_dollar_year</t>
+    <t>CCGT_CCS_EP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>year_4_cost_fraction</t>
+    <t>Gas_Combustion_Turbine_Cogen_CCS_EP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>year_5_cost_fraction</t>
+    <t>Coal_Steam_Turbine_Cogen_CCS_EP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>year_6_cost_fraction</t>
+    <t>Gas_Steam_Turbine_Cogen_CCS_EP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
+    <t>CCGT_Cogen_CCS_EP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Declination Rate (%/yr)</t>
+    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
+  </si>
+  <si>
+    <t>storage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
+    <t>Offshore_Wind</t>
+  </si>
+  <si>
+    <t>Bio_Gas</t>
+  </si>
+  <si>
+    <t>year_1_cost_fraction</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Concentrating_PV</t>
+    <t>year_2_cost_fraction</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Solar</t>
+    <t>year_3_cost_fraction</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(in 2010 $)</t>
+    <t>Battery_Storage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>year</t>
+    <t>Storage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$/Wp</t>
+    <t>ReEDs Sheet</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
+    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, outage rates from Mathias</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cost declination rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>technology</t>
   </si>
   <si>
-    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>overnight_cost_change</t>
   </si>
   <si>
-    <t>CSP_Trough_No_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>intermittent</t>
   </si>
   <si>
-    <t>CSP_Trough_6h_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>resource_limited</t>
   </si>
   <si>
-    <t>Wind</t>
+    <t>baseload</t>
   </si>
   <si>
-    <t>Central_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>min_build_capacity</t>
   </si>
   <si>
-    <t>construction_cost_multipulier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>$year_of_costs</t>
   </si>
   <si>
-    <t>fixed_o_m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_o_m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>cost_for_which_year?</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -588,7 +588,7 @@
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1532,11 +1532,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95933544"/>
-        <c:axId val="96260568"/>
+        <c:axId val="579649896"/>
+        <c:axId val="579168888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95933544"/>
+        <c:axId val="579649896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,14 +1570,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96260568"/>
+        <c:crossAx val="579168888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96260568"/>
+        <c:axId val="579168888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7.0"/>
@@ -1613,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95933544"/>
+        <c:crossAx val="579649896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1999,9 +1999,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:AM90"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D34" sqref="D34:D48"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2032,121 +2032,121 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="AA1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF1" t="s">
         <v>135</v>
       </c>
-      <c r="K1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>39</v>
-      </c>
       <c r="AG1" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="AH1" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AJ1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK1" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" t="s">
-        <v>66</v>
-      </c>
       <c r="AL1" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5">
         <v>2007</v>
@@ -2163,7 +2163,7 @@
         <v>2010</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2">
         <v>2004</v>
@@ -2269,7 +2269,7 @@
         <v>CCGT</v>
       </c>
       <c r="AM2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -2277,7 +2277,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5">
         <v>2007</v>
@@ -2286,7 +2286,7 @@
         <v>2010</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3">
         <v>2004</v>
@@ -2392,7 +2392,7 @@
         <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="AM3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="24" customFormat="1">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="C4" s="24">
         <v>2007</v>
@@ -2409,7 +2409,7 @@
         <v>2010</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="F4" s="24">
         <v>2010</v>
@@ -2516,7 +2516,7 @@
         <v>Concentrating_PV</v>
       </c>
       <c r="AM4" s="24" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -2524,7 +2524,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
@@ -2533,7 +2533,7 @@
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>2004</v>
@@ -2639,7 +2639,7 @@
         <v>Wind</v>
       </c>
       <c r="AM5" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -2647,7 +2647,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="C6" s="5">
         <v>2007</v>
@@ -2656,7 +2656,7 @@
         <v>2010</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>2004</v>
@@ -2762,7 +2762,7 @@
         <v>Offshore_Wind</v>
       </c>
       <c r="AM6" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -2770,7 +2770,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="5">
         <v>2007</v>
@@ -2779,7 +2779,7 @@
         <v>2010</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7">
         <v>2009</v>
@@ -2886,7 +2886,7 @@
         <v>Residential_PV</v>
       </c>
       <c r="AM7" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:39" s="11" customFormat="1">
@@ -2894,7 +2894,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="C8" s="11">
         <v>2007</v>
@@ -2903,7 +2903,7 @@
         <v>2012</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F8" s="11">
         <v>2010</v>
@@ -3009,7 +3009,7 @@
         <v>CSP_Trough_6h_Storage</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -3017,7 +3017,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C9" s="5">
         <v>2007</v>
@@ -3026,7 +3026,7 @@
         <v>2010</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9">
         <v>2007</v>
@@ -3132,7 +3132,7 @@
         <v>Bio_Gas</v>
       </c>
       <c r="AM9" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -3140,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5">
         <v>2007</v>
@@ -3149,7 +3149,7 @@
         <v>2010</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>2004</v>
@@ -3255,7 +3255,7 @@
         <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="AM10" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -3263,7 +3263,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
@@ -3272,7 +3272,7 @@
         <v>2012</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>2007</v>
@@ -3378,7 +3378,7 @@
         <v>Biomass_IGCC</v>
       </c>
       <c r="AM11" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -3386,7 +3386,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="C12" s="5">
         <v>2007</v>
@@ -3395,7 +3395,7 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12">
         <v>2004</v>
@@ -3501,7 +3501,7 @@
         <v>Coal_IGCC</v>
       </c>
       <c r="AM12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -3509,7 +3509,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
@@ -3518,7 +3518,7 @@
         <v>2010</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13">
         <v>2004</v>
@@ -3624,7 +3624,7 @@
         <v>Coal_Steam_Turbine</v>
       </c>
       <c r="AM13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -3632,7 +3632,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="5">
         <v>2007</v>
@@ -3641,7 +3641,7 @@
         <v>2010</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>2004</v>
@@ -3747,7 +3747,7 @@
         <v>Nuclear</v>
       </c>
       <c r="AM14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -3755,7 +3755,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="5">
         <v>2007</v>
@@ -3764,7 +3764,7 @@
         <v>2010</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15">
         <v>2004</v>
@@ -3870,7 +3870,7 @@
         <v>Geothermal</v>
       </c>
       <c r="AM15" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -3878,7 +3878,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="C16" s="5">
         <v>2007</v>
@@ -3887,7 +3887,7 @@
         <v>2010</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="F16" s="5">
         <v>2004</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="30">
         <v>0</v>
@@ -3993,7 +3993,7 @@
         <v>Hydro_NonPumped</v>
       </c>
       <c r="AM16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:39">
@@ -4001,7 +4001,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C17" s="5">
         <v>2007</v>
@@ -4010,7 +4010,7 @@
         <v>2010</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F17" s="5">
         <v>2004</v>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="30">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>Hydro_Pumped</v>
       </c>
       <c r="AM17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:39" s="18" customFormat="1">
@@ -4124,10 +4124,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="M18" s="23"/>
       <c r="S18" s="22">
@@ -4176,12 +4176,12 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="11"/>
       <c r="M19" s="23"/>
@@ -4233,12 +4233,12 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="G20" s="11"/>
       <c r="M20" s="23"/>
@@ -4290,12 +4290,12 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="G21" s="11"/>
       <c r="M21" s="23"/>
@@ -4347,12 +4347,12 @@
         <v>21</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="11"/>
       <c r="M22" s="23"/>
@@ -4404,12 +4404,12 @@
         <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="11"/>
       <c r="M23" s="23"/>
@@ -4461,10 +4461,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="M24" s="23"/>
       <c r="S24" s="22">
@@ -4513,7 +4513,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8">
         <v>2007</v>
@@ -4522,7 +4522,7 @@
         <v>2010</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F25" s="8">
         <v>2009</v>
@@ -4628,7 +4628,7 @@
         <v>Commercial_PV</v>
       </c>
       <c r="AM25" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:39" s="8" customFormat="1">
@@ -4636,7 +4636,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="C26" s="8">
         <v>2007</v>
@@ -4645,7 +4645,7 @@
         <v>2010</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F26" s="8">
         <v>2009</v>
@@ -4751,7 +4751,7 @@
         <v>Central_PV</v>
       </c>
       <c r="AM26" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:39" s="5" customFormat="1">
@@ -4759,7 +4759,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="C27" s="5">
         <v>2007</v>
@@ -4768,7 +4768,7 @@
         <v>2010</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F27" s="5">
         <v>2010</v>
@@ -4874,7 +4874,7 @@
         <v>CSP_Trough_No_Storage</v>
       </c>
       <c r="AM27" s="9" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:39" s="9" customFormat="1" ht="15" customHeight="1">
@@ -4882,7 +4882,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="9">
         <v>2007</v>
@@ -4891,7 +4891,7 @@
         <v>2010</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="9">
         <v>2010</v>
@@ -4997,7 +4997,7 @@
         <v>Compressed_Air_Energy_Storage</v>
       </c>
       <c r="AM28" s="35" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:39" s="21" customFormat="1">
@@ -5005,10 +5005,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
@@ -5059,10 +5059,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
@@ -5113,10 +5113,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
@@ -5167,10 +5167,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
@@ -5221,7 +5221,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="C33" s="25">
         <v>2007</v>
@@ -5230,7 +5230,7 @@
         <v>2010</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="F33" s="25">
         <v>2004</v>
@@ -5336,7 +5336,7 @@
         <v>Battery_Storage</v>
       </c>
       <c r="AM33" s="25" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:39" s="29" customFormat="1">
@@ -5344,7 +5344,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="29">
         <v>2007</v>
@@ -5353,7 +5353,7 @@
         <v>2014</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="29">
         <v>2004</v>
@@ -5469,7 +5469,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="29">
         <v>2007</v>
@@ -5478,7 +5478,7 @@
         <v>2014</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" s="29">
         <v>2004</v>
@@ -5595,7 +5595,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="29">
         <v>2007</v>
@@ -5604,7 +5604,7 @@
         <v>2014</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36" s="29">
         <v>2004</v>
@@ -5721,7 +5721,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="29">
         <v>2007</v>
@@ -5730,7 +5730,7 @@
         <v>2014</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F37" s="29">
         <v>2004</v>
@@ -5847,7 +5847,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="29">
         <v>2007</v>
@@ -5856,7 +5856,7 @@
         <v>2014</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="F38" s="29">
         <v>2004</v>
@@ -5971,7 +5971,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="29">
         <v>2007</v>
@@ -5980,7 +5980,7 @@
         <v>2014</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="F39" s="29">
         <v>2004</v>
@@ -6097,7 +6097,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="29">
         <v>2007</v>
@@ -6106,7 +6106,7 @@
         <v>2014</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" s="29">
         <v>2004</v>
@@ -6223,7 +6223,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="C41" s="31">
         <v>2007</v>
@@ -6232,7 +6232,7 @@
         <v>2014</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" s="31">
         <v>2004</v>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="AL41" s="31" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:39" s="31" customFormat="1">
@@ -6346,7 +6346,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="31">
         <v>2007</v>
@@ -6355,7 +6355,7 @@
         <v>2014</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="F42" s="31">
         <v>2004</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="31" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:39" s="31" customFormat="1">
@@ -6468,7 +6468,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="31">
         <v>2007</v>
@@ -6477,7 +6477,7 @@
         <v>2014</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="31">
         <v>2004</v>
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="31" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:39" s="31" customFormat="1">
@@ -6591,7 +6591,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="C44" s="31">
         <v>2007</v>
@@ -6600,7 +6600,7 @@
         <v>2014</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="31">
         <v>2004</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="31" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:39" s="31" customFormat="1">
@@ -6713,7 +6713,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="C45" s="31">
         <v>2007</v>
@@ -6722,7 +6722,7 @@
         <v>2014</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" s="31">
         <v>2004</v>
@@ -6830,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="31" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:39" s="31" customFormat="1">
@@ -6838,7 +6838,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="C46" s="31">
         <v>2007</v>
@@ -6847,7 +6847,7 @@
         <v>2014</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="F46" s="31">
         <v>2004</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:39" s="31" customFormat="1">
@@ -6963,7 +6963,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="C47" s="31">
         <v>2007</v>
@@ -6972,7 +6972,7 @@
         <v>2014</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F47" s="31">
         <v>2004</v>
@@ -7080,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="AL47" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:39" s="31" customFormat="1">
@@ -7088,7 +7088,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="C48" s="31">
         <v>2007</v>
@@ -7097,7 +7097,7 @@
         <v>2014</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F48" s="31">
         <v>2004</v>
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="31" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:37" s="5" customFormat="1">
@@ -7218,12 +7218,12 @@
     </row>
     <row r="50" spans="1:37" s="6" customFormat="1">
       <c r="A50" s="6" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:37">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="B51">
         <v>2010</v>
@@ -7241,7 +7241,7 @@
         <v>2026</v>
       </c>
       <c r="G51" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="I51" s="28"/>
       <c r="S51" s="5"/>
@@ -8460,7 +8460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:AD48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="Z16" s="12">
         <f>generator_costs!AG16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="30">
         <f>generator_costs!AH16</f>
@@ -10526,7 +10526,7 @@
       </c>
       <c r="Z17" s="12">
         <f>generator_costs!AG17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="30">
         <f>generator_costs!AH17</f>
@@ -14351,15 +14351,15 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="24" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="24" customFormat="1">
@@ -14387,7 +14387,7 @@
         <v>3.3</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="E5" s="24"/>
     </row>

--- a/DatabasePrep/GeneratorInfo/generator_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="-80" windowWidth="23960" windowHeight="15880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="44380" yWindow="3420" windowWidth="23960" windowHeight="15880" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Chart_revise" sheetId="4" r:id="rId1"/>
@@ -22,84 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="138">
-  <si>
-    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP_Trough_No_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP_Trough_6h_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Central_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction_cost_multipulier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_o_m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_o_m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nuclear_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Hydro_NonPumped</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hydro_Pumped</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
-  </si>
-  <si>
-    <t>Biomass_IGCC</t>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
-  </si>
-  <si>
-    <t>Coal_IGCC</t>
-  </si>
-  <si>
-    <t>can_build_new</t>
-  </si>
-  <si>
-    <t>forced_outage_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scheduled_outage_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="137">
   <si>
     <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
 </t>
@@ -138,95 +61,6 @@
   </si>
   <si>
     <t>year_6_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost Declination Rate (%/yr)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concentrating_PV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(in 2010 $)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$/Wp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost declination rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>ReEDs Sheet</t>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine</t>
-  </si>
-  <si>
-    <t>CCGT_CCS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_CCS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Gas_CCS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass_IGCC_CCS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_IGCC_CCS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_CCS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compressed_Air_Energy_Storage_CCS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_CCS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overnight_cost_$2007</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -318,6 +152,283 @@
   <si>
     <t>Gas_Steam_Turbine_CCS_EP</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP_Trough_No_Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP_Trough_6h_Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Central_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_cost_multipulier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var_o_m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuclear_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Hydro_NonPumped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydro_Pumped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
+  </si>
+  <si>
+    <t>Biomass_IGCC</t>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
+  </si>
+  <si>
+    <t>Coal_IGCC</t>
+  </si>
+  <si>
+    <t>can_build_new</t>
+  </si>
+  <si>
+    <t>forced_outage_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduled_outage_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from DOE solar program costs on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_CCS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
+  </si>
+  <si>
+    <t>CCGT_Cogen_EP</t>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_CCS_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_CCS_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_Cogen_CCS_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_Cogen_CCS_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_Cogen_CCS_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_Cogen_CCS_EP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost Declination Rate (%/yr)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concentrating_PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(in 2010 $)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$/Wp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost declination rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT</t>
+  </si>
+  <si>
+    <t>ReEDs Sheet</t>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine</t>
+  </si>
+  <si>
+    <t>CCGT_CCS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_CCS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Gas_CCS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass_IGCC_CCS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_IGCC_CCS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_CCS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_CCS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overnight_cost_$2007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
+  </si>
+  <si>
+    <t>storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offshore_Wind</t>
+  </si>
+  <si>
+    <t>Bio_Gas</t>
+  </si>
+  <si>
+    <t>year_1_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_2_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_3_cost_fraction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery_Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, outage rates from Mathias</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>overnight_cost_change</t>
+  </si>
+  <si>
+    <t>intermittent</t>
+  </si>
+  <si>
+    <t>resource_limited</t>
+  </si>
+  <si>
+    <t>baseload</t>
+  </si>
+  <si>
+    <t>min_build_capacity</t>
+  </si>
+  <si>
+    <t>$year_of_costs</t>
+  </si>
+  <si>
+    <t>cost_for_which_year?</t>
   </si>
   <si>
     <t xml:space="preserve">Solar Vision Study (see PV_Cost_Calc.xlsx) for costs, ReEDs sheet for construction cost multiplier and cost fractions, Matthias for forced outage rate </t>
@@ -422,133 +533,19 @@
   <si>
     <t>Gas_Combustion_Turbine_Cogen_EP</t>
   </si>
-  <si>
-    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from DOE solar program costs on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_CCS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
-  </si>
-  <si>
-    <t>CCGT_Cogen_EP</t>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_CCS_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_CCS_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_Cogen_CCS_EP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
-  </si>
-  <si>
-    <t>storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offshore_Wind</t>
-  </si>
-  <si>
-    <t>Bio_Gas</t>
-  </si>
-  <si>
-    <t>year_1_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_2_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_3_cost_fraction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battery_Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Storage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, outage rates from Mathias</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>overnight_cost_change</t>
-  </si>
-  <si>
-    <t>intermittent</t>
-  </si>
-  <si>
-    <t>resource_limited</t>
-  </si>
-  <si>
-    <t>baseload</t>
-  </si>
-  <si>
-    <t>min_build_capacity</t>
-  </si>
-  <si>
-    <t>$year_of_costs</t>
-  </si>
-  <si>
-    <t>cost_for_which_year?</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -588,7 +585,7 @@
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -612,7 +609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -659,7 +656,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>generator_costs!$A$51</c:f>
+              <c:f>generator_costs!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -682,7 +679,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>generator_costs!$B$51:$F$51</c:f>
+              <c:f>generator_costs!$B$50:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -710,7 +707,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>generator_costs!$A$52</c:f>
+              <c:f>generator_costs!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -733,7 +730,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>generator_costs!$B$52:$F$52</c:f>
+              <c:f>generator_costs!$B$51:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -761,7 +758,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>generator_costs!$A$53</c:f>
+              <c:f>generator_costs!$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -784,7 +781,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>generator_costs!$B$53:$F$53</c:f>
+              <c:f>generator_costs!$B$52:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -852,7 +849,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>generator_costs!$A$55</c:f>
+              <c:f>generator_costs!$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -876,7 +873,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>generator_costs!$B$55:$F$55</c:f>
+              <c:f>generator_costs!$B$54:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -904,7 +901,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>generator_costs!$A$56</c:f>
+              <c:f>generator_costs!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -925,7 +922,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>generator_costs!$B$56:$F$56</c:f>
+              <c:f>generator_costs!$B$55:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -953,7 +950,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>generator_costs!$A$57</c:f>
+              <c:f>generator_costs!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -976,7 +973,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>generator_costs!$B$57:$F$57</c:f>
+              <c:f>generator_costs!$B$56:$F$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1004,7 +1001,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>generator_costs!$A$58</c:f>
+              <c:f>generator_costs!$A$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1018,7 +1015,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>generator_costs!$B$58:$F$58</c:f>
+              <c:f>generator_costs!$B$57:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1046,7 +1043,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>generator_costs!$A$59</c:f>
+              <c:f>generator_costs!$A$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1069,7 +1066,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>generator_costs!$B$59:$F$59</c:f>
+              <c:f>generator_costs!$B$58:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1097,7 +1094,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>generator_costs!$A$60</c:f>
+              <c:f>generator_costs!$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1120,7 +1117,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>generator_costs!$B$60:$F$60</c:f>
+              <c:f>generator_costs!$B$59:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1148,7 +1145,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>generator_costs!$A$61</c:f>
+              <c:f>generator_costs!$A$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1171,7 +1168,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>generator_costs!$B$61:$F$61</c:f>
+              <c:f>generator_costs!$B$60:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1199,7 +1196,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>generator_costs!$A$62</c:f>
+              <c:f>generator_costs!$A$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1222,7 +1219,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>generator_costs!$B$62:$F$62</c:f>
+              <c:f>generator_costs!$B$61:$F$61</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1250,7 +1247,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>generator_costs!$A$63</c:f>
+              <c:f>generator_costs!$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1273,7 +1270,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>generator_costs!$B$63:$F$63</c:f>
+              <c:f>generator_costs!$B$62:$F$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1301,7 +1298,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>generator_costs!$A$64</c:f>
+              <c:f>generator_costs!$A$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1322,7 +1319,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>generator_costs!$B$64:$F$64</c:f>
+              <c:f>generator_costs!$B$63:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1350,7 +1347,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>generator_costs!$A$65</c:f>
+              <c:f>generator_costs!$A$64</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1364,7 +1361,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>generator_costs!$B$65:$F$65</c:f>
+              <c:f>generator_costs!$B$64:$F$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1392,7 +1389,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>generator_costs!$A$66</c:f>
+              <c:f>generator_costs!$A$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1406,7 +1403,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>generator_costs!$B$66:$F$66</c:f>
+              <c:f>generator_costs!$B$65:$F$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1434,7 +1431,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>generator_costs!$A$67</c:f>
+              <c:f>generator_costs!$A$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1448,7 +1445,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>generator_costs!$B$67:$F$67</c:f>
+              <c:f>generator_costs!$B$66:$F$66</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1532,11 +1529,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="579649896"/>
-        <c:axId val="579168888"/>
+        <c:axId val="583091960"/>
+        <c:axId val="583099240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="579649896"/>
+        <c:axId val="583091960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,14 +1567,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579168888"/>
+        <c:crossAx val="583099240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="579168888"/>
+        <c:axId val="583099240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7.0"/>
@@ -1613,7 +1610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579649896"/>
+        <c:crossAx val="583091960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1997,17 +1994,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AM90"/>
+  <dimension ref="A1:AM88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG18" sqref="AG18"/>
+    <sheetView topLeftCell="A63" zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="5"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
     <col min="4" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
@@ -2032,121 +2029,121 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="5" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="T1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="X1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="U1" s="5" t="s">
+      <c r="AC1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH1" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI1" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL1" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="AM1" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -2154,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C2" s="5">
         <v>2007</v>
@@ -2163,7 +2160,7 @@
         <v>2010</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>2004</v>
@@ -2269,7 +2266,7 @@
         <v>CCGT</v>
       </c>
       <c r="AM2" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -2277,7 +2274,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C3" s="5">
         <v>2007</v>
@@ -2286,7 +2283,7 @@
         <v>2010</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>2004</v>
@@ -2314,11 +2311,11 @@
         <v>708354.36836260383</v>
       </c>
       <c r="N3" s="11">
-        <f t="shared" ref="N3:N48" si="1">K3*G3</f>
+        <f t="shared" ref="N3:N47" si="1">K3*G3</f>
         <v>11321.478000000001</v>
       </c>
       <c r="O3" s="11">
-        <f t="shared" ref="O3:O48" si="2">L3*G3</f>
+        <f t="shared" ref="O3:O47" si="2">L3*G3</f>
         <v>3.3505470000000002</v>
       </c>
       <c r="P3">
@@ -2388,11 +2385,11 @@
         <v>0</v>
       </c>
       <c r="AL3" s="24" t="str">
-        <f t="shared" ref="AL3:AL40" si="3">B3</f>
+        <f t="shared" ref="AL3:AL39" si="3">B3</f>
         <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="AM3" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="24" customFormat="1">
@@ -2400,7 +2397,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C4" s="24">
         <v>2007</v>
@@ -2409,7 +2406,7 @@
         <v>2010</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F4" s="24">
         <v>2010</v>
@@ -2516,7 +2513,7 @@
         <v>Concentrating_PV</v>
       </c>
       <c r="AM4" s="24" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -2524,7 +2521,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
@@ -2533,7 +2530,7 @@
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>2004</v>
@@ -2639,7 +2636,7 @@
         <v>Wind</v>
       </c>
       <c r="AM5" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -2647,7 +2644,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C6" s="5">
         <v>2007</v>
@@ -2656,7 +2653,7 @@
         <v>2010</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>2004</v>
@@ -2762,7 +2759,7 @@
         <v>Offshore_Wind</v>
       </c>
       <c r="AM6" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -2770,7 +2767,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="C7" s="5">
         <v>2007</v>
@@ -2779,7 +2776,7 @@
         <v>2010</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="F7">
         <v>2009</v>
@@ -2886,7 +2883,7 @@
         <v>Residential_PV</v>
       </c>
       <c r="AM7" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:39" s="11" customFormat="1">
@@ -2894,7 +2891,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C8" s="11">
         <v>2007</v>
@@ -2903,7 +2900,7 @@
         <v>2012</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="F8" s="11">
         <v>2010</v>
@@ -3009,7 +3006,7 @@
         <v>CSP_Trough_6h_Storage</v>
       </c>
       <c r="AM8" s="11" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -3017,7 +3014,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C9" s="5">
         <v>2007</v>
@@ -3026,7 +3023,7 @@
         <v>2010</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="F9">
         <v>2007</v>
@@ -3132,7 +3129,7 @@
         <v>Bio_Gas</v>
       </c>
       <c r="AM9" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -3140,7 +3137,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5">
         <v>2007</v>
@@ -3149,7 +3146,7 @@
         <v>2010</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="F10">
         <v>2004</v>
@@ -3255,7 +3252,7 @@
         <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="AM10" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -3263,7 +3260,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
@@ -3272,7 +3269,7 @@
         <v>2012</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="F11">
         <v>2007</v>
@@ -3378,7 +3375,7 @@
         <v>Biomass_IGCC</v>
       </c>
       <c r="AM11" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -3386,7 +3383,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C12" s="5">
         <v>2007</v>
@@ -3395,7 +3392,7 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="F12">
         <v>2004</v>
@@ -3501,7 +3498,7 @@
         <v>Coal_IGCC</v>
       </c>
       <c r="AM12" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -3509,7 +3506,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
@@ -3518,7 +3515,7 @@
         <v>2010</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <v>2004</v>
@@ -3624,7 +3621,7 @@
         <v>Coal_Steam_Turbine</v>
       </c>
       <c r="AM13" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -3632,7 +3629,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C14" s="5">
         <v>2007</v>
@@ -3641,7 +3638,7 @@
         <v>2010</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="F14">
         <v>2004</v>
@@ -3747,7 +3744,7 @@
         <v>Nuclear</v>
       </c>
       <c r="AM14" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -3755,7 +3752,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="C15" s="5">
         <v>2007</v>
@@ -3764,7 +3761,7 @@
         <v>2010</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="F15">
         <v>2004</v>
@@ -3870,7 +3867,7 @@
         <v>Geothermal</v>
       </c>
       <c r="AM15" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -3878,7 +3875,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5">
         <v>2007</v>
@@ -3887,7 +3884,7 @@
         <v>2010</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F16" s="5">
         <v>2004</v>
@@ -3993,7 +3990,7 @@
         <v>Hydro_NonPumped</v>
       </c>
       <c r="AM16" s="5" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:39">
@@ -4001,7 +3998,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C17" s="5">
         <v>2007</v>
@@ -4010,7 +4007,7 @@
         <v>2010</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F17" s="5">
         <v>2004</v>
@@ -4116,7 +4113,7 @@
         <v>Hydro_Pumped</v>
       </c>
       <c r="AM17" s="5" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:39" s="18" customFormat="1">
@@ -4124,10 +4121,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="M18" s="23"/>
       <c r="S18" s="22">
@@ -4151,6 +4148,9 @@
       <c r="Y18" s="22">
         <v>0</v>
       </c>
+      <c r="AE18" s="18">
+        <v>0</v>
+      </c>
       <c r="AG18" s="18">
         <v>0</v>
       </c>
@@ -4176,12 +4176,12 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="G19" s="11"/>
       <c r="M19" s="23"/>
@@ -4208,6 +4208,9 @@
       <c r="Y19" s="22">
         <v>0.1</v>
       </c>
+      <c r="AE19" s="5">
+        <v>1</v>
+      </c>
       <c r="AG19">
         <v>0</v>
       </c>
@@ -4233,12 +4236,12 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G20" s="11"/>
       <c r="M20" s="23"/>
@@ -4265,6 +4268,9 @@
       <c r="Y20" s="22">
         <v>0</v>
       </c>
+      <c r="AE20" s="5">
+        <v>0</v>
+      </c>
       <c r="AG20">
         <v>0</v>
       </c>
@@ -4290,12 +4296,12 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G21" s="11"/>
       <c r="M21" s="23"/>
@@ -4322,6 +4328,9 @@
       <c r="Y21" s="22">
         <v>0</v>
       </c>
+      <c r="AE21" s="5">
+        <v>0</v>
+      </c>
       <c r="AG21">
         <v>0</v>
       </c>
@@ -4347,12 +4356,12 @@
         <v>21</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="G22" s="11"/>
       <c r="M22" s="23"/>
@@ -4379,6 +4388,9 @@
       <c r="Y22" s="22">
         <v>0</v>
       </c>
+      <c r="AE22" s="5">
+        <v>1</v>
+      </c>
       <c r="AG22">
         <v>0</v>
       </c>
@@ -4404,12 +4416,12 @@
         <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="G23" s="11"/>
       <c r="M23" s="23"/>
@@ -4436,6 +4448,9 @@
       <c r="Y23" s="22">
         <v>0.1</v>
       </c>
+      <c r="AE23" s="5">
+        <v>1</v>
+      </c>
       <c r="AG23">
         <v>0</v>
       </c>
@@ -4461,10 +4476,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="M24" s="23"/>
       <c r="S24" s="22">
@@ -4488,6 +4503,9 @@
       <c r="Y24" s="22">
         <v>0</v>
       </c>
+      <c r="AE24" s="18">
+        <v>0</v>
+      </c>
       <c r="AG24" s="18">
         <v>0</v>
       </c>
@@ -4513,7 +4531,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C25" s="8">
         <v>2007</v>
@@ -4522,7 +4540,7 @@
         <v>2010</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="F25" s="8">
         <v>2009</v>
@@ -4628,7 +4646,7 @@
         <v>Commercial_PV</v>
       </c>
       <c r="AM25" s="9" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:39" s="8" customFormat="1">
@@ -4636,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C26" s="8">
         <v>2007</v>
@@ -4645,7 +4663,7 @@
         <v>2010</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="F26" s="8">
         <v>2009</v>
@@ -4751,7 +4769,7 @@
         <v>Central_PV</v>
       </c>
       <c r="AM26" s="9" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:39" s="5" customFormat="1">
@@ -4759,7 +4777,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5">
         <v>2007</v>
@@ -4768,7 +4786,7 @@
         <v>2010</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="F27" s="5">
         <v>2010</v>
@@ -4874,7 +4892,7 @@
         <v>CSP_Trough_No_Storage</v>
       </c>
       <c r="AM27" s="9" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:39" s="9" customFormat="1" ht="15" customHeight="1">
@@ -4882,7 +4900,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C28" s="9">
         <v>2007</v>
@@ -4891,7 +4909,7 @@
         <v>2010</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="F28" s="9">
         <v>2010</v>
@@ -4997,7 +5015,7 @@
         <v>Compressed_Air_Energy_Storage</v>
       </c>
       <c r="AM28" s="35" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:39" s="21" customFormat="1">
@@ -5005,10 +5023,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
@@ -5034,6 +5052,9 @@
       <c r="Y29" s="22">
         <v>0</v>
       </c>
+      <c r="AE29" s="21">
+        <v>1</v>
+      </c>
       <c r="AG29" s="21">
         <v>0</v>
       </c>
@@ -5059,10 +5080,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
@@ -5088,6 +5109,9 @@
       <c r="Y30" s="22">
         <v>0</v>
       </c>
+      <c r="AE30" s="21">
+        <v>1</v>
+      </c>
       <c r="AG30" s="21">
         <v>0</v>
       </c>
@@ -5113,10 +5137,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
@@ -5142,6 +5166,9 @@
       <c r="Y31" s="22">
         <v>0</v>
       </c>
+      <c r="AE31" s="21">
+        <v>1</v>
+      </c>
       <c r="AG31" s="21">
         <v>0</v>
       </c>
@@ -5167,10 +5194,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
@@ -5196,6 +5223,9 @@
       <c r="Y32" s="22">
         <v>0</v>
       </c>
+      <c r="AE32" s="21">
+        <v>1</v>
+      </c>
       <c r="AG32" s="21">
         <v>0</v>
       </c>
@@ -5221,7 +5251,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C33" s="25">
         <v>2007</v>
@@ -5230,7 +5260,7 @@
         <v>2010</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="F33" s="25">
         <v>2004</v>
@@ -5254,7 +5284,7 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="M33" s="25">
-        <f t="shared" ref="M33:M48" si="6">I33*J33*G33/(1+P33)^(H33-2007)</f>
+        <f t="shared" ref="M33:M47" si="6">I33*J33*G33/(1+P33)^(H33-2007)</f>
         <v>4144936.7381368177</v>
       </c>
       <c r="N33" s="25">
@@ -5336,7 +5366,7 @@
         <v>Battery_Storage</v>
       </c>
       <c r="AM33" s="25" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:39" s="29" customFormat="1">
@@ -5344,7 +5374,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C34" s="29">
         <v>2007</v>
@@ -5353,7 +5383,7 @@
         <v>2014</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F34" s="29">
         <v>2004</v>
@@ -5469,7 +5499,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C35" s="29">
         <v>2007</v>
@@ -5478,7 +5508,7 @@
         <v>2014</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F35" s="29">
         <v>2004</v>
@@ -5595,7 +5625,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C36" s="29">
         <v>2007</v>
@@ -5604,7 +5634,7 @@
         <v>2014</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F36" s="29">
         <v>2004</v>
@@ -5721,7 +5751,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C37" s="29">
         <v>2007</v>
@@ -5730,7 +5760,7 @@
         <v>2014</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="F37" s="29">
         <v>2004</v>
@@ -5847,7 +5877,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C38" s="29">
         <v>2007</v>
@@ -5856,7 +5886,7 @@
         <v>2014</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="F38" s="29">
         <v>2004</v>
@@ -5971,7 +6001,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C39" s="29">
         <v>2007</v>
@@ -5980,7 +6010,7 @@
         <v>2014</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="F39" s="29">
         <v>2004</v>
@@ -6092,138 +6122,135 @@
         <v>Coal_Steam_Turbine_CCS</v>
       </c>
     </row>
-    <row r="40" spans="1:39" s="29" customFormat="1">
-      <c r="A40" s="29">
-        <v>40</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="29">
+    <row r="40" spans="1:39" s="31" customFormat="1">
+      <c r="A40" s="31">
+        <v>41</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="31">
         <v>2007</v>
       </c>
       <c r="D40" s="34">
         <v>2014</v>
       </c>
-      <c r="E40" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="29">
+      <c r="E40" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="31">
         <v>2004</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="31">
         <v>1.0980000000000001</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="31">
         <v>2010</v>
       </c>
-      <c r="I40" s="29">
-        <f>I28+2294786</f>
-        <v>3494786</v>
-      </c>
-      <c r="J40" s="29">
-        <f>J28</f>
-        <v>1.20678844526941</v>
-      </c>
-      <c r="K40" s="29">
-        <f>K28+6786</f>
-        <v>17096</v>
-      </c>
-      <c r="L40" s="29">
-        <f>L28+0.824</f>
-        <v>3.9239999999999999</v>
-      </c>
-      <c r="M40" s="30">
+      <c r="I40" s="31">
+        <v>2294786</v>
+      </c>
+      <c r="J40" s="31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K40" s="31">
+        <f>11322+7114</f>
+        <v>18436</v>
+      </c>
+      <c r="L40" s="31">
+        <f>3.35+0.824</f>
+        <v>4.1740000000000004</v>
+      </c>
+      <c r="M40" s="31">
         <f t="shared" si="6"/>
-        <v>4713343.8881851453</v>
-      </c>
-      <c r="N40" s="30">
+        <v>2810868.4742858419</v>
+      </c>
+      <c r="N40" s="31">
         <f t="shared" si="1"/>
-        <v>18771.408000000003</v>
-      </c>
-      <c r="O40" s="30">
+        <v>20242.728000000003</v>
+      </c>
+      <c r="O40" s="31">
         <f t="shared" si="2"/>
-        <v>4.3085520000000006</v>
-      </c>
-      <c r="P40" s="29">
-        <f>P28+(P34-P2)</f>
-        <v>-5.873506790955307E-3</v>
-      </c>
-      <c r="Q40" s="30">
-        <v>91289</v>
-      </c>
-      <c r="R40" s="29">
-        <f>R28+3.03</f>
-        <v>7.43</v>
-      </c>
-      <c r="S40" s="30">
-        <v>6</v>
-      </c>
-      <c r="T40" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="U40" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="V40" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="W40" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="X40" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="Y40" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="Z40" s="30">
+        <v>4.5830520000000003</v>
+      </c>
+      <c r="P40" s="31">
+        <f>P35-P3</f>
+        <v>-4.6735067909553056E-3</v>
+      </c>
+      <c r="Q40" s="31">
+        <v>0</v>
+      </c>
+      <c r="R40" s="31">
+        <v>3.03</v>
+      </c>
+      <c r="S40" s="31">
+        <v>3</v>
+      </c>
+      <c r="T40" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="U40" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="V40" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="W40" s="31">
+        <v>0</v>
+      </c>
+      <c r="X40" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="31">
         <v>30</v>
       </c>
-      <c r="AA40" s="30">
+      <c r="AA40" s="31">
+        <f>0.03</f>
         <v>0.03</v>
       </c>
-      <c r="AB40" s="30">
-        <v>0.04</v>
-      </c>
-      <c r="AC40" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="29">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="30">
-        <v>1</v>
-      </c>
-      <c r="AH40" s="30">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="29">
-        <v>1</v>
-      </c>
-      <c r="AJ40" s="30">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="30">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>Compressed_Air_Energy_Storage_CCS</v>
+      <c r="AB40" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="AC40" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="31">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="31">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="31">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="31" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:39" s="31" customFormat="1">
       <c r="A41" s="31">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C41" s="31">
         <v>2007</v>
@@ -6232,7 +6259,7 @@
         <v>2014</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F41" s="31">
         <v>2004</v>
@@ -6250,34 +6277,34 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K41" s="31">
-        <f>11322+7114</f>
-        <v>18436</v>
+        <f xml:space="preserve"> 25703 + 6786</f>
+        <v>32489</v>
       </c>
       <c r="L41" s="31">
-        <f>3.35+0.824</f>
-        <v>4.1740000000000004</v>
+        <f>3.73+1.385</f>
+        <v>5.1150000000000002</v>
       </c>
       <c r="M41" s="31">
         <f t="shared" si="6"/>
-        <v>2810868.4742858419</v>
+        <v>2790415.9071952482</v>
       </c>
       <c r="N41" s="31">
         <f t="shared" si="1"/>
-        <v>20242.728000000003</v>
+        <v>35672.922000000006</v>
       </c>
       <c r="O41" s="31">
         <f t="shared" si="2"/>
-        <v>4.5830520000000003</v>
+        <v>5.616270000000001</v>
       </c>
       <c r="P41" s="31">
-        <f>P35-P3</f>
-        <v>-4.6735067909553056E-3</v>
-      </c>
-      <c r="Q41" s="31">
+        <f>P39-P13</f>
+        <v>-2.2476500876696184E-3</v>
+      </c>
+      <c r="Q41" s="32">
         <v>0</v>
       </c>
       <c r="R41" s="31">
-        <v>3.03</v>
+        <v>2.1360000000000001</v>
       </c>
       <c r="S41" s="31">
         <v>3</v>
@@ -6301,14 +6328,13 @@
         <v>0</v>
       </c>
       <c r="Z41" s="31">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AA41" s="31">
-        <f>0.03</f>
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="AB41" s="31">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AC41" s="31">
         <v>0</v>
@@ -6317,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="AE41" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF41" s="31">
         <v>0</v>
@@ -6338,15 +6364,15 @@
         <v>0</v>
       </c>
       <c r="AL41" s="31" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:39" s="31" customFormat="1">
       <c r="A42" s="31">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C42" s="31">
         <v>2007</v>
@@ -6355,7 +6381,7 @@
         <v>2014</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F42" s="31">
         <v>2004</v>
@@ -6373,33 +6399,34 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K42" s="31">
-        <f xml:space="preserve"> 25703 + 6786</f>
-        <v>32489</v>
+        <f xml:space="preserve"> 27730 +6786</f>
+        <v>34516</v>
       </c>
       <c r="L42" s="31">
-        <f>3.73+1.385</f>
-        <v>5.1150000000000002</v>
+        <f>3.47+1.385</f>
+        <v>4.8550000000000004</v>
       </c>
       <c r="M42" s="31">
         <f t="shared" si="6"/>
-        <v>2790415.9071952482</v>
+        <v>2810868.4742858419</v>
       </c>
       <c r="N42" s="31">
         <f t="shared" si="1"/>
-        <v>35672.922000000006</v>
+        <v>37898.568000000007</v>
       </c>
       <c r="O42" s="31">
         <f t="shared" si="2"/>
-        <v>5.616270000000001</v>
+        <v>5.3307900000000012</v>
       </c>
       <c r="P42" s="31">
-        <f>P39-P13</f>
-        <v>-2.2476500876696184E-3</v>
+        <f>P43</f>
+        <v>-4.6735067909553073E-3</v>
       </c>
       <c r="Q42" s="32">
         <v>0</v>
       </c>
       <c r="R42" s="31">
+        <f>R41</f>
         <v>2.1360000000000001</v>
       </c>
       <c r="S42" s="31">
@@ -6424,13 +6451,13 @@
         <v>0</v>
       </c>
       <c r="Z42" s="31">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AA42" s="31">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="AB42" s="31">
-        <v>0.1</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AC42" s="31">
         <v>0</v>
@@ -6460,15 +6487,15 @@
         <v>0</v>
       </c>
       <c r="AL42" s="31" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:39" s="31" customFormat="1">
       <c r="A43" s="31">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C43" s="31">
         <v>2007</v>
@@ -6477,7 +6504,7 @@
         <v>2014</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F43" s="31">
         <v>2004</v>
@@ -6495,12 +6522,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K43" s="31">
-        <f xml:space="preserve"> 27730 +6786</f>
-        <v>34516</v>
+        <f xml:space="preserve"> 11322+7114</f>
+        <v>18436</v>
       </c>
       <c r="L43" s="31">
-        <f>3.47+1.385</f>
-        <v>4.8550000000000004</v>
+        <f>3.35+ 0.824</f>
+        <v>4.1740000000000004</v>
       </c>
       <c r="M43" s="31">
         <f t="shared" si="6"/>
@@ -6508,22 +6535,21 @@
       </c>
       <c r="N43" s="31">
         <f t="shared" si="1"/>
-        <v>37898.568000000007</v>
+        <v>20242.728000000003</v>
       </c>
       <c r="O43" s="31">
         <f t="shared" si="2"/>
-        <v>5.3307900000000012</v>
+        <v>4.5830520000000003</v>
       </c>
       <c r="P43" s="31">
-        <f>P44</f>
+        <f>P34-P2</f>
         <v>-4.6735067909553073E-3</v>
       </c>
       <c r="Q43" s="32">
         <v>0</v>
       </c>
       <c r="R43" s="31">
-        <f>R42</f>
-        <v>2.1360000000000001</v>
+        <v>3.03</v>
       </c>
       <c r="S43" s="31">
         <v>3</v>
@@ -6547,13 +6573,13 @@
         <v>0</v>
       </c>
       <c r="Z43" s="31">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AA43" s="31">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="AB43" s="31">
-        <v>2.5999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AC43" s="31">
         <v>0</v>
@@ -6583,15 +6609,15 @@
         <v>0</v>
       </c>
       <c r="AL43" s="31" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:39" s="31" customFormat="1">
       <c r="A44" s="31">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="C44" s="31">
         <v>2007</v>
@@ -6600,7 +6626,7 @@
         <v>2014</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F44" s="31">
         <v>2004</v>
@@ -6618,11 +6644,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K44" s="31">
-        <f xml:space="preserve"> 11322+7114</f>
+        <f t="shared" ref="K44:L47" si="7">K40</f>
         <v>18436</v>
       </c>
       <c r="L44" s="31">
-        <f>3.35+ 0.824</f>
+        <f t="shared" si="7"/>
         <v>4.1740000000000004</v>
       </c>
       <c r="M44" s="31">
@@ -6638,13 +6664,14 @@
         <v>4.5830520000000003</v>
       </c>
       <c r="P44" s="31">
-        <f>P34-P2</f>
-        <v>-4.6735067909553073E-3</v>
+        <f>P40</f>
+        <v>-4.6735067909553056E-3</v>
       </c>
       <c r="Q44" s="32">
         <v>0</v>
       </c>
       <c r="R44" s="31">
+        <f>R40</f>
         <v>3.03</v>
       </c>
       <c r="S44" s="31">
@@ -6672,10 +6699,12 @@
         <v>30</v>
       </c>
       <c r="AA44" s="31">
-        <v>0.04</v>
+        <f t="shared" ref="AA44:AB47" si="8">AA40</f>
+        <v>0.03</v>
       </c>
       <c r="AB44" s="31">
-        <v>0.06</v>
+        <f t="shared" si="8"/>
+        <v>0.05</v>
       </c>
       <c r="AC44" s="31">
         <v>0</v>
@@ -6684,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="AE44" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF44" s="31">
         <v>0</v>
@@ -6705,15 +6734,15 @@
         <v>0</v>
       </c>
       <c r="AL44" s="31" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:39" s="31" customFormat="1">
       <c r="A45" s="31">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="C45" s="31">
         <v>2007</v>
@@ -6722,7 +6751,7 @@
         <v>2014</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F45" s="31">
         <v>2004</v>
@@ -6740,35 +6769,35 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K45" s="31">
-        <f t="shared" ref="K45:L48" si="7">K41</f>
-        <v>18436</v>
+        <f t="shared" si="7"/>
+        <v>32489</v>
       </c>
       <c r="L45" s="31">
         <f t="shared" si="7"/>
-        <v>4.1740000000000004</v>
+        <v>5.1150000000000002</v>
       </c>
       <c r="M45" s="31">
         <f t="shared" si="6"/>
-        <v>2810868.4742858419</v>
+        <v>2790415.9071952482</v>
       </c>
       <c r="N45" s="31">
         <f t="shared" si="1"/>
-        <v>20242.728000000003</v>
+        <v>35672.922000000006</v>
       </c>
       <c r="O45" s="31">
         <f t="shared" si="2"/>
-        <v>4.5830520000000003</v>
+        <v>5.616270000000001</v>
       </c>
       <c r="P45" s="31">
         <f>P41</f>
-        <v>-4.6735067909553056E-3</v>
+        <v>-2.2476500876696184E-3</v>
       </c>
       <c r="Q45" s="32">
         <v>0</v>
       </c>
       <c r="R45" s="31">
         <f>R41</f>
-        <v>3.03</v>
+        <v>2.1360000000000001</v>
       </c>
       <c r="S45" s="31">
         <v>3</v>
@@ -6792,15 +6821,15 @@
         <v>0</v>
       </c>
       <c r="Z45" s="31">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AA45" s="31">
-        <f t="shared" ref="AA45:AB48" si="8">AA41</f>
-        <v>0.03</v>
+        <f t="shared" si="8"/>
+        <v>0.06</v>
       </c>
       <c r="AB45" s="31">
         <f t="shared" si="8"/>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AC45" s="31">
         <v>0</v>
@@ -6830,15 +6859,15 @@
         <v>0</v>
       </c>
       <c r="AL45" s="31" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:39" s="31" customFormat="1">
       <c r="A46" s="31">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="C46" s="31">
         <v>2007</v>
@@ -6847,7 +6876,7 @@
         <v>2014</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F46" s="31">
         <v>2004</v>
@@ -6866,27 +6895,27 @@
       </c>
       <c r="K46" s="31">
         <f t="shared" si="7"/>
-        <v>32489</v>
+        <v>34516</v>
       </c>
       <c r="L46" s="31">
         <f t="shared" si="7"/>
-        <v>5.1150000000000002</v>
+        <v>4.8550000000000004</v>
       </c>
       <c r="M46" s="31">
         <f t="shared" si="6"/>
-        <v>2790415.9071952482</v>
+        <v>2810868.4742858419</v>
       </c>
       <c r="N46" s="31">
         <f t="shared" si="1"/>
-        <v>35672.922000000006</v>
+        <v>37898.568000000007</v>
       </c>
       <c r="O46" s="31">
         <f t="shared" si="2"/>
-        <v>5.616270000000001</v>
+        <v>5.3307900000000012</v>
       </c>
       <c r="P46" s="31">
         <f>P42</f>
-        <v>-2.2476500876696184E-3</v>
+        <v>-4.6735067909553073E-3</v>
       </c>
       <c r="Q46" s="32">
         <v>0</v>
@@ -6917,15 +6946,15 @@
         <v>0</v>
       </c>
       <c r="Z46" s="31">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AA46" s="31">
         <f t="shared" si="8"/>
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="AB46" s="31">
         <f t="shared" si="8"/>
-        <v>0.1</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AC46" s="31">
         <v>0</v>
@@ -6955,15 +6984,15 @@
         <v>0</v>
       </c>
       <c r="AL46" s="31" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:39" s="31" customFormat="1">
       <c r="A47" s="31">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="C47" s="31">
         <v>2007</v>
@@ -6972,7 +7001,7 @@
         <v>2014</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F47" s="31">
         <v>2004</v>
@@ -6991,11 +7020,11 @@
       </c>
       <c r="K47" s="31">
         <f t="shared" si="7"/>
-        <v>34516</v>
+        <v>18436</v>
       </c>
       <c r="L47" s="31">
         <f t="shared" si="7"/>
-        <v>4.8550000000000004</v>
+        <v>4.1740000000000004</v>
       </c>
       <c r="M47" s="31">
         <f t="shared" si="6"/>
@@ -7003,11 +7032,11 @@
       </c>
       <c r="N47" s="31">
         <f t="shared" si="1"/>
-        <v>37898.568000000007</v>
+        <v>20242.728000000003</v>
       </c>
       <c r="O47" s="31">
         <f t="shared" si="2"/>
-        <v>5.3307900000000012</v>
+        <v>4.5830520000000003</v>
       </c>
       <c r="P47" s="31">
         <f>P43</f>
@@ -7018,7 +7047,7 @@
       </c>
       <c r="R47" s="31">
         <f>R43</f>
-        <v>2.1360000000000001</v>
+        <v>3.03</v>
       </c>
       <c r="S47" s="31">
         <v>3</v>
@@ -7042,15 +7071,15 @@
         <v>0</v>
       </c>
       <c r="Z47" s="31">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AA47" s="31">
         <f t="shared" si="8"/>
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="AB47" s="31">
         <f t="shared" si="8"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AC47" s="31">
         <v>0</v>
@@ -7080,489 +7109,396 @@
         <v>0</v>
       </c>
       <c r="AL47" s="31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39" s="31" customFormat="1">
-      <c r="A48" s="31">
-        <v>48</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="31">
-        <v>2007</v>
-      </c>
-      <c r="D48" s="34">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" s="5" customFormat="1">
+      <c r="G48" s="11"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="30"/>
+      <c r="AI48" s="15"/>
+      <c r="AJ48" s="30"/>
+      <c r="AK48" s="30"/>
+    </row>
+    <row r="49" spans="1:37" s="6" customFormat="1">
+      <c r="A49" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50">
+        <v>2010</v>
+      </c>
+      <c r="C50">
         <v>2014</v>
       </c>
-      <c r="E48" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="31">
-        <v>2004</v>
-      </c>
-      <c r="G48" s="31">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="H48" s="31">
-        <v>2010</v>
-      </c>
-      <c r="I48" s="31">
-        <v>2294786</v>
-      </c>
-      <c r="J48" s="31">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K48" s="31">
-        <f t="shared" si="7"/>
-        <v>18436</v>
-      </c>
-      <c r="L48" s="31">
-        <f t="shared" si="7"/>
-        <v>4.1740000000000004</v>
-      </c>
-      <c r="M48" s="31">
-        <f t="shared" si="6"/>
-        <v>2810868.4742858419</v>
-      </c>
-      <c r="N48" s="31">
-        <f t="shared" si="1"/>
-        <v>20242.728000000003</v>
-      </c>
-      <c r="O48" s="31">
-        <f t="shared" si="2"/>
-        <v>4.5830520000000003</v>
-      </c>
-      <c r="P48" s="31">
-        <f>P44</f>
-        <v>-4.6735067909553073E-3</v>
-      </c>
-      <c r="Q48" s="32">
-        <v>0</v>
-      </c>
-      <c r="R48" s="31">
-        <f>R44</f>
-        <v>3.03</v>
-      </c>
-      <c r="S48" s="31">
-        <v>3</v>
-      </c>
-      <c r="T48" s="31">
-        <v>0.8</v>
-      </c>
-      <c r="U48" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="V48" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="W48" s="31">
-        <v>0</v>
-      </c>
-      <c r="X48" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="31">
-        <v>30</v>
-      </c>
-      <c r="AA48" s="31">
-        <f t="shared" si="8"/>
-        <v>0.04</v>
-      </c>
-      <c r="AB48" s="31">
-        <f t="shared" si="8"/>
-        <v>0.06</v>
-      </c>
-      <c r="AC48" s="31">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="31">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="31">
-        <v>1</v>
-      </c>
-      <c r="AF48" s="31">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="31">
-        <v>1</v>
-      </c>
-      <c r="AH48" s="31">
-        <v>1</v>
-      </c>
-      <c r="AI48" s="31">
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="31">
-        <v>0</v>
-      </c>
-      <c r="AK48" s="31">
-        <v>0</v>
-      </c>
-      <c r="AL48" s="31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:37" s="5" customFormat="1">
-      <c r="G49" s="11"/>
-      <c r="AG49" s="12"/>
-      <c r="AH49" s="30"/>
-      <c r="AI49" s="15"/>
-      <c r="AJ49" s="30"/>
-      <c r="AK49" s="30"/>
-    </row>
-    <row r="50" spans="1:37" s="6" customFormat="1">
-      <c r="A50" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="D50">
+        <v>2018</v>
+      </c>
+      <c r="E50">
+        <v>2022</v>
+      </c>
+      <c r="F50">
+        <v>2026</v>
+      </c>
+      <c r="G50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50" s="28"/>
+      <c r="S50" s="5"/>
+      <c r="Y50"/>
     </row>
     <row r="51" spans="1:37">
-      <c r="A51" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51">
-        <v>2010</v>
-      </c>
-      <c r="C51">
-        <v>2014</v>
-      </c>
-      <c r="D51">
-        <v>2018</v>
-      </c>
-      <c r="E51">
-        <v>2022</v>
-      </c>
-      <c r="F51">
-        <v>2026</v>
-      </c>
-      <c r="G51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" s="28"/>
+      <c r="A51" s="5" t="str">
+        <f>B2</f>
+        <v>CCGT</v>
+      </c>
+      <c r="B51" s="1">
+        <f>$M2*(1+$P2)^(B$50-2007)/1000000</f>
+        <v>1.0537389831600001</v>
+      </c>
+      <c r="C51" s="1">
+        <f>$M2*(1+$P2)^(C$50-2007)/1000000</f>
+        <v>0.99797900627524927</v>
+      </c>
+      <c r="D51" s="1">
+        <f>$M2*(1+$P2)^(D$50-2007)/1000000</f>
+        <v>0.94516964151729288</v>
+      </c>
+      <c r="E51" s="1">
+        <f>$M2*(1+$P2)^(E$50-2007)/1000000</f>
+        <v>0.89515475338520012</v>
+      </c>
+      <c r="F51" s="1">
+        <f>$M2*(1+$P2)^(F$50-2007)/1000000</f>
+        <v>0.84778646849234207</v>
+      </c>
+      <c r="G51" s="2">
+        <f>-P2*100</f>
+        <v>1.35</v>
+      </c>
       <c r="S51" s="5"/>
       <c r="Y51"/>
     </row>
     <row r="52" spans="1:37">
       <c r="A52" s="5" t="str">
-        <f>B2</f>
-        <v>CCGT</v>
+        <f>B3</f>
+        <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" ref="B52:F61" si="9">$M2*(1+$P2)^(B$51-2007)/1000000</f>
-        <v>1.0537389831600001</v>
+        <f>$M3*(1+$P3)^(B$50-2007)/1000000</f>
+        <v>0.67819199760000015</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="9"/>
-        <v>0.99797900627524927</v>
+        <f>$M3*(1+$P3)^(C$50-2007)/1000000</f>
+        <v>0.63996384677317375</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="9"/>
-        <v>0.94516964151729288</v>
+        <f>$M3*(1+$P3)^(D$50-2007)/1000000</f>
+        <v>0.60389053044868624</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="9"/>
-        <v>0.89515475338520012</v>
+        <f>$M3*(1+$P3)^(E$50-2007)/1000000</f>
+        <v>0.56985058547354583</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="9"/>
-        <v>0.84778646849234207</v>
+        <f>$M3*(1+$P3)^(F$50-2007)/1000000</f>
+        <v>0.5377293952983021</v>
       </c>
       <c r="G52" s="2">
-        <f>-P2*100</f>
-        <v>1.35</v>
+        <f>-P3*100</f>
+        <v>1.44</v>
       </c>
       <c r="S52" s="5"/>
       <c r="Y52"/>
     </row>
-    <row r="53" spans="1:37">
-      <c r="A53" s="5" t="str">
-        <f>B3</f>
-        <v>Gas_Combustion_Turbine</v>
-      </c>
-      <c r="B53" s="1">
-        <f t="shared" si="9"/>
-        <v>0.67819199760000015</v>
-      </c>
-      <c r="C53" s="1">
-        <f t="shared" si="9"/>
-        <v>0.63996384677317375</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="9"/>
-        <v>0.60389053044868624</v>
-      </c>
-      <c r="E53" s="1">
-        <f t="shared" si="9"/>
-        <v>0.56985058547354583</v>
-      </c>
-      <c r="F53" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5377293952983021</v>
-      </c>
-      <c r="G53" s="2">
-        <f>-P3*100</f>
-        <v>1.44</v>
-      </c>
-      <c r="S53" s="5"/>
-      <c r="Y53"/>
-    </row>
-    <row r="54" spans="1:37" s="24" customFormat="1">
-      <c r="A54" s="24" t="str">
+    <row r="53" spans="1:37" s="24" customFormat="1">
+      <c r="A53" s="24" t="str">
         <f>B4</f>
         <v>Concentrating_PV</v>
       </c>
-      <c r="B54" s="1">
-        <f t="shared" si="9"/>
+      <c r="B53" s="1">
+        <f>$M4*(1+$P4)^(B$50-2007)/1000000</f>
         <v>4.7622749999999998</v>
       </c>
-      <c r="C54" s="1">
-        <f t="shared" si="9"/>
+      <c r="C53" s="1">
+        <f>$M4*(1+$P4)^(C$50-2007)/1000000</f>
         <v>3.6731183575250563</v>
       </c>
-      <c r="D54" s="1">
-        <f t="shared" si="9"/>
+      <c r="D53" s="1">
+        <f>$M4*(1+$P4)^(D$50-2007)/1000000</f>
         <v>2.8330574081479054</v>
       </c>
-      <c r="E54" s="1">
-        <f t="shared" si="9"/>
+      <c r="E53" s="1">
+        <f>$M4*(1+$P4)^(E$50-2007)/1000000</f>
         <v>2.1851226932065928</v>
       </c>
-      <c r="F54" s="1">
-        <f t="shared" si="9"/>
+      <c r="F53" s="1">
+        <f>$M4*(1+$P4)^(F$50-2007)/1000000</f>
         <v>1.6853739605255322</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G53" s="2">
         <f>-P4*100</f>
         <v>6.2858623743340614</v>
       </c>
-      <c r="AH54" s="30"/>
-      <c r="AJ54" s="30"/>
-      <c r="AK54" s="30"/>
+      <c r="AH53" s="30"/>
+      <c r="AJ53" s="30"/>
+      <c r="AK53" s="30"/>
+    </row>
+    <row r="54" spans="1:37">
+      <c r="A54" s="5" t="str">
+        <f t="shared" ref="A54:A66" si="9">B5</f>
+        <v>Wind</v>
+      </c>
+      <c r="B54" s="1">
+        <f>$M5*(1+$P5)^(B$50-2007)/1000000</f>
+        <v>1.8400284000000002</v>
+      </c>
+      <c r="C54" s="1">
+        <f>$M5*(1+$P5)^(C$50-2007)/1000000</f>
+        <v>1.8035029173958179</v>
+      </c>
+      <c r="D54" s="1">
+        <f>$M5*(1+$P5)^(D$50-2007)/1000000</f>
+        <v>1.7677024838612414</v>
+      </c>
+      <c r="E54" s="1">
+        <f>$M5*(1+$P5)^(E$50-2007)/1000000</f>
+        <v>1.7326127068101682</v>
+      </c>
+      <c r="F54" s="1">
+        <f>$M5*(1+$P5)^(F$50-2007)/1000000</f>
+        <v>1.6982194793565157</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" ref="G54:G66" si="10">-P5*100</f>
+        <v>0.5</v>
+      </c>
+      <c r="S54" s="5"/>
+      <c r="Y54"/>
     </row>
     <row r="55" spans="1:37">
       <c r="A55" s="5" t="str">
-        <f t="shared" ref="A55:A67" si="10">B5</f>
-        <v>Wind</v>
+        <f t="shared" si="9"/>
+        <v>Offshore_Wind</v>
       </c>
       <c r="B55" s="1">
-        <f t="shared" si="9"/>
-        <v>1.8400284000000002</v>
+        <f>$M6*(1+$P6)^(B$50-2007)/1000000</f>
+        <v>3.5150164199999998</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="9"/>
-        <v>1.8035029173958179</v>
+        <f>$M6*(1+$P6)^(C$50-2007)/1000000</f>
+        <v>3.3357690032379645</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="9"/>
-        <v>1.7677024838612414</v>
+        <f>$M6*(1+$P6)^(D$50-2007)/1000000</f>
+        <v>3.1656622653737712</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="9"/>
-        <v>1.7326127068101682</v>
+        <f>$M6*(1+$P6)^(E$50-2007)/1000000</f>
+        <v>3.0042300796859158</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="9"/>
-        <v>1.6982194793565157</v>
+        <f>$M6*(1+$P6)^(F$50-2007)/1000000</f>
+        <v>2.8510300894729244</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" ref="G55:G67" si="11">-P5*100</f>
-        <v>0.5</v>
+        <f t="shared" si="10"/>
+        <v>1.3</v>
       </c>
       <c r="S55" s="5"/>
       <c r="Y55"/>
     </row>
     <row r="56" spans="1:37">
       <c r="A56" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Residential_PV</v>
+      </c>
+      <c r="B56" s="1">
+        <f>$M7*(1+$P7)^(B$50-2007)/1000000</f>
+        <v>6.0600750000000003</v>
+      </c>
+      <c r="C56" s="1">
+        <f>$M7*(1+$P7)^(C$50-2007)/1000000</f>
+        <v>4.9672174159774221</v>
+      </c>
+      <c r="D56" s="1">
+        <f>$M7*(1+$P7)^(D$50-2007)/1000000</f>
+        <v>4.0714428216795024</v>
+      </c>
+      <c r="E56" s="1">
+        <f>$M7*(1+$P7)^(E$50-2007)/1000000</f>
+        <v>3.3372098021893595</v>
+      </c>
+      <c r="F56" s="1">
+        <f>$M7*(1+$P7)^(F$50-2007)/1000000</f>
+        <v>2.7353863855159473</v>
+      </c>
+      <c r="G56" s="2">
         <f t="shared" si="10"/>
-        <v>Offshore_Wind</v>
-      </c>
-      <c r="B56" s="1">
-        <f t="shared" si="9"/>
-        <v>3.5150164199999998</v>
-      </c>
-      <c r="C56" s="1">
-        <f t="shared" si="9"/>
-        <v>3.3357690032379645</v>
-      </c>
-      <c r="D56" s="1">
-        <f t="shared" si="9"/>
-        <v>3.1656622653737712</v>
-      </c>
-      <c r="E56" s="1">
-        <f t="shared" si="9"/>
-        <v>3.0042300796859158</v>
-      </c>
-      <c r="F56" s="1">
-        <f t="shared" si="9"/>
-        <v>2.8510300894729244</v>
-      </c>
-      <c r="G56" s="2">
-        <f t="shared" si="11"/>
-        <v>1.3</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="S56" s="5"/>
       <c r="Y56"/>
     </row>
     <row r="57" spans="1:37">
       <c r="A57" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>CSP_Trough_6h_Storage</v>
+      </c>
+      <c r="B57" s="1">
+        <f>$M8*(1+$P8)^(B$50-2007)/1000000</f>
+        <v>6.9113782500000003</v>
+      </c>
+      <c r="C57" s="1">
+        <f>$M8*(1+$P8)^(C$50-2007)/1000000</f>
+        <v>5.7488125543358102</v>
+      </c>
+      <c r="D57" s="1">
+        <f>$M8*(1+$P8)^(D$50-2007)/1000000</f>
+        <v>4.78180249863897</v>
+      </c>
+      <c r="E57" s="1">
+        <f>$M8*(1+$P8)^(E$50-2007)/1000000</f>
+        <v>3.9774535906105353</v>
+      </c>
+      <c r="F57" s="1">
+        <f>$M8*(1+$P8)^(F$50-2007)/1000000</f>
+        <v>3.3084045336384098</v>
+      </c>
+      <c r="G57" s="2">
         <f t="shared" si="10"/>
-        <v>Residential_PV</v>
-      </c>
-      <c r="B57" s="1">
-        <f t="shared" si="9"/>
-        <v>6.0600750000000003</v>
-      </c>
-      <c r="C57" s="1">
-        <f t="shared" si="9"/>
-        <v>4.9672174159774221</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="9"/>
-        <v>4.0714428216795024</v>
-      </c>
-      <c r="E57" s="1">
-        <f t="shared" si="9"/>
-        <v>3.3372098021893595</v>
-      </c>
-      <c r="F57" s="1">
-        <f t="shared" si="9"/>
-        <v>2.7353863855159473</v>
-      </c>
-      <c r="G57" s="2">
-        <f t="shared" si="11"/>
-        <v>4.8500000000000005</v>
+        <v>4.5</v>
       </c>
       <c r="S57" s="5"/>
       <c r="Y57"/>
     </row>
     <row r="58" spans="1:37">
       <c r="A58" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Bio_Gas</v>
+      </c>
+      <c r="B58" s="1">
+        <f>$M9*(1+$P9)^(B$50-2007)/1000000</f>
+        <v>2.4706677653504001</v>
+      </c>
+      <c r="C58" s="1">
+        <f>$M9*(1+$P9)^(C$50-2007)/1000000</f>
+        <v>2.3314018048096807</v>
+      </c>
+      <c r="D58" s="1">
+        <f>$M9*(1+$P9)^(D$50-2007)/1000000</f>
+        <v>2.1999859518541793</v>
+      </c>
+      <c r="E58" s="1">
+        <f>$M9*(1+$P9)^(E$50-2007)/1000000</f>
+        <v>2.0759777136531965</v>
+      </c>
+      <c r="F58" s="1">
+        <f>$M9*(1+$P9)^(F$50-2007)/1000000</f>
+        <v>1.9589595396972839</v>
+      </c>
+      <c r="G58" s="2">
         <f t="shared" si="10"/>
-        <v>CSP_Trough_6h_Storage</v>
-      </c>
-      <c r="B58" s="1">
-        <f t="shared" si="9"/>
-        <v>6.9113782500000003</v>
-      </c>
-      <c r="C58" s="1">
-        <f t="shared" si="9"/>
-        <v>5.7488125543358102</v>
-      </c>
-      <c r="D58" s="1">
-        <f t="shared" si="9"/>
-        <v>4.78180249863897</v>
-      </c>
-      <c r="E58" s="1">
-        <f t="shared" si="9"/>
-        <v>3.9774535906105353</v>
-      </c>
-      <c r="F58" s="1">
-        <f t="shared" si="9"/>
-        <v>3.3084045336384098</v>
-      </c>
-      <c r="G58" s="2">
-        <f t="shared" si="11"/>
-        <v>4.5</v>
+        <v>1.44</v>
       </c>
       <c r="S58" s="5"/>
       <c r="Y58"/>
     </row>
     <row r="59" spans="1:37">
       <c r="A59" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Biomass_Steam_Turbine</v>
+      </c>
+      <c r="B59" s="1">
+        <f>$M10*(1+$P10)^(B$50-2007)/1000000</f>
+        <v>3.1613561100000003</v>
+      </c>
+      <c r="C59" s="1">
+        <f>$M10*(1+$P10)^(C$50-2007)/1000000</f>
+        <v>3.0923779607243134</v>
+      </c>
+      <c r="D59" s="1">
+        <f>$M10*(1+$P10)^(D$50-2007)/1000000</f>
+        <v>3.0249048570404371</v>
+      </c>
+      <c r="E59" s="1">
+        <f>$M10*(1+$P10)^(E$50-2007)/1000000</f>
+        <v>2.9589039601108955</v>
+      </c>
+      <c r="F59" s="1">
+        <f>$M10*(1+$P10)^(F$50-2007)/1000000</f>
+        <v>2.8943431476142125</v>
+      </c>
+      <c r="G59" s="2">
         <f t="shared" si="10"/>
-        <v>Bio_Gas</v>
-      </c>
-      <c r="B59" s="1">
-        <f t="shared" si="9"/>
-        <v>2.4706677653504001</v>
-      </c>
-      <c r="C59" s="1">
-        <f t="shared" si="9"/>
-        <v>2.3314018048096807</v>
-      </c>
-      <c r="D59" s="1">
-        <f t="shared" si="9"/>
-        <v>2.1999859518541793</v>
-      </c>
-      <c r="E59" s="1">
-        <f t="shared" si="9"/>
-        <v>2.0759777136531965</v>
-      </c>
-      <c r="F59" s="1">
-        <f t="shared" si="9"/>
-        <v>1.9589595396972839</v>
-      </c>
-      <c r="G59" s="2">
-        <f t="shared" si="11"/>
-        <v>1.44</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="S59" s="5"/>
       <c r="Y59"/>
     </row>
     <row r="60" spans="1:37">
       <c r="A60" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Biomass_IGCC</v>
+      </c>
+      <c r="B60" s="1">
+        <f>$M11*(1+$P11)^(B$50-2007)/1000000</f>
+        <v>3.6298046115072</v>
+      </c>
+      <c r="C60" s="1">
+        <f>$M11*(1+$P11)^(C$50-2007)/1000000</f>
+        <v>3.4196437187850544</v>
+      </c>
+      <c r="D60" s="1">
+        <f>$M11*(1+$P11)^(D$50-2007)/1000000</f>
+        <v>3.2216508641688026</v>
+      </c>
+      <c r="E60" s="1">
+        <f>$M11*(1+$P11)^(E$50-2007)/1000000</f>
+        <v>3.0351215343237863</v>
+      </c>
+      <c r="F60" s="1">
+        <f>$M11*(1+$P11)^(F$50-2007)/1000000</f>
+        <v>2.8593920063068952</v>
+      </c>
+      <c r="G60" s="2">
         <f t="shared" si="10"/>
-        <v>Biomass_Steam_Turbine</v>
-      </c>
-      <c r="B60" s="1">
-        <f t="shared" si="9"/>
-        <v>3.1613561100000003</v>
-      </c>
-      <c r="C60" s="1">
-        <f t="shared" si="9"/>
-        <v>3.0923779607243134</v>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" si="9"/>
-        <v>3.0249048570404371</v>
-      </c>
-      <c r="E60" s="1">
-        <f t="shared" si="9"/>
-        <v>2.9589039601108955</v>
-      </c>
-      <c r="F60" s="1">
-        <f t="shared" si="9"/>
-        <v>2.8943431476142125</v>
-      </c>
-      <c r="G60" s="2">
-        <f t="shared" si="11"/>
-        <v>0.54999999999999993</v>
+        <v>1.48</v>
       </c>
       <c r="S60" s="5"/>
       <c r="Y60"/>
     </row>
     <row r="61" spans="1:37">
       <c r="A61" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Coal_IGCC</v>
+      </c>
+      <c r="B61" s="1">
+        <f>$M12*(1+$P12)^(B$50-2007)/1000000</f>
+        <v>2.7827187265800002</v>
+      </c>
+      <c r="C61" s="1">
+        <f>$M12*(1+$P12)^(C$50-2007)/1000000</f>
+        <v>2.6216029877551899</v>
+      </c>
+      <c r="D61" s="1">
+        <f>$M12*(1+$P12)^(D$50-2007)/1000000</f>
+        <v>2.4698156374049733</v>
+      </c>
+      <c r="E61" s="1">
+        <f>$M12*(1+$P12)^(E$50-2007)/1000000</f>
+        <v>2.3268165741577049</v>
+      </c>
+      <c r="F61" s="1">
+        <f>$M12*(1+$P12)^(F$50-2007)/1000000</f>
+        <v>2.1920969677977862</v>
+      </c>
+      <c r="G61" s="2">
         <f t="shared" si="10"/>
-        <v>Biomass_IGCC</v>
-      </c>
-      <c r="B61" s="1">
-        <f t="shared" si="9"/>
-        <v>3.6298046115072</v>
-      </c>
-      <c r="C61" s="1">
-        <f t="shared" si="9"/>
-        <v>3.4196437187850544</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="9"/>
-        <v>3.2216508641688026</v>
-      </c>
-      <c r="E61" s="1">
-        <f t="shared" si="9"/>
-        <v>3.0351215343237863</v>
-      </c>
-      <c r="F61" s="1">
-        <f t="shared" si="9"/>
-        <v>2.8593920063068952</v>
-      </c>
-      <c r="G61" s="2">
-        <f t="shared" si="11"/>
         <v>1.48</v>
       </c>
       <c r="S61" s="5"/>
@@ -7570,795 +7506,787 @@
     </row>
     <row r="62" spans="1:37">
       <c r="A62" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Coal_Steam_Turbine</v>
+      </c>
+      <c r="B62" s="1">
+        <f>$M13*(1+$P13)^(B$50-2007)/1000000</f>
+        <v>2.2641732828000003</v>
+      </c>
+      <c r="C62" s="1">
+        <f>$M13*(1+$P13)^(C$50-2007)/1000000</f>
+        <v>2.1583071954465982</v>
+      </c>
+      <c r="D62" s="1">
+        <f>$M13*(1+$P13)^(D$50-2007)/1000000</f>
+        <v>2.0573910951532226</v>
+      </c>
+      <c r="E62" s="1">
+        <f>$M13*(1+$P13)^(E$50-2007)/1000000</f>
+        <v>1.9611935350750256</v>
+      </c>
+      <c r="F62" s="1">
+        <f>$M13*(1+$P13)^(F$50-2007)/1000000</f>
+        <v>1.8694938901413034</v>
+      </c>
+      <c r="G62" s="2">
         <f t="shared" si="10"/>
-        <v>Coal_IGCC</v>
-      </c>
-      <c r="B62" s="1">
-        <f t="shared" ref="B62:F67" si="12">$M12*(1+$P12)^(B$51-2007)/1000000</f>
-        <v>2.7827187265800002</v>
-      </c>
-      <c r="C62" s="1">
-        <f t="shared" si="12"/>
-        <v>2.6216029877551899</v>
-      </c>
-      <c r="D62" s="1">
-        <f t="shared" si="12"/>
-        <v>2.4698156374049733</v>
-      </c>
-      <c r="E62" s="1">
-        <f t="shared" si="12"/>
-        <v>2.3268165741577049</v>
-      </c>
-      <c r="F62" s="1">
-        <f t="shared" si="12"/>
-        <v>2.1920969677977862</v>
-      </c>
-      <c r="G62" s="2">
-        <f t="shared" si="11"/>
-        <v>1.48</v>
+        <v>1.1900000000000002</v>
       </c>
       <c r="S62" s="5"/>
       <c r="Y62"/>
     </row>
     <row r="63" spans="1:37">
       <c r="A63" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Nuclear</v>
+      </c>
+      <c r="B63" s="1">
+        <f>$M14*(1+$P14)^(B$50-2007)/1000000</f>
+        <v>3.9822562656000002</v>
+      </c>
+      <c r="C63" s="1">
+        <f>$M14*(1+$P14)^(C$50-2007)/1000000</f>
+        <v>3.9822562656000002</v>
+      </c>
+      <c r="D63" s="1">
+        <f>$M14*(1+$P14)^(D$50-2007)/1000000</f>
+        <v>3.9822562656000002</v>
+      </c>
+      <c r="E63" s="1">
+        <f>$M14*(1+$P14)^(E$50-2007)/1000000</f>
+        <v>3.9822562656000002</v>
+      </c>
+      <c r="F63" s="1">
+        <f>$M14*(1+$P14)^(F$50-2007)/1000000</f>
+        <v>3.9822562656000002</v>
+      </c>
+      <c r="G63" s="2">
         <f t="shared" si="10"/>
-        <v>Coal_Steam_Turbine</v>
-      </c>
-      <c r="B63" s="1">
-        <f t="shared" si="12"/>
-        <v>2.2641732828000003</v>
-      </c>
-      <c r="C63" s="1">
-        <f t="shared" si="12"/>
-        <v>2.1583071954465982</v>
-      </c>
-      <c r="D63" s="1">
-        <f t="shared" si="12"/>
-        <v>2.0573910951532226</v>
-      </c>
-      <c r="E63" s="1">
-        <f t="shared" si="12"/>
-        <v>1.9611935350750256</v>
-      </c>
-      <c r="F63" s="1">
-        <f t="shared" si="12"/>
-        <v>1.8694938901413034</v>
-      </c>
-      <c r="G63" s="2">
-        <f t="shared" si="11"/>
-        <v>1.1900000000000002</v>
+        <v>0</v>
       </c>
       <c r="S63" s="5"/>
       <c r="Y63"/>
     </row>
     <row r="64" spans="1:37">
       <c r="A64" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Geothermal</v>
+      </c>
+      <c r="B64" s="1">
+        <f>$M15*(1+$P15)^(B$50-2007)/1000000</f>
+        <v>3.6709269300000007</v>
+      </c>
+      <c r="C64" s="1">
+        <f>$M15*(1+$P15)^(C$50-2007)/1000000</f>
+        <v>3.5262777619595496</v>
+      </c>
+      <c r="D64" s="1">
+        <f>$M15*(1+$P15)^(D$50-2007)/1000000</f>
+        <v>3.3873283482900729</v>
+      </c>
+      <c r="E64" s="1">
+        <f>$M15*(1+$P15)^(E$50-2007)/1000000</f>
+        <v>3.2538540959273345</v>
+      </c>
+      <c r="F64" s="1">
+        <f>$M15*(1+$P15)^(F$50-2007)/1000000</f>
+        <v>3.1256392616699538</v>
+      </c>
+      <c r="G64" s="2">
         <f t="shared" si="10"/>
-        <v>Nuclear</v>
-      </c>
-      <c r="B64" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9822562656000002</v>
-      </c>
-      <c r="C64" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9822562656000002</v>
-      </c>
-      <c r="D64" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9822562656000002</v>
-      </c>
-      <c r="E64" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9822562656000002</v>
-      </c>
-      <c r="F64" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9822562656000002</v>
-      </c>
-      <c r="G64" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" s="5"/>
       <c r="Y64"/>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Hydro_NonPumped</v>
+      </c>
+      <c r="B65" s="1">
+        <f>$M16*(1+$P16)^(B$50-2007)/1000000</f>
+        <v>2.6908435655999998</v>
+      </c>
+      <c r="C65" s="1">
+        <f>$M16*(1+$P16)^(C$50-2007)/1000000</f>
+        <v>2.6089179200931372</v>
+      </c>
+      <c r="D65" s="1">
+        <f>$M16*(1+$P16)^(D$50-2007)/1000000</f>
+        <v>2.5294865895578029</v>
+      </c>
+      <c r="E65" s="1">
+        <f>$M16*(1+$P16)^(E$50-2007)/1000000</f>
+        <v>2.4524736318743017</v>
+      </c>
+      <c r="F65" s="1">
+        <f>$M16*(1+$P16)^(F$50-2007)/1000000</f>
+        <v>2.3778054170629881</v>
+      </c>
+      <c r="G65" s="2">
         <f t="shared" si="10"/>
-        <v>Geothermal</v>
-      </c>
-      <c r="B65" s="1">
-        <f t="shared" si="12"/>
-        <v>3.6709269300000007</v>
-      </c>
-      <c r="C65" s="1">
-        <f t="shared" si="12"/>
-        <v>3.5262777619595496</v>
-      </c>
-      <c r="D65" s="1">
-        <f t="shared" si="12"/>
-        <v>3.3873283482900729</v>
-      </c>
-      <c r="E65" s="1">
-        <f t="shared" si="12"/>
-        <v>3.2538540959273345</v>
-      </c>
-      <c r="F65" s="1">
-        <f t="shared" si="12"/>
-        <v>3.1256392616699538</v>
-      </c>
-      <c r="G65" s="2">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="S65" s="5"/>
       <c r="Y65"/>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Hydro_Pumped</v>
+      </c>
+      <c r="B66" s="1">
+        <f>$M17*(1+$P17)^(B$50-2007)/1000000</f>
+        <v>4.6325037240000002</v>
+      </c>
+      <c r="C66" s="1">
+        <f>$M17*(1+$P17)^(C$50-2007)/1000000</f>
+        <v>4.371379954192034</v>
+      </c>
+      <c r="D66" s="1">
+        <f>$M17*(1+$P17)^(D$50-2007)/1000000</f>
+        <v>4.124975141393314</v>
+      </c>
+      <c r="E66" s="1">
+        <f>$M17*(1+$P17)^(E$50-2007)/1000000</f>
+        <v>3.8924596112482654</v>
+      </c>
+      <c r="F66" s="1">
+        <f>$M17*(1+$P17)^(F$50-2007)/1000000</f>
+        <v>3.6730504562704556</v>
+      </c>
+      <c r="G66" s="2">
         <f t="shared" si="10"/>
-        <v>Hydro_NonPumped</v>
-      </c>
-      <c r="B66" s="1">
-        <f t="shared" si="12"/>
-        <v>2.6908435655999998</v>
-      </c>
-      <c r="C66" s="1">
-        <f t="shared" si="12"/>
-        <v>2.6089179200931372</v>
-      </c>
-      <c r="D66" s="1">
-        <f t="shared" si="12"/>
-        <v>2.5294865895578029</v>
-      </c>
-      <c r="E66" s="1">
-        <f t="shared" si="12"/>
-        <v>2.4524736318743017</v>
-      </c>
-      <c r="F66" s="1">
-        <f t="shared" si="12"/>
-        <v>2.3778054170629881</v>
-      </c>
-      <c r="G66" s="2">
-        <f t="shared" si="11"/>
-        <v>0.77</v>
+        <v>1.44</v>
       </c>
       <c r="S66" s="5"/>
       <c r="Y66"/>
     </row>
     <row r="67" spans="1:25">
-      <c r="A67" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>Hydro_Pumped</v>
+      <c r="A67" s="20" t="str">
+        <f>B25</f>
+        <v>Commercial_PV</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" si="12"/>
-        <v>4.6325037240000002</v>
+        <f>$M25*(1+$P25)^(B$50-2007)/1000000</f>
+        <v>5.19435</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="12"/>
-        <v>4.371379954192034</v>
+        <f>$M25*(1+$P25)^(C$50-2007)/1000000</f>
+        <v>4.307952486835223</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="12"/>
-        <v>4.124975141393314</v>
+        <f>$M25*(1+$P25)^(D$50-2007)/1000000</f>
+        <v>3.5728155840152822</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="12"/>
-        <v>3.8924596112482654</v>
+        <f>$M25*(1+$P25)^(E$50-2007)/1000000</f>
+        <v>2.9631272017022865</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="12"/>
-        <v>3.6730504562704556</v>
+        <f>$M25*(1+$P25)^(F$50-2007)/1000000</f>
+        <v>2.457479992180438</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="11"/>
-        <v>1.44</v>
-      </c>
-      <c r="S67" s="5"/>
-      <c r="Y67"/>
+        <f>-P25*100</f>
+        <v>4.5699999999999994</v>
+      </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="20" t="str">
-        <f>B25</f>
-        <v>Commercial_PV</v>
+        <f>B26</f>
+        <v>Central_PV</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" ref="B68:F71" si="13">$M25*(1+$P25)^(B$51-2007)/1000000</f>
-        <v>5.19435</v>
+        <f>$M26*(1+$P26)^(B$50-2007)/1000000</f>
+        <v>4.1351099999999992</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="13"/>
-        <v>4.307952486835223</v>
+        <f>$M26*(1+$P26)^(C$50-2007)/1000000</f>
+        <v>3.551820047364612</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="13"/>
-        <v>3.5728155840152822</v>
+        <f>$M26*(1+$P26)^(D$50-2007)/1000000</f>
+        <v>3.0508077533272773</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="13"/>
-        <v>2.9631272017022865</v>
+        <f>$M26*(1+$P26)^(E$50-2007)/1000000</f>
+        <v>2.620467203755938</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="13"/>
-        <v>2.457479992180438</v>
+        <f>$M26*(1+$P26)^(F$50-2007)/1000000</f>
+        <v>2.2508295904490647</v>
       </c>
       <c r="G68" s="2">
-        <f>-P25*100</f>
-        <v>4.5699999999999994</v>
+        <f>-P26*100</f>
+        <v>3.73</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="20" t="str">
-        <f>B26</f>
-        <v>Central_PV</v>
+        <f>B27</f>
+        <v>CSP_Trough_No_Storage</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="13"/>
-        <v>4.1351099999999992</v>
+        <f>$M27*(1+$P27)^(B$50-2007)/1000000</f>
+        <v>4.2860474999999996</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="13"/>
-        <v>3.551820047364612</v>
+        <f>$M27*(1+$P27)^(C$50-2007)/1000000</f>
+        <v>3.8732492243935535</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="13"/>
-        <v>3.0508077533272773</v>
+        <f>$M27*(1+$P27)^(D$50-2007)/1000000</f>
+        <v>3.5002084214571272</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="13"/>
-        <v>2.620467203755938</v>
+        <f>$M27*(1+$P27)^(E$50-2007)/1000000</f>
+        <v>3.1630959651344517</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="13"/>
-        <v>2.2508295904490647</v>
+        <f>$M27*(1+$P27)^(F$50-2007)/1000000</f>
+        <v>2.8584515205768017</v>
       </c>
       <c r="G69" s="2">
-        <f>-P26*100</f>
-        <v>3.73</v>
+        <f>-P27*100</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="20" t="str">
-        <f>B27</f>
-        <v>CSP_Trough_No_Storage</v>
-      </c>
-      <c r="B70" s="1">
-        <f t="shared" si="13"/>
-        <v>4.2860474999999996</v>
-      </c>
-      <c r="C70" s="1">
-        <f t="shared" si="13"/>
-        <v>3.8732492243935535</v>
-      </c>
-      <c r="D70" s="1">
-        <f t="shared" si="13"/>
-        <v>3.5002084214571272</v>
-      </c>
-      <c r="E70" s="1">
-        <f t="shared" si="13"/>
-        <v>3.1630959651344517</v>
-      </c>
-      <c r="F70" s="1">
-        <f t="shared" si="13"/>
-        <v>2.8584515205768017</v>
-      </c>
-      <c r="G70" s="2">
-        <f>-P27*100</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25">
-      <c r="A71" s="20" t="str">
         <f>B28</f>
         <v>Compressed_Air_Energy_Storage</v>
       </c>
-      <c r="B71" s="1">
-        <f t="shared" si="13"/>
+      <c r="B70" s="1">
+        <f>$M28*(1+$P28)^(B$50-2007)/1000000</f>
         <v>1.3974610196219766</v>
       </c>
-      <c r="C71" s="1">
-        <f t="shared" si="13"/>
+      <c r="C70" s="1">
+        <f>$M28*(1+$P28)^(C$50-2007)/1000000</f>
         <v>1.3907652711346481</v>
       </c>
-      <c r="D71" s="1">
-        <f t="shared" si="13"/>
+      <c r="D70" s="1">
+        <f>$M28*(1+$P28)^(D$50-2007)/1000000</f>
         <v>1.3841016044350587</v>
       </c>
-      <c r="E71" s="1">
-        <f t="shared" si="13"/>
+      <c r="E70" s="1">
+        <f>$M28*(1+$P28)^(E$50-2007)/1000000</f>
         <v>1.3774698658075926</v>
       </c>
-      <c r="F71" s="1">
-        <f t="shared" si="13"/>
+      <c r="F70" s="1">
+        <f>$M28*(1+$P28)^(F$50-2007)/1000000</f>
         <v>1.3708699022731416</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G70" s="2">
         <f>-P28*100</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
-      <c r="A72" s="25" t="str">
+    <row r="71" spans="1:25">
+      <c r="A71" s="25" t="str">
         <f>B33</f>
         <v>Battery_Storage</v>
       </c>
-      <c r="B72" s="1">
-        <f>$M33*(1+$P33)^(B$51-2007)/1000000</f>
+      <c r="B71" s="1">
+        <f>$M33*(1+$P33)^(B$50-2007)/1000000</f>
         <v>4.0762272780000002</v>
       </c>
-      <c r="C72" s="1">
-        <f>$M33*(1+$P33)^(C$51-2007)/1000000</f>
+      <c r="C71" s="1">
+        <f>$M33*(1+$P33)^(C$50-2007)/1000000</f>
         <v>3.9863831349832539</v>
       </c>
-      <c r="D72" s="1">
-        <f>$M33*(1+$P33)^(D$51-2007)/1000000</f>
+      <c r="D71" s="1">
+        <f>$M33*(1+$P33)^(D$50-2007)/1000000</f>
         <v>3.8985192471102739</v>
       </c>
-      <c r="E72" s="1">
-        <f>$M33*(1+$P33)^(E$51-2007)/1000000</f>
+      <c r="E71" s="1">
+        <f>$M33*(1+$P33)^(E$50-2007)/1000000</f>
         <v>3.812591967568892</v>
       </c>
-      <c r="F72" s="1">
-        <f>$M33*(1+$P33)^(F$51-2007)/1000000</f>
+      <c r="F71" s="1">
+        <f>$M33*(1+$P33)^(F$50-2007)/1000000</f>
         <v>3.7285586115665201</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G71" s="2">
         <f>-P33*100</f>
         <v>0.55563899759500934</v>
       </c>
     </row>
+    <row r="72" spans="1:25">
+      <c r="A72" s="30" t="str">
+        <f>B34</f>
+        <v>CCGT_CCS</v>
+      </c>
+      <c r="B72" s="1">
+        <f>$M34*(1+$P34)^(B$50-2007)/1000000</f>
+        <v>3.7497912631200006</v>
+      </c>
+      <c r="C72" s="1">
+        <f>$M34*(1+$P34)^(C$50-2007)/1000000</f>
+        <v>3.4845450192452638</v>
+      </c>
+      <c r="D72" s="1">
+        <f>$M34*(1+$P34)^(D$50-2007)/1000000</f>
+        <v>3.2380613050562772</v>
+      </c>
+      <c r="E72" s="1">
+        <f>$M34*(1+$P34)^(E$50-2007)/1000000</f>
+        <v>3.0090129292041037</v>
+      </c>
+      <c r="F72" s="1">
+        <f>$M34*(1+$P34)^(F$50-2007)/1000000</f>
+        <v>2.7961665809042184</v>
+      </c>
+      <c r="G72" s="2">
+        <f>-P34*100</f>
+        <v>1.8173506790955307</v>
+      </c>
+    </row>
     <row r="73" spans="1:25">
       <c r="A73" s="30" t="str">
-        <f t="shared" ref="A73:A79" si="14">B34</f>
-        <v>CCGT_CCS</v>
+        <f>B35</f>
+        <v>Gas_Combustion_Turbine_CCS</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" ref="B73:E73" si="15">$M34*(1+$P34)^(B$51-2007)/1000000</f>
-        <v>3.7497912631200006</v>
+        <f>$M35*(1+$P35)^(B$50-2007)/1000000</f>
+        <v>3.2986540267200004</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="15"/>
-        <v>3.4845450192452638</v>
+        <f>$M35*(1+$P35)^(C$50-2007)/1000000</f>
+        <v>3.054095582554698</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="15"/>
-        <v>3.2380613050562772</v>
+        <f>$M35*(1+$P35)^(D$50-2007)/1000000</f>
+        <v>2.8276684222791535</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="15"/>
-        <v>3.0090129292041037</v>
+        <f>$M35*(1+$P35)^(E$50-2007)/1000000</f>
+        <v>2.6180283132024327</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" ref="F73:F79" si="16">$M34*(1+$P34)^(F$51-2007)/1000000</f>
-        <v>2.7961665809042184</v>
+        <f>$M35*(1+$P35)^(F$50-2007)/1000000</f>
+        <v>2.4239306825108811</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" ref="G73:G79" si="17">-P34*100</f>
-        <v>1.8173506790955307</v>
+        <f>-P35*100</f>
+        <v>1.9073506790955306</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="30" t="str">
-        <f t="shared" si="14"/>
-        <v>Gas_Combustion_Turbine_CCS</v>
+        <f>B36</f>
+        <v>Bio_Gas_CCS</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" ref="B74:E74" si="18">$M35*(1+$P35)^(B$51-2007)/1000000</f>
-        <v>3.2986540267200004</v>
+        <f>$M36*(1+$P36)^(B$50-2007)/1000000</f>
+        <v>5.4886944999600003</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="18"/>
-        <v>3.054095582554698</v>
+        <f>$M36*(1+$P36)^(C$50-2007)/1000000</f>
+        <v>5.0817689550147538</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="18"/>
-        <v>2.8276684222791535</v>
+        <f>$M36*(1+$P36)^(D$50-2007)/1000000</f>
+        <v>4.7050124054709066</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="18"/>
-        <v>2.6180283132024327</v>
+        <f>$M36*(1+$P36)^(E$50-2007)/1000000</f>
+        <v>4.3561881564469633</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="16"/>
-        <v>2.4239306825108811</v>
+        <f>$M36*(1+$P36)^(F$50-2007)/1000000</f>
+        <v>4.033225339066778</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="17"/>
+        <f>-P36*100</f>
         <v>1.9073506790955306</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="30" t="str">
-        <f t="shared" si="14"/>
-        <v>Bio_Gas_CCS</v>
+        <f>B37</f>
+        <v>Biomass_IGCC_CCS</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" ref="B75:E75" si="19">$M36*(1+$P36)^(B$51-2007)/1000000</f>
-        <v>5.4886944999600003</v>
+        <f>$M37*(1+$P37)^(B$50-2007)/1000000</f>
+        <v>6.9282046713600014</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="19"/>
-        <v>5.0817689550147538</v>
+        <f>$M37*(1+$P37)^(C$50-2007)/1000000</f>
+        <v>6.4677104671682164</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="19"/>
-        <v>4.7050124054709066</v>
+        <f>$M37*(1+$P37)^(D$50-2007)/1000000</f>
+        <v>6.0378237467551408</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="19"/>
-        <v>4.3561881564469633</v>
+        <f>$M37*(1+$P37)^(E$50-2007)/1000000</f>
+        <v>5.6365101347589635</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="16"/>
-        <v>4.033225339066778</v>
+        <f>$M37*(1+$P37)^(F$50-2007)/1000000</f>
+        <v>5.2618704738300011</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="17"/>
-        <v>1.9073506790955306</v>
+        <f>-P37*100</f>
+        <v>1.7047650087669619</v>
       </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="30" t="str">
-        <f t="shared" si="14"/>
-        <v>Biomass_IGCC_CCS</v>
+        <f>B38</f>
+        <v>Coal_IGCC_CCS</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" ref="B76:E76" si="20">$M37*(1+$P37)^(B$51-2007)/1000000</f>
-        <v>6.9282046713600014</v>
+        <f>$M38*(1+$P38)^(B$50-2007)/1000000</f>
+        <v>5.7307385093400001</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="20"/>
-        <v>6.4677104671682164</v>
+        <f>$M38*(1+$P38)^(C$50-2007)/1000000</f>
+        <v>5.3498358087891935</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="20"/>
-        <v>6.0378237467551408</v>
+        <f>$M38*(1+$P38)^(D$50-2007)/1000000</f>
+        <v>4.9942504154319431</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="20"/>
-        <v>5.6365101347589635</v>
+        <f>$M38*(1+$P38)^(E$50-2007)/1000000</f>
+        <v>4.662299573954078</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="16"/>
-        <v>5.2618704738300011</v>
+        <f>$M38*(1+$P38)^(F$50-2007)/1000000</f>
+        <v>4.3524123760647244</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="17"/>
+        <f>-P38*100</f>
         <v>1.7047650087669619</v>
       </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="30" t="str">
+        <f>B39</f>
+        <v>Coal_Steam_Turbine_CCS</v>
+      </c>
+      <c r="B77" s="1">
+        <f>$M39*(1+$P39)^(B$50-2007)/1000000</f>
+        <v>5.0358158136000011</v>
+      </c>
+      <c r="C77" s="1">
+        <f>$M39*(1+$P39)^(C$50-2007)/1000000</f>
+        <v>4.7568268273648533</v>
+      </c>
+      <c r="D77" s="1">
+        <f>$M39*(1+$P39)^(D$50-2007)/1000000</f>
+        <v>4.4932940963466486</v>
+      </c>
+      <c r="E77" s="1">
+        <f>$M39*(1+$P39)^(E$50-2007)/1000000</f>
+        <v>4.2443613293040885</v>
+      </c>
+      <c r="F77" s="1">
+        <f>$M39*(1+$P39)^(F$50-2007)/1000000</f>
+        <v>4.0092196743451689</v>
+      </c>
+      <c r="G77" s="2">
+        <f>-P39*100</f>
+        <v>1.4147650087669619</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
+      <c r="A78" s="31" t="str">
+        <f t="shared" ref="A78:A85" si="11">B40</f>
+        <v>Gas_Combustion_Turbine_CCS_EP</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" ref="B78:F78" si="12">$M40*(1+$P40)^(B$50-2007)/1000000</f>
+        <v>2.7716425308000003</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="12"/>
+        <v>2.7201914634153233</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="12"/>
+        <v>2.6696955020032256</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="12"/>
+        <v>2.6201369165638213</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="12"/>
+        <v>2.5714983062260397</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" ref="G78:G85" si="13">-P40*100</f>
+        <v>0.46735067909553057</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
+      <c r="A79" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>Coal_Steam_Turbine_CCS_EP</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" ref="B79:F79" si="14">$M41*(1+$P41)^(B$50-2007)/1000000</f>
+        <v>2.7716425308000003</v>
+      </c>
+      <c r="C79" s="1">
         <f t="shared" si="14"/>
-        <v>Coal_IGCC_CCS</v>
-      </c>
-      <c r="B77" s="1">
-        <f t="shared" ref="B77:E77" si="21">$M38*(1+$P38)^(B$51-2007)/1000000</f>
-        <v>5.7307385093400001</v>
-      </c>
-      <c r="C77" s="1">
-        <f t="shared" si="21"/>
-        <v>5.3498358087891935</v>
-      </c>
-      <c r="D77" s="1">
-        <f t="shared" si="21"/>
-        <v>4.9942504154319431</v>
-      </c>
-      <c r="E77" s="1">
-        <f t="shared" si="21"/>
-        <v>4.662299573954078</v>
-      </c>
-      <c r="F77" s="1">
-        <f t="shared" si="16"/>
-        <v>4.3524123760647244</v>
-      </c>
-      <c r="G77" s="2">
-        <f t="shared" si="17"/>
-        <v>1.7047650087669619</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25">
-      <c r="A78" s="30" t="str">
+        <v>2.7468076875532152</v>
+      </c>
+      <c r="D79" s="1">
         <f t="shared" si="14"/>
-        <v>Coal_Steam_Turbine_CCS</v>
-      </c>
-      <c r="B78" s="1">
-        <f t="shared" ref="B78:E78" si="22">$M39*(1+$P39)^(B$51-2007)/1000000</f>
-        <v>5.0358158136000011</v>
-      </c>
-      <c r="C78" s="1">
-        <f t="shared" si="22"/>
-        <v>4.7568268273648533</v>
-      </c>
-      <c r="D78" s="1">
-        <f t="shared" si="22"/>
-        <v>4.4932940963466486</v>
-      </c>
-      <c r="E78" s="1">
-        <f t="shared" si="22"/>
-        <v>4.2443613293040885</v>
-      </c>
-      <c r="F78" s="1">
-        <f t="shared" si="16"/>
-        <v>4.0092196743451689</v>
-      </c>
-      <c r="G78" s="2">
-        <f t="shared" si="17"/>
-        <v>1.4147650087669619</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25">
-      <c r="A79" s="30" t="str">
+        <v>2.7221953728007211</v>
+      </c>
+      <c r="E79" s="1">
         <f t="shared" si="14"/>
-        <v>Compressed_Air_Energy_Storage_CCS</v>
-      </c>
-      <c r="B79" s="1">
-        <f t="shared" ref="B79:E79" si="23">$M40*(1+$P40)^(B$51-2007)/1000000</f>
-        <v>4.6307791651112522</v>
-      </c>
-      <c r="C79" s="1">
-        <f t="shared" si="23"/>
-        <v>4.5229382838831542</v>
-      </c>
-      <c r="D79" s="1">
-        <f t="shared" si="23"/>
-        <v>4.417608784703174</v>
-      </c>
-      <c r="E79" s="1">
-        <f t="shared" si="23"/>
-        <v>4.3147321828879521</v>
+        <v>2.6978035926128503</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="16"/>
-        <v>4.2142513557365469</v>
+        <f t="shared" si="14"/>
+        <v>2.6736303709262086</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="17"/>
-        <v>0.58735067909553074</v>
+        <f t="shared" si="13"/>
+        <v>0.22476500876696184</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="31" t="str">
-        <f t="shared" ref="A80:A87" si="24">B41</f>
-        <v>Gas_Combustion_Turbine_CCS_EP</v>
+        <f t="shared" si="11"/>
+        <v>Gas_Steam_Turbine_CCS_EP</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" ref="B80:F80" si="25">$M41*(1+$P41)^(B$51-2007)/1000000</f>
+        <f t="shared" ref="B80:F80" si="15">$M42*(1+$P42)^(B$50-2007)/1000000</f>
         <v>2.7716425308000003</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>2.7201914634153233</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>2.6696955020032256</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>2.6201369165638213</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>2.5714983062260397</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" ref="G80:G87" si="26">-P41*100</f>
-        <v>0.46735067909553057</v>
+        <f t="shared" si="13"/>
+        <v>0.46735067909553074</v>
       </c>
     </row>
     <row r="81" spans="1:37">
       <c r="A81" s="31" t="str">
-        <f t="shared" si="24"/>
-        <v>Coal_Steam_Turbine_CCS_EP</v>
+        <f t="shared" si="11"/>
+        <v>CCGT_CCS_EP</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" ref="B81:F81" si="27">$M42*(1+$P42)^(B$51-2007)/1000000</f>
+        <f t="shared" ref="B81:F81" si="16">$M43*(1+$P43)^(B$50-2007)/1000000</f>
         <v>2.7716425308000003</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="27"/>
-        <v>2.7468076875532152</v>
+        <f t="shared" si="16"/>
+        <v>2.7201914634153233</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="27"/>
-        <v>2.7221953728007211</v>
+        <f t="shared" si="16"/>
+        <v>2.6696955020032256</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="27"/>
-        <v>2.6978035926128503</v>
+        <f t="shared" si="16"/>
+        <v>2.6201369165638213</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="27"/>
-        <v>2.6736303709262086</v>
+        <f t="shared" si="16"/>
+        <v>2.5714983062260397</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="26"/>
-        <v>0.22476500876696184</v>
+        <f t="shared" si="13"/>
+        <v>0.46735067909553074</v>
       </c>
     </row>
     <row r="82" spans="1:37">
       <c r="A82" s="31" t="str">
-        <f t="shared" si="24"/>
-        <v>Gas_Steam_Turbine_CCS_EP</v>
+        <f t="shared" si="11"/>
+        <v>Gas_Combustion_Turbine_Cogen_CCS_EP</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" ref="B82:F82" si="28">$M43*(1+$P43)^(B$51-2007)/1000000</f>
+        <f t="shared" ref="B82:F82" si="17">$M44*(1+$P44)^(B$50-2007)/1000000</f>
         <v>2.7716425308000003</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>2.7201914634153233</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>2.6696955020032256</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>2.6201369165638213</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>2.5714983062260397</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="26"/>
-        <v>0.46735067909553074</v>
+        <f t="shared" si="13"/>
+        <v>0.46735067909553057</v>
       </c>
     </row>
     <row r="83" spans="1:37">
       <c r="A83" s="31" t="str">
-        <f t="shared" si="24"/>
-        <v>CCGT_CCS_EP</v>
+        <f t="shared" si="11"/>
+        <v>Coal_Steam_Turbine_Cogen_CCS_EP</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" ref="B83:F83" si="29">$M44*(1+$P44)^(B$51-2007)/1000000</f>
+        <f t="shared" ref="B83:F83" si="18">$M45*(1+$P45)^(B$50-2007)/1000000</f>
         <v>2.7716425308000003</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="29"/>
-        <v>2.7201914634153233</v>
+        <f t="shared" si="18"/>
+        <v>2.7468076875532152</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="29"/>
-        <v>2.6696955020032256</v>
+        <f t="shared" si="18"/>
+        <v>2.7221953728007211</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="29"/>
-        <v>2.6201369165638213</v>
+        <f t="shared" si="18"/>
+        <v>2.6978035926128503</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="29"/>
-        <v>2.5714983062260397</v>
+        <f t="shared" si="18"/>
+        <v>2.6736303709262086</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="26"/>
-        <v>0.46735067909553074</v>
+        <f t="shared" si="13"/>
+        <v>0.22476500876696184</v>
       </c>
     </row>
     <row r="84" spans="1:37">
       <c r="A84" s="31" t="str">
-        <f t="shared" si="24"/>
-        <v>Gas_Combustion_Turbine_Cogen_CCS_EP</v>
+        <f t="shared" si="11"/>
+        <v>Gas_Steam_Turbine_Cogen_CCS_EP</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" ref="B84:F84" si="30">$M45*(1+$P45)^(B$51-2007)/1000000</f>
+        <f t="shared" ref="B84:F84" si="19">$M46*(1+$P46)^(B$50-2007)/1000000</f>
         <v>2.7716425308000003</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>2.7201914634153233</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>2.6696955020032256</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>2.6201369165638213</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>2.5714983062260397</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="26"/>
-        <v>0.46735067909553057</v>
+        <f t="shared" si="13"/>
+        <v>0.46735067909553074</v>
       </c>
     </row>
     <row r="85" spans="1:37">
       <c r="A85" s="31" t="str">
-        <f t="shared" si="24"/>
-        <v>Coal_Steam_Turbine_Cogen_CCS_EP</v>
+        <f t="shared" si="11"/>
+        <v>CCGT_Cogen_CCS_EP</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" ref="B85:F85" si="31">$M46*(1+$P46)^(B$51-2007)/1000000</f>
+        <f t="shared" ref="B85:F85" si="20">$M47*(1+$P47)^(B$50-2007)/1000000</f>
         <v>2.7716425308000003</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="31"/>
-        <v>2.7468076875532152</v>
+        <f t="shared" si="20"/>
+        <v>2.7201914634153233</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="31"/>
-        <v>2.7221953728007211</v>
+        <f t="shared" si="20"/>
+        <v>2.6696955020032256</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="31"/>
-        <v>2.6978035926128503</v>
+        <f t="shared" si="20"/>
+        <v>2.6201369165638213</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="31"/>
-        <v>2.6736303709262086</v>
+        <f t="shared" si="20"/>
+        <v>2.5714983062260397</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="26"/>
-        <v>0.22476500876696184</v>
+        <f t="shared" si="13"/>
+        <v>0.46735067909553074</v>
       </c>
     </row>
     <row r="86" spans="1:37">
-      <c r="A86" s="31" t="str">
-        <f t="shared" si="24"/>
-        <v>Gas_Steam_Turbine_Cogen_CCS_EP</v>
-      </c>
-      <c r="B86" s="1">
-        <f t="shared" ref="B86:F86" si="32">$M47*(1+$P47)^(B$51-2007)/1000000</f>
-        <v>2.7716425308000003</v>
-      </c>
-      <c r="C86" s="1">
-        <f t="shared" si="32"/>
-        <v>2.7201914634153233</v>
-      </c>
-      <c r="D86" s="1">
-        <f t="shared" si="32"/>
-        <v>2.6696955020032256</v>
-      </c>
-      <c r="E86" s="1">
-        <f t="shared" si="32"/>
-        <v>2.6201369165638213</v>
-      </c>
-      <c r="F86" s="1">
-        <f t="shared" si="32"/>
-        <v>2.5714983062260397</v>
-      </c>
-      <c r="G86" s="2">
-        <f t="shared" si="26"/>
-        <v>0.46735067909553074</v>
-      </c>
+      <c r="A86"/>
+      <c r="C86"/>
+      <c r="G86"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="30"/>
+      <c r="AB86" s="15"/>
+      <c r="AC86" s="30"/>
+      <c r="AD86" s="30"/>
+      <c r="AG86"/>
+      <c r="AH86"/>
+      <c r="AI86"/>
+      <c r="AJ86"/>
+      <c r="AK86"/>
     </row>
     <row r="87" spans="1:37">
-      <c r="A87" s="31" t="str">
-        <f t="shared" si="24"/>
-        <v>CCGT_Cogen_CCS_EP</v>
-      </c>
-      <c r="B87" s="1">
-        <f t="shared" ref="B87:F87" si="33">$M48*(1+$P48)^(B$51-2007)/1000000</f>
-        <v>2.7716425308000003</v>
-      </c>
-      <c r="C87" s="1">
-        <f t="shared" si="33"/>
-        <v>2.7201914634153233</v>
-      </c>
-      <c r="D87" s="1">
-        <f t="shared" si="33"/>
-        <v>2.6696955020032256</v>
-      </c>
-      <c r="E87" s="1">
-        <f t="shared" si="33"/>
-        <v>2.6201369165638213</v>
-      </c>
-      <c r="F87" s="1">
-        <f t="shared" si="33"/>
-        <v>2.5714983062260397</v>
-      </c>
-      <c r="G87" s="2">
-        <f t="shared" si="26"/>
-        <v>0.46735067909553074</v>
-      </c>
+      <c r="A87"/>
+      <c r="C87"/>
+      <c r="G87"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87" s="12"/>
+      <c r="AA87" s="30"/>
+      <c r="AB87" s="15"/>
+      <c r="AC87" s="30"/>
+      <c r="AD87" s="30"/>
+      <c r="AG87"/>
+      <c r="AH87"/>
+      <c r="AI87"/>
+      <c r="AJ87"/>
+      <c r="AK87"/>
     </row>
     <row r="88" spans="1:37">
       <c r="A88"/>
@@ -8387,62 +8315,7 @@
       <c r="AJ88"/>
       <c r="AK88"/>
     </row>
-    <row r="89" spans="1:37">
-      <c r="A89"/>
-      <c r="C89"/>
-      <c r="G89"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="T89"/>
-      <c r="U89"/>
-      <c r="V89"/>
-      <c r="W89"/>
-      <c r="X89"/>
-      <c r="Y89"/>
-      <c r="Z89" s="12"/>
-      <c r="AA89" s="30"/>
-      <c r="AB89" s="15"/>
-      <c r="AC89" s="30"/>
-      <c r="AD89" s="30"/>
-      <c r="AG89"/>
-      <c r="AH89"/>
-      <c r="AI89"/>
-      <c r="AJ89"/>
-      <c r="AK89"/>
-    </row>
-    <row r="90" spans="1:37">
-      <c r="A90"/>
-      <c r="C90"/>
-      <c r="G90"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="T90"/>
-      <c r="U90"/>
-      <c r="V90"/>
-      <c r="W90"/>
-      <c r="X90"/>
-      <c r="Y90"/>
-      <c r="Z90" s="12"/>
-      <c r="AA90" s="30"/>
-      <c r="AB90" s="15"/>
-      <c r="AC90" s="30"/>
-      <c r="AD90" s="30"/>
-      <c r="AG90"/>
-      <c r="AH90"/>
-      <c r="AI90"/>
-      <c r="AJ90"/>
-      <c r="AK90"/>
-    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="1">
     <mergeCell ref="B22:C22"/>
   </mergeCells>
@@ -8458,10 +8331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AD48"/>
+  <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -10762,7 +10635,7 @@
       </c>
       <c r="X19" s="19">
         <f>generator_costs!AE19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="19">
         <f>generator_costs!AF19</f>
@@ -11128,7 +11001,7 @@
       </c>
       <c r="X22" s="19">
         <f>generator_costs!AE22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="19">
         <f>generator_costs!AF22</f>
@@ -11250,7 +11123,7 @@
       </c>
       <c r="X23" s="19">
         <f>generator_costs!AE23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="19">
         <f>generator_costs!AF23</f>
@@ -11982,7 +11855,7 @@
       </c>
       <c r="X29" s="21">
         <f>generator_costs!AE29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="21">
         <f>generator_costs!AF29</f>
@@ -12104,7 +11977,7 @@
       </c>
       <c r="X30" s="21">
         <f>generator_costs!AE30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="21">
         <f>generator_costs!AF30</f>
@@ -12226,7 +12099,7 @@
       </c>
       <c r="X31" s="21">
         <f>generator_costs!AE31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="21">
         <f>generator_costs!AF31</f>
@@ -12348,7 +12221,7 @@
       </c>
       <c r="X32" s="21">
         <f>generator_costs!AE32</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="21">
         <f>generator_costs!AF32</f>
@@ -13229,124 +13102,124 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
-      <c r="A40" s="30">
+    <row r="40" spans="1:30" s="31" customFormat="1">
+      <c r="A40" s="31">
         <f>generator_costs!A40</f>
-        <v>40</v>
-      </c>
-      <c r="B40" s="30" t="str">
+        <v>41</v>
+      </c>
+      <c r="B40" s="31" t="str">
         <f>generator_costs!B40</f>
-        <v>Compressed_Air_Energy_Storage_CCS</v>
-      </c>
-      <c r="C40" s="30">
+        <v>Gas_Combustion_Turbine_CCS_EP</v>
+      </c>
+      <c r="C40" s="31">
         <f>generator_costs!C40</f>
         <v>2007</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="31">
         <f>generator_costs!D40</f>
         <v>2014</v>
       </c>
-      <c r="E40" s="30" t="str">
+      <c r="E40" s="31" t="str">
         <f>generator_costs!E40</f>
         <v>Gas_CCS</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="31">
         <f>generator_costs!M40</f>
-        <v>4713343.8881851453</v>
-      </c>
-      <c r="G40" s="30">
+        <v>2810868.4742858419</v>
+      </c>
+      <c r="G40" s="31">
         <f>generator_costs!N40</f>
-        <v>18771.408000000003</v>
-      </c>
-      <c r="H40" s="30">
+        <v>20242.728000000003</v>
+      </c>
+      <c r="H40" s="31">
         <f>generator_costs!O40</f>
-        <v>4.3085520000000006</v>
-      </c>
-      <c r="I40" s="30">
+        <v>4.5830520000000003</v>
+      </c>
+      <c r="I40" s="31">
         <f>generator_costs!P40</f>
-        <v>-5.873506790955307E-3</v>
-      </c>
-      <c r="J40" s="30">
+        <v>-4.6735067909553056E-3</v>
+      </c>
+      <c r="J40" s="31">
         <f>generator_costs!Q40</f>
-        <v>91289</v>
-      </c>
-      <c r="K40" s="30">
+        <v>0</v>
+      </c>
+      <c r="K40" s="31">
         <f>generator_costs!R40</f>
-        <v>7.43</v>
-      </c>
-      <c r="L40" s="30">
+        <v>3.03</v>
+      </c>
+      <c r="L40" s="31">
         <f>generator_costs!S40</f>
-        <v>6</v>
-      </c>
-      <c r="M40" s="30">
+        <v>3</v>
+      </c>
+      <c r="M40" s="31">
         <f>generator_costs!T40</f>
-        <v>0.1</v>
-      </c>
-      <c r="N40" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="N40" s="31">
         <f>generator_costs!U40</f>
-        <v>0.2</v>
-      </c>
-      <c r="O40" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="O40" s="31">
         <f>generator_costs!V40</f>
-        <v>0.2</v>
-      </c>
-      <c r="P40" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="P40" s="31">
         <f>generator_costs!W40</f>
-        <v>0.2</v>
-      </c>
-      <c r="Q40" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="31">
         <f>generator_costs!X40</f>
-        <v>0.2</v>
-      </c>
-      <c r="R40" s="30">
+        <v>0</v>
+      </c>
+      <c r="R40" s="31">
         <f>generator_costs!Y40</f>
-        <v>0.1</v>
-      </c>
-      <c r="S40" s="30">
+        <v>0</v>
+      </c>
+      <c r="S40" s="31">
         <f>generator_costs!Z40</f>
         <v>30</v>
       </c>
-      <c r="T40" s="30">
+      <c r="T40" s="31">
         <f>generator_costs!AA40</f>
         <v>0.03</v>
       </c>
-      <c r="U40" s="30">
+      <c r="U40" s="31">
         <f>generator_costs!AB40</f>
-        <v>0.04</v>
-      </c>
-      <c r="V40" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="V40" s="31">
         <f>generator_costs!AC40</f>
         <v>0</v>
       </c>
-      <c r="W40" s="30">
+      <c r="W40" s="31">
         <f>generator_costs!AD40</f>
         <v>1</v>
       </c>
-      <c r="X40" s="30">
+      <c r="X40" s="31">
         <f>generator_costs!AE40</f>
         <v>0</v>
       </c>
-      <c r="Y40" s="30">
+      <c r="Y40" s="31">
         <f>generator_costs!AF40</f>
         <v>0</v>
       </c>
-      <c r="Z40" s="30">
+      <c r="Z40" s="31">
         <f>generator_costs!AG40</f>
         <v>1</v>
       </c>
-      <c r="AA40" s="30">
+      <c r="AA40" s="31">
         <f>generator_costs!AH40</f>
         <v>1</v>
       </c>
-      <c r="AB40" s="30">
+      <c r="AB40" s="31">
         <f>generator_costs!AI40</f>
-        <v>1</v>
-      </c>
-      <c r="AC40" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="31">
         <f>generator_costs!AJ40</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="30">
+      <c r="AD40" s="31">
         <f>generator_costs!AK40</f>
         <v>0</v>
       </c>
@@ -13354,11 +13227,11 @@
     <row r="41" spans="1:30" s="31" customFormat="1">
       <c r="A41" s="31">
         <f>generator_costs!A41</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" s="31" t="str">
         <f>generator_costs!B41</f>
-        <v>Gas_Combustion_Turbine_CCS_EP</v>
+        <v>Coal_Steam_Turbine_CCS_EP</v>
       </c>
       <c r="C41" s="31">
         <f>generator_costs!C41</f>
@@ -13370,23 +13243,23 @@
       </c>
       <c r="E41" s="31" t="str">
         <f>generator_costs!E41</f>
-        <v>Gas_CCS</v>
+        <v>Coal_CCS</v>
       </c>
       <c r="F41" s="31">
         <f>generator_costs!M41</f>
-        <v>2810868.4742858419</v>
+        <v>2790415.9071952482</v>
       </c>
       <c r="G41" s="31">
         <f>generator_costs!N41</f>
-        <v>20242.728000000003</v>
+        <v>35672.922000000006</v>
       </c>
       <c r="H41" s="31">
         <f>generator_costs!O41</f>
-        <v>4.5830520000000003</v>
+        <v>5.616270000000001</v>
       </c>
       <c r="I41" s="31">
         <f>generator_costs!P41</f>
-        <v>-4.6735067909553056E-3</v>
+        <v>-2.2476500876696184E-3</v>
       </c>
       <c r="J41" s="31">
         <f>generator_costs!Q41</f>
@@ -13394,7 +13267,7 @@
       </c>
       <c r="K41" s="31">
         <f>generator_costs!R41</f>
-        <v>3.03</v>
+        <v>2.1360000000000001</v>
       </c>
       <c r="L41" s="31">
         <f>generator_costs!S41</f>
@@ -13426,15 +13299,15 @@
       </c>
       <c r="S41" s="31">
         <f>generator_costs!Z41</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="T41" s="31">
         <f>generator_costs!AA41</f>
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="U41" s="31">
         <f>generator_costs!AB41</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="V41" s="31">
         <f>generator_costs!AC41</f>
@@ -13446,7 +13319,7 @@
       </c>
       <c r="X41" s="31">
         <f>generator_costs!AE41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41" s="31">
         <f>generator_costs!AF41</f>
@@ -13476,11 +13349,11 @@
     <row r="42" spans="1:30" s="31" customFormat="1">
       <c r="A42" s="31">
         <f>generator_costs!A42</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="31" t="str">
         <f>generator_costs!B42</f>
-        <v>Coal_Steam_Turbine_CCS_EP</v>
+        <v>Gas_Steam_Turbine_CCS_EP</v>
       </c>
       <c r="C42" s="31">
         <f>generator_costs!C42</f>
@@ -13492,23 +13365,23 @@
       </c>
       <c r="E42" s="31" t="str">
         <f>generator_costs!E42</f>
-        <v>Coal_CCS</v>
+        <v>Gas_CCS</v>
       </c>
       <c r="F42" s="31">
         <f>generator_costs!M42</f>
-        <v>2790415.9071952482</v>
+        <v>2810868.4742858419</v>
       </c>
       <c r="G42" s="31">
         <f>generator_costs!N42</f>
-        <v>35672.922000000006</v>
+        <v>37898.568000000007</v>
       </c>
       <c r="H42" s="31">
         <f>generator_costs!O42</f>
-        <v>5.616270000000001</v>
+        <v>5.3307900000000012</v>
       </c>
       <c r="I42" s="31">
         <f>generator_costs!P42</f>
-        <v>-2.2476500876696184E-3</v>
+        <v>-4.6735067909553073E-3</v>
       </c>
       <c r="J42" s="31">
         <f>generator_costs!Q42</f>
@@ -13548,15 +13421,15 @@
       </c>
       <c r="S42" s="31">
         <f>generator_costs!Z42</f>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="T42" s="31">
         <f>generator_costs!AA42</f>
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="U42" s="31">
         <f>generator_costs!AB42</f>
-        <v>0.1</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="V42" s="31">
         <f>generator_costs!AC42</f>
@@ -13598,11 +13471,11 @@
     <row r="43" spans="1:30" s="31" customFormat="1">
       <c r="A43" s="31">
         <f>generator_costs!A43</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="31" t="str">
         <f>generator_costs!B43</f>
-        <v>Gas_Steam_Turbine_CCS_EP</v>
+        <v>CCGT_CCS_EP</v>
       </c>
       <c r="C43" s="31">
         <f>generator_costs!C43</f>
@@ -13622,11 +13495,11 @@
       </c>
       <c r="G43" s="31">
         <f>generator_costs!N43</f>
-        <v>37898.568000000007</v>
+        <v>20242.728000000003</v>
       </c>
       <c r="H43" s="31">
         <f>generator_costs!O43</f>
-        <v>5.3307900000000012</v>
+        <v>4.5830520000000003</v>
       </c>
       <c r="I43" s="31">
         <f>generator_costs!P43</f>
@@ -13638,7 +13511,7 @@
       </c>
       <c r="K43" s="31">
         <f>generator_costs!R43</f>
-        <v>2.1360000000000001</v>
+        <v>3.03</v>
       </c>
       <c r="L43" s="31">
         <f>generator_costs!S43</f>
@@ -13670,15 +13543,15 @@
       </c>
       <c r="S43" s="31">
         <f>generator_costs!Z43</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="T43" s="31">
         <f>generator_costs!AA43</f>
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="U43" s="31">
         <f>generator_costs!AB43</f>
-        <v>2.5999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="V43" s="31">
         <f>generator_costs!AC43</f>
@@ -13720,11 +13593,11 @@
     <row r="44" spans="1:30" s="31" customFormat="1">
       <c r="A44" s="31">
         <f>generator_costs!A44</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="31" t="str">
         <f>generator_costs!B44</f>
-        <v>CCGT_CCS_EP</v>
+        <v>Gas_Combustion_Turbine_Cogen_CCS_EP</v>
       </c>
       <c r="C44" s="31">
         <f>generator_costs!C44</f>
@@ -13752,7 +13625,7 @@
       </c>
       <c r="I44" s="31">
         <f>generator_costs!P44</f>
-        <v>-4.6735067909553073E-3</v>
+        <v>-4.6735067909553056E-3</v>
       </c>
       <c r="J44" s="31">
         <f>generator_costs!Q44</f>
@@ -13796,11 +13669,11 @@
       </c>
       <c r="T44" s="31">
         <f>generator_costs!AA44</f>
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="U44" s="31">
         <f>generator_costs!AB44</f>
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="V44" s="31">
         <f>generator_costs!AC44</f>
@@ -13812,7 +13685,7 @@
       </c>
       <c r="X44" s="31">
         <f>generator_costs!AE44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44" s="31">
         <f>generator_costs!AF44</f>
@@ -13842,11 +13715,11 @@
     <row r="45" spans="1:30" s="31" customFormat="1">
       <c r="A45" s="31">
         <f>generator_costs!A45</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="31" t="str">
         <f>generator_costs!B45</f>
-        <v>Gas_Combustion_Turbine_Cogen_CCS_EP</v>
+        <v>Coal_Steam_Turbine_Cogen_CCS_EP</v>
       </c>
       <c r="C45" s="31">
         <f>generator_costs!C45</f>
@@ -13858,23 +13731,23 @@
       </c>
       <c r="E45" s="31" t="str">
         <f>generator_costs!E45</f>
-        <v>Gas_CCS</v>
+        <v>Coal_CCS</v>
       </c>
       <c r="F45" s="31">
         <f>generator_costs!M45</f>
-        <v>2810868.4742858419</v>
+        <v>2790415.9071952482</v>
       </c>
       <c r="G45" s="31">
         <f>generator_costs!N45</f>
-        <v>20242.728000000003</v>
+        <v>35672.922000000006</v>
       </c>
       <c r="H45" s="31">
         <f>generator_costs!O45</f>
-        <v>4.5830520000000003</v>
+        <v>5.616270000000001</v>
       </c>
       <c r="I45" s="31">
         <f>generator_costs!P45</f>
-        <v>-4.6735067909553056E-3</v>
+        <v>-2.2476500876696184E-3</v>
       </c>
       <c r="J45" s="31">
         <f>generator_costs!Q45</f>
@@ -13882,7 +13755,7 @@
       </c>
       <c r="K45" s="31">
         <f>generator_costs!R45</f>
-        <v>3.03</v>
+        <v>2.1360000000000001</v>
       </c>
       <c r="L45" s="31">
         <f>generator_costs!S45</f>
@@ -13914,15 +13787,15 @@
       </c>
       <c r="S45" s="31">
         <f>generator_costs!Z45</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="T45" s="31">
         <f>generator_costs!AA45</f>
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="U45" s="31">
         <f>generator_costs!AB45</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="V45" s="31">
         <f>generator_costs!AC45</f>
@@ -13964,11 +13837,11 @@
     <row r="46" spans="1:30" s="31" customFormat="1">
       <c r="A46" s="31">
         <f>generator_costs!A46</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" s="31" t="str">
         <f>generator_costs!B46</f>
-        <v>Coal_Steam_Turbine_Cogen_CCS_EP</v>
+        <v>Gas_Steam_Turbine_Cogen_CCS_EP</v>
       </c>
       <c r="C46" s="31">
         <f>generator_costs!C46</f>
@@ -13980,23 +13853,23 @@
       </c>
       <c r="E46" s="31" t="str">
         <f>generator_costs!E46</f>
-        <v>Coal_CCS</v>
+        <v>Gas_CCS</v>
       </c>
       <c r="F46" s="31">
         <f>generator_costs!M46</f>
-        <v>2790415.9071952482</v>
+        <v>2810868.4742858419</v>
       </c>
       <c r="G46" s="31">
         <f>generator_costs!N46</f>
-        <v>35672.922000000006</v>
+        <v>37898.568000000007</v>
       </c>
       <c r="H46" s="31">
         <f>generator_costs!O46</f>
-        <v>5.616270000000001</v>
+        <v>5.3307900000000012</v>
       </c>
       <c r="I46" s="31">
         <f>generator_costs!P46</f>
-        <v>-2.2476500876696184E-3</v>
+        <v>-4.6735067909553073E-3</v>
       </c>
       <c r="J46" s="31">
         <f>generator_costs!Q46</f>
@@ -14036,15 +13909,15 @@
       </c>
       <c r="S46" s="31">
         <f>generator_costs!Z46</f>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="T46" s="31">
         <f>generator_costs!AA46</f>
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="U46" s="31">
         <f>generator_costs!AB46</f>
-        <v>0.1</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="V46" s="31">
         <f>generator_costs!AC46</f>
@@ -14086,11 +13959,11 @@
     <row r="47" spans="1:30" s="31" customFormat="1">
       <c r="A47" s="31">
         <f>generator_costs!A47</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="31" t="str">
         <f>generator_costs!B47</f>
-        <v>Gas_Steam_Turbine_Cogen_CCS_EP</v>
+        <v>CCGT_Cogen_CCS_EP</v>
       </c>
       <c r="C47" s="31">
         <f>generator_costs!C47</f>
@@ -14110,11 +13983,11 @@
       </c>
       <c r="G47" s="31">
         <f>generator_costs!N47</f>
-        <v>37898.568000000007</v>
+        <v>20242.728000000003</v>
       </c>
       <c r="H47" s="31">
         <f>generator_costs!O47</f>
-        <v>5.3307900000000012</v>
+        <v>4.5830520000000003</v>
       </c>
       <c r="I47" s="31">
         <f>generator_costs!P47</f>
@@ -14126,7 +13999,7 @@
       </c>
       <c r="K47" s="31">
         <f>generator_costs!R47</f>
-        <v>2.1360000000000001</v>
+        <v>3.03</v>
       </c>
       <c r="L47" s="31">
         <f>generator_costs!S47</f>
@@ -14158,15 +14031,15 @@
       </c>
       <c r="S47" s="31">
         <f>generator_costs!Z47</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="T47" s="31">
         <f>generator_costs!AA47</f>
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="U47" s="31">
         <f>generator_costs!AB47</f>
-        <v>2.5999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="V47" s="31">
         <f>generator_costs!AC47</f>
@@ -14205,130 +14078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" s="31" customFormat="1">
-      <c r="A48" s="31">
-        <f>generator_costs!A48</f>
-        <v>48</v>
-      </c>
-      <c r="B48" s="31" t="str">
-        <f>generator_costs!B48</f>
-        <v>CCGT_Cogen_CCS_EP</v>
-      </c>
-      <c r="C48" s="31">
-        <f>generator_costs!C48</f>
-        <v>2007</v>
-      </c>
-      <c r="D48" s="31">
-        <f>generator_costs!D48</f>
-        <v>2014</v>
-      </c>
-      <c r="E48" s="31" t="str">
-        <f>generator_costs!E48</f>
-        <v>Gas_CCS</v>
-      </c>
-      <c r="F48" s="31">
-        <f>generator_costs!M48</f>
-        <v>2810868.4742858419</v>
-      </c>
-      <c r="G48" s="31">
-        <f>generator_costs!N48</f>
-        <v>20242.728000000003</v>
-      </c>
-      <c r="H48" s="31">
-        <f>generator_costs!O48</f>
-        <v>4.5830520000000003</v>
-      </c>
-      <c r="I48" s="31">
-        <f>generator_costs!P48</f>
-        <v>-4.6735067909553073E-3</v>
-      </c>
-      <c r="J48" s="31">
-        <f>generator_costs!Q48</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="31">
-        <f>generator_costs!R48</f>
-        <v>3.03</v>
-      </c>
-      <c r="L48" s="31">
-        <f>generator_costs!S48</f>
-        <v>3</v>
-      </c>
-      <c r="M48" s="31">
-        <f>generator_costs!T48</f>
-        <v>0.8</v>
-      </c>
-      <c r="N48" s="31">
-        <f>generator_costs!U48</f>
-        <v>0.1</v>
-      </c>
-      <c r="O48" s="31">
-        <f>generator_costs!V48</f>
-        <v>0.1</v>
-      </c>
-      <c r="P48" s="31">
-        <f>generator_costs!W48</f>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="31">
-        <f>generator_costs!X48</f>
-        <v>0</v>
-      </c>
-      <c r="R48" s="31">
-        <f>generator_costs!Y48</f>
-        <v>0</v>
-      </c>
-      <c r="S48" s="31">
-        <f>generator_costs!Z48</f>
-        <v>30</v>
-      </c>
-      <c r="T48" s="31">
-        <f>generator_costs!AA48</f>
-        <v>0.04</v>
-      </c>
-      <c r="U48" s="31">
-        <f>generator_costs!AB48</f>
-        <v>0.06</v>
-      </c>
-      <c r="V48" s="31">
-        <f>generator_costs!AC48</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="31">
-        <f>generator_costs!AD48</f>
-        <v>1</v>
-      </c>
-      <c r="X48" s="31">
-        <f>generator_costs!AE48</f>
-        <v>1</v>
-      </c>
-      <c r="Y48" s="31">
-        <f>generator_costs!AF48</f>
-        <v>0</v>
-      </c>
-      <c r="Z48" s="31">
-        <f>generator_costs!AG48</f>
-        <v>1</v>
-      </c>
-      <c r="AA48" s="31">
-        <f>generator_costs!AH48</f>
-        <v>1</v>
-      </c>
-      <c r="AB48" s="31">
-        <f>generator_costs!AI48</f>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="31">
-        <f>generator_costs!AJ48</f>
-        <v>0</v>
-      </c>
-      <c r="AD48" s="31">
-        <f>generator_costs!AK48</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -14351,15 +14101,15 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="24" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="24" customFormat="1">
@@ -14387,7 +14137,7 @@
         <v>3.3</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E5" s="24"/>
     </row>
@@ -14540,7 +14290,6 @@
       <c r="E21" s="24"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/DatabasePrep/GeneratorInfo/generator_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="33560" windowHeight="21580" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="33560" windowHeight="19480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="generator_costs" sheetId="1" r:id="rId1"/>
@@ -24,189 +24,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="148">
   <si>
-    <t>ReEDs Sheet, also new wind params used for fixed O+M, forced outage rate</t>
+    <t>Wind</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ReEDs Sheet, 75 CapEx of non-cogen</t>
+    <t>CCGT_CCS_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Geothermal_EP</t>
+    <t>Gas_Combustion_Turbine_Cogen_CCS_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
+    <t>Coal_Steam_Turbine_Cogen_CCS_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>ReEDs Sheet</t>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine</t>
-  </si>
-  <si>
-    <t>CCGT_CCS</t>
+    <t>Gas_Steam_Turbine_Cogen_CCS_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Combustion_Turbine_CCS</t>
+    <t>CCGT_Cogen_CCS_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Bio_Gas_CCS</t>
+    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Biomass_IGCC_CCS</t>
+    <t>Cost Declination Rate (%/yr)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Coal_IGCC_CCS</t>
+    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Coal_Steam_Turbine_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>overnight_cost_$2007</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
-  </si>
-  <si>
-    <t>storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offshore_Wind</t>
-  </si>
-  <si>
-    <t>Bio_Gas</t>
-  </si>
-  <si>
-    <t>year_1_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_2_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_3_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battery_Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tech_name_again</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Solid_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Hydro_NonPumped</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hydro_Pumped</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
-  </si>
-  <si>
-    <t>Biomass_IGCC</t>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
-  </si>
-  <si>
-    <t>Coal_IGCC</t>
-  </si>
-  <si>
-    <t>can_build_new</t>
-  </si>
-  <si>
-    <t>forced_outage_rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>scheduled_outage_rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from DOE solar program costs on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
-  </si>
-  <si>
-    <t>CCGT_Cogen_EP</t>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOE Solar Program Costs, took 2020 value for fixed O+M, 10% added to capital costs to go from utility to distributed, but also assumed a 5% declination rate, , outage rates from Mathias</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>overnight_cost</t>
+    <t>Concentrating_PV</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -214,118 +68,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Bio_Solid</t>
+    <t>(in 2010 $)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Combustion_Turbine_EP</t>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_EP</t>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_EP</t>
-  </si>
-  <si>
-    <t>CCGT_EP</t>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_Cogen_EP</t>
-  </si>
-  <si>
-    <t>Gas_Internal_Combustion_Engine_EP</t>
+    <t>year</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gas</t>
+    <t>$/Wp</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Internal_Combustion_Engine_Cogen_EP</t>
+    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>note: we assume that cogen plants have 3/4 of the capital cost of a pure-electric plant, (to reflect shared infrastructure for cogen), but the same operating costs.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dispatchable</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cogen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, took CoalOldScr costs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, took OGS (Oil Gas Steam)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, set lifetime to 60 years</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>price_and_dollar_year</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>year_4_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_5_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_6_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_o_m_$2007</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>heat_rate_mbtu_per_mwh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commercial_PV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_build_year</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_Cogen_EP</t>
+    <t>cost declination rate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -514,43 +273,29 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Wind</t>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
+  </si>
+  <si>
+    <t>CCGT_Cogen_EP</t>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_CCS_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CCGT_CCS_EP</t>
+    <t>Wind_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Combustion_Turbine_Cogen_CCS_EP</t>
+    <t>Gas</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Coal_Steam_Turbine_Cogen_CCS_EP</t>
+    <t>DOE Solar Program Costs, took 2020 value for fixed O+M, 10% added to capital costs to go from utility to distributed, but also assumed a 5% declination rate, , outage rates from Mathias</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Steam_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost Declination Rate (%/yr)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concentrating_PV</t>
+    <t>overnight_cost</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -558,23 +303,278 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>(in 2010 $)</t>
+    <t>Bio_Solid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>year</t>
+    <t>Gas_Combustion_Turbine_EP</t>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_EP</t>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_EP</t>
+  </si>
+  <si>
+    <t>CCGT_EP</t>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_Cogen_EP</t>
+  </si>
+  <si>
+    <t>Gas_Internal_Combustion_Engine_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>$/Wp</t>
+    <t>Gas</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
+    <t>Gas_Internal_Combustion_Engine_Cogen_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>cost declination rate</t>
+    <t>note: we assume that cogen plants have 3/4 of the capital cost of a pure-electric plant, (to reflect shared infrastructure for cogen), but the same operating costs.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatchable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cogen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, took CoalOldScr costs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, took OGS (Oil Gas Steam)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, set lifetime to 60 years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_and_dollar_year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>year_4_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_5_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_6_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m_$2007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat_rate_mbtu_per_mwh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commercial_PV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_build_year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, also new wind params used for fixed O+M, forced outage rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, 75 CapEx of non-cogen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geothermal_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT</t>
+  </si>
+  <si>
+    <t>ReEDs Sheet</t>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine</t>
+  </si>
+  <si>
+    <t>CCGT_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Gas_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass_IGCC_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_IGCC_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>overnight_cost_$2007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
+  </si>
+  <si>
+    <t>storage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offshore_Wind</t>
+  </si>
+  <si>
+    <t>Bio_Gas</t>
+  </si>
+  <si>
+    <t>year_1_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_2_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_3_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery_Storage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tech_name_again</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Solid_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Hydro_NonPumped</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydro_Pumped</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
+  </si>
+  <si>
+    <t>Biomass_IGCC</t>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
+  </si>
+  <si>
+    <t>Coal_IGCC</t>
+  </si>
+  <si>
+    <t>can_build_new</t>
+  </si>
+  <si>
+    <t>forced_outage_rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduled_outage_rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from DOE solar program costs on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_CCS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -582,14 +582,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -634,7 +629,7 @@
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -656,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1001,8 +996,8 @@
   <dimension ref="A1:AO104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z22" sqref="Z22"/>
+      <pane xSplit="2" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF50" sqref="AF50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1034,133 +1029,133 @@
   <sheetData>
     <row r="1" spans="1:41" s="33" customFormat="1">
       <c r="A1" s="34" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:41" s="33" customFormat="1"/>
     <row r="3" spans="1:41">
       <c r="A3" s="5" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
         <v>119</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="Z3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG3" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN3" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" t="s">
-        <v>90</v>
-      </c>
-      <c r="P3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" t="s">
-        <v>115</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF3" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG3" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ3" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN3" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="AO3" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1168,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C4" s="5">
         <v>2007</v>
@@ -1177,7 +1172,7 @@
         <v>2010</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>2004</v>
@@ -1289,7 +1284,7 @@
         <v>CCGT</v>
       </c>
       <c r="AO4" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1297,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
@@ -1306,7 +1301,7 @@
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="F5">
         <v>2004</v>
@@ -1418,7 +1413,7 @@
         <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="AO5" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:41" s="22" customFormat="1">
@@ -1426,7 +1421,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="C6" s="22">
         <v>2007</v>
@@ -1435,7 +1430,7 @@
         <v>2010</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="F6" s="22">
         <v>2010</v>
@@ -1548,7 +1543,7 @@
         <v>Concentrating_PV</v>
       </c>
       <c r="AO6" s="22" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1556,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5">
         <v>2007</v>
@@ -1565,7 +1560,7 @@
         <v>2010</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F7">
         <v>2004</v>
@@ -1677,7 +1672,7 @@
         <v>Wind</v>
       </c>
       <c r="AO7" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1685,7 +1680,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="C8" s="5">
         <v>2007</v>
@@ -1694,7 +1689,7 @@
         <v>2010</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F8">
         <v>2004</v>
@@ -1806,7 +1801,7 @@
         <v>Offshore_Wind</v>
       </c>
       <c r="AO8" t="s">
-        <v>138</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1814,7 +1809,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5">
         <v>2007</v>
@@ -1823,7 +1818,7 @@
         <v>2010</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="F9">
         <v>2009</v>
@@ -1936,7 +1931,7 @@
         <v>Residential_PV</v>
       </c>
       <c r="AO9" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:41" s="11" customFormat="1">
@@ -1944,7 +1939,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="C10" s="11">
         <v>2007</v>
@@ -1953,7 +1948,7 @@
         <v>2012</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F10" s="11">
         <v>2010</v>
@@ -2065,7 +2060,7 @@
         <v>CSP_Trough_6h_Storage</v>
       </c>
       <c r="AO10" s="11" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -2073,7 +2068,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
@@ -2082,7 +2077,7 @@
         <v>2010</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="F11">
         <v>2007</v>
@@ -2194,7 +2189,7 @@
         <v>Bio_Gas</v>
       </c>
       <c r="AO11" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -2202,7 +2197,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="C12" s="5">
         <v>2007</v>
@@ -2211,7 +2206,7 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F12">
         <v>2004</v>
@@ -2323,7 +2318,7 @@
         <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="AO12" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2331,7 +2326,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
@@ -2340,7 +2335,7 @@
         <v>2012</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <v>2007</v>
@@ -2452,7 +2447,7 @@
         <v>Biomass_IGCC</v>
       </c>
       <c r="AO13" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2460,7 +2455,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="C14" s="5">
         <v>2007</v>
@@ -2469,7 +2464,7 @@
         <v>2010</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="F14">
         <v>2004</v>
@@ -2581,7 +2576,7 @@
         <v>Coal_IGCC</v>
       </c>
       <c r="AO14" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2589,7 +2584,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5">
         <v>2007</v>
@@ -2598,7 +2593,7 @@
         <v>2010</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="F15">
         <v>2004</v>
@@ -2710,7 +2705,7 @@
         <v>Coal_Steam_Turbine</v>
       </c>
       <c r="AO15" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2718,7 +2713,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5">
         <v>2007</v>
@@ -2727,7 +2722,7 @@
         <v>2010</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="F16">
         <v>2004</v>
@@ -2839,7 +2834,7 @@
         <v>Nuclear</v>
       </c>
       <c r="AO16" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2847,7 +2842,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5">
         <v>2007</v>
@@ -2856,7 +2851,7 @@
         <v>2010</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>2004</v>
@@ -2968,7 +2963,7 @@
         <v>Geothermal</v>
       </c>
       <c r="AO17" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2976,7 +2971,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="C18" s="5">
         <v>2007</v>
@@ -2985,7 +2980,7 @@
         <v>2010</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="F18" s="5">
         <v>2007</v>
@@ -3097,7 +3092,7 @@
         <v>Hydro_NonPumped</v>
       </c>
       <c r="AO18" s="5" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -3105,7 +3100,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="C19" s="5">
         <v>2007</v>
@@ -3114,7 +3109,7 @@
         <v>2010</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="F19" s="33">
         <v>2007</v>
@@ -3226,7 +3221,7 @@
         <v>Hydro_Pumped</v>
       </c>
       <c r="AO19" s="5" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:41" s="18" customFormat="1">
@@ -3234,7 +3229,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C20" s="18">
         <v>2007</v>
@@ -3243,7 +3238,7 @@
         <v>2000</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F20" s="18">
         <v>2007</v>
@@ -3355,7 +3350,7 @@
         <v>Gas_Combustion_Turbine_EP</v>
       </c>
       <c r="AO20" s="33" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:41" s="5" customFormat="1">
@@ -3363,7 +3358,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="C21">
         <v>2007</v>
@@ -3372,7 +3367,7 @@
         <v>2000</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="F21" s="33">
         <v>2007</v>
@@ -3484,7 +3479,7 @@
         <v>Coal_Steam_Turbine_EP</v>
       </c>
       <c r="AO21" s="33" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:41" s="5" customFormat="1">
@@ -3492,7 +3487,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="C22" s="33">
         <v>2007</v>
@@ -3501,7 +3496,7 @@
         <v>2000</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F22" s="33">
         <v>2007</v>
@@ -3613,7 +3608,7 @@
         <v>Gas_Steam_Turbine_EP</v>
       </c>
       <c r="AO22" s="33" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:41" s="5" customFormat="1">
@@ -3621,7 +3616,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C23" s="33">
         <v>2007</v>
@@ -3630,7 +3625,7 @@
         <v>2000</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F23" s="33">
         <v>2007</v>
@@ -3742,7 +3737,7 @@
         <v>CCGT_EP</v>
       </c>
       <c r="AO23" s="33" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:41" s="5" customFormat="1">
@@ -3750,7 +3745,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="C24" s="33">
         <v>2007</v>
@@ -3759,7 +3754,7 @@
         <v>2000</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F24" s="33">
         <v>2007</v>
@@ -3871,7 +3866,7 @@
         <v>Geothermal_EP</v>
       </c>
       <c r="AO24" s="33" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:41" s="5" customFormat="1">
@@ -3879,7 +3874,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="C25" s="33">
         <v>2007</v>
@@ -3888,7 +3883,7 @@
         <v>2000</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F25" s="33">
         <v>2007</v>
@@ -4000,7 +3995,7 @@
         <v>Nuclear_EP</v>
       </c>
       <c r="AO25" s="33" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:41" s="18" customFormat="1">
@@ -4008,7 +4003,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C26" s="33">
         <v>2007</v>
@@ -4017,7 +4012,7 @@
         <v>2000</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="F26" s="33">
         <v>2007</v>
@@ -4129,7 +4124,7 @@
         <v>Wind_EP</v>
       </c>
       <c r="AO26" s="33" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:41" s="33" customFormat="1">
@@ -4137,7 +4132,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C27" s="33">
         <v>2007</v>
@@ -4146,7 +4141,7 @@
         <v>2000</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F27" s="33">
         <v>2007</v>
@@ -4258,7 +4253,7 @@
         <v>Gas_Internal_Combustion_Engine_EP</v>
       </c>
       <c r="AO27" s="33" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:41" s="8" customFormat="1">
@@ -4266,7 +4261,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C28" s="8">
         <v>2007</v>
@@ -4275,7 +4270,7 @@
         <v>2010</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F28" s="8">
         <v>2009</v>
@@ -4387,7 +4382,7 @@
         <v>Commercial_PV</v>
       </c>
       <c r="AO28" s="9" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:41" s="8" customFormat="1">
@@ -4395,7 +4390,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="C29" s="8">
         <v>2007</v>
@@ -4404,7 +4399,7 @@
         <v>2010</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F29" s="8">
         <v>2009</v>
@@ -4516,7 +4511,7 @@
         <v>Central_PV</v>
       </c>
       <c r="AO29" s="9" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:41" s="5" customFormat="1">
@@ -4524,7 +4519,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="C30" s="5">
         <v>2007</v>
@@ -4533,7 +4528,7 @@
         <v>2010</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F30" s="5">
         <v>2010</v>
@@ -4645,7 +4640,7 @@
         <v>CSP_Trough_No_Storage</v>
       </c>
       <c r="AO30" s="9" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:41" s="9" customFormat="1" ht="15" customHeight="1">
@@ -4653,7 +4648,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="C31" s="9">
         <v>2007</v>
@@ -4662,7 +4657,7 @@
         <v>2010</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="F31" s="9">
         <v>2010</v>
@@ -4774,7 +4769,7 @@
         <v>Compressed_Air_Energy_Storage</v>
       </c>
       <c r="AO31" s="32" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:41" s="19" customFormat="1">
@@ -4782,7 +4777,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C32" s="33">
         <v>2007</v>
@@ -4791,7 +4786,7 @@
         <v>2000</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F32" s="19">
         <v>2007</v>
@@ -4908,7 +4903,7 @@
         <v>Gas_Combustion_Turbine_Cogen_EP</v>
       </c>
       <c r="AO32" s="33" t="s">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:41" s="19" customFormat="1">
@@ -4916,7 +4911,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C33" s="33">
         <v>2007</v>
@@ -4925,7 +4920,7 @@
         <v>2000</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="F33" s="33">
         <v>2007</v>
@@ -5042,7 +5037,7 @@
         <v>Coal_Steam_Turbine_Cogen_EP</v>
       </c>
       <c r="AO33" s="33" t="s">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:41" s="19" customFormat="1">
@@ -5050,7 +5045,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="C34" s="33">
         <v>2007</v>
@@ -5059,7 +5054,7 @@
         <v>2000</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F34" s="33">
         <v>2007</v>
@@ -5176,7 +5171,7 @@
         <v>Gas_Steam_Turbine_Cogen_EP</v>
       </c>
       <c r="AO34" s="33" t="s">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:41" s="19" customFormat="1">
@@ -5184,7 +5179,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="C35" s="33">
         <v>2007</v>
@@ -5193,7 +5188,7 @@
         <v>2000</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F35" s="33">
         <v>2007</v>
@@ -5310,7 +5305,7 @@
         <v>CCGT_Cogen_EP</v>
       </c>
       <c r="AO35" s="33" t="s">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:41" s="23" customFormat="1">
@@ -5318,7 +5313,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="C36" s="23">
         <v>2007</v>
@@ -5327,7 +5322,7 @@
         <v>2010</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="F36" s="23">
         <v>2004</v>
@@ -5439,7 +5434,7 @@
         <v>Battery_Storage</v>
       </c>
       <c r="AO36" s="23" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:41" s="26" customFormat="1">
@@ -5447,7 +5442,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="C37" s="26">
         <v>2007</v>
@@ -5456,7 +5451,7 @@
         <v>2014</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F37" s="26">
         <v>2004</v>
@@ -5573,7 +5568,7 @@
         <v>CCGT_CCS</v>
       </c>
       <c r="AO37" s="33" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:41" s="26" customFormat="1">
@@ -5581,7 +5576,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="C38" s="26">
         <v>2007</v>
@@ -5590,7 +5585,7 @@
         <v>2014</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F38" s="26">
         <v>2004</v>
@@ -5708,7 +5703,7 @@
         <v>Gas_Combustion_Turbine_CCS</v>
       </c>
       <c r="AO38" s="33" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:41" s="26" customFormat="1">
@@ -5716,7 +5711,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="C39" s="26">
         <v>2007</v>
@@ -5725,7 +5720,7 @@
         <v>2014</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="F39" s="26">
         <v>2004</v>
@@ -5843,7 +5838,7 @@
         <v>Bio_Gas_CCS</v>
       </c>
       <c r="AO39" s="33" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:41" s="26" customFormat="1">
@@ -5851,7 +5846,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="C40" s="26">
         <v>2007</v>
@@ -5860,7 +5855,7 @@
         <v>2014</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="F40" s="26">
         <v>2004</v>
@@ -5978,7 +5973,7 @@
         <v>Biomass_IGCC_CCS</v>
       </c>
       <c r="AO40" s="33" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:41" s="26" customFormat="1">
@@ -5986,7 +5981,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="C41" s="26">
         <v>2007</v>
@@ -5995,7 +5990,7 @@
         <v>2014</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="F41" s="26">
         <v>2004</v>
@@ -6083,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="AF41" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="33">
         <v>0</v>
@@ -6111,7 +6106,7 @@
         <v>Coal_IGCC_CCS</v>
       </c>
       <c r="AO41" s="33" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:41" s="26" customFormat="1">
@@ -6119,7 +6114,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="C42" s="26">
         <v>2007</v>
@@ -6128,7 +6123,7 @@
         <v>2014</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="F42" s="26">
         <v>2004</v>
@@ -6218,7 +6213,7 @@
         <v>1</v>
       </c>
       <c r="AF42" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="33">
         <v>0</v>
@@ -6246,7 +6241,7 @@
         <v>Coal_Steam_Turbine_CCS</v>
       </c>
       <c r="AO42" s="33" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:41" s="33" customFormat="1">
@@ -6254,7 +6249,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C43" s="33">
         <v>2007</v>
@@ -6263,7 +6258,7 @@
         <v>2000</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F43" s="33">
         <v>2007</v>
@@ -6379,7 +6374,7 @@
         <v>Gas_Internal_Combustion_Engine_Cogen_EP</v>
       </c>
       <c r="AO43" s="33" t="s">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:41" s="28" customFormat="1">
@@ -6387,7 +6382,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C44" s="28">
         <v>2007</v>
@@ -6396,7 +6391,7 @@
         <v>2014</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F44" s="28">
         <v>2004</v>
@@ -6508,10 +6503,10 @@
         <v>0</v>
       </c>
       <c r="AN44" s="28" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="AO44" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:41" s="28" customFormat="1">
@@ -6519,7 +6514,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="C45" s="28">
         <v>2007</v>
@@ -6528,7 +6523,7 @@
         <v>2014</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="F45" s="28">
         <v>2004</v>
@@ -6639,10 +6634,10 @@
         <v>0</v>
       </c>
       <c r="AN45" s="28" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="AO45" s="33" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:41" s="28" customFormat="1">
@@ -6650,7 +6645,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="C46" s="28">
         <v>2007</v>
@@ -6659,7 +6654,7 @@
         <v>2014</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F46" s="28">
         <v>2004</v>
@@ -6771,10 +6766,10 @@
         <v>0</v>
       </c>
       <c r="AN46" s="28" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="AO46" s="33" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:41" s="28" customFormat="1">
@@ -6782,7 +6777,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="C47" s="28">
         <v>2007</v>
@@ -6791,7 +6786,7 @@
         <v>2014</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F47" s="28">
         <v>2004</v>
@@ -6902,10 +6897,10 @@
         <v>0</v>
       </c>
       <c r="AN47" s="28" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="AO47" s="33" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:41" s="28" customFormat="1">
@@ -6913,7 +6908,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="C48" s="28">
         <v>2007</v>
@@ -6922,7 +6917,7 @@
         <v>2014</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F48" s="28">
         <v>2004</v>
@@ -7036,10 +7031,10 @@
         <v>0</v>
       </c>
       <c r="AN48" s="28" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="AO48" s="33" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:41" s="28" customFormat="1">
@@ -7047,7 +7042,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="C49" s="28">
         <v>2007</v>
@@ -7056,7 +7051,7 @@
         <v>2014</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="F49" s="28">
         <v>2004</v>
@@ -7170,10 +7165,10 @@
         <v>0</v>
       </c>
       <c r="AN49" s="28" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="AO49" s="33" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:41" s="28" customFormat="1">
@@ -7181,7 +7176,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="C50" s="28">
         <v>2007</v>
@@ -7190,7 +7185,7 @@
         <v>2014</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F50" s="28">
         <v>2004</v>
@@ -7304,10 +7299,10 @@
         <v>0</v>
       </c>
       <c r="AN50" s="28" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="AO50" s="33" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:41" s="28" customFormat="1">
@@ -7315,7 +7310,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="C51" s="28">
         <v>2007</v>
@@ -7324,7 +7319,7 @@
         <v>2014</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F51" s="28">
         <v>2004</v>
@@ -7438,10 +7433,10 @@
         <v>0</v>
       </c>
       <c r="AN51" s="28" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AO51" s="33" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:41" s="5" customFormat="1">
@@ -7606,7 +7601,6 @@
       <c r="A104" s="33"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -12675,7 +12669,7 @@
       </c>
       <c r="Y39" s="33">
         <f>generator_costs!AF41</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="33">
         <f>generator_costs!AG41</f>
@@ -12805,7 +12799,7 @@
       </c>
       <c r="Y40" s="33">
         <f>generator_costs!AF42</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="33">
         <f>generator_costs!AG42</f>
@@ -14019,7 +14013,6 @@
       <c r="A53" s="33"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -14042,7 +14035,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -14053,7 +14046,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>2010</v>
@@ -14071,7 +14064,7 @@
         <v>2026</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -15515,7 +15508,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -15538,15 +15530,15 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="22" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="22" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="22" customFormat="1">
@@ -15574,7 +15566,7 @@
         <v>3.3</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="E5" s="22"/>
     </row>
@@ -15727,7 +15719,6 @@
       <c r="E21" s="22"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/DatabasePrep/GeneratorInfo/generator_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_costs.xlsx
@@ -22,71 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="148">
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost Declination Rate (%/yr)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concentrating_PV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(in 2010 $)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$/Wp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost declination rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="149">
   <si>
     <t>Gas_Steam_Turbine_Cogen_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -205,74 +141,6 @@
     <t>Nuclear</t>
   </si>
   <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
-    <t>construction_time_years</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_Cogen_EP</t>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_Cogen_EP</t>
-  </si>
-  <si>
-    <t>connect_cost_generic_$2007_per_mw</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP_Trough_No_Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP_Trough_6h_Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Central_PV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction_cost_multipulier</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_o_m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_o_m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nuclear_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
   </si>
   <si>
@@ -358,67 +226,67 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Wind</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>price_and_dollar_year</t>
+    <t>CCGT_CCS_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>year_4_cost_fraction</t>
+    <t>Gas_Combustion_Turbine_Cogen_CCS_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>year_5_cost_fraction</t>
+    <t>Coal_Steam_Turbine_Cogen_CCS_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>year_6_cost_fraction</t>
+    <t>Gas_Steam_Turbine_Cogen_CCS_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fixed_o_m_$2007</t>
+    <t>CCGT_Cogen_CCS_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>heat_rate_mbtu_per_mwh</t>
+    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Commercial_PV</t>
+    <t>Cost Declination Rate (%/yr)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>min_build_year</t>
+    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Combustion_Turbine_Cogen_EP</t>
+    <t>Concentrating_PV</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Coal_Steam_Turbine_Cogen_EP</t>
+    <t>Solar</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ReEDs Sheet, also new wind params used for fixed O+M, forced outage rate</t>
+    <t>(in 2010 $)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$/Wp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost declination rate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -516,6 +384,74 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>construction_time_years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_Cogen_EP</t>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_Cogen_EP</t>
+  </si>
+  <si>
+    <t>connect_cost_generic_$2007_per_mw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_CCS_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_CCS_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP_Trough_No_Storage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP_Trough_6h_Storage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Central_PV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_cost_multipulier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>var_o_m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuclear_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Coal_Steam_Turbine_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -577,14 +513,83 @@
     <t>Coal_CCS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>ReEDs Sheet, storage effiency from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_and_dollar_year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>year_4_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_5_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_6_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m_$2007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat_rate_mbtu_per_mwh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commercial_PV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_build_year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, also new wind params used for fixed O+M, forced outage rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -629,7 +634,7 @@
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -651,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -996,8 +1001,8 @@
   <dimension ref="A1:AO104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF50" sqref="AF50"/>
+      <pane xSplit="2" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM19" sqref="AM19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1029,133 +1034,133 @@
   <sheetData>
     <row r="1" spans="1:41" s="33" customFormat="1">
       <c r="A1" s="34" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:41" s="33" customFormat="1"/>
     <row r="3" spans="1:41">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" t="s">
+        <v>143</v>
+      </c>
+      <c r="S3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" t="s">
-        <v>119</v>
-      </c>
-      <c r="N3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="AA3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF3" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG3" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO3" t="s">
         <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" t="s">
-        <v>100</v>
-      </c>
-      <c r="S3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF3" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG3" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ3" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK3" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN3" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1163,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C4" s="5">
         <v>2007</v>
@@ -1172,7 +1177,7 @@
         <v>2010</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="F4">
         <v>2004</v>
@@ -1284,7 +1289,7 @@
         <v>CCGT</v>
       </c>
       <c r="AO4" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1292,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
@@ -1301,7 +1306,7 @@
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="F5">
         <v>2004</v>
@@ -1413,7 +1418,7 @@
         <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="AO5" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:41" s="22" customFormat="1">
@@ -1421,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C6" s="22">
         <v>2007</v>
@@ -1430,7 +1435,7 @@
         <v>2010</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F6" s="22">
         <v>2010</v>
@@ -1543,7 +1548,7 @@
         <v>Concentrating_PV</v>
       </c>
       <c r="AO6" s="22" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1551,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="C7" s="5">
         <v>2007</v>
@@ -1560,7 +1565,7 @@
         <v>2010</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="F7">
         <v>2004</v>
@@ -1672,7 +1677,7 @@
         <v>Wind</v>
       </c>
       <c r="AO7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1680,7 +1685,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C8" s="5">
         <v>2007</v>
@@ -1689,7 +1694,7 @@
         <v>2010</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="F8">
         <v>2004</v>
@@ -1801,7 +1806,7 @@
         <v>Offshore_Wind</v>
       </c>
       <c r="AO8" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1809,7 +1814,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5">
         <v>2007</v>
@@ -1818,7 +1823,7 @@
         <v>2010</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>2009</v>
@@ -1931,7 +1936,7 @@
         <v>Residential_PV</v>
       </c>
       <c r="AO9" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:41" s="11" customFormat="1">
@@ -1939,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C10" s="11">
         <v>2007</v>
@@ -1948,7 +1953,7 @@
         <v>2012</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F10" s="11">
         <v>2010</v>
@@ -2060,7 +2065,7 @@
         <v>CSP_Trough_6h_Storage</v>
       </c>
       <c r="AO10" s="11" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -2068,7 +2073,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
@@ -2077,7 +2082,7 @@
         <v>2010</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>2007</v>
@@ -2189,7 +2194,7 @@
         <v>Bio_Gas</v>
       </c>
       <c r="AO11" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -2197,7 +2202,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C12" s="5">
         <v>2007</v>
@@ -2206,7 +2211,7 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="F12">
         <v>2004</v>
@@ -2318,7 +2323,7 @@
         <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="AO12" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2326,7 +2331,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
@@ -2335,7 +2340,7 @@
         <v>2012</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="F13">
         <v>2007</v>
@@ -2447,7 +2452,7 @@
         <v>Biomass_IGCC</v>
       </c>
       <c r="AO13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2455,7 +2460,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C14" s="5">
         <v>2007</v>
@@ -2464,7 +2469,7 @@
         <v>2010</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <v>2004</v>
@@ -2576,7 +2581,7 @@
         <v>Coal_IGCC</v>
       </c>
       <c r="AO14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2584,7 +2589,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5">
         <v>2007</v>
@@ -2593,7 +2598,7 @@
         <v>2010</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F15">
         <v>2004</v>
@@ -2705,7 +2710,7 @@
         <v>Coal_Steam_Turbine</v>
       </c>
       <c r="AO15" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2713,7 +2718,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5">
         <v>2007</v>
@@ -2722,7 +2727,7 @@
         <v>2010</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>2004</v>
@@ -2834,7 +2839,7 @@
         <v>Nuclear</v>
       </c>
       <c r="AO16" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2842,7 +2847,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C17" s="5">
         <v>2007</v>
@@ -2851,7 +2856,7 @@
         <v>2010</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F17">
         <v>2004</v>
@@ -2963,7 +2968,7 @@
         <v>Geothermal</v>
       </c>
       <c r="AO17" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2971,7 +2976,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C18" s="5">
         <v>2007</v>
@@ -2980,7 +2985,7 @@
         <v>2010</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F18" s="5">
         <v>2007</v>
@@ -3092,7 +3097,7 @@
         <v>Hydro_NonPumped</v>
       </c>
       <c r="AO18" s="5" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -3100,7 +3105,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C19" s="5">
         <v>2007</v>
@@ -3109,7 +3114,7 @@
         <v>2010</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F19" s="33">
         <v>2007</v>
@@ -3211,17 +3216,17 @@
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19" s="22" t="str">
         <f t="shared" si="3"/>
         <v>Hydro_Pumped</v>
       </c>
-      <c r="AO19" s="5" t="s">
-        <v>110</v>
+      <c r="AO19" s="33" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:41" s="18" customFormat="1">
@@ -3229,7 +3234,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C20" s="18">
         <v>2007</v>
@@ -3238,7 +3243,7 @@
         <v>2000</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="F20" s="18">
         <v>2007</v>
@@ -3350,7 +3355,7 @@
         <v>Gas_Combustion_Turbine_EP</v>
       </c>
       <c r="AO20" s="33" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:41" s="5" customFormat="1">
@@ -3358,7 +3363,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C21">
         <v>2007</v>
@@ -3367,7 +3372,7 @@
         <v>2000</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F21" s="33">
         <v>2007</v>
@@ -3479,7 +3484,7 @@
         <v>Coal_Steam_Turbine_EP</v>
       </c>
       <c r="AO21" s="33" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:41" s="5" customFormat="1">
@@ -3487,7 +3492,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C22" s="33">
         <v>2007</v>
@@ -3496,7 +3501,7 @@
         <v>2000</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="F22" s="33">
         <v>2007</v>
@@ -3608,7 +3613,7 @@
         <v>Gas_Steam_Turbine_EP</v>
       </c>
       <c r="AO22" s="33" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:41" s="5" customFormat="1">
@@ -3616,7 +3621,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="C23" s="33">
         <v>2007</v>
@@ -3625,7 +3630,7 @@
         <v>2000</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="F23" s="33">
         <v>2007</v>
@@ -3737,7 +3742,7 @@
         <v>CCGT_EP</v>
       </c>
       <c r="AO23" s="33" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:41" s="5" customFormat="1">
@@ -3745,7 +3750,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="C24" s="33">
         <v>2007</v>
@@ -3754,7 +3759,7 @@
         <v>2000</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F24" s="33">
         <v>2007</v>
@@ -3866,7 +3871,7 @@
         <v>Geothermal_EP</v>
       </c>
       <c r="AO24" s="33" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:41" s="5" customFormat="1">
@@ -3874,7 +3879,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C25" s="33">
         <v>2007</v>
@@ -3883,7 +3888,7 @@
         <v>2000</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F25" s="33">
         <v>2007</v>
@@ -3995,7 +4000,7 @@
         <v>Nuclear_EP</v>
       </c>
       <c r="AO25" s="33" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:41" s="18" customFormat="1">
@@ -4003,7 +4008,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C26" s="33">
         <v>2007</v>
@@ -4012,7 +4017,7 @@
         <v>2000</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F26" s="33">
         <v>2007</v>
@@ -4124,7 +4129,7 @@
         <v>Wind_EP</v>
       </c>
       <c r="AO26" s="33" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:41" s="33" customFormat="1">
@@ -4132,7 +4137,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C27" s="33">
         <v>2007</v>
@@ -4141,7 +4146,7 @@
         <v>2000</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F27" s="33">
         <v>2007</v>
@@ -4253,7 +4258,7 @@
         <v>Gas_Internal_Combustion_Engine_EP</v>
       </c>
       <c r="AO27" s="33" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:41" s="8" customFormat="1">
@@ -4261,7 +4266,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C28" s="8">
         <v>2007</v>
@@ -4270,7 +4275,7 @@
         <v>2010</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F28" s="8">
         <v>2009</v>
@@ -4382,7 +4387,7 @@
         <v>Commercial_PV</v>
       </c>
       <c r="AO28" s="9" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:41" s="8" customFormat="1">
@@ -4390,7 +4395,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C29" s="8">
         <v>2007</v>
@@ -4399,7 +4404,7 @@
         <v>2010</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F29" s="8">
         <v>2009</v>
@@ -4511,7 +4516,7 @@
         <v>Central_PV</v>
       </c>
       <c r="AO29" s="9" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:41" s="5" customFormat="1">
@@ -4519,7 +4524,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C30" s="5">
         <v>2007</v>
@@ -4528,7 +4533,7 @@
         <v>2010</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F30" s="5">
         <v>2010</v>
@@ -4640,7 +4645,7 @@
         <v>CSP_Trough_No_Storage</v>
       </c>
       <c r="AO30" s="9" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:41" s="9" customFormat="1" ht="15" customHeight="1">
@@ -4648,7 +4653,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C31" s="9">
         <v>2007</v>
@@ -4657,7 +4662,7 @@
         <v>2010</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F31" s="9">
         <v>2010</v>
@@ -4769,7 +4774,7 @@
         <v>Compressed_Air_Energy_Storage</v>
       </c>
       <c r="AO31" s="32" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:41" s="19" customFormat="1">
@@ -4777,7 +4782,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="C32" s="33">
         <v>2007</v>
@@ -4786,7 +4791,7 @@
         <v>2000</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="F32" s="19">
         <v>2007</v>
@@ -4903,7 +4908,7 @@
         <v>Gas_Combustion_Turbine_Cogen_EP</v>
       </c>
       <c r="AO32" s="33" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:41" s="19" customFormat="1">
@@ -4911,7 +4916,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="C33" s="33">
         <v>2007</v>
@@ -4920,7 +4925,7 @@
         <v>2000</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F33" s="33">
         <v>2007</v>
@@ -5037,7 +5042,7 @@
         <v>Coal_Steam_Turbine_Cogen_EP</v>
       </c>
       <c r="AO33" s="33" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:41" s="19" customFormat="1">
@@ -5045,7 +5050,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C34" s="33">
         <v>2007</v>
@@ -5054,7 +5059,7 @@
         <v>2000</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="F34" s="33">
         <v>2007</v>
@@ -5171,7 +5176,7 @@
         <v>Gas_Steam_Turbine_Cogen_EP</v>
       </c>
       <c r="AO34" s="33" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:41" s="19" customFormat="1">
@@ -5179,7 +5184,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C35" s="33">
         <v>2007</v>
@@ -5188,7 +5193,7 @@
         <v>2000</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="F35" s="33">
         <v>2007</v>
@@ -5305,7 +5310,7 @@
         <v>CCGT_Cogen_EP</v>
       </c>
       <c r="AO35" s="33" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:41" s="23" customFormat="1">
@@ -5313,7 +5318,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C36" s="23">
         <v>2007</v>
@@ -5322,7 +5327,7 @@
         <v>2010</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="F36" s="23">
         <v>2004</v>
@@ -5434,7 +5439,7 @@
         <v>Battery_Storage</v>
       </c>
       <c r="AO36" s="23" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:41" s="26" customFormat="1">
@@ -5442,7 +5447,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C37" s="26">
         <v>2007</v>
@@ -5451,7 +5456,7 @@
         <v>2014</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F37" s="26">
         <v>2004</v>
@@ -5568,7 +5573,7 @@
         <v>CCGT_CCS</v>
       </c>
       <c r="AO37" s="33" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:41" s="26" customFormat="1">
@@ -5576,7 +5581,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="C38" s="26">
         <v>2007</v>
@@ -5585,7 +5590,7 @@
         <v>2014</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F38" s="26">
         <v>2004</v>
@@ -5703,7 +5708,7 @@
         <v>Gas_Combustion_Turbine_CCS</v>
       </c>
       <c r="AO38" s="33" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:41" s="26" customFormat="1">
@@ -5711,7 +5716,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C39" s="26">
         <v>2007</v>
@@ -5720,7 +5725,7 @@
         <v>2014</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="F39" s="26">
         <v>2004</v>
@@ -5838,7 +5843,7 @@
         <v>Bio_Gas_CCS</v>
       </c>
       <c r="AO39" s="33" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:41" s="26" customFormat="1">
@@ -5846,7 +5851,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C40" s="26">
         <v>2007</v>
@@ -5855,7 +5860,7 @@
         <v>2014</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F40" s="26">
         <v>2004</v>
@@ -5973,7 +5978,7 @@
         <v>Biomass_IGCC_CCS</v>
       </c>
       <c r="AO40" s="33" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:41" s="26" customFormat="1">
@@ -5981,7 +5986,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C41" s="26">
         <v>2007</v>
@@ -5990,7 +5995,7 @@
         <v>2014</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F41" s="26">
         <v>2004</v>
@@ -6106,7 +6111,7 @@
         <v>Coal_IGCC_CCS</v>
       </c>
       <c r="AO41" s="33" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:41" s="26" customFormat="1">
@@ -6114,7 +6119,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C42" s="26">
         <v>2007</v>
@@ -6123,7 +6128,7 @@
         <v>2014</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F42" s="26">
         <v>2004</v>
@@ -6241,7 +6246,7 @@
         <v>Coal_Steam_Turbine_CCS</v>
       </c>
       <c r="AO42" s="33" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:41" s="33" customFormat="1">
@@ -6249,7 +6254,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C43" s="33">
         <v>2007</v>
@@ -6258,7 +6263,7 @@
         <v>2000</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="F43" s="33">
         <v>2007</v>
@@ -6374,7 +6379,7 @@
         <v>Gas_Internal_Combustion_Engine_Cogen_EP</v>
       </c>
       <c r="AO43" s="33" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:41" s="28" customFormat="1">
@@ -6382,7 +6387,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C44" s="28">
         <v>2007</v>
@@ -6391,7 +6396,7 @@
         <v>2014</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F44" s="28">
         <v>2004</v>
@@ -6503,10 +6508,10 @@
         <v>0</v>
       </c>
       <c r="AN44" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO44" t="s">
         <v>76</v>
-      </c>
-      <c r="AO44" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:41" s="28" customFormat="1">
@@ -6514,7 +6519,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="C45" s="28">
         <v>2007</v>
@@ -6523,7 +6528,7 @@
         <v>2014</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F45" s="28">
         <v>2004</v>
@@ -6634,10 +6639,10 @@
         <v>0</v>
       </c>
       <c r="AN45" s="28" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AO45" s="33" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:41" s="28" customFormat="1">
@@ -6645,7 +6650,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C46" s="28">
         <v>2007</v>
@@ -6654,7 +6659,7 @@
         <v>2014</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F46" s="28">
         <v>2004</v>
@@ -6766,10 +6771,10 @@
         <v>0</v>
       </c>
       <c r="AN46" s="28" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="AO46" s="33" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:41" s="28" customFormat="1">
@@ -6777,7 +6782,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C47" s="28">
         <v>2007</v>
@@ -6786,7 +6791,7 @@
         <v>2014</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F47" s="28">
         <v>2004</v>
@@ -6897,10 +6902,10 @@
         <v>0</v>
       </c>
       <c r="AN47" s="28" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AO47" s="33" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:41" s="28" customFormat="1">
@@ -6908,7 +6913,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C48" s="28">
         <v>2007</v>
@@ -6917,7 +6922,7 @@
         <v>2014</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F48" s="28">
         <v>2004</v>
@@ -7031,10 +7036,10 @@
         <v>0</v>
       </c>
       <c r="AN48" s="28" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AO48" s="33" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:41" s="28" customFormat="1">
@@ -7042,7 +7047,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C49" s="28">
         <v>2007</v>
@@ -7051,7 +7056,7 @@
         <v>2014</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F49" s="28">
         <v>2004</v>
@@ -7165,10 +7170,10 @@
         <v>0</v>
       </c>
       <c r="AN49" s="28" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="AO49" s="33" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:41" s="28" customFormat="1">
@@ -7176,7 +7181,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C50" s="28">
         <v>2007</v>
@@ -7185,7 +7190,7 @@
         <v>2014</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F50" s="28">
         <v>2004</v>
@@ -7299,10 +7304,10 @@
         <v>0</v>
       </c>
       <c r="AN50" s="28" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="AO50" s="33" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:41" s="28" customFormat="1">
@@ -7310,7 +7315,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C51" s="28">
         <v>2007</v>
@@ -7319,7 +7324,7 @@
         <v>2014</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F51" s="28">
         <v>2004</v>
@@ -7433,10 +7438,10 @@
         <v>0</v>
       </c>
       <c r="AN51" s="28" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="AO51" s="33" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:41" s="5" customFormat="1">
@@ -9833,11 +9838,11 @@
       </c>
       <c r="AE17" s="33">
         <f>generator_costs!AL19</f>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="AF17" s="33">
         <f>generator_costs!AM19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -14035,7 +14040,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -14046,7 +14051,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>2010</v>
@@ -14064,7 +14069,7 @@
         <v>2026</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -15530,15 +15535,15 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="22" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="22" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="22" customFormat="1">
@@ -15566,7 +15571,7 @@
         <v>3.3</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E5" s="22"/>
     </row>

--- a/DatabasePrep/GeneratorInfo/generator_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_costs.xlsx
@@ -23,6 +23,386 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="149">
+  <si>
+    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from DOE solar program costs on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, storage effiency from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_and_dollar_year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>year_4_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_5_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_6_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m_$2007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat_rate_mbtu_per_mwh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commercial_PV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_build_year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, also new wind params used for fixed O+M, forced outage rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
+  </si>
+  <si>
+    <t>storage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offshore_Wind</t>
+  </si>
+  <si>
+    <t>Bio_Gas</t>
+  </si>
+  <si>
+    <t>year_1_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_2_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_3_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery_Storage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tech_name_again</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>construction_time_years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_Cogen_EP</t>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_Cogen_EP</t>
+  </si>
+  <si>
+    <t>connect_cost_generic_$2007_per_mw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_CCS_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_CCS_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP_Trough_No_Storage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP_Trough_6h_Storage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Central_PV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_cost_multipulier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>var_o_m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuclear_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Solid_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Hydro_NonPumped</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydro_Pumped</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
+  </si>
+  <si>
+    <t>Biomass_IGCC</t>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
+  </si>
+  <si>
+    <t>Coal_IGCC</t>
+  </si>
+  <si>
+    <t>can_build_new</t>
+  </si>
+  <si>
+    <t>forced_outage_rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduled_outage_rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>note: we assume that cogen plants have 3/4 of the capital cost of a pure-electric plant, (to reflect shared infrastructure for cogen), but the same operating costs.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatchable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cogen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, took CoalOldScr costs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, took OGS (Oil Gas Steam)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, set lifetime to 60 years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_CCS_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_Cogen_CCS_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_Cogen_CCS_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_Cogen_CCS_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_Cogen_CCS_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost Declination Rate (%/yr)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concentrating_PV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(in 2010 $)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$/Wp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost declination rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, 75 CapEx of non-cogen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geothermal_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT</t>
+  </si>
+  <si>
+    <t>ReEDs Sheet</t>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine</t>
+  </si>
+  <si>
+    <t>CCGT_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Gas_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass_IGCC_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_IGCC_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>overnight_cost_$2007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>Gas_Steam_Turbine_Cogen_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -201,395 +581,18 @@
     <t>Gas_Internal_Combustion_Engine_Cogen_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
-  <si>
-    <t>note: we assume that cogen plants have 3/4 of the capital cost of a pure-electric plant, (to reflect shared infrastructure for cogen), but the same operating costs.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dispatchable</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cogen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, took CoalOldScr costs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, took OGS (Oil Gas Steam)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, set lifetime to 60 years</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost Declination Rate (%/yr)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concentrating_PV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(in 2010 $)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$/Wp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost declination rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, 75 CapEx of non-cogen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geothermal_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>ReEDs Sheet</t>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine</t>
-  </si>
-  <si>
-    <t>CCGT_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Gas_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass_IGCC_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_IGCC_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>overnight_cost_$2007</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
-  </si>
-  <si>
-    <t>storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offshore_Wind</t>
-  </si>
-  <si>
-    <t>Bio_Gas</t>
-  </si>
-  <si>
-    <t>year_1_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_2_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_3_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battery_Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tech_name_again</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
-    <t>construction_time_years</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_Cogen_EP</t>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_Cogen_EP</t>
-  </si>
-  <si>
-    <t>connect_cost_generic_$2007_per_mw</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP_Trough_No_Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP_Trough_6h_Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Central_PV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction_cost_multipulier</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_o_m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_o_m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nuclear_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Solid_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Hydro_NonPumped</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hydro_Pumped</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
-  </si>
-  <si>
-    <t>Biomass_IGCC</t>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
-  </si>
-  <si>
-    <t>Coal_IGCC</t>
-  </si>
-  <si>
-    <t>can_build_new</t>
-  </si>
-  <si>
-    <t>forced_outage_rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>scheduled_outage_rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from DOE solar program costs on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, storage effiency from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>price_and_dollar_year</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>year_4_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_5_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_6_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_o_m_$2007</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>heat_rate_mbtu_per_mwh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commercial_PV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_build_year</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, also new wind params used for fixed O+M, forced outage rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -634,7 +637,7 @@
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -656,7 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1002,7 +1005,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM19" sqref="AM19"/>
+      <selection pane="topRight" activeCell="AK24" sqref="AK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1034,133 +1037,133 @@
   <sheetData>
     <row r="1" spans="1:41" s="33" customFormat="1">
       <c r="A1" s="34" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:41" s="33" customFormat="1"/>
     <row r="3" spans="1:41">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="Z3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF3" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ3" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>101</v>
-      </c>
-      <c r="R3" t="s">
-        <v>143</v>
-      </c>
-      <c r="S3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF3" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG3" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK3" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="AL3" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="AM3" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="AN3" s="12" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1168,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C4" s="5">
         <v>2007</v>
@@ -1177,7 +1180,7 @@
         <v>2010</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>2004</v>
@@ -1289,7 +1292,7 @@
         <v>CCGT</v>
       </c>
       <c r="AO4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1297,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
@@ -1306,7 +1309,7 @@
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>2004</v>
@@ -1418,7 +1421,7 @@
         <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="AO5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:41" s="22" customFormat="1">
@@ -1426,7 +1429,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C6" s="22">
         <v>2007</v>
@@ -1435,7 +1438,7 @@
         <v>2010</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F6" s="22">
         <v>2010</v>
@@ -1548,7 +1551,7 @@
         <v>Concentrating_PV</v>
       </c>
       <c r="AO6" s="22" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1556,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C7" s="5">
         <v>2007</v>
@@ -1565,7 +1568,7 @@
         <v>2010</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>2004</v>
@@ -1677,7 +1680,7 @@
         <v>Wind</v>
       </c>
       <c r="AO7" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1685,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5">
         <v>2007</v>
@@ -1694,7 +1697,7 @@
         <v>2010</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>2004</v>
@@ -1806,7 +1809,7 @@
         <v>Offshore_Wind</v>
       </c>
       <c r="AO8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1814,7 +1817,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="C9" s="5">
         <v>2007</v>
@@ -1823,7 +1826,7 @@
         <v>2010</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="F9">
         <v>2009</v>
@@ -1936,7 +1939,7 @@
         <v>Residential_PV</v>
       </c>
       <c r="AO9" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:41" s="11" customFormat="1">
@@ -1944,7 +1947,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="C10" s="11">
         <v>2007</v>
@@ -1953,7 +1956,7 @@
         <v>2012</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="F10" s="11">
         <v>2010</v>
@@ -2065,7 +2068,7 @@
         <v>CSP_Trough_6h_Storage</v>
       </c>
       <c r="AO10" s="11" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -2073,7 +2076,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
@@ -2082,7 +2085,7 @@
         <v>2010</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="F11">
         <v>2007</v>
@@ -2194,7 +2197,7 @@
         <v>Bio_Gas</v>
       </c>
       <c r="AO11" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -2202,7 +2205,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C12" s="5">
         <v>2007</v>
@@ -2211,7 +2214,7 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="F12">
         <v>2004</v>
@@ -2323,7 +2326,7 @@
         <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="AO12" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2331,7 +2334,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
@@ -2340,7 +2343,7 @@
         <v>2012</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="F13">
         <v>2007</v>
@@ -2452,7 +2455,7 @@
         <v>Biomass_IGCC</v>
       </c>
       <c r="AO13" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2460,7 +2463,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5">
         <v>2007</v>
@@ -2469,7 +2472,7 @@
         <v>2010</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="F14">
         <v>2004</v>
@@ -2581,7 +2584,7 @@
         <v>Coal_IGCC</v>
       </c>
       <c r="AO14" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2589,7 +2592,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="C15" s="5">
         <v>2007</v>
@@ -2598,7 +2601,7 @@
         <v>2010</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="F15">
         <v>2004</v>
@@ -2710,7 +2713,7 @@
         <v>Coal_Steam_Turbine</v>
       </c>
       <c r="AO15" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2718,7 +2721,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="C16" s="5">
         <v>2007</v>
@@ -2727,7 +2730,7 @@
         <v>2010</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="F16">
         <v>2004</v>
@@ -2839,7 +2842,7 @@
         <v>Nuclear</v>
       </c>
       <c r="AO16" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2847,7 +2850,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5">
         <v>2007</v>
@@ -2856,7 +2859,7 @@
         <v>2010</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="F17">
         <v>2004</v>
@@ -2968,7 +2971,7 @@
         <v>Geothermal</v>
       </c>
       <c r="AO17" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2976,7 +2979,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5">
         <v>2007</v>
@@ -2985,7 +2988,7 @@
         <v>2010</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="F18" s="5">
         <v>2007</v>
@@ -3097,7 +3100,7 @@
         <v>Hydro_NonPumped</v>
       </c>
       <c r="AO18" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -3105,7 +3108,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5">
         <v>2007</v>
@@ -3114,7 +3117,7 @@
         <v>2010</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="F19" s="33">
         <v>2007</v>
@@ -3213,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19">
         <v>0.74</v>
@@ -3226,7 +3229,7 @@
         <v>Hydro_Pumped</v>
       </c>
       <c r="AO19" s="33" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:41" s="18" customFormat="1">
@@ -3234,7 +3237,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="C20" s="18">
         <v>2007</v>
@@ -3243,7 +3246,7 @@
         <v>2000</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="F20" s="18">
         <v>2007</v>
@@ -3355,7 +3358,7 @@
         <v>Gas_Combustion_Turbine_EP</v>
       </c>
       <c r="AO20" s="33" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:41" s="5" customFormat="1">
@@ -3363,7 +3366,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>2007</v>
@@ -3372,7 +3375,7 @@
         <v>2000</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="F21" s="33">
         <v>2007</v>
@@ -3484,7 +3487,7 @@
         <v>Coal_Steam_Turbine_EP</v>
       </c>
       <c r="AO21" s="33" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:41" s="5" customFormat="1">
@@ -3492,7 +3495,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="C22" s="33">
         <v>2007</v>
@@ -3501,7 +3504,7 @@
         <v>2000</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="F22" s="33">
         <v>2007</v>
@@ -3613,7 +3616,7 @@
         <v>Gas_Steam_Turbine_EP</v>
       </c>
       <c r="AO22" s="33" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:41" s="5" customFormat="1">
@@ -3621,7 +3624,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="C23" s="33">
         <v>2007</v>
@@ -3630,7 +3633,7 @@
         <v>2000</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="F23" s="33">
         <v>2007</v>
@@ -3742,7 +3745,7 @@
         <v>CCGT_EP</v>
       </c>
       <c r="AO23" s="33" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:41" s="5" customFormat="1">
@@ -3750,7 +3753,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C24" s="33">
         <v>2007</v>
@@ -3759,7 +3762,7 @@
         <v>2000</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="F24" s="33">
         <v>2007</v>
@@ -3871,7 +3874,7 @@
         <v>Geothermal_EP</v>
       </c>
       <c r="AO24" s="33" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:41" s="5" customFormat="1">
@@ -3879,7 +3882,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="C25" s="33">
         <v>2007</v>
@@ -3888,7 +3891,7 @@
         <v>2000</v>
       </c>
       <c r="E25" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="F25" s="33">
         <v>2007</v>
@@ -4000,7 +4003,7 @@
         <v>Nuclear_EP</v>
       </c>
       <c r="AO25" s="33" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:41" s="18" customFormat="1">
@@ -4008,7 +4011,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="C26" s="33">
         <v>2007</v>
@@ -4017,7 +4020,7 @@
         <v>2000</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F26" s="33">
         <v>2007</v>
@@ -4129,7 +4132,7 @@
         <v>Wind_EP</v>
       </c>
       <c r="AO26" s="33" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:41" s="33" customFormat="1">
@@ -4137,7 +4140,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="C27" s="33">
         <v>2007</v>
@@ -4146,7 +4149,7 @@
         <v>2000</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="F27" s="33">
         <v>2007</v>
@@ -4258,7 +4261,7 @@
         <v>Gas_Internal_Combustion_Engine_EP</v>
       </c>
       <c r="AO27" s="33" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:41" s="8" customFormat="1">
@@ -4266,7 +4269,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="C28" s="8">
         <v>2007</v>
@@ -4275,7 +4278,7 @@
         <v>2010</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="F28" s="8">
         <v>2009</v>
@@ -4387,7 +4390,7 @@
         <v>Commercial_PV</v>
       </c>
       <c r="AO28" s="9" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:41" s="8" customFormat="1">
@@ -4395,7 +4398,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C29" s="8">
         <v>2007</v>
@@ -4404,7 +4407,7 @@
         <v>2010</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="F29" s="8">
         <v>2009</v>
@@ -4516,7 +4519,7 @@
         <v>Central_PV</v>
       </c>
       <c r="AO29" s="9" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:41" s="5" customFormat="1">
@@ -4524,7 +4527,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5">
         <v>2007</v>
@@ -4533,7 +4536,7 @@
         <v>2010</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="F30" s="5">
         <v>2010</v>
@@ -4645,7 +4648,7 @@
         <v>CSP_Trough_No_Storage</v>
       </c>
       <c r="AO30" s="9" t="s">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:41" s="9" customFormat="1" ht="15" customHeight="1">
@@ -4653,7 +4656,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="C31" s="9">
         <v>2007</v>
@@ -4662,7 +4665,7 @@
         <v>2010</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="F31" s="9">
         <v>2010</v>
@@ -4774,7 +4777,7 @@
         <v>Compressed_Air_Energy_Storage</v>
       </c>
       <c r="AO31" s="32" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:41" s="19" customFormat="1">
@@ -4782,7 +4785,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="C32" s="33">
         <v>2007</v>
@@ -4791,7 +4794,7 @@
         <v>2000</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="F32" s="19">
         <v>2007</v>
@@ -4908,7 +4911,7 @@
         <v>Gas_Combustion_Turbine_Cogen_EP</v>
       </c>
       <c r="AO32" s="33" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:41" s="19" customFormat="1">
@@ -4916,7 +4919,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="C33" s="33">
         <v>2007</v>
@@ -4925,7 +4928,7 @@
         <v>2000</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="F33" s="33">
         <v>2007</v>
@@ -5042,7 +5045,7 @@
         <v>Coal_Steam_Turbine_Cogen_EP</v>
       </c>
       <c r="AO33" s="33" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:41" s="19" customFormat="1">
@@ -5050,7 +5053,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C34" s="33">
         <v>2007</v>
@@ -5059,7 +5062,7 @@
         <v>2000</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="F34" s="33">
         <v>2007</v>
@@ -5176,7 +5179,7 @@
         <v>Gas_Steam_Turbine_Cogen_EP</v>
       </c>
       <c r="AO34" s="33" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:41" s="19" customFormat="1">
@@ -5184,7 +5187,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C35" s="33">
         <v>2007</v>
@@ -5193,7 +5196,7 @@
         <v>2000</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="F35" s="33">
         <v>2007</v>
@@ -5310,7 +5313,7 @@
         <v>CCGT_Cogen_EP</v>
       </c>
       <c r="AO35" s="33" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:41" s="23" customFormat="1">
@@ -5318,7 +5321,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="C36" s="23">
         <v>2007</v>
@@ -5327,7 +5330,7 @@
         <v>2010</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="F36" s="23">
         <v>2004</v>
@@ -5439,7 +5442,7 @@
         <v>Battery_Storage</v>
       </c>
       <c r="AO36" s="23" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:41" s="26" customFormat="1">
@@ -5447,7 +5450,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C37" s="26">
         <v>2007</v>
@@ -5456,7 +5459,7 @@
         <v>2014</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F37" s="26">
         <v>2004</v>
@@ -5573,7 +5576,7 @@
         <v>CCGT_CCS</v>
       </c>
       <c r="AO37" s="33" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:41" s="26" customFormat="1">
@@ -5581,7 +5584,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C38" s="26">
         <v>2007</v>
@@ -5590,7 +5593,7 @@
         <v>2014</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F38" s="26">
         <v>2004</v>
@@ -5708,7 +5711,7 @@
         <v>Gas_Combustion_Turbine_CCS</v>
       </c>
       <c r="AO38" s="33" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:41" s="26" customFormat="1">
@@ -5716,7 +5719,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C39" s="26">
         <v>2007</v>
@@ -5725,7 +5728,7 @@
         <v>2014</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F39" s="26">
         <v>2004</v>
@@ -5843,7 +5846,7 @@
         <v>Bio_Gas_CCS</v>
       </c>
       <c r="AO39" s="33" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:41" s="26" customFormat="1">
@@ -5851,7 +5854,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C40" s="26">
         <v>2007</v>
@@ -5860,7 +5863,7 @@
         <v>2014</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="F40" s="26">
         <v>2004</v>
@@ -5978,7 +5981,7 @@
         <v>Biomass_IGCC_CCS</v>
       </c>
       <c r="AO40" s="33" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:41" s="26" customFormat="1">
@@ -5986,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C41" s="26">
         <v>2007</v>
@@ -5995,7 +5998,7 @@
         <v>2014</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="F41" s="26">
         <v>2004</v>
@@ -6111,7 +6114,7 @@
         <v>Coal_IGCC_CCS</v>
       </c>
       <c r="AO41" s="33" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:41" s="26" customFormat="1">
@@ -6119,7 +6122,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C42" s="26">
         <v>2007</v>
@@ -6128,7 +6131,7 @@
         <v>2014</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="F42" s="26">
         <v>2004</v>
@@ -6246,7 +6249,7 @@
         <v>Coal_Steam_Turbine_CCS</v>
       </c>
       <c r="AO42" s="33" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:41" s="33" customFormat="1">
@@ -6254,7 +6257,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="C43" s="33">
         <v>2007</v>
@@ -6263,7 +6266,7 @@
         <v>2000</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="F43" s="33">
         <v>2007</v>
@@ -6379,7 +6382,7 @@
         <v>Gas_Internal_Combustion_Engine_Cogen_EP</v>
       </c>
       <c r="AO43" s="33" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:41" s="28" customFormat="1">
@@ -6387,7 +6390,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="C44" s="28">
         <v>2007</v>
@@ -6396,7 +6399,7 @@
         <v>2014</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F44" s="28">
         <v>2004</v>
@@ -6508,10 +6511,10 @@
         <v>0</v>
       </c>
       <c r="AN44" s="28" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="AO44" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:41" s="28" customFormat="1">
@@ -6519,7 +6522,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="C45" s="28">
         <v>2007</v>
@@ -6528,7 +6531,7 @@
         <v>2014</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="F45" s="28">
         <v>2004</v>
@@ -6639,10 +6642,10 @@
         <v>0</v>
       </c>
       <c r="AN45" s="28" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="AO45" s="33" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:41" s="28" customFormat="1">
@@ -6650,7 +6653,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="C46" s="28">
         <v>2007</v>
@@ -6659,7 +6662,7 @@
         <v>2014</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F46" s="28">
         <v>2004</v>
@@ -6771,10 +6774,10 @@
         <v>0</v>
       </c>
       <c r="AN46" s="28" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AO46" s="33" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:41" s="28" customFormat="1">
@@ -6782,7 +6785,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C47" s="28">
         <v>2007</v>
@@ -6791,7 +6794,7 @@
         <v>2014</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F47" s="28">
         <v>2004</v>
@@ -6902,10 +6905,10 @@
         <v>0</v>
       </c>
       <c r="AN47" s="28" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="AO47" s="33" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:41" s="28" customFormat="1">
@@ -6913,7 +6916,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C48" s="28">
         <v>2007</v>
@@ -6922,7 +6925,7 @@
         <v>2014</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F48" s="28">
         <v>2004</v>
@@ -7036,10 +7039,10 @@
         <v>0</v>
       </c>
       <c r="AN48" s="28" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="AO48" s="33" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:41" s="28" customFormat="1">
@@ -7047,7 +7050,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C49" s="28">
         <v>2007</v>
@@ -7056,7 +7059,7 @@
         <v>2014</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="F49" s="28">
         <v>2004</v>
@@ -7170,10 +7173,10 @@
         <v>0</v>
       </c>
       <c r="AN49" s="28" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="AO49" s="33" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:41" s="28" customFormat="1">
@@ -7181,7 +7184,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C50" s="28">
         <v>2007</v>
@@ -7190,7 +7193,7 @@
         <v>2014</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F50" s="28">
         <v>2004</v>
@@ -7304,10 +7307,10 @@
         <v>0</v>
       </c>
       <c r="AN50" s="28" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AO50" s="33" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:41" s="28" customFormat="1">
@@ -7315,7 +7318,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C51" s="28">
         <v>2007</v>
@@ -7324,7 +7327,7 @@
         <v>2014</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F51" s="28">
         <v>2004</v>
@@ -7438,10 +7441,10 @@
         <v>0</v>
       </c>
       <c r="AN51" s="28" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="AO51" s="33" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:41" s="5" customFormat="1">
@@ -7606,6 +7609,7 @@
       <c r="A104" s="33"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -9834,7 +9838,7 @@
       </c>
       <c r="AD17" s="33">
         <f>generator_costs!AK19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="33">
         <f>generator_costs!AL19</f>
@@ -14018,6 +14022,7 @@
       <c r="A53" s="33"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -14040,7 +14045,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -14051,7 +14056,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>2010</v>
@@ -14069,7 +14074,7 @@
         <v>2026</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -15513,6 +15518,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -15535,15 +15541,15 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="22" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="22" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="22" customFormat="1">
@@ -15571,7 +15577,7 @@
         <v>3.3</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E5" s="22"/>
     </row>
@@ -15724,6 +15730,7 @@
       <c r="E21" s="22"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/DatabasePrep/GeneratorInfo/generator_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_costs.xlsx
@@ -24,15 +24,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="149">
   <si>
-    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from DOE solar program costs on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
+    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from Black and Veach on ReEDs sheet.  Most places put VarOM at 0, so this was done here</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Coal_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, storage effiency from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39</t>
+    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Black and Veach ReEDs sheet.  Most places put VarOM at 0, so this was done here</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -154,61 +150,6 @@
     <t>Gas_Steam_Turbine_Cogen_EP</t>
   </si>
   <si>
-    <t>connect_cost_generic_$2007_per_mw</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Mark Mehos estimate on ReEDs sheet - took 2020 fixed OM value.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP_Trough_No_Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSP_Trough_6h_Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Central_PV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction_cost_multipulier</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_o_m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_o_m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nuclear_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Coal_Steam_Turbine_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -311,51 +252,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
+    <t>Coal_CCS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Declination Rate (%/yr)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concentrating_PV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(in 2010 $)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$/Wp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost declination rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, 75 CapEx of non-cogen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geothermal_EP</t>
+    <t>ReEDs Sheet, storage effiency from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -472,6 +373,57 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>connect_cost_generic_$2007_per_mw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_CCS_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_CCS_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP_Trough_No_Storage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSP_Trough_6h_Storage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Central_PV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_cost_multipulier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>var_o_m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuclear_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>interest_between_price_year_and_cost_year</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -581,18 +533,68 @@
     <t>Gas_Internal_Combustion_Engine_Cogen_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost Declination Rate (%/yr)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concentrating_PV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(in 2010 $)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$/Wp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost declination rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, 75 CapEx of non-cogen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geothermal_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="8">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -637,7 +639,7 @@
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -659,7 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1004,8 +1006,8 @@
   <dimension ref="A1:AO104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK24" sqref="AK24"/>
+      <pane xSplit="2" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1037,133 +1039,133 @@
   <sheetData>
     <row r="1" spans="1:41" s="33" customFormat="1">
       <c r="A1" s="34" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:41" s="33" customFormat="1"/>
     <row r="3" spans="1:41">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF3" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG3" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI3" t="s">
         <v>45</v>
       </c>
-      <c r="L3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AJ3" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO3" t="s">
         <v>112</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF3" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG3" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ3" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1171,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C4" s="5">
         <v>2007</v>
@@ -1180,7 +1182,7 @@
         <v>2010</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="F4">
         <v>2004</v>
@@ -1292,7 +1294,7 @@
         <v>CCGT</v>
       </c>
       <c r="AO4" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1300,7 +1302,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
@@ -1309,7 +1311,7 @@
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="F5">
         <v>2004</v>
@@ -1421,7 +1423,7 @@
         <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="AO5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:41" s="22" customFormat="1">
@@ -1429,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="C6" s="22">
         <v>2007</v>
@@ -1438,7 +1440,7 @@
         <v>2010</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="F6" s="22">
         <v>2010</v>
@@ -1551,7 +1553,7 @@
         <v>Concentrating_PV</v>
       </c>
       <c r="AO6" s="22" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1559,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C7" s="5">
         <v>2007</v>
@@ -1568,7 +1570,7 @@
         <v>2010</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>2004</v>
@@ -1680,7 +1682,7 @@
         <v>Wind</v>
       </c>
       <c r="AO7" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1688,7 +1690,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5">
         <v>2007</v>
@@ -1697,7 +1699,7 @@
         <v>2010</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>2004</v>
@@ -1809,7 +1811,7 @@
         <v>Offshore_Wind</v>
       </c>
       <c r="AO8" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1817,7 +1819,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C9" s="5">
         <v>2007</v>
@@ -1826,7 +1828,7 @@
         <v>2010</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F9">
         <v>2009</v>
@@ -1939,7 +1941,7 @@
         <v>Residential_PV</v>
       </c>
       <c r="AO9" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:41" s="11" customFormat="1">
@@ -1947,7 +1949,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C10" s="11">
         <v>2007</v>
@@ -1956,7 +1958,7 @@
         <v>2012</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F10" s="11">
         <v>2010</v>
@@ -1974,25 +1976,25 @@
         <v>1.05</v>
       </c>
       <c r="K10" s="11">
-        <v>47820</v>
+        <v>49906</v>
       </c>
       <c r="L10" s="11">
         <v>0</v>
       </c>
       <c r="M10" s="21">
         <f t="shared" si="0"/>
-        <v>7935139.1551307421</v>
+        <v>7098171.79151126</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" ref="N10" si="4">K10*G10</f>
-        <v>46146.299999999996</v>
+        <v>48159.29</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" ref="O10" si="5">L10*G10</f>
         <v>0</v>
       </c>
       <c r="P10" s="11">
-        <v>-4.4999999999999998E-2</v>
+        <v>-8.8500000000000002E-3</v>
       </c>
       <c r="Q10" s="11">
         <v>65639</v>
@@ -2067,8 +2069,8 @@
         <f t="shared" si="3"/>
         <v>CSP_Trough_6h_Storage</v>
       </c>
-      <c r="AO10" s="11" t="s">
-        <v>39</v>
+      <c r="AO10" s="33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -2076,7 +2078,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
@@ -2085,7 +2087,7 @@
         <v>2010</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F11">
         <v>2007</v>
@@ -2197,7 +2199,7 @@
         <v>Bio_Gas</v>
       </c>
       <c r="AO11" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -2205,7 +2207,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5">
         <v>2007</v>
@@ -2214,7 +2216,7 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F12">
         <v>2004</v>
@@ -2326,7 +2328,7 @@
         <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="AO12" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2334,7 +2336,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
@@ -2343,7 +2345,7 @@
         <v>2012</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F13">
         <v>2007</v>
@@ -2455,7 +2457,7 @@
         <v>Biomass_IGCC</v>
       </c>
       <c r="AO13" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2463,7 +2465,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5">
         <v>2007</v>
@@ -2472,7 +2474,7 @@
         <v>2010</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="F14">
         <v>2004</v>
@@ -2584,7 +2586,7 @@
         <v>Coal_IGCC</v>
       </c>
       <c r="AO14" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2592,7 +2594,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C15" s="5">
         <v>2007</v>
@@ -2601,7 +2603,7 @@
         <v>2010</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="F15">
         <v>2004</v>
@@ -2713,7 +2715,7 @@
         <v>Coal_Steam_Turbine</v>
       </c>
       <c r="AO15" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2721,7 +2723,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C16" s="5">
         <v>2007</v>
@@ -2730,7 +2732,7 @@
         <v>2010</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="F16">
         <v>2004</v>
@@ -2842,7 +2844,7 @@
         <v>Nuclear</v>
       </c>
       <c r="AO16" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2850,7 +2852,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5">
         <v>2007</v>
@@ -2859,7 +2861,7 @@
         <v>2010</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F17">
         <v>2004</v>
@@ -2971,7 +2973,7 @@
         <v>Geothermal</v>
       </c>
       <c r="AO17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2979,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5">
         <v>2007</v>
@@ -2988,7 +2990,7 @@
         <v>2010</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F18" s="5">
         <v>2007</v>
@@ -3100,7 +3102,7 @@
         <v>Hydro_NonPumped</v>
       </c>
       <c r="AO18" s="5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -3108,7 +3110,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5">
         <v>2007</v>
@@ -3117,7 +3119,7 @@
         <v>2010</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F19" s="33">
         <v>2007</v>
@@ -3229,7 +3231,7 @@
         <v>Hydro_Pumped</v>
       </c>
       <c r="AO19" s="33" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:41" s="18" customFormat="1">
@@ -3237,7 +3239,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="18">
         <v>2007</v>
@@ -3246,7 +3248,7 @@
         <v>2000</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F20" s="18">
         <v>2007</v>
@@ -3358,7 +3360,7 @@
         <v>Gas_Combustion_Turbine_EP</v>
       </c>
       <c r="AO20" s="33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:41" s="5" customFormat="1">
@@ -3366,7 +3368,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>2007</v>
@@ -3375,7 +3377,7 @@
         <v>2000</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="F21" s="33">
         <v>2007</v>
@@ -3487,7 +3489,7 @@
         <v>Coal_Steam_Turbine_EP</v>
       </c>
       <c r="AO21" s="33" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:41" s="5" customFormat="1">
@@ -3495,7 +3497,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C22" s="33">
         <v>2007</v>
@@ -3504,7 +3506,7 @@
         <v>2000</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="33">
         <v>2007</v>
@@ -3616,7 +3618,7 @@
         <v>Gas_Steam_Turbine_EP</v>
       </c>
       <c r="AO22" s="33" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:41" s="5" customFormat="1">
@@ -3624,7 +3626,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="33">
         <v>2007</v>
@@ -3633,7 +3635,7 @@
         <v>2000</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" s="33">
         <v>2007</v>
@@ -3745,7 +3747,7 @@
         <v>CCGT_EP</v>
       </c>
       <c r="AO23" s="33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:41" s="5" customFormat="1">
@@ -3753,7 +3755,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="C24" s="33">
         <v>2007</v>
@@ -3762,7 +3764,7 @@
         <v>2000</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" s="33">
         <v>2007</v>
@@ -3874,7 +3876,7 @@
         <v>Geothermal_EP</v>
       </c>
       <c r="AO24" s="33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:41" s="5" customFormat="1">
@@ -3882,7 +3884,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C25" s="33">
         <v>2007</v>
@@ -3891,7 +3893,7 @@
         <v>2000</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F25" s="33">
         <v>2007</v>
@@ -4003,7 +4005,7 @@
         <v>Nuclear_EP</v>
       </c>
       <c r="AO25" s="33" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:41" s="18" customFormat="1">
@@ -4011,7 +4013,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C26" s="33">
         <v>2007</v>
@@ -4020,7 +4022,7 @@
         <v>2000</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F26" s="33">
         <v>2007</v>
@@ -4132,7 +4134,7 @@
         <v>Wind_EP</v>
       </c>
       <c r="AO26" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:41" s="33" customFormat="1">
@@ -4140,7 +4142,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C27" s="33">
         <v>2007</v>
@@ -4149,7 +4151,7 @@
         <v>2000</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F27" s="33">
         <v>2007</v>
@@ -4261,7 +4263,7 @@
         <v>Gas_Internal_Combustion_Engine_EP</v>
       </c>
       <c r="AO27" s="33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:41" s="8" customFormat="1">
@@ -4269,7 +4271,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="8">
         <v>2007</v>
@@ -4278,7 +4280,7 @@
         <v>2010</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F28" s="8">
         <v>2009</v>
@@ -4390,7 +4392,7 @@
         <v>Commercial_PV</v>
       </c>
       <c r="AO28" s="9" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:41" s="8" customFormat="1">
@@ -4398,7 +4400,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C29" s="8">
         <v>2007</v>
@@ -4407,7 +4409,7 @@
         <v>2010</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F29" s="8">
         <v>2009</v>
@@ -4519,7 +4521,7 @@
         <v>Central_PV</v>
       </c>
       <c r="AO29" s="9" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:41" s="5" customFormat="1">
@@ -4527,7 +4529,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C30" s="5">
         <v>2007</v>
@@ -4536,7 +4538,7 @@
         <v>2010</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F30" s="5">
         <v>2010</v>
@@ -4553,26 +4555,26 @@
       <c r="J30" s="5">
         <v>1.05</v>
       </c>
-      <c r="K30" s="5">
-        <v>44370</v>
+      <c r="K30" s="33">
+        <v>49906</v>
       </c>
       <c r="L30" s="9">
         <v>0</v>
       </c>
       <c r="M30" s="21">
         <f>I30*J30*G30/(1+P30)^(H30-2007)</f>
-        <v>4624269.4583522985</v>
+        <v>4401886.3331025699</v>
       </c>
       <c r="N30" s="11">
         <f t="shared" si="1"/>
-        <v>42817.049999999996</v>
+        <v>48159.29</v>
       </c>
       <c r="O30" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P30" s="9">
-        <v>-2.5000000000000001E-2</v>
+        <v>-8.8500000000000002E-3</v>
       </c>
       <c r="Q30" s="9">
         <v>65639</v>
@@ -4647,7 +4649,7 @@
         <f t="shared" si="6"/>
         <v>CSP_Trough_No_Storage</v>
       </c>
-      <c r="AO30" s="9" t="s">
+      <c r="AO30" s="33" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4656,7 +4658,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C31" s="9">
         <v>2007</v>
@@ -4665,7 +4667,7 @@
         <v>2010</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F31" s="9">
         <v>2010</v>
@@ -4777,7 +4779,7 @@
         <v>Compressed_Air_Energy_Storage</v>
       </c>
       <c r="AO31" s="32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:41" s="19" customFormat="1">
@@ -4785,7 +4787,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="33">
         <v>2007</v>
@@ -4794,7 +4796,7 @@
         <v>2000</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F32" s="19">
         <v>2007</v>
@@ -4911,7 +4913,7 @@
         <v>Gas_Combustion_Turbine_Cogen_EP</v>
       </c>
       <c r="AO32" s="33" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:41" s="19" customFormat="1">
@@ -4919,7 +4921,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="33">
         <v>2007</v>
@@ -4928,7 +4930,7 @@
         <v>2000</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="F33" s="33">
         <v>2007</v>
@@ -5045,7 +5047,7 @@
         <v>Coal_Steam_Turbine_Cogen_EP</v>
       </c>
       <c r="AO33" s="33" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:41" s="19" customFormat="1">
@@ -5053,7 +5055,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C34" s="33">
         <v>2007</v>
@@ -5062,7 +5064,7 @@
         <v>2000</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="33">
         <v>2007</v>
@@ -5179,7 +5181,7 @@
         <v>Gas_Steam_Turbine_Cogen_EP</v>
       </c>
       <c r="AO34" s="33" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:41" s="19" customFormat="1">
@@ -5187,7 +5189,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C35" s="33">
         <v>2007</v>
@@ -5196,7 +5198,7 @@
         <v>2000</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="33">
         <v>2007</v>
@@ -5313,7 +5315,7 @@
         <v>CCGT_Cogen_EP</v>
       </c>
       <c r="AO35" s="33" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:41" s="23" customFormat="1">
@@ -5321,7 +5323,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="23">
         <v>2007</v>
@@ -5330,7 +5332,7 @@
         <v>2010</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F36" s="23">
         <v>2004</v>
@@ -5442,7 +5444,7 @@
         <v>Battery_Storage</v>
       </c>
       <c r="AO36" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:41" s="26" customFormat="1">
@@ -5450,7 +5452,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C37" s="26">
         <v>2007</v>
@@ -5459,7 +5461,7 @@
         <v>2014</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F37" s="26">
         <v>2004</v>
@@ -5576,7 +5578,7 @@
         <v>CCGT_CCS</v>
       </c>
       <c r="AO37" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:41" s="26" customFormat="1">
@@ -5584,7 +5586,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C38" s="26">
         <v>2007</v>
@@ -5593,7 +5595,7 @@
         <v>2014</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F38" s="26">
         <v>2004</v>
@@ -5711,7 +5713,7 @@
         <v>Gas_Combustion_Turbine_CCS</v>
       </c>
       <c r="AO38" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:41" s="26" customFormat="1">
@@ -5719,7 +5721,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C39" s="26">
         <v>2007</v>
@@ -5728,7 +5730,7 @@
         <v>2014</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F39" s="26">
         <v>2004</v>
@@ -5846,7 +5848,7 @@
         <v>Bio_Gas_CCS</v>
       </c>
       <c r="AO39" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:41" s="26" customFormat="1">
@@ -5854,7 +5856,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C40" s="26">
         <v>2007</v>
@@ -5863,7 +5865,7 @@
         <v>2014</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F40" s="26">
         <v>2004</v>
@@ -5981,7 +5983,7 @@
         <v>Biomass_IGCC_CCS</v>
       </c>
       <c r="AO40" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:41" s="26" customFormat="1">
@@ -5989,7 +5991,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C41" s="26">
         <v>2007</v>
@@ -5998,7 +6000,7 @@
         <v>2014</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F41" s="26">
         <v>2004</v>
@@ -6114,7 +6116,7 @@
         <v>Coal_IGCC_CCS</v>
       </c>
       <c r="AO41" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:41" s="26" customFormat="1">
@@ -6122,7 +6124,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C42" s="26">
         <v>2007</v>
@@ -6131,7 +6133,7 @@
         <v>2014</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F42" s="26">
         <v>2004</v>
@@ -6249,7 +6251,7 @@
         <v>Coal_Steam_Turbine_CCS</v>
       </c>
       <c r="AO42" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:41" s="33" customFormat="1">
@@ -6257,7 +6259,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C43" s="33">
         <v>2007</v>
@@ -6266,7 +6268,7 @@
         <v>2000</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="33">
         <v>2007</v>
@@ -6382,7 +6384,7 @@
         <v>Gas_Internal_Combustion_Engine_Cogen_EP</v>
       </c>
       <c r="AO43" s="33" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:41" s="28" customFormat="1">
@@ -6390,7 +6392,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C44" s="28">
         <v>2007</v>
@@ -6399,7 +6401,7 @@
         <v>2014</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F44" s="28">
         <v>2004</v>
@@ -6511,10 +6513,10 @@
         <v>0</v>
       </c>
       <c r="AN44" s="28" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="AO44" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:41" s="28" customFormat="1">
@@ -6522,7 +6524,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="C45" s="28">
         <v>2007</v>
@@ -6531,7 +6533,7 @@
         <v>2014</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F45" s="28">
         <v>2004</v>
@@ -6642,10 +6644,10 @@
         <v>0</v>
       </c>
       <c r="AN45" s="28" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AO45" s="33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:41" s="28" customFormat="1">
@@ -6653,7 +6655,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C46" s="28">
         <v>2007</v>
@@ -6662,7 +6664,7 @@
         <v>2014</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F46" s="28">
         <v>2004</v>
@@ -6774,10 +6776,10 @@
         <v>0</v>
       </c>
       <c r="AN46" s="28" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="AO46" s="33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:41" s="28" customFormat="1">
@@ -6785,7 +6787,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C47" s="28">
         <v>2007</v>
@@ -6794,7 +6796,7 @@
         <v>2014</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F47" s="28">
         <v>2004</v>
@@ -6905,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="AN47" s="28" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AO47" s="33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:41" s="28" customFormat="1">
@@ -6916,7 +6918,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C48" s="28">
         <v>2007</v>
@@ -6925,7 +6927,7 @@
         <v>2014</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F48" s="28">
         <v>2004</v>
@@ -7039,10 +7041,10 @@
         <v>0</v>
       </c>
       <c r="AN48" s="28" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="AO48" s="33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:41" s="28" customFormat="1">
@@ -7050,7 +7052,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C49" s="28">
         <v>2007</v>
@@ -7059,7 +7061,7 @@
         <v>2014</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F49" s="28">
         <v>2004</v>
@@ -7173,10 +7175,10 @@
         <v>0</v>
       </c>
       <c r="AN49" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AO49" s="33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:41" s="28" customFormat="1">
@@ -7184,7 +7186,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C50" s="28">
         <v>2007</v>
@@ -7193,7 +7195,7 @@
         <v>2014</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F50" s="28">
         <v>2004</v>
@@ -7307,10 +7309,10 @@
         <v>0</v>
       </c>
       <c r="AN50" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AO50" s="33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:41" s="28" customFormat="1">
@@ -7318,7 +7320,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C51" s="28">
         <v>2007</v>
@@ -7327,7 +7329,7 @@
         <v>2014</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F51" s="28">
         <v>2004</v>
@@ -7441,10 +7443,10 @@
         <v>0</v>
       </c>
       <c r="AN51" s="28" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="AO51" s="33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:41" s="5" customFormat="1">
@@ -7609,7 +7611,6 @@
       <c r="A104" s="33"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -7624,7 +7625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
@@ -8572,11 +8573,11 @@
       </c>
       <c r="F8" s="33">
         <f>generator_costs!M10</f>
-        <v>7935139.1551307421</v>
+        <v>7098171.79151126</v>
       </c>
       <c r="G8" s="33">
         <f>generator_costs!N10</f>
-        <v>46146.299999999996</v>
+        <v>48159.29</v>
       </c>
       <c r="H8" s="33">
         <f>generator_costs!O10</f>
@@ -8584,7 +8585,7 @@
       </c>
       <c r="I8" s="33">
         <f>generator_costs!P10</f>
-        <v>-4.4999999999999998E-2</v>
+        <v>-8.8500000000000002E-3</v>
       </c>
       <c r="J8" s="33">
         <f>generator_costs!Q10</f>
@@ -11172,11 +11173,11 @@
       </c>
       <c r="F28" s="33">
         <f>generator_costs!M30</f>
-        <v>4624269.4583522985</v>
+        <v>4401886.3331025699</v>
       </c>
       <c r="G28" s="33">
         <f>generator_costs!N30</f>
-        <v>42817.049999999996</v>
+        <v>48159.29</v>
       </c>
       <c r="H28" s="33">
         <f>generator_costs!O30</f>
@@ -11184,7 +11185,7 @@
       </c>
       <c r="I28" s="33">
         <f>generator_costs!P30</f>
-        <v>-2.5000000000000001E-2</v>
+        <v>-8.8500000000000002E-3</v>
       </c>
       <c r="J28" s="33">
         <f>generator_costs!Q30</f>
@@ -14022,7 +14023,6 @@
       <c r="A53" s="33"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -14045,7 +14045,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -14056,7 +14056,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>2010</v>
@@ -14074,7 +14074,7 @@
         <v>2026</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -14268,23 +14268,23 @@
       </c>
       <c r="C9" s="1">
         <f>generator_costs!$M10*(1+generator_costs!$P10)^(C$2-2007)/1000000</f>
-        <v>5.7488125543358102</v>
+        <v>6.6699442382837946</v>
       </c>
       <c r="D9" s="1">
         <f>generator_costs!$M10*(1+generator_costs!$P10)^(D$2-2007)/1000000</f>
-        <v>4.78180249863897</v>
+        <v>6.4369442002129151</v>
       </c>
       <c r="E9" s="1">
         <f>generator_costs!$M10*(1+generator_costs!$P10)^(E$2-2007)/1000000</f>
-        <v>3.9774535906105353</v>
+        <v>6.2120835132072854</v>
       </c>
       <c r="F9" s="1">
         <f>generator_costs!$M10*(1+generator_costs!$P10)^(F$2-2007)/1000000</f>
-        <v>3.3084045336384098</v>
+        <v>5.9950778466877699</v>
       </c>
       <c r="G9" s="2">
         <f>-generator_costs!P10*100</f>
-        <v>4.5</v>
+        <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -14868,23 +14868,23 @@
       </c>
       <c r="C29" s="1">
         <f>generator_costs!$M30*(1+generator_costs!$P30)^(C$2-2007)/1000000</f>
-        <v>3.8732492243935535</v>
+        <v>4.1363237249582836</v>
       </c>
       <c r="D29" s="1">
         <f>generator_costs!$M30*(1+generator_costs!$P30)^(D$2-2007)/1000000</f>
-        <v>3.5002084214571272</v>
+        <v>3.991830225318961</v>
       </c>
       <c r="E29" s="1">
         <f>generator_costs!$M30*(1+generator_costs!$P30)^(E$2-2007)/1000000</f>
-        <v>3.1630959651344517</v>
+        <v>3.852384292752796</v>
       </c>
       <c r="F29" s="1">
         <f>generator_costs!$M30*(1+generator_costs!$P30)^(F$2-2007)/1000000</f>
-        <v>2.8584515205768017</v>
+        <v>3.7178096014498263</v>
       </c>
       <c r="G29" s="2">
         <f>-generator_costs!P30*100</f>
-        <v>2.5</v>
+        <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -15518,7 +15518,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -15541,15 +15540,15 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="22" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="22" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="22" customFormat="1">
@@ -15577,7 +15576,7 @@
         <v>3.3</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="E5" s="22"/>
     </row>
@@ -15730,7 +15729,6 @@
       <c r="E21" s="22"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/DatabasePrep/GeneratorInfo/generator_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="33560" windowHeight="19480" tabRatio="500"/>
+    <workbookView xWindow="9100" yWindow="-80" windowWidth="33560" windowHeight="19480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="generator_costs" sheetId="1" r:id="rId1"/>
@@ -22,290 +22,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="157">
   <si>
-    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from Black and Veach on ReEDs sheet.  Most places put VarOM at 0, so this was done here</t>
+    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Black and Veach ReEDs sheet.  Most places put VarOM at 0, so this was done here</t>
+    <t>Cost Declination Rate (%/yr)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
-</t>
+    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CCGT_EP</t>
+    <t>Concentrating_PV</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Combustion_Turbine_EP</t>
+    <t>Solar</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Wind</t>
+    <t>(in 2010 $)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>price_and_dollar_year</t>
+    <t>year</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>year_4_cost_fraction</t>
+    <t>$/Wp</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>year_5_cost_fraction</t>
+    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>year_6_cost_fraction</t>
+    <t>cost declination rate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fixed_o_m_$2007</t>
+    <t>ReEDs Sheet, 75 CapEx of non-cogen</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>heat_rate_mbtu_per_mwh</t>
+    <t>Geothermal_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Commercial_PV</t>
+    <t>Gas_Internal_Combustion_Engine_Cogen_CCS_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>min_build_year</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, also new wind params used for fixed O+M, forced outage rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
-  </si>
-  <si>
-    <t>storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offshore_Wind</t>
-  </si>
-  <si>
-    <t>Bio_Gas</t>
-  </si>
-  <si>
-    <t>year_1_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_2_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_3_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battery_Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tech_name_again</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
-    <t>construction_time_years</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_Cogen_EP</t>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_Cogen_EP</t>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Solid_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Hydro_NonPumped</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hydro_Pumped</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
-  </si>
-  <si>
-    <t>Biomass_IGCC</t>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
-  </si>
-  <si>
-    <t>Coal_IGCC</t>
-  </si>
-  <si>
-    <t>can_build_new</t>
-  </si>
-  <si>
-    <t>forced_outage_rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>scheduled_outage_rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>note: we assume that cogen plants have 3/4 of the capital cost of a pure-electric plant, (to reflect shared infrastructure for cogen), but the same operating costs.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dispatchable</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cogen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, took CoalOldScr costs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, took OGS (Oil Gas Steam)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, set lifetime to 60 years</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, storage effiency from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>ReEDs Sheet</t>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine</t>
-  </si>
-  <si>
-    <t>CCGT_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Gas_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass_IGCC_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_IGCC_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>overnight_cost_$2007</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_Cogen_EP</t>
+    <t>Gas_Internal_Combustion_Engine_Cogen_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -424,11 +195,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>interest_between_price_year_and_cost_year</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Residential_PV</t>
+    <t>competes_for_space</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -473,16 +240,6 @@
     <t>Nuclear</t>
   </si>
   <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
-  </si>
-  <si>
-    <t>CCGT_Cogen_EP</t>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Wind_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -507,19 +264,106 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Combustion_Turbine_EP</t>
+    <t>construction_time_years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Coal_Steam_Turbine_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Steam_Turbine_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CCGT_EP</t>
+    <t>Bio_Solid_CCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Combustion_Turbine_Cogen_EP</t>
+    <t>Biomass_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Hydro_NonPumped</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydro_Pumped</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
+  </si>
+  <si>
+    <t>Biomass_IGCC</t>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
+  </si>
+  <si>
+    <t>Coal_IGCC</t>
+  </si>
+  <si>
+    <t>can_build_new</t>
+  </si>
+  <si>
+    <t>forced_outage_rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduled_outage_rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>note: we assume that cogen plants have 3/4 of the capital cost of a pure-electric plant, (to reflect shared infrastructure for cogen), but the same operating costs.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatchable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cogen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, took CoalOldScr costs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, took OGS (Oil Gas Steam)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, set lifetime to 60 years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_CCS_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_Cogen_CCS_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_Cogen_CCS_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_Cogen_CCS_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Internal_Combustion_Engine_EP</t>
@@ -530,55 +374,244 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Internal_Combustion_Engine_Cogen_EP</t>
+    <t>ReEDs Sheet, storage effiency from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
+    <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Declination Rate (%/yr)</t>
+    <t>CCGT</t>
+  </si>
+  <si>
+    <t>ReEDs Sheet</t>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine</t>
+  </si>
+  <si>
+    <t>CCGT_CCS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
+    <t>Gas_Combustion_Turbine_CCS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Concentrating_PV</t>
+    <t>Bio_Gas_CCS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Solar</t>
+    <t>Biomass_IGCC_CCS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>(in 2010 $)</t>
+    <t>Coal_IGCC_CCS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>year</t>
+    <t>Coal_Steam_Turbine_CCS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>$/Wp</t>
+    <t>Gas_CCS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
+    <t>overnight_cost_$2007</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>cost declination rate</t>
+    <t>Gas_Steam_Turbine_Cogen_EP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ReEDs Sheet, 75 CapEx of non-cogen</t>
+    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from Black and Veach on ReEDs sheet.  Most places put VarOM at 0, so this was done here</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Geothermal_EP</t>
+    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Black and Veach ReEDs sheet.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_and_dollar_year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>interest_between_price_year_and_cost_year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Residential_PV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIA, 75% CapEx of non-cogen, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, took OGS (Oil Gas Steam) values for all but costs:  costs from Biomass_Steam_Turbine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Liquid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, took OGS (Oil Gas Steam) values for all but costs:  costs from Biomass_Steam_Turbine, 75% of capex for cogen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Solid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_4_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_5_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_6_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m_$2007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat_rate_mbtu_per_mwh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commercial_PV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_build_year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, also new wind params used for fixed O+M, forced outage rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
+  </si>
+  <si>
+    <t>storage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offshore_Wind</t>
+  </si>
+  <si>
+    <t>Bio_Gas</t>
+  </si>
+  <si>
+    <t>year_1_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_2_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_3_cost_fraction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery_Storage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tech_name_again</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>DistillateFuelOil_Internal_Combustion_Engine_EP</t>
+  </si>
+  <si>
+    <t>DistillateFuelOil_Combustion_Turbine_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistillateFuelOil</t>
+  </si>
+  <si>
+    <t>Bio_Gas_Internal_Combustion_Engine_EP</t>
+  </si>
+  <si>
+    <t>Bio_Gas_Internal_Combustion_Engine_Cogen_EP</t>
+  </si>
+  <si>
+    <t>Bio_Gas_Steam_Turbine_EP</t>
+  </si>
+  <si>
+    <t>Bio_Liquid_Steam_Turbine_Cogen_EP</t>
+  </si>
+  <si>
+    <t>Bio_Solid_Steam_Turbine_EP</t>
+  </si>
+  <si>
+    <t>Bio_Solid_Steam_Turbine_Cogen_EP</t>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIA, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_Cogen_CCS_EP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_CCS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -586,15 +619,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -639,7 +666,7 @@
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -661,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1003,17 +1030,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AO104"/>
+  <dimension ref="A1:AP101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO11" sqref="AO11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ54" sqref="AJ54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="5"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
     <col min="4" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
@@ -1031,149 +1058,153 @@
     <col min="32" max="33" width="10.7109375" style="33"/>
     <col min="34" max="34" width="15.140625" customWidth="1"/>
     <col min="35" max="35" width="10.7109375" style="12"/>
-    <col min="36" max="36" width="10.7109375" style="27"/>
-    <col min="37" max="37" width="10.7109375" style="15"/>
-    <col min="38" max="39" width="10.7109375" style="27"/>
-    <col min="40" max="40" width="23.140625" customWidth="1"/>
+    <col min="36" max="36" width="18.140625" style="33" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" style="27"/>
+    <col min="38" max="38" width="10.7109375" style="15"/>
+    <col min="39" max="40" width="10.7109375" style="27"/>
+    <col min="41" max="41" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="33" customFormat="1">
+    <row r="1" spans="1:42" s="33" customFormat="1">
       <c r="A1" s="34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" s="33" customFormat="1"/>
-    <row r="3" spans="1:41">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="33" customFormat="1"/>
+    <row r="3" spans="1:42">
       <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG3" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL3" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
-      </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>94</v>
-      </c>
-      <c r="R3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF3" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG3" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ3" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
       </c>
       <c r="C4" s="5">
         <v>2007</v>
@@ -1182,7 +1213,7 @@
         <v>2010</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>2004</v>
@@ -1277,32 +1308,35 @@
       <c r="AI4">
         <v>1</v>
       </c>
-      <c r="AJ4" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL4">
+      <c r="AJ4" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="15">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
-      <c r="AN4" t="str">
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="str">
         <f>B4</f>
         <v>CCGT</v>
       </c>
-      <c r="AO4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41">
+      <c r="AP4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
@@ -1311,7 +1345,7 @@
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>2004</v>
@@ -1406,32 +1440,35 @@
       <c r="AI5">
         <v>1</v>
       </c>
-      <c r="AJ5" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL5">
+      <c r="AJ5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
-      <c r="AN5" s="22" t="str">
-        <f t="shared" ref="AN5:AN24" si="3">B5</f>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="33" t="str">
+        <f t="shared" ref="AO5:AO53" si="3">B5</f>
         <v>Gas_Combustion_Turbine</v>
       </c>
-      <c r="AO5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" s="22" customFormat="1">
+      <c r="AP5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" s="22" customFormat="1">
       <c r="A6" s="22">
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="C6" s="22">
         <v>2007</v>
@@ -1440,7 +1477,7 @@
         <v>2010</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="F6" s="22">
         <v>2010</v>
@@ -1536,32 +1573,35 @@
       <c r="AI6" s="22">
         <v>1</v>
       </c>
-      <c r="AJ6" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL6">
+      <c r="AJ6" s="33">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="22">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
-      <c r="AN6" s="22" t="str">
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Concentrating_PV</v>
       </c>
-      <c r="AO6" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41">
+      <c r="AP6" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5">
         <v>2007</v>
@@ -1570,7 +1610,7 @@
         <v>2010</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="F7">
         <v>2004</v>
@@ -1665,32 +1705,35 @@
       <c r="AI7">
         <v>1</v>
       </c>
-      <c r="AJ7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL7">
+      <c r="AJ7" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
       </c>
-      <c r="AN7" s="22" t="str">
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Wind</v>
       </c>
-      <c r="AO7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41">
+      <c r="AP7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="C8" s="5">
         <v>2007</v>
@@ -1699,7 +1742,7 @@
         <v>2010</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="F8">
         <v>2004</v>
@@ -1794,32 +1837,35 @@
       <c r="AI8">
         <v>1</v>
       </c>
-      <c r="AJ8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL8">
+      <c r="AJ8" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="15">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
       </c>
-      <c r="AN8" s="22" t="str">
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Offshore_Wind</v>
       </c>
-      <c r="AO8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41">
+      <c r="AP8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C9" s="5">
         <v>2007</v>
@@ -1828,7 +1874,7 @@
         <v>2010</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>2009</v>
@@ -1924,32 +1970,35 @@
       <c r="AI9">
         <v>1</v>
       </c>
-      <c r="AJ9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL9">
+      <c r="AJ9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="15">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
       </c>
-      <c r="AN9" s="22" t="str">
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Residential_PV</v>
       </c>
-      <c r="AO9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" s="11" customFormat="1">
+      <c r="AP9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" s="11" customFormat="1">
       <c r="A10" s="11">
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="C10" s="11">
         <v>2007</v>
@@ -1958,7 +2007,7 @@
         <v>2012</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="F10" s="11">
         <v>2010</v>
@@ -2053,32 +2102,35 @@
       <c r="AI10">
         <v>1</v>
       </c>
-      <c r="AJ10" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL10">
+      <c r="AJ10" s="33">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="15">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
       </c>
-      <c r="AN10" s="22" t="str">
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="33" t="str">
         <f t="shared" si="3"/>
         <v>CSP_Trough_6h_Storage</v>
       </c>
-      <c r="AO10" s="33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41">
+      <c r="AP10" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
@@ -2087,7 +2139,7 @@
         <v>2010</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>2007</v>
@@ -2111,7 +2163,7 @@
         <v>0.01</v>
       </c>
       <c r="M11" s="21">
-        <f t="shared" si="0"/>
+        <f>I11*J11*G11/(1+P11)^(H11-2007)</f>
         <v>2580549.9188311687</v>
       </c>
       <c r="N11" s="11">
@@ -2182,32 +2234,35 @@
       <c r="AI11">
         <v>1</v>
       </c>
-      <c r="AJ11" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL11">
+      <c r="AJ11" s="33">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="15">
         <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
       </c>
-      <c r="AN11" s="22" t="str">
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Bio_Gas</v>
       </c>
-      <c r="AO11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41">
+      <c r="AP11" s="33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C12" s="5">
         <v>2007</v>
@@ -2216,7 +2271,7 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="F12">
         <v>2004</v>
@@ -2244,7 +2299,7 @@
         <v>3214097.5753843598</v>
       </c>
       <c r="N12" s="11">
-        <f t="shared" si="1"/>
+        <f>K12*G12</f>
         <v>73155.348000000013</v>
       </c>
       <c r="O12" s="11">
@@ -2311,32 +2366,35 @@
       <c r="AI12">
         <v>1</v>
       </c>
-      <c r="AJ12" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL12">
+      <c r="AJ12" s="33">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="15">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
       </c>
-      <c r="AN12" s="22" t="str">
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Biomass_Steam_Turbine</v>
       </c>
-      <c r="AO12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41">
+      <c r="AP12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
@@ -2345,7 +2403,7 @@
         <v>2012</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="F13">
         <v>2007</v>
@@ -2440,32 +2498,35 @@
       <c r="AI13">
         <v>1</v>
       </c>
-      <c r="AJ13" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL13">
+      <c r="AJ13" s="33">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="15">
         <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
       </c>
-      <c r="AN13" s="22" t="str">
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Biomass_IGCC</v>
       </c>
-      <c r="AO13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41">
+      <c r="AP13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
       <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C14" s="5">
         <v>2007</v>
@@ -2474,7 +2535,7 @@
         <v>2010</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <v>2004</v>
@@ -2569,32 +2630,35 @@
       <c r="AI14">
         <v>1</v>
       </c>
-      <c r="AJ14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL14">
+      <c r="AJ14" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="15">
         <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
       </c>
-      <c r="AN14" s="22" t="str">
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Coal_IGCC</v>
       </c>
-      <c r="AO14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41">
+      <c r="AP14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
       <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="C15" s="5">
         <v>2007</v>
@@ -2603,7 +2667,7 @@
         <v>2010</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="F15">
         <v>2004</v>
@@ -2698,32 +2762,35 @@
       <c r="AI15">
         <v>1</v>
       </c>
-      <c r="AJ15" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
+      <c r="AJ15" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="15">
         <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
       </c>
-      <c r="AN15" s="22" t="str">
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Coal_Steam_Turbine</v>
       </c>
-      <c r="AO15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41">
+      <c r="AP15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="C16" s="5">
         <v>2007</v>
@@ -2732,7 +2799,7 @@
         <v>2010</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="F16">
         <v>2004</v>
@@ -2827,32 +2894,35 @@
       <c r="AI16">
         <v>1</v>
       </c>
-      <c r="AJ16" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL16">
+      <c r="AJ16" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="15">
         <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
       </c>
-      <c r="AN16" s="22" t="str">
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Nuclear</v>
       </c>
-      <c r="AO16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41">
+      <c r="AP16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42">
       <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="C17" s="5">
         <v>2007</v>
@@ -2861,7 +2931,7 @@
         <v>2010</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="F17">
         <v>2004</v>
@@ -2956,32 +3026,35 @@
       <c r="AI17">
         <v>1</v>
       </c>
-      <c r="AJ17" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL17">
+      <c r="AJ17" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="15">
         <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
       </c>
-      <c r="AN17" s="22" t="str">
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Geothermal</v>
       </c>
-      <c r="AO17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41">
+      <c r="AP17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42">
       <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C18" s="5">
         <v>2007</v>
@@ -2990,7 +3063,7 @@
         <v>2010</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F18" s="5">
         <v>2007</v>
@@ -3085,32 +3158,35 @@
       <c r="AI18">
         <v>0</v>
       </c>
-      <c r="AJ18" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL18">
+      <c r="AJ18" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="15">
         <v>0</v>
       </c>
       <c r="AM18">
         <v>0</v>
       </c>
-      <c r="AN18" s="22" t="str">
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Hydro_NonPumped</v>
       </c>
-      <c r="AO18" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41">
+      <c r="AP18" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42">
       <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C19" s="5">
         <v>2007</v>
@@ -3119,7 +3195,7 @@
         <v>2010</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F19" s="33">
         <v>2007</v>
@@ -3214,32 +3290,35 @@
       <c r="AI19">
         <v>0</v>
       </c>
-      <c r="AJ19" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="15">
-        <v>1</v>
-      </c>
-      <c r="AL19">
+      <c r="AJ19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="15">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>0.74</v>
       </c>
-      <c r="AM19">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="22" t="str">
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Hydro_Pumped</v>
       </c>
-      <c r="AO19" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" s="18" customFormat="1">
+      <c r="AP19" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" s="18" customFormat="1">
       <c r="A20" s="18">
         <v>17</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="C20" s="18">
         <v>2007</v>
@@ -3248,7 +3327,7 @@
         <v>2000</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="F20" s="18">
         <v>2007</v>
@@ -3343,32 +3422,35 @@
       <c r="AI20" s="18">
         <v>0</v>
       </c>
-      <c r="AJ20" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL20">
+      <c r="AJ20" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="18">
         <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
       </c>
-      <c r="AN20" s="22" t="str">
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Combustion_Turbine_EP</v>
       </c>
-      <c r="AO20" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" s="5" customFormat="1">
+      <c r="AP20" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" s="5" customFormat="1">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>2007</v>
@@ -3377,7 +3459,7 @@
         <v>2000</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="F21" s="33">
         <v>2007</v>
@@ -3472,32 +3554,35 @@
       <c r="AI21">
         <v>0</v>
       </c>
-      <c r="AJ21" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL21">
+      <c r="AJ21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="15">
         <v>0</v>
       </c>
       <c r="AM21">
         <v>0</v>
       </c>
-      <c r="AN21" s="22" t="str">
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Coal_Steam_Turbine_EP</v>
       </c>
-      <c r="AO21" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" s="5" customFormat="1">
+      <c r="AP21" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" s="5" customFormat="1">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C22" s="33">
         <v>2007</v>
@@ -3506,7 +3591,7 @@
         <v>2000</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="F22" s="33">
         <v>2007</v>
@@ -3601,32 +3686,35 @@
       <c r="AI22">
         <v>0</v>
       </c>
-      <c r="AJ22" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL22">
+      <c r="AJ22" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="15">
         <v>0</v>
       </c>
       <c r="AM22">
         <v>0</v>
       </c>
-      <c r="AN22" s="22" t="str">
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Steam_Turbine_EP</v>
       </c>
-      <c r="AO22" s="33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" s="5" customFormat="1">
+      <c r="AP22" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" s="5" customFormat="1">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="C23" s="33">
         <v>2007</v>
@@ -3635,7 +3723,7 @@
         <v>2000</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="F23" s="33">
         <v>2007</v>
@@ -3730,32 +3818,35 @@
       <c r="AI23">
         <v>0</v>
       </c>
-      <c r="AJ23" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL23">
+      <c r="AJ23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="15">
         <v>0</v>
       </c>
       <c r="AM23">
         <v>0</v>
       </c>
-      <c r="AN23" s="22" t="str">
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="33" t="str">
         <f t="shared" si="3"/>
         <v>CCGT_EP</v>
       </c>
-      <c r="AO23" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" s="5" customFormat="1">
+      <c r="AP23" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" s="5" customFormat="1">
       <c r="A24" s="33">
         <v>21</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="C24" s="33">
         <v>2007</v>
@@ -3764,7 +3855,7 @@
         <v>2000</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="F24" s="33">
         <v>2007</v>
@@ -3859,32 +3950,35 @@
       <c r="AI24">
         <v>0</v>
       </c>
-      <c r="AJ24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL24">
+      <c r="AJ24" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="15">
         <v>0</v>
       </c>
       <c r="AM24">
         <v>0</v>
       </c>
-      <c r="AN24" s="33" t="str">
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Geothermal_EP</v>
       </c>
-      <c r="AO24" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41" s="5" customFormat="1">
+      <c r="AP24" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" s="5" customFormat="1">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="C25" s="33">
         <v>2007</v>
@@ -3893,7 +3987,7 @@
         <v>2000</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="F25" s="33">
         <v>2007</v>
@@ -3988,32 +4082,35 @@
       <c r="AI25">
         <v>0</v>
       </c>
-      <c r="AJ25" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL25">
+      <c r="AJ25" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="15">
         <v>0</v>
       </c>
       <c r="AM25">
         <v>0</v>
       </c>
-      <c r="AN25" s="22" t="str">
-        <f t="shared" ref="AN25:AN43" si="6">B25</f>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>Nuclear_EP</v>
       </c>
-      <c r="AO25" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41" s="18" customFormat="1">
+      <c r="AP25" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" s="18" customFormat="1">
       <c r="A26" s="18">
         <v>23</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="C26" s="33">
         <v>2007</v>
@@ -4022,7 +4119,7 @@
         <v>2000</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F26" s="33">
         <v>2007</v>
@@ -4117,32 +4214,35 @@
       <c r="AI26" s="18">
         <v>0</v>
       </c>
-      <c r="AJ26" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL26">
+      <c r="AJ26" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="18">
         <v>0</v>
       </c>
       <c r="AM26">
         <v>0</v>
       </c>
-      <c r="AN26" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>Wind_EP</v>
       </c>
-      <c r="AO26" s="33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41" s="33" customFormat="1">
+      <c r="AP26" s="33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" s="33" customFormat="1">
       <c r="A27" s="33">
         <v>24</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C27" s="33">
         <v>2007</v>
@@ -4151,7 +4251,7 @@
         <v>2000</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="F27" s="33">
         <v>2007</v>
@@ -4258,20 +4358,23 @@
       <c r="AM27" s="33">
         <v>0</v>
       </c>
-      <c r="AN27" s="33" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN27" s="33">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>Gas_Internal_Combustion_Engine_EP</v>
       </c>
-      <c r="AO27" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41" s="8" customFormat="1">
+      <c r="AP27" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" s="8" customFormat="1">
       <c r="A28" s="8">
         <v>25</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="C28" s="8">
         <v>2007</v>
@@ -4280,7 +4383,7 @@
         <v>2010</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="F28" s="8">
         <v>2009</v>
@@ -4375,32 +4478,35 @@
       <c r="AI28">
         <v>1</v>
       </c>
-      <c r="AJ28" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL28">
+      <c r="AJ28" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="15">
         <v>0</v>
       </c>
       <c r="AM28">
         <v>0</v>
       </c>
-      <c r="AN28" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>Commercial_PV</v>
       </c>
-      <c r="AO28" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" s="8" customFormat="1">
+      <c r="AP28" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" s="8" customFormat="1">
       <c r="A29" s="8">
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C29" s="8">
         <v>2007</v>
@@ -4409,7 +4515,7 @@
         <v>2010</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="F29" s="8">
         <v>2009</v>
@@ -4504,32 +4610,35 @@
       <c r="AI29">
         <v>1</v>
       </c>
-      <c r="AJ29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL29">
+      <c r="AJ29" s="33">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="15">
         <v>0</v>
       </c>
       <c r="AM29">
         <v>0</v>
       </c>
-      <c r="AN29" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>Central_PV</v>
       </c>
-      <c r="AO29" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41" s="5" customFormat="1">
+      <c r="AP29" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" s="5" customFormat="1">
       <c r="A30" s="10">
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="C30" s="5">
         <v>2007</v>
@@ -4538,7 +4647,7 @@
         <v>2010</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="F30" s="5">
         <v>2010</v>
@@ -4633,32 +4742,35 @@
       <c r="AI30">
         <v>1</v>
       </c>
-      <c r="AJ30" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL30">
+      <c r="AJ30" s="33">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="15">
         <v>0</v>
       </c>
       <c r="AM30">
         <v>0</v>
       </c>
-      <c r="AN30" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>CSP_Trough_No_Storage</v>
       </c>
-      <c r="AO30" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="AP30" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="10">
         <v>28</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="C31" s="9">
         <v>2007</v>
@@ -4667,7 +4779,7 @@
         <v>2010</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="F31" s="9">
         <v>2010</v>
@@ -4762,32 +4874,35 @@
       <c r="AI31" s="12">
         <v>1</v>
       </c>
-      <c r="AJ31" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AL31">
+      <c r="AJ31" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>0.81699999999999995</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>1.2</v>
       </c>
-      <c r="AN31" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="AO31" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>Compressed_Air_Energy_Storage</v>
       </c>
-      <c r="AO31" s="32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41" s="19" customFormat="1">
+      <c r="AP31" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" s="19" customFormat="1">
       <c r="A32" s="19">
         <v>29</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="C32" s="33">
         <v>2007</v>
@@ -4796,7 +4911,7 @@
         <v>2000</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="F32" s="19">
         <v>2007</v>
@@ -4815,15 +4930,15 @@
         <v>1</v>
       </c>
       <c r="K32" s="19">
-        <f t="shared" ref="K32:L35" si="7">K20</f>
+        <f t="shared" ref="K32:L35" si="6">K20</f>
         <v>11322</v>
       </c>
       <c r="L32" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.35</v>
       </c>
       <c r="M32" s="33">
-        <f t="shared" ref="M32:M35" si="8">I32*J32*G32/(1+P32)^(H32-2007)</f>
+        <f t="shared" ref="M32:M35" si="7">I32*J32*G32/(1+P32)^(H32-2007)</f>
         <v>489000</v>
       </c>
       <c r="N32" s="33">
@@ -4868,11 +4983,11 @@
         <v>30</v>
       </c>
       <c r="AA32" s="33">
-        <f t="shared" ref="AA32:AB35" si="9">AA20</f>
+        <f t="shared" ref="AA32:AB35" si="8">AA20</f>
         <v>0.03</v>
       </c>
       <c r="AB32" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
       <c r="AC32" s="19">
@@ -4896,32 +5011,35 @@
       <c r="AI32" s="19">
         <v>0</v>
       </c>
-      <c r="AJ32" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL32">
+      <c r="AJ32" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="19">
         <v>0</v>
       </c>
       <c r="AM32">
         <v>0</v>
       </c>
-      <c r="AN32" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>Gas_Combustion_Turbine_Cogen_EP</v>
       </c>
-      <c r="AO32" s="33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:41" s="19" customFormat="1">
+      <c r="AP32" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" s="19" customFormat="1">
       <c r="A33" s="19">
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="C33" s="33">
         <v>2007</v>
@@ -4930,7 +5048,7 @@
         <v>2000</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="F33" s="33">
         <v>2007</v>
@@ -4949,15 +5067,15 @@
         <v>1</v>
       </c>
       <c r="K33" s="19">
+        <f t="shared" si="6"/>
+        <v>25703</v>
+      </c>
+      <c r="L33" s="19">
+        <f t="shared" si="6"/>
+        <v>3.73</v>
+      </c>
+      <c r="M33" s="33">
         <f t="shared" si="7"/>
-        <v>25703</v>
-      </c>
-      <c r="L33" s="19">
-        <f t="shared" si="7"/>
-        <v>3.73</v>
-      </c>
-      <c r="M33" s="33">
-        <f t="shared" si="8"/>
         <v>991500</v>
       </c>
       <c r="N33" s="33">
@@ -5002,11 +5120,11 @@
         <v>60</v>
       </c>
       <c r="AA33" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.06</v>
       </c>
       <c r="AB33" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="AC33" s="19">
@@ -5030,32 +5148,35 @@
       <c r="AI33" s="19">
         <v>0</v>
       </c>
-      <c r="AJ33" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL33">
+      <c r="AJ33" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="19">
         <v>0</v>
       </c>
       <c r="AM33">
         <v>0</v>
       </c>
-      <c r="AN33" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>Coal_Steam_Turbine_Cogen_EP</v>
       </c>
-      <c r="AO33" s="33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:41" s="19" customFormat="1">
+      <c r="AP33" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" s="19" customFormat="1">
       <c r="A34" s="19">
         <v>31</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C34" s="33">
         <v>2007</v>
@@ -5064,7 +5185,7 @@
         <v>2000</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="F34" s="33">
         <v>2007</v>
@@ -5083,15 +5204,15 @@
         <v>1</v>
       </c>
       <c r="K34" s="19">
+        <f t="shared" si="6"/>
+        <v>27730</v>
+      </c>
+      <c r="L34" s="19">
+        <f t="shared" si="6"/>
+        <v>3.47</v>
+      </c>
+      <c r="M34" s="33">
         <f t="shared" si="7"/>
-        <v>27730</v>
-      </c>
-      <c r="L34" s="19">
-        <f t="shared" si="7"/>
-        <v>3.47</v>
-      </c>
-      <c r="M34" s="33">
-        <f t="shared" si="8"/>
         <v>326250</v>
       </c>
       <c r="N34" s="33">
@@ -5136,11 +5257,11 @@
         <v>30</v>
       </c>
       <c r="AA34" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="AB34" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="AC34" s="19">
@@ -5164,32 +5285,35 @@
       <c r="AI34" s="19">
         <v>0</v>
       </c>
-      <c r="AJ34" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL34">
+      <c r="AJ34" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="19">
         <v>0</v>
       </c>
       <c r="AM34">
         <v>0</v>
       </c>
-      <c r="AN34" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>Gas_Steam_Turbine_Cogen_EP</v>
       </c>
-      <c r="AO34" s="33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41" s="19" customFormat="1">
+      <c r="AP34" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" s="19" customFormat="1">
       <c r="A35" s="19">
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C35" s="33">
         <v>2007</v>
@@ -5198,7 +5322,7 @@
         <v>2000</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="F35" s="33">
         <v>2007</v>
@@ -5217,15 +5341,15 @@
         <v>1</v>
       </c>
       <c r="K35" s="19">
+        <f t="shared" si="6"/>
+        <v>11322</v>
+      </c>
+      <c r="L35" s="19">
+        <f t="shared" si="6"/>
+        <v>3.35</v>
+      </c>
+      <c r="M35" s="33">
         <f t="shared" si="7"/>
-        <v>11322</v>
-      </c>
-      <c r="L35" s="19">
-        <f t="shared" si="7"/>
-        <v>3.35</v>
-      </c>
-      <c r="M35" s="33">
-        <f t="shared" si="8"/>
         <v>716250</v>
       </c>
       <c r="N35" s="33">
@@ -5270,11 +5394,11 @@
         <v>30</v>
       </c>
       <c r="AA35" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.04</v>
       </c>
       <c r="AB35" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.06</v>
       </c>
       <c r="AC35" s="19">
@@ -5298,32 +5422,35 @@
       <c r="AI35" s="19">
         <v>0</v>
       </c>
-      <c r="AJ35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL35">
+      <c r="AJ35" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="19">
         <v>0</v>
       </c>
       <c r="AM35">
         <v>0</v>
       </c>
-      <c r="AN35" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>CCGT_Cogen_EP</v>
       </c>
-      <c r="AO35" s="33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41" s="23" customFormat="1">
+      <c r="AP35" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" s="23" customFormat="1">
       <c r="A36" s="23">
         <v>33</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="C36" s="23">
         <v>2007</v>
@@ -5332,7 +5459,7 @@
         <v>2010</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="F36" s="23">
         <v>2004</v>
@@ -5356,7 +5483,7 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="M36" s="23">
-        <f t="shared" ref="M36:M51" si="10">I36*J36*G36/(1+P36)^(H36-2007)</f>
+        <f t="shared" ref="M36:M51" si="9">I36*J36*G36/(1+P36)^(H36-2007)</f>
         <v>4144936.7381368177</v>
       </c>
       <c r="N36" s="23">
@@ -5427,32 +5554,35 @@
       <c r="AI36" s="23">
         <v>1</v>
       </c>
-      <c r="AJ36" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="23">
-        <v>1</v>
-      </c>
-      <c r="AL36">
+      <c r="AJ36" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>0.76700000000000002</v>
       </c>
-      <c r="AM36">
-        <v>1</v>
-      </c>
-      <c r="AN36" s="23" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>Battery_Storage</v>
       </c>
-      <c r="AO36" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" s="26" customFormat="1">
+      <c r="AP36" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" s="26" customFormat="1">
       <c r="A37" s="26">
         <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C37" s="26">
         <v>2007</v>
@@ -5461,7 +5591,7 @@
         <v>2014</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="F37" s="26">
         <v>2004</v>
@@ -5489,7 +5619,7 @@
         <v>2.6776749999999998</v>
       </c>
       <c r="M37" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3961894.0067618708</v>
       </c>
       <c r="N37" s="27">
@@ -5561,32 +5691,35 @@
       <c r="AI37" s="26">
         <v>1</v>
       </c>
-      <c r="AJ37" s="27">
-        <v>1</v>
-      </c>
-      <c r="AK37" s="26">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="27">
+      <c r="AJ37" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="27">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="26">
         <v>0</v>
       </c>
       <c r="AM37" s="27">
         <v>0</v>
       </c>
-      <c r="AN37" s="28" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN37" s="27">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>CCGT_CCS</v>
       </c>
-      <c r="AO37" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" s="26" customFormat="1">
+      <c r="AP37" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" s="26" customFormat="1">
       <c r="A38" s="26">
         <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C38" s="26">
         <v>2007</v>
@@ -5595,7 +5728,7 @@
         <v>2014</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="F38" s="26">
         <v>2004</v>
@@ -5623,7 +5756,7 @@
         <v>3.8754999999999997</v>
       </c>
       <c r="M38" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3494840.6210656902</v>
       </c>
       <c r="N38" s="27">
@@ -5696,11 +5829,11 @@
       <c r="AI38" s="27">
         <v>1</v>
       </c>
-      <c r="AJ38" s="27">
-        <v>1</v>
+      <c r="AJ38" s="33">
+        <v>0</v>
       </c>
       <c r="AK38" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="27">
         <v>0</v>
@@ -5708,20 +5841,23 @@
       <c r="AM38" s="27">
         <v>0</v>
       </c>
-      <c r="AN38" s="28" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN38" s="27">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>Gas_Combustion_Turbine_CCS</v>
       </c>
-      <c r="AO38" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" s="26" customFormat="1">
+      <c r="AP38" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" s="26" customFormat="1">
       <c r="A39" s="26">
         <v>36</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C39" s="26">
         <v>2007</v>
@@ -5730,7 +5866,7 @@
         <v>2014</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F39" s="26">
         <v>2004</v>
@@ -5758,7 +5894,7 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="M39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5815133.1845351728</v>
       </c>
       <c r="N39" s="27">
@@ -5831,11 +5967,11 @@
       <c r="AI39" s="27">
         <v>1</v>
       </c>
-      <c r="AJ39" s="27">
+      <c r="AJ39" s="33">
         <v>1</v>
       </c>
       <c r="AK39" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="27">
         <v>0</v>
@@ -5843,20 +5979,23 @@
       <c r="AM39" s="27">
         <v>0</v>
       </c>
-      <c r="AN39" s="28" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN39" s="27">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>Bio_Gas_CCS</v>
       </c>
-      <c r="AO39" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" s="26" customFormat="1">
+      <c r="AP39" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" s="26" customFormat="1">
       <c r="A40" s="26">
         <v>37</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C40" s="26">
         <v>2007</v>
@@ -5865,7 +6004,7 @@
         <v>2014</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F40" s="26">
         <v>2004</v>
@@ -5893,7 +6032,7 @@
         <v>8.0950000000000006</v>
       </c>
       <c r="M40" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7294966.6907851472</v>
       </c>
       <c r="N40" s="27">
@@ -5966,11 +6105,11 @@
       <c r="AI40" s="27">
         <v>1</v>
       </c>
-      <c r="AJ40" s="27">
+      <c r="AJ40" s="33">
         <v>1</v>
       </c>
       <c r="AK40" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40" s="27">
         <v>0</v>
@@ -5978,20 +6117,23 @@
       <c r="AM40" s="27">
         <v>0</v>
       </c>
-      <c r="AN40" s="28" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN40" s="27">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>Biomass_IGCC_CCS</v>
       </c>
-      <c r="AO40" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:41" s="26" customFormat="1">
+      <c r="AP40" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" s="26" customFormat="1">
       <c r="A41" s="26">
         <v>38</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C41" s="26">
         <v>2007</v>
@@ -6000,7 +6142,7 @@
         <v>2014</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="F41" s="26">
         <v>2004</v>
@@ -6028,7 +6170,7 @@
         <v>4.0448190000000004</v>
       </c>
       <c r="M41" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6034109.6319010211</v>
       </c>
       <c r="N41" s="27">
@@ -6099,11 +6241,11 @@
       <c r="AI41" s="27">
         <v>1</v>
       </c>
-      <c r="AJ41" s="27">
-        <v>1</v>
+      <c r="AJ41" s="33">
+        <v>0</v>
       </c>
       <c r="AK41" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="27">
         <v>0</v>
@@ -6111,20 +6253,23 @@
       <c r="AM41" s="27">
         <v>0</v>
       </c>
-      <c r="AN41" s="28" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN41" s="27">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>Coal_IGCC_CCS</v>
       </c>
-      <c r="AO41" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" s="26" customFormat="1">
+      <c r="AP41" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" s="26" customFormat="1">
       <c r="A42" s="26">
         <v>39</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C42" s="26">
         <v>2007</v>
@@ -6133,7 +6278,7 @@
         <v>2014</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="F42" s="26">
         <v>2004</v>
@@ -6161,7 +6306,7 @@
         <v>5.5660159999999994</v>
       </c>
       <c r="M42" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5255744.0746610165</v>
       </c>
       <c r="N42" s="27">
@@ -6234,11 +6379,11 @@
       <c r="AI42" s="27">
         <v>1</v>
       </c>
-      <c r="AJ42" s="27">
-        <v>1</v>
+      <c r="AJ42" s="33">
+        <v>0</v>
       </c>
       <c r="AK42" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="27">
         <v>0</v>
@@ -6246,20 +6391,23 @@
       <c r="AM42" s="27">
         <v>0</v>
       </c>
-      <c r="AN42" s="28" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN42" s="27">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>Coal_Steam_Turbine_CCS</v>
       </c>
-      <c r="AO42" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:41" s="33" customFormat="1">
+      <c r="AP42" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" s="33" customFormat="1">
       <c r="A43" s="33">
         <v>40</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="C43" s="33">
         <v>2007</v>
@@ -6268,7 +6416,7 @@
         <v>2000</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="F43" s="33">
         <v>2007</v>
@@ -6295,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>489000</v>
       </c>
       <c r="N43">
@@ -6379,20 +6527,23 @@
       <c r="AM43" s="33">
         <v>0</v>
       </c>
-      <c r="AN43" s="33" t="str">
-        <f t="shared" si="6"/>
+      <c r="AN43" s="33">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="33" t="str">
+        <f t="shared" si="3"/>
         <v>Gas_Internal_Combustion_Engine_Cogen_EP</v>
       </c>
-      <c r="AO43" s="33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41" s="28" customFormat="1">
+      <c r="AP43" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" s="28" customFormat="1">
       <c r="A44" s="28">
         <v>41</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>122</v>
+      <c r="B44" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="C44" s="28">
         <v>2007</v>
@@ -6401,7 +6552,7 @@
         <v>2014</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="F44" s="28">
         <v>2004</v>
@@ -6423,11 +6574,11 @@
         <v>18436</v>
       </c>
       <c r="L44" s="28">
-        <f>3.35+0.824</f>
-        <v>4.1740000000000004</v>
+        <f>L27+0.824</f>
+        <v>1.8239999999999998</v>
       </c>
       <c r="M44" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2810868.4742858419</v>
       </c>
       <c r="N44" s="28">
@@ -6436,7 +6587,7 @@
       </c>
       <c r="O44" s="28">
         <f t="shared" si="2"/>
-        <v>4.5830520000000003</v>
+        <v>2.0027520000000001</v>
       </c>
       <c r="P44" s="28">
         <f>P38-P5</f>
@@ -6470,14 +6621,16 @@
         <v>0</v>
       </c>
       <c r="Z44" s="28">
+        <f>Z43</f>
         <v>30</v>
       </c>
       <c r="AA44" s="28">
-        <f>0.03</f>
+        <f>AA43</f>
         <v>0.03</v>
       </c>
       <c r="AB44" s="28">
-        <v>0.05</v>
+        <f>AB43</f>
+        <v>0.04</v>
       </c>
       <c r="AC44" s="28">
         <v>0</v>
@@ -6486,13 +6639,13 @@
         <v>1</v>
       </c>
       <c r="AE44" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF44" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="28">
         <v>0</v>
@@ -6500,11 +6653,11 @@
       <c r="AI44" s="28">
         <v>1</v>
       </c>
-      <c r="AJ44" s="28">
-        <v>1</v>
+      <c r="AJ44" s="33">
+        <v>0</v>
       </c>
       <c r="AK44" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" s="28">
         <v>0</v>
@@ -6512,19 +6665,23 @@
       <c r="AM44" s="28">
         <v>0</v>
       </c>
-      <c r="AN44" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:41" s="28" customFormat="1">
+      <c r="AN44" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>Gas_Internal_Combustion_Engine_Cogen_CCS_EP</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" s="28" customFormat="1">
       <c r="A45" s="28">
         <v>42</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C45" s="28">
         <v>2007</v>
@@ -6533,7 +6690,7 @@
         <v>2014</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="F45" s="28">
         <v>2004</v>
@@ -6555,11 +6712,11 @@
         <v>32489</v>
       </c>
       <c r="L45" s="28">
-        <f>3.73+1.385</f>
+        <f>L21+1.385</f>
         <v>5.1150000000000002</v>
       </c>
       <c r="M45" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2790415.9071952482</v>
       </c>
       <c r="N45" s="28">
@@ -6631,11 +6788,11 @@
       <c r="AI45" s="28">
         <v>1</v>
       </c>
-      <c r="AJ45" s="28">
-        <v>1</v>
+      <c r="AJ45" s="33">
+        <v>0</v>
       </c>
       <c r="AK45" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL45" s="28">
         <v>0</v>
@@ -6643,19 +6800,23 @@
       <c r="AM45" s="28">
         <v>0</v>
       </c>
-      <c r="AN45" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO45" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:41" s="28" customFormat="1">
+      <c r="AN45" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>Coal_Steam_Turbine_CCS_EP</v>
+      </c>
+      <c r="AP45" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" s="28" customFormat="1">
       <c r="A46" s="28">
         <v>43</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="C46" s="28">
         <v>2007</v>
@@ -6664,7 +6825,7 @@
         <v>2014</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="F46" s="28">
         <v>2004</v>
@@ -6686,11 +6847,11 @@
         <v>34516</v>
       </c>
       <c r="L46" s="28">
-        <f>3.47+1.385</f>
+        <f>L22+1.385</f>
         <v>4.8550000000000004</v>
       </c>
       <c r="M46" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2810868.4742858419</v>
       </c>
       <c r="N46" s="28">
@@ -6763,11 +6924,11 @@
       <c r="AI46" s="28">
         <v>1</v>
       </c>
-      <c r="AJ46" s="28">
-        <v>1</v>
+      <c r="AJ46" s="33">
+        <v>0</v>
       </c>
       <c r="AK46" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="28">
         <v>0</v>
@@ -6775,19 +6936,23 @@
       <c r="AM46" s="28">
         <v>0</v>
       </c>
-      <c r="AN46" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO46" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:41" s="28" customFormat="1">
+      <c r="AN46" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>Gas_Steam_Turbine_CCS_EP</v>
+      </c>
+      <c r="AP46" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" s="28" customFormat="1">
       <c r="A47" s="28">
         <v>44</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C47" s="28">
         <v>2007</v>
@@ -6796,7 +6961,7 @@
         <v>2014</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="F47" s="28">
         <v>2004</v>
@@ -6818,11 +6983,11 @@
         <v>18436</v>
       </c>
       <c r="L47" s="28">
-        <f>3.35+ 0.824</f>
+        <f>L23+ 0.824</f>
         <v>4.1740000000000004</v>
       </c>
       <c r="M47" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2810868.4742858419</v>
       </c>
       <c r="N47" s="28">
@@ -6894,11 +7059,11 @@
       <c r="AI47" s="28">
         <v>1</v>
       </c>
-      <c r="AJ47" s="28">
-        <v>1</v>
+      <c r="AJ47" s="33">
+        <v>0</v>
       </c>
       <c r="AK47" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="28">
         <v>0</v>
@@ -6906,19 +7071,23 @@
       <c r="AM47" s="28">
         <v>0</v>
       </c>
-      <c r="AN47" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO47" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:41" s="28" customFormat="1">
+      <c r="AN47" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>CCGT_CCS_EP</v>
+      </c>
+      <c r="AP47" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" s="28" customFormat="1">
       <c r="A48" s="28">
         <v>45</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C48" s="28">
         <v>2007</v>
@@ -6927,7 +7096,7 @@
         <v>2014</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="F48" s="28">
         <v>2004</v>
@@ -6945,15 +7114,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K48" s="28">
-        <f t="shared" ref="K48:L51" si="11">K44</f>
+        <f t="shared" ref="K48:L51" si="10">K44</f>
         <v>18436</v>
       </c>
       <c r="L48" s="28">
-        <f t="shared" si="11"/>
+        <f>L20 + 0.824</f>
         <v>4.1740000000000004</v>
       </c>
       <c r="M48" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2810868.4742858419</v>
       </c>
       <c r="N48" s="28">
@@ -7000,11 +7169,11 @@
         <v>30</v>
       </c>
       <c r="AA48" s="28">
-        <f t="shared" ref="AA48:AB51" si="12">AA44</f>
+        <f t="shared" ref="AA48:AB51" si="11">AA44</f>
         <v>0.03</v>
       </c>
       <c r="AB48" s="28">
-        <f t="shared" si="12"/>
+        <f>AB32</f>
         <v>0.05</v>
       </c>
       <c r="AC48" s="28">
@@ -7028,11 +7197,11 @@
       <c r="AI48" s="28">
         <v>1</v>
       </c>
-      <c r="AJ48" s="28">
-        <v>1</v>
+      <c r="AJ48" s="33">
+        <v>0</v>
       </c>
       <c r="AK48" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="28">
         <v>0</v>
@@ -7040,19 +7209,23 @@
       <c r="AM48" s="28">
         <v>0</v>
       </c>
-      <c r="AN48" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO48" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:41" s="28" customFormat="1">
+      <c r="AN48" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>Gas_Combustion_Turbine_Cogen_CCS_EP</v>
+      </c>
+      <c r="AP48" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" s="28" customFormat="1">
       <c r="A49" s="28">
         <v>46</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C49" s="28">
         <v>2007</v>
@@ -7061,7 +7234,7 @@
         <v>2014</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="F49" s="28">
         <v>2004</v>
@@ -7079,15 +7252,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K49" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>32489</v>
       </c>
       <c r="L49" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5.1150000000000002</v>
       </c>
       <c r="M49" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2790415.9071952482</v>
       </c>
       <c r="N49" s="28">
@@ -7134,11 +7307,11 @@
         <v>60</v>
       </c>
       <c r="AA49" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.06</v>
       </c>
       <c r="AB49" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
       <c r="AC49" s="28">
@@ -7162,11 +7335,11 @@
       <c r="AI49" s="28">
         <v>1</v>
       </c>
-      <c r="AJ49" s="28">
-        <v>1</v>
+      <c r="AJ49" s="33">
+        <v>0</v>
       </c>
       <c r="AK49" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="28">
         <v>0</v>
@@ -7174,19 +7347,23 @@
       <c r="AM49" s="28">
         <v>0</v>
       </c>
-      <c r="AN49" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO49" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:41" s="28" customFormat="1">
+      <c r="AN49" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>Coal_Steam_Turbine_Cogen_CCS_EP</v>
+      </c>
+      <c r="AP49" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" s="28" customFormat="1">
       <c r="A50" s="28">
         <v>47</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C50" s="28">
         <v>2007</v>
@@ -7195,7 +7372,7 @@
         <v>2014</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="F50" s="28">
         <v>2004</v>
@@ -7213,15 +7390,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K50" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>34516</v>
       </c>
       <c r="L50" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.8550000000000004</v>
       </c>
       <c r="M50" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2810868.4742858419</v>
       </c>
       <c r="N50" s="28">
@@ -7268,11 +7445,11 @@
         <v>45</v>
       </c>
       <c r="AA50" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
       <c r="AB50" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="AC50" s="28">
@@ -7296,11 +7473,11 @@
       <c r="AI50" s="28">
         <v>1</v>
       </c>
-      <c r="AJ50" s="28">
-        <v>1</v>
+      <c r="AJ50" s="33">
+        <v>0</v>
       </c>
       <c r="AK50" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL50" s="28">
         <v>0</v>
@@ -7308,19 +7485,23 @@
       <c r="AM50" s="28">
         <v>0</v>
       </c>
-      <c r="AN50" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO50" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:41" s="28" customFormat="1">
+      <c r="AN50" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>Gas_Steam_Turbine_Cogen_CCS_EP</v>
+      </c>
+      <c r="AP50" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" s="28" customFormat="1">
       <c r="A51" s="28">
         <v>48</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C51" s="28">
         <v>2007</v>
@@ -7329,7 +7510,7 @@
         <v>2014</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="F51" s="28">
         <v>2004</v>
@@ -7347,15 +7528,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K51" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>18436</v>
       </c>
       <c r="L51" s="28">
-        <f t="shared" si="11"/>
+        <f>L47</f>
         <v>4.1740000000000004</v>
       </c>
       <c r="M51" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2810868.4742858419</v>
       </c>
       <c r="N51" s="28">
@@ -7402,109 +7583,1391 @@
         <v>30</v>
       </c>
       <c r="AA51" s="28">
+        <f t="shared" si="11"/>
+        <v>0.04</v>
+      </c>
+      <c r="AB51" s="28">
+        <f t="shared" si="11"/>
+        <v>0.06</v>
+      </c>
+      <c r="AC51" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="28">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ51" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>CCGT_Cogen_CCS_EP</v>
+      </c>
+      <c r="AP51" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42">
+      <c r="A52" s="5">
+        <v>60</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="25">
+        <f t="shared" ref="C52:D52" si="12">C20</f>
+        <v>2007</v>
+      </c>
+      <c r="D52" s="25">
         <f t="shared" si="12"/>
-        <v>0.04</v>
-      </c>
-      <c r="AB51" s="28">
-        <f t="shared" si="12"/>
-        <v>0.06</v>
-      </c>
-      <c r="AC51" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="28">
-        <v>1</v>
-      </c>
-      <c r="AE51" s="28">
-        <v>1</v>
-      </c>
-      <c r="AF51" s="33">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="33">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="28">
-        <v>1</v>
-      </c>
-      <c r="AJ51" s="28">
-        <v>1</v>
-      </c>
-      <c r="AK51" s="28">
-        <v>0</v>
-      </c>
-      <c r="AL51" s="28">
-        <v>0</v>
-      </c>
-      <c r="AM51" s="28">
-        <v>0</v>
-      </c>
-      <c r="AN51" s="28" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E52" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="25">
+        <f t="shared" ref="F52:H52" si="13">F20</f>
+        <v>2007</v>
+      </c>
+      <c r="G52" s="25">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H52" s="25">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+      <c r="I52" s="25">
+        <f>I20</f>
+        <v>652000</v>
+      </c>
+      <c r="J52" s="25">
+        <f t="shared" ref="J52:AP52" si="14">J20</f>
+        <v>1</v>
+      </c>
+      <c r="K52" s="25">
+        <f t="shared" si="14"/>
+        <v>11322</v>
+      </c>
+      <c r="L52" s="25">
+        <f t="shared" si="14"/>
+        <v>3.35</v>
+      </c>
+      <c r="M52" s="25">
+        <f t="shared" si="14"/>
+        <v>652000</v>
+      </c>
+      <c r="N52" s="25">
+        <f t="shared" si="14"/>
+        <v>11322</v>
+      </c>
+      <c r="O52" s="25">
+        <f t="shared" si="14"/>
+        <v>3.35</v>
+      </c>
+      <c r="P52" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="25">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="T52" s="25">
+        <f t="shared" si="14"/>
+        <v>0.8</v>
+      </c>
+      <c r="U52" s="25">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="V52" s="25">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="W52" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="25">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="AA52" s="25">
+        <f t="shared" si="14"/>
+        <v>0.03</v>
+      </c>
+      <c r="AB52" s="25">
+        <f t="shared" si="14"/>
+        <v>0.05</v>
+      </c>
+      <c r="AC52" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AE52" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AG52" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH52" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AI52" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AL52" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AM52" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AN52" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO52" s="33" t="str">
+        <f>B52</f>
+        <v>DistillateFuelOil_Combustion_Turbine_EP</v>
+      </c>
+      <c r="AP52" s="25" t="str">
+        <f t="shared" si="14"/>
+        <v>ReEDs Sheet</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42">
+      <c r="A53" s="5">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="33">
+        <f t="shared" ref="C53:D53" si="15">C27</f>
+        <v>2007</v>
+      </c>
+      <c r="D53" s="33">
+        <f t="shared" si="15"/>
+        <v>2000</v>
+      </c>
+      <c r="E53" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53" s="33">
+        <f t="shared" ref="F53:H53" si="16">F27</f>
+        <v>2007</v>
+      </c>
+      <c r="G53" s="33">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H53" s="33">
+        <f t="shared" si="16"/>
+        <v>2000</v>
+      </c>
+      <c r="I53">
+        <f>I27</f>
+        <v>652000</v>
+      </c>
+      <c r="J53" s="33">
+        <f t="shared" ref="J53:AP53" si="17">J27</f>
+        <v>1</v>
+      </c>
+      <c r="K53" s="33">
+        <f t="shared" si="17"/>
+        <v>30000</v>
+      </c>
+      <c r="L53" s="33">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="M53" s="33">
+        <f t="shared" si="17"/>
+        <v>652000</v>
+      </c>
+      <c r="N53" s="33">
+        <f t="shared" si="17"/>
+        <v>30000</v>
+      </c>
+      <c r="O53" s="33">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="P53" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="33">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="T53" s="33">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="U53" s="33">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+      <c r="V53" s="33">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+      <c r="W53" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="33">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="AA53" s="33">
+        <f t="shared" si="17"/>
+        <v>0.03</v>
+      </c>
+      <c r="AB53" s="33">
+        <f t="shared" si="17"/>
+        <v>0.05</v>
+      </c>
+      <c r="AC53" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="33">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AE53" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="33">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AG53" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AH53" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AI53" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AL53" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM53" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN53" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO53" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>DistillateFuelOil_Internal_Combustion_Engine_EP</v>
+      </c>
+      <c r="AP53" s="33" t="str">
+        <f t="shared" si="17"/>
+        <v>ReEDs Sheet</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" s="33" customFormat="1">
+      <c r="A54" s="33">
+        <v>80</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="25">
+        <f>C11</f>
+        <v>2007</v>
+      </c>
+      <c r="D54" s="25">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="25" t="str">
+        <f t="shared" ref="E54:AN54" si="18">E11</f>
+        <v>Bio_Gas</v>
+      </c>
+      <c r="F54" s="25">
+        <f t="shared" si="18"/>
+        <v>2007</v>
+      </c>
+      <c r="G54" s="25">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="H54" s="25">
+        <f t="shared" si="18"/>
+        <v>2008</v>
+      </c>
+      <c r="I54" s="25">
+        <f t="shared" si="18"/>
+        <v>2377000</v>
+      </c>
+      <c r="J54" s="25">
+        <v>1</v>
+      </c>
+      <c r="K54" s="25">
+        <f>K11</f>
+        <v>114250</v>
+      </c>
+      <c r="L54" s="25">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="M54" s="25">
+        <f>I54*J54*G54/(1+P54)^(H54-2007)</f>
+        <v>2377000</v>
+      </c>
+      <c r="N54" s="25">
+        <f t="shared" si="18"/>
+        <v>114250</v>
+      </c>
+      <c r="O54" s="25">
+        <f t="shared" si="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="P54" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="25">
+        <v>0</v>
+      </c>
+      <c r="R54" s="25">
+        <v>0</v>
+      </c>
+      <c r="S54" s="25">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="T54" s="25">
+        <f t="shared" si="18"/>
+        <v>0.8</v>
+      </c>
+      <c r="U54" s="25">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="V54" s="25">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="W54" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X54" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="25">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="AA54" s="25">
+        <f t="shared" si="18"/>
+        <v>0.03</v>
+      </c>
+      <c r="AB54" s="25">
+        <f t="shared" si="18"/>
+        <v>0.05</v>
+      </c>
+      <c r="AC54" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD54" s="25">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AE54" s="25">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AF54" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AH54" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI54" s="25">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="25">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AL54" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AM54" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AN54" s="25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AO54" s="25" t="str">
+        <f>B54</f>
+        <v>Bio_Gas_Internal_Combustion_Engine_EP</v>
+      </c>
+      <c r="AP54" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" s="33" customFormat="1">
+      <c r="A55" s="33">
+        <v>81</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="33">
+        <f>C54</f>
+        <v>2007</v>
+      </c>
+      <c r="D55" s="33">
+        <f t="shared" ref="D55:AN56" si="19">D54</f>
+        <v>2000</v>
+      </c>
+      <c r="E55" s="33" t="str">
+        <f t="shared" si="19"/>
+        <v>Bio_Gas</v>
+      </c>
+      <c r="F55" s="33">
+        <f t="shared" si="19"/>
+        <v>2007</v>
+      </c>
+      <c r="G55" s="33">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H55" s="33">
+        <f t="shared" si="19"/>
+        <v>2008</v>
+      </c>
+      <c r="I55" s="33">
+        <f t="shared" si="19"/>
+        <v>2377000</v>
+      </c>
+      <c r="J55" s="33">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="33">
+        <f t="shared" si="19"/>
+        <v>114250</v>
+      </c>
+      <c r="L55" s="33">
+        <f t="shared" si="19"/>
+        <v>0.01</v>
+      </c>
+      <c r="M55" s="33">
+        <f>M54*0.75</f>
+        <v>1782750</v>
+      </c>
+      <c r="N55" s="33">
+        <f t="shared" si="19"/>
+        <v>114250</v>
+      </c>
+      <c r="O55" s="33">
+        <f t="shared" si="19"/>
+        <v>0.01</v>
+      </c>
+      <c r="P55" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="33">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="T55" s="33">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+      <c r="U55" s="33">
+        <f t="shared" si="19"/>
+        <v>0.1</v>
+      </c>
+      <c r="V55" s="33">
+        <f t="shared" si="19"/>
+        <v>0.1</v>
+      </c>
+      <c r="W55" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="33">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="AA55" s="33">
+        <f t="shared" si="19"/>
+        <v>0.03</v>
+      </c>
+      <c r="AB55" s="33">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="AC55" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AD55" s="33">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AE55" s="33">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AF55" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="33">
+        <v>1</v>
+      </c>
+      <c r="AH55" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AI55" s="33">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="33">
+        <v>1</v>
+      </c>
+      <c r="AK55" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AL55" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM55" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN55" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AO55" s="25" t="str">
+        <f t="shared" ref="AO55:AO56" si="20">B55</f>
+        <v>Bio_Gas_Internal_Combustion_Engine_Cogen_EP</v>
+      </c>
+      <c r="AP55" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" s="33" customFormat="1">
+      <c r="A56" s="33">
+        <v>82</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="33">
+        <f>C22</f>
+        <v>2007</v>
+      </c>
+      <c r="D56" s="33">
+        <f t="shared" ref="D56:AN56" si="21">D22</f>
+        <v>2000</v>
+      </c>
+      <c r="E56" s="33" t="str">
+        <f t="shared" si="19"/>
+        <v>Bio_Gas</v>
+      </c>
+      <c r="F56" s="33">
+        <f>F12</f>
+        <v>2004</v>
+      </c>
+      <c r="G56" s="33">
+        <f>G12</f>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="H56" s="33">
+        <f t="shared" si="21"/>
+        <v>2000</v>
+      </c>
+      <c r="I56" s="33">
+        <f>I12</f>
+        <v>2617450</v>
+      </c>
+      <c r="J56" s="33">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="K56" s="33">
+        <f>K12</f>
+        <v>66626</v>
+      </c>
+      <c r="L56" s="33">
+        <f>L12</f>
+        <v>9.5180000000000007</v>
+      </c>
+      <c r="M56" s="33">
+        <f>I56*J56*G56/(1+P56)^(H56-2007)</f>
+        <v>2873960.1</v>
+      </c>
+      <c r="N56" s="33">
+        <f>K56*G56</f>
+        <v>73155.348000000013</v>
+      </c>
+      <c r="O56" s="33">
+        <f>L56*G56</f>
+        <v>10.450764000000001</v>
+      </c>
+      <c r="P56" s="33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="33">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="T56" s="33">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="U56" s="33">
+        <f t="shared" si="21"/>
+        <v>0.4</v>
+      </c>
+      <c r="V56" s="33">
+        <f t="shared" si="21"/>
+        <v>0.1</v>
+      </c>
+      <c r="W56" s="33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="33">
+        <f t="shared" si="21"/>
+        <v>45</v>
+      </c>
+      <c r="AA56" s="33">
+        <f t="shared" si="21"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB56" s="33">
+        <f t="shared" si="21"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AC56" s="33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD56" s="33">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AE56" s="33">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AH56" s="33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AI56" s="33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="33">
+        <v>1</v>
+      </c>
+      <c r="AK56" s="33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AL56" s="33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AM56" s="33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AN56" s="33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AO56" s="25" t="str">
+        <f t="shared" si="20"/>
+        <v>Bio_Gas_Steam_Turbine_EP</v>
+      </c>
+      <c r="AP56" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42">
+      <c r="A57" s="5">
+        <v>85</v>
+      </c>
+      <c r="B57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="5">
+        <f>C56</f>
+        <v>2007</v>
+      </c>
+      <c r="D57" s="33">
+        <f t="shared" ref="D57" si="22">D56</f>
+        <v>2000</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" s="33">
+        <f t="shared" ref="F57:AN57" si="23">F56</f>
+        <v>2004</v>
+      </c>
+      <c r="G57" s="33">
+        <f t="shared" si="23"/>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="H57" s="33">
+        <f t="shared" si="23"/>
+        <v>2000</v>
+      </c>
+      <c r="I57" s="33">
+        <f>I56*0.75</f>
+        <v>1963087.5</v>
+      </c>
+      <c r="J57" s="33">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="K57" s="33">
+        <f t="shared" si="23"/>
+        <v>66626</v>
+      </c>
+      <c r="L57" s="33">
+        <f t="shared" si="23"/>
+        <v>9.5180000000000007</v>
+      </c>
+      <c r="M57" s="33">
+        <f>M56*0.75</f>
+        <v>2155470.0750000002</v>
+      </c>
+      <c r="N57" s="33">
+        <f>K57*G57</f>
+        <v>73155.348000000013</v>
+      </c>
+      <c r="O57" s="33">
+        <f>L57*G57</f>
+        <v>10.450764000000001</v>
+      </c>
+      <c r="P57" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="33">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="T57" s="33">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="U57" s="33">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="V57" s="33">
+        <f t="shared" si="23"/>
+        <v>0.1</v>
+      </c>
+      <c r="W57" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="33">
+        <f t="shared" si="23"/>
+        <v>45</v>
+      </c>
+      <c r="AA57" s="33">
+        <f t="shared" si="23"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB57" s="33">
+        <f t="shared" si="23"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AC57" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AD57" s="33">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AE57" s="33">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AF57" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="33">
+        <v>1</v>
+      </c>
+      <c r="AH57" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AI57" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="33">
+        <v>1</v>
+      </c>
+      <c r="AK57" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AL57" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AM57" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AN57" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AO57" s="33" t="str">
+        <f>B57</f>
+        <v>Bio_Liquid_Steam_Turbine_Cogen_EP</v>
+      </c>
+      <c r="AP57" s="33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42">
+      <c r="A58" s="5">
+        <v>90</v>
+      </c>
+      <c r="B58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="33">
+        <f>C56</f>
+        <v>2007</v>
+      </c>
+      <c r="D58" s="33">
+        <f t="shared" ref="D58:AP58" si="24">D56</f>
+        <v>2000</v>
+      </c>
+      <c r="E58" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AO51" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:41" s="5" customFormat="1">
-      <c r="G52" s="11"/>
-      <c r="AF52" s="33"/>
-      <c r="AG52" s="33"/>
-      <c r="AI52" s="12"/>
-      <c r="AJ52" s="27"/>
-      <c r="AK52" s="15"/>
-      <c r="AL52" s="27"/>
-      <c r="AM52" s="27"/>
-    </row>
-    <row r="53" spans="1:41" s="6" customFormat="1"/>
-    <row r="54" spans="1:41">
-      <c r="I54" s="25"/>
-      <c r="S54" s="5"/>
-      <c r="Y54"/>
-    </row>
-    <row r="55" spans="1:41">
-      <c r="S55" s="5"/>
-      <c r="Y55"/>
-    </row>
-    <row r="56" spans="1:41">
-      <c r="S56" s="5"/>
-      <c r="Y56"/>
-    </row>
-    <row r="57" spans="1:41" s="22" customFormat="1">
-      <c r="AF57" s="33"/>
-      <c r="AG57" s="33"/>
-      <c r="AJ57" s="27"/>
-      <c r="AL57" s="27"/>
-      <c r="AM57" s="27"/>
-    </row>
-    <row r="58" spans="1:41">
-      <c r="S58" s="5"/>
-      <c r="Y58"/>
-    </row>
-    <row r="59" spans="1:41">
-      <c r="S59" s="5"/>
-      <c r="Y59"/>
-    </row>
-    <row r="60" spans="1:41">
+      <c r="F58" s="33">
+        <f t="shared" si="24"/>
+        <v>2004</v>
+      </c>
+      <c r="G58" s="33">
+        <f t="shared" si="24"/>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="H58" s="33">
+        <f t="shared" si="24"/>
+        <v>2000</v>
+      </c>
+      <c r="I58" s="33">
+        <f t="shared" si="24"/>
+        <v>2617450</v>
+      </c>
+      <c r="J58" s="33">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="33">
+        <f t="shared" si="24"/>
+        <v>66626</v>
+      </c>
+      <c r="L58" s="33">
+        <f t="shared" si="24"/>
+        <v>9.5180000000000007</v>
+      </c>
+      <c r="M58" s="33">
+        <f t="shared" si="24"/>
+        <v>2873960.1</v>
+      </c>
+      <c r="N58" s="33">
+        <f t="shared" si="24"/>
+        <v>73155.348000000013</v>
+      </c>
+      <c r="O58" s="33">
+        <f t="shared" si="24"/>
+        <v>10.450764000000001</v>
+      </c>
+      <c r="P58" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="33">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="T58" s="33">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="U58" s="33">
+        <f t="shared" si="24"/>
+        <v>0.4</v>
+      </c>
+      <c r="V58" s="33">
+        <f t="shared" si="24"/>
+        <v>0.1</v>
+      </c>
+      <c r="W58" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X58" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="33">
+        <f t="shared" si="24"/>
+        <v>45</v>
+      </c>
+      <c r="AA58" s="33">
+        <f t="shared" si="24"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB58" s="33">
+        <f t="shared" si="24"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AC58" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AD58" s="33">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AE58" s="33">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AF58" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AH58" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AI58" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="33">
+        <v>1</v>
+      </c>
+      <c r="AK58" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AL58" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AM58" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AN58" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AO58" s="33" t="str">
+        <f>B58</f>
+        <v>Bio_Solid_Steam_Turbine_EP</v>
+      </c>
+      <c r="AP58" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>ReEDs Sheet, took OGS (Oil Gas Steam) values for all but costs:  costs from Biomass_Steam_Turbine</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42">
+      <c r="A59" s="5">
+        <v>91</v>
+      </c>
+      <c r="B59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="33">
+        <f>C57</f>
+        <v>2007</v>
+      </c>
+      <c r="D59" s="33">
+        <f t="shared" ref="D59:AP59" si="25">D57</f>
+        <v>2000</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="33">
+        <f t="shared" si="25"/>
+        <v>2004</v>
+      </c>
+      <c r="G59" s="33">
+        <f t="shared" si="25"/>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="H59" s="33">
+        <f t="shared" si="25"/>
+        <v>2000</v>
+      </c>
+      <c r="I59" s="33">
+        <f t="shared" si="25"/>
+        <v>1963087.5</v>
+      </c>
+      <c r="J59" s="33">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K59" s="33">
+        <f t="shared" si="25"/>
+        <v>66626</v>
+      </c>
+      <c r="L59" s="33">
+        <f t="shared" si="25"/>
+        <v>9.5180000000000007</v>
+      </c>
+      <c r="M59" s="33">
+        <f t="shared" si="25"/>
+        <v>2155470.0750000002</v>
+      </c>
+      <c r="N59" s="33">
+        <f t="shared" si="25"/>
+        <v>73155.348000000013</v>
+      </c>
+      <c r="O59" s="33">
+        <f t="shared" si="25"/>
+        <v>10.450764000000001</v>
+      </c>
+      <c r="P59" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="33">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="T59" s="33">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="U59" s="33">
+        <f t="shared" si="25"/>
+        <v>0.4</v>
+      </c>
+      <c r="V59" s="33">
+        <f t="shared" si="25"/>
+        <v>0.1</v>
+      </c>
+      <c r="W59" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="X59" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="33">
+        <f t="shared" si="25"/>
+        <v>45</v>
+      </c>
+      <c r="AA59" s="33">
+        <f t="shared" si="25"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB59" s="33">
+        <f t="shared" si="25"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AC59" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AD59" s="33">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AE59" s="33">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AF59" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="33">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AH59" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AI59" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="33">
+        <v>1</v>
+      </c>
+      <c r="AK59" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AL59" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AM59" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AN59" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AO59" s="33" t="str">
+        <f>B59</f>
+        <v>Bio_Solid_Steam_Turbine_Cogen_EP</v>
+      </c>
+      <c r="AP59" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>ReEDs Sheet, took OGS (Oil Gas Steam) values for all but costs:  costs from Biomass_Steam_Turbine, 75% of capex for cogen</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42">
       <c r="S60" s="5"/>
       <c r="Y60"/>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:42">
       <c r="S61" s="5"/>
       <c r="Y61"/>
-    </row>
-    <row r="62" spans="1:41">
+      <c r="AP61" s="33"/>
+    </row>
+    <row r="62" spans="1:42">
       <c r="S62" s="5"/>
       <c r="Y62"/>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:42">
       <c r="S63" s="5"/>
       <c r="Y63"/>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:42">
       <c r="S64" s="5"/>
       <c r="Y64"/>
     </row>
@@ -7520,95 +8983,83 @@
       <c r="S67" s="5"/>
       <c r="Y67"/>
     </row>
-    <row r="68" spans="19:25">
-      <c r="S68" s="5"/>
-      <c r="Y68"/>
-    </row>
-    <row r="69" spans="19:25">
-      <c r="S69" s="5"/>
-      <c r="Y69"/>
-    </row>
-    <row r="70" spans="19:25">
-      <c r="S70" s="5"/>
-      <c r="Y70"/>
-    </row>
-    <row r="90" spans="13:39">
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="T90"/>
-      <c r="U90"/>
-      <c r="V90"/>
-      <c r="W90"/>
-      <c r="X90"/>
-      <c r="Y90"/>
-      <c r="Z90" s="12"/>
-      <c r="AA90" s="27"/>
-      <c r="AB90" s="15"/>
-      <c r="AC90" s="27"/>
-      <c r="AD90" s="27"/>
-      <c r="AI90"/>
-      <c r="AJ90"/>
-      <c r="AK90"/>
-      <c r="AL90"/>
-      <c r="AM90"/>
-    </row>
-    <row r="91" spans="13:39">
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="T91"/>
-      <c r="U91"/>
-      <c r="V91"/>
-      <c r="W91"/>
-      <c r="X91"/>
-      <c r="Y91"/>
-      <c r="Z91" s="12"/>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="15"/>
-      <c r="AC91" s="27"/>
-      <c r="AD91" s="27"/>
-      <c r="AI91"/>
-      <c r="AJ91"/>
-      <c r="AK91"/>
-      <c r="AL91"/>
-      <c r="AM91"/>
-    </row>
-    <row r="92" spans="13:39">
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="T92"/>
-      <c r="U92"/>
-      <c r="V92"/>
-      <c r="W92"/>
-      <c r="X92"/>
-      <c r="Y92"/>
-      <c r="Z92" s="12"/>
-      <c r="AA92" s="27"/>
-      <c r="AB92" s="15"/>
-      <c r="AC92" s="27"/>
-      <c r="AD92" s="27"/>
-      <c r="AI92"/>
-      <c r="AJ92"/>
-      <c r="AK92"/>
-      <c r="AL92"/>
-      <c r="AM92"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="33"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="33"/>
+    <row r="87" spans="13:40">
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87" s="12"/>
+      <c r="AA87" s="27"/>
+      <c r="AB87" s="15"/>
+      <c r="AC87" s="27"/>
+      <c r="AD87" s="27"/>
+      <c r="AI87"/>
+      <c r="AK87"/>
+      <c r="AL87"/>
+      <c r="AM87"/>
+      <c r="AN87"/>
+    </row>
+    <row r="88" spans="13:40">
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88" s="12"/>
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="15"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="27"/>
+      <c r="AI88"/>
+      <c r="AK88"/>
+      <c r="AL88"/>
+      <c r="AM88"/>
+      <c r="AN88"/>
+    </row>
+    <row r="89" spans="13:40">
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89" s="12"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="15"/>
+      <c r="AC89" s="27"/>
+      <c r="AD89" s="27"/>
+      <c r="AI89"/>
+      <c r="AK89"/>
+      <c r="AL89"/>
+      <c r="AM89"/>
+      <c r="AN89"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="33"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7623,10 +9074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AF53"/>
+  <dimension ref="A1:AG61"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -7637,10 +9088,11 @@
     <col min="5" max="5" width="10.7109375" style="3"/>
     <col min="12" max="12" width="26.42578125" customWidth="1"/>
     <col min="25" max="26" width="10.7109375" style="33"/>
-    <col min="29" max="29" width="10.7109375" style="27"/>
+    <col min="29" max="29" width="10.7109375" style="33"/>
+    <col min="30" max="30" width="10.7109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="5" customFormat="1">
+    <row r="1" spans="1:33" s="5" customFormat="1">
       <c r="A1" s="5" t="str">
         <f>generator_costs!A3</f>
         <v>technology_id</v>
@@ -7755,22 +9207,26 @@
       </c>
       <c r="AC1" s="33" t="str">
         <f>generator_costs!AJ3</f>
-        <v>ccs</v>
+        <v>competes_for_space</v>
       </c>
       <c r="AD1" s="33" t="str">
         <f>generator_costs!AK3</f>
-        <v>storage</v>
+        <v>ccs</v>
       </c>
       <c r="AE1" s="33" t="str">
         <f>generator_costs!AL3</f>
-        <v>storage_efficiency</v>
+        <v>storage</v>
       </c>
       <c r="AF1" s="33" t="str">
         <f>generator_costs!AM3</f>
+        <v>storage_efficiency</v>
+      </c>
+      <c r="AG1" s="33" t="str">
+        <f>generator_costs!AN3</f>
         <v>max_store_rate</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="5" customFormat="1">
+    <row r="2" spans="1:33" s="5" customFormat="1">
       <c r="A2" s="5">
         <f>generator_costs!A4</f>
         <v>1</v>
@@ -7899,8 +9355,12 @@
         <f>generator_costs!AM4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" s="5" customFormat="1">
+      <c r="AG2" s="33">
+        <f>generator_costs!AN4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="5" customFormat="1">
       <c r="A3" s="33">
         <f>generator_costs!A5</f>
         <v>2</v>
@@ -8029,8 +9489,12 @@
         <f>generator_costs!AM5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" s="22" customFormat="1">
+      <c r="AG3" s="33">
+        <f>generator_costs!AN5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="22" customFormat="1">
       <c r="A4" s="33">
         <f>generator_costs!A6</f>
         <v>3</v>
@@ -8145,7 +9609,7 @@
       </c>
       <c r="AC4" s="33">
         <f>generator_costs!AJ6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="33">
         <f>generator_costs!AK6</f>
@@ -8159,8 +9623,12 @@
         <f>generator_costs!AM6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" s="5" customFormat="1">
+      <c r="AG4" s="33">
+        <f>generator_costs!AN6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="5" customFormat="1">
       <c r="A5" s="33">
         <f>generator_costs!A7</f>
         <v>4</v>
@@ -8289,8 +9757,12 @@
         <f>generator_costs!AM7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" s="5" customFormat="1">
+      <c r="AG5" s="33">
+        <f>generator_costs!AN7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="5" customFormat="1">
       <c r="A6" s="33">
         <f>generator_costs!A8</f>
         <v>5</v>
@@ -8419,8 +9891,12 @@
         <f>generator_costs!AM8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" s="5" customFormat="1">
+      <c r="AG6" s="33">
+        <f>generator_costs!AN8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="5" customFormat="1">
       <c r="A7" s="33">
         <f>generator_costs!A9</f>
         <v>6</v>
@@ -8549,8 +10025,12 @@
         <f>generator_costs!AM9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" s="5" customFormat="1">
+      <c r="AG7" s="33">
+        <f>generator_costs!AN9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="5" customFormat="1">
       <c r="A8" s="33">
         <f>generator_costs!A10</f>
         <v>7</v>
@@ -8665,7 +10145,7 @@
       </c>
       <c r="AC8" s="33">
         <f>generator_costs!AJ10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="33">
         <f>generator_costs!AK10</f>
@@ -8679,8 +10159,12 @@
         <f>generator_costs!AM10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" s="5" customFormat="1">
+      <c r="AG8" s="33">
+        <f>generator_costs!AN10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="5" customFormat="1">
       <c r="A9" s="33">
         <f>generator_costs!A11</f>
         <v>8</v>
@@ -8795,7 +10279,7 @@
       </c>
       <c r="AC9" s="33">
         <f>generator_costs!AJ11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="33">
         <f>generator_costs!AK11</f>
@@ -8809,8 +10293,12 @@
         <f>generator_costs!AM11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" s="5" customFormat="1">
+      <c r="AG9" s="33">
+        <f>generator_costs!AN11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="5" customFormat="1">
       <c r="A10" s="33">
         <f>generator_costs!A12</f>
         <v>9</v>
@@ -8925,7 +10413,7 @@
       </c>
       <c r="AC10" s="33">
         <f>generator_costs!AJ12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="33">
         <f>generator_costs!AK12</f>
@@ -8939,8 +10427,12 @@
         <f>generator_costs!AM12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" s="5" customFormat="1">
+      <c r="AG10" s="33">
+        <f>generator_costs!AN12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="5" customFormat="1">
       <c r="A11" s="33">
         <f>generator_costs!A13</f>
         <v>10</v>
@@ -9055,7 +10547,7 @@
       </c>
       <c r="AC11" s="33">
         <f>generator_costs!AJ13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="33">
         <f>generator_costs!AK13</f>
@@ -9069,8 +10561,12 @@
         <f>generator_costs!AM13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" s="5" customFormat="1">
+      <c r="AG11" s="33">
+        <f>generator_costs!AN13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="5" customFormat="1">
       <c r="A12" s="33">
         <f>generator_costs!A14</f>
         <v>11</v>
@@ -9199,8 +10695,12 @@
         <f>generator_costs!AM14</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" s="5" customFormat="1">
+      <c r="AG12" s="33">
+        <f>generator_costs!AN14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="5" customFormat="1">
       <c r="A13" s="33">
         <f>generator_costs!A15</f>
         <v>12</v>
@@ -9329,8 +10829,12 @@
         <f>generator_costs!AM15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13" s="33">
+        <f>generator_costs!AN15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" s="33">
         <f>generator_costs!A16</f>
         <v>13</v>
@@ -9459,8 +10963,12 @@
         <f>generator_costs!AM16</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14" s="33">
+        <f>generator_costs!AN16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" s="33">
         <f>generator_costs!A17</f>
         <v>14</v>
@@ -9589,8 +11097,12 @@
         <f>generator_costs!AM17</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15" s="33">
+        <f>generator_costs!AN17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" s="33">
         <f>generator_costs!A18</f>
         <v>15</v>
@@ -9719,8 +11231,12 @@
         <f>generator_costs!AM18</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16" s="33">
+        <f>generator_costs!AN18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" s="33">
         <f>generator_costs!A19</f>
         <v>16</v>
@@ -9839,18 +11355,22 @@
       </c>
       <c r="AD17" s="33">
         <f>generator_costs!AK19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="33">
         <f>generator_costs!AL19</f>
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="33">
         <f>generator_costs!AM19</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32">
+        <v>0.74</v>
+      </c>
+      <c r="AG17" s="33">
+        <f>generator_costs!AN19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" s="33">
         <f>generator_costs!A20</f>
         <v>17</v>
@@ -9979,8 +11499,12 @@
         <f>generator_costs!AM20</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18" s="33">
+        <f>generator_costs!AN20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" s="33">
         <f>generator_costs!A21</f>
         <v>18</v>
@@ -10109,8 +11633,12 @@
         <f>generator_costs!AM21</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19" s="33">
+        <f>generator_costs!AN21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" s="33">
         <f>generator_costs!A22</f>
         <v>19</v>
@@ -10239,8 +11767,12 @@
         <f>generator_costs!AM22</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20" s="33">
+        <f>generator_costs!AN22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" s="33">
         <f>generator_costs!A23</f>
         <v>20</v>
@@ -10369,8 +11901,12 @@
         <f>generator_costs!AM23</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21" s="33">
+        <f>generator_costs!AN23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" s="33">
         <f>generator_costs!A24</f>
         <v>21</v>
@@ -10499,8 +12035,12 @@
         <f>generator_costs!AM24</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22" s="33">
+        <f>generator_costs!AN24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" s="33">
         <f>generator_costs!A25</f>
         <v>22</v>
@@ -10629,8 +12169,12 @@
         <f>generator_costs!AM25</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23" s="33">
+        <f>generator_costs!AN25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" s="33">
         <f>generator_costs!A26</f>
         <v>23</v>
@@ -10759,8 +12303,12 @@
         <f>generator_costs!AM26</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24" s="33">
+        <f>generator_costs!AN26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" s="33">
         <f>generator_costs!A27</f>
         <v>24</v>
@@ -10889,8 +12437,12 @@
         <f>generator_costs!AM27</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25" s="33">
+        <f>generator_costs!AN27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" s="33">
         <f>generator_costs!A28</f>
         <v>25</v>
@@ -11019,8 +12571,12 @@
         <f>generator_costs!AM28</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26" s="33">
+        <f>generator_costs!AN28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" s="33">
         <f>generator_costs!A29</f>
         <v>26</v>
@@ -11135,7 +12691,7 @@
       </c>
       <c r="AC27" s="33">
         <f>generator_costs!AJ29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" s="33">
         <f>generator_costs!AK29</f>
@@ -11149,8 +12705,12 @@
         <f>generator_costs!AM29</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27" s="33">
+        <f>generator_costs!AN29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" s="33">
         <f>generator_costs!A30</f>
         <v>27</v>
@@ -11265,7 +12825,7 @@
       </c>
       <c r="AC28" s="33">
         <f>generator_costs!AJ30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="33">
         <f>generator_costs!AK30</f>
@@ -11279,8 +12839,12 @@
         <f>generator_costs!AM30</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28" s="33">
+        <f>generator_costs!AN30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" s="33">
         <f>generator_costs!A31</f>
         <v>28</v>
@@ -11399,18 +12963,22 @@
       </c>
       <c r="AD29" s="33">
         <f>generator_costs!AK31</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="33">
         <f>generator_costs!AL31</f>
-        <v>0.81699999999999995</v>
+        <v>1</v>
       </c>
       <c r="AF29" s="33">
         <f>generator_costs!AM31</f>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AG29" s="33">
+        <f>generator_costs!AN31</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:33">
       <c r="A30" s="33">
         <f>generator_costs!A32</f>
         <v>29</v>
@@ -11539,8 +13107,12 @@
         <f>generator_costs!AM32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30" s="33">
+        <f>generator_costs!AN32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" s="33">
         <f>generator_costs!A33</f>
         <v>30</v>
@@ -11669,8 +13241,12 @@
         <f>generator_costs!AM33</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31" s="33">
+        <f>generator_costs!AN33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" s="33">
         <f>generator_costs!A34</f>
         <v>31</v>
@@ -11799,8 +13375,12 @@
         <f>generator_costs!AM34</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AG32" s="33">
+        <f>generator_costs!AN34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" s="33">
         <f>generator_costs!A35</f>
         <v>32</v>
@@ -11929,8 +13509,12 @@
         <f>generator_costs!AM35</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AG33" s="33">
+        <f>generator_costs!AN35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" s="33">
         <f>generator_costs!A36</f>
         <v>33</v>
@@ -12049,18 +13633,22 @@
       </c>
       <c r="AD34" s="33">
         <f>generator_costs!AK36</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="33">
         <f>generator_costs!AL36</f>
-        <v>0.76700000000000002</v>
+        <v>1</v>
       </c>
       <c r="AF34" s="33">
         <f>generator_costs!AM36</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="AG34" s="33">
+        <f>generator_costs!AN36</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" s="33">
         <f>generator_costs!A37</f>
         <v>34</v>
@@ -12175,11 +13763,11 @@
       </c>
       <c r="AC35" s="33">
         <f>generator_costs!AJ37</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="33">
         <f>generator_costs!AK37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35" s="33">
         <f>generator_costs!AL37</f>
@@ -12189,8 +13777,12 @@
         <f>generator_costs!AM37</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AG35" s="33">
+        <f>generator_costs!AN37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" s="33">
         <f>generator_costs!A38</f>
         <v>35</v>
@@ -12305,11 +13897,11 @@
       </c>
       <c r="AC36" s="33">
         <f>generator_costs!AJ38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="33">
         <f>generator_costs!AK38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36" s="33">
         <f>generator_costs!AL38</f>
@@ -12319,8 +13911,12 @@
         <f>generator_costs!AM38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AG36" s="33">
+        <f>generator_costs!AN38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" s="33">
         <f>generator_costs!A39</f>
         <v>36</v>
@@ -12439,7 +14035,7 @@
       </c>
       <c r="AD37" s="33">
         <f>generator_costs!AK39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE37" s="33">
         <f>generator_costs!AL39</f>
@@ -12449,8 +14045,12 @@
         <f>generator_costs!AM39</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AG37" s="33">
+        <f>generator_costs!AN39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" s="33">
         <f>generator_costs!A40</f>
         <v>37</v>
@@ -12569,7 +14169,7 @@
       </c>
       <c r="AD38" s="33">
         <f>generator_costs!AK40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38" s="33">
         <f>generator_costs!AL40</f>
@@ -12579,8 +14179,12 @@
         <f>generator_costs!AM40</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AG38" s="33">
+        <f>generator_costs!AN40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" s="33">
         <f>generator_costs!A41</f>
         <v>38</v>
@@ -12695,11 +14299,11 @@
       </c>
       <c r="AC39" s="33">
         <f>generator_costs!AJ41</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="33">
         <f>generator_costs!AK41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE39" s="33">
         <f>generator_costs!AL41</f>
@@ -12709,8 +14313,12 @@
         <f>generator_costs!AM41</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" s="28" customFormat="1">
+      <c r="AG39" s="33">
+        <f>generator_costs!AN41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" s="28" customFormat="1">
       <c r="A40" s="33">
         <f>generator_costs!A42</f>
         <v>39</v>
@@ -12825,11 +14433,11 @@
       </c>
       <c r="AC40" s="33">
         <f>generator_costs!AJ42</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="33">
         <f>generator_costs!AK42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE40" s="33">
         <f>generator_costs!AL42</f>
@@ -12839,8 +14447,12 @@
         <f>generator_costs!AM42</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" s="28" customFormat="1">
+      <c r="AG40" s="33">
+        <f>generator_costs!AN42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" s="28" customFormat="1">
       <c r="A41" s="33">
         <f>generator_costs!A43</f>
         <v>40</v>
@@ -12969,15 +14581,19 @@
         <f>generator_costs!AM43</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" s="28" customFormat="1">
+      <c r="AG41" s="33">
+        <f>generator_costs!AN43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" s="28" customFormat="1">
       <c r="A42" s="33">
         <f>generator_costs!A44</f>
         <v>41</v>
       </c>
       <c r="B42" s="33" t="str">
         <f>generator_costs!B44</f>
-        <v>Gas_Combustion_Turbine_CCS_EP</v>
+        <v>Gas_Internal_Combustion_Engine_Cogen_CCS_EP</v>
       </c>
       <c r="C42" s="33">
         <f>generator_costs!C44</f>
@@ -13001,7 +14617,7 @@
       </c>
       <c r="H42" s="33">
         <f>generator_costs!O44</f>
-        <v>4.5830520000000003</v>
+        <v>2.0027520000000001</v>
       </c>
       <c r="I42" s="33">
         <f>generator_costs!P44</f>
@@ -13053,7 +14669,7 @@
       </c>
       <c r="U42" s="33">
         <f>generator_costs!AB44</f>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="V42" s="33">
         <f>generator_costs!AC44</f>
@@ -13065,15 +14681,15 @@
       </c>
       <c r="X42" s="33">
         <f>generator_costs!AE44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="33">
         <f>generator_costs!AF44</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="33">
         <f>generator_costs!AG44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42" s="33">
         <f>generator_costs!AH44</f>
@@ -13085,11 +14701,11 @@
       </c>
       <c r="AC42" s="33">
         <f>generator_costs!AJ44</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD42" s="33">
         <f>generator_costs!AK44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE42" s="33">
         <f>generator_costs!AL44</f>
@@ -13099,8 +14715,12 @@
         <f>generator_costs!AM44</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" s="28" customFormat="1">
+      <c r="AG42" s="33">
+        <f>generator_costs!AN44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" s="28" customFormat="1">
       <c r="A43" s="33">
         <f>generator_costs!A45</f>
         <v>42</v>
@@ -13215,11 +14835,11 @@
       </c>
       <c r="AC43" s="33">
         <f>generator_costs!AJ45</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="33">
         <f>generator_costs!AK45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE43" s="33">
         <f>generator_costs!AL45</f>
@@ -13229,8 +14849,12 @@
         <f>generator_costs!AM45</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" s="28" customFormat="1">
+      <c r="AG43" s="33">
+        <f>generator_costs!AN45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" s="28" customFormat="1">
       <c r="A44" s="33">
         <f>generator_costs!A46</f>
         <v>43</v>
@@ -13345,11 +14969,11 @@
       </c>
       <c r="AC44" s="33">
         <f>generator_costs!AJ46</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="33">
         <f>generator_costs!AK46</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE44" s="33">
         <f>generator_costs!AL46</f>
@@ -13359,8 +14983,12 @@
         <f>generator_costs!AM46</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" s="28" customFormat="1">
+      <c r="AG44" s="33">
+        <f>generator_costs!AN46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" s="28" customFormat="1">
       <c r="A45" s="33">
         <f>generator_costs!A47</f>
         <v>44</v>
@@ -13475,11 +15103,11 @@
       </c>
       <c r="AC45" s="33">
         <f>generator_costs!AJ47</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="33">
         <f>generator_costs!AK47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45" s="33">
         <f>generator_costs!AL47</f>
@@ -13489,8 +15117,12 @@
         <f>generator_costs!AM47</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" s="28" customFormat="1">
+      <c r="AG45" s="33">
+        <f>generator_costs!AN47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" s="28" customFormat="1">
       <c r="A46" s="33">
         <f>generator_costs!A48</f>
         <v>45</v>
@@ -13605,11 +15237,11 @@
       </c>
       <c r="AC46" s="33">
         <f>generator_costs!AJ48</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="33">
         <f>generator_costs!AK48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE46" s="33">
         <f>generator_costs!AL48</f>
@@ -13619,8 +15251,12 @@
         <f>generator_costs!AM48</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" s="28" customFormat="1">
+      <c r="AG46" s="33">
+        <f>generator_costs!AN48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" s="28" customFormat="1">
       <c r="A47" s="33">
         <f>generator_costs!A49</f>
         <v>46</v>
@@ -13735,11 +15371,11 @@
       </c>
       <c r="AC47" s="33">
         <f>generator_costs!AJ49</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD47" s="33">
         <f>generator_costs!AK49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE47" s="33">
         <f>generator_costs!AL49</f>
@@ -13749,8 +15385,12 @@
         <f>generator_costs!AM49</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:32">
+      <c r="AG47" s="33">
+        <f>generator_costs!AN49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" s="33">
         <f>generator_costs!A50</f>
         <v>47</v>
@@ -13865,11 +15505,11 @@
       </c>
       <c r="AC48" s="33">
         <f>generator_costs!AJ50</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD48" s="33">
         <f>generator_costs!AK50</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE48" s="33">
         <f>generator_costs!AL50</f>
@@ -13879,8 +15519,12 @@
         <f>generator_costs!AM50</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="AG48" s="33">
+        <f>generator_costs!AN50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" s="33">
         <f>generator_costs!A51</f>
         <v>48</v>
@@ -13995,11 +15639,11 @@
       </c>
       <c r="AC49" s="33">
         <f>generator_costs!AJ51</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD49" s="33">
         <f>generator_costs!AK51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE49" s="33">
         <f>generator_costs!AL51</f>
@@ -14009,18 +15653,1114 @@
         <f>generator_costs!AM51</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:32">
-      <c r="A50" s="33"/>
-    </row>
-    <row r="51" spans="1:32">
-      <c r="A51" s="33"/>
-    </row>
-    <row r="52" spans="1:32">
-      <c r="A52" s="33"/>
-    </row>
-    <row r="53" spans="1:32">
-      <c r="A53" s="33"/>
+      <c r="AG49" s="33">
+        <f>generator_costs!AN51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
+      <c r="A50" s="33">
+        <f>generator_costs!A52</f>
+        <v>60</v>
+      </c>
+      <c r="B50" s="33" t="str">
+        <f>generator_costs!B52</f>
+        <v>DistillateFuelOil_Combustion_Turbine_EP</v>
+      </c>
+      <c r="C50" s="33">
+        <f>generator_costs!C52</f>
+        <v>2007</v>
+      </c>
+      <c r="D50" s="33">
+        <f>generator_costs!D52</f>
+        <v>2000</v>
+      </c>
+      <c r="E50" s="33" t="str">
+        <f>generator_costs!E52</f>
+        <v>DistillateFuelOil</v>
+      </c>
+      <c r="F50" s="33">
+        <f>generator_costs!M52</f>
+        <v>652000</v>
+      </c>
+      <c r="G50" s="33">
+        <f>generator_costs!N52</f>
+        <v>11322</v>
+      </c>
+      <c r="H50" s="33">
+        <f>generator_costs!O52</f>
+        <v>3.35</v>
+      </c>
+      <c r="I50" s="33">
+        <f>generator_costs!P52</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="33">
+        <f>generator_costs!Q52</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="33">
+        <f>generator_costs!R52</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="33">
+        <f>generator_costs!S52</f>
+        <v>3</v>
+      </c>
+      <c r="M50" s="33">
+        <f>generator_costs!T52</f>
+        <v>0.8</v>
+      </c>
+      <c r="N50" s="33">
+        <f>generator_costs!U52</f>
+        <v>0.1</v>
+      </c>
+      <c r="O50" s="33">
+        <f>generator_costs!V52</f>
+        <v>0.1</v>
+      </c>
+      <c r="P50" s="33">
+        <f>generator_costs!W52</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="33">
+        <f>generator_costs!X52</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="33">
+        <f>generator_costs!Y52</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="33">
+        <f>generator_costs!Z52</f>
+        <v>30</v>
+      </c>
+      <c r="T50" s="33">
+        <f>generator_costs!AA52</f>
+        <v>0.03</v>
+      </c>
+      <c r="U50" s="33">
+        <f>generator_costs!AB52</f>
+        <v>0.05</v>
+      </c>
+      <c r="V50" s="33">
+        <f>generator_costs!AC52</f>
+        <v>0</v>
+      </c>
+      <c r="W50" s="33">
+        <f>generator_costs!AD52</f>
+        <v>1</v>
+      </c>
+      <c r="X50" s="33">
+        <f>generator_costs!AE52</f>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="33">
+        <f>generator_costs!AF52</f>
+        <v>1</v>
+      </c>
+      <c r="Z50" s="33">
+        <f>generator_costs!AG52</f>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="33">
+        <f>generator_costs!AH52</f>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="33">
+        <f>generator_costs!AI52</f>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="33">
+        <f>generator_costs!AJ52</f>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="33">
+        <f>generator_costs!AK52</f>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="33">
+        <f>generator_costs!AL52</f>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="33">
+        <f>generator_costs!AM52</f>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="33">
+        <f>generator_costs!AN52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
+      <c r="A51" s="33">
+        <f>generator_costs!A53</f>
+        <v>61</v>
+      </c>
+      <c r="B51" s="33" t="str">
+        <f>generator_costs!B53</f>
+        <v>DistillateFuelOil_Internal_Combustion_Engine_EP</v>
+      </c>
+      <c r="C51" s="33">
+        <f>generator_costs!C53</f>
+        <v>2007</v>
+      </c>
+      <c r="D51" s="33">
+        <f>generator_costs!D53</f>
+        <v>2000</v>
+      </c>
+      <c r="E51" s="33" t="str">
+        <f>generator_costs!E53</f>
+        <v>DistillateFuelOil</v>
+      </c>
+      <c r="F51" s="33">
+        <f>generator_costs!M53</f>
+        <v>652000</v>
+      </c>
+      <c r="G51" s="33">
+        <f>generator_costs!N53</f>
+        <v>30000</v>
+      </c>
+      <c r="H51" s="33">
+        <f>generator_costs!O53</f>
+        <v>1</v>
+      </c>
+      <c r="I51" s="33">
+        <f>generator_costs!P53</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="33">
+        <f>generator_costs!Q53</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="33">
+        <f>generator_costs!R53</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="33">
+        <f>generator_costs!S53</f>
+        <v>3</v>
+      </c>
+      <c r="M51" s="33">
+        <f>generator_costs!T53</f>
+        <v>0.8</v>
+      </c>
+      <c r="N51" s="33">
+        <f>generator_costs!U53</f>
+        <v>0.1</v>
+      </c>
+      <c r="O51" s="33">
+        <f>generator_costs!V53</f>
+        <v>0.1</v>
+      </c>
+      <c r="P51" s="33">
+        <f>generator_costs!W53</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="33">
+        <f>generator_costs!X53</f>
+        <v>0</v>
+      </c>
+      <c r="R51" s="33">
+        <f>generator_costs!Y53</f>
+        <v>0</v>
+      </c>
+      <c r="S51" s="33">
+        <f>generator_costs!Z53</f>
+        <v>30</v>
+      </c>
+      <c r="T51" s="33">
+        <f>generator_costs!AA53</f>
+        <v>0.03</v>
+      </c>
+      <c r="U51" s="33">
+        <f>generator_costs!AB53</f>
+        <v>0.05</v>
+      </c>
+      <c r="V51" s="33">
+        <f>generator_costs!AC53</f>
+        <v>0</v>
+      </c>
+      <c r="W51" s="33">
+        <f>generator_costs!AD53</f>
+        <v>1</v>
+      </c>
+      <c r="X51" s="33">
+        <f>generator_costs!AE53</f>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="33">
+        <f>generator_costs!AF53</f>
+        <v>1</v>
+      </c>
+      <c r="Z51" s="33">
+        <f>generator_costs!AG53</f>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="33">
+        <f>generator_costs!AH53</f>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="33">
+        <f>generator_costs!AI53</f>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="33">
+        <f>generator_costs!AJ53</f>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="33">
+        <f>generator_costs!AK53</f>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="33">
+        <f>generator_costs!AL53</f>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="33">
+        <f>generator_costs!AM53</f>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="33">
+        <f>generator_costs!AN53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
+      <c r="A52" s="33">
+        <f>generator_costs!A54</f>
+        <v>80</v>
+      </c>
+      <c r="B52" s="33" t="str">
+        <f>generator_costs!B54</f>
+        <v>Bio_Gas_Internal_Combustion_Engine_EP</v>
+      </c>
+      <c r="C52" s="33">
+        <f>generator_costs!C54</f>
+        <v>2007</v>
+      </c>
+      <c r="D52" s="33">
+        <f>generator_costs!D54</f>
+        <v>2000</v>
+      </c>
+      <c r="E52" s="33" t="str">
+        <f>generator_costs!E54</f>
+        <v>Bio_Gas</v>
+      </c>
+      <c r="F52" s="33">
+        <f>generator_costs!M54</f>
+        <v>2377000</v>
+      </c>
+      <c r="G52" s="33">
+        <f>generator_costs!N54</f>
+        <v>114250</v>
+      </c>
+      <c r="H52" s="33">
+        <f>generator_costs!O54</f>
+        <v>0.01</v>
+      </c>
+      <c r="I52" s="33">
+        <f>generator_costs!P54</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="33">
+        <f>generator_costs!Q54</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="33">
+        <f>generator_costs!R54</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="33">
+        <f>generator_costs!S54</f>
+        <v>3</v>
+      </c>
+      <c r="M52" s="33">
+        <f>generator_costs!T54</f>
+        <v>0.8</v>
+      </c>
+      <c r="N52" s="33">
+        <f>generator_costs!U54</f>
+        <v>0.1</v>
+      </c>
+      <c r="O52" s="33">
+        <f>generator_costs!V54</f>
+        <v>0.1</v>
+      </c>
+      <c r="P52" s="33">
+        <f>generator_costs!W54</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="33">
+        <f>generator_costs!X54</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="33">
+        <f>generator_costs!Y54</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="33">
+        <f>generator_costs!Z54</f>
+        <v>30</v>
+      </c>
+      <c r="T52" s="33">
+        <f>generator_costs!AA54</f>
+        <v>0.03</v>
+      </c>
+      <c r="U52" s="33">
+        <f>generator_costs!AB54</f>
+        <v>0.05</v>
+      </c>
+      <c r="V52" s="33">
+        <f>generator_costs!AC54</f>
+        <v>0</v>
+      </c>
+      <c r="W52" s="33">
+        <f>generator_costs!AD54</f>
+        <v>1</v>
+      </c>
+      <c r="X52" s="33">
+        <f>generator_costs!AE54</f>
+        <v>1</v>
+      </c>
+      <c r="Y52" s="33">
+        <f>generator_costs!AF54</f>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="33">
+        <f>generator_costs!AG54</f>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="33">
+        <f>generator_costs!AH54</f>
+        <v>0</v>
+      </c>
+      <c r="AB52" s="33">
+        <f>generator_costs!AI54</f>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="33">
+        <f>generator_costs!AJ54</f>
+        <v>1</v>
+      </c>
+      <c r="AD52" s="33">
+        <f>generator_costs!AK54</f>
+        <v>0</v>
+      </c>
+      <c r="AE52" s="33">
+        <f>generator_costs!AL54</f>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="33">
+        <f>generator_costs!AM54</f>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="33">
+        <f>generator_costs!AN54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
+      <c r="A53" s="33">
+        <f>generator_costs!A55</f>
+        <v>81</v>
+      </c>
+      <c r="B53" s="33" t="str">
+        <f>generator_costs!B55</f>
+        <v>Bio_Gas_Internal_Combustion_Engine_Cogen_EP</v>
+      </c>
+      <c r="C53" s="33">
+        <f>generator_costs!C55</f>
+        <v>2007</v>
+      </c>
+      <c r="D53" s="33">
+        <f>generator_costs!D55</f>
+        <v>2000</v>
+      </c>
+      <c r="E53" s="33" t="str">
+        <f>generator_costs!E55</f>
+        <v>Bio_Gas</v>
+      </c>
+      <c r="F53" s="33">
+        <f>generator_costs!M55</f>
+        <v>1782750</v>
+      </c>
+      <c r="G53" s="33">
+        <f>generator_costs!N55</f>
+        <v>114250</v>
+      </c>
+      <c r="H53" s="33">
+        <f>generator_costs!O55</f>
+        <v>0.01</v>
+      </c>
+      <c r="I53" s="33">
+        <f>generator_costs!P55</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="33">
+        <f>generator_costs!Q55</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="33">
+        <f>generator_costs!R55</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="33">
+        <f>generator_costs!S55</f>
+        <v>3</v>
+      </c>
+      <c r="M53" s="33">
+        <f>generator_costs!T55</f>
+        <v>0.8</v>
+      </c>
+      <c r="N53" s="33">
+        <f>generator_costs!U55</f>
+        <v>0.1</v>
+      </c>
+      <c r="O53" s="33">
+        <f>generator_costs!V55</f>
+        <v>0.1</v>
+      </c>
+      <c r="P53" s="33">
+        <f>generator_costs!W55</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="33">
+        <f>generator_costs!X55</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="33">
+        <f>generator_costs!Y55</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="33">
+        <f>generator_costs!Z55</f>
+        <v>30</v>
+      </c>
+      <c r="T53" s="33">
+        <f>generator_costs!AA55</f>
+        <v>0.03</v>
+      </c>
+      <c r="U53" s="33">
+        <f>generator_costs!AB55</f>
+        <v>0.05</v>
+      </c>
+      <c r="V53" s="33">
+        <f>generator_costs!AC55</f>
+        <v>0</v>
+      </c>
+      <c r="W53" s="33">
+        <f>generator_costs!AD55</f>
+        <v>1</v>
+      </c>
+      <c r="X53" s="33">
+        <f>generator_costs!AE55</f>
+        <v>1</v>
+      </c>
+      <c r="Y53" s="33">
+        <f>generator_costs!AF55</f>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="33">
+        <f>generator_costs!AG55</f>
+        <v>1</v>
+      </c>
+      <c r="AA53" s="33">
+        <f>generator_costs!AH55</f>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="33">
+        <f>generator_costs!AI55</f>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="33">
+        <f>generator_costs!AJ55</f>
+        <v>1</v>
+      </c>
+      <c r="AD53" s="33">
+        <f>generator_costs!AK55</f>
+        <v>0</v>
+      </c>
+      <c r="AE53" s="33">
+        <f>generator_costs!AL55</f>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="33">
+        <f>generator_costs!AM55</f>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="33">
+        <f>generator_costs!AN55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
+      <c r="A54" s="33">
+        <f>generator_costs!A56</f>
+        <v>82</v>
+      </c>
+      <c r="B54" s="33" t="str">
+        <f>generator_costs!B56</f>
+        <v>Bio_Gas_Steam_Turbine_EP</v>
+      </c>
+      <c r="C54" s="33">
+        <f>generator_costs!C56</f>
+        <v>2007</v>
+      </c>
+      <c r="D54" s="33">
+        <f>generator_costs!D56</f>
+        <v>2000</v>
+      </c>
+      <c r="E54" s="33" t="str">
+        <f>generator_costs!E56</f>
+        <v>Bio_Gas</v>
+      </c>
+      <c r="F54" s="33">
+        <f>generator_costs!M56</f>
+        <v>2873960.1</v>
+      </c>
+      <c r="G54" s="33">
+        <f>generator_costs!N56</f>
+        <v>73155.348000000013</v>
+      </c>
+      <c r="H54" s="33">
+        <f>generator_costs!O56</f>
+        <v>10.450764000000001</v>
+      </c>
+      <c r="I54" s="33">
+        <f>generator_costs!P56</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="33">
+        <f>generator_costs!Q56</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="33">
+        <f>generator_costs!R56</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="33">
+        <f>generator_costs!S56</f>
+        <v>3</v>
+      </c>
+      <c r="M54" s="33">
+        <f>generator_costs!T56</f>
+        <v>0.5</v>
+      </c>
+      <c r="N54" s="33">
+        <f>generator_costs!U56</f>
+        <v>0.4</v>
+      </c>
+      <c r="O54" s="33">
+        <f>generator_costs!V56</f>
+        <v>0.1</v>
+      </c>
+      <c r="P54" s="33">
+        <f>generator_costs!W56</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="33">
+        <f>generator_costs!X56</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="33">
+        <f>generator_costs!Y56</f>
+        <v>0</v>
+      </c>
+      <c r="S54" s="33">
+        <f>generator_costs!Z56</f>
+        <v>45</v>
+      </c>
+      <c r="T54" s="33">
+        <f>generator_costs!AA56</f>
+        <v>0.1</v>
+      </c>
+      <c r="U54" s="33">
+        <f>generator_costs!AB56</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V54" s="33">
+        <f>generator_costs!AC56</f>
+        <v>0</v>
+      </c>
+      <c r="W54" s="33">
+        <f>generator_costs!AD56</f>
+        <v>1</v>
+      </c>
+      <c r="X54" s="33">
+        <f>generator_costs!AE56</f>
+        <v>1</v>
+      </c>
+      <c r="Y54" s="33">
+        <f>generator_costs!AF56</f>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="33">
+        <f>generator_costs!AG56</f>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="33">
+        <f>generator_costs!AH56</f>
+        <v>0</v>
+      </c>
+      <c r="AB54" s="33">
+        <f>generator_costs!AI56</f>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="33">
+        <f>generator_costs!AJ56</f>
+        <v>1</v>
+      </c>
+      <c r="AD54" s="33">
+        <f>generator_costs!AK56</f>
+        <v>0</v>
+      </c>
+      <c r="AE54" s="33">
+        <f>generator_costs!AL56</f>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="33">
+        <f>generator_costs!AM56</f>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="33">
+        <f>generator_costs!AN56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
+      <c r="A55" s="33">
+        <f>generator_costs!A57</f>
+        <v>85</v>
+      </c>
+      <c r="B55" s="33" t="str">
+        <f>generator_costs!B57</f>
+        <v>Bio_Liquid_Steam_Turbine_Cogen_EP</v>
+      </c>
+      <c r="C55" s="33">
+        <f>generator_costs!C57</f>
+        <v>2007</v>
+      </c>
+      <c r="D55" s="33">
+        <f>generator_costs!D57</f>
+        <v>2000</v>
+      </c>
+      <c r="E55" s="33" t="str">
+        <f>generator_costs!E57</f>
+        <v>Bio_Liquid</v>
+      </c>
+      <c r="F55" s="33">
+        <f>generator_costs!M57</f>
+        <v>2155470.0750000002</v>
+      </c>
+      <c r="G55" s="33">
+        <f>generator_costs!N57</f>
+        <v>73155.348000000013</v>
+      </c>
+      <c r="H55" s="33">
+        <f>generator_costs!O57</f>
+        <v>10.450764000000001</v>
+      </c>
+      <c r="I55" s="33">
+        <f>generator_costs!P57</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="33">
+        <f>generator_costs!Q57</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="33">
+        <f>generator_costs!R57</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="33">
+        <f>generator_costs!S57</f>
+        <v>3</v>
+      </c>
+      <c r="M55" s="33">
+        <f>generator_costs!T57</f>
+        <v>0.5</v>
+      </c>
+      <c r="N55" s="33">
+        <f>generator_costs!U57</f>
+        <v>0.4</v>
+      </c>
+      <c r="O55" s="33">
+        <f>generator_costs!V57</f>
+        <v>0.1</v>
+      </c>
+      <c r="P55" s="33">
+        <f>generator_costs!W57</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="33">
+        <f>generator_costs!X57</f>
+        <v>0</v>
+      </c>
+      <c r="R55" s="33">
+        <f>generator_costs!Y57</f>
+        <v>0</v>
+      </c>
+      <c r="S55" s="33">
+        <f>generator_costs!Z57</f>
+        <v>45</v>
+      </c>
+      <c r="T55" s="33">
+        <f>generator_costs!AA57</f>
+        <v>0.1</v>
+      </c>
+      <c r="U55" s="33">
+        <f>generator_costs!AB57</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V55" s="33">
+        <f>generator_costs!AC57</f>
+        <v>0</v>
+      </c>
+      <c r="W55" s="33">
+        <f>generator_costs!AD57</f>
+        <v>1</v>
+      </c>
+      <c r="X55" s="33">
+        <f>generator_costs!AE57</f>
+        <v>1</v>
+      </c>
+      <c r="Y55" s="33">
+        <f>generator_costs!AF57</f>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="33">
+        <f>generator_costs!AG57</f>
+        <v>1</v>
+      </c>
+      <c r="AA55" s="33">
+        <f>generator_costs!AH57</f>
+        <v>0</v>
+      </c>
+      <c r="AB55" s="33">
+        <f>generator_costs!AI57</f>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="33">
+        <f>generator_costs!AJ57</f>
+        <v>1</v>
+      </c>
+      <c r="AD55" s="33">
+        <f>generator_costs!AK57</f>
+        <v>0</v>
+      </c>
+      <c r="AE55" s="33">
+        <f>generator_costs!AL57</f>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="33">
+        <f>generator_costs!AM57</f>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="33">
+        <f>generator_costs!AN57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
+      <c r="A56" s="33">
+        <f>generator_costs!A58</f>
+        <v>90</v>
+      </c>
+      <c r="B56" s="33" t="str">
+        <f>generator_costs!B58</f>
+        <v>Bio_Solid_Steam_Turbine_EP</v>
+      </c>
+      <c r="C56" s="33">
+        <f>generator_costs!C58</f>
+        <v>2007</v>
+      </c>
+      <c r="D56" s="33">
+        <f>generator_costs!D58</f>
+        <v>2000</v>
+      </c>
+      <c r="E56" s="33" t="str">
+        <f>generator_costs!E58</f>
+        <v>Bio_Solid</v>
+      </c>
+      <c r="F56" s="33">
+        <f>generator_costs!M58</f>
+        <v>2873960.1</v>
+      </c>
+      <c r="G56" s="33">
+        <f>generator_costs!N58</f>
+        <v>73155.348000000013</v>
+      </c>
+      <c r="H56" s="33">
+        <f>generator_costs!O58</f>
+        <v>10.450764000000001</v>
+      </c>
+      <c r="I56" s="33">
+        <f>generator_costs!P58</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="33">
+        <f>generator_costs!Q58</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="33">
+        <f>generator_costs!R58</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="33">
+        <f>generator_costs!S58</f>
+        <v>3</v>
+      </c>
+      <c r="M56" s="33">
+        <f>generator_costs!T58</f>
+        <v>0.5</v>
+      </c>
+      <c r="N56" s="33">
+        <f>generator_costs!U58</f>
+        <v>0.4</v>
+      </c>
+      <c r="O56" s="33">
+        <f>generator_costs!V58</f>
+        <v>0.1</v>
+      </c>
+      <c r="P56" s="33">
+        <f>generator_costs!W58</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="33">
+        <f>generator_costs!X58</f>
+        <v>0</v>
+      </c>
+      <c r="R56" s="33">
+        <f>generator_costs!Y58</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="33">
+        <f>generator_costs!Z58</f>
+        <v>45</v>
+      </c>
+      <c r="T56" s="33">
+        <f>generator_costs!AA58</f>
+        <v>0.1</v>
+      </c>
+      <c r="U56" s="33">
+        <f>generator_costs!AB58</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V56" s="33">
+        <f>generator_costs!AC58</f>
+        <v>0</v>
+      </c>
+      <c r="W56" s="33">
+        <f>generator_costs!AD58</f>
+        <v>1</v>
+      </c>
+      <c r="X56" s="33">
+        <f>generator_costs!AE58</f>
+        <v>1</v>
+      </c>
+      <c r="Y56" s="33">
+        <f>generator_costs!AF58</f>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="33">
+        <f>generator_costs!AG58</f>
+        <v>0</v>
+      </c>
+      <c r="AA56" s="33">
+        <f>generator_costs!AH58</f>
+        <v>0</v>
+      </c>
+      <c r="AB56" s="33">
+        <f>generator_costs!AI58</f>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="33">
+        <f>generator_costs!AJ58</f>
+        <v>1</v>
+      </c>
+      <c r="AD56" s="33">
+        <f>generator_costs!AK58</f>
+        <v>0</v>
+      </c>
+      <c r="AE56" s="33">
+        <f>generator_costs!AL58</f>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="33">
+        <f>generator_costs!AM58</f>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="33">
+        <f>generator_costs!AN58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
+      <c r="A57" s="33">
+        <f>generator_costs!A59</f>
+        <v>91</v>
+      </c>
+      <c r="B57" s="33" t="str">
+        <f>generator_costs!B59</f>
+        <v>Bio_Solid_Steam_Turbine_Cogen_EP</v>
+      </c>
+      <c r="C57" s="33">
+        <f>generator_costs!C59</f>
+        <v>2007</v>
+      </c>
+      <c r="D57" s="33">
+        <f>generator_costs!D59</f>
+        <v>2000</v>
+      </c>
+      <c r="E57" s="33" t="str">
+        <f>generator_costs!E59</f>
+        <v>Bio_Solid</v>
+      </c>
+      <c r="F57" s="33">
+        <f>generator_costs!M59</f>
+        <v>2155470.0750000002</v>
+      </c>
+      <c r="G57" s="33">
+        <f>generator_costs!N59</f>
+        <v>73155.348000000013</v>
+      </c>
+      <c r="H57" s="33">
+        <f>generator_costs!O59</f>
+        <v>10.450764000000001</v>
+      </c>
+      <c r="I57" s="33">
+        <f>generator_costs!P59</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="33">
+        <f>generator_costs!Q59</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="33">
+        <f>generator_costs!R59</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="33">
+        <f>generator_costs!S59</f>
+        <v>3</v>
+      </c>
+      <c r="M57" s="33">
+        <f>generator_costs!T59</f>
+        <v>0.5</v>
+      </c>
+      <c r="N57" s="33">
+        <f>generator_costs!U59</f>
+        <v>0.4</v>
+      </c>
+      <c r="O57" s="33">
+        <f>generator_costs!V59</f>
+        <v>0.1</v>
+      </c>
+      <c r="P57" s="33">
+        <f>generator_costs!W59</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="33">
+        <f>generator_costs!X59</f>
+        <v>0</v>
+      </c>
+      <c r="R57" s="33">
+        <f>generator_costs!Y59</f>
+        <v>0</v>
+      </c>
+      <c r="S57" s="33">
+        <f>generator_costs!Z59</f>
+        <v>45</v>
+      </c>
+      <c r="T57" s="33">
+        <f>generator_costs!AA59</f>
+        <v>0.1</v>
+      </c>
+      <c r="U57" s="33">
+        <f>generator_costs!AB59</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V57" s="33">
+        <f>generator_costs!AC59</f>
+        <v>0</v>
+      </c>
+      <c r="W57" s="33">
+        <f>generator_costs!AD59</f>
+        <v>1</v>
+      </c>
+      <c r="X57" s="33">
+        <f>generator_costs!AE59</f>
+        <v>1</v>
+      </c>
+      <c r="Y57" s="33">
+        <f>generator_costs!AF59</f>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="33">
+        <f>generator_costs!AG59</f>
+        <v>1</v>
+      </c>
+      <c r="AA57" s="33">
+        <f>generator_costs!AH59</f>
+        <v>0</v>
+      </c>
+      <c r="AB57" s="33">
+        <f>generator_costs!AI59</f>
+        <v>0</v>
+      </c>
+      <c r="AC57" s="33">
+        <f>generator_costs!AJ59</f>
+        <v>1</v>
+      </c>
+      <c r="AD57" s="33">
+        <f>generator_costs!AK59</f>
+        <v>0</v>
+      </c>
+      <c r="AE57" s="33">
+        <f>generator_costs!AL59</f>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="33">
+        <f>generator_costs!AM59</f>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="33">
+        <f>generator_costs!AN59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
+      <c r="A58"/>
+      <c r="C58"/>
+      <c r="E58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AD58"/>
+    </row>
+    <row r="59" spans="1:33">
+      <c r="A59"/>
+      <c r="C59"/>
+      <c r="E59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AD59"/>
+    </row>
+    <row r="60" spans="1:33">
+      <c r="A60"/>
+      <c r="C60"/>
+      <c r="E60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AD60"/>
+    </row>
+    <row r="61" spans="1:33">
+      <c r="A61"/>
+      <c r="C61"/>
+      <c r="E61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AD61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -14035,17 +16775,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A23"/>
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -14056,7 +16796,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>2010</v>
@@ -14074,7 +16814,7 @@
         <v>2026</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -15280,7 +18020,7 @@
     <row r="43" spans="1:7">
       <c r="A43" s="33" t="str">
         <f>generator_costs!B44</f>
-        <v>Gas_Combustion_Turbine_CCS_EP</v>
+        <v>Gas_Internal_Combustion_Engine_Cogen_CCS_EP</v>
       </c>
       <c r="B43" s="1">
         <f>generator_costs!$M44*(1+generator_costs!$P44)^(B$2-2007)/1000000</f>
@@ -15515,6 +18255,246 @@
       <c r="G50" s="2">
         <f>-generator_costs!P51*100</f>
         <v>0.46735067909553074</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="33" t="str">
+        <f>generator_costs!B52</f>
+        <v>DistillateFuelOil_Combustion_Turbine_EP</v>
+      </c>
+      <c r="B51" s="1">
+        <f>generator_costs!$M52*(1+generator_costs!$P52)^(B$2-2007)/1000000</f>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="C51" s="1">
+        <f>generator_costs!$M52*(1+generator_costs!$P52)^(C$2-2007)/1000000</f>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="D51" s="1">
+        <f>generator_costs!$M52*(1+generator_costs!$P52)^(D$2-2007)/1000000</f>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E51" s="1">
+        <f>generator_costs!$M52*(1+generator_costs!$P52)^(E$2-2007)/1000000</f>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="F51" s="1">
+        <f>generator_costs!$M52*(1+generator_costs!$P52)^(F$2-2007)/1000000</f>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="G51" s="2">
+        <f>-generator_costs!P52*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="33" t="str">
+        <f>generator_costs!B53</f>
+        <v>DistillateFuelOil_Internal_Combustion_Engine_EP</v>
+      </c>
+      <c r="B52" s="1">
+        <f>generator_costs!$M53*(1+generator_costs!$P53)^(B$2-2007)/1000000</f>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="C52" s="1">
+        <f>generator_costs!$M53*(1+generator_costs!$P53)^(C$2-2007)/1000000</f>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="D52" s="1">
+        <f>generator_costs!$M53*(1+generator_costs!$P53)^(D$2-2007)/1000000</f>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E52" s="1">
+        <f>generator_costs!$M53*(1+generator_costs!$P53)^(E$2-2007)/1000000</f>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="F52" s="1">
+        <f>generator_costs!$M53*(1+generator_costs!$P53)^(F$2-2007)/1000000</f>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="G52" s="2">
+        <f>-generator_costs!P53*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="33" t="str">
+        <f>generator_costs!B54</f>
+        <v>Bio_Gas_Internal_Combustion_Engine_EP</v>
+      </c>
+      <c r="B53" s="1">
+        <f>generator_costs!$M54*(1+generator_costs!$P54)^(B$2-2007)/1000000</f>
+        <v>2.3769999999999998</v>
+      </c>
+      <c r="C53" s="1">
+        <f>generator_costs!$M54*(1+generator_costs!$P54)^(C$2-2007)/1000000</f>
+        <v>2.3769999999999998</v>
+      </c>
+      <c r="D53" s="1">
+        <f>generator_costs!$M54*(1+generator_costs!$P54)^(D$2-2007)/1000000</f>
+        <v>2.3769999999999998</v>
+      </c>
+      <c r="E53" s="1">
+        <f>generator_costs!$M54*(1+generator_costs!$P54)^(E$2-2007)/1000000</f>
+        <v>2.3769999999999998</v>
+      </c>
+      <c r="F53" s="1">
+        <f>generator_costs!$M54*(1+generator_costs!$P54)^(F$2-2007)/1000000</f>
+        <v>2.3769999999999998</v>
+      </c>
+      <c r="G53" s="2">
+        <f>-generator_costs!P54*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="33" t="str">
+        <f>generator_costs!B55</f>
+        <v>Bio_Gas_Internal_Combustion_Engine_Cogen_EP</v>
+      </c>
+      <c r="B54" s="1">
+        <f>generator_costs!$M55*(1+generator_costs!$P55)^(B$2-2007)/1000000</f>
+        <v>1.7827500000000001</v>
+      </c>
+      <c r="C54" s="1">
+        <f>generator_costs!$M55*(1+generator_costs!$P55)^(C$2-2007)/1000000</f>
+        <v>1.7827500000000001</v>
+      </c>
+      <c r="D54" s="1">
+        <f>generator_costs!$M55*(1+generator_costs!$P55)^(D$2-2007)/1000000</f>
+        <v>1.7827500000000001</v>
+      </c>
+      <c r="E54" s="1">
+        <f>generator_costs!$M55*(1+generator_costs!$P55)^(E$2-2007)/1000000</f>
+        <v>1.7827500000000001</v>
+      </c>
+      <c r="F54" s="1">
+        <f>generator_costs!$M55*(1+generator_costs!$P55)^(F$2-2007)/1000000</f>
+        <v>1.7827500000000001</v>
+      </c>
+      <c r="G54" s="2">
+        <f>-generator_costs!P55*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="33" t="str">
+        <f>generator_costs!B56</f>
+        <v>Bio_Gas_Steam_Turbine_EP</v>
+      </c>
+      <c r="B55" s="1">
+        <f>generator_costs!$M56*(1+generator_costs!$P56)^(B$2-2007)/1000000</f>
+        <v>2.8739601000000001</v>
+      </c>
+      <c r="C55" s="1">
+        <f>generator_costs!$M56*(1+generator_costs!$P56)^(C$2-2007)/1000000</f>
+        <v>2.8739601000000001</v>
+      </c>
+      <c r="D55" s="1">
+        <f>generator_costs!$M56*(1+generator_costs!$P56)^(D$2-2007)/1000000</f>
+        <v>2.8739601000000001</v>
+      </c>
+      <c r="E55" s="1">
+        <f>generator_costs!$M56*(1+generator_costs!$P56)^(E$2-2007)/1000000</f>
+        <v>2.8739601000000001</v>
+      </c>
+      <c r="F55" s="1">
+        <f>generator_costs!$M56*(1+generator_costs!$P56)^(F$2-2007)/1000000</f>
+        <v>2.8739601000000001</v>
+      </c>
+      <c r="G55" s="2">
+        <f>-generator_costs!P56*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="33" t="str">
+        <f>generator_costs!B57</f>
+        <v>Bio_Liquid_Steam_Turbine_Cogen_EP</v>
+      </c>
+      <c r="B56" s="1">
+        <f>generator_costs!$M57*(1+generator_costs!$P57)^(B$2-2007)/1000000</f>
+        <v>2.1554700750000002</v>
+      </c>
+      <c r="C56" s="1">
+        <f>generator_costs!$M57*(1+generator_costs!$P57)^(C$2-2007)/1000000</f>
+        <v>2.1554700750000002</v>
+      </c>
+      <c r="D56" s="1">
+        <f>generator_costs!$M57*(1+generator_costs!$P57)^(D$2-2007)/1000000</f>
+        <v>2.1554700750000002</v>
+      </c>
+      <c r="E56" s="1">
+        <f>generator_costs!$M57*(1+generator_costs!$P57)^(E$2-2007)/1000000</f>
+        <v>2.1554700750000002</v>
+      </c>
+      <c r="F56" s="1">
+        <f>generator_costs!$M57*(1+generator_costs!$P57)^(F$2-2007)/1000000</f>
+        <v>2.1554700750000002</v>
+      </c>
+      <c r="G56" s="2">
+        <f>-generator_costs!P57*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="33" t="str">
+        <f>generator_costs!B58</f>
+        <v>Bio_Solid_Steam_Turbine_EP</v>
+      </c>
+      <c r="B57" s="1">
+        <f>generator_costs!$M58*(1+generator_costs!$P58)^(B$2-2007)/1000000</f>
+        <v>2.8739601000000001</v>
+      </c>
+      <c r="C57" s="1">
+        <f>generator_costs!$M58*(1+generator_costs!$P58)^(C$2-2007)/1000000</f>
+        <v>2.8739601000000001</v>
+      </c>
+      <c r="D57" s="1">
+        <f>generator_costs!$M58*(1+generator_costs!$P58)^(D$2-2007)/1000000</f>
+        <v>2.8739601000000001</v>
+      </c>
+      <c r="E57" s="1">
+        <f>generator_costs!$M58*(1+generator_costs!$P58)^(E$2-2007)/1000000</f>
+        <v>2.8739601000000001</v>
+      </c>
+      <c r="F57" s="1">
+        <f>generator_costs!$M58*(1+generator_costs!$P58)^(F$2-2007)/1000000</f>
+        <v>2.8739601000000001</v>
+      </c>
+      <c r="G57" s="2">
+        <f>-generator_costs!P58*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="33" t="str">
+        <f>generator_costs!B59</f>
+        <v>Bio_Solid_Steam_Turbine_Cogen_EP</v>
+      </c>
+      <c r="B58" s="1">
+        <f>generator_costs!$M59*(1+generator_costs!$P59)^(B$2-2007)/1000000</f>
+        <v>2.1554700750000002</v>
+      </c>
+      <c r="C58" s="1">
+        <f>generator_costs!$M59*(1+generator_costs!$P59)^(C$2-2007)/1000000</f>
+        <v>2.1554700750000002</v>
+      </c>
+      <c r="D58" s="1">
+        <f>generator_costs!$M59*(1+generator_costs!$P59)^(D$2-2007)/1000000</f>
+        <v>2.1554700750000002</v>
+      </c>
+      <c r="E58" s="1">
+        <f>generator_costs!$M59*(1+generator_costs!$P59)^(E$2-2007)/1000000</f>
+        <v>2.1554700750000002</v>
+      </c>
+      <c r="F58" s="1">
+        <f>generator_costs!$M59*(1+generator_costs!$P59)^(F$2-2007)/1000000</f>
+        <v>2.1554700750000002</v>
+      </c>
+      <c r="G58" s="2">
+        <f>-generator_costs!P59*100</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15540,15 +18520,15 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="22" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="22" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="22" customFormat="1">
@@ -15576,7 +18556,7 @@
         <v>3.3</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="E5" s="22"/>
     </row>

--- a/DatabasePrep/GeneratorInfo/generator_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="-80" windowWidth="33560" windowHeight="19480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="39280" yWindow="300" windowWidth="33560" windowHeight="21580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="generator_costs" sheetId="1" r:id="rId1"/>
@@ -22,66 +22,478 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="159">
+  <si>
+    <t>ReEDs Sheet, took OGS (Oil Gas Steam) values for all but costs:  costs from Biomass_Steam_Turbine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Liquid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, took OGS (Oil Gas Steam) values for all but costs:  costs from Biomass_Steam_Turbine, 75% of capex for cogen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Solid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_4_cost_fraction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_5_cost_fraction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_6_cost_fraction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_o_m_$2007</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat_rate_mbtu_per_mwh</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commercial_PV</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_build_year</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, also new wind params used for fixed O+M, forced outage rate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
+  </si>
+  <si>
+    <t>storage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offshore_Wind</t>
+  </si>
+  <si>
+    <t>Bio_Gas</t>
+  </si>
+  <si>
+    <t>year_1_cost_fraction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_2_cost_fraction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_3_cost_fraction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery_Storage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tech_name_again</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>DistillateFuelOil_Internal_Combustion_Engine_EP</t>
+  </si>
+  <si>
+    <t>DistillateFuelOil_Combustion_Turbine_EP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistillateFuelOil</t>
+  </si>
+  <si>
+    <t>Bio_Gas_Internal_Combustion_Engine_EP</t>
+  </si>
+  <si>
+    <t>Bio_Gas_Internal_Combustion_Engine_Cogen_EP</t>
+  </si>
+  <si>
+    <t>Bio_Gas_Steam_Turbine_EP</t>
+  </si>
+  <si>
+    <t>Bio_Liquid_Steam_Turbine_Cogen_EP</t>
+  </si>
+  <si>
+    <t>Bio_Solid_Steam_Turbine_EP</t>
+  </si>
+  <si>
+    <t>Bio_Solid_Steam_Turbine_Cogen_EP</t>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIA, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_Cogen_CCS_EP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_CCS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_min_ramp_rate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat_rate_penalty_spinning_reserve</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT</t>
+  </si>
+  <si>
+    <t>ReEDs Sheet</t>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine</t>
+  </si>
+  <si>
+    <t>CCGT_CCS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_CCS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Gas_CCS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass_IGCC_CCS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_IGCC_CCS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_CCS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_CCS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>overnight_cost_$2007</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from Black and Veach on ReEDs sheet.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Black and Veach ReEDs sheet.  Most places put VarOM at 0, so this was done here</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_EP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_EP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_and_dollar_year</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>interest_between_price_year_and_cost_year</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Residential_PV</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIA, 75% CapEx of non-cogen, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>source - all dispatch data from TEPPC_Generator_Categories</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_age_years</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Gas</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, assumed to run for 40 years, not 60</t>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Wind_EP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOE Solar Program Costs, took 2020 value for fixed O+M, 10% added to capital costs to go from utility to distributed, but also assumed a 5% declination rate, , outage rates from Mathias</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>overnight_cost</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Solid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_time_years</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_EP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_EP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Solid_CCS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Hydro_NonPumped</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydro_Pumped</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
+  </si>
+  <si>
+    <t>Biomass_IGCC</t>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
+  </si>
+  <si>
+    <t>Coal_IGCC</t>
+  </si>
+  <si>
+    <t>can_build_new</t>
+  </si>
+  <si>
+    <t>forced_outage_rate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduled_outage_rate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>note: we assume that cogen plants have 3/4 of the capital cost of a pure-electric plant, (to reflect shared infrastructure for cogen), but the same operating costs.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatchable</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cogen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, took CoalOldScr costs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, took OGS (Oil Gas Steam)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, set lifetime to 60 years</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_CCS_EP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_Cogen_CCS_EP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_Cogen_CCS_EP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_Cogen_CCS_EP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Internal_Combustion_Engine_EP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet, storage effiency from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
   <si>
     <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Cost Declination Rate (%/yr)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Concentrating_PV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Solar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>(in 2010 $)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>year</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>$/Wp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CPV Consortium numbers (It's more or less SolFocus)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cost declination rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ReEDs Sheet, 75 CapEx of non-cogen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Geothermal_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Internal_Combustion_Engine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Internal_Combustion_Engine_Cogen_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CCGT_Cogen_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Coal</t>
@@ -97,23 +509,23 @@
   </si>
   <si>
     <t>ccs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Coal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Uranium</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>var_o_m_$2007</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, outage rates from Mathias</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>technology</t>
@@ -141,489 +553,95 @@
   </si>
   <si>
     <t xml:space="preserve">Solar Vision Study (see PV_Cost_Calc.xlsx) for costs, ReEDs sheet for construction cost multiplier and cost fractions, Matthias for forced outage rate </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>connect_cost_generic_$2007_per_mw</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>fuel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Gas</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Coal_Steam_Turbine_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Steam_Turbine_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CSP_Trough_No_Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CSP_Trough_6h_Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Wind</t>
   </si>
   <si>
     <t>Central_PV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>construction_cost_multipulier</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>fixed_o_m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>var_o_m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Nuclear_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>competes_for_space</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Geothermal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Compressed_Air_Energy_Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Gas</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>source - all dispatch data from TEPPC_Generator_Categories</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>technology_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_age_years</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Gas</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, assumed to run for 40 years, not 60</t>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
-    <t>Wind_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOE Solar Program Costs, took 2020 value for fixed O+M, 10% added to capital costs to go from utility to distributed, but also assumed a 5% declination rate, , outage rates from Mathias</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>overnight_cost</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Solid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction_time_years</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Solid_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Hydro_NonPumped</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hydro_Pumped</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
-  </si>
-  <si>
-    <t>Biomass_IGCC</t>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
-  </si>
-  <si>
-    <t>Coal_IGCC</t>
-  </si>
-  <si>
-    <t>can_build_new</t>
-  </si>
-  <si>
-    <t>forced_outage_rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>scheduled_outage_rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>note: we assume that cogen plants have 3/4 of the capital cost of a pure-electric plant, (to reflect shared infrastructure for cogen), but the same operating costs.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dispatchable</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cogen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, took CoalOldScr costs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, took OGS (Oil Gas Steam)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, set lifetime to 60 years</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Internal_Combustion_Engine_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, storage effiency from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>ReEDs Sheet</t>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine</t>
-  </si>
-  <si>
-    <t>CCGT_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Gas_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass_IGCC_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_IGCC_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>overnight_cost_$2007</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from Black and Veach on ReEDs sheet.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Black and Veach ReEDs sheet.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>price_and_dollar_year</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>interest_between_price_year_and_cost_year</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Residential_PV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EIA, 75% CapEx of non-cogen, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, took OGS (Oil Gas Steam) values for all but costs:  costs from Biomass_Steam_Turbine</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Liquid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, took OGS (Oil Gas Steam) values for all but costs:  costs from Biomass_Steam_Turbine, 75% of capex for cogen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Solid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_4_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_5_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_6_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_o_m_$2007</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>heat_rate_mbtu_per_mwh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commercial_PV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_build_year</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, also new wind params used for fixed O+M, forced outage rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
-  </si>
-  <si>
-    <t>storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offshore_Wind</t>
-  </si>
-  <si>
-    <t>Bio_Gas</t>
-  </si>
-  <si>
-    <t>year_1_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_2_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_3_cost_fraction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battery_Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Storage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tech_name_again</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
-    <t>DistillateFuelOil_Internal_Combustion_Engine_EP</t>
-  </si>
-  <si>
-    <t>DistillateFuelOil_Combustion_Turbine_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistillateFuelOil</t>
-  </si>
-  <si>
-    <t>Bio_Gas_Internal_Combustion_Engine_EP</t>
-  </si>
-  <si>
-    <t>Bio_Gas_Internal_Combustion_Engine_Cogen_EP</t>
-  </si>
-  <si>
-    <t>Bio_Gas_Steam_Turbine_EP</t>
-  </si>
-  <si>
-    <t>Bio_Liquid_Steam_Turbine_Cogen_EP</t>
-  </si>
-  <si>
-    <t>Bio_Solid_Steam_Turbine_EP</t>
-  </si>
-  <si>
-    <t>Bio_Solid_Steam_Turbine_Cogen_EP</t>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EIA, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_Cogen_CCS_EP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_CCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="8">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -663,14 +681,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -688,7 +706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -700,7 +718,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,11 +1049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AP101"/>
+  <dimension ref="A1:AR101"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ54" sqref="AJ54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN68" sqref="AN68:AP68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1062,149 +1081,157 @@
     <col min="37" max="37" width="10.7109375" style="27"/>
     <col min="38" max="38" width="10.7109375" style="15"/>
     <col min="39" max="40" width="10.7109375" style="27"/>
-    <col min="41" max="41" width="23.140625" customWidth="1"/>
+    <col min="41" max="41" width="10.7109375" style="33"/>
+    <col min="42" max="42" width="29.7109375" style="33" customWidth="1"/>
+    <col min="43" max="43" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="33" customFormat="1">
+    <row r="1" spans="1:44" s="33" customFormat="1">
       <c r="A1" s="34" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="33" customFormat="1"/>
-    <row r="3" spans="1:42">
+    <row r="2" spans="1:44" s="33" customFormat="1"/>
+    <row r="3" spans="1:44">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>142</v>
+      </c>
+      <c r="R3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF3" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG3" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ3" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK3" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO3" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP3" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="AR3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>42</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" t="s">
-        <v>126</v>
-      </c>
-      <c r="S3" t="s">
-        <v>64</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF3" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG3" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ3" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK3" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL3" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO3" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
       </c>
       <c r="C4" s="5">
         <v>2007</v>
@@ -1213,7 +1240,7 @@
         <v>2010</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="F4">
         <v>2004</v>
@@ -1323,20 +1350,26 @@
       <c r="AN4">
         <v>0</v>
       </c>
-      <c r="AO4" t="str">
+      <c r="AO4" s="33">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AP4" s="33">
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="AQ4" t="str">
         <f>B4</f>
         <v>CCGT</v>
       </c>
-      <c r="AP4" t="s">
-        <v>96</v>
+      <c r="AR4" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:44">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
@@ -1345,7 +1378,7 @@
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="F5">
         <v>2004</v>
@@ -1455,20 +1488,26 @@
       <c r="AN5">
         <v>0</v>
       </c>
-      <c r="AO5" s="33" t="str">
-        <f t="shared" ref="AO5:AO53" si="3">B5</f>
+      <c r="AO5" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="AP5" s="33">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AQ5" s="33" t="str">
+        <f t="shared" ref="AQ5:AQ53" si="3">B5</f>
         <v>Gas_Combustion_Turbine</v>
       </c>
-      <c r="AP5" t="s">
-        <v>96</v>
+      <c r="AR5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="22" customFormat="1">
+    <row r="6" spans="1:44" s="22" customFormat="1">
       <c r="A6" s="22">
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="C6" s="22">
         <v>2007</v>
@@ -1477,7 +1516,7 @@
         <v>2010</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="F6" s="22">
         <v>2010</v>
@@ -1588,20 +1627,26 @@
       <c r="AN6">
         <v>0</v>
       </c>
-      <c r="AO6" s="33" t="str">
+      <c r="AO6" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Concentrating_PV</v>
       </c>
-      <c r="AP6" s="22" t="s">
-        <v>8</v>
+      <c r="AR6" s="22" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:44">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="C7" s="5">
         <v>2007</v>
@@ -1610,7 +1655,7 @@
         <v>2010</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="F7">
         <v>2004</v>
@@ -1720,20 +1765,26 @@
       <c r="AN7">
         <v>0</v>
       </c>
-      <c r="AO7" s="33" t="str">
+      <c r="AO7" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Wind</v>
       </c>
-      <c r="AP7" t="s">
-        <v>23</v>
+      <c r="AR7" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:44">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5">
         <v>2007</v>
@@ -1742,7 +1793,7 @@
         <v>2010</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="F8">
         <v>2004</v>
@@ -1852,20 +1903,26 @@
       <c r="AN8">
         <v>0</v>
       </c>
-      <c r="AO8" s="33" t="str">
+      <c r="AO8" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Offshore_Wind</v>
       </c>
-      <c r="AP8" t="s">
-        <v>0</v>
+      <c r="AR8" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:44">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="C9" s="5">
         <v>2007</v>
@@ -1874,7 +1931,7 @@
         <v>2010</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <v>2009</v>
@@ -1985,20 +2042,26 @@
       <c r="AN9">
         <v>0</v>
       </c>
-      <c r="AO9" s="33" t="str">
+      <c r="AO9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Residential_PV</v>
       </c>
-      <c r="AP9" t="s">
-        <v>60</v>
+      <c r="AR9" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:42" s="11" customFormat="1">
+    <row r="10" spans="1:44" s="11" customFormat="1">
       <c r="A10" s="11">
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="C10" s="11">
         <v>2007</v>
@@ -2007,7 +2070,7 @@
         <v>2012</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F10" s="11">
         <v>2010</v>
@@ -2117,20 +2180,26 @@
       <c r="AN10">
         <v>0</v>
       </c>
-      <c r="AO10" s="33" t="str">
+      <c r="AO10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="33" t="str">
         <f t="shared" si="3"/>
         <v>CSP_Trough_6h_Storage</v>
       </c>
-      <c r="AP10" s="33" t="s">
-        <v>108</v>
+      <c r="AR10" s="33" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:44">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
@@ -2139,7 +2208,7 @@
         <v>2010</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F11">
         <v>2007</v>
@@ -2249,20 +2318,26 @@
       <c r="AN11">
         <v>0</v>
       </c>
-      <c r="AO11" s="33" t="str">
+      <c r="AO11" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Bio_Gas</v>
       </c>
-      <c r="AP11" s="33" t="s">
-        <v>153</v>
+      <c r="AR11" s="33" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:44">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C12" s="5">
         <v>2007</v>
@@ -2271,7 +2346,7 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F12">
         <v>2004</v>
@@ -2381,20 +2456,26 @@
       <c r="AN12">
         <v>0</v>
       </c>
-      <c r="AO12" s="33" t="str">
+      <c r="AO12" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Biomass_Steam_Turbine</v>
       </c>
-      <c r="AP12" t="s">
-        <v>73</v>
+      <c r="AR12" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:44">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
@@ -2403,7 +2484,7 @@
         <v>2012</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F13">
         <v>2007</v>
@@ -2513,20 +2594,26 @@
       <c r="AN13">
         <v>0</v>
       </c>
-      <c r="AO13" s="33" t="str">
+      <c r="AO13" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Biomass_IGCC</v>
       </c>
-      <c r="AP13" t="s">
-        <v>75</v>
+      <c r="AR13" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:44">
       <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C14" s="5">
         <v>2007</v>
@@ -2535,7 +2622,7 @@
         <v>2010</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="F14">
         <v>2004</v>
@@ -2645,20 +2732,26 @@
       <c r="AN14">
         <v>0</v>
       </c>
-      <c r="AO14" s="33" t="str">
+      <c r="AO14" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Coal_IGCC</v>
       </c>
-      <c r="AP14" t="s">
-        <v>55</v>
+      <c r="AR14" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:44">
       <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C15" s="5">
         <v>2007</v>
@@ -2667,7 +2760,7 @@
         <v>2010</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="F15">
         <v>2004</v>
@@ -2777,20 +2870,26 @@
       <c r="AN15">
         <v>0</v>
       </c>
-      <c r="AO15" s="33" t="str">
+      <c r="AO15" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Coal_Steam_Turbine</v>
       </c>
-      <c r="AP15" t="s">
-        <v>55</v>
+      <c r="AR15" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:44">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C16" s="5">
         <v>2007</v>
@@ -2799,7 +2898,7 @@
         <v>2010</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="F16">
         <v>2004</v>
@@ -2909,20 +3008,26 @@
       <c r="AN16">
         <v>0</v>
       </c>
-      <c r="AO16" s="33" t="str">
+      <c r="AO16" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Nuclear</v>
       </c>
-      <c r="AP16" t="s">
-        <v>94</v>
+      <c r="AR16" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:44">
       <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5">
         <v>2007</v>
@@ -2931,7 +3036,7 @@
         <v>2010</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="F17">
         <v>2004</v>
@@ -3041,20 +3146,26 @@
       <c r="AN17">
         <v>0</v>
       </c>
-      <c r="AO17" s="33" t="str">
+      <c r="AO17" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Geothermal</v>
       </c>
-      <c r="AP17" t="s">
-        <v>132</v>
+      <c r="AR17" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:44">
       <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C18" s="5">
         <v>2007</v>
@@ -3063,7 +3174,7 @@
         <v>2010</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F18" s="5">
         <v>2007</v>
@@ -3173,20 +3284,26 @@
       <c r="AN18">
         <v>0</v>
       </c>
-      <c r="AO18" s="33" t="str">
+      <c r="AO18" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Hydro_NonPumped</v>
       </c>
-      <c r="AP18" s="5" t="s">
-        <v>96</v>
+      <c r="AR18" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:44">
       <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C19" s="5">
         <v>2007</v>
@@ -3195,7 +3312,7 @@
         <v>2010</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F19" s="33">
         <v>2007</v>
@@ -3305,20 +3422,26 @@
       <c r="AN19">
         <v>1</v>
       </c>
-      <c r="AO19" s="33" t="str">
+      <c r="AO19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Hydro_Pumped</v>
       </c>
-      <c r="AP19" s="33" t="s">
-        <v>93</v>
+      <c r="AR19" s="33" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:42" s="18" customFormat="1">
+    <row r="20" spans="1:44" s="18" customFormat="1">
       <c r="A20" s="18">
         <v>17</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="C20" s="18">
         <v>2007</v>
@@ -3327,7 +3450,7 @@
         <v>2000</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F20" s="18">
         <v>2007</v>
@@ -3437,20 +3560,26 @@
       <c r="AN20">
         <v>0</v>
       </c>
-      <c r="AO20" s="33" t="str">
+      <c r="AO20" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="AP20" s="33">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AQ20" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Combustion_Turbine_EP</v>
       </c>
-      <c r="AP20" s="33" t="s">
-        <v>96</v>
+      <c r="AR20" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:42" s="5" customFormat="1">
+    <row r="21" spans="1:44" s="5" customFormat="1">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>2007</v>
@@ -3459,7 +3588,7 @@
         <v>2000</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="F21" s="33">
         <v>2007</v>
@@ -3569,20 +3698,26 @@
       <c r="AN21">
         <v>0</v>
       </c>
-      <c r="AO21" s="33" t="str">
+      <c r="AO21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Coal_Steam_Turbine_EP</v>
       </c>
-      <c r="AP21" s="33" t="s">
-        <v>83</v>
+      <c r="AR21" s="33" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:42" s="5" customFormat="1">
+    <row r="22" spans="1:44" s="5" customFormat="1">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C22" s="33">
         <v>2007</v>
@@ -3591,7 +3726,7 @@
         <v>2000</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="F22" s="33">
         <v>2007</v>
@@ -3701,20 +3836,26 @@
       <c r="AN22">
         <v>0</v>
       </c>
-      <c r="AO22" s="33" t="str">
+      <c r="AO22" s="33">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AP22" s="35">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AQ22" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Steam_Turbine_EP</v>
       </c>
-      <c r="AP22" s="33" t="s">
-        <v>84</v>
+      <c r="AR22" s="33" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:42" s="5" customFormat="1">
+    <row r="23" spans="1:44" s="5" customFormat="1">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="C23" s="33">
         <v>2007</v>
@@ -3723,7 +3864,7 @@
         <v>2000</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="F23" s="33">
         <v>2007</v>
@@ -3833,20 +3974,26 @@
       <c r="AN23">
         <v>0</v>
       </c>
-      <c r="AO23" s="33" t="str">
+      <c r="AO23" s="33">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AP23" s="33">
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="AQ23" s="33" t="str">
         <f t="shared" si="3"/>
         <v>CCGT_EP</v>
       </c>
-      <c r="AP23" s="33" t="s">
-        <v>96</v>
+      <c r="AR23" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:42" s="5" customFormat="1">
+    <row r="24" spans="1:44" s="5" customFormat="1">
       <c r="A24" s="33">
         <v>21</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="C24" s="33">
         <v>2007</v>
@@ -3855,7 +4002,7 @@
         <v>2000</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="F24" s="33">
         <v>2007</v>
@@ -3965,20 +4112,26 @@
       <c r="AN24">
         <v>0</v>
       </c>
-      <c r="AO24" s="33" t="str">
+      <c r="AO24" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Geothermal_EP</v>
       </c>
-      <c r="AP24" s="33" t="s">
-        <v>96</v>
+      <c r="AR24" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:42" s="5" customFormat="1">
+    <row r="25" spans="1:44" s="5" customFormat="1">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="C25" s="33">
         <v>2007</v>
@@ -3987,7 +4140,7 @@
         <v>2000</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="F25" s="33">
         <v>2007</v>
@@ -4097,20 +4250,26 @@
       <c r="AN25">
         <v>0</v>
       </c>
-      <c r="AO25" s="33" t="str">
+      <c r="AO25" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Nuclear_EP</v>
       </c>
-      <c r="AP25" s="33" t="s">
-        <v>85</v>
+      <c r="AR25" s="33" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:42" s="18" customFormat="1">
+    <row r="26" spans="1:44" s="18" customFormat="1">
       <c r="A26" s="18">
         <v>23</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C26" s="33">
         <v>2007</v>
@@ -4119,7 +4278,7 @@
         <v>2000</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F26" s="33">
         <v>2007</v>
@@ -4229,20 +4388,26 @@
       <c r="AN26">
         <v>0</v>
       </c>
-      <c r="AO26" s="33" t="str">
+      <c r="AO26" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Wind_EP</v>
       </c>
-      <c r="AP26" s="33" t="s">
-        <v>131</v>
+      <c r="AR26" s="33" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:42" s="33" customFormat="1">
+    <row r="27" spans="1:44" s="33" customFormat="1">
       <c r="A27" s="33">
         <v>24</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C27" s="33">
         <v>2007</v>
@@ -4251,7 +4416,7 @@
         <v>2000</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F27" s="33">
         <v>2007</v>
@@ -4361,20 +4526,26 @@
       <c r="AN27" s="33">
         <v>0</v>
       </c>
-      <c r="AO27" s="33" t="str">
+      <c r="AO27" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="AP27" s="33">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AQ27" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Internal_Combustion_Engine_EP</v>
       </c>
-      <c r="AP27" s="33" t="s">
-        <v>96</v>
+      <c r="AR27" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:42" s="8" customFormat="1">
+    <row r="28" spans="1:44" s="8" customFormat="1">
       <c r="A28" s="8">
         <v>25</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="C28" s="8">
         <v>2007</v>
@@ -4383,7 +4554,7 @@
         <v>2010</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F28" s="8">
         <v>2009</v>
@@ -4493,20 +4664,26 @@
       <c r="AN28">
         <v>0</v>
       </c>
-      <c r="AO28" s="33" t="str">
+      <c r="AO28" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Commercial_PV</v>
       </c>
-      <c r="AP28" s="9" t="s">
-        <v>32</v>
+      <c r="AR28" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:42" s="8" customFormat="1">
+    <row r="29" spans="1:44" s="8" customFormat="1">
       <c r="A29" s="8">
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="C29" s="8">
         <v>2007</v>
@@ -4515,7 +4692,7 @@
         <v>2010</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F29" s="8">
         <v>2009</v>
@@ -4625,20 +4802,26 @@
       <c r="AN29">
         <v>0</v>
       </c>
-      <c r="AO29" s="33" t="str">
+      <c r="AO29" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Central_PV</v>
       </c>
-      <c r="AP29" s="9" t="s">
-        <v>32</v>
+      <c r="AR29" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:42" s="5" customFormat="1">
+    <row r="30" spans="1:44" s="5" customFormat="1">
       <c r="A30" s="10">
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="C30" s="5">
         <v>2007</v>
@@ -4647,7 +4830,7 @@
         <v>2010</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F30" s="5">
         <v>2010</v>
@@ -4757,20 +4940,26 @@
       <c r="AN30">
         <v>0</v>
       </c>
-      <c r="AO30" s="33" t="str">
+      <c r="AO30" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="33" t="str">
         <f t="shared" si="3"/>
         <v>CSP_Trough_No_Storage</v>
       </c>
-      <c r="AP30" s="33" t="s">
-        <v>107</v>
+      <c r="AR30" s="33" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:42" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:44" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="10">
         <v>28</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="C31" s="9">
         <v>2007</v>
@@ -4779,7 +4968,7 @@
         <v>2010</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="F31" s="9">
         <v>2010</v>
@@ -4889,20 +5078,26 @@
       <c r="AN31">
         <v>1.2</v>
       </c>
-      <c r="AO31" s="33" t="str">
+      <c r="AO31" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="AP31" s="33">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AQ31" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Compressed_Air_Energy_Storage</v>
       </c>
-      <c r="AP31" s="32" t="s">
-        <v>109</v>
+      <c r="AR31" s="32" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:42" s="19" customFormat="1">
+    <row r="32" spans="1:44" s="19" customFormat="1">
       <c r="A32" s="19">
         <v>29</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="C32" s="33">
         <v>2007</v>
@@ -4911,7 +5106,7 @@
         <v>2000</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F32" s="19">
         <v>2007</v>
@@ -5012,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK32" s="27">
         <v>0</v>
@@ -5026,20 +5221,26 @@
       <c r="AN32">
         <v>0</v>
       </c>
-      <c r="AO32" s="33" t="str">
+      <c r="AO32" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Combustion_Turbine_Cogen_EP</v>
       </c>
-      <c r="AP32" s="33" t="s">
-        <v>10</v>
+      <c r="AR32" s="33" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:42" s="19" customFormat="1">
+    <row r="33" spans="1:44" s="19" customFormat="1">
       <c r="A33" s="19">
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="C33" s="33">
         <v>2007</v>
@@ -5048,7 +5249,7 @@
         <v>2000</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="F33" s="33">
         <v>2007</v>
@@ -5149,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33" s="27">
         <v>0</v>
@@ -5163,20 +5364,26 @@
       <c r="AN33">
         <v>0</v>
       </c>
-      <c r="AO33" s="33" t="str">
+      <c r="AO33" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Coal_Steam_Turbine_Cogen_EP</v>
       </c>
-      <c r="AP33" s="33" t="s">
-        <v>10</v>
+      <c r="AR33" s="33" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:42" s="19" customFormat="1">
+    <row r="34" spans="1:44" s="19" customFormat="1">
       <c r="A34" s="19">
         <v>31</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C34" s="33">
         <v>2007</v>
@@ -5185,7 +5392,7 @@
         <v>2000</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="F34" s="33">
         <v>2007</v>
@@ -5286,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34" s="27">
         <v>0</v>
@@ -5300,20 +5507,26 @@
       <c r="AN34">
         <v>0</v>
       </c>
-      <c r="AO34" s="33" t="str">
+      <c r="AO34" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Steam_Turbine_Cogen_EP</v>
       </c>
-      <c r="AP34" s="33" t="s">
-        <v>10</v>
+      <c r="AR34" s="33" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:42" s="19" customFormat="1">
+    <row r="35" spans="1:44" s="19" customFormat="1">
       <c r="A35" s="19">
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="C35" s="33">
         <v>2007</v>
@@ -5322,7 +5535,7 @@
         <v>2000</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="F35" s="33">
         <v>2007</v>
@@ -5423,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK35" s="27">
         <v>0</v>
@@ -5437,20 +5650,26 @@
       <c r="AN35">
         <v>0</v>
       </c>
-      <c r="AO35" s="33" t="str">
+      <c r="AO35" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="33" t="str">
         <f t="shared" si="3"/>
         <v>CCGT_Cogen_EP</v>
       </c>
-      <c r="AP35" s="33" t="s">
-        <v>10</v>
+      <c r="AR35" s="33" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:42" s="23" customFormat="1">
+    <row r="36" spans="1:44" s="23" customFormat="1">
       <c r="A36" s="23">
         <v>33</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="C36" s="23">
         <v>2007</v>
@@ -5459,7 +5678,7 @@
         <v>2010</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="F36" s="23">
         <v>2004</v>
@@ -5569,20 +5788,26 @@
       <c r="AN36">
         <v>1</v>
       </c>
-      <c r="AO36" s="33" t="str">
+      <c r="AO36" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Battery_Storage</v>
       </c>
-      <c r="AP36" s="23" t="s">
-        <v>141</v>
+      <c r="AR36" s="23" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:42" s="26" customFormat="1">
+    <row r="37" spans="1:44" s="26" customFormat="1">
       <c r="A37" s="26">
         <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C37" s="26">
         <v>2007</v>
@@ -5591,7 +5816,7 @@
         <v>2014</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="F37" s="26">
         <v>2004</v>
@@ -5706,20 +5931,26 @@
       <c r="AN37" s="27">
         <v>0</v>
       </c>
-      <c r="AO37" s="33" t="str">
+      <c r="AO37" s="33">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AP37" s="33">
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="AQ37" s="33" t="str">
         <f t="shared" si="3"/>
         <v>CCGT_CCS</v>
       </c>
-      <c r="AP37" s="33" t="s">
-        <v>141</v>
+      <c r="AR37" s="33" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:42" s="26" customFormat="1">
+    <row r="38" spans="1:44" s="26" customFormat="1">
       <c r="A38" s="26">
         <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C38" s="26">
         <v>2007</v>
@@ -5728,7 +5959,7 @@
         <v>2014</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="F38" s="26">
         <v>2004</v>
@@ -5844,20 +6075,26 @@
       <c r="AN38" s="27">
         <v>0</v>
       </c>
-      <c r="AO38" s="33" t="str">
+      <c r="AO38" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="AP38" s="33">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AQ38" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Combustion_Turbine_CCS</v>
       </c>
-      <c r="AP38" s="33" t="s">
-        <v>141</v>
+      <c r="AR38" s="33" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:42" s="26" customFormat="1">
+    <row r="39" spans="1:44" s="26" customFormat="1">
       <c r="A39" s="26">
         <v>36</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="C39" s="26">
         <v>2007</v>
@@ -5866,7 +6103,7 @@
         <v>2014</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F39" s="26">
         <v>2004</v>
@@ -5982,20 +6219,26 @@
       <c r="AN39" s="27">
         <v>0</v>
       </c>
-      <c r="AO39" s="33" t="str">
+      <c r="AO39" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Bio_Gas_CCS</v>
       </c>
-      <c r="AP39" s="33" t="s">
-        <v>141</v>
+      <c r="AR39" s="33" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:42" s="26" customFormat="1">
+    <row r="40" spans="1:44" s="26" customFormat="1">
       <c r="A40" s="26">
         <v>37</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C40" s="26">
         <v>2007</v>
@@ -6004,7 +6247,7 @@
         <v>2014</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F40" s="26">
         <v>2004</v>
@@ -6120,20 +6363,26 @@
       <c r="AN40" s="27">
         <v>0</v>
       </c>
-      <c r="AO40" s="33" t="str">
+      <c r="AO40" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Biomass_IGCC_CCS</v>
       </c>
-      <c r="AP40" s="33" t="s">
-        <v>141</v>
+      <c r="AR40" s="33" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:42" s="26" customFormat="1">
+    <row r="41" spans="1:44" s="26" customFormat="1">
       <c r="A41" s="26">
         <v>38</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="C41" s="26">
         <v>2007</v>
@@ -6142,7 +6391,7 @@
         <v>2014</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="F41" s="26">
         <v>2004</v>
@@ -6256,20 +6505,26 @@
       <c r="AN41" s="27">
         <v>0</v>
       </c>
-      <c r="AO41" s="33" t="str">
+      <c r="AO41" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Coal_IGCC_CCS</v>
       </c>
-      <c r="AP41" s="33" t="s">
-        <v>141</v>
+      <c r="AR41" s="33" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:42" s="26" customFormat="1">
+    <row r="42" spans="1:44" s="26" customFormat="1">
       <c r="A42" s="26">
         <v>39</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C42" s="26">
         <v>2007</v>
@@ -6278,7 +6533,7 @@
         <v>2014</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="F42" s="26">
         <v>2004</v>
@@ -6394,20 +6649,26 @@
       <c r="AN42" s="27">
         <v>0</v>
       </c>
-      <c r="AO42" s="33" t="str">
+      <c r="AO42" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Coal_Steam_Turbine_CCS</v>
       </c>
-      <c r="AP42" s="33" t="s">
-        <v>141</v>
+      <c r="AR42" s="33" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:42" s="33" customFormat="1">
+    <row r="43" spans="1:44" s="33" customFormat="1">
       <c r="A43" s="33">
         <v>40</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="C43" s="33">
         <v>2007</v>
@@ -6416,7 +6677,7 @@
         <v>2000</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="F43" s="33">
         <v>2007</v>
@@ -6516,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="33">
         <v>0</v>
@@ -6530,20 +6791,26 @@
       <c r="AN43" s="33">
         <v>0</v>
       </c>
-      <c r="AO43" s="33" t="str">
+      <c r="AO43" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Internal_Combustion_Engine_Cogen_EP</v>
       </c>
-      <c r="AP43" s="33" t="s">
-        <v>10</v>
+      <c r="AR43" s="33" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:42" s="28" customFormat="1">
+    <row r="44" spans="1:44" s="28" customFormat="1">
       <c r="A44" s="28">
         <v>41</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="C44" s="28">
         <v>2007</v>
@@ -6552,7 +6819,7 @@
         <v>2014</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="F44" s="28">
         <v>2004</v>
@@ -6668,20 +6935,26 @@
       <c r="AN44" s="28">
         <v>0</v>
       </c>
-      <c r="AO44" s="33" t="str">
+      <c r="AO44" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Internal_Combustion_Engine_Cogen_CCS_EP</v>
       </c>
-      <c r="AP44" t="s">
-        <v>96</v>
+      <c r="AR44" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:42" s="28" customFormat="1">
+    <row r="45" spans="1:44" s="28" customFormat="1">
       <c r="A45" s="28">
         <v>42</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C45" s="28">
         <v>2007</v>
@@ -6690,7 +6963,7 @@
         <v>2014</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="F45" s="28">
         <v>2004</v>
@@ -6803,20 +7076,26 @@
       <c r="AN45" s="28">
         <v>0</v>
       </c>
-      <c r="AO45" s="33" t="str">
+      <c r="AO45" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Coal_Steam_Turbine_CCS_EP</v>
       </c>
-      <c r="AP45" s="33" t="s">
-        <v>96</v>
+      <c r="AR45" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:42" s="28" customFormat="1">
+    <row r="46" spans="1:44" s="28" customFormat="1">
       <c r="A46" s="28">
         <v>43</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="C46" s="28">
         <v>2007</v>
@@ -6825,7 +7104,7 @@
         <v>2014</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="F46" s="28">
         <v>2004</v>
@@ -6939,20 +7218,26 @@
       <c r="AN46" s="28">
         <v>0</v>
       </c>
-      <c r="AO46" s="33" t="str">
+      <c r="AO46" s="33">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AP46" s="35">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AQ46" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Steam_Turbine_CCS_EP</v>
       </c>
-      <c r="AP46" s="33" t="s">
-        <v>96</v>
+      <c r="AR46" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:42" s="28" customFormat="1">
+    <row r="47" spans="1:44" s="28" customFormat="1">
       <c r="A47" s="28">
         <v>44</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C47" s="28">
         <v>2007</v>
@@ -6961,7 +7246,7 @@
         <v>2014</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="F47" s="28">
         <v>2004</v>
@@ -7074,20 +7359,26 @@
       <c r="AN47" s="28">
         <v>0</v>
       </c>
-      <c r="AO47" s="33" t="str">
+      <c r="AO47" s="33">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AP47" s="33">
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="AQ47" s="33" t="str">
         <f t="shared" si="3"/>
         <v>CCGT_CCS_EP</v>
       </c>
-      <c r="AP47" s="33" t="s">
-        <v>96</v>
+      <c r="AR47" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:42" s="28" customFormat="1">
+    <row r="48" spans="1:44" s="28" customFormat="1">
       <c r="A48" s="28">
         <v>45</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C48" s="28">
         <v>2007</v>
@@ -7096,7 +7387,7 @@
         <v>2014</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="F48" s="28">
         <v>2004</v>
@@ -7212,20 +7503,26 @@
       <c r="AN48" s="28">
         <v>0</v>
       </c>
-      <c r="AO48" s="33" t="str">
+      <c r="AO48" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Combustion_Turbine_Cogen_CCS_EP</v>
       </c>
-      <c r="AP48" s="33" t="s">
-        <v>96</v>
+      <c r="AR48" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:42" s="28" customFormat="1">
+    <row r="49" spans="1:44" s="28" customFormat="1">
       <c r="A49" s="28">
         <v>46</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C49" s="28">
         <v>2007</v>
@@ -7234,7 +7531,7 @@
         <v>2014</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="F49" s="28">
         <v>2004</v>
@@ -7350,20 +7647,26 @@
       <c r="AN49" s="28">
         <v>0</v>
       </c>
-      <c r="AO49" s="33" t="str">
+      <c r="AO49" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP49" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Coal_Steam_Turbine_Cogen_CCS_EP</v>
       </c>
-      <c r="AP49" s="33" t="s">
-        <v>96</v>
+      <c r="AR49" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:42" s="28" customFormat="1">
+    <row r="50" spans="1:44" s="28" customFormat="1">
       <c r="A50" s="28">
         <v>47</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C50" s="28">
         <v>2007</v>
@@ -7372,7 +7675,7 @@
         <v>2014</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="F50" s="28">
         <v>2004</v>
@@ -7488,20 +7791,26 @@
       <c r="AN50" s="28">
         <v>0</v>
       </c>
-      <c r="AO50" s="33" t="str">
+      <c r="AO50" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP50" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Steam_Turbine_Cogen_CCS_EP</v>
       </c>
-      <c r="AP50" s="33" t="s">
-        <v>96</v>
+      <c r="AR50" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:42" s="28" customFormat="1">
+    <row r="51" spans="1:44" s="28" customFormat="1">
       <c r="A51" s="28">
         <v>48</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="C51" s="28">
         <v>2007</v>
@@ -7510,7 +7819,7 @@
         <v>2014</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="F51" s="28">
         <v>2004</v>
@@ -7626,20 +7935,26 @@
       <c r="AN51" s="28">
         <v>0</v>
       </c>
-      <c r="AO51" s="33" t="str">
+      <c r="AO51" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP51" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="33" t="str">
         <f t="shared" si="3"/>
         <v>CCGT_Cogen_CCS_EP</v>
       </c>
-      <c r="AP51" s="33" t="s">
-        <v>96</v>
+      <c r="AR51" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:42">
+    <row r="52" spans="1:44">
       <c r="A52" s="5">
         <v>60</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="C52" s="25">
         <f t="shared" ref="C52:D52" si="12">C20</f>
@@ -7650,7 +7965,7 @@
         <v>2000</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="F52" s="25">
         <f t="shared" ref="F52:H52" si="13">F20</f>
@@ -7669,7 +7984,7 @@
         <v>652000</v>
       </c>
       <c r="J52" s="25">
-        <f t="shared" ref="J52:AP52" si="14">J20</f>
+        <f t="shared" ref="J52:AR52" si="14">J20</f>
         <v>1</v>
       </c>
       <c r="K52" s="25">
@@ -7791,21 +8106,27 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO52" s="33" t="str">
+      <c r="AO52" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="AP52" s="33">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AQ52" s="33" t="str">
         <f>B52</f>
         <v>DistillateFuelOil_Combustion_Turbine_EP</v>
       </c>
-      <c r="AP52" s="25" t="str">
+      <c r="AR52" s="25" t="str">
         <f t="shared" si="14"/>
         <v>ReEDs Sheet</v>
       </c>
     </row>
-    <row r="53" spans="1:42">
+    <row r="53" spans="1:44">
       <c r="A53" s="5">
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="C53" s="33">
         <f t="shared" ref="C53:D53" si="15">C27</f>
@@ -7816,7 +8137,7 @@
         <v>2000</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="F53" s="33">
         <f t="shared" ref="F53:H53" si="16">F27</f>
@@ -7835,7 +8156,7 @@
         <v>652000</v>
       </c>
       <c r="J53" s="33">
-        <f t="shared" ref="J53:AP53" si="17">J27</f>
+        <f t="shared" ref="J53:AR53" si="17">J27</f>
         <v>1</v>
       </c>
       <c r="K53" s="33">
@@ -7957,21 +8278,27 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO53" s="33" t="str">
+      <c r="AO53" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="AP53" s="33">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AQ53" s="33" t="str">
         <f t="shared" si="3"/>
         <v>DistillateFuelOil_Internal_Combustion_Engine_EP</v>
       </c>
-      <c r="AP53" s="33" t="str">
+      <c r="AR53" s="33" t="str">
         <f t="shared" si="17"/>
         <v>ReEDs Sheet</v>
       </c>
     </row>
-    <row r="54" spans="1:42" s="33" customFormat="1">
+    <row r="54" spans="1:44" s="33" customFormat="1">
       <c r="A54" s="33">
         <v>80</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="C54" s="25">
         <f>C11</f>
@@ -8118,20 +8445,26 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AO54" s="25" t="str">
+      <c r="AO54" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP54" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="25" t="str">
         <f>B54</f>
         <v>Bio_Gas_Internal_Combustion_Engine_EP</v>
       </c>
-      <c r="AP54" s="25" t="s">
-        <v>154</v>
+      <c r="AR54" s="25" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:42" s="33" customFormat="1">
+    <row r="55" spans="1:44" s="33" customFormat="1">
       <c r="A55" s="33">
         <v>81</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="C55" s="33">
         <f>C54</f>
@@ -8282,20 +8615,26 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AO55" s="25" t="str">
-        <f t="shared" ref="AO55:AO56" si="20">B55</f>
+      <c r="AO55" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="25" t="str">
+        <f t="shared" ref="AQ55:AQ56" si="20">B55</f>
         <v>Bio_Gas_Internal_Combustion_Engine_Cogen_EP</v>
       </c>
-      <c r="AP55" s="33" t="s">
-        <v>117</v>
+      <c r="AR55" s="33" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:42" s="33" customFormat="1">
+    <row r="56" spans="1:44" s="33" customFormat="1">
       <c r="A56" s="33">
         <v>82</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="C56" s="33">
         <f>C22</f>
@@ -8446,20 +8785,26 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AO56" s="25" t="str">
+      <c r="AO56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="25" t="str">
         <f t="shared" si="20"/>
         <v>Bio_Gas_Steam_Turbine_EP</v>
       </c>
-      <c r="AP56" s="33" t="s">
-        <v>118</v>
+      <c r="AR56" s="33" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:42">
+    <row r="57" spans="1:44">
       <c r="A57" s="5">
         <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="C57" s="5">
         <f>C56</f>
@@ -8470,7 +8815,7 @@
         <v>2000</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="F57" s="33">
         <f t="shared" ref="F57:AN57" si="23">F56</f>
@@ -8610,31 +8955,37 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AO57" s="33" t="str">
+      <c r="AO57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="33" t="str">
         <f>B57</f>
         <v>Bio_Liquid_Steam_Turbine_Cogen_EP</v>
       </c>
-      <c r="AP57" s="33" t="s">
-        <v>120</v>
+      <c r="AR57" s="33" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:42">
+    <row r="58" spans="1:44">
       <c r="A58" s="5">
         <v>90</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C58" s="33">
         <f>C56</f>
         <v>2007</v>
       </c>
       <c r="D58" s="33">
-        <f t="shared" ref="D58:AP58" si="24">D56</f>
+        <f t="shared" ref="D58:AR58" si="24">D56</f>
         <v>2000</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="F58" s="33">
         <f t="shared" si="24"/>
@@ -8775,32 +9126,38 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AO58" s="33" t="str">
+      <c r="AO58" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="33" t="str">
         <f>B58</f>
         <v>Bio_Solid_Steam_Turbine_EP</v>
       </c>
-      <c r="AP58" s="33" t="str">
+      <c r="AR58" s="33" t="str">
         <f t="shared" si="24"/>
         <v>ReEDs Sheet, took OGS (Oil Gas Steam) values for all but costs:  costs from Biomass_Steam_Turbine</v>
       </c>
     </row>
-    <row r="59" spans="1:42">
+    <row r="59" spans="1:44">
       <c r="A59" s="5">
         <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="C59" s="33">
         <f>C57</f>
         <v>2007</v>
       </c>
       <c r="D59" s="33">
-        <f t="shared" ref="D59:AP59" si="25">D57</f>
+        <f t="shared" ref="D59:AR59" si="25">D57</f>
         <v>2000</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="F59" s="33">
         <f t="shared" si="25"/>
@@ -8941,47 +9298,1424 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AO59" s="33" t="str">
+      <c r="AO59" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP59" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="33" t="str">
         <f>B59</f>
         <v>Bio_Solid_Steam_Turbine_Cogen_EP</v>
       </c>
-      <c r="AP59" s="33" t="str">
+      <c r="AR59" s="33" t="str">
         <f t="shared" si="25"/>
         <v>ReEDs Sheet, took OGS (Oil Gas Steam) values for all but costs:  costs from Biomass_Steam_Turbine, 75% of capex for cogen</v>
       </c>
     </row>
-    <row r="60" spans="1:42">
+    <row r="60" spans="1:44">
       <c r="S60" s="5"/>
       <c r="Y60"/>
     </row>
-    <row r="61" spans="1:42">
-      <c r="S61" s="5"/>
-      <c r="Y61"/>
-      <c r="AP61" s="33"/>
+    <row r="61" spans="1:44">
+      <c r="A61" s="5">
+        <v>100</v>
+      </c>
+      <c r="B61" t="str">
+        <f>SUBSTITUTE(B33,"_EP", "")</f>
+        <v>Coal_Steam_Turbine_Cogen</v>
+      </c>
+      <c r="C61" s="33">
+        <f t="shared" ref="C61:AR61" si="26">C33</f>
+        <v>2007</v>
+      </c>
+      <c r="D61" s="33">
+        <v>2010</v>
+      </c>
+      <c r="E61" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>Coal</v>
+      </c>
+      <c r="F61" s="33">
+        <f t="shared" si="26"/>
+        <v>2007</v>
+      </c>
+      <c r="G61" s="33">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="H61" s="33">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="I61" s="33">
+        <f t="shared" si="26"/>
+        <v>991500</v>
+      </c>
+      <c r="J61" s="33">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="K61" s="33">
+        <f t="shared" si="26"/>
+        <v>25703</v>
+      </c>
+      <c r="L61" s="33">
+        <f t="shared" si="26"/>
+        <v>3.73</v>
+      </c>
+      <c r="M61" s="33">
+        <f t="shared" si="26"/>
+        <v>991500</v>
+      </c>
+      <c r="N61" s="33">
+        <f t="shared" si="26"/>
+        <v>25703</v>
+      </c>
+      <c r="O61" s="33">
+        <f t="shared" si="26"/>
+        <v>3.73</v>
+      </c>
+      <c r="P61" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="33">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="T61" s="33">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+      <c r="U61" s="33">
+        <f t="shared" si="26"/>
+        <v>0.3</v>
+      </c>
+      <c r="V61" s="33">
+        <f t="shared" si="26"/>
+        <v>0.2</v>
+      </c>
+      <c r="W61" s="33">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="X61" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="33">
+        <f t="shared" si="26"/>
+        <v>60</v>
+      </c>
+      <c r="AA61" s="33">
+        <f t="shared" si="26"/>
+        <v>0.06</v>
+      </c>
+      <c r="AB61" s="33">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="AC61" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AD61" s="33">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AE61" s="33">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AF61" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="33">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AH61" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AI61" s="33">
+        <v>1</v>
+      </c>
+      <c r="AJ61" s="33">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AK61" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AL61" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AM61" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AN61" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AO61" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AP61" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AQ61" s="33" t="str">
+        <f>B61</f>
+        <v>Coal_Steam_Turbine_Cogen</v>
+      </c>
+      <c r="AR61" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>ReEDs Sheet, 75 CapEx of non-cogen</v>
+      </c>
     </row>
-    <row r="62" spans="1:42">
-      <c r="S62" s="5"/>
-      <c r="Y62"/>
+    <row r="62" spans="1:44">
+      <c r="A62" s="5">
+        <v>101</v>
+      </c>
+      <c r="B62" t="str">
+        <f>SUBSTITUTE(B32,"_EP", "")</f>
+        <v>Gas_Combustion_Turbine_Cogen</v>
+      </c>
+      <c r="C62" s="33">
+        <f t="shared" ref="C62:AR62" si="27">C32</f>
+        <v>2007</v>
+      </c>
+      <c r="D62" s="33">
+        <v>2010</v>
+      </c>
+      <c r="E62" s="33" t="str">
+        <f t="shared" si="27"/>
+        <v>Gas</v>
+      </c>
+      <c r="F62" s="33">
+        <f t="shared" si="27"/>
+        <v>2007</v>
+      </c>
+      <c r="G62" s="33">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="H62" s="33">
+        <f t="shared" si="27"/>
+        <v>2000</v>
+      </c>
+      <c r="I62" s="33">
+        <f t="shared" si="27"/>
+        <v>489000</v>
+      </c>
+      <c r="J62" s="33">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="K62" s="33">
+        <f t="shared" si="27"/>
+        <v>11322</v>
+      </c>
+      <c r="L62" s="33">
+        <f t="shared" si="27"/>
+        <v>3.35</v>
+      </c>
+      <c r="M62" s="33">
+        <f t="shared" si="27"/>
+        <v>489000</v>
+      </c>
+      <c r="N62" s="33">
+        <f t="shared" si="27"/>
+        <v>11322</v>
+      </c>
+      <c r="O62" s="33">
+        <f t="shared" si="27"/>
+        <v>3.35</v>
+      </c>
+      <c r="P62" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S62" s="33">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="T62" s="33">
+        <f t="shared" si="27"/>
+        <v>0.8</v>
+      </c>
+      <c r="U62" s="33">
+        <f t="shared" si="27"/>
+        <v>0.1</v>
+      </c>
+      <c r="V62" s="33">
+        <f t="shared" si="27"/>
+        <v>0.1</v>
+      </c>
+      <c r="W62" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="X62" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y62" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z62" s="33">
+        <f t="shared" si="27"/>
+        <v>30</v>
+      </c>
+      <c r="AA62" s="33">
+        <f t="shared" si="27"/>
+        <v>0.03</v>
+      </c>
+      <c r="AB62" s="33">
+        <f t="shared" si="27"/>
+        <v>0.05</v>
+      </c>
+      <c r="AC62" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AD62" s="33">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AE62" s="33">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AF62" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="33">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AH62" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AI62" s="33">
+        <v>1</v>
+      </c>
+      <c r="AJ62" s="33">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AK62" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AL62" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AM62" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AN62" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AO62" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AP62" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="33" t="str">
+        <f t="shared" ref="AQ62:AQ68" si="28">B62</f>
+        <v>Gas_Combustion_Turbine_Cogen</v>
+      </c>
+      <c r="AR62" s="33" t="str">
+        <f t="shared" si="27"/>
+        <v>ReEDs Sheet, 75 CapEx of non-cogen</v>
+      </c>
     </row>
-    <row r="63" spans="1:42">
-      <c r="S63" s="5"/>
-      <c r="Y63"/>
+    <row r="63" spans="1:44">
+      <c r="A63" s="5">
+        <v>102</v>
+      </c>
+      <c r="B63" t="str">
+        <f>SUBSTITUTE(B34,"_EP", "")</f>
+        <v>Gas_Steam_Turbine_Cogen</v>
+      </c>
+      <c r="C63" s="33">
+        <f t="shared" ref="C63:AR63" si="29">C34</f>
+        <v>2007</v>
+      </c>
+      <c r="D63" s="33">
+        <v>2010</v>
+      </c>
+      <c r="E63" s="33" t="str">
+        <f t="shared" si="29"/>
+        <v>Gas</v>
+      </c>
+      <c r="F63" s="33">
+        <f t="shared" si="29"/>
+        <v>2007</v>
+      </c>
+      <c r="G63" s="33">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="H63" s="33">
+        <f t="shared" si="29"/>
+        <v>2000</v>
+      </c>
+      <c r="I63" s="33">
+        <f t="shared" si="29"/>
+        <v>326250</v>
+      </c>
+      <c r="J63" s="33">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="K63" s="33">
+        <f t="shared" si="29"/>
+        <v>27730</v>
+      </c>
+      <c r="L63" s="33">
+        <f t="shared" si="29"/>
+        <v>3.47</v>
+      </c>
+      <c r="M63" s="33">
+        <f t="shared" si="29"/>
+        <v>326250</v>
+      </c>
+      <c r="N63" s="33">
+        <f t="shared" si="29"/>
+        <v>27730</v>
+      </c>
+      <c r="O63" s="33">
+        <f t="shared" si="29"/>
+        <v>3.47</v>
+      </c>
+      <c r="P63" s="33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="33">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="T63" s="33">
+        <f t="shared" si="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="U63" s="33">
+        <f t="shared" si="29"/>
+        <v>0.4</v>
+      </c>
+      <c r="V63" s="33">
+        <f t="shared" si="29"/>
+        <v>0.1</v>
+      </c>
+      <c r="W63" s="33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="33">
+        <f t="shared" si="29"/>
+        <v>30</v>
+      </c>
+      <c r="AA63" s="33">
+        <f t="shared" si="29"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB63" s="33">
+        <f t="shared" si="29"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AC63" s="33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AD63" s="33">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AE63" s="33">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AF63" s="33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="33">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AH63" s="33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AI63" s="33">
+        <v>1</v>
+      </c>
+      <c r="AJ63" s="33">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AK63" s="33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AL63" s="33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AM63" s="33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AN63" s="33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AO63" s="33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AP63" s="33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="33" t="str">
+        <f t="shared" si="28"/>
+        <v>Gas_Steam_Turbine_Cogen</v>
+      </c>
+      <c r="AR63" s="33" t="str">
+        <f t="shared" si="29"/>
+        <v>ReEDs Sheet, 75 CapEx of non-cogen</v>
+      </c>
     </row>
-    <row r="64" spans="1:42">
-      <c r="S64" s="5"/>
-      <c r="Y64"/>
+    <row r="64" spans="1:44">
+      <c r="A64" s="5">
+        <v>103</v>
+      </c>
+      <c r="B64" t="str">
+        <f>SUBSTITUTE(B35,"_EP", "")</f>
+        <v>CCGT_Cogen</v>
+      </c>
+      <c r="C64" s="33">
+        <f t="shared" ref="C64:AR64" si="30">C35</f>
+        <v>2007</v>
+      </c>
+      <c r="D64" s="33">
+        <v>2010</v>
+      </c>
+      <c r="E64" s="33" t="str">
+        <f t="shared" si="30"/>
+        <v>Gas</v>
+      </c>
+      <c r="F64" s="33">
+        <f t="shared" si="30"/>
+        <v>2007</v>
+      </c>
+      <c r="G64" s="33">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="H64" s="33">
+        <f t="shared" si="30"/>
+        <v>2000</v>
+      </c>
+      <c r="I64" s="33">
+        <f t="shared" si="30"/>
+        <v>716250</v>
+      </c>
+      <c r="J64" s="33">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="K64" s="33">
+        <f t="shared" si="30"/>
+        <v>11322</v>
+      </c>
+      <c r="L64" s="33">
+        <f t="shared" si="30"/>
+        <v>3.35</v>
+      </c>
+      <c r="M64" s="33">
+        <f t="shared" si="30"/>
+        <v>716250</v>
+      </c>
+      <c r="N64" s="33">
+        <f t="shared" si="30"/>
+        <v>11322</v>
+      </c>
+      <c r="O64" s="33">
+        <f t="shared" si="30"/>
+        <v>3.35</v>
+      </c>
+      <c r="P64" s="33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="33">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="T64" s="33">
+        <f t="shared" si="30"/>
+        <v>0.5</v>
+      </c>
+      <c r="U64" s="33">
+        <f t="shared" si="30"/>
+        <v>0.4</v>
+      </c>
+      <c r="V64" s="33">
+        <f t="shared" si="30"/>
+        <v>0.1</v>
+      </c>
+      <c r="W64" s="33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X64" s="33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="33">
+        <f t="shared" si="30"/>
+        <v>30</v>
+      </c>
+      <c r="AA64" s="33">
+        <f t="shared" si="30"/>
+        <v>0.04</v>
+      </c>
+      <c r="AB64" s="33">
+        <f t="shared" si="30"/>
+        <v>0.06</v>
+      </c>
+      <c r="AC64" s="33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AD64" s="33">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AE64" s="33">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AF64" s="33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="33">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AH64" s="33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AI64" s="33">
+        <v>1</v>
+      </c>
+      <c r="AJ64" s="33">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AK64" s="33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AL64" s="33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AM64" s="33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AN64" s="33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AO64" s="33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AP64" s="33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="33" t="str">
+        <f t="shared" si="28"/>
+        <v>CCGT_Cogen</v>
+      </c>
+      <c r="AR64" s="33" t="str">
+        <f t="shared" si="30"/>
+        <v>ReEDs Sheet, 75 CapEx of non-cogen</v>
+      </c>
     </row>
-    <row r="65" spans="19:25">
-      <c r="S65" s="5"/>
-      <c r="Y65"/>
+    <row r="65" spans="1:44">
+      <c r="A65" s="5">
+        <v>104</v>
+      </c>
+      <c r="B65" t="str">
+        <f>SUBSTITUTE(B43,"_EP", "")</f>
+        <v>Gas_Internal_Combustion_Engine_Cogen</v>
+      </c>
+      <c r="C65" s="33">
+        <f t="shared" ref="C65:AR65" si="31">C43</f>
+        <v>2007</v>
+      </c>
+      <c r="D65" s="33">
+        <v>2010</v>
+      </c>
+      <c r="E65" s="33" t="str">
+        <f t="shared" si="31"/>
+        <v>Gas</v>
+      </c>
+      <c r="F65" s="33">
+        <f t="shared" si="31"/>
+        <v>2007</v>
+      </c>
+      <c r="G65" s="33">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="H65" s="33">
+        <f t="shared" si="31"/>
+        <v>2000</v>
+      </c>
+      <c r="I65" s="33">
+        <f t="shared" si="31"/>
+        <v>489000</v>
+      </c>
+      <c r="J65" s="33">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="K65" s="33">
+        <f t="shared" si="31"/>
+        <v>30000</v>
+      </c>
+      <c r="L65" s="33">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="M65" s="33">
+        <f t="shared" si="31"/>
+        <v>489000</v>
+      </c>
+      <c r="N65" s="33">
+        <f t="shared" si="31"/>
+        <v>30000</v>
+      </c>
+      <c r="O65" s="33">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="P65" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="33">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="T65" s="33">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="U65" s="33">
+        <f t="shared" si="31"/>
+        <v>0.1</v>
+      </c>
+      <c r="V65" s="33">
+        <f t="shared" si="31"/>
+        <v>0.1</v>
+      </c>
+      <c r="W65" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="33">
+        <f t="shared" si="31"/>
+        <v>30</v>
+      </c>
+      <c r="AA65" s="33">
+        <f t="shared" si="31"/>
+        <v>0.03</v>
+      </c>
+      <c r="AB65" s="33">
+        <f t="shared" si="31"/>
+        <v>0.04</v>
+      </c>
+      <c r="AC65" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AD65" s="33">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AE65" s="33">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AF65" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="33">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AH65" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AI65" s="33">
+        <v>1</v>
+      </c>
+      <c r="AJ65" s="33">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AK65" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AL65" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AM65" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AN65" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AO65" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AP65" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="33" t="str">
+        <f t="shared" si="28"/>
+        <v>Gas_Internal_Combustion_Engine_Cogen</v>
+      </c>
+      <c r="AR65" s="33" t="str">
+        <f t="shared" si="31"/>
+        <v>ReEDs Sheet, 75 CapEx of non-cogen</v>
+      </c>
     </row>
-    <row r="66" spans="19:25">
-      <c r="S66" s="5"/>
-      <c r="Y66"/>
+    <row r="66" spans="1:44">
+      <c r="A66" s="5">
+        <v>105</v>
+      </c>
+      <c r="B66" t="str">
+        <f>SUBSTITUTE(B55,"_EP", "")</f>
+        <v>Bio_Gas_Internal_Combustion_Engine_Cogen</v>
+      </c>
+      <c r="C66" s="33">
+        <f t="shared" ref="C66:AR66" si="32">C55</f>
+        <v>2007</v>
+      </c>
+      <c r="D66" s="33">
+        <v>2010</v>
+      </c>
+      <c r="E66" s="33" t="str">
+        <f t="shared" si="32"/>
+        <v>Bio_Gas</v>
+      </c>
+      <c r="F66" s="33">
+        <f t="shared" si="32"/>
+        <v>2007</v>
+      </c>
+      <c r="G66" s="33">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="H66" s="33">
+        <f t="shared" si="32"/>
+        <v>2008</v>
+      </c>
+      <c r="I66" s="33">
+        <f t="shared" si="32"/>
+        <v>2377000</v>
+      </c>
+      <c r="J66" s="33">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="K66" s="33">
+        <f t="shared" si="32"/>
+        <v>114250</v>
+      </c>
+      <c r="L66" s="33">
+        <f t="shared" si="32"/>
+        <v>0.01</v>
+      </c>
+      <c r="M66" s="33">
+        <f t="shared" si="32"/>
+        <v>1782750</v>
+      </c>
+      <c r="N66" s="33">
+        <f t="shared" si="32"/>
+        <v>114250</v>
+      </c>
+      <c r="O66" s="33">
+        <f t="shared" si="32"/>
+        <v>0.01</v>
+      </c>
+      <c r="P66" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="33">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="T66" s="33">
+        <f t="shared" si="32"/>
+        <v>0.8</v>
+      </c>
+      <c r="U66" s="33">
+        <f t="shared" si="32"/>
+        <v>0.1</v>
+      </c>
+      <c r="V66" s="33">
+        <f t="shared" si="32"/>
+        <v>0.1</v>
+      </c>
+      <c r="W66" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="33">
+        <f t="shared" si="32"/>
+        <v>30</v>
+      </c>
+      <c r="AA66" s="33">
+        <f t="shared" si="32"/>
+        <v>0.03</v>
+      </c>
+      <c r="AB66" s="33">
+        <f t="shared" si="32"/>
+        <v>0.05</v>
+      </c>
+      <c r="AC66" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD66" s="33">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AE66" s="33">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AF66" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="33">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AH66" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AI66" s="33">
+        <v>1</v>
+      </c>
+      <c r="AJ66" s="33">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AK66" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AL66" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AM66" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AN66" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AO66" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AP66" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="33" t="str">
+        <f t="shared" si="28"/>
+        <v>Bio_Gas_Internal_Combustion_Engine_Cogen</v>
+      </c>
+      <c r="AR66" s="33" t="str">
+        <f t="shared" si="32"/>
+        <v>EIA, 75% CapEx of non-cogen, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</v>
+      </c>
     </row>
-    <row r="67" spans="19:25">
-      <c r="S67" s="5"/>
-      <c r="Y67"/>
+    <row r="67" spans="1:44">
+      <c r="A67" s="5">
+        <v>106</v>
+      </c>
+      <c r="B67" t="str">
+        <f>SUBSTITUTE(B57,"_EP", "")</f>
+        <v>Bio_Liquid_Steam_Turbine_Cogen</v>
+      </c>
+      <c r="C67" s="33">
+        <f t="shared" ref="C67:AR67" si="33">C57</f>
+        <v>2007</v>
+      </c>
+      <c r="D67" s="33">
+        <v>2010</v>
+      </c>
+      <c r="E67" s="33" t="str">
+        <f t="shared" si="33"/>
+        <v>Bio_Liquid</v>
+      </c>
+      <c r="F67" s="33">
+        <f t="shared" si="33"/>
+        <v>2004</v>
+      </c>
+      <c r="G67" s="33">
+        <f t="shared" si="33"/>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="H67" s="33">
+        <f t="shared" si="33"/>
+        <v>2000</v>
+      </c>
+      <c r="I67" s="33">
+        <f t="shared" si="33"/>
+        <v>1963087.5</v>
+      </c>
+      <c r="J67" s="33">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="K67" s="33">
+        <f t="shared" si="33"/>
+        <v>66626</v>
+      </c>
+      <c r="L67" s="33">
+        <f t="shared" si="33"/>
+        <v>9.5180000000000007</v>
+      </c>
+      <c r="M67" s="33">
+        <f t="shared" si="33"/>
+        <v>2155470.0750000002</v>
+      </c>
+      <c r="N67" s="33">
+        <f t="shared" si="33"/>
+        <v>73155.348000000013</v>
+      </c>
+      <c r="O67" s="33">
+        <f t="shared" si="33"/>
+        <v>10.450764000000001</v>
+      </c>
+      <c r="P67" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="33">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="T67" s="33">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="U67" s="33">
+        <f t="shared" si="33"/>
+        <v>0.4</v>
+      </c>
+      <c r="V67" s="33">
+        <f t="shared" si="33"/>
+        <v>0.1</v>
+      </c>
+      <c r="W67" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="X67" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Z67" s="33">
+        <f t="shared" si="33"/>
+        <v>45</v>
+      </c>
+      <c r="AA67" s="33">
+        <f t="shared" si="33"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB67" s="33">
+        <f t="shared" si="33"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AC67" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AD67" s="33">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AE67" s="33">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AF67" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="33">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AH67" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AI67" s="33">
+        <v>1</v>
+      </c>
+      <c r="AJ67" s="33">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AK67" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AL67" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AM67" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AN67" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AO67" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AP67" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="33" t="str">
+        <f t="shared" si="28"/>
+        <v>Bio_Liquid_Steam_Turbine_Cogen</v>
+      </c>
+      <c r="AR67" s="33" t="str">
+        <f t="shared" si="33"/>
+        <v>ReEDs Sheet, took OGS (Oil Gas Steam) values for all but costs:  costs from Biomass_Steam_Turbine, 75% of capex for cogen</v>
+      </c>
+    </row>
+    <row r="68" spans="1:44">
+      <c r="A68" s="5">
+        <v>107</v>
+      </c>
+      <c r="B68" t="str">
+        <f>SUBSTITUTE(B59,"_EP", "")</f>
+        <v>Bio_Solid_Steam_Turbine_Cogen</v>
+      </c>
+      <c r="C68" s="33">
+        <f t="shared" ref="C68:AR68" si="34">C59</f>
+        <v>2007</v>
+      </c>
+      <c r="D68" s="33">
+        <v>2010</v>
+      </c>
+      <c r="E68" s="33" t="str">
+        <f t="shared" si="34"/>
+        <v>Bio_Solid</v>
+      </c>
+      <c r="F68" s="33">
+        <f t="shared" si="34"/>
+        <v>2004</v>
+      </c>
+      <c r="G68" s="33">
+        <f t="shared" si="34"/>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="H68" s="33">
+        <f t="shared" si="34"/>
+        <v>2000</v>
+      </c>
+      <c r="I68" s="33">
+        <f t="shared" si="34"/>
+        <v>1963087.5</v>
+      </c>
+      <c r="J68" s="33">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="K68" s="33">
+        <f t="shared" si="34"/>
+        <v>66626</v>
+      </c>
+      <c r="L68" s="33">
+        <f t="shared" si="34"/>
+        <v>9.5180000000000007</v>
+      </c>
+      <c r="M68" s="33">
+        <f t="shared" si="34"/>
+        <v>2155470.0750000002</v>
+      </c>
+      <c r="N68" s="33">
+        <f t="shared" si="34"/>
+        <v>73155.348000000013</v>
+      </c>
+      <c r="O68" s="33">
+        <f t="shared" si="34"/>
+        <v>10.450764000000001</v>
+      </c>
+      <c r="P68" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="33">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="T68" s="33">
+        <f t="shared" si="34"/>
+        <v>0.5</v>
+      </c>
+      <c r="U68" s="33">
+        <f t="shared" si="34"/>
+        <v>0.4</v>
+      </c>
+      <c r="V68" s="33">
+        <f t="shared" si="34"/>
+        <v>0.1</v>
+      </c>
+      <c r="W68" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="33">
+        <f t="shared" si="34"/>
+        <v>45</v>
+      </c>
+      <c r="AA68" s="33">
+        <f t="shared" si="34"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB68" s="33">
+        <f t="shared" si="34"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AC68" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AD68" s="33">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AE68" s="33">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AF68" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="33">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AH68" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AI68" s="33">
+        <v>1</v>
+      </c>
+      <c r="AJ68" s="33">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AK68" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AL68" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AM68" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AN68" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AO68" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AP68" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="33" t="str">
+        <f t="shared" si="28"/>
+        <v>Bio_Solid_Steam_Turbine_Cogen</v>
+      </c>
+      <c r="AR68" s="33" t="str">
+        <f t="shared" si="34"/>
+        <v>ReEDs Sheet, took OGS (Oil Gas Steam) values for all but costs:  costs from Biomass_Steam_Turbine, 75% of capex for cogen</v>
+      </c>
     </row>
     <row r="87" spans="13:40">
       <c r="M87" s="5"/>
@@ -9062,7 +10796,7 @@
       <c r="A101" s="33"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -9074,10 +10808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AG61"/>
+  <dimension ref="A1:AI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -9090,9 +10824,10 @@
     <col min="25" max="26" width="10.7109375" style="33"/>
     <col min="29" max="29" width="10.7109375" style="33"/>
     <col min="30" max="30" width="10.7109375" style="27"/>
+    <col min="34" max="35" width="10.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1">
+    <row r="1" spans="1:35" s="5" customFormat="1">
       <c r="A1" s="5" t="str">
         <f>generator_costs!A3</f>
         <v>technology_id</v>
@@ -9225,8 +10960,16 @@
         <f>generator_costs!AN3</f>
         <v>max_store_rate</v>
       </c>
+      <c r="AH1" s="33" t="str">
+        <f>generator_costs!AO3</f>
+        <v>10_min_ramp_rate</v>
+      </c>
+      <c r="AI1" s="33" t="str">
+        <f>generator_costs!AP3</f>
+        <v>heat_rate_penalty_spinning_reserve</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" s="5" customFormat="1">
+    <row r="2" spans="1:35" s="5" customFormat="1">
       <c r="A2" s="5">
         <f>generator_costs!A4</f>
         <v>1</v>
@@ -9359,8 +11102,16 @@
         <f>generator_costs!AN4</f>
         <v>0</v>
       </c>
+      <c r="AH2" s="33">
+        <f>generator_costs!AO4</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AI2" s="33">
+        <f>generator_costs!AP4</f>
+        <v>0.28050000000000003</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" s="5" customFormat="1">
+    <row r="3" spans="1:35" s="5" customFormat="1">
       <c r="A3" s="33">
         <f>generator_costs!A5</f>
         <v>2</v>
@@ -9493,8 +11244,16 @@
         <f>generator_costs!AN5</f>
         <v>0</v>
       </c>
+      <c r="AH3" s="33">
+        <f>generator_costs!AO5</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI3" s="33">
+        <f>generator_costs!AP5</f>
+        <v>1.1900000000000001E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" s="22" customFormat="1">
+    <row r="4" spans="1:35" s="22" customFormat="1">
       <c r="A4" s="33">
         <f>generator_costs!A6</f>
         <v>3</v>
@@ -9627,8 +11386,16 @@
         <f>generator_costs!AN6</f>
         <v>0</v>
       </c>
+      <c r="AH4" s="33">
+        <f>generator_costs!AO6</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="33">
+        <f>generator_costs!AP6</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1">
+    <row r="5" spans="1:35" s="5" customFormat="1">
       <c r="A5" s="33">
         <f>generator_costs!A7</f>
         <v>4</v>
@@ -9761,8 +11528,16 @@
         <f>generator_costs!AN7</f>
         <v>0</v>
       </c>
+      <c r="AH5" s="33">
+        <f>generator_costs!AO7</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="33">
+        <f>generator_costs!AP7</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" s="5" customFormat="1">
+    <row r="6" spans="1:35" s="5" customFormat="1">
       <c r="A6" s="33">
         <f>generator_costs!A8</f>
         <v>5</v>
@@ -9895,8 +11670,16 @@
         <f>generator_costs!AN8</f>
         <v>0</v>
       </c>
+      <c r="AH6" s="33">
+        <f>generator_costs!AO8</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="33">
+        <f>generator_costs!AP8</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" s="5" customFormat="1">
+    <row r="7" spans="1:35" s="5" customFormat="1">
       <c r="A7" s="33">
         <f>generator_costs!A9</f>
         <v>6</v>
@@ -10029,8 +11812,16 @@
         <f>generator_costs!AN9</f>
         <v>0</v>
       </c>
+      <c r="AH7" s="33">
+        <f>generator_costs!AO9</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="33">
+        <f>generator_costs!AP9</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" s="5" customFormat="1">
+    <row r="8" spans="1:35" s="5" customFormat="1">
       <c r="A8" s="33">
         <f>generator_costs!A10</f>
         <v>7</v>
@@ -10163,8 +11954,16 @@
         <f>generator_costs!AN10</f>
         <v>0</v>
       </c>
+      <c r="AH8" s="33">
+        <f>generator_costs!AO10</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="33">
+        <f>generator_costs!AP10</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" s="5" customFormat="1">
+    <row r="9" spans="1:35" s="5" customFormat="1">
       <c r="A9" s="33">
         <f>generator_costs!A11</f>
         <v>8</v>
@@ -10297,8 +12096,16 @@
         <f>generator_costs!AN11</f>
         <v>0</v>
       </c>
+      <c r="AH9" s="33">
+        <f>generator_costs!AO11</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="33">
+        <f>generator_costs!AP11</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" s="5" customFormat="1">
+    <row r="10" spans="1:35" s="5" customFormat="1">
       <c r="A10" s="33">
         <f>generator_costs!A12</f>
         <v>9</v>
@@ -10431,8 +12238,16 @@
         <f>generator_costs!AN12</f>
         <v>0</v>
       </c>
+      <c r="AH10" s="33">
+        <f>generator_costs!AO12</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="33">
+        <f>generator_costs!AP12</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" s="5" customFormat="1">
+    <row r="11" spans="1:35" s="5" customFormat="1">
       <c r="A11" s="33">
         <f>generator_costs!A13</f>
         <v>10</v>
@@ -10565,8 +12380,16 @@
         <f>generator_costs!AN13</f>
         <v>0</v>
       </c>
+      <c r="AH11" s="33">
+        <f>generator_costs!AO13</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="33">
+        <f>generator_costs!AP13</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" s="5" customFormat="1">
+    <row r="12" spans="1:35" s="5" customFormat="1">
       <c r="A12" s="33">
         <f>generator_costs!A14</f>
         <v>11</v>
@@ -10699,8 +12522,16 @@
         <f>generator_costs!AN14</f>
         <v>0</v>
       </c>
+      <c r="AH12" s="33">
+        <f>generator_costs!AO14</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="33">
+        <f>generator_costs!AP14</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" s="5" customFormat="1">
+    <row r="13" spans="1:35" s="5" customFormat="1">
       <c r="A13" s="33">
         <f>generator_costs!A15</f>
         <v>12</v>
@@ -10833,8 +12664,16 @@
         <f>generator_costs!AN15</f>
         <v>0</v>
       </c>
+      <c r="AH13" s="33">
+        <f>generator_costs!AO15</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="33">
+        <f>generator_costs!AP15</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:35">
       <c r="A14" s="33">
         <f>generator_costs!A16</f>
         <v>13</v>
@@ -10967,8 +12806,16 @@
         <f>generator_costs!AN16</f>
         <v>0</v>
       </c>
+      <c r="AH14" s="33">
+        <f>generator_costs!AO16</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="33">
+        <f>generator_costs!AP16</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:35">
       <c r="A15" s="33">
         <f>generator_costs!A17</f>
         <v>14</v>
@@ -11101,8 +12948,16 @@
         <f>generator_costs!AN17</f>
         <v>0</v>
       </c>
+      <c r="AH15" s="33">
+        <f>generator_costs!AO17</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="33">
+        <f>generator_costs!AP17</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:35">
       <c r="A16" s="33">
         <f>generator_costs!A18</f>
         <v>15</v>
@@ -11235,8 +13090,16 @@
         <f>generator_costs!AN18</f>
         <v>0</v>
       </c>
+      <c r="AH16" s="33">
+        <f>generator_costs!AO18</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="33">
+        <f>generator_costs!AP18</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:35">
       <c r="A17" s="33">
         <f>generator_costs!A19</f>
         <v>16</v>
@@ -11369,8 +13232,16 @@
         <f>generator_costs!AN19</f>
         <v>1</v>
       </c>
+      <c r="AH17" s="33">
+        <f>generator_costs!AO19</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="33">
+        <f>generator_costs!AP19</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:35">
       <c r="A18" s="33">
         <f>generator_costs!A20</f>
         <v>17</v>
@@ -11503,8 +13374,16 @@
         <f>generator_costs!AN20</f>
         <v>0</v>
       </c>
+      <c r="AH18" s="33">
+        <f>generator_costs!AO20</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI18" s="33">
+        <f>generator_costs!AP20</f>
+        <v>1.1900000000000001E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:35">
       <c r="A19" s="33">
         <f>generator_costs!A21</f>
         <v>18</v>
@@ -11637,8 +13516,16 @@
         <f>generator_costs!AN21</f>
         <v>0</v>
       </c>
+      <c r="AH19" s="33">
+        <f>generator_costs!AO21</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="33">
+        <f>generator_costs!AP21</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:35">
       <c r="A20" s="33">
         <f>generator_costs!A22</f>
         <v>19</v>
@@ -11771,8 +13658,16 @@
         <f>generator_costs!AN22</f>
         <v>0</v>
       </c>
+      <c r="AH20" s="33">
+        <f>generator_costs!AO22</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AI20" s="33">
+        <f>generator_costs!AP22</f>
+        <v>2.75E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:35">
       <c r="A21" s="33">
         <f>generator_costs!A23</f>
         <v>20</v>
@@ -11905,8 +13800,16 @@
         <f>generator_costs!AN23</f>
         <v>0</v>
       </c>
+      <c r="AH21" s="33">
+        <f>generator_costs!AO23</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AI21" s="33">
+        <f>generator_costs!AP23</f>
+        <v>0.28050000000000003</v>
+      </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:35">
       <c r="A22" s="33">
         <f>generator_costs!A24</f>
         <v>21</v>
@@ -12039,8 +13942,16 @@
         <f>generator_costs!AN24</f>
         <v>0</v>
       </c>
+      <c r="AH22" s="33">
+        <f>generator_costs!AO24</f>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="33">
+        <f>generator_costs!AP24</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:35">
       <c r="A23" s="33">
         <f>generator_costs!A25</f>
         <v>22</v>
@@ -12173,8 +14084,16 @@
         <f>generator_costs!AN25</f>
         <v>0</v>
       </c>
+      <c r="AH23" s="33">
+        <f>generator_costs!AO25</f>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="33">
+        <f>generator_costs!AP25</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:35">
       <c r="A24" s="33">
         <f>generator_costs!A26</f>
         <v>23</v>
@@ -12307,8 +14226,16 @@
         <f>generator_costs!AN26</f>
         <v>0</v>
       </c>
+      <c r="AH24" s="33">
+        <f>generator_costs!AO26</f>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="33">
+        <f>generator_costs!AP26</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:35">
       <c r="A25" s="33">
         <f>generator_costs!A27</f>
         <v>24</v>
@@ -12441,8 +14368,16 @@
         <f>generator_costs!AN27</f>
         <v>0</v>
       </c>
+      <c r="AH25" s="33">
+        <f>generator_costs!AO27</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI25" s="33">
+        <f>generator_costs!AP27</f>
+        <v>1.1900000000000001E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:35">
       <c r="A26" s="33">
         <f>generator_costs!A28</f>
         <v>25</v>
@@ -12575,8 +14510,16 @@
         <f>generator_costs!AN28</f>
         <v>0</v>
       </c>
+      <c r="AH26" s="33">
+        <f>generator_costs!AO28</f>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="33">
+        <f>generator_costs!AP28</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:35">
       <c r="A27" s="33">
         <f>generator_costs!A29</f>
         <v>26</v>
@@ -12709,8 +14652,16 @@
         <f>generator_costs!AN29</f>
         <v>0</v>
       </c>
+      <c r="AH27" s="33">
+        <f>generator_costs!AO29</f>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="33">
+        <f>generator_costs!AP29</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:35">
       <c r="A28" s="33">
         <f>generator_costs!A30</f>
         <v>27</v>
@@ -12843,8 +14794,16 @@
         <f>generator_costs!AN30</f>
         <v>0</v>
       </c>
+      <c r="AH28" s="33">
+        <f>generator_costs!AO30</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="33">
+        <f>generator_costs!AP30</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:35">
       <c r="A29" s="33">
         <f>generator_costs!A31</f>
         <v>28</v>
@@ -12977,8 +14936,16 @@
         <f>generator_costs!AN31</f>
         <v>1.2</v>
       </c>
+      <c r="AH29" s="33">
+        <f>generator_costs!AO31</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI29" s="33">
+        <f>generator_costs!AP31</f>
+        <v>1.1900000000000001E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:35">
       <c r="A30" s="33">
         <f>generator_costs!A32</f>
         <v>29</v>
@@ -13093,7 +15060,7 @@
       </c>
       <c r="AC30" s="33">
         <f>generator_costs!AJ32</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="33">
         <f>generator_costs!AK32</f>
@@ -13111,8 +15078,16 @@
         <f>generator_costs!AN32</f>
         <v>0</v>
       </c>
+      <c r="AH30" s="33">
+        <f>generator_costs!AO32</f>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="33">
+        <f>generator_costs!AP32</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:35">
       <c r="A31" s="33">
         <f>generator_costs!A33</f>
         <v>30</v>
@@ -13227,7 +15202,7 @@
       </c>
       <c r="AC31" s="33">
         <f>generator_costs!AJ33</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" s="33">
         <f>generator_costs!AK33</f>
@@ -13245,8 +15220,16 @@
         <f>generator_costs!AN33</f>
         <v>0</v>
       </c>
+      <c r="AH31" s="33">
+        <f>generator_costs!AO33</f>
+        <v>0</v>
+      </c>
+      <c r="AI31" s="33">
+        <f>generator_costs!AP33</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:35">
       <c r="A32" s="33">
         <f>generator_costs!A34</f>
         <v>31</v>
@@ -13361,7 +15344,7 @@
       </c>
       <c r="AC32" s="33">
         <f>generator_costs!AJ34</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="33">
         <f>generator_costs!AK34</f>
@@ -13379,8 +15362,16 @@
         <f>generator_costs!AN34</f>
         <v>0</v>
       </c>
+      <c r="AH32" s="33">
+        <f>generator_costs!AO34</f>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="33">
+        <f>generator_costs!AP34</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:35">
       <c r="A33" s="33">
         <f>generator_costs!A35</f>
         <v>32</v>
@@ -13495,7 +15486,7 @@
       </c>
       <c r="AC33" s="33">
         <f>generator_costs!AJ35</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="33">
         <f>generator_costs!AK35</f>
@@ -13513,8 +15504,16 @@
         <f>generator_costs!AN35</f>
         <v>0</v>
       </c>
+      <c r="AH33" s="33">
+        <f>generator_costs!AO35</f>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="33">
+        <f>generator_costs!AP35</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:35">
       <c r="A34" s="33">
         <f>generator_costs!A36</f>
         <v>33</v>
@@ -13647,8 +15646,16 @@
         <f>generator_costs!AN36</f>
         <v>1</v>
       </c>
+      <c r="AH34" s="33">
+        <f>generator_costs!AO36</f>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="33">
+        <f>generator_costs!AP36</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:35">
       <c r="A35" s="33">
         <f>generator_costs!A37</f>
         <v>34</v>
@@ -13781,8 +15788,16 @@
         <f>generator_costs!AN37</f>
         <v>0</v>
       </c>
+      <c r="AH35" s="33">
+        <f>generator_costs!AO37</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AI35" s="33">
+        <f>generator_costs!AP37</f>
+        <v>0.28050000000000003</v>
+      </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:35">
       <c r="A36" s="33">
         <f>generator_costs!A38</f>
         <v>35</v>
@@ -13915,8 +15930,16 @@
         <f>generator_costs!AN38</f>
         <v>0</v>
       </c>
+      <c r="AH36" s="33">
+        <f>generator_costs!AO38</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI36" s="33">
+        <f>generator_costs!AP38</f>
+        <v>1.1900000000000001E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:35">
       <c r="A37" s="33">
         <f>generator_costs!A39</f>
         <v>36</v>
@@ -14049,8 +16072,16 @@
         <f>generator_costs!AN39</f>
         <v>0</v>
       </c>
+      <c r="AH37" s="33">
+        <f>generator_costs!AO39</f>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="33">
+        <f>generator_costs!AP39</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:35">
       <c r="A38" s="33">
         <f>generator_costs!A40</f>
         <v>37</v>
@@ -14183,8 +16214,16 @@
         <f>generator_costs!AN40</f>
         <v>0</v>
       </c>
+      <c r="AH38" s="33">
+        <f>generator_costs!AO40</f>
+        <v>0</v>
+      </c>
+      <c r="AI38" s="33">
+        <f>generator_costs!AP40</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:35">
       <c r="A39" s="33">
         <f>generator_costs!A41</f>
         <v>38</v>
@@ -14317,8 +16356,16 @@
         <f>generator_costs!AN41</f>
         <v>0</v>
       </c>
+      <c r="AH39" s="33">
+        <f>generator_costs!AO41</f>
+        <v>0</v>
+      </c>
+      <c r="AI39" s="33">
+        <f>generator_costs!AP41</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:33" s="28" customFormat="1">
+    <row r="40" spans="1:35" s="28" customFormat="1">
       <c r="A40" s="33">
         <f>generator_costs!A42</f>
         <v>39</v>
@@ -14451,8 +16498,16 @@
         <f>generator_costs!AN42</f>
         <v>0</v>
       </c>
+      <c r="AH40" s="33">
+        <f>generator_costs!AO42</f>
+        <v>0</v>
+      </c>
+      <c r="AI40" s="33">
+        <f>generator_costs!AP42</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:33" s="28" customFormat="1">
+    <row r="41" spans="1:35" s="28" customFormat="1">
       <c r="A41" s="33">
         <f>generator_costs!A43</f>
         <v>40</v>
@@ -14567,7 +16622,7 @@
       </c>
       <c r="AC41" s="33">
         <f>generator_costs!AJ43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="33">
         <f>generator_costs!AK43</f>
@@ -14585,8 +16640,16 @@
         <f>generator_costs!AN43</f>
         <v>0</v>
       </c>
+      <c r="AH41" s="33">
+        <f>generator_costs!AO43</f>
+        <v>0</v>
+      </c>
+      <c r="AI41" s="33">
+        <f>generator_costs!AP43</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:33" s="28" customFormat="1">
+    <row r="42" spans="1:35" s="28" customFormat="1">
       <c r="A42" s="33">
         <f>generator_costs!A44</f>
         <v>41</v>
@@ -14719,8 +16782,16 @@
         <f>generator_costs!AN44</f>
         <v>0</v>
       </c>
+      <c r="AH42" s="33">
+        <f>generator_costs!AO44</f>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="33">
+        <f>generator_costs!AP44</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:33" s="28" customFormat="1">
+    <row r="43" spans="1:35" s="28" customFormat="1">
       <c r="A43" s="33">
         <f>generator_costs!A45</f>
         <v>42</v>
@@ -14853,8 +16924,16 @@
         <f>generator_costs!AN45</f>
         <v>0</v>
       </c>
+      <c r="AH43" s="33">
+        <f>generator_costs!AO45</f>
+        <v>0</v>
+      </c>
+      <c r="AI43" s="33">
+        <f>generator_costs!AP45</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:33" s="28" customFormat="1">
+    <row r="44" spans="1:35" s="28" customFormat="1">
       <c r="A44" s="33">
         <f>generator_costs!A46</f>
         <v>43</v>
@@ -14987,8 +17066,16 @@
         <f>generator_costs!AN46</f>
         <v>0</v>
       </c>
+      <c r="AH44" s="33">
+        <f>generator_costs!AO46</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AI44" s="33">
+        <f>generator_costs!AP46</f>
+        <v>2.75E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:33" s="28" customFormat="1">
+    <row r="45" spans="1:35" s="28" customFormat="1">
       <c r="A45" s="33">
         <f>generator_costs!A47</f>
         <v>44</v>
@@ -15121,8 +17208,16 @@
         <f>generator_costs!AN47</f>
         <v>0</v>
       </c>
+      <c r="AH45" s="33">
+        <f>generator_costs!AO47</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AI45" s="33">
+        <f>generator_costs!AP47</f>
+        <v>0.28050000000000003</v>
+      </c>
     </row>
-    <row r="46" spans="1:33" s="28" customFormat="1">
+    <row r="46" spans="1:35" s="28" customFormat="1">
       <c r="A46" s="33">
         <f>generator_costs!A48</f>
         <v>45</v>
@@ -15255,8 +17350,16 @@
         <f>generator_costs!AN48</f>
         <v>0</v>
       </c>
+      <c r="AH46" s="33">
+        <f>generator_costs!AO48</f>
+        <v>0</v>
+      </c>
+      <c r="AI46" s="33">
+        <f>generator_costs!AP48</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:33" s="28" customFormat="1">
+    <row r="47" spans="1:35" s="28" customFormat="1">
       <c r="A47" s="33">
         <f>generator_costs!A49</f>
         <v>46</v>
@@ -15389,8 +17492,16 @@
         <f>generator_costs!AN49</f>
         <v>0</v>
       </c>
+      <c r="AH47" s="33">
+        <f>generator_costs!AO49</f>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="33">
+        <f>generator_costs!AP49</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:35">
       <c r="A48" s="33">
         <f>generator_costs!A50</f>
         <v>47</v>
@@ -15523,8 +17634,16 @@
         <f>generator_costs!AN50</f>
         <v>0</v>
       </c>
+      <c r="AH48" s="33">
+        <f>generator_costs!AO50</f>
+        <v>0</v>
+      </c>
+      <c r="AI48" s="33">
+        <f>generator_costs!AP50</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:35">
       <c r="A49" s="33">
         <f>generator_costs!A51</f>
         <v>48</v>
@@ -15657,8 +17776,16 @@
         <f>generator_costs!AN51</f>
         <v>0</v>
       </c>
+      <c r="AH49" s="33">
+        <f>generator_costs!AO51</f>
+        <v>0</v>
+      </c>
+      <c r="AI49" s="33">
+        <f>generator_costs!AP51</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:35">
       <c r="A50" s="33">
         <f>generator_costs!A52</f>
         <v>60</v>
@@ -15791,8 +17918,16 @@
         <f>generator_costs!AN52</f>
         <v>0</v>
       </c>
+      <c r="AH50" s="33">
+        <f>generator_costs!AO52</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI50" s="33">
+        <f>generator_costs!AP52</f>
+        <v>1.1900000000000001E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:35">
       <c r="A51" s="33">
         <f>generator_costs!A53</f>
         <v>61</v>
@@ -15925,8 +18060,16 @@
         <f>generator_costs!AN53</f>
         <v>0</v>
       </c>
+      <c r="AH51" s="33">
+        <f>generator_costs!AO53</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI51" s="33">
+        <f>generator_costs!AP53</f>
+        <v>1.1900000000000001E-2</v>
+      </c>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:35">
       <c r="A52" s="33">
         <f>generator_costs!A54</f>
         <v>80</v>
@@ -16059,8 +18202,16 @@
         <f>generator_costs!AN54</f>
         <v>0</v>
       </c>
+      <c r="AH52" s="33">
+        <f>generator_costs!AO54</f>
+        <v>0</v>
+      </c>
+      <c r="AI52" s="33">
+        <f>generator_costs!AP54</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:35">
       <c r="A53" s="33">
         <f>generator_costs!A55</f>
         <v>81</v>
@@ -16193,8 +18344,16 @@
         <f>generator_costs!AN55</f>
         <v>0</v>
       </c>
+      <c r="AH53" s="33">
+        <f>generator_costs!AO55</f>
+        <v>0</v>
+      </c>
+      <c r="AI53" s="33">
+        <f>generator_costs!AP55</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:35">
       <c r="A54" s="33">
         <f>generator_costs!A56</f>
         <v>82</v>
@@ -16327,8 +18486,16 @@
         <f>generator_costs!AN56</f>
         <v>0</v>
       </c>
+      <c r="AH54" s="33">
+        <f>generator_costs!AO56</f>
+        <v>0</v>
+      </c>
+      <c r="AI54" s="33">
+        <f>generator_costs!AP56</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:35">
       <c r="A55" s="33">
         <f>generator_costs!A57</f>
         <v>85</v>
@@ -16461,8 +18628,16 @@
         <f>generator_costs!AN57</f>
         <v>0</v>
       </c>
+      <c r="AH55" s="33">
+        <f>generator_costs!AO57</f>
+        <v>0</v>
+      </c>
+      <c r="AI55" s="33">
+        <f>generator_costs!AP57</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:35">
       <c r="A56" s="33">
         <f>generator_costs!A58</f>
         <v>90</v>
@@ -16595,8 +18770,16 @@
         <f>generator_costs!AN58</f>
         <v>0</v>
       </c>
+      <c r="AH56" s="33">
+        <f>generator_costs!AO58</f>
+        <v>0</v>
+      </c>
+      <c r="AI56" s="33">
+        <f>generator_costs!AP58</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:35">
       <c r="A57" s="33">
         <f>generator_costs!A59</f>
         <v>91</v>
@@ -16729,41 +18912,1153 @@
         <f>generator_costs!AN59</f>
         <v>0</v>
       </c>
+      <c r="AH57" s="33">
+        <f>generator_costs!AO59</f>
+        <v>0</v>
+      </c>
+      <c r="AI57" s="33">
+        <f>generator_costs!AP59</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:33">
-      <c r="A58"/>
-      <c r="C58"/>
-      <c r="E58"/>
-      <c r="Y58"/>
-      <c r="Z58"/>
-      <c r="AD58"/>
+    <row r="58" spans="1:35">
+      <c r="A58" s="33">
+        <f>generator_costs!A61</f>
+        <v>100</v>
+      </c>
+      <c r="B58" s="33" t="str">
+        <f>generator_costs!B61</f>
+        <v>Coal_Steam_Turbine_Cogen</v>
+      </c>
+      <c r="C58" s="33">
+        <f>generator_costs!C61</f>
+        <v>2007</v>
+      </c>
+      <c r="D58" s="33">
+        <f>generator_costs!D61</f>
+        <v>2010</v>
+      </c>
+      <c r="E58" s="33" t="str">
+        <f>generator_costs!E61</f>
+        <v>Coal</v>
+      </c>
+      <c r="F58" s="33">
+        <f>generator_costs!M61</f>
+        <v>991500</v>
+      </c>
+      <c r="G58" s="33">
+        <f>generator_costs!N61</f>
+        <v>25703</v>
+      </c>
+      <c r="H58" s="33">
+        <f>generator_costs!O61</f>
+        <v>3.73</v>
+      </c>
+      <c r="I58" s="33">
+        <f>generator_costs!P61</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="33">
+        <f>generator_costs!Q61</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="33">
+        <f>generator_costs!R61</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="33">
+        <f>generator_costs!S61</f>
+        <v>4</v>
+      </c>
+      <c r="M58" s="33">
+        <f>generator_costs!T61</f>
+        <v>0.4</v>
+      </c>
+      <c r="N58" s="33">
+        <f>generator_costs!U61</f>
+        <v>0.3</v>
+      </c>
+      <c r="O58" s="33">
+        <f>generator_costs!V61</f>
+        <v>0.2</v>
+      </c>
+      <c r="P58" s="33">
+        <f>generator_costs!W61</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q58" s="33">
+        <f>generator_costs!X61</f>
+        <v>0</v>
+      </c>
+      <c r="R58" s="33">
+        <f>generator_costs!Y61</f>
+        <v>0</v>
+      </c>
+      <c r="S58" s="33">
+        <f>generator_costs!Z61</f>
+        <v>60</v>
+      </c>
+      <c r="T58" s="33">
+        <f>generator_costs!AA61</f>
+        <v>0.06</v>
+      </c>
+      <c r="U58" s="33">
+        <f>generator_costs!AB61</f>
+        <v>0.1</v>
+      </c>
+      <c r="V58" s="33">
+        <f>generator_costs!AC61</f>
+        <v>0</v>
+      </c>
+      <c r="W58" s="33">
+        <f>generator_costs!AD61</f>
+        <v>1</v>
+      </c>
+      <c r="X58" s="33">
+        <f>generator_costs!AE61</f>
+        <v>1</v>
+      </c>
+      <c r="Y58" s="33">
+        <f>generator_costs!AF61</f>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="33">
+        <f>generator_costs!AG61</f>
+        <v>1</v>
+      </c>
+      <c r="AA58" s="33">
+        <f>generator_costs!AH61</f>
+        <v>0</v>
+      </c>
+      <c r="AB58" s="33">
+        <f>generator_costs!AI61</f>
+        <v>1</v>
+      </c>
+      <c r="AC58" s="33">
+        <f>generator_costs!AJ61</f>
+        <v>1</v>
+      </c>
+      <c r="AD58" s="33">
+        <f>generator_costs!AK61</f>
+        <v>0</v>
+      </c>
+      <c r="AE58" s="33">
+        <f>generator_costs!AL61</f>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="33">
+        <f>generator_costs!AM61</f>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="33">
+        <f>generator_costs!AN61</f>
+        <v>0</v>
+      </c>
+      <c r="AH58" s="33">
+        <f>generator_costs!AO61</f>
+        <v>0</v>
+      </c>
+      <c r="AI58" s="33">
+        <f>generator_costs!AP61</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:33">
-      <c r="A59"/>
-      <c r="C59"/>
-      <c r="E59"/>
-      <c r="Y59"/>
-      <c r="Z59"/>
-      <c r="AD59"/>
+    <row r="59" spans="1:35">
+      <c r="A59" s="33">
+        <f>generator_costs!A62</f>
+        <v>101</v>
+      </c>
+      <c r="B59" s="33" t="str">
+        <f>generator_costs!B62</f>
+        <v>Gas_Combustion_Turbine_Cogen</v>
+      </c>
+      <c r="C59" s="33">
+        <f>generator_costs!C62</f>
+        <v>2007</v>
+      </c>
+      <c r="D59" s="33">
+        <f>generator_costs!D62</f>
+        <v>2010</v>
+      </c>
+      <c r="E59" s="33" t="str">
+        <f>generator_costs!E62</f>
+        <v>Gas</v>
+      </c>
+      <c r="F59" s="33">
+        <f>generator_costs!M62</f>
+        <v>489000</v>
+      </c>
+      <c r="G59" s="33">
+        <f>generator_costs!N62</f>
+        <v>11322</v>
+      </c>
+      <c r="H59" s="33">
+        <f>generator_costs!O62</f>
+        <v>3.35</v>
+      </c>
+      <c r="I59" s="33">
+        <f>generator_costs!P62</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="33">
+        <f>generator_costs!Q62</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="33">
+        <f>generator_costs!R62</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="33">
+        <f>generator_costs!S62</f>
+        <v>3</v>
+      </c>
+      <c r="M59" s="33">
+        <f>generator_costs!T62</f>
+        <v>0.8</v>
+      </c>
+      <c r="N59" s="33">
+        <f>generator_costs!U62</f>
+        <v>0.1</v>
+      </c>
+      <c r="O59" s="33">
+        <f>generator_costs!V62</f>
+        <v>0.1</v>
+      </c>
+      <c r="P59" s="33">
+        <f>generator_costs!W62</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="33">
+        <f>generator_costs!X62</f>
+        <v>0</v>
+      </c>
+      <c r="R59" s="33">
+        <f>generator_costs!Y62</f>
+        <v>0</v>
+      </c>
+      <c r="S59" s="33">
+        <f>generator_costs!Z62</f>
+        <v>30</v>
+      </c>
+      <c r="T59" s="33">
+        <f>generator_costs!AA62</f>
+        <v>0.03</v>
+      </c>
+      <c r="U59" s="33">
+        <f>generator_costs!AB62</f>
+        <v>0.05</v>
+      </c>
+      <c r="V59" s="33">
+        <f>generator_costs!AC62</f>
+        <v>0</v>
+      </c>
+      <c r="W59" s="33">
+        <f>generator_costs!AD62</f>
+        <v>1</v>
+      </c>
+      <c r="X59" s="33">
+        <f>generator_costs!AE62</f>
+        <v>1</v>
+      </c>
+      <c r="Y59" s="33">
+        <f>generator_costs!AF62</f>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="33">
+        <f>generator_costs!AG62</f>
+        <v>1</v>
+      </c>
+      <c r="AA59" s="33">
+        <f>generator_costs!AH62</f>
+        <v>0</v>
+      </c>
+      <c r="AB59" s="33">
+        <f>generator_costs!AI62</f>
+        <v>1</v>
+      </c>
+      <c r="AC59" s="33">
+        <f>generator_costs!AJ62</f>
+        <v>1</v>
+      </c>
+      <c r="AD59" s="33">
+        <f>generator_costs!AK62</f>
+        <v>0</v>
+      </c>
+      <c r="AE59" s="33">
+        <f>generator_costs!AL62</f>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="33">
+        <f>generator_costs!AM62</f>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="33">
+        <f>generator_costs!AN62</f>
+        <v>0</v>
+      </c>
+      <c r="AH59" s="33">
+        <f>generator_costs!AO62</f>
+        <v>0</v>
+      </c>
+      <c r="AI59" s="33">
+        <f>generator_costs!AP62</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:33">
-      <c r="A60"/>
-      <c r="C60"/>
-      <c r="E60"/>
-      <c r="Y60"/>
-      <c r="Z60"/>
-      <c r="AD60"/>
+    <row r="60" spans="1:35">
+      <c r="A60" s="33">
+        <f>generator_costs!A63</f>
+        <v>102</v>
+      </c>
+      <c r="B60" s="33" t="str">
+        <f>generator_costs!B63</f>
+        <v>Gas_Steam_Turbine_Cogen</v>
+      </c>
+      <c r="C60" s="33">
+        <f>generator_costs!C63</f>
+        <v>2007</v>
+      </c>
+      <c r="D60" s="33">
+        <f>generator_costs!D63</f>
+        <v>2010</v>
+      </c>
+      <c r="E60" s="33" t="str">
+        <f>generator_costs!E63</f>
+        <v>Gas</v>
+      </c>
+      <c r="F60" s="33">
+        <f>generator_costs!M63</f>
+        <v>326250</v>
+      </c>
+      <c r="G60" s="33">
+        <f>generator_costs!N63</f>
+        <v>27730</v>
+      </c>
+      <c r="H60" s="33">
+        <f>generator_costs!O63</f>
+        <v>3.47</v>
+      </c>
+      <c r="I60" s="33">
+        <f>generator_costs!P63</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="33">
+        <f>generator_costs!Q63</f>
+        <v>0</v>
+      </c>
+      <c r="K60" s="33">
+        <f>generator_costs!R63</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="33">
+        <f>generator_costs!S63</f>
+        <v>3</v>
+      </c>
+      <c r="M60" s="33">
+        <f>generator_costs!T63</f>
+        <v>0.5</v>
+      </c>
+      <c r="N60" s="33">
+        <f>generator_costs!U63</f>
+        <v>0.4</v>
+      </c>
+      <c r="O60" s="33">
+        <f>generator_costs!V63</f>
+        <v>0.1</v>
+      </c>
+      <c r="P60" s="33">
+        <f>generator_costs!W63</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="33">
+        <f>generator_costs!X63</f>
+        <v>0</v>
+      </c>
+      <c r="R60" s="33">
+        <f>generator_costs!Y63</f>
+        <v>0</v>
+      </c>
+      <c r="S60" s="33">
+        <f>generator_costs!Z63</f>
+        <v>30</v>
+      </c>
+      <c r="T60" s="33">
+        <f>generator_costs!AA63</f>
+        <v>0.1</v>
+      </c>
+      <c r="U60" s="33">
+        <f>generator_costs!AB63</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V60" s="33">
+        <f>generator_costs!AC63</f>
+        <v>0</v>
+      </c>
+      <c r="W60" s="33">
+        <f>generator_costs!AD63</f>
+        <v>1</v>
+      </c>
+      <c r="X60" s="33">
+        <f>generator_costs!AE63</f>
+        <v>1</v>
+      </c>
+      <c r="Y60" s="33">
+        <f>generator_costs!AF63</f>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="33">
+        <f>generator_costs!AG63</f>
+        <v>1</v>
+      </c>
+      <c r="AA60" s="33">
+        <f>generator_costs!AH63</f>
+        <v>0</v>
+      </c>
+      <c r="AB60" s="33">
+        <f>generator_costs!AI63</f>
+        <v>1</v>
+      </c>
+      <c r="AC60" s="33">
+        <f>generator_costs!AJ63</f>
+        <v>1</v>
+      </c>
+      <c r="AD60" s="33">
+        <f>generator_costs!AK63</f>
+        <v>0</v>
+      </c>
+      <c r="AE60" s="33">
+        <f>generator_costs!AL63</f>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="33">
+        <f>generator_costs!AM63</f>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="33">
+        <f>generator_costs!AN63</f>
+        <v>0</v>
+      </c>
+      <c r="AH60" s="33">
+        <f>generator_costs!AO63</f>
+        <v>0</v>
+      </c>
+      <c r="AI60" s="33">
+        <f>generator_costs!AP63</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:33">
-      <c r="A61"/>
-      <c r="C61"/>
-      <c r="E61"/>
-      <c r="Y61"/>
-      <c r="Z61"/>
-      <c r="AD61"/>
+    <row r="61" spans="1:35">
+      <c r="A61" s="33">
+        <f>generator_costs!A64</f>
+        <v>103</v>
+      </c>
+      <c r="B61" s="33" t="str">
+        <f>generator_costs!B64</f>
+        <v>CCGT_Cogen</v>
+      </c>
+      <c r="C61" s="33">
+        <f>generator_costs!C64</f>
+        <v>2007</v>
+      </c>
+      <c r="D61" s="33">
+        <f>generator_costs!D64</f>
+        <v>2010</v>
+      </c>
+      <c r="E61" s="33" t="str">
+        <f>generator_costs!E64</f>
+        <v>Gas</v>
+      </c>
+      <c r="F61" s="33">
+        <f>generator_costs!M64</f>
+        <v>716250</v>
+      </c>
+      <c r="G61" s="33">
+        <f>generator_costs!N64</f>
+        <v>11322</v>
+      </c>
+      <c r="H61" s="33">
+        <f>generator_costs!O64</f>
+        <v>3.35</v>
+      </c>
+      <c r="I61" s="33">
+        <f>generator_costs!P64</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="33">
+        <f>generator_costs!Q64</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="33">
+        <f>generator_costs!R64</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="33">
+        <f>generator_costs!S64</f>
+        <v>3</v>
+      </c>
+      <c r="M61" s="33">
+        <f>generator_costs!T64</f>
+        <v>0.5</v>
+      </c>
+      <c r="N61" s="33">
+        <f>generator_costs!U64</f>
+        <v>0.4</v>
+      </c>
+      <c r="O61" s="33">
+        <f>generator_costs!V64</f>
+        <v>0.1</v>
+      </c>
+      <c r="P61" s="33">
+        <f>generator_costs!W64</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="33">
+        <f>generator_costs!X64</f>
+        <v>0</v>
+      </c>
+      <c r="R61" s="33">
+        <f>generator_costs!Y64</f>
+        <v>0</v>
+      </c>
+      <c r="S61" s="33">
+        <f>generator_costs!Z64</f>
+        <v>30</v>
+      </c>
+      <c r="T61" s="33">
+        <f>generator_costs!AA64</f>
+        <v>0.04</v>
+      </c>
+      <c r="U61" s="33">
+        <f>generator_costs!AB64</f>
+        <v>0.06</v>
+      </c>
+      <c r="V61" s="33">
+        <f>generator_costs!AC64</f>
+        <v>0</v>
+      </c>
+      <c r="W61" s="33">
+        <f>generator_costs!AD64</f>
+        <v>1</v>
+      </c>
+      <c r="X61" s="33">
+        <f>generator_costs!AE64</f>
+        <v>1</v>
+      </c>
+      <c r="Y61" s="33">
+        <f>generator_costs!AF64</f>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="33">
+        <f>generator_costs!AG64</f>
+        <v>1</v>
+      </c>
+      <c r="AA61" s="33">
+        <f>generator_costs!AH64</f>
+        <v>0</v>
+      </c>
+      <c r="AB61" s="33">
+        <f>generator_costs!AI64</f>
+        <v>1</v>
+      </c>
+      <c r="AC61" s="33">
+        <f>generator_costs!AJ64</f>
+        <v>1</v>
+      </c>
+      <c r="AD61" s="33">
+        <f>generator_costs!AK64</f>
+        <v>0</v>
+      </c>
+      <c r="AE61" s="33">
+        <f>generator_costs!AL64</f>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="33">
+        <f>generator_costs!AM64</f>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="33">
+        <f>generator_costs!AN64</f>
+        <v>0</v>
+      </c>
+      <c r="AH61" s="33">
+        <f>generator_costs!AO64</f>
+        <v>0</v>
+      </c>
+      <c r="AI61" s="33">
+        <f>generator_costs!AP64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35">
+      <c r="A62" s="33">
+        <f>generator_costs!A65</f>
+        <v>104</v>
+      </c>
+      <c r="B62" s="33" t="str">
+        <f>generator_costs!B65</f>
+        <v>Gas_Internal_Combustion_Engine_Cogen</v>
+      </c>
+      <c r="C62" s="33">
+        <f>generator_costs!C65</f>
+        <v>2007</v>
+      </c>
+      <c r="D62" s="33">
+        <f>generator_costs!D65</f>
+        <v>2010</v>
+      </c>
+      <c r="E62" s="33" t="str">
+        <f>generator_costs!E65</f>
+        <v>Gas</v>
+      </c>
+      <c r="F62" s="33">
+        <f>generator_costs!M65</f>
+        <v>489000</v>
+      </c>
+      <c r="G62" s="33">
+        <f>generator_costs!N65</f>
+        <v>30000</v>
+      </c>
+      <c r="H62" s="33">
+        <f>generator_costs!O65</f>
+        <v>1</v>
+      </c>
+      <c r="I62" s="33">
+        <f>generator_costs!P65</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="33">
+        <f>generator_costs!Q65</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="33">
+        <f>generator_costs!R65</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="33">
+        <f>generator_costs!S65</f>
+        <v>3</v>
+      </c>
+      <c r="M62" s="33">
+        <f>generator_costs!T65</f>
+        <v>0.8</v>
+      </c>
+      <c r="N62" s="33">
+        <f>generator_costs!U65</f>
+        <v>0.1</v>
+      </c>
+      <c r="O62" s="33">
+        <f>generator_costs!V65</f>
+        <v>0.1</v>
+      </c>
+      <c r="P62" s="33">
+        <f>generator_costs!W65</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="33">
+        <f>generator_costs!X65</f>
+        <v>0</v>
+      </c>
+      <c r="R62" s="33">
+        <f>generator_costs!Y65</f>
+        <v>0</v>
+      </c>
+      <c r="S62" s="33">
+        <f>generator_costs!Z65</f>
+        <v>30</v>
+      </c>
+      <c r="T62" s="33">
+        <f>generator_costs!AA65</f>
+        <v>0.03</v>
+      </c>
+      <c r="U62" s="33">
+        <f>generator_costs!AB65</f>
+        <v>0.04</v>
+      </c>
+      <c r="V62" s="33">
+        <f>generator_costs!AC65</f>
+        <v>0</v>
+      </c>
+      <c r="W62" s="33">
+        <f>generator_costs!AD65</f>
+        <v>1</v>
+      </c>
+      <c r="X62" s="33">
+        <f>generator_costs!AE65</f>
+        <v>1</v>
+      </c>
+      <c r="Y62" s="33">
+        <f>generator_costs!AF65</f>
+        <v>0</v>
+      </c>
+      <c r="Z62" s="33">
+        <f>generator_costs!AG65</f>
+        <v>1</v>
+      </c>
+      <c r="AA62" s="33">
+        <f>generator_costs!AH65</f>
+        <v>0</v>
+      </c>
+      <c r="AB62" s="33">
+        <f>generator_costs!AI65</f>
+        <v>1</v>
+      </c>
+      <c r="AC62" s="33">
+        <f>generator_costs!AJ65</f>
+        <v>1</v>
+      </c>
+      <c r="AD62" s="33">
+        <f>generator_costs!AK65</f>
+        <v>0</v>
+      </c>
+      <c r="AE62" s="33">
+        <f>generator_costs!AL65</f>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="33">
+        <f>generator_costs!AM65</f>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="33">
+        <f>generator_costs!AN65</f>
+        <v>0</v>
+      </c>
+      <c r="AH62" s="33">
+        <f>generator_costs!AO65</f>
+        <v>0</v>
+      </c>
+      <c r="AI62" s="33">
+        <f>generator_costs!AP65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35">
+      <c r="A63" s="33">
+        <f>generator_costs!A66</f>
+        <v>105</v>
+      </c>
+      <c r="B63" s="33" t="str">
+        <f>generator_costs!B66</f>
+        <v>Bio_Gas_Internal_Combustion_Engine_Cogen</v>
+      </c>
+      <c r="C63" s="33">
+        <f>generator_costs!C66</f>
+        <v>2007</v>
+      </c>
+      <c r="D63" s="33">
+        <f>generator_costs!D66</f>
+        <v>2010</v>
+      </c>
+      <c r="E63" s="33" t="str">
+        <f>generator_costs!E66</f>
+        <v>Bio_Gas</v>
+      </c>
+      <c r="F63" s="33">
+        <f>generator_costs!M66</f>
+        <v>1782750</v>
+      </c>
+      <c r="G63" s="33">
+        <f>generator_costs!N66</f>
+        <v>114250</v>
+      </c>
+      <c r="H63" s="33">
+        <f>generator_costs!O66</f>
+        <v>0.01</v>
+      </c>
+      <c r="I63" s="33">
+        <f>generator_costs!P66</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="33">
+        <f>generator_costs!Q66</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="33">
+        <f>generator_costs!R66</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="33">
+        <f>generator_costs!S66</f>
+        <v>3</v>
+      </c>
+      <c r="M63" s="33">
+        <f>generator_costs!T66</f>
+        <v>0.8</v>
+      </c>
+      <c r="N63" s="33">
+        <f>generator_costs!U66</f>
+        <v>0.1</v>
+      </c>
+      <c r="O63" s="33">
+        <f>generator_costs!V66</f>
+        <v>0.1</v>
+      </c>
+      <c r="P63" s="33">
+        <f>generator_costs!W66</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="33">
+        <f>generator_costs!X66</f>
+        <v>0</v>
+      </c>
+      <c r="R63" s="33">
+        <f>generator_costs!Y66</f>
+        <v>0</v>
+      </c>
+      <c r="S63" s="33">
+        <f>generator_costs!Z66</f>
+        <v>30</v>
+      </c>
+      <c r="T63" s="33">
+        <f>generator_costs!AA66</f>
+        <v>0.03</v>
+      </c>
+      <c r="U63" s="33">
+        <f>generator_costs!AB66</f>
+        <v>0.05</v>
+      </c>
+      <c r="V63" s="33">
+        <f>generator_costs!AC66</f>
+        <v>0</v>
+      </c>
+      <c r="W63" s="33">
+        <f>generator_costs!AD66</f>
+        <v>1</v>
+      </c>
+      <c r="X63" s="33">
+        <f>generator_costs!AE66</f>
+        <v>1</v>
+      </c>
+      <c r="Y63" s="33">
+        <f>generator_costs!AF66</f>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="33">
+        <f>generator_costs!AG66</f>
+        <v>1</v>
+      </c>
+      <c r="AA63" s="33">
+        <f>generator_costs!AH66</f>
+        <v>0</v>
+      </c>
+      <c r="AB63" s="33">
+        <f>generator_costs!AI66</f>
+        <v>1</v>
+      </c>
+      <c r="AC63" s="33">
+        <f>generator_costs!AJ66</f>
+        <v>1</v>
+      </c>
+      <c r="AD63" s="33">
+        <f>generator_costs!AK66</f>
+        <v>0</v>
+      </c>
+      <c r="AE63" s="33">
+        <f>generator_costs!AL66</f>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="33">
+        <f>generator_costs!AM66</f>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="33">
+        <f>generator_costs!AN66</f>
+        <v>0</v>
+      </c>
+      <c r="AH63" s="33">
+        <f>generator_costs!AO66</f>
+        <v>0</v>
+      </c>
+      <c r="AI63" s="33">
+        <f>generator_costs!AP66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35">
+      <c r="A64" s="33">
+        <f>generator_costs!A67</f>
+        <v>106</v>
+      </c>
+      <c r="B64" s="33" t="str">
+        <f>generator_costs!B67</f>
+        <v>Bio_Liquid_Steam_Turbine_Cogen</v>
+      </c>
+      <c r="C64" s="33">
+        <f>generator_costs!C67</f>
+        <v>2007</v>
+      </c>
+      <c r="D64" s="33">
+        <f>generator_costs!D67</f>
+        <v>2010</v>
+      </c>
+      <c r="E64" s="33" t="str">
+        <f>generator_costs!E67</f>
+        <v>Bio_Liquid</v>
+      </c>
+      <c r="F64" s="33">
+        <f>generator_costs!M67</f>
+        <v>2155470.0750000002</v>
+      </c>
+      <c r="G64" s="33">
+        <f>generator_costs!N67</f>
+        <v>73155.348000000013</v>
+      </c>
+      <c r="H64" s="33">
+        <f>generator_costs!O67</f>
+        <v>10.450764000000001</v>
+      </c>
+      <c r="I64" s="33">
+        <f>generator_costs!P67</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="33">
+        <f>generator_costs!Q67</f>
+        <v>0</v>
+      </c>
+      <c r="K64" s="33">
+        <f>generator_costs!R67</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="33">
+        <f>generator_costs!S67</f>
+        <v>3</v>
+      </c>
+      <c r="M64" s="33">
+        <f>generator_costs!T67</f>
+        <v>0.5</v>
+      </c>
+      <c r="N64" s="33">
+        <f>generator_costs!U67</f>
+        <v>0.4</v>
+      </c>
+      <c r="O64" s="33">
+        <f>generator_costs!V67</f>
+        <v>0.1</v>
+      </c>
+      <c r="P64" s="33">
+        <f>generator_costs!W67</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="33">
+        <f>generator_costs!X67</f>
+        <v>0</v>
+      </c>
+      <c r="R64" s="33">
+        <f>generator_costs!Y67</f>
+        <v>0</v>
+      </c>
+      <c r="S64" s="33">
+        <f>generator_costs!Z67</f>
+        <v>45</v>
+      </c>
+      <c r="T64" s="33">
+        <f>generator_costs!AA67</f>
+        <v>0.1</v>
+      </c>
+      <c r="U64" s="33">
+        <f>generator_costs!AB67</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V64" s="33">
+        <f>generator_costs!AC67</f>
+        <v>0</v>
+      </c>
+      <c r="W64" s="33">
+        <f>generator_costs!AD67</f>
+        <v>1</v>
+      </c>
+      <c r="X64" s="33">
+        <f>generator_costs!AE67</f>
+        <v>1</v>
+      </c>
+      <c r="Y64" s="33">
+        <f>generator_costs!AF67</f>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="33">
+        <f>generator_costs!AG67</f>
+        <v>1</v>
+      </c>
+      <c r="AA64" s="33">
+        <f>generator_costs!AH67</f>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="33">
+        <f>generator_costs!AI67</f>
+        <v>1</v>
+      </c>
+      <c r="AC64" s="33">
+        <f>generator_costs!AJ67</f>
+        <v>1</v>
+      </c>
+      <c r="AD64" s="33">
+        <f>generator_costs!AK67</f>
+        <v>0</v>
+      </c>
+      <c r="AE64" s="33">
+        <f>generator_costs!AL67</f>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="33">
+        <f>generator_costs!AM67</f>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="33">
+        <f>generator_costs!AN67</f>
+        <v>0</v>
+      </c>
+      <c r="AH64" s="33">
+        <f>generator_costs!AO67</f>
+        <v>0</v>
+      </c>
+      <c r="AI64" s="33">
+        <f>generator_costs!AP67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35">
+      <c r="A65" s="33">
+        <f>generator_costs!A68</f>
+        <v>107</v>
+      </c>
+      <c r="B65" s="33" t="str">
+        <f>generator_costs!B68</f>
+        <v>Bio_Solid_Steam_Turbine_Cogen</v>
+      </c>
+      <c r="C65" s="33">
+        <f>generator_costs!C68</f>
+        <v>2007</v>
+      </c>
+      <c r="D65" s="33">
+        <f>generator_costs!D68</f>
+        <v>2010</v>
+      </c>
+      <c r="E65" s="33" t="str">
+        <f>generator_costs!E68</f>
+        <v>Bio_Solid</v>
+      </c>
+      <c r="F65" s="33">
+        <f>generator_costs!M68</f>
+        <v>2155470.0750000002</v>
+      </c>
+      <c r="G65" s="33">
+        <f>generator_costs!N68</f>
+        <v>73155.348000000013</v>
+      </c>
+      <c r="H65" s="33">
+        <f>generator_costs!O68</f>
+        <v>10.450764000000001</v>
+      </c>
+      <c r="I65" s="33">
+        <f>generator_costs!P68</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="33">
+        <f>generator_costs!Q68</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="33">
+        <f>generator_costs!R68</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="33">
+        <f>generator_costs!S68</f>
+        <v>3</v>
+      </c>
+      <c r="M65" s="33">
+        <f>generator_costs!T68</f>
+        <v>0.5</v>
+      </c>
+      <c r="N65" s="33">
+        <f>generator_costs!U68</f>
+        <v>0.4</v>
+      </c>
+      <c r="O65" s="33">
+        <f>generator_costs!V68</f>
+        <v>0.1</v>
+      </c>
+      <c r="P65" s="33">
+        <f>generator_costs!W68</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="33">
+        <f>generator_costs!X68</f>
+        <v>0</v>
+      </c>
+      <c r="R65" s="33">
+        <f>generator_costs!Y68</f>
+        <v>0</v>
+      </c>
+      <c r="S65" s="33">
+        <f>generator_costs!Z68</f>
+        <v>45</v>
+      </c>
+      <c r="T65" s="33">
+        <f>generator_costs!AA68</f>
+        <v>0.1</v>
+      </c>
+      <c r="U65" s="33">
+        <f>generator_costs!AB68</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V65" s="33">
+        <f>generator_costs!AC68</f>
+        <v>0</v>
+      </c>
+      <c r="W65" s="33">
+        <f>generator_costs!AD68</f>
+        <v>1</v>
+      </c>
+      <c r="X65" s="33">
+        <f>generator_costs!AE68</f>
+        <v>1</v>
+      </c>
+      <c r="Y65" s="33">
+        <f>generator_costs!AF68</f>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="33">
+        <f>generator_costs!AG68</f>
+        <v>1</v>
+      </c>
+      <c r="AA65" s="33">
+        <f>generator_costs!AH68</f>
+        <v>0</v>
+      </c>
+      <c r="AB65" s="33">
+        <f>generator_costs!AI68</f>
+        <v>1</v>
+      </c>
+      <c r="AC65" s="33">
+        <f>generator_costs!AJ68</f>
+        <v>1</v>
+      </c>
+      <c r="AD65" s="33">
+        <f>generator_costs!AK68</f>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="33">
+        <f>generator_costs!AL68</f>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="33">
+        <f>generator_costs!AM68</f>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="33">
+        <f>generator_costs!AN68</f>
+        <v>0</v>
+      </c>
+      <c r="AH65" s="33">
+        <f>generator_costs!AO68</f>
+        <v>0</v>
+      </c>
+      <c r="AI65" s="33">
+        <f>generator_costs!AP68</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -16785,7 +20080,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -16796,7 +20091,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="B2">
         <v>2010</v>
@@ -16814,7 +20109,7 @@
         <v>2026</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -18498,7 +21793,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -18520,15 +21815,15 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="22" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="22" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="22" customFormat="1">
@@ -18556,7 +21851,7 @@
         <v>3.3</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="E5" s="22"/>
     </row>
@@ -18709,7 +22004,7 @@
       <c r="E21" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/DatabasePrep/GeneratorInfo/generator_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_costs.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39280" yWindow="300" windowWidth="33560" windowHeight="21580" tabRatio="500"/>
+    <workbookView xWindow="-36680" yWindow="1680" windowWidth="34400" windowHeight="22000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="generator_costs" sheetId="1" r:id="rId1"/>
     <sheet name="Cost CSV For Export" sheetId="2" r:id="rId2"/>
     <sheet name="costs_by_investment_period" sheetId="6" r:id="rId3"/>
     <sheet name="CPV Cost Calcs" sheetId="5" r:id="rId4"/>
+    <sheet name="heat_and_ramp_rates" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -22,69 +23,151 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="180">
+  <si>
+    <t>Heat rate at percent of full load</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-min ramp rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-min ramp rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat_rate_penalty_spinning_reserve</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>We assume that a combustion turbine will never run at part load lower than 50 percent, so the 10-min ramp rate used to calculate the heat rate penalty is 0.5 rather than 1.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sources</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat rate curve</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Structure and Performance of Six European Wholesale Electricity Markets in 2003, 2004, and 2005. Appendix I. DG Comp. Presented to DG Comp 26th February 2007</t>
+  </si>
+  <si>
+    <t>Ramp rates</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WWSIS, p. 174</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part load relative heat rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat rate penalty</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent of full load</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steam</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combustion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_spinning_reserve_fraction_of_capacity</t>
+  </si>
   <si>
     <t>ReEDs Sheet, took OGS (Oil Gas Steam) values for all but costs:  costs from Biomass_Steam_Turbine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Bio_Liquid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ReEDs Sheet, took OGS (Oil Gas Steam) values for all but costs:  costs from Biomass_Steam_Turbine, 75% of capex for cogen</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Bio_Solid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>year_4_cost_fraction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>year_5_cost_fraction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>year_6_cost_fraction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>fixed_o_m_$2007</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>heat_rate_mbtu_per_mwh</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Commercial_PV</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>min_build_year</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Combustion_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Coal_Steam_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ReEDs Sheet, also new wind params used for fixed O+M, forced outage rate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ReEDs Sheet, cost declination rate assumed to be between ST and other techs (@1%).  EIA has minimum learning by 2025 as 10%, so this is roughly consistent</t>
   </si>
   <si>
     <t>storage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Offshore_Wind</t>
@@ -94,31 +177,31 @@
   </si>
   <si>
     <t>year_1_cost_fraction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>year_2_cost_fraction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>year_3_cost_fraction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Battery_Storage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Storage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ReEDs Sheet</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>tech_name_again</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Geothermal</t>
@@ -128,7 +211,7 @@
   </si>
   <si>
     <t>DistillateFuelOil_Combustion_Turbine_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>DistillateFuelOil</t>
@@ -153,31 +236,31 @@
   </si>
   <si>
     <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>EIA, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CCGT_Cogen_CCS_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Coal_CCS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10_min_ramp_rate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>heat_rate_penalty_spinning_reserve</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch equivalent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ReEDs Sheet, nukes run for 40 years at least, so the 30 year ReEDs lifetime was changed to 40, also the cost declination rate was set to 0.55% as nukes don't really obey the laws of mass production because they aren't mass produced</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CCGT</t>
@@ -190,103 +273,103 @@
   </si>
   <si>
     <t>CCGT_CCS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Combustion_Turbine_CCS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Bio_Gas_CCS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Biomass_IGCC_CCS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Coal_IGCC_CCS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Coal_Steam_Turbine_CCS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas_CCS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>overnight_cost_$2007</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Steam_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CapEx from SAM with Solar Field area = 600000m^2, construction cost mulitplier and yearly cost fraction from ReEDs sheet, cost declination rate and fixed OM from Black and Veach on ReEDs sheet.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CapEx from SAM with Solar Field area = 800000m^2 and 6h TES, construction cost mulitplier and yearly cost fraction from CSP on ReEDs sheet- it's unclear how much these change with storage... assumed to be the same here, cost declination rate and fixed OM from Black and Veach ReEDs sheet.  Most places put VarOM at 0, so this was done here</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CCGT_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Combustion_Turbine_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Wind</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>price_and_dollar_year</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas</t>
   </si>
   <si>
     <t>interest_between_price_year_and_cost_year</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Residential_PV</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>EIA, 75% CapEx of non-cogen, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>source - all dispatch data from TEPPC_Generator_Categories</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>technology_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>max_age_years</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Solar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Bio_Gas</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ReEDs Sheet, assumed to run for 40 years, not 60</t>
@@ -299,62 +382,62 @@
   </si>
   <si>
     <t>Wind_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>DOE Solar Program Costs, took 2020 value for fixed O+M, 10% added to capital costs to go from utility to distributed, but also assumed a 5% declination rate, , outage rates from Mathias</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>overnight_cost</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Solar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Bio_Solid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>construction_time_years</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Coal_Steam_Turbine_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Steam_Turbine_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Bio_Solid_CCS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Biomass_Steam_Turbine</t>
   </si>
   <si>
     <t>Hydro_NonPumped</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Hydro_Pumped</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Water</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Water</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ReEDs Sheet, cost declination rate assumed to be that of a gas steam turbine</t>
@@ -373,127 +456,127 @@
   </si>
   <si>
     <t>forced_outage_rate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>scheduled_outage_rate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>note: we assume that cogen plants have 3/4 of the capital cost of a pure-electric plant, (to reflect shared infrastructure for cogen), but the same operating costs.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>dispatchable</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cogen</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ReEDs Sheet, took CoalOldScr costs</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ReEDs Sheet, took OGS (Oil Gas Steam)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ReEDs Sheet, set lifetime to 60 years</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Wind</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CCGT_CCS_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Combustion_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Coal_Steam_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Steam_Turbine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Internal_Combustion_Engine_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ReEDs Sheet, storage effiency from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, EIA says minimum learning by 2025 is 20%, so this is a 1.1% declination rate, capital cost multipulier from EIA,http://graysharboroceanenergy.com/Documents/LIPA%20Offshore%20Wind%20rept.pdf for total outage rate of 3%, distributed by guess</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Cost Declination Rate (%/yr)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Resultant Capital Costs ($2007/MW) in Investment Period Years</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Concentrating_PV</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Solar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>(in 2010 $)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>year</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>$/Wp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CPV Consortium numbers (It's more or less SolFocus)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cost declination rate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ReEDs Sheet, 75 CapEx of non-cogen</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Geothermal_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Internal_Combustion_Engine_Cogen_CCS_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Internal_Combustion_Engine_Cogen_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CCGT_Cogen_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Coal</t>
@@ -509,23 +592,23 @@
   </si>
   <si>
     <t>ccs</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Coal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Uranium</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>var_o_m_$2007</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Black and Veatch for REFutures (12-02-09 update) (onReEDs sheet) for capital cost, outage rates from Mathias</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>technology</t>
@@ -553,92 +636,104 @@
   </si>
   <si>
     <t xml:space="preserve">Solar Vision Study (see PV_Cost_Calc.xlsx) for costs, ReEDs sheet for construction cost multiplier and cost fractions, Matthias for forced outage rate </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>connect_cost_generic_$2007_per_mw</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>fuel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Coal_Steam_Turbine_CCS_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas_Steam_Turbine_CCS_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CSP_Trough_No_Storage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CSP_Trough_6h_Storage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Wind</t>
   </si>
   <si>
     <t>Central_PV</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>construction_cost_multipulier</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>fixed_o_m</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>var_o_m</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Nuclear_EP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>competes_for_space</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Geothermal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Compressed_Air_Energy_Storage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Gas</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="10">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -661,12 +756,18 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -681,14 +782,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -718,8 +819,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,6 +841,1123 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>heat_and_ramp_rates!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CCGT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>heat_and_ramp_rates!$A$14:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>heat_and_ramp_rates!$E$14:$E$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000142222222222223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00057469387755102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00130639175257732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00234666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00370526315789474</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00539234042553193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0074184946236559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00979478260869564</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0125327472527473</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0156444444444444</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0191424719101124</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.02304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0273508045977011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0320893023255814</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0372705882352941</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0429104761904762</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0490255421686747</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0556331707317074</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0627516049382716</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0704</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0785984810126582</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0873682051282051</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0967314285714286</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.106711578947368</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.117333333333333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.128496216216216</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.140340821917808</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.152895555555556</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.166190422535211</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.180257142857143</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.195129275362319</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.210842352941176</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.227434029850746</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.244944242424242</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.263415384615385</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.2828925</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.303423492063492</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.32505935483871</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.347854426229508</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.371866666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.397157966101695</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.423794482758621</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.45184701754386</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.481391428571428</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.512509090909091</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.545287407407407</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.579820377358491</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.616209230769231</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.654563137254902</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>heat_and_ramp_rates!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Steam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>heat_and_ramp_rates!$A$14:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>heat_and_ramp_rates!$F$14:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000105050505050505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000424489795918366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000964948453608252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00173333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00273684210526316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00398297872340426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0054795698924731</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00723478260869565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00925714285714285</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0115555555555555</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0141393258426966</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0170181818181818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0202022988505747</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0237023255813954</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0275294117647059</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0316952380952381</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0362120481927711</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0410926829268293</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0463506172839506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.052</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0580556962025316</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0645333333333333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0714493506493507</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0788210526315789</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0955816216216216</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.105070684931507</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.115157777777778</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.125868169014085</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.137228571428571</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.149267246376812</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.162014117647059</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.175500895522388</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.189761212121212</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.204830769230769</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.2207475</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.237551746031746</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.255286451612903</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.27399737704918</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.293733333333333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.314546440677966</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.336492413793104</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.359630877192982</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.384025714285714</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.409745454545454</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.436863703703704</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.465459622641509</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.495618461538461</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.527432156862745</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>heat_and_ramp_rates!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Combustion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>heat_and_ramp_rates!$A$14:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>heat_and_ramp_rates!$G$14:$G$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000112727272727271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000455510204081626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00103546391752578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00186000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00293684210526316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00427404255319149</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00587999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00776347826086957</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00993362637362636</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0151725842696629</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0182618181818181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0216786206896552</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0254344186046512</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0295411764705882</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0340114285714286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.038858313253012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0440956097560976</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0497377777777778</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0557999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0622982278481012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0692492307692307</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0766706493506494</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.084581052631579</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.102468108108108</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.112541917808219</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.123246666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.134609014084507</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.146657142857143</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.159420869565217</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.172931764705882</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.187223283582089</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.202330909090909</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.218292307692308</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.2351475</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.252939047619048</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.271712258064516</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.291515409836065</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.3124</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.334421016949153</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.35763724137931</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.382111578947368</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.407911428571428</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.435109090909091</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.463782222222222</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.494014339622641</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.525895384615384</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.559522352941176</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="507701416"/>
+        <c:axId val="507704472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="507701416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="507704472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507704472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="507701416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1511300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1051,9 +2282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:AR101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN68" sqref="AN68:AP68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI70" sqref="AI70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1083,147 +2314,147 @@
     <col min="39" max="40" width="10.7109375" style="27"/>
     <col min="41" max="41" width="10.7109375" style="33"/>
     <col min="42" max="42" width="29.7109375" style="33" customWidth="1"/>
-    <col min="43" max="43" width="23.140625" customWidth="1"/>
+    <col min="43" max="43" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="33" customFormat="1">
       <c r="A1" s="34" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:44" s="33" customFormat="1"/>
     <row r="3" spans="1:44">
       <c r="A3" s="5" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF3" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG3" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ3" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK3" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3" t="s">
-        <v>152</v>
-      </c>
-      <c r="L3" t="s">
-        <v>153</v>
-      </c>
-      <c r="M3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P3" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>142</v>
-      </c>
-      <c r="R3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" t="s">
-        <v>79</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF3" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG3" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ3" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK3" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO3" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP3" s="33" t="s">
-        <v>40</v>
-      </c>
       <c r="AQ3" s="12" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="AR3" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -1231,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C4" s="5">
         <v>2007</v>
@@ -1240,7 +2471,7 @@
         <v>2010</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F4">
         <v>2004</v>
@@ -1351,17 +2582,17 @@
         <v>0</v>
       </c>
       <c r="AO4" s="33">
-        <v>8.3000000000000004E-2</v>
+        <v>0.25</v>
       </c>
       <c r="AP4" s="33">
-        <v>0.28050000000000003</v>
+        <v>0.1173</v>
       </c>
       <c r="AQ4" t="str">
         <f>B4</f>
         <v>CCGT</v>
       </c>
       <c r="AR4" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -1369,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
@@ -1378,7 +2609,7 @@
         <v>2010</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F5">
         <v>2004</v>
@@ -1489,17 +2720,17 @@
         <v>0</v>
       </c>
       <c r="AO5" s="33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP5" s="33">
-        <v>1.1900000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AQ5" s="33" t="str">
         <f t="shared" ref="AQ5:AQ53" si="3">B5</f>
         <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="AR5" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:44" s="22" customFormat="1">
@@ -1507,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C6" s="22">
         <v>2007</v>
@@ -1516,7 +2747,7 @@
         <v>2010</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="F6" s="22">
         <v>2010</v>
@@ -1638,7 +2869,7 @@
         <v>Concentrating_PV</v>
       </c>
       <c r="AR6" s="22" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -1646,7 +2877,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C7" s="5">
         <v>2007</v>
@@ -1655,7 +2886,7 @@
         <v>2010</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F7">
         <v>2004</v>
@@ -1776,7 +3007,7 @@
         <v>Wind</v>
       </c>
       <c r="AR7" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -1784,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C8" s="5">
         <v>2007</v>
@@ -1793,7 +3024,7 @@
         <v>2010</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F8">
         <v>2004</v>
@@ -1914,7 +3145,7 @@
         <v>Offshore_Wind</v>
       </c>
       <c r="AR8" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -1922,7 +3153,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C9" s="5">
         <v>2007</v>
@@ -1931,7 +3162,7 @@
         <v>2010</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="F9">
         <v>2009</v>
@@ -2053,7 +3284,7 @@
         <v>Residential_PV</v>
       </c>
       <c r="AR9" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:44" s="11" customFormat="1">
@@ -2061,7 +3292,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C10" s="11">
         <v>2007</v>
@@ -2070,7 +3301,7 @@
         <v>2012</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F10" s="11">
         <v>2010</v>
@@ -2191,7 +3422,7 @@
         <v>CSP_Trough_6h_Storage</v>
       </c>
       <c r="AR10" s="33" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -2199,7 +3430,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
@@ -2208,7 +3439,7 @@
         <v>2010</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F11">
         <v>2007</v>
@@ -2329,7 +3560,7 @@
         <v>Bio_Gas</v>
       </c>
       <c r="AR11" s="33" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:44">
@@ -2337,7 +3568,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C12" s="5">
         <v>2007</v>
@@ -2346,7 +3577,7 @@
         <v>2010</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F12">
         <v>2004</v>
@@ -2467,7 +3698,7 @@
         <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="AR12" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:44">
@@ -2475,7 +3706,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
@@ -2484,7 +3715,7 @@
         <v>2012</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F13">
         <v>2007</v>
@@ -2605,7 +3836,7 @@
         <v>Biomass_IGCC</v>
       </c>
       <c r="AR13" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:44">
@@ -2613,7 +3844,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C14" s="5">
         <v>2007</v>
@@ -2622,7 +3853,7 @@
         <v>2010</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F14">
         <v>2004</v>
@@ -2743,7 +3974,7 @@
         <v>Coal_IGCC</v>
       </c>
       <c r="AR14" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:44">
@@ -2751,7 +3982,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C15" s="5">
         <v>2007</v>
@@ -2760,7 +3991,7 @@
         <v>2010</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F15">
         <v>2004</v>
@@ -2881,7 +4112,7 @@
         <v>Coal_Steam_Turbine</v>
       </c>
       <c r="AR15" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:44">
@@ -2889,7 +4120,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C16" s="5">
         <v>2007</v>
@@ -2898,7 +4129,7 @@
         <v>2010</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="F16">
         <v>2004</v>
@@ -3019,7 +4250,7 @@
         <v>Nuclear</v>
       </c>
       <c r="AR16" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:44">
@@ -3027,7 +4258,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5">
         <v>2007</v>
@@ -3036,7 +4267,7 @@
         <v>2010</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="F17">
         <v>2004</v>
@@ -3157,7 +4388,7 @@
         <v>Geothermal</v>
       </c>
       <c r="AR17" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:44">
@@ -3165,7 +4396,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C18" s="5">
         <v>2007</v>
@@ -3174,7 +4405,7 @@
         <v>2010</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F18" s="5">
         <v>2007</v>
@@ -3295,7 +4526,7 @@
         <v>Hydro_NonPumped</v>
       </c>
       <c r="AR18" s="5" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:44">
@@ -3303,7 +4534,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C19" s="5">
         <v>2007</v>
@@ -3312,7 +4543,7 @@
         <v>2010</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F19" s="33">
         <v>2007</v>
@@ -3433,7 +4664,7 @@
         <v>Hydro_Pumped</v>
       </c>
       <c r="AR19" s="33" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:44" s="18" customFormat="1">
@@ -3441,7 +4672,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C20" s="18">
         <v>2007</v>
@@ -3450,7 +4681,7 @@
         <v>2000</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F20" s="18">
         <v>2007</v>
@@ -3561,17 +4792,17 @@
         <v>0</v>
       </c>
       <c r="AO20" s="33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP20" s="33">
-        <v>1.1900000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AQ20" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Combustion_Turbine_EP</v>
       </c>
       <c r="AR20" s="33" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:44" s="5" customFormat="1">
@@ -3579,7 +4810,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C21">
         <v>2007</v>
@@ -3588,7 +4819,7 @@
         <v>2000</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F21" s="33">
         <v>2007</v>
@@ -3709,7 +4940,7 @@
         <v>Coal_Steam_Turbine_EP</v>
       </c>
       <c r="AR21" s="33" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:44" s="5" customFormat="1">
@@ -3717,7 +4948,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C22" s="33">
         <v>2007</v>
@@ -3726,7 +4957,7 @@
         <v>2000</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F22" s="33">
         <v>2007</v>
@@ -3837,17 +5068,17 @@
         <v>0</v>
       </c>
       <c r="AO22" s="33">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="AP22" s="35">
-        <v>2.75E-2</v>
+        <v>0.25</v>
+      </c>
+      <c r="AP22" s="41">
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="AQ22" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Steam_Turbine_EP</v>
       </c>
       <c r="AR22" s="33" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:44" s="5" customFormat="1">
@@ -3855,7 +5086,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C23" s="33">
         <v>2007</v>
@@ -3864,7 +5095,7 @@
         <v>2000</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F23" s="33">
         <v>2007</v>
@@ -3975,17 +5206,17 @@
         <v>0</v>
       </c>
       <c r="AO23" s="33">
-        <v>8.3000000000000004E-2</v>
+        <v>0.25</v>
       </c>
       <c r="AP23" s="33">
-        <v>0.28050000000000003</v>
+        <v>0.1173</v>
       </c>
       <c r="AQ23" s="33" t="str">
         <f t="shared" si="3"/>
         <v>CCGT_EP</v>
       </c>
       <c r="AR23" s="33" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:44" s="5" customFormat="1">
@@ -3993,7 +5224,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C24" s="33">
         <v>2007</v>
@@ -4002,7 +5233,7 @@
         <v>2000</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F24" s="33">
         <v>2007</v>
@@ -4123,7 +5354,7 @@
         <v>Geothermal_EP</v>
       </c>
       <c r="AR24" s="33" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:44" s="5" customFormat="1">
@@ -4131,7 +5362,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="C25" s="33">
         <v>2007</v>
@@ -4140,7 +5371,7 @@
         <v>2000</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="F25" s="33">
         <v>2007</v>
@@ -4261,7 +5492,7 @@
         <v>Nuclear_EP</v>
       </c>
       <c r="AR25" s="33" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:44" s="18" customFormat="1">
@@ -4269,7 +5500,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C26" s="33">
         <v>2007</v>
@@ -4278,7 +5509,7 @@
         <v>2000</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F26" s="33">
         <v>2007</v>
@@ -4399,7 +5630,7 @@
         <v>Wind_EP</v>
       </c>
       <c r="AR26" s="33" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:44" s="33" customFormat="1">
@@ -4407,7 +5638,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C27" s="33">
         <v>2007</v>
@@ -4416,7 +5647,7 @@
         <v>2000</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="F27" s="33">
         <v>2007</v>
@@ -4527,17 +5758,17 @@
         <v>0</v>
       </c>
       <c r="AO27" s="33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP27" s="33">
-        <v>1.1900000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AQ27" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Internal_Combustion_Engine_EP</v>
       </c>
       <c r="AR27" s="33" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:44" s="8" customFormat="1">
@@ -4545,7 +5776,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C28" s="8">
         <v>2007</v>
@@ -4554,7 +5785,7 @@
         <v>2010</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F28" s="8">
         <v>2009</v>
@@ -4675,7 +5906,7 @@
         <v>Commercial_PV</v>
       </c>
       <c r="AR28" s="9" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:44" s="8" customFormat="1">
@@ -4683,7 +5914,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C29" s="8">
         <v>2007</v>
@@ -4692,7 +5923,7 @@
         <v>2010</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F29" s="8">
         <v>2009</v>
@@ -4813,7 +6044,7 @@
         <v>Central_PV</v>
       </c>
       <c r="AR29" s="9" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:44" s="5" customFormat="1">
@@ -4821,7 +6052,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C30" s="5">
         <v>2007</v>
@@ -4830,7 +6061,7 @@
         <v>2010</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F30" s="5">
         <v>2010</v>
@@ -4951,7 +6182,7 @@
         <v>CSP_Trough_No_Storage</v>
       </c>
       <c r="AR30" s="33" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:44" s="9" customFormat="1" ht="15" customHeight="1">
@@ -4959,7 +6190,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C31" s="9">
         <v>2007</v>
@@ -4968,7 +6199,7 @@
         <v>2010</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="F31" s="9">
         <v>2010</v>
@@ -5079,17 +6310,17 @@
         <v>1.2</v>
       </c>
       <c r="AO31" s="33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP31" s="33">
-        <v>1.1900000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AQ31" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Compressed_Air_Energy_Storage</v>
       </c>
       <c r="AR31" s="32" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:44" s="19" customFormat="1">
@@ -5097,7 +6328,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C32" s="33">
         <v>2007</v>
@@ -5106,7 +6337,7 @@
         <v>2000</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F32" s="19">
         <v>2007</v>
@@ -5232,7 +6463,7 @@
         <v>Gas_Combustion_Turbine_Cogen_EP</v>
       </c>
       <c r="AR32" s="33" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:44" s="19" customFormat="1">
@@ -5240,7 +6471,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C33" s="33">
         <v>2007</v>
@@ -5249,7 +6480,7 @@
         <v>2000</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F33" s="33">
         <v>2007</v>
@@ -5375,7 +6606,7 @@
         <v>Coal_Steam_Turbine_Cogen_EP</v>
       </c>
       <c r="AR33" s="33" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:44" s="19" customFormat="1">
@@ -5383,7 +6614,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C34" s="33">
         <v>2007</v>
@@ -5392,7 +6623,7 @@
         <v>2000</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F34" s="33">
         <v>2007</v>
@@ -5518,7 +6749,7 @@
         <v>Gas_Steam_Turbine_Cogen_EP</v>
       </c>
       <c r="AR34" s="33" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:44" s="19" customFormat="1">
@@ -5526,7 +6757,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C35" s="33">
         <v>2007</v>
@@ -5535,7 +6766,7 @@
         <v>2000</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F35" s="33">
         <v>2007</v>
@@ -5661,7 +6892,7 @@
         <v>CCGT_Cogen_EP</v>
       </c>
       <c r="AR35" s="33" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:44" s="23" customFormat="1">
@@ -5669,7 +6900,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C36" s="23">
         <v>2007</v>
@@ -5678,7 +6909,7 @@
         <v>2010</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F36" s="23">
         <v>2004</v>
@@ -5799,7 +7030,7 @@
         <v>Battery_Storage</v>
       </c>
       <c r="AR36" s="23" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:44" s="26" customFormat="1">
@@ -5807,7 +7038,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C37" s="26">
         <v>2007</v>
@@ -5816,7 +7047,7 @@
         <v>2014</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F37" s="26">
         <v>2004</v>
@@ -5932,17 +7163,17 @@
         <v>0</v>
       </c>
       <c r="AO37" s="33">
-        <v>8.3000000000000004E-2</v>
+        <v>0.25</v>
       </c>
       <c r="AP37" s="33">
-        <v>0.28050000000000003</v>
+        <v>0.1173</v>
       </c>
       <c r="AQ37" s="33" t="str">
         <f t="shared" si="3"/>
         <v>CCGT_CCS</v>
       </c>
       <c r="AR37" s="33" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:44" s="26" customFormat="1">
@@ -5950,7 +7181,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C38" s="26">
         <v>2007</v>
@@ -5959,7 +7190,7 @@
         <v>2014</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F38" s="26">
         <v>2004</v>
@@ -6076,17 +7307,17 @@
         <v>0</v>
       </c>
       <c r="AO38" s="33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AP38" s="33">
-        <v>1.1900000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AQ38" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Combustion_Turbine_CCS</v>
       </c>
       <c r="AR38" s="33" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:44" s="26" customFormat="1">
@@ -6094,7 +7325,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C39" s="26">
         <v>2007</v>
@@ -6103,7 +7334,7 @@
         <v>2014</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F39" s="26">
         <v>2004</v>
@@ -6230,7 +7461,7 @@
         <v>Bio_Gas_CCS</v>
       </c>
       <c r="AR39" s="33" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:44" s="26" customFormat="1">
@@ -6238,7 +7469,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C40" s="26">
         <v>2007</v>
@@ -6247,7 +7478,7 @@
         <v>2014</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F40" s="26">
         <v>2004</v>
@@ -6374,7 +7605,7 @@
         <v>Biomass_IGCC_CCS</v>
       </c>
       <c r="AR40" s="33" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:44" s="26" customFormat="1">
@@ -6382,7 +7613,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C41" s="26">
         <v>2007</v>
@@ -6391,7 +7622,7 @@
         <v>2014</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F41" s="26">
         <v>2004</v>
@@ -6516,7 +7747,7 @@
         <v>Coal_IGCC_CCS</v>
       </c>
       <c r="AR41" s="33" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:44" s="26" customFormat="1">
@@ -6524,7 +7755,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C42" s="26">
         <v>2007</v>
@@ -6533,7 +7764,7 @@
         <v>2014</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F42" s="26">
         <v>2004</v>
@@ -6660,7 +7891,7 @@
         <v>Coal_Steam_Turbine_CCS</v>
       </c>
       <c r="AR42" s="33" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:44" s="33" customFormat="1">
@@ -6668,7 +7899,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C43" s="33">
         <v>2007</v>
@@ -6677,7 +7908,7 @@
         <v>2000</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F43" s="33">
         <v>2007</v>
@@ -6802,7 +8033,7 @@
         <v>Gas_Internal_Combustion_Engine_Cogen_EP</v>
       </c>
       <c r="AR43" s="33" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:44" s="28" customFormat="1">
@@ -6810,7 +8041,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C44" s="28">
         <v>2007</v>
@@ -6819,7 +8050,7 @@
         <v>2014</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F44" s="28">
         <v>2004</v>
@@ -6946,7 +8177,7 @@
         <v>Gas_Internal_Combustion_Engine_Cogen_CCS_EP</v>
       </c>
       <c r="AR44" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:44" s="28" customFormat="1">
@@ -6954,7 +8185,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C45" s="28">
         <v>2007</v>
@@ -6963,7 +8194,7 @@
         <v>2014</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F45" s="28">
         <v>2004</v>
@@ -7087,7 +8318,7 @@
         <v>Coal_Steam_Turbine_CCS_EP</v>
       </c>
       <c r="AR45" s="33" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:44" s="28" customFormat="1">
@@ -7095,7 +8326,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C46" s="28">
         <v>2007</v>
@@ -7104,7 +8335,7 @@
         <v>2014</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F46" s="28">
         <v>2004</v>
@@ -7219,17 +8450,17 @@
         <v>0</v>
       </c>
       <c r="AO46" s="33">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="AP46" s="35">
-        <v>2.75E-2</v>
+        <v>0.25</v>
+      </c>
+      <c r="AP46" s="48">
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="AQ46" s="33" t="str">
         <f t="shared" si="3"/>
         <v>Gas_Steam_Turbine_CCS_EP</v>
       </c>
       <c r="AR46" s="33" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:44" s="28" customFormat="1">
@@ -7237,7 +8468,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C47" s="28">
         <v>2007</v>
@@ -7246,7 +8477,7 @@
         <v>2014</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F47" s="28">
         <v>2004</v>
@@ -7360,17 +8591,17 @@
         <v>0</v>
       </c>
       <c r="AO47" s="33">
-        <v>8.3000000000000004E-2</v>
+        <v>0.25</v>
       </c>
       <c r="AP47" s="33">
-        <v>0.28050000000000003</v>
+        <v>0.1173</v>
       </c>
       <c r="AQ47" s="33" t="str">
         <f t="shared" si="3"/>
         <v>CCGT_CCS_EP</v>
       </c>
       <c r="AR47" s="33" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:44" s="28" customFormat="1">
@@ -7378,7 +8609,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C48" s="28">
         <v>2007</v>
@@ -7387,7 +8618,7 @@
         <v>2014</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F48" s="28">
         <v>2004</v>
@@ -7514,7 +8745,7 @@
         <v>Gas_Combustion_Turbine_Cogen_CCS_EP</v>
       </c>
       <c r="AR48" s="33" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:44" s="28" customFormat="1">
@@ -7522,7 +8753,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C49" s="28">
         <v>2007</v>
@@ -7531,7 +8762,7 @@
         <v>2014</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F49" s="28">
         <v>2004</v>
@@ -7658,7 +8889,7 @@
         <v>Coal_Steam_Turbine_Cogen_CCS_EP</v>
       </c>
       <c r="AR49" s="33" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:44" s="28" customFormat="1">
@@ -7666,7 +8897,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C50" s="28">
         <v>2007</v>
@@ -7675,7 +8906,7 @@
         <v>2014</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F50" s="28">
         <v>2004</v>
@@ -7802,7 +9033,7 @@
         <v>Gas_Steam_Turbine_Cogen_CCS_EP</v>
       </c>
       <c r="AR50" s="33" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:44" s="28" customFormat="1">
@@ -7810,7 +9041,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C51" s="28">
         <v>2007</v>
@@ -7819,7 +9050,7 @@
         <v>2014</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F51" s="28">
         <v>2004</v>
@@ -7946,7 +9177,7 @@
         <v>CCGT_Cogen_CCS_EP</v>
       </c>
       <c r="AR51" s="33" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:44">
@@ -7954,7 +9185,7 @@
         <v>60</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C52" s="25">
         <f t="shared" ref="C52:D52" si="12">C20</f>
@@ -7965,7 +9196,7 @@
         <v>2000</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F52" s="25">
         <f t="shared" ref="F52:H52" si="13">F20</f>
@@ -8107,10 +9338,10 @@
         <v>0</v>
       </c>
       <c r="AO52" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="AP52" s="33">
-        <v>1.1900000000000001E-2</v>
+        <v>0.3</v>
+      </c>
+      <c r="AP52">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AQ52" s="33" t="str">
         <f>B52</f>
@@ -8126,7 +9357,7 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C53" s="33">
         <f t="shared" ref="C53:D53" si="15">C27</f>
@@ -8137,7 +9368,7 @@
         <v>2000</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F53" s="33">
         <f t="shared" ref="F53:H53" si="16">F27</f>
@@ -8279,10 +9510,10 @@
         <v>0</v>
       </c>
       <c r="AO53" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="AP53" s="33">
-        <v>1.1900000000000001E-2</v>
+        <v>0.3</v>
+      </c>
+      <c r="AP53">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AQ53" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8298,7 +9529,7 @@
         <v>80</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C54" s="25">
         <f>C11</f>
@@ -8456,7 +9687,7 @@
         <v>Bio_Gas_Internal_Combustion_Engine_EP</v>
       </c>
       <c r="AR54" s="25" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:44" s="33" customFormat="1">
@@ -8464,7 +9695,7 @@
         <v>81</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C55" s="33">
         <f>C54</f>
@@ -8626,7 +9857,7 @@
         <v>Bio_Gas_Internal_Combustion_Engine_Cogen_EP</v>
       </c>
       <c r="AR55" s="33" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:44" s="33" customFormat="1">
@@ -8634,7 +9865,7 @@
         <v>82</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C56" s="33">
         <f>C22</f>
@@ -8796,7 +10027,7 @@
         <v>Bio_Gas_Steam_Turbine_EP</v>
       </c>
       <c r="AR56" s="33" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:44">
@@ -8804,7 +10035,7 @@
         <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C57" s="5">
         <f>C56</f>
@@ -8815,7 +10046,7 @@
         <v>2000</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F57" s="33">
         <f t="shared" ref="F57:AN57" si="23">F56</f>
@@ -8966,7 +10197,7 @@
         <v>Bio_Liquid_Steam_Turbine_Cogen_EP</v>
       </c>
       <c r="AR57" s="33" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:44">
@@ -8974,7 +10205,7 @@
         <v>90</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C58" s="33">
         <f>C56</f>
@@ -8985,7 +10216,7 @@
         <v>2000</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F58" s="33">
         <f t="shared" si="24"/>
@@ -9146,7 +10377,7 @@
         <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C59" s="33">
         <f>C57</f>
@@ -9157,7 +10388,7 @@
         <v>2000</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F59" s="33">
         <f t="shared" si="25"/>
@@ -9476,11 +10707,9 @@
         <v>0</v>
       </c>
       <c r="AO61" s="33">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AP61" s="33">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AQ61" s="33" t="str">
@@ -9651,11 +10880,9 @@
         <v>0</v>
       </c>
       <c r="AO62" s="33">
-        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AP62" s="33">
-        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AQ62" s="33" t="str">
@@ -9826,11 +11053,9 @@
         <v>0</v>
       </c>
       <c r="AO63" s="33">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AP63" s="33">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AQ63" s="33" t="str">
@@ -10001,11 +11226,9 @@
         <v>0</v>
       </c>
       <c r="AO64" s="33">
-        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AP64" s="33">
-        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AQ64" s="33" t="str">
@@ -10176,11 +11399,9 @@
         <v>0</v>
       </c>
       <c r="AO65" s="33">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AP65" s="33">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AQ65" s="33" t="str">
@@ -10351,11 +11572,9 @@
         <v>0</v>
       </c>
       <c r="AO66" s="33">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AP66" s="33">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AQ66" s="33" t="str">
@@ -10526,11 +11745,9 @@
         <v>0</v>
       </c>
       <c r="AO67" s="33">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AP67" s="33">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AQ67" s="33" t="str">
@@ -10701,11 +11918,9 @@
         <v>0</v>
       </c>
       <c r="AO68" s="33">
-        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AP68" s="33">
-        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AQ68" s="33" t="str">
@@ -10796,8 +12011,9 @@
       <c r="A101" s="33"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10811,7 +12027,7 @@
   <dimension ref="A1:AI65"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -10962,7 +12178,7 @@
       </c>
       <c r="AH1" s="33" t="str">
         <f>generator_costs!AO3</f>
-        <v>10_min_ramp_rate</v>
+        <v>max_spinning_reserve_fraction_of_capacity</v>
       </c>
       <c r="AI1" s="33" t="str">
         <f>generator_costs!AP3</f>
@@ -11104,11 +12320,11 @@
       </c>
       <c r="AH2" s="33">
         <f>generator_costs!AO4</f>
-        <v>8.3000000000000004E-2</v>
+        <v>0.25</v>
       </c>
       <c r="AI2" s="33">
         <f>generator_costs!AP4</f>
-        <v>0.28050000000000003</v>
+        <v>0.1173</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="5" customFormat="1">
@@ -11246,11 +12462,11 @@
       </c>
       <c r="AH3" s="33">
         <f>generator_costs!AO5</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI3" s="33">
         <f>generator_costs!AP5</f>
-        <v>1.1900000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="22" customFormat="1">
@@ -13376,11 +14592,11 @@
       </c>
       <c r="AH18" s="33">
         <f>generator_costs!AO20</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI18" s="33">
         <f>generator_costs!AP20</f>
-        <v>1.1900000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -13660,11 +14876,11 @@
       </c>
       <c r="AH20" s="33">
         <f>generator_costs!AO22</f>
-        <v>8.3000000000000004E-2</v>
+        <v>0.25</v>
       </c>
       <c r="AI20" s="33">
         <f>generator_costs!AP22</f>
-        <v>2.75E-2</v>
+        <v>8.6699999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -13802,11 +15018,11 @@
       </c>
       <c r="AH21" s="33">
         <f>generator_costs!AO23</f>
-        <v>8.3000000000000004E-2</v>
+        <v>0.25</v>
       </c>
       <c r="AI21" s="33">
         <f>generator_costs!AP23</f>
-        <v>0.28050000000000003</v>
+        <v>0.1173</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -14370,11 +15586,11 @@
       </c>
       <c r="AH25" s="33">
         <f>generator_costs!AO27</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI25" s="33">
         <f>generator_costs!AP27</f>
-        <v>1.1900000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -14938,11 +16154,11 @@
       </c>
       <c r="AH29" s="33">
         <f>generator_costs!AO31</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI29" s="33">
         <f>generator_costs!AP31</f>
-        <v>1.1900000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -15790,11 +17006,11 @@
       </c>
       <c r="AH35" s="33">
         <f>generator_costs!AO37</f>
-        <v>8.3000000000000004E-2</v>
+        <v>0.25</v>
       </c>
       <c r="AI35" s="33">
         <f>generator_costs!AP37</f>
-        <v>0.28050000000000003</v>
+        <v>0.1173</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -15932,11 +17148,11 @@
       </c>
       <c r="AH36" s="33">
         <f>generator_costs!AO38</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI36" s="33">
         <f>generator_costs!AP38</f>
-        <v>1.1900000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -17068,11 +18284,11 @@
       </c>
       <c r="AH44" s="33">
         <f>generator_costs!AO46</f>
-        <v>8.3000000000000004E-2</v>
+        <v>0.25</v>
       </c>
       <c r="AI44" s="33">
         <f>generator_costs!AP46</f>
-        <v>2.75E-2</v>
+        <v>8.6699999999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:35" s="28" customFormat="1">
@@ -17210,11 +18426,11 @@
       </c>
       <c r="AH45" s="33">
         <f>generator_costs!AO47</f>
-        <v>8.3000000000000004E-2</v>
+        <v>0.25</v>
       </c>
       <c r="AI45" s="33">
         <f>generator_costs!AP47</f>
-        <v>0.28050000000000003</v>
+        <v>0.1173</v>
       </c>
     </row>
     <row r="46" spans="1:35" s="28" customFormat="1">
@@ -17920,11 +19136,11 @@
       </c>
       <c r="AH50" s="33">
         <f>generator_costs!AO52</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI50" s="33">
         <f>generator_costs!AP52</f>
-        <v>1.1900000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -18062,11 +19278,11 @@
       </c>
       <c r="AH51" s="33">
         <f>generator_costs!AO53</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AI51" s="33">
         <f>generator_costs!AP53</f>
-        <v>1.1900000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="52" spans="1:35">
@@ -20058,7 +21274,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -20080,7 +21296,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -20091,7 +21307,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B2">
         <v>2010</v>
@@ -20109,7 +21325,7 @@
         <v>2026</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -21793,7 +23009,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -21815,15 +23031,15 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="22" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="22" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="22" customFormat="1">
@@ -21851,7 +23067,7 @@
         <v>3.3</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E5" s="22"/>
     </row>
@@ -22004,7 +23220,7 @@
       <c r="E21" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -22013,4 +23229,1680 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:I64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="37" customWidth="1"/>
+    <col min="2" max="16" width="10.7109375" style="37"/>
+    <col min="17" max="17" width="33.85546875" style="37" customWidth="1"/>
+    <col min="18" max="16384" width="10.7109375" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="E2" s="38">
+        <v>1</v>
+      </c>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="37">
+        <v>1.788</v>
+      </c>
+      <c r="C3" s="37">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="D3" s="37">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="E3" s="37">
+        <v>1</v>
+      </c>
+      <c r="F3" s="39">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G3" s="40">
+        <f t="shared" ref="G3:G4" si="0">IF(10*F3&gt;1, 1, 10*F3)</f>
+        <v>0.38</v>
+      </c>
+      <c r="H3" s="41">
+        <f>E39</f>
+        <v>0.11733333333333336</v>
+      </c>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="37">
+        <v>1.276</v>
+      </c>
+      <c r="C4" s="37">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="D4" s="37">
+        <v>1.01</v>
+      </c>
+      <c r="E4" s="37">
+        <v>1</v>
+      </c>
+      <c r="F4" s="39">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G4" s="40">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="H4" s="41">
+        <f>F39</f>
+        <v>8.666666666666667E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="37">
+        <v>1.504</v>
+      </c>
+      <c r="C5" s="37">
+        <v>1.095</v>
+      </c>
+      <c r="D5" s="37">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G5" s="40">
+        <f>IF(10*F5&gt;1, 1, 10*F5)</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="41">
+        <f>G39</f>
+        <v>9.2999999999999972E-2</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="43">
+        <v>1</v>
+      </c>
+      <c r="B14" s="37">
+        <v>1</v>
+      </c>
+      <c r="C14" s="37">
+        <v>1</v>
+      </c>
+      <c r="D14" s="37">
+        <v>1</v>
+      </c>
+      <c r="E14" s="44">
+        <f>(B14-$A14)*(1-$A14)/$A14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="44">
+        <f>(C14-$A14)*(1-$A14)/$A14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="44">
+        <f>(D14-$A14)*(1-$A14)/$A14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="43">
+        <v>0.99</v>
+      </c>
+      <c r="B15" s="44">
+        <f>B$14+(B$39-B$14)/((A$14-A$39)*100)*((A$14-A15)*100)</f>
+        <v>1.0040800000000001</v>
+      </c>
+      <c r="C15" s="44">
+        <f t="shared" ref="C15:D15" si="1">C$14+(C$39-C$14)/((B$14-B$39)*100)*((B$14-B15)*100)</f>
+        <v>1.0004</v>
+      </c>
+      <c r="D15" s="44">
+        <f t="shared" si="1"/>
+        <v>1.0011599999999998</v>
+      </c>
+      <c r="E15" s="44">
+        <f t="shared" ref="E15:G64" si="2">(B15-$A15)*(1-$A15)/$A15</f>
+        <v>1.4222222222222327E-4</v>
+      </c>
+      <c r="F15" s="44">
+        <f t="shared" si="2"/>
+        <v>1.0505050505050479E-4</v>
+      </c>
+      <c r="G15" s="44">
+        <f t="shared" si="2"/>
+        <v>1.1272727272727118E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="43">
+        <v>0.98</v>
+      </c>
+      <c r="B16" s="44">
+        <f t="shared" ref="B16:D38" si="3">B$14+(B$39-B$14)/((A$14-A$39)*100)*((A$14-A16)*100)</f>
+        <v>1.0081599999999999</v>
+      </c>
+      <c r="C16" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0007999999999999</v>
+      </c>
+      <c r="D16" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0023199999999997</v>
+      </c>
+      <c r="E16" s="44">
+        <f t="shared" si="2"/>
+        <v>5.7469387755102017E-4</v>
+      </c>
+      <c r="F16" s="44">
+        <f t="shared" si="2"/>
+        <v>4.2448979591836627E-4</v>
+      </c>
+      <c r="G16" s="44">
+        <f t="shared" si="2"/>
+        <v>4.5551020408162644E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="43">
+        <v>0.97</v>
+      </c>
+      <c r="B17" s="44">
+        <f t="shared" si="3"/>
+        <v>1.01224</v>
+      </c>
+      <c r="C17" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0012000000000001</v>
+      </c>
+      <c r="D17" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0034800000000001</v>
+      </c>
+      <c r="E17" s="44">
+        <f t="shared" si="2"/>
+        <v>1.3063917525773226E-3</v>
+      </c>
+      <c r="F17" s="44">
+        <f t="shared" si="2"/>
+        <v>9.6494845360825185E-4</v>
+      </c>
+      <c r="G17" s="44">
+        <f t="shared" si="2"/>
+        <v>1.0354639175257797E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="43">
+        <v>0.96</v>
+      </c>
+      <c r="B18" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0163200000000001</v>
+      </c>
+      <c r="C18" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0016</v>
+      </c>
+      <c r="D18" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0046400000000002</v>
+      </c>
+      <c r="E18" s="44">
+        <f t="shared" si="2"/>
+        <v>2.3466666666666748E-3</v>
+      </c>
+      <c r="F18" s="44">
+        <f t="shared" si="2"/>
+        <v>1.7333333333333382E-3</v>
+      </c>
+      <c r="G18" s="44">
+        <f t="shared" si="2"/>
+        <v>1.8600000000000116E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="43">
+        <v>0.95</v>
+      </c>
+      <c r="B19" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0204</v>
+      </c>
+      <c r="C19" s="44">
+        <f t="shared" si="3"/>
+        <v>1.002</v>
+      </c>
+      <c r="D19" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0058</v>
+      </c>
+      <c r="E19" s="44">
+        <f t="shared" si="2"/>
+        <v>3.7052631578947414E-3</v>
+      </c>
+      <c r="F19" s="44">
+        <f t="shared" si="2"/>
+        <v>2.736842105263163E-3</v>
+      </c>
+      <c r="G19" s="44">
+        <f t="shared" si="2"/>
+        <v>2.9368421052631643E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="43">
+        <v>0.94</v>
+      </c>
+      <c r="B20" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0244800000000001</v>
+      </c>
+      <c r="C20" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0024</v>
+      </c>
+      <c r="D20" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0069599999999999</v>
+      </c>
+      <c r="E20" s="44">
+        <f t="shared" si="2"/>
+        <v>5.3923404255319272E-3</v>
+      </c>
+      <c r="F20" s="44">
+        <f t="shared" si="2"/>
+        <v>3.98297872340426E-3</v>
+      </c>
+      <c r="G20" s="44">
+        <f t="shared" si="2"/>
+        <v>4.274042553191487E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="43">
+        <v>0.93</v>
+      </c>
+      <c r="B21" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0285599999999999</v>
+      </c>
+      <c r="C21" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0027999999999999</v>
+      </c>
+      <c r="D21" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0081199999999997</v>
+      </c>
+      <c r="E21" s="44">
+        <f t="shared" si="2"/>
+        <v>7.4184946236558989E-3</v>
+      </c>
+      <c r="F21" s="44">
+        <f t="shared" si="2"/>
+        <v>5.4795698924731042E-3</v>
+      </c>
+      <c r="G21" s="44">
+        <f t="shared" si="2"/>
+        <v>5.8799999999999677E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="43">
+        <v>0.92</v>
+      </c>
+      <c r="B22" s="44">
+        <f t="shared" si="3"/>
+        <v>1.03264</v>
+      </c>
+      <c r="C22" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0032000000000001</v>
+      </c>
+      <c r="D22" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0092800000000002</v>
+      </c>
+      <c r="E22" s="44">
+        <f t="shared" si="2"/>
+        <v>9.7947826086956426E-3</v>
+      </c>
+      <c r="F22" s="44">
+        <f t="shared" si="2"/>
+        <v>7.2347826086956524E-3</v>
+      </c>
+      <c r="G22" s="44">
+        <f t="shared" si="2"/>
+        <v>7.7634782608695723E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="43">
+        <v>0.91</v>
+      </c>
+      <c r="B23" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0367200000000001</v>
+      </c>
+      <c r="C23" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0036</v>
+      </c>
+      <c r="D23" s="44">
+        <f t="shared" si="3"/>
+        <v>1.01044</v>
+      </c>
+      <c r="E23" s="44">
+        <f t="shared" si="2"/>
+        <v>1.2532747252747254E-2</v>
+      </c>
+      <c r="F23" s="44">
+        <f t="shared" si="2"/>
+        <v>9.2571428571428561E-3</v>
+      </c>
+      <c r="G23" s="44">
+        <f t="shared" si="2"/>
+        <v>9.9336263736263669E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="B24" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0407999999999999</v>
+      </c>
+      <c r="C24" s="44">
+        <f t="shared" si="3"/>
+        <v>1.004</v>
+      </c>
+      <c r="D24" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0116000000000001</v>
+      </c>
+      <c r="E24" s="44">
+        <f t="shared" si="2"/>
+        <v>1.5644444444444433E-2</v>
+      </c>
+      <c r="F24" s="44">
+        <f t="shared" si="2"/>
+        <v>1.1555555555555552E-2</v>
+      </c>
+      <c r="G24" s="44">
+        <f t="shared" si="2"/>
+        <v>1.2400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="43">
+        <v>0.89</v>
+      </c>
+      <c r="B25" s="44">
+        <f t="shared" si="3"/>
+        <v>1.04488</v>
+      </c>
+      <c r="C25" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0044</v>
+      </c>
+      <c r="D25" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0127599999999999</v>
+      </c>
+      <c r="E25" s="44">
+        <f t="shared" si="2"/>
+        <v>1.9142471910112362E-2</v>
+      </c>
+      <c r="F25" s="44">
+        <f t="shared" si="2"/>
+        <v>1.413932584269662E-2</v>
+      </c>
+      <c r="G25" s="44">
+        <f t="shared" si="2"/>
+        <v>1.5172584269662902E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="43">
+        <v>0.88</v>
+      </c>
+      <c r="B26" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0489600000000001</v>
+      </c>
+      <c r="C26" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0047999999999999</v>
+      </c>
+      <c r="D26" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0139199999999997</v>
+      </c>
+      <c r="E26" s="44">
+        <f t="shared" si="2"/>
+        <v>2.3040000000000015E-2</v>
+      </c>
+      <c r="F26" s="44">
+        <f t="shared" si="2"/>
+        <v>1.7018181818181807E-2</v>
+      </c>
+      <c r="G26" s="44">
+        <f t="shared" si="2"/>
+        <v>1.826181818181814E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="43">
+        <v>0.87</v>
+      </c>
+      <c r="B27" s="44">
+        <f t="shared" si="3"/>
+        <v>1.05304</v>
+      </c>
+      <c r="C27" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0052000000000001</v>
+      </c>
+      <c r="D27" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0150800000000002</v>
+      </c>
+      <c r="E27" s="44">
+        <f t="shared" si="2"/>
+        <v>2.7350804597701148E-2</v>
+      </c>
+      <c r="F27" s="44">
+        <f t="shared" si="2"/>
+        <v>2.0202298850574726E-2</v>
+      </c>
+      <c r="G27" s="44">
+        <f t="shared" si="2"/>
+        <v>2.1678620689655204E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="43">
+        <v>0.86</v>
+      </c>
+      <c r="B28" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0571200000000001</v>
+      </c>
+      <c r="C28" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0056</v>
+      </c>
+      <c r="D28" s="44">
+        <f t="shared" si="3"/>
+        <v>1.01624</v>
+      </c>
+      <c r="E28" s="44">
+        <f t="shared" si="2"/>
+        <v>3.2089302325581409E-2</v>
+      </c>
+      <c r="F28" s="44">
+        <f t="shared" si="2"/>
+        <v>2.3702325581395362E-2</v>
+      </c>
+      <c r="G28" s="44">
+        <f t="shared" si="2"/>
+        <v>2.543441860465117E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="43">
+        <v>0.85</v>
+      </c>
+      <c r="B29" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0612000000000001</v>
+      </c>
+      <c r="C29" s="44">
+        <f t="shared" si="3"/>
+        <v>1.006</v>
+      </c>
+      <c r="D29" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0173999999999999</v>
+      </c>
+      <c r="E29" s="44">
+        <f t="shared" si="2"/>
+        <v>3.7270588235294153E-2</v>
+      </c>
+      <c r="F29" s="44">
+        <f t="shared" si="2"/>
+        <v>2.7529411764705893E-2</v>
+      </c>
+      <c r="G29" s="44">
+        <f t="shared" si="2"/>
+        <v>2.954117647058822E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="43">
+        <v>0.84</v>
+      </c>
+      <c r="B30" s="44">
+        <f t="shared" si="3"/>
+        <v>1.06528</v>
+      </c>
+      <c r="C30" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0064</v>
+      </c>
+      <c r="D30" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0185599999999999</v>
+      </c>
+      <c r="E30" s="44">
+        <f t="shared" si="2"/>
+        <v>4.2910476190476214E-2</v>
+      </c>
+      <c r="F30" s="44">
+        <f t="shared" si="2"/>
+        <v>3.1695238095238103E-2</v>
+      </c>
+      <c r="G30" s="44">
+        <f t="shared" si="2"/>
+        <v>3.4011428571428567E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="43">
+        <v>0.83</v>
+      </c>
+      <c r="B31" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0693600000000001</v>
+      </c>
+      <c r="C31" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0067999999999999</v>
+      </c>
+      <c r="D31" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0197199999999997</v>
+      </c>
+      <c r="E31" s="44">
+        <f t="shared" si="2"/>
+        <v>4.9025542168674739E-2</v>
+      </c>
+      <c r="F31" s="44">
+        <f t="shared" si="2"/>
+        <v>3.6212048192771087E-2</v>
+      </c>
+      <c r="G31" s="44">
+        <f t="shared" si="2"/>
+        <v>3.885831325301202E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="43">
+        <v>0.82</v>
+      </c>
+      <c r="B32" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0734400000000002</v>
+      </c>
+      <c r="C32" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0072000000000001</v>
+      </c>
+      <c r="D32" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0208800000000002</v>
+      </c>
+      <c r="E32" s="44">
+        <f t="shared" si="2"/>
+        <v>5.5633170731707385E-2</v>
+      </c>
+      <c r="F32" s="44">
+        <f t="shared" si="2"/>
+        <v>4.109268292682932E-2</v>
+      </c>
+      <c r="G32" s="44">
+        <f t="shared" si="2"/>
+        <v>4.4095609756097637E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="43">
+        <v>0.81</v>
+      </c>
+      <c r="B33" s="44">
+        <f t="shared" si="3"/>
+        <v>1.07752</v>
+      </c>
+      <c r="C33" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0076000000000001</v>
+      </c>
+      <c r="D33" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0220400000000001</v>
+      </c>
+      <c r="E33" s="44">
+        <f t="shared" si="2"/>
+        <v>6.2751604938271574E-2</v>
+      </c>
+      <c r="F33" s="44">
+        <f t="shared" si="2"/>
+        <v>4.6350617283950596E-2</v>
+      </c>
+      <c r="G33" s="44">
+        <f t="shared" si="2"/>
+        <v>4.9737777777777763E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="B34" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0816000000000001</v>
+      </c>
+      <c r="C34" s="44">
+        <f t="shared" si="3"/>
+        <v>1.008</v>
+      </c>
+      <c r="D34" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0231999999999999</v>
+      </c>
+      <c r="E34" s="44">
+        <f t="shared" si="2"/>
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="F34" s="44">
+        <f t="shared" si="2"/>
+        <v>5.1999999999999977E-2</v>
+      </c>
+      <c r="G34" s="44">
+        <f t="shared" si="2"/>
+        <v>5.5799999999999947E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="43">
+        <v>0.79</v>
+      </c>
+      <c r="B35" s="44">
+        <f t="shared" si="3"/>
+        <v>1.08568</v>
+      </c>
+      <c r="C35" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0084</v>
+      </c>
+      <c r="D35" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0243599999999997</v>
+      </c>
+      <c r="E35" s="44">
+        <f t="shared" si="2"/>
+        <v>7.8598481012658192E-2</v>
+      </c>
+      <c r="F35" s="44">
+        <f t="shared" si="2"/>
+        <v>5.8055696202531613E-2</v>
+      </c>
+      <c r="G35" s="44">
+        <f t="shared" si="2"/>
+        <v>6.2298227848101163E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="43">
+        <v>0.78</v>
+      </c>
+      <c r="B36" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0897600000000001</v>
+      </c>
+      <c r="C36" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0087999999999999</v>
+      </c>
+      <c r="D36" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0255199999999998</v>
+      </c>
+      <c r="E36" s="44">
+        <f t="shared" si="2"/>
+        <v>8.7368205128205131E-2</v>
+      </c>
+      <c r="F36" s="44">
+        <f t="shared" si="2"/>
+        <v>6.453333333333329E-2</v>
+      </c>
+      <c r="G36" s="44">
+        <f t="shared" si="2"/>
+        <v>6.9249230769230688E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="43">
+        <v>0.77</v>
+      </c>
+      <c r="B37" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0938400000000001</v>
+      </c>
+      <c r="C37" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0092000000000001</v>
+      </c>
+      <c r="D37" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0266800000000003</v>
+      </c>
+      <c r="E37" s="44">
+        <f t="shared" si="2"/>
+        <v>9.6731428571428607E-2</v>
+      </c>
+      <c r="F37" s="44">
+        <f t="shared" si="2"/>
+        <v>7.1449350649350665E-2</v>
+      </c>
+      <c r="G37" s="44">
+        <f t="shared" si="2"/>
+        <v>7.667064935064942E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="43">
+        <v>0.76</v>
+      </c>
+      <c r="B38" s="44">
+        <f t="shared" si="3"/>
+        <v>1.09792</v>
+      </c>
+      <c r="C38" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0096000000000001</v>
+      </c>
+      <c r="D38" s="44">
+        <f t="shared" si="3"/>
+        <v>1.0278400000000001</v>
+      </c>
+      <c r="E38" s="44">
+        <f t="shared" si="2"/>
+        <v>0.10671157894736842</v>
+      </c>
+      <c r="F38" s="44">
+        <f t="shared" si="2"/>
+        <v>7.8821052631578958E-2</v>
+      </c>
+      <c r="G38" s="44">
+        <f t="shared" si="2"/>
+        <v>8.4581052631578973E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="45">
+        <v>0.75</v>
+      </c>
+      <c r="B39" s="46">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="C39" s="46">
+        <v>1.01</v>
+      </c>
+      <c r="D39" s="46">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="E39" s="47">
+        <f t="shared" si="2"/>
+        <v>0.11733333333333336</v>
+      </c>
+      <c r="F39" s="47">
+        <f t="shared" si="2"/>
+        <v>8.666666666666667E-2</v>
+      </c>
+      <c r="G39" s="47">
+        <f t="shared" si="2"/>
+        <v>9.2999999999999972E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="43">
+        <v>0.74</v>
+      </c>
+      <c r="B40" s="44">
+        <f>B$39+((B$64-B$39)/((A$39-A$64)*100))*((A$39-A40)*100)</f>
+        <v>1.10572</v>
+      </c>
+      <c r="C40" s="44">
+        <f t="shared" ref="C40:D40" si="4">C$39+((C$64-C$39)/((B$39-B$64)*100))*((B$39-B40)*100)</f>
+        <v>1.0120400000000001</v>
+      </c>
+      <c r="D40" s="44">
+        <f t="shared" si="4"/>
+        <v>1.0316399999999999</v>
+      </c>
+      <c r="E40" s="44">
+        <f t="shared" si="2"/>
+        <v>0.12849621621621624</v>
+      </c>
+      <c r="F40" s="44">
+        <f t="shared" si="2"/>
+        <v>9.5581621621621635E-2</v>
+      </c>
+      <c r="G40" s="44">
+        <f t="shared" si="2"/>
+        <v>0.10246810810810808</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="43">
+        <v>0.73</v>
+      </c>
+      <c r="B41" s="44">
+        <f t="shared" ref="B41:D56" si="5">B$39+((B$64-B$39)/((A$39-A$64)*100))*((A$39-A41)*100)</f>
+        <v>1.1094400000000002</v>
+      </c>
+      <c r="C41" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0140800000000001</v>
+      </c>
+      <c r="D41" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0342800000000001</v>
+      </c>
+      <c r="E41" s="44">
+        <f t="shared" si="2"/>
+        <v>0.14034082191780831</v>
+      </c>
+      <c r="F41" s="44">
+        <f t="shared" si="2"/>
+        <v>0.1050706849315069</v>
+      </c>
+      <c r="G41" s="44">
+        <f t="shared" si="2"/>
+        <v>0.11254191780821923</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="43">
+        <v>0.72</v>
+      </c>
+      <c r="B42" s="44">
+        <f t="shared" si="5"/>
+        <v>1.1131600000000001</v>
+      </c>
+      <c r="C42" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0161200000000001</v>
+      </c>
+      <c r="D42" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0369200000000001</v>
+      </c>
+      <c r="E42" s="44">
+        <f t="shared" si="2"/>
+        <v>0.15289555555555565</v>
+      </c>
+      <c r="F42" s="44">
+        <f t="shared" si="2"/>
+        <v>0.11515777777777786</v>
+      </c>
+      <c r="G42" s="44">
+        <f t="shared" si="2"/>
+        <v>0.12324666666666671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="43">
+        <v>0.71</v>
+      </c>
+      <c r="B43" s="44">
+        <f t="shared" si="5"/>
+        <v>1.1168800000000001</v>
+      </c>
+      <c r="C43" s="44">
+        <f t="shared" si="5"/>
+        <v>1.01816</v>
+      </c>
+      <c r="D43" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0395599999999998</v>
+      </c>
+      <c r="E43" s="44">
+        <f t="shared" si="2"/>
+        <v>0.16619042253521135</v>
+      </c>
+      <c r="F43" s="44">
+        <f t="shared" si="2"/>
+        <v>0.12586816901408454</v>
+      </c>
+      <c r="G43" s="44">
+        <f t="shared" si="2"/>
+        <v>0.13460901408450701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="43">
+        <v>0.7</v>
+      </c>
+      <c r="B44" s="44">
+        <f t="shared" si="5"/>
+        <v>1.1206</v>
+      </c>
+      <c r="C44" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0202</v>
+      </c>
+      <c r="D44" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0422</v>
+      </c>
+      <c r="E44" s="44">
+        <f t="shared" si="2"/>
+        <v>0.18025714285714292</v>
+      </c>
+      <c r="F44" s="44">
+        <f t="shared" si="2"/>
+        <v>0.13722857142857148</v>
+      </c>
+      <c r="G44" s="44">
+        <f t="shared" si="2"/>
+        <v>0.1466571428571429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="43">
+        <v>0.69</v>
+      </c>
+      <c r="B45" s="44">
+        <f t="shared" si="5"/>
+        <v>1.1243200000000002</v>
+      </c>
+      <c r="C45" s="44">
+        <f t="shared" si="5"/>
+        <v>1.02224</v>
+      </c>
+      <c r="D45" s="44">
+        <f t="shared" si="5"/>
+        <v>1.04484</v>
+      </c>
+      <c r="E45" s="44">
+        <f t="shared" si="2"/>
+        <v>0.195129275362319</v>
+      </c>
+      <c r="F45" s="44">
+        <f t="shared" si="2"/>
+        <v>0.14926724637681166</v>
+      </c>
+      <c r="G45" s="44">
+        <f t="shared" si="2"/>
+        <v>0.15942086956521745</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="43">
+        <v>0.68</v>
+      </c>
+      <c r="B46" s="44">
+        <f t="shared" si="5"/>
+        <v>1.1280400000000002</v>
+      </c>
+      <c r="C46" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0242800000000001</v>
+      </c>
+      <c r="D46" s="44">
+        <f t="shared" si="5"/>
+        <v>1.04748</v>
+      </c>
+      <c r="E46" s="44">
+        <f t="shared" si="2"/>
+        <v>0.21084235294117648</v>
+      </c>
+      <c r="F46" s="44">
+        <f t="shared" si="2"/>
+        <v>0.16201411764705881</v>
+      </c>
+      <c r="G46" s="44">
+        <f t="shared" si="2"/>
+        <v>0.17293176470588226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="43">
+        <v>0.67</v>
+      </c>
+      <c r="B47" s="44">
+        <f t="shared" si="5"/>
+        <v>1.1317600000000001</v>
+      </c>
+      <c r="C47" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0263199999999999</v>
+      </c>
+      <c r="D47" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0501199999999997</v>
+      </c>
+      <c r="E47" s="44">
+        <f t="shared" si="2"/>
+        <v>0.22743402985074626</v>
+      </c>
+      <c r="F47" s="44">
+        <f t="shared" si="2"/>
+        <v>0.17550089552238796</v>
+      </c>
+      <c r="G47" s="44">
+        <f t="shared" si="2"/>
+        <v>0.18722328358208934</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="43">
+        <v>0.66</v>
+      </c>
+      <c r="B48" s="44">
+        <f t="shared" si="5"/>
+        <v>1.13548</v>
+      </c>
+      <c r="C48" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0283599999999999</v>
+      </c>
+      <c r="D48" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0527599999999999</v>
+      </c>
+      <c r="E48" s="44">
+        <f t="shared" si="2"/>
+        <v>0.24494424242424237</v>
+      </c>
+      <c r="F48" s="44">
+        <f t="shared" si="2"/>
+        <v>0.18976121212121203</v>
+      </c>
+      <c r="G48" s="44">
+        <f t="shared" si="2"/>
+        <v>0.20233090909090901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="43">
+        <v>0.65</v>
+      </c>
+      <c r="B49" s="44">
+        <f t="shared" si="5"/>
+        <v>1.1392</v>
+      </c>
+      <c r="C49" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0304</v>
+      </c>
+      <c r="D49" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0553999999999999</v>
+      </c>
+      <c r="E49" s="44">
+        <f t="shared" si="2"/>
+        <v>0.26341538461538461</v>
+      </c>
+      <c r="F49" s="44">
+        <f t="shared" si="2"/>
+        <v>0.20483076923076921</v>
+      </c>
+      <c r="G49" s="44">
+        <f t="shared" si="2"/>
+        <v>0.21829230769230759</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="43">
+        <v>0.64</v>
+      </c>
+      <c r="B50" s="44">
+        <f t="shared" si="5"/>
+        <v>1.1429200000000002</v>
+      </c>
+      <c r="C50" s="44">
+        <f t="shared" si="5"/>
+        <v>1.03244</v>
+      </c>
+      <c r="D50" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0580400000000001</v>
+      </c>
+      <c r="E50" s="44">
+        <f t="shared" si="2"/>
+        <v>0.28289250000000005</v>
+      </c>
+      <c r="F50" s="44">
+        <f t="shared" si="2"/>
+        <v>0.22074749999999999</v>
+      </c>
+      <c r="G50" s="44">
+        <f t="shared" si="2"/>
+        <v>0.23514750000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="43">
+        <v>0.63</v>
+      </c>
+      <c r="B51" s="44">
+        <f t="shared" si="5"/>
+        <v>1.1466400000000001</v>
+      </c>
+      <c r="C51" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0344800000000001</v>
+      </c>
+      <c r="D51" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0606800000000001</v>
+      </c>
+      <c r="E51" s="44">
+        <f t="shared" si="2"/>
+        <v>0.30342349206349212</v>
+      </c>
+      <c r="F51" s="44">
+        <f t="shared" si="2"/>
+        <v>0.23755174603174609</v>
+      </c>
+      <c r="G51" s="44">
+        <f t="shared" si="2"/>
+        <v>0.25293904761904762</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="43">
+        <v>0.62</v>
+      </c>
+      <c r="B52" s="44">
+        <f t="shared" si="5"/>
+        <v>1.15036</v>
+      </c>
+      <c r="C52" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0365199999999999</v>
+      </c>
+      <c r="D52" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0633199999999998</v>
+      </c>
+      <c r="E52" s="44">
+        <f t="shared" si="2"/>
+        <v>0.32505935483870968</v>
+      </c>
+      <c r="F52" s="44">
+        <f t="shared" si="2"/>
+        <v>0.25528645161290314</v>
+      </c>
+      <c r="G52" s="44">
+        <f t="shared" si="2"/>
+        <v>0.27171225806451604</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="43">
+        <v>0.61</v>
+      </c>
+      <c r="B53" s="44">
+        <f t="shared" si="5"/>
+        <v>1.15408</v>
+      </c>
+      <c r="C53" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0385599999999999</v>
+      </c>
+      <c r="D53" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0659599999999998</v>
+      </c>
+      <c r="E53" s="44">
+        <f t="shared" si="2"/>
+        <v>0.34785442622950824</v>
+      </c>
+      <c r="F53" s="44">
+        <f t="shared" si="2"/>
+        <v>0.27399737704918031</v>
+      </c>
+      <c r="G53" s="44">
+        <f t="shared" si="2"/>
+        <v>0.2915154098360655</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="B54" s="44">
+        <f t="shared" si="5"/>
+        <v>1.1578000000000002</v>
+      </c>
+      <c r="C54" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0406</v>
+      </c>
+      <c r="D54" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0686</v>
+      </c>
+      <c r="E54" s="44">
+        <f t="shared" si="2"/>
+        <v>0.37186666666666685</v>
+      </c>
+      <c r="F54" s="44">
+        <f t="shared" si="2"/>
+        <v>0.29373333333333335</v>
+      </c>
+      <c r="G54" s="44">
+        <f t="shared" si="2"/>
+        <v>0.31240000000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="43">
+        <v>0.59</v>
+      </c>
+      <c r="B55" s="44">
+        <f t="shared" si="5"/>
+        <v>1.1615200000000001</v>
+      </c>
+      <c r="C55" s="44">
+        <f t="shared" si="5"/>
+        <v>1.04264</v>
+      </c>
+      <c r="D55" s="44">
+        <f t="shared" si="5"/>
+        <v>1.07124</v>
+      </c>
+      <c r="E55" s="44">
+        <f t="shared" si="2"/>
+        <v>0.39715796610169507</v>
+      </c>
+      <c r="F55" s="44">
+        <f t="shared" si="2"/>
+        <v>0.31454644067796617</v>
+      </c>
+      <c r="G55" s="44">
+        <f t="shared" si="2"/>
+        <v>0.33442101694915261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="43">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B56" s="44">
+        <f t="shared" si="5"/>
+        <v>1.1652400000000001</v>
+      </c>
+      <c r="C56" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0446800000000001</v>
+      </c>
+      <c r="D56" s="44">
+        <f t="shared" si="5"/>
+        <v>1.0738800000000002</v>
+      </c>
+      <c r="E56" s="44">
+        <f t="shared" si="2"/>
+        <v>0.42379448275862086</v>
+      </c>
+      <c r="F56" s="44">
+        <f t="shared" si="2"/>
+        <v>0.33649241379310357</v>
+      </c>
+      <c r="G56" s="44">
+        <f t="shared" si="2"/>
+        <v>0.35763724137931052</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="43">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B57" s="44">
+        <f t="shared" ref="B57:D63" si="6">B$39+((B$64-B$39)/((A$39-A$64)*100))*((A$39-A57)*100)</f>
+        <v>1.16896</v>
+      </c>
+      <c r="C57" s="44">
+        <f t="shared" si="6"/>
+        <v>1.0467199999999999</v>
+      </c>
+      <c r="D57" s="44">
+        <f t="shared" si="6"/>
+        <v>1.0765199999999999</v>
+      </c>
+      <c r="E57" s="44">
+        <f t="shared" si="2"/>
+        <v>0.45184701754385975</v>
+      </c>
+      <c r="F57" s="44">
+        <f t="shared" si="2"/>
+        <v>0.35963087719298248</v>
+      </c>
+      <c r="G57" s="44">
+        <f t="shared" si="2"/>
+        <v>0.38211157894736847</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="43">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B58" s="44">
+        <f t="shared" si="6"/>
+        <v>1.1726799999999999</v>
+      </c>
+      <c r="C58" s="44">
+        <f t="shared" si="6"/>
+        <v>1.0487599999999999</v>
+      </c>
+      <c r="D58" s="44">
+        <f t="shared" si="6"/>
+        <v>1.0791599999999999</v>
+      </c>
+      <c r="E58" s="44">
+        <f t="shared" si="2"/>
+        <v>0.48139142857142836</v>
+      </c>
+      <c r="F58" s="44">
+        <f t="shared" si="2"/>
+        <v>0.38402571428571414</v>
+      </c>
+      <c r="G58" s="44">
+        <f t="shared" si="2"/>
+        <v>0.40791142857142837</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="43">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B59" s="44">
+        <f t="shared" si="6"/>
+        <v>1.1764000000000001</v>
+      </c>
+      <c r="C59" s="44">
+        <f t="shared" si="6"/>
+        <v>1.0508</v>
+      </c>
+      <c r="D59" s="44">
+        <f t="shared" si="6"/>
+        <v>1.0817999999999999</v>
+      </c>
+      <c r="E59" s="44">
+        <f t="shared" si="2"/>
+        <v>0.51250909090909091</v>
+      </c>
+      <c r="F59" s="44">
+        <f t="shared" si="2"/>
+        <v>0.40974545454545441</v>
+      </c>
+      <c r="G59" s="44">
+        <f t="shared" si="2"/>
+        <v>0.43510909090909072</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="43">
+        <v>0.54</v>
+      </c>
+      <c r="B60" s="44">
+        <f t="shared" si="6"/>
+        <v>1.1801200000000001</v>
+      </c>
+      <c r="C60" s="44">
+        <f t="shared" si="6"/>
+        <v>1.05284</v>
+      </c>
+      <c r="D60" s="44">
+        <f t="shared" si="6"/>
+        <v>1.0844400000000001</v>
+      </c>
+      <c r="E60" s="44">
+        <f t="shared" si="2"/>
+        <v>0.54528740740740733</v>
+      </c>
+      <c r="F60" s="44">
+        <f t="shared" si="2"/>
+        <v>0.43686370370370359</v>
+      </c>
+      <c r="G60" s="44">
+        <f t="shared" si="2"/>
+        <v>0.46378222222222221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="43">
+        <v>0.53</v>
+      </c>
+      <c r="B61" s="44">
+        <f t="shared" si="6"/>
+        <v>1.18384</v>
+      </c>
+      <c r="C61" s="44">
+        <f t="shared" si="6"/>
+        <v>1.0548799999999998</v>
+      </c>
+      <c r="D61" s="44">
+        <f t="shared" si="6"/>
+        <v>1.0870799999999998</v>
+      </c>
+      <c r="E61" s="44">
+        <f t="shared" si="2"/>
+        <v>0.57982037735849057</v>
+      </c>
+      <c r="F61" s="44">
+        <f t="shared" si="2"/>
+        <v>0.4654596226415092</v>
+      </c>
+      <c r="G61" s="44">
+        <f t="shared" si="2"/>
+        <v>0.49401433962264124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="43">
+        <v>0.52</v>
+      </c>
+      <c r="B62" s="44">
+        <f t="shared" si="6"/>
+        <v>1.1875599999999999</v>
+      </c>
+      <c r="C62" s="44">
+        <f t="shared" si="6"/>
+        <v>1.0569199999999999</v>
+      </c>
+      <c r="D62" s="44">
+        <f t="shared" si="6"/>
+        <v>1.0897199999999998</v>
+      </c>
+      <c r="E62" s="44">
+        <f t="shared" si="2"/>
+        <v>0.61620923076923062</v>
+      </c>
+      <c r="F62" s="44">
+        <f t="shared" si="2"/>
+        <v>0.4956184615384614</v>
+      </c>
+      <c r="G62" s="44">
+        <f t="shared" si="2"/>
+        <v>0.52589538461538432</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="43">
+        <v>0.51</v>
+      </c>
+      <c r="B63" s="44">
+        <f t="shared" si="6"/>
+        <v>1.1912800000000001</v>
+      </c>
+      <c r="C63" s="44">
+        <f t="shared" si="6"/>
+        <v>1.0589599999999999</v>
+      </c>
+      <c r="D63" s="44">
+        <f t="shared" si="6"/>
+        <v>1.09236</v>
+      </c>
+      <c r="E63" s="44">
+        <f t="shared" si="2"/>
+        <v>0.65456313725490201</v>
+      </c>
+      <c r="F63" s="44">
+        <f t="shared" si="2"/>
+        <v>0.52743215686274503</v>
+      </c>
+      <c r="G63" s="44">
+        <f t="shared" si="2"/>
+        <v>0.55952235294117647</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="B64" s="37">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="C64" s="37">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="D64" s="37">
+        <v>1.095</v>
+      </c>
+      <c r="E64" s="44">
+        <f t="shared" si="2"/>
+        <v>0.69500000000000006</v>
+      </c>
+      <c r="F64" s="44">
+        <f t="shared" si="2"/>
+        <v>0.56099999999999994</v>
+      </c>
+      <c r="G64" s="44">
+        <f t="shared" si="2"/>
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/DatabasePrep/GeneratorInfo/generator_costs.xlsx
+++ b/DatabasePrep/GeneratorInfo/generator_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-37540" yWindow="1960" windowWidth="34400" windowHeight="22000" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="34400" windowHeight="21580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="generator_costs" sheetId="1" r:id="rId1"/>
@@ -25,89 +25,570 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="212">
   <si>
-    <t>We assumed that the capital cost and fixed cost for adding a CCS system increase by the same amount (per W) as for Coal IGCC;  we assumed CCS biomass IGCC heat rate increases by the same percentage relative to non-CCS biomass IGCC as CCS to non-CCS coal IGCC heat rates; we also assume that there's an adder per MWh for variable costs -- we assume that the difference in variable cost scales with the difference in heat rates</t>
+    <t>CEC COG Model Version 2.02-4-5-10; we chose the fluidized bed biomass technology because it's more advanced</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>CCGT_Cogen_CCS</t>
+    <t>intermittent</t>
+  </si>
+  <si>
+    <t>resource_limited</t>
+  </si>
+  <si>
+    <t>baseload</t>
+  </si>
+  <si>
+    <t>min_build_capacity</t>
+  </si>
+  <si>
+    <t>$year_of_costs</t>
+  </si>
+  <si>
+    <t>cost_for_which_year?</t>
+  </si>
+  <si>
+    <t>connect_cost_generic_$2007_per_mw</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Combustion_Turbine_Cogen_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Gas_Internal_Combustion_Engine_Cogen_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Solid_Steam_Turbine_Cogen_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Gas_Steam_Turbine_EP</t>
-  </si>
-  <si>
-    <t>"Updated Capital Cost Estimates for Electricity Generation Plants," US EIA, November 2010; construction cost breakdown comes from the ReEDs Sheet; outage rates are the same as hydro</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>We assume that a combustion turbine will never run at part load lower than 50 percent, so the 10-min ramp rate used to calculate the heat rate penalty is 0.5 rather than 1.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sources</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heat rate curve</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extra Fuel D</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extra Fuel (Sp)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Percent of full load</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spinning reserve provided</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steam</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combustion</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>note: we assume that cogen plants have 3/4 of the capital cost and fixed cost of a pure-electric plant, (to reflect shared infrastructure for cogen), but the same variable operating costs.</t>
+    <t>fuel</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Gas</t>
-  </si>
-  <si>
-    <t>interest_between_price_year_and_cost_year</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Residential_PV</t>
+    <t>Capital and fixed cost equal to cost for Bio_Solid_Steam_Turbine_Cogen plus the difference between Coal_Steam_Turbine_Cogen_CCS and Coal_Steam_Turbine_Cogen; overnight cost change like Coal_Steam_Turbine_Cogen_CCS; other params like Bio_Solid_Steam_Turbine_Cogen</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>technology_id</t>
+    <t>Costs are same as Bio_Solid_Steam_Turbine_Cogen_CCS; flags same as Bio_Liquid_Steam_Turbine_Cogen</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>We assumed that the capital cost and fixed cost for adding a CCS system increase by the same amount (per W) as for CCGT; we assumed CCS combustion turbine heat rate increases by the same percentage relative to non-CCS combustion turbines as CCS to non-CCS CCGT heat rates; we also assume that there's an adder per MWh for variable costs -- we assume that the difference in variable cost scales with the difference in heat rates</t>
+    <t>Uranium</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>var_o_m_$2007</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>overnight_cost_change</t>
+  </si>
+  <si>
+    <t>Structure and Performance of Six European Wholesale Electricity Markets in 2003, 2004, and 2005. Appendix I. DG Comp. Presented to DG Comp 26th February 2007</t>
+  </si>
+  <si>
+    <t>Ramp rates</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WWSIS, p. 174</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part load relative heat rate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat rate penalty</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Updated Capital Cost Estimates for Electricity Generation Plants," US EIA, November 2010; chose the dual unit rather than the single unit costs because if we're installing CCS, we're likley installing a lot; the lifetime, construction time, construction cost breakdown, and outage rates are the same as Coal Steam Turbine</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as new Biogas</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as existing combustion turbines, 75% capital cost and fixed cost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as existing coal steam turbines, 75% capital cost and fixed cost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as existing gas steam turbines, 75% capital cost and fixed cost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as existing CCGT, 75% capital cost and fixed cost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as existing Gas Internal Combustion Engine, 75% capital cost and fixed cost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everything but costs same as gas steam turbine; captial and fixed costs are assumed to be the gas steam turbine cost plus the difference between biogas and gas combustion turbine</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as new biomass steam turbine</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Updated Capital Cost Estimates for Electricity Generation Plants," US EIA, November 2010; we assume the same lifetime, construction time, construction cost breakdown, and outage rates as for Coal IGCC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEC COG Model Version 2.02-4-5-10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEC COG Model Version 2.02-4-5-10; we chose the binary geothermal plants because they are more advanced</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Updated Capital Cost Estimates for Electricity Generation Plants," US EIA, November 2010; construction cost breakdown comes from the ReEDs Sheet; outage rates are from the CEC COG Model</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offshore_Wind</t>
+  </si>
+  <si>
+    <t>Bio_Gas</t>
+  </si>
+  <si>
+    <t>year_1_cost_fraction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_2_cost_fraction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_3_cost_fraction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery_Storage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEC COG Model Version 2.02-4-5-10; we picked dual flash as the existing geothermal technology</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as new nuclear</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_build_new</t>
+  </si>
+  <si>
+    <t>forced_outage_rate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduled_outage_rate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReEDs Sheet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tech_name_again</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geothermal</t>
+  </si>
+  <si>
+    <t>DistillateFuelOil_Internal_Combustion_Engine_EP</t>
+  </si>
+  <si>
+    <t>DistillateFuelOil_Combustion_Turbine_EP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistillateFuelOil</t>
+  </si>
+  <si>
+    <t>Compressed_Air_Energy_Storage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-min ramp rate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
+  </si>
+  <si>
+    <t>Coal_IGCC</t>
+  </si>
+  <si>
+    <t>Same as new Biogas, 75% capital cost and fixed cost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as new biomass steam turbine, 75% capital cost and fixed cost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as new coal steam turbines, 75% capital cost and fixed cost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as gas combustion turbines, 75% capital cost and fixed cost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as gas combustion turbine CCS; 75% capital cost and fixed cost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as Gas_Internal_Combustion_Engine_Cogen_EP (which already includes the 75% of capital and fixed costs)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_Cogen_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as Gas_Combustion_Turbine_Cogen_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capital and fixed cost equal to 75% of Gas_Steam_Turbine_EP + difference between CCGT_CCS and CCGT, other flags like Gas_Steam_Turbine_Cogen (except ccs)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as new Biogas_CCS, 75% capital cost and fixed cost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capital and fixed cost equal to 75% of Coal_Steam_Turbine_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_Source</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as existing Gas Combustion Turbine</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geothermal_EP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Internal_Combustion_Engine_Cogen_EP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_Cogen_EP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>storage_efficiency</t>
+  </si>
+  <si>
+    <t>max_store_rate</t>
+  </si>
+  <si>
+    <t>ccs</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost declination rate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Liquid_Steam_Turbine_Cogen_EP</t>
+  </si>
+  <si>
+    <t>Bio_Solid_Steam_Turbine_EP</t>
+  </si>
+  <si>
+    <t>Bio_Solid_Steam_Turbine_Cogen_EP</t>
+  </si>
+  <si>
+    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat_rate_penalty_spinning_reserve</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT</t>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine</t>
+  </si>
+  <si>
+    <t>CCGT_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Gas_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass_IGCC_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_IGCC_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>overnight_cost_$2007</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Updated Capital Cost Estimates for Electricity Generation Plants," US EIA, November 2010; the lifetime, construction time, construction cost breakdown, and outage rates are the same as CCGT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_spinning_reserve_fraction_of_capacity</t>
+  </si>
+  <si>
+    <t>Bio_Liquid</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEC COG Model Version 2.02-4-5-10; we picked the advanced combustion turbine as the new technology</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Updated Capital Cost Estimates for Electricity Generation Plants," US EIA, November 2010; the lifetime, construction time, construction cost breakdown, and outage rates are the same as Coal IGCC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>We assumed that the capital cost and fixed cost for adding a CCS system increase by the same amount (per W) as for gas combustion turbine; as biogas contains 50% pre-combustion CO2, we assumed that the biogas-CCS heat rate was the biogas non-CCS heat rate plus double the difference between CCS to non-CCS combustion turbine heat rates; we also assume a similar multiplier to variable costs</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as CCGT_CCS; 75% capital cost and fixed cost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Hydro_NonPumped</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydro_Pumped</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biomass_IGCC</t>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_Cogen_EP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>storage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCGT_EP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Combustion_Turbine_EP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_and_dollar_year</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEC COG Model Version 2.02-4-5-10; we picked the advanced CCGT technology (H Frame) for the new CCGT plants</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEC COG Model Version 2.02-4-5-10; we picked the duct firing CCGT turbine for the existing CCGT technology</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Solid</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_time_years</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_EP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Steam_Turbine_EP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Solid_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_age_years</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Gas</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Wind_EP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>overnight_cost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Liquid_Steam_Turbine_Cogen_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_Steam_Turbine_Cogen_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Internal_Combustion_Engine_Cogen_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Gas_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Liquid_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio_Solid_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal_CCS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEC COG Model Version 2.02-4-5-10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEC COG Model Version 2.02-4-5-10; the overnight cost is adjusted from the non-storage CSP overnight-cost based on the difference in the storage and non-storage CSP from the Solar Advisor Model; the construction time of 1 year is probably too low</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEC COG Model Version 2.02-4-5-10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatchable</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cogen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as new CCGT, 75% capital cost and fixed cost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>all dispatch data from TEPPC_Generator_Categories</t>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$/Wp</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -272,570 +753,89 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ReEDs Sheet; also Sullivan et al (2008), NREL/CP-670-43510 Conference Paper for o&amp;m costs, declanation rate, etc; $1,200,000 taken as capital cost in 2010 rather than 2004 based on conversation with Hernandez, also The storage efficiency of the the storage phase of compressed air energy storage from Samir Succar and Robert H. Williams: Compressed Air Energy Storage: Theory, Resources, And Applications For Wind Power, p. 39
-</t>
+    <t>We assumed that the capital cost and fixed cost for adding a CCS system increase by the same amount (per W) as for Coal IGCC;  we assumed CCS biomass IGCC heat rate increases by the same percentage relative to non-CCS biomass IGCC as CCS to non-CCS coal IGCC heat rates; we also assume that there's an adder per MWh for variable costs -- we assume that the difference in variable cost scales with the difference in heat rates</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>CCGT_EP</t>
+    <t>CCGT_Cogen_CCS</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Combustion_Turbine_EP</t>
+    <t>Gas_Combustion_Turbine_Cogen_CCS</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Wind</t>
+    <t>Bio_Gas_Internal_Combustion_Engine_Cogen_CCS</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>price_and_dollar_year</t>
+    <t>Bio_Solid_Steam_Turbine_Cogen_CCS</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>CEC COG Model Version 2.02-4-5-10; we picked the advanced CCGT technology (H Frame) for the new CCGT plants</t>
+    <t>Bio_Gas_Steam_Turbine_EP</t>
+  </si>
+  <si>
+    <t>"Updated Capital Cost Estimates for Electricity Generation Plants," US EIA, November 2010; construction cost breakdown comes from the ReEDs Sheet; outage rates are the same as hydro</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>CEC COG Model Version 2.02-4-5-10; we picked the duct firing CCGT turbine for the existing CCGT technology</t>
+    <t>We assume that a combustion turbine will never run at part load lower than 50 percent, so the 10-min ramp rate used to calculate the heat rate penalty is 0.5 rather than 1.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Solar</t>
+    <t>Sources</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Bio_Solid</t>
+    <t>Heat rate curve</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>construction_time_years</t>
+    <t>Extra Fuel D</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Coal_Steam_Turbine_EP</t>
+    <t>Extra Fuel (Sp)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Gas_Steam_Turbine_EP</t>
+    <t>Percent of full load</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Bio_Solid_CCS</t>
+    <t>Spinning reserve provided</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>max_age_years</t>
+    <t>Steam</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Solar</t>
+    <t>Combustion</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Bio_Gas</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
-    <t>Wind_EP</t>
+    <t>note: we assume that cogen plants have 3/4 of the capital cost and fixed cost of a pure-electric plant, (to reflect shared infrastructure for cogen), but the same variable operating costs.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Gas</t>
+  </si>
+  <si>
+    <t>interest_between_price_year_and_cost_year</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>overnight_cost</t>
+    <t>Residential_PV</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Bio_Liquid_Steam_Turbine_Cogen_CCS</t>
+    <t>technology_id</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Coal_Steam_Turbine_Cogen_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Internal_Combustion_Engine_Cogen_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Gas_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Liquid_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Solid_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CEC COG Model Version 2.02-4-5-10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CEC COG Model Version 2.02-4-5-10; the overnight cost is adjusted from the non-storage CSP overnight-cost based on the difference in the storage and non-storage CSP from the Solar Advisor Model; the construction time of 1 year is probably too low</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CEC COG Model Version 2.02-4-5-10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dispatchable</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cogen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as new CCGT, 75% capital cost and fixed cost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>all dispatch data from TEPPC_Generator_Categories</t>
-  </si>
-  <si>
-    <t>year</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$/Wp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPV Consortium numbers (It's more or less SolFocus)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost declination rate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Liquid_Steam_Turbine_Cogen_EP</t>
-  </si>
-  <si>
-    <t>Bio_Solid_Steam_Turbine_EP</t>
-  </si>
-  <si>
-    <t>Bio_Solid_Steam_Turbine_Cogen_EP</t>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to gas combustion turbine</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>heat_rate_penalty_spinning_reserve</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine</t>
-  </si>
-  <si>
-    <t>CCGT_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Combustion_Turbine_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bio_Gas_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass_IGCC_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_IGCC_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>overnight_cost_$2007</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Updated Capital Cost Estimates for Electricity Generation Plants," US EIA, November 2010; the lifetime, construction time, construction cost breakdown, and outage rates are the same as CCGT</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_spinning_reserve_fraction_of_capacity</t>
-  </si>
-  <si>
-    <t>Bio_Liquid</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CEC COG Model Version 2.02-4-5-10; we picked the advanced combustion turbine as the new technology</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Updated Capital Cost Estimates for Electricity Generation Plants," US EIA, November 2010; the lifetime, construction time, construction cost breakdown, and outage rates are the same as Coal IGCC</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>We assumed that the capital cost and fixed cost for adding a CCS system increase by the same amount (per W) as for gas combustion turbine; as biogas contains 50% pre-combustion CO2, we assumed that the biogas-CCS heat rate was the biogas non-CCS heat rate plus double the difference between CCS to non-CCS combustion turbine heat rates; we also assume a similar multiplier to variable costs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as CCGT_CCS; 75% capital cost and fixed cost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass_Steam_Turbine</t>
-  </si>
-  <si>
-    <t>Hydro_NonPumped</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hydro_Pumped</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass_IGCC</t>
-  </si>
-  <si>
-    <t>Coal_Steam_Turbine_Cogen_EP</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>storage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offshore_Wind</t>
-  </si>
-  <si>
-    <t>Bio_Gas</t>
-  </si>
-  <si>
-    <t>year_1_cost_fraction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_2_cost_fraction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_3_cost_fraction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battery_Storage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Storage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CEC COG Model Version 2.02-4-5-10; we picked dual flash as the existing geothermal technology</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as new nuclear</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_build_new</t>
-  </si>
-  <si>
-    <t>forced_outage_rate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>scheduled_outage_rate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReEDs Sheet</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>tech_name_again</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
-    <t>DistillateFuelOil_Internal_Combustion_Engine_EP</t>
-  </si>
-  <si>
-    <t>DistillateFuelOil_Combustion_Turbine_EP</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistillateFuelOil</t>
-  </si>
-  <si>
-    <t>Compressed_Air_Energy_Storage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-min ramp rate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>EIA, cost declination rate, construction time, lifetime, outage rates assumed to be equal to coal IGCC</t>
-  </si>
-  <si>
-    <t>Coal_IGCC</t>
-  </si>
-  <si>
-    <t>Same as new Biogas, 75% capital cost and fixed cost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as new biomass steam turbine, 75% capital cost and fixed cost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as new coal steam turbines, 75% capital cost and fixed cost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as gas combustion turbines, 75% capital cost and fixed cost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as gas combustion turbine CCS; 75% capital cost and fixed cost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as Gas_Internal_Combustion_Engine_Cogen_EP (which already includes the 75% of capital and fixed costs)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Steam_Turbine_Cogen_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as Gas_Combustion_Turbine_Cogen_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capital and fixed cost equal to 75% of Gas_Steam_Turbine_EP + difference between CCGT_CCS and CCGT, other flags like Gas_Steam_Turbine_Cogen (except ccs)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as new Biogas_CCS, 75% capital cost and fixed cost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capital and fixed cost equal to 75% of Coal_Steam_Turbine_CCS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data_Source</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as existing Gas Combustion Turbine</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geothermal_EP</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas_Internal_Combustion_Engine_Cogen_EP</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCGT_Cogen_EP</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>storage_efficiency</t>
-  </si>
-  <si>
-    <t>max_store_rate</t>
-  </si>
-  <si>
-    <t>ccs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uranium</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_o_m_$2007</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>overnight_cost_change</t>
-  </si>
-  <si>
-    <t>Structure and Performance of Six European Wholesale Electricity Markets in 2003, 2004, and 2005. Appendix I. DG Comp. Presented to DG Comp 26th February 2007</t>
-  </si>
-  <si>
-    <t>Ramp rates</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>WWSIS, p. 174</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Part load relative heat rate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heat rate penalty</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Updated Capital Cost Estimates for Electricity Generation Plants," US EIA, November 2010; chose the dual unit rather than the single unit costs because if we're installing CCS, we're likley installing a lot; the lifetime, construction time, construction cost breakdown, and outage rates are the same as Coal Steam Turbine</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as new Biogas</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as existing combustion turbines, 75% capital cost and fixed cost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as existing coal steam turbines, 75% capital cost and fixed cost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as existing gas steam turbines, 75% capital cost and fixed cost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as existing CCGT, 75% capital cost and fixed cost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as existing Gas Internal Combustion Engine, 75% capital cost and fixed cost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Everything but costs same as gas steam turbine; captial and fixed costs are assumed to be the gas steam turbine cost plus the difference between biogas and gas combustion turbine</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same as new biomass steam turbine</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Updated Capital Cost Estimates for Electricity Generation Plants," US EIA, November 2010; we assume the same lifetime, construction time, construction cost breakdown, and outage rates as for Coal IGCC</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CEC COG Model Version 2.02-4-5-10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CEC COG Model Version 2.02-4-5-10; we chose the binary geothermal plants because they are more advanced</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Updated Capital Cost Estimates for Electricity Generation Plants," US EIA, November 2010; construction cost breakdown comes from the ReEDs Sheet; outage rates are from the CEC COG Model</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CEC COG Model Version 2.02-4-5-10; we chose the fluidized bed biomass technology because it's more advanced</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>intermittent</t>
-  </si>
-  <si>
-    <t>resource_limited</t>
-  </si>
-  <si>
-    <t>baseload</t>
-  </si>
-  <si>
-    <t>min_build_capacity</t>
-  </si>
-  <si>
-    <t>$year_of_costs</t>
-  </si>
-  <si>
-    <t>cost_for_which_year?</t>
-  </si>
-  <si>
-    <t>connect_cost_generic_$2007_per_mw</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capital and fixed cost equal to cost for Bio_Solid_Steam_Turbine_Cogen plus the difference between Coal_Steam_Turbine_Cogen_CCS and Coal_Steam_Turbine_Cogen; overnight cost change like Coal_Steam_Turbine_Cogen_CCS; other params like Bio_Solid_Steam_Turbine_Cogen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Costs are same as Bio_Solid_Steam_Turbine_Cogen_CCS; flags same as Bio_Liquid_Steam_Turbine_Cogen</t>
+    <t>We assumed that the capital cost and fixed cost for adding a CCS system increase by the same amount (per W) as for CCGT; we assumed CCS combustion turbine heat rate increases by the same percentage relative to non-CCS combustion turbines as CCS to non-CCS CCGT heat rates; we also assume that there's an adder per MWh for variable costs -- we assume that the difference in variable cost scales with the difference in heat rates</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -843,17 +843,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -934,7 +928,7 @@
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -955,7 +949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -965,15 +959,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2029,25 +2023,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="536636344"/>
-        <c:axId val="536638568"/>
+        <c:axId val="541458712"/>
+        <c:axId val="69297432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="536636344"/>
+        <c:axId val="541458712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536638568"/>
+        <c:crossAx val="69297432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="536638568"/>
+        <c:axId val="69297432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2055,7 +2049,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536636344"/>
+        <c:crossAx val="541458712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3076,11 +3070,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="475233256"/>
-        <c:axId val="541021384"/>
+        <c:axId val="541220328"/>
+        <c:axId val="541223400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="475233256"/>
+        <c:axId val="541220328"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1.0"/>
@@ -3089,12 +3083,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541021384"/>
+        <c:crossAx val="541223400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="541021384"/>
+        <c:axId val="541223400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3102,7 +3096,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475233256"/>
+        <c:crossAx val="541220328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3461,11 +3455,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="536507784"/>
-        <c:axId val="536184344"/>
+        <c:axId val="541896872"/>
+        <c:axId val="541899944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="536507784"/>
+        <c:axId val="541896872"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1.0"/>
@@ -3474,12 +3468,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536184344"/>
+        <c:crossAx val="541899944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="536184344"/>
+        <c:axId val="541899944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3487,7 +3481,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536507784"/>
+        <c:crossAx val="541896872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3923,10 +3917,10 @@
   <dimension ref="A1:AQ114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3960,144 +3954,144 @@
   <sheetData>
     <row r="1" spans="1:43" s="29" customFormat="1">
       <c r="A1" s="30" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="29" customFormat="1">
       <c r="A2" s="30" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:43" s="29" customFormat="1"/>
     <row r="4" spans="1:43">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" t="s">
+        <v>182</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R4" t="s">
+        <v>119</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="W4" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="X4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF4" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI4" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ4" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN4" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO4" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ4" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>206</v>
-      </c>
-      <c r="I4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" t="s">
-        <v>179</v>
-      </c>
-      <c r="O4" t="s">
-        <v>181</v>
-      </c>
-      <c r="P4" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE4" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF4" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI4" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ4" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK4" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AN4" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO4" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP4" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ4" s="29" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -4105,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C5" s="5">
         <v>2007</v>
@@ -4114,7 +4108,7 @@
         <v>2011</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>2009</v>
@@ -4232,7 +4226,7 @@
         <v>CCGT</v>
       </c>
       <c r="AQ5" s="29" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -4383,7 +4377,7 @@
         <v>CCGT_Cogen</v>
       </c>
       <c r="AQ6" s="29" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -4391,7 +4385,7 @@
         <v>110</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="C7" s="5">
         <v>2007</v>
@@ -4400,7 +4394,7 @@
         <v>2016</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="L7">
         <f>0.75*L8</f>
@@ -4505,7 +4499,7 @@
         <v>CCGT_Cogen_CCS</v>
       </c>
       <c r="AQ7" s="29" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:43" s="25" customFormat="1">
@@ -4513,7 +4507,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C8" s="25">
         <v>2007</v>
@@ -4522,7 +4516,7 @@
         <v>2016</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F8" s="25">
         <v>2010</v>
@@ -4650,7 +4644,7 @@
         <v>CCGT_CCS</v>
       </c>
       <c r="AQ8" s="29" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:43" s="5" customFormat="1">
@@ -4658,7 +4652,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C9" s="29">
         <v>2007</v>
@@ -4787,7 +4781,7 @@
         <v>CCGT_EP</v>
       </c>
       <c r="AQ9" s="29" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:43" s="19" customFormat="1">
@@ -4795,7 +4789,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="C10" s="29">
         <v>2007</v>
@@ -4940,7 +4934,7 @@
         <v>CCGT_Cogen_EP</v>
       </c>
       <c r="AQ10" s="29" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -4948,7 +4942,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C11" s="5">
         <v>2007</v>
@@ -4957,7 +4951,7 @@
         <v>2011</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>2009</v>
@@ -5075,7 +5069,7 @@
         <v>Gas_Combustion_Turbine</v>
       </c>
       <c r="AQ11" s="29" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -5225,7 +5219,7 @@
         <v>Gas_Combustion_Turbine_Cogen</v>
       </c>
       <c r="AQ12" s="29" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -5233,7 +5227,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
@@ -5242,7 +5236,7 @@
         <v>2016</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="L13">
         <f>0.75*L14</f>
@@ -5346,7 +5340,7 @@
         <v>Gas_Combustion_Turbine_Cogen_CCS</v>
       </c>
       <c r="AQ13" s="29" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:43" s="25" customFormat="1">
@@ -5354,7 +5348,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C14" s="25">
         <v>2007</v>
@@ -5363,7 +5357,7 @@
         <v>2016</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="L14" s="29">
         <f>L11+(L8-L5)</f>
@@ -5475,7 +5469,7 @@
         <v>Gas_Combustion_Turbine_CCS</v>
       </c>
       <c r="AQ14" s="29" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:43" s="18" customFormat="1">
@@ -5483,7 +5477,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C15" s="18">
         <v>2007</v>
@@ -5617,7 +5611,7 @@
         <v>Gas_Combustion_Turbine_EP</v>
       </c>
       <c r="AQ15" s="46" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:43" s="19" customFormat="1">
@@ -5625,7 +5619,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="C16" s="29">
         <v>2007</v>
@@ -5635,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F16" s="19">
         <f>F15</f>
@@ -5770,7 +5764,7 @@
         <v>Gas_Combustion_Turbine_Cogen_EP</v>
       </c>
       <c r="AQ16" s="29" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -5909,7 +5903,7 @@
         <v>Gas_Internal_Combustion_Engine_Cogen</v>
       </c>
       <c r="AQ17" s="29" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:43" s="29" customFormat="1">
@@ -5917,7 +5911,7 @@
         <v>112</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="C18" s="29">
         <v>2007</v>
@@ -5926,7 +5920,7 @@
         <v>2016</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="L18" s="29">
         <f>L13</f>
@@ -6045,7 +6039,7 @@
         <v>Gas_Internal_Combustion_Engine_Cogen_CCS</v>
       </c>
       <c r="AQ18" s="29" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:43" s="29" customFormat="1">
@@ -6053,7 +6047,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="C19" s="29">
         <v>2007</v>
@@ -6200,7 +6194,7 @@
         <v>Gas_Internal_Combustion_Engine_EP</v>
       </c>
       <c r="AQ19" s="29" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:43" s="29" customFormat="1">
@@ -6208,7 +6202,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="C20" s="29">
         <v>2007</v>
@@ -6353,7 +6347,7 @@
         <v>Gas_Internal_Combustion_Engine_Cogen_EP</v>
       </c>
       <c r="AQ20" s="29" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -6512,7 +6506,7 @@
         <v>113</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5">
         <v>2007</v>
@@ -6521,7 +6515,7 @@
         <v>2016</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="L22" s="29">
         <f>0.75*(L23+(L8-L5))</f>
@@ -6635,7 +6629,7 @@
         <v>Gas_Steam_Turbine_Cogen_CCS</v>
       </c>
       <c r="AQ22" s="29" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:43" s="5" customFormat="1">
@@ -6643,7 +6637,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="C23" s="29">
         <v>2007</v>
@@ -6652,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="F23" s="29">
         <v>2007</v>
@@ -6770,7 +6764,7 @@
         <v>Gas_Steam_Turbine_EP</v>
       </c>
       <c r="AQ23" s="29" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:43" s="19" customFormat="1">
@@ -6778,7 +6772,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C24" s="29">
         <v>2007</v>
@@ -6924,7 +6918,7 @@
         <v>Gas_Steam_Turbine_Cogen_EP</v>
       </c>
       <c r="AQ24" s="29" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -6932,7 +6926,7 @@
         <v>60</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="C25" s="24">
         <f>C15</f>
@@ -6943,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="F25" s="24">
         <f t="shared" ref="F25:K25" si="33">F15</f>
@@ -7091,7 +7085,7 @@
         <v>DistillateFuelOil_Combustion_Turbine_EP</v>
       </c>
       <c r="AQ25" s="29" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -7099,7 +7093,7 @@
         <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="C26" s="29">
         <f>C19</f>
@@ -7110,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ref="F26:K26" si="35">F19</f>
@@ -7258,7 +7252,7 @@
         <v>DistillateFuelOil_Internal_Combustion_Engine_EP</v>
       </c>
       <c r="AQ26" s="29" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -7266,7 +7260,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5">
         <v>2007</v>
@@ -7275,7 +7269,7 @@
         <v>2011</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F27">
         <v>2007</v>
@@ -7393,7 +7387,7 @@
         <v>Bio_Gas</v>
       </c>
       <c r="AQ27" s="29" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:43" s="25" customFormat="1">
@@ -7401,7 +7395,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C28" s="25">
         <v>2007</v>
@@ -7410,7 +7404,7 @@
         <v>2016</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="I28" s="26"/>
       <c r="L28" s="29">
@@ -7513,7 +7507,7 @@
         <v>Bio_Gas_CCS</v>
       </c>
       <c r="AQ28" s="29" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -7661,7 +7655,7 @@
         <v>114</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>3</v>
+        <v>193</v>
       </c>
       <c r="C30" s="5">
         <v>2007</v>
@@ -7670,7 +7664,7 @@
         <v>2016</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="L30">
         <f>0.75*L28</f>
@@ -7788,7 +7782,7 @@
         <v>Bio_Gas_Internal_Combustion_Engine_Cogen_CCS</v>
       </c>
       <c r="AQ30" s="29" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:43" s="29" customFormat="1">
@@ -7796,7 +7790,7 @@
         <v>80</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="C31" s="24">
         <f t="shared" ref="C31:K31" si="40">C27</f>
@@ -7952,7 +7946,7 @@
         <v>Bio_Gas_Internal_Combustion_Engine_EP</v>
       </c>
       <c r="AQ31" s="24" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:43" s="29" customFormat="1">
@@ -7960,7 +7954,7 @@
         <v>81</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="C32" s="29">
         <f>C31</f>
@@ -8118,7 +8112,7 @@
         <v>Bio_Gas_Internal_Combustion_Engine_Cogen_EP</v>
       </c>
       <c r="AQ32" s="29" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:43" s="29" customFormat="1">
@@ -8126,7 +8120,7 @@
         <v>82</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="C33" s="29">
         <f>C23</f>
@@ -8260,7 +8254,7 @@
         <v>Bio_Gas_Steam_Turbine_EP</v>
       </c>
       <c r="AQ33" s="29" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:43">
@@ -8408,7 +8402,7 @@
         <v>115</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="C35" s="5">
         <v>2007</v>
@@ -8417,7 +8411,7 @@
         <v>2016</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="L35">
         <f>L41</f>
@@ -8536,7 +8530,7 @@
         <v>Bio_Liquid_Steam_Turbine_Cogen_CCS</v>
       </c>
       <c r="AQ35" s="29" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:43">
@@ -8544,7 +8538,7 @@
         <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C36" s="5">
         <f>C33</f>
@@ -8555,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
@@ -8684,7 +8678,7 @@
         <v>Bio_Liquid_Steam_Turbine_Cogen_EP</v>
       </c>
       <c r="AQ36" s="29" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:43">
@@ -8692,16 +8686,16 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C37" s="5">
         <v>2007</v>
       </c>
       <c r="D37" s="5">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="F37">
         <v>2009</v>
@@ -8819,7 +8813,7 @@
         <v>Biomass_IGCC</v>
       </c>
       <c r="AQ37" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:43" s="25" customFormat="1">
@@ -8827,7 +8821,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C38" s="25">
         <v>2007</v>
@@ -8836,7 +8830,7 @@
         <v>2016</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="I38" s="26"/>
       <c r="K38" s="26"/>
@@ -8941,7 +8935,7 @@
         <v>Biomass_IGCC_CCS</v>
       </c>
       <c r="AQ38" s="29" t="s">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -8949,7 +8943,7 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C39" s="5">
         <v>2007</v>
@@ -8958,7 +8952,7 @@
         <v>2011</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="F39">
         <v>2009</v>
@@ -9076,7 +9070,7 @@
         <v>Biomass_Steam_Turbine</v>
       </c>
       <c r="AQ39" s="29" t="s">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:43">
@@ -9224,7 +9218,7 @@
         <v>116</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="C41" s="5">
         <v>2007</v>
@@ -9233,7 +9227,7 @@
         <v>2016</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="L41">
         <f>L40+(L47-L46)</f>
@@ -9351,7 +9345,7 @@
         <v>Bio_Solid_Steam_Turbine_Cogen_CCS</v>
       </c>
       <c r="AQ41" s="29" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:43">
@@ -9359,7 +9353,7 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C42" s="29">
         <f>C33</f>
@@ -9370,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
@@ -9499,7 +9493,7 @@
         <v>Bio_Solid_Steam_Turbine_EP</v>
       </c>
       <c r="AQ42" s="29" t="s">
-        <v>195</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:43">
@@ -9507,7 +9501,7 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C43" s="29">
         <f>C36</f>
@@ -9518,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
@@ -9648,7 +9642,7 @@
         <v>Bio_Solid_Steam_Turbine_Cogen_EP</v>
       </c>
       <c r="AQ43" s="29" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:43">
@@ -9656,7 +9650,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C44" s="5">
         <v>2007</v>
@@ -9665,7 +9659,7 @@
         <v>2011</v>
       </c>
       <c r="E44" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F44">
         <v>2010</v>
@@ -9783,7 +9777,7 @@
         <v>Coal_Steam_Turbine</v>
       </c>
       <c r="AQ44" s="29" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:43" s="25" customFormat="1">
@@ -9791,7 +9785,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C45" s="25">
         <v>2007</v>
@@ -9800,7 +9794,7 @@
         <v>2016</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="F45" s="25">
         <v>2010</v>
@@ -9929,7 +9923,7 @@
         <v>Coal_Steam_Turbine_CCS</v>
       </c>
       <c r="AQ45" s="29" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:43">
@@ -10079,7 +10073,7 @@
         <v>Coal_Steam_Turbine_Cogen</v>
       </c>
       <c r="AQ46" s="29" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:43">
@@ -10087,7 +10081,7 @@
         <v>117</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="C47" s="5">
         <v>2007</v>
@@ -10096,7 +10090,7 @@
         <v>2016</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L47">
         <f>0.75*L45</f>
@@ -10214,7 +10208,7 @@
         <v>Coal_Steam_Turbine_Cogen_CCS</v>
       </c>
       <c r="AQ47" s="29" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:43" s="5" customFormat="1">
@@ -10222,7 +10216,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C48">
         <v>2007</v>
@@ -10376,7 +10370,7 @@
         <v>30</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C49" s="29">
         <v>2007</v>
@@ -10522,7 +10516,7 @@
         <v>Coal_Steam_Turbine_Cogen_EP</v>
       </c>
       <c r="AQ49" s="29" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:43">
@@ -10530,7 +10524,7 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="C50" s="5">
         <v>2007</v>
@@ -10539,7 +10533,7 @@
         <v>2011</v>
       </c>
       <c r="E50" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F50">
         <v>2010</v>
@@ -10657,7 +10651,7 @@
         <v>Coal_IGCC</v>
       </c>
       <c r="AQ50" s="29" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:43" s="25" customFormat="1">
@@ -10665,7 +10659,7 @@
         <v>38</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C51" s="25">
         <v>2007</v>
@@ -10674,7 +10668,7 @@
         <v>2016</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="F51" s="25">
         <v>2010</v>
@@ -10802,7 +10796,7 @@
         <v>Coal_IGCC_CCS</v>
       </c>
       <c r="AQ51" s="29" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:43">
@@ -10810,7 +10804,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="C52" s="5">
         <v>2007</v>
@@ -10819,7 +10813,7 @@
         <v>2011</v>
       </c>
       <c r="E52" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="F52">
         <v>2009</v>
@@ -10937,7 +10931,7 @@
         <v>Nuclear</v>
       </c>
       <c r="AQ52" s="29" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:43" s="5" customFormat="1">
@@ -10945,7 +10939,7 @@
         <v>22</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="C53" s="29">
         <v>2007</v>
@@ -11090,7 +11084,7 @@
         <v>Nuclear_EP</v>
       </c>
       <c r="AQ53" s="29" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -11098,7 +11092,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="C54" s="5">
         <v>2007</v>
@@ -11107,7 +11101,7 @@
         <v>2011</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="F54">
         <v>2009</v>
@@ -11225,7 +11219,7 @@
         <v>Geothermal</v>
       </c>
       <c r="AQ54" s="29" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:43" s="5" customFormat="1">
@@ -11233,7 +11227,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="C55" s="29">
         <v>2007</v>
@@ -11242,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="F55" s="29">
         <v>2009</v>
@@ -11361,7 +11355,7 @@
         <v>Geothermal_EP</v>
       </c>
       <c r="AQ55" s="29" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -11369,7 +11363,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="C56" s="5">
         <v>2007</v>
@@ -11378,7 +11372,7 @@
         <v>2011</v>
       </c>
       <c r="E56" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F56">
         <v>2009</v>
@@ -11497,7 +11491,7 @@
         <v>Residential_PV</v>
       </c>
       <c r="AQ56" s="29" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:43" s="8" customFormat="1">
@@ -11505,7 +11499,7 @@
         <v>25</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="C57" s="8">
         <v>2007</v>
@@ -11514,7 +11508,7 @@
         <v>2011</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F57" s="8">
         <v>2009</v>
@@ -11632,7 +11626,7 @@
         <v>Commercial_PV</v>
       </c>
       <c r="AQ57" s="29" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:43" s="8" customFormat="1">
@@ -11640,7 +11634,7 @@
         <v>26</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="C58" s="8">
         <v>2007</v>
@@ -11649,7 +11643,7 @@
         <v>2011</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F58" s="8">
         <v>2009</v>
@@ -11767,7 +11761,7 @@
         <v>Central_PV</v>
       </c>
       <c r="AQ58" s="29" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:43" s="21" customFormat="1">
@@ -11775,7 +11769,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="C59" s="21">
         <v>2007</v>
@@ -11784,7 +11778,7 @@
         <v>2011</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="F59" s="21">
         <v>2010</v>
@@ -11903,7 +11897,7 @@
         <v>Concentrating_PV</v>
       </c>
       <c r="AQ59" s="21" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:43" s="5" customFormat="1">
@@ -11911,7 +11905,7 @@
         <v>27</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="C60" s="5">
         <v>2007</v>
@@ -11920,7 +11914,7 @@
         <v>2011</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F60" s="5">
         <v>2009</v>
@@ -12038,7 +12032,7 @@
         <v>CSP_Trough_No_Storage</v>
       </c>
       <c r="AQ60" s="29" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:43" s="11" customFormat="1">
@@ -12046,7 +12040,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="C61" s="11">
         <v>2007</v>
@@ -12055,7 +12049,7 @@
         <v>2012</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F61" s="11">
         <v>2009</v>
@@ -12174,7 +12168,7 @@
         <v>CSP_Trough_6h_Storage</v>
       </c>
       <c r="AQ61" s="29" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -12182,7 +12176,7 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="C62" s="5">
         <v>2007</v>
@@ -12191,7 +12185,7 @@
         <v>2011</v>
       </c>
       <c r="E62" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="F62">
         <v>2009</v>
@@ -12309,7 +12303,7 @@
         <v>Offshore_Wind</v>
       </c>
       <c r="AQ62" s="29" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:43">
@@ -12317,7 +12311,7 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="C63" s="5">
         <v>2007</v>
@@ -12326,7 +12320,7 @@
         <v>2011</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="F63">
         <v>2009</v>
@@ -12444,7 +12438,7 @@
         <v>Wind</v>
       </c>
       <c r="AQ63" s="29" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:43" s="18" customFormat="1">
@@ -12452,7 +12446,7 @@
         <v>23</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C64" s="29">
         <v>2007</v>
@@ -12596,7 +12590,7 @@
         <v>Wind_EP</v>
       </c>
       <c r="AQ64" s="29" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:43">
@@ -12604,7 +12598,7 @@
         <v>15</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C65" s="5">
         <v>2007</v>
@@ -12613,7 +12607,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="F65" s="5">
         <v>2010</v>
@@ -12731,7 +12725,7 @@
         <v>Hydro_NonPumped</v>
       </c>
       <c r="AQ65" s="29" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:43">
@@ -12739,7 +12733,7 @@
         <v>16</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C66" s="5">
         <v>2007</v>
@@ -12748,7 +12742,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="F66" s="29">
         <v>2010</v>
@@ -12866,7 +12860,7 @@
         <v>Hydro_Pumped</v>
       </c>
       <c r="AQ66" s="29" t="s">
-        <v>6</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:43" s="9" customFormat="1" ht="15" customHeight="1">
@@ -12874,7 +12868,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="C67" s="9">
         <v>2007</v>
@@ -12883,7 +12877,7 @@
         <v>2011</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="F67" s="9">
         <v>2010</v>
@@ -13001,7 +12995,7 @@
         <v>Compressed_Air_Energy_Storage</v>
       </c>
       <c r="AQ67" s="28" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:43" s="22" customFormat="1">
@@ -13009,7 +13003,7 @@
         <v>33</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="C68" s="32">
         <v>2007</v>
@@ -13018,7 +13012,7 @@
         <v>2011</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="F68" s="32">
         <v>2004</v>
@@ -13136,7 +13130,7 @@
         <v>Battery_Storage</v>
       </c>
       <c r="AQ68" s="32" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:43">
@@ -18090,7 +18084,7 @@
       </c>
       <c r="D34" s="29">
         <f>generator_costs!D37</f>
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="E34" s="29" t="str">
         <f>generator_costs!E37</f>
@@ -22770,7 +22764,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -22781,7 +22775,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>2010</v>
@@ -22799,7 +22793,7 @@
         <v>2026</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -24505,15 +24499,15 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="21" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="21" customFormat="1">
@@ -24541,7 +24535,7 @@
         <v>3.3</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E5" s="21"/>
     </row>
@@ -24725,25 +24719,25 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="33" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -24763,7 +24757,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="35" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="B3" s="35">
         <v>1.788</v>
@@ -24792,7 +24786,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="37" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="B4" s="35">
         <v>1.276</v>
@@ -24820,7 +24814,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="37" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="B5" s="35">
         <v>1.504</v>
@@ -24846,74 +24840,74 @@
         <v>8.6999999999999744E-2</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="34" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="37" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="35" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="C12" s="35" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="37" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:11">
